--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="766">
   <si>
     <t>ID</t>
   </si>
@@ -2311,6 +2311,21 @@
   </si>
   <si>
     <t>Double-blind study</t>
+  </si>
+  <si>
+    <t>Report; IAO:0000088</t>
+  </si>
+  <si>
+    <t>A report that provides information about a publication author's interests that could influence how readers understand the publication.</t>
+  </si>
+  <si>
+    <t>The time frame for this reporting is that of the work itself, from the initial conception and planning to the present. The requested information is about resources that the author received, either directly or indirectly (via their institution), to enable them to complete the work. This is not present if the author did the work without receiving any financial support from any third party -- that is, the work was supported by funds from the same institution that pays the person's salary and that institution did not receive third-party funds with which to pay them. If the author or their institution received funds from a third party to support the work, such as a government granting agency, charitable foundation or commercial sponsor, there is a competing interest</t>
+  </si>
+  <si>
+    <t>Potential conflict of interest</t>
+  </si>
+  <si>
+    <t>Disclosure of potential conflict of interest</t>
   </si>
 </sst>
 </file>
@@ -2837,11 +2852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S548"/>
+  <dimension ref="A1:S546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G521" sqref="G521"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B525" sqref="B525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,7 +2870,7 @@
     <col min="7" max="7" width="35.42578125" style="12" customWidth="1"/>
     <col min="8" max="8" width="48.28515625" style="12" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="82.28515625" style="12" customWidth="1"/>
     <col min="11" max="11" width="44.140625" style="12" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="12"/>
     <col min="13" max="13" width="18.42578125" style="12" customWidth="1"/>
@@ -10682,27 +10697,33 @@
       </c>
       <c r="S523" s="13"/>
     </row>
-    <row r="524" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B524" s="14"/>
+    <row r="524" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B524" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C524" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="D524" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="E524" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="P524" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B525" s="14"/>
-      <c r="F525" s="12"/>
-      <c r="G525" s="12"/>
-      <c r="H525" s="14"/>
-      <c r="I525" s="12"/>
-      <c r="J525" s="12"/>
-      <c r="K525" s="12"/>
-      <c r="L525" s="12">
-        <v>1</v>
-      </c>
-      <c r="M525" s="12"/>
-      <c r="N525" s="12"/>
-      <c r="O525" s="12"/>
-      <c r="P525" s="12"/>
+    <row r="525" spans="1:19" s="11" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B525" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="J525" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="P525" s="11" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="526" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B526" s="14"/>
@@ -10712,9 +10733,19 @@
     </row>
     <row r="527" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B527" s="14"/>
-      <c r="P527" s="11" t="s">
-        <v>121</v>
-      </c>
+      <c r="D527" s="12"/>
+      <c r="E527" s="12"/>
+      <c r="F527" s="12"/>
+      <c r="G527" s="12"/>
+      <c r="H527" s="12"/>
+      <c r="I527" s="12"/>
+      <c r="J527" s="12"/>
+      <c r="K527" s="12"/>
+      <c r="L527" s="12"/>
+      <c r="M527" s="12"/>
+      <c r="N527" s="12"/>
+      <c r="O527" s="12"/>
+      <c r="P527" s="12"/>
     </row>
     <row r="528" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B528" s="14"/>
@@ -10724,6 +10755,7 @@
     </row>
     <row r="529" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B529" s="14"/>
+      <c r="C529" s="12"/>
       <c r="D529" s="12"/>
       <c r="E529" s="12"/>
       <c r="F529" s="12"/>
@@ -10740,47 +10772,30 @@
     </row>
     <row r="530" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B530" s="14"/>
-      <c r="P530" s="11" t="s">
-        <v>121</v>
-      </c>
+      <c r="C530" s="12"/>
+      <c r="D530" s="12"/>
+      <c r="E530" s="12"/>
+      <c r="F530" s="12"/>
+      <c r="G530" s="12"/>
+      <c r="H530" s="12"/>
+      <c r="I530" s="12"/>
+      <c r="J530" s="12"/>
+      <c r="K530" s="12"/>
+      <c r="L530" s="12"/>
+      <c r="M530" s="12"/>
+      <c r="N530" s="12"/>
+      <c r="O530" s="12"/>
+      <c r="P530" s="12"/>
     </row>
     <row r="531" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B531" s="14"/>
-      <c r="C531" s="12"/>
-      <c r="D531" s="12"/>
-      <c r="E531" s="12"/>
-      <c r="F531" s="12"/>
-      <c r="G531" s="12"/>
-      <c r="H531" s="12"/>
-      <c r="I531" s="12"/>
-      <c r="J531" s="12"/>
-      <c r="K531" s="12"/>
-      <c r="L531" s="12"/>
-      <c r="M531" s="12"/>
-      <c r="N531" s="12"/>
-      <c r="O531" s="12"/>
-      <c r="P531" s="12"/>
+      <c r="Q531" s="12"/>
     </row>
     <row r="532" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B532" s="14"/>
-      <c r="C532" s="12"/>
-      <c r="D532" s="12"/>
-      <c r="E532" s="12"/>
-      <c r="F532" s="12"/>
-      <c r="G532" s="12"/>
-      <c r="H532" s="12"/>
-      <c r="I532" s="12"/>
-      <c r="J532" s="12"/>
-      <c r="K532" s="12"/>
-      <c r="L532" s="12"/>
-      <c r="M532" s="12"/>
-      <c r="N532" s="12"/>
-      <c r="O532" s="12"/>
-      <c r="P532" s="12"/>
     </row>
     <row r="533" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B533" s="14"/>
-      <c r="Q533" s="12"/>
     </row>
     <row r="534" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B534" s="14"/>
@@ -10801,21 +10816,51 @@
       <c r="B539" s="14"/>
     </row>
     <row r="540" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="14"/>
       <c r="B540" s="14"/>
+      <c r="R540" s="12"/>
     </row>
     <row r="541" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B541" s="14"/>
+      <c r="Q541" s="12"/>
     </row>
     <row r="542" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="14"/>
       <c r="B542" s="14"/>
-      <c r="R542" s="12"/>
+      <c r="C542" s="12"/>
+      <c r="D542" s="12"/>
+      <c r="E542" s="12"/>
+      <c r="F542" s="12"/>
+      <c r="G542" s="12"/>
+      <c r="H542" s="12"/>
+      <c r="I542" s="12"/>
+      <c r="J542" s="12"/>
+      <c r="K542" s="12"/>
+      <c r="L542" s="12"/>
+      <c r="M542" s="12"/>
+      <c r="N542" s="12"/>
+      <c r="O542" s="12"/>
+      <c r="P542" s="12"/>
     </row>
     <row r="543" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B543" s="14"/>
+      <c r="C543" s="12"/>
+      <c r="D543" s="12"/>
+      <c r="E543" s="12"/>
+      <c r="F543" s="12"/>
+      <c r="G543" s="12"/>
+      <c r="H543" s="12"/>
+      <c r="I543" s="12"/>
+      <c r="J543" s="12"/>
+      <c r="K543" s="12"/>
+      <c r="L543" s="12"/>
+      <c r="M543" s="12"/>
+      <c r="N543" s="12"/>
+      <c r="O543" s="12"/>
+      <c r="P543" s="12"/>
       <c r="Q543" s="12"/>
     </row>
     <row r="544" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="12"/>
       <c r="B544" s="14"/>
       <c r="C544" s="12"/>
       <c r="D544" s="12"/>
@@ -10831,8 +10876,10 @@
       <c r="N544" s="12"/>
       <c r="O544" s="12"/>
       <c r="P544" s="12"/>
-    </row>
-    <row r="545" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q544" s="12"/>
+      <c r="R544" s="12"/>
+    </row>
+    <row r="545" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B545" s="14"/>
       <c r="C545" s="12"/>
       <c r="D545" s="12"/>
@@ -10850,46 +10897,8 @@
       <c r="P545" s="12"/>
       <c r="Q545" s="12"/>
     </row>
-    <row r="546" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="12"/>
+    <row r="546" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B546" s="14"/>
-      <c r="C546" s="12"/>
-      <c r="D546" s="12"/>
-      <c r="E546" s="12"/>
-      <c r="F546" s="12"/>
-      <c r="G546" s="12"/>
-      <c r="H546" s="12"/>
-      <c r="I546" s="12"/>
-      <c r="J546" s="12"/>
-      <c r="K546" s="12"/>
-      <c r="L546" s="12"/>
-      <c r="M546" s="12"/>
-      <c r="N546" s="12"/>
-      <c r="O546" s="12"/>
-      <c r="P546" s="12"/>
-      <c r="Q546" s="12"/>
-      <c r="R546" s="12"/>
-    </row>
-    <row r="547" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B547" s="14"/>
-      <c r="C547" s="12"/>
-      <c r="D547" s="12"/>
-      <c r="E547" s="12"/>
-      <c r="F547" s="12"/>
-      <c r="G547" s="12"/>
-      <c r="H547" s="12"/>
-      <c r="I547" s="12"/>
-      <c r="J547" s="12"/>
-      <c r="K547" s="12"/>
-      <c r="L547" s="12"/>
-      <c r="M547" s="12"/>
-      <c r="N547" s="12"/>
-      <c r="O547" s="12"/>
-      <c r="P547" s="12"/>
-      <c r="Q547" s="12"/>
-    </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B548" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:S2822">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\User3\Work\Github\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="19430" windowHeight="10430"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="780">
   <si>
     <t>ID</t>
   </si>
@@ -2316,23 +2316,65 @@
     <t>Report; IAO:0000088</t>
   </si>
   <si>
-    <t>A report that provides information about a publication author's interests that could influence how readers understand the publication.</t>
-  </si>
-  <si>
     <t>The time frame for this reporting is that of the work itself, from the initial conception and planning to the present. The requested information is about resources that the author received, either directly or indirectly (via their institution), to enable them to complete the work. This is not present if the author did the work without receiving any financial support from any third party -- that is, the work was supported by funds from the same institution that pays the person's salary and that institution did not receive third-party funds with which to pay them. If the author or their institution received funds from a third party to support the work, such as a government granting agency, charitable foundation or commercial sponsor, there is a competing interest</t>
   </si>
   <si>
-    <t>Potential conflict of interest</t>
-  </si>
-  <si>
-    <t>Disclosure of potential conflict of interest</t>
+    <t>A publication attribute that is the year in which it was published</t>
+  </si>
+  <si>
+    <t>Publication attribute</t>
+  </si>
+  <si>
+    <t>Competing interest</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosbiology/s/competing-interests</t>
+  </si>
+  <si>
+    <t>Researcher attribute</t>
+  </si>
+  <si>
+    <t>An attribute of a researcher that interferes with, or could reasonably be perceived as interfering with, the full and objective enactment of the researcher's role.</t>
+  </si>
+  <si>
+    <t>The definition was adapted from the PLOS definition.</t>
+  </si>
+  <si>
+    <t>Disclosure of potential competing interest</t>
+  </si>
+  <si>
+    <t>Potential competing interest</t>
+  </si>
+  <si>
+    <t>A report that provides information about a researcher's potential competing interest.</t>
+  </si>
+  <si>
+    <t>An attribute of a researcher that could potentially result in a competing interest.</t>
+  </si>
+  <si>
+    <t>Specifically dependent continuant</t>
+  </si>
+  <si>
+    <t>Good practice involves being as inclusive as possible to ensure full transparency and include both financial and non-financial factors that might conceivably influence the conduct, reporting or evaluation of research whether or not it actually does so.</t>
+  </si>
+  <si>
+    <t>A potential competing interest that involves the potential for either personal financial gain or loss resulting from enactment of the researcher's role.</t>
+  </si>
+  <si>
+    <t>Financial potential competing interest</t>
+  </si>
+  <si>
+    <t>This includes: 1) financial potential competing interest as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to organisations that may be affected by, and 6) being a member of a lobbying group or pressure group relating to, the reported outcome of the research.</t>
+  </si>
+  <si>
+    <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organsation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the reported outcome of the research. It also includes all of the above that relate to an intimate partner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2425,6 +2467,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2447,7 +2510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2516,6 +2579,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2554,7 +2629,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,34 +2930,36 @@
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B525" sqref="B525"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H523" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J527" sqref="J527"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="82.28515625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="12"/>
-    <col min="13" max="13" width="18.42578125" style="12" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="12"/>
-    <col min="16" max="16" width="13.42578125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="37.140625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="48.7109375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="12"/>
+    <col min="7" max="7" width="35.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="48.26953125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="82.26953125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="44.1796875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="12"/>
+    <col min="13" max="13" width="18.453125" style="12" customWidth="1"/>
+    <col min="14" max="15" width="9.1796875" style="12"/>
+    <col min="16" max="16" width="13.453125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="37.1796875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="48.7265625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="24.7265625" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2938,7 +3015,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
         <v>171</v>
@@ -2973,7 +3050,7 @@
       <c r="R2" s="19"/>
       <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
         <v>172</v>
@@ -3008,7 +3085,7 @@
       <c r="R3" s="19"/>
       <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
         <v>125</v>
@@ -3051,7 +3128,7 @@
       </c>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
         <v>173</v>
@@ -3086,7 +3163,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>174</v>
@@ -3123,7 +3200,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>178</v>
       </c>
@@ -3149,7 +3226,7 @@
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>179</v>
       </c>
@@ -3175,7 +3252,7 @@
       </c>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>180</v>
       </c>
@@ -3201,7 +3278,7 @@
       </c>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
         <v>181</v>
       </c>
@@ -3227,7 +3304,7 @@
       </c>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>182</v>
       </c>
@@ -3253,7 +3330,7 @@
       </c>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>131</v>
       </c>
@@ -3279,7 +3356,7 @@
       </c>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>186</v>
       </c>
@@ -3315,7 +3392,7 @@
       </c>
       <c r="S13" s="13"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
         <v>371</v>
       </c>
@@ -3341,7 +3418,7 @@
       </c>
       <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
         <v>379</v>
       </c>
@@ -3367,7 +3444,7 @@
       </c>
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
         <v>380</v>
       </c>
@@ -3393,7 +3470,7 @@
       </c>
       <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="11" t="s">
         <v>382</v>
@@ -3421,7 +3498,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="11" t="s">
         <v>383</v>
@@ -3449,7 +3526,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
@@ -3486,7 +3563,7 @@
       </c>
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>749</v>
       </c>
@@ -3517,7 +3594,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="18"/>
     </row>
-    <row r="21" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
         <v>408</v>
       </c>
@@ -3543,7 +3620,7 @@
       </c>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
         <v>134</v>
       </c>
@@ -3570,7 +3647,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="13" t="s">
         <v>135</v>
       </c>
@@ -3595,7 +3672,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
         <v>196</v>
       </c>
@@ -3622,7 +3699,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
         <v>197</v>
       </c>
@@ -3648,7 +3725,7 @@
       </c>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>137</v>
       </c>
@@ -3673,7 +3750,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
         <v>198</v>
       </c>
@@ -3710,7 +3787,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>204</v>
       </c>
@@ -3736,7 +3813,7 @@
       </c>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
         <v>205</v>
       </c>
@@ -3762,7 +3839,7 @@
       </c>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
         <v>206</v>
@@ -3790,7 +3867,7 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
         <v>207</v>
@@ -3817,7 +3894,7 @@
       </c>
       <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>138</v>
@@ -3844,7 +3921,7 @@
       </c>
       <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
         <v>208</v>
       </c>
@@ -3869,7 +3946,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
         <v>209</v>
@@ -3896,7 +3973,7 @@
       </c>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B35" s="13" t="s">
         <v>210</v>
       </c>
@@ -3931,7 +4008,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>211</v>
@@ -3958,7 +4035,7 @@
       </c>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="13" t="s">
         <v>212</v>
       </c>
@@ -3983,7 +4060,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
         <v>213</v>
@@ -4010,7 +4087,7 @@
       </c>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>214</v>
       </c>
@@ -4036,7 +4113,7 @@
       </c>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="13" t="s">
         <v>215</v>
       </c>
@@ -4061,7 +4138,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="13" t="s">
         <v>216</v>
       </c>
@@ -4086,7 +4163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="13" t="s">
         <v>217</v>
       </c>
@@ -4111,7 +4188,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="13" t="s">
         <v>218</v>
       </c>
@@ -4136,7 +4213,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="13" t="s">
         <v>219</v>
       </c>
@@ -4161,7 +4238,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="13" t="s">
         <v>220</v>
       </c>
@@ -4187,7 +4264,7 @@
       </c>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="13" t="s">
         <v>221</v>
       </c>
@@ -4212,7 +4289,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
       <c r="B47" s="13" t="s">
         <v>222</v>
@@ -4239,7 +4316,7 @@
       </c>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="13" t="s">
         <v>223</v>
@@ -4266,7 +4343,7 @@
       </c>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="s">
         <v>224</v>
@@ -4293,7 +4370,7 @@
       </c>
       <c r="R49" s="14"/>
     </row>
-    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="13" t="s">
         <v>225</v>
@@ -4320,7 +4397,7 @@
       </c>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
         <v>226</v>
@@ -4347,7 +4424,7 @@
       </c>
       <c r="R51" s="14"/>
     </row>
-    <row r="52" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B52" s="13" t="s">
         <v>139</v>
       </c>
@@ -4372,7 +4449,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B53" s="13" t="s">
         <v>140</v>
       </c>
@@ -4397,7 +4474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="13" t="s">
         <v>227</v>
       </c>
@@ -4422,7 +4499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
         <v>228</v>
@@ -4449,7 +4526,7 @@
       </c>
       <c r="R55" s="14"/>
     </row>
-    <row r="56" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="13" t="s">
         <v>141</v>
       </c>
@@ -4474,7 +4551,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B57" s="13" t="s">
         <v>142</v>
       </c>
@@ -4499,7 +4576,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="13" t="s">
         <v>143</v>
       </c>
@@ -4524,7 +4601,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B59" s="13" t="s">
         <v>144</v>
       </c>
@@ -4553,7 +4630,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="13"/>
       <c r="B60" s="13" t="s">
         <v>146</v>
@@ -4582,7 +4659,7 @@
       </c>
       <c r="R60" s="14"/>
     </row>
-    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="13" t="s">
         <v>148</v>
       </c>
@@ -4607,7 +4684,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
         <v>149</v>
       </c>
@@ -4632,7 +4709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B63" s="13" t="s">
         <v>150</v>
       </c>
@@ -4668,7 +4745,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="11" t="s">
         <v>751</v>
       </c>
@@ -4691,7 +4768,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="13" t="s">
         <v>229</v>
       </c>
@@ -4716,7 +4793,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="13" t="s">
         <v>230</v>
       </c>
@@ -4741,7 +4818,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B67" s="13" t="s">
         <v>151</v>
       </c>
@@ -4772,7 +4849,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B68" s="13" t="s">
         <v>155</v>
       </c>
@@ -4805,7 +4882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B69" s="13" t="s">
         <v>160</v>
       </c>
@@ -4836,7 +4913,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>231</v>
@@ -4863,7 +4940,7 @@
       </c>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="13" t="s">
         <v>232</v>
       </c>
@@ -4888,7 +4965,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="13" t="s">
         <v>233</v>
       </c>
@@ -4913,7 +4990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
         <v>164</v>
@@ -4940,7 +5017,7 @@
       </c>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B74" s="11" t="s">
         <v>127</v>
       </c>
@@ -4963,7 +5040,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="13" t="s">
         <v>165</v>
       </c>
@@ -4988,7 +5065,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B76" s="13" t="s">
         <v>166</v>
       </c>
@@ -5013,7 +5090,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="13" t="s">
         <v>167</v>
       </c>
@@ -5038,7 +5115,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="13" t="s">
         <v>741</v>
       </c>
@@ -5070,7 +5147,7 @@
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="13" t="s">
         <v>168</v>
       </c>
@@ -5095,7 +5172,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B80" s="13" t="s">
         <v>169</v>
       </c>
@@ -5120,7 +5197,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B81" s="13" t="s">
         <v>743</v>
       </c>
@@ -5156,7 +5233,7 @@
       </c>
       <c r="Q81" s="13"/>
     </row>
-    <row r="82" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B82" s="13" t="s">
         <v>234</v>
       </c>
@@ -5181,7 +5258,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B83" s="13" t="s">
         <v>170</v>
       </c>
@@ -5206,7 +5283,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="13"/>
       <c r="B84" s="11" t="s">
         <v>316</v>
@@ -5230,7 +5307,7 @@
       <c r="R84" s="14"/>
       <c r="S84" s="12"/>
     </row>
-    <row r="85" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="13"/>
       <c r="B85" s="11" t="s">
         <v>320</v>
@@ -5257,7 +5334,7 @@
       <c r="R85" s="14"/>
       <c r="S85" s="12"/>
     </row>
-    <row r="86" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="13"/>
       <c r="B86" s="11" t="s">
         <v>236</v>
@@ -5278,7 +5355,7 @@
       <c r="R86" s="14"/>
       <c r="S86" s="12"/>
     </row>
-    <row r="87" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B87" s="11" t="s">
         <v>313</v>
       </c>
@@ -5299,7 +5376,7 @@
       </c>
       <c r="S87" s="12"/>
     </row>
-    <row r="88" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A88" s="13"/>
       <c r="B88" s="11" t="s">
         <v>322</v>
@@ -5326,7 +5403,7 @@
       <c r="R88" s="14"/>
       <c r="S88" s="12"/>
     </row>
-    <row r="89" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13"/>
       <c r="B89" s="11" t="s">
         <v>238</v>
@@ -5343,7 +5420,7 @@
       <c r="R89" s="14"/>
       <c r="S89" s="12"/>
     </row>
-    <row r="90" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13"/>
       <c r="B90" s="11" t="s">
         <v>324</v>
@@ -5357,7 +5434,7 @@
       <c r="R90" s="14"/>
       <c r="S90" s="12"/>
     </row>
-    <row r="91" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="11" t="s">
         <v>325</v>
       </c>
@@ -5369,7 +5446,7 @@
       </c>
       <c r="S91" s="12"/>
     </row>
-    <row r="92" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13"/>
       <c r="B92" s="11" t="s">
         <v>326</v>
@@ -5383,7 +5460,7 @@
       <c r="R92" s="14"/>
       <c r="S92" s="12"/>
     </row>
-    <row r="93" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="11" t="s">
         <v>327</v>
       </c>
@@ -5395,7 +5472,7 @@
       </c>
       <c r="S93" s="12"/>
     </row>
-    <row r="94" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13"/>
       <c r="B94" s="11" t="s">
         <v>328</v>
@@ -5409,7 +5486,7 @@
       <c r="R94" s="14"/>
       <c r="S94" s="13"/>
     </row>
-    <row r="95" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="11" t="s">
         <v>329</v>
       </c>
@@ -5421,7 +5498,7 @@
       </c>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B96" s="11" t="s">
         <v>240</v>
       </c>
@@ -5439,7 +5516,7 @@
       </c>
       <c r="S96" s="13"/>
     </row>
-    <row r="97" spans="2:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B97" s="11" t="s">
         <v>242</v>
       </c>
@@ -5451,7 +5528,7 @@
       </c>
       <c r="S97" s="13"/>
     </row>
-    <row r="98" spans="2:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B98" s="11" t="s">
         <v>243</v>
       </c>
@@ -5475,7 +5552,7 @@
       </c>
       <c r="S98" s="13"/>
     </row>
-    <row r="99" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B99" s="11" t="s">
         <v>248</v>
       </c>
@@ -5490,7 +5567,7 @@
       </c>
       <c r="S99" s="13"/>
     </row>
-    <row r="100" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B100" s="11" t="s">
         <v>250</v>
       </c>
@@ -5502,7 +5579,7 @@
       </c>
       <c r="S100" s="13"/>
     </row>
-    <row r="101" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="12" t="s">
         <v>63</v>
       </c>
@@ -5530,7 +5607,7 @@
       <c r="P101" s="12"/>
       <c r="S101" s="13"/>
     </row>
-    <row r="102" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B102" s="11" t="s">
         <v>330</v>
       </c>
@@ -5542,7 +5619,7 @@
       </c>
       <c r="S102" s="13"/>
     </row>
-    <row r="103" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="11" t="s">
         <v>331</v>
       </c>
@@ -5554,7 +5631,7 @@
       </c>
       <c r="S103" s="13"/>
     </row>
-    <row r="104" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="11" t="s">
         <v>332</v>
       </c>
@@ -5566,7 +5643,7 @@
       </c>
       <c r="S104" s="13"/>
     </row>
-    <row r="105" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="11" t="s">
         <v>333</v>
       </c>
@@ -5579,7 +5656,7 @@
       <c r="Q105" s="12"/>
       <c r="S105" s="13"/>
     </row>
-    <row r="106" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="11" t="s">
         <v>334</v>
       </c>
@@ -5591,7 +5668,7 @@
       </c>
       <c r="S106" s="13"/>
     </row>
-    <row r="107" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B107" s="11" t="s">
         <v>335</v>
       </c>
@@ -5604,7 +5681,7 @@
       <c r="Q107" s="13"/>
       <c r="S107" s="13"/>
     </row>
-    <row r="108" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B108" s="11" t="s">
         <v>336</v>
       </c>
@@ -5620,7 +5697,7 @@
       <c r="Q108" s="13"/>
       <c r="S108" s="13"/>
     </row>
-    <row r="109" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B109" s="11" t="s">
         <v>338</v>
       </c>
@@ -5633,7 +5710,7 @@
       <c r="Q109" s="13"/>
       <c r="S109" s="13"/>
     </row>
-    <row r="110" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B110" s="11" t="s">
         <v>339</v>
       </c>
@@ -5646,7 +5723,7 @@
       <c r="Q110" s="13"/>
       <c r="S110" s="13"/>
     </row>
-    <row r="111" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B111" s="11" t="s">
         <v>340</v>
       </c>
@@ -5658,7 +5735,7 @@
       </c>
       <c r="S111" s="13"/>
     </row>
-    <row r="112" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B112" s="11" t="s">
         <v>341</v>
       </c>
@@ -5670,7 +5747,7 @@
       </c>
       <c r="S112" s="13"/>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B113" s="11" t="s">
         <v>342</v>
       </c>
@@ -5682,7 +5759,7 @@
       </c>
       <c r="S113" s="13"/>
     </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12"/>
       <c r="B114" s="11" t="s">
         <v>343</v>
@@ -5696,7 +5773,7 @@
       <c r="R114" s="12"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B115" s="11" t="s">
         <v>344</v>
       </c>
@@ -5708,7 +5785,7 @@
       </c>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="13"/>
       <c r="B116" s="11" t="s">
         <v>345</v>
@@ -5722,7 +5799,7 @@
       <c r="R116" s="14"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="13"/>
       <c r="B117" s="11" t="s">
         <v>346</v>
@@ -5736,7 +5813,7 @@
       <c r="R117" s="14"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="13"/>
       <c r="B118" s="11" t="s">
         <v>251</v>
@@ -5750,7 +5827,7 @@
       <c r="R118" s="14"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="13"/>
       <c r="B119" s="11" t="s">
         <v>347</v>
@@ -5764,7 +5841,7 @@
       <c r="R119" s="14"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="11" t="s">
         <v>348</v>
       </c>
@@ -5776,7 +5853,7 @@
       </c>
       <c r="S120" s="13"/>
     </row>
-    <row r="121" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B121" s="11" t="s">
         <v>349</v>
       </c>
@@ -5788,7 +5865,7 @@
       </c>
       <c r="S121" s="13"/>
     </row>
-    <row r="122" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="11" t="s">
         <v>350</v>
       </c>
@@ -5800,7 +5877,7 @@
       </c>
       <c r="S122" s="13"/>
     </row>
-    <row r="123" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B123" s="11" t="s">
         <v>351</v>
       </c>
@@ -5812,7 +5889,7 @@
       </c>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B124" s="12" t="s">
         <v>66</v>
       </c>
@@ -5842,7 +5919,7 @@
       <c r="P124" s="12"/>
       <c r="S124" s="13"/>
     </row>
-    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="11" t="s">
         <v>252</v>
       </c>
@@ -5854,7 +5931,7 @@
       </c>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126" s="11" t="s">
         <v>253</v>
       </c>
@@ -5866,7 +5943,7 @@
       </c>
       <c r="S126" s="13"/>
     </row>
-    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="11" t="s">
         <v>254</v>
       </c>
@@ -5878,7 +5955,7 @@
       </c>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B128" s="11" t="s">
         <v>255</v>
       </c>
@@ -5891,7 +5968,7 @@
       <c r="Q128" s="13"/>
       <c r="S128" s="13"/>
     </row>
-    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B129" s="11" t="s">
         <v>352</v>
       </c>
@@ -5903,7 +5980,7 @@
       </c>
       <c r="S129" s="13"/>
     </row>
-    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B130" s="11" t="s">
         <v>256</v>
       </c>
@@ -5915,7 +5992,7 @@
       </c>
       <c r="S130" s="13"/>
     </row>
-    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B131" s="11" t="s">
         <v>353</v>
       </c>
@@ -5927,7 +6004,7 @@
       </c>
       <c r="S131" s="13"/>
     </row>
-    <row r="132" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="11" t="s">
         <v>257</v>
       </c>
@@ -5940,7 +6017,7 @@
       <c r="Q132" s="12"/>
       <c r="S132" s="13"/>
     </row>
-    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B133" s="11" t="s">
         <v>258</v>
       </c>
@@ -5952,7 +6029,7 @@
       </c>
       <c r="S133" s="13"/>
     </row>
-    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B134" s="11" t="s">
         <v>259</v>
       </c>
@@ -5967,7 +6044,7 @@
       </c>
       <c r="S134" s="13"/>
     </row>
-    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B135" s="11" t="s">
         <v>354</v>
       </c>
@@ -5979,7 +6056,7 @@
       </c>
       <c r="S135" s="13"/>
     </row>
-    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B136" s="11" t="s">
         <v>355</v>
       </c>
@@ -5991,7 +6068,7 @@
       </c>
       <c r="S136" s="13"/>
     </row>
-    <row r="137" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="13"/>
       <c r="B137" s="11" t="s">
         <v>261</v>
@@ -6005,7 +6082,7 @@
       <c r="R137" s="14"/>
       <c r="S137" s="13"/>
     </row>
-    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B138" s="11" t="s">
         <v>262</v>
       </c>
@@ -6017,7 +6094,7 @@
       </c>
       <c r="S138" s="13"/>
     </row>
-    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B139" s="11" t="s">
         <v>356</v>
       </c>
@@ -6029,7 +6106,7 @@
       </c>
       <c r="S139" s="13"/>
     </row>
-    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B140" s="11" t="s">
         <v>357</v>
       </c>
@@ -6041,7 +6118,7 @@
       </c>
       <c r="S140" s="13"/>
     </row>
-    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B141" s="11" t="s">
         <v>358</v>
       </c>
@@ -6054,7 +6131,7 @@
       <c r="R141" s="12"/>
       <c r="S141" s="13"/>
     </row>
-    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B142" s="11" t="s">
         <v>359</v>
       </c>
@@ -6066,7 +6143,7 @@
       </c>
       <c r="S142" s="13"/>
     </row>
-    <row r="143" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B143" s="11" t="s">
         <v>263</v>
       </c>
@@ -6078,7 +6155,7 @@
       </c>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B144" s="11" t="s">
         <v>360</v>
       </c>
@@ -6090,7 +6167,7 @@
       </c>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B145" s="11" t="s">
         <v>264</v>
       </c>
@@ -6102,7 +6179,7 @@
       </c>
       <c r="S145" s="13"/>
     </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B146" s="11" t="s">
         <v>265</v>
       </c>
@@ -6114,7 +6191,7 @@
       </c>
       <c r="S146" s="13"/>
     </row>
-    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B147" s="11" t="s">
         <v>266</v>
       </c>
@@ -6126,7 +6203,7 @@
       </c>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B148" s="11" t="s">
         <v>361</v>
       </c>
@@ -6138,7 +6215,7 @@
       </c>
       <c r="S148" s="13"/>
     </row>
-    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B149" s="11" t="s">
         <v>362</v>
       </c>
@@ -6151,7 +6228,7 @@
       <c r="Q149" s="13"/>
       <c r="S149" s="13"/>
     </row>
-    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B150" s="11" t="s">
         <v>363</v>
       </c>
@@ -6163,7 +6240,7 @@
       </c>
       <c r="S150" s="13"/>
     </row>
-    <row r="151" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B151" s="11" t="s">
         <v>267</v>
       </c>
@@ -6175,7 +6252,7 @@
       </c>
       <c r="S151" s="13"/>
     </row>
-    <row r="152" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B152" s="11" t="s">
         <v>364</v>
       </c>
@@ -6187,7 +6264,7 @@
       </c>
       <c r="S152" s="13"/>
     </row>
-    <row r="153" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B153" s="11" t="s">
         <v>365</v>
       </c>
@@ -6200,7 +6277,7 @@
       <c r="Q153" s="13"/>
       <c r="S153" s="13"/>
     </row>
-    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B154" s="11" t="s">
         <v>366</v>
       </c>
@@ -6212,7 +6289,7 @@
       </c>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B155" s="11" t="s">
         <v>367</v>
       </c>
@@ -6224,7 +6301,7 @@
       </c>
       <c r="S155" s="13"/>
     </row>
-    <row r="156" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B156" s="11" t="s">
         <v>368</v>
       </c>
@@ -6236,7 +6313,7 @@
       </c>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B157" s="11" t="s">
         <v>268</v>
       </c>
@@ -6248,7 +6325,7 @@
       </c>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="13"/>
       <c r="B158" s="11" t="s">
         <v>369</v>
@@ -6262,7 +6339,7 @@
       <c r="R158" s="14"/>
       <c r="S158" s="13"/>
     </row>
-    <row r="159" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B159" s="11" t="s">
         <v>370</v>
       </c>
@@ -6274,7 +6351,7 @@
       </c>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B160" s="11" t="s">
         <v>269</v>
       </c>
@@ -6286,7 +6363,7 @@
       </c>
       <c r="S160" s="13"/>
     </row>
-    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="13"/>
       <c r="B161" s="13" t="s">
         <v>190</v>
@@ -6300,7 +6377,7 @@
       <c r="R161" s="14"/>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B162" s="11" t="s">
         <v>372</v>
       </c>
@@ -6312,7 +6389,7 @@
       </c>
       <c r="S162" s="13"/>
     </row>
-    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B163" s="11" t="s">
         <v>373</v>
       </c>
@@ -6324,7 +6401,7 @@
       </c>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B164" s="11" t="s">
         <v>374</v>
       </c>
@@ -6336,7 +6413,7 @@
       </c>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B165" s="11" t="s">
         <v>270</v>
       </c>
@@ -6348,7 +6425,7 @@
       </c>
       <c r="S165" s="13"/>
     </row>
-    <row r="166" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B166" s="11" t="s">
         <v>375</v>
       </c>
@@ -6360,7 +6437,7 @@
       </c>
       <c r="S166" s="13"/>
     </row>
-    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B167" s="11" t="s">
         <v>376</v>
       </c>
@@ -6373,7 +6450,7 @@
       <c r="Q167" s="13"/>
       <c r="S167" s="13"/>
     </row>
-    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B168" s="11" t="s">
         <v>377</v>
       </c>
@@ -6385,7 +6462,7 @@
       </c>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B169" s="11" t="s">
         <v>378</v>
       </c>
@@ -6398,7 +6475,7 @@
       <c r="Q169" s="13"/>
       <c r="S169" s="13"/>
     </row>
-    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B170" s="13" t="s">
         <v>191</v>
       </c>
@@ -6410,7 +6487,7 @@
       </c>
       <c r="S170" s="13"/>
     </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B171" s="13" t="s">
         <v>192</v>
       </c>
@@ -6422,7 +6499,7 @@
       </c>
       <c r="S171" s="13"/>
     </row>
-    <row r="172" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B172" s="11" t="s">
         <v>381</v>
       </c>
@@ -6434,7 +6511,7 @@
       </c>
       <c r="S172" s="13"/>
     </row>
-    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B173" s="13" t="s">
         <v>193</v>
       </c>
@@ -6446,7 +6523,7 @@
       </c>
       <c r="S173" s="13"/>
     </row>
-    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B174" s="13" t="s">
         <v>194</v>
       </c>
@@ -6458,7 +6535,7 @@
       </c>
       <c r="S174" s="13"/>
     </row>
-    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B175" s="11" t="s">
         <v>384</v>
       </c>
@@ -6471,7 +6548,7 @@
       <c r="Q175" s="13"/>
       <c r="S175" s="13"/>
     </row>
-    <row r="176" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B176" s="11" t="s">
         <v>385</v>
       </c>
@@ -6483,7 +6560,7 @@
       </c>
       <c r="S176" s="13"/>
     </row>
-    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B177" s="11" t="s">
         <v>386</v>
       </c>
@@ -6496,7 +6573,7 @@
       <c r="Q177" s="13"/>
       <c r="S177" s="13"/>
     </row>
-    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B178" s="11" t="s">
         <v>387</v>
       </c>
@@ -6508,7 +6585,7 @@
       </c>
       <c r="S178" s="13"/>
     </row>
-    <row r="179" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B179" s="11" t="s">
         <v>388</v>
       </c>
@@ -6520,7 +6597,7 @@
       </c>
       <c r="S179" s="13"/>
     </row>
-    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B180" s="11" t="s">
         <v>389</v>
       </c>
@@ -6533,7 +6610,7 @@
       <c r="Q180" s="13"/>
       <c r="S180" s="13"/>
     </row>
-    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B181" s="11" t="s">
         <v>390</v>
       </c>
@@ -6545,7 +6622,7 @@
       </c>
       <c r="S181" s="13"/>
     </row>
-    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B182" s="11" t="s">
         <v>391</v>
       </c>
@@ -6558,7 +6635,7 @@
       <c r="Q182" s="13"/>
       <c r="S182" s="13"/>
     </row>
-    <row r="183" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B183" s="11" t="s">
         <v>392</v>
       </c>
@@ -6570,7 +6647,7 @@
       </c>
       <c r="S183" s="13"/>
     </row>
-    <row r="184" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="13"/>
       <c r="B184" s="11" t="s">
         <v>393</v>
@@ -6584,7 +6661,7 @@
       <c r="R184" s="14"/>
       <c r="S184" s="13"/>
     </row>
-    <row r="185" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B185" s="11" t="s">
         <v>394</v>
       </c>
@@ -6596,7 +6673,7 @@
       </c>
       <c r="S185" s="13"/>
     </row>
-    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="13"/>
       <c r="B186" s="11" t="s">
         <v>395</v>
@@ -6610,7 +6687,7 @@
       <c r="R186" s="14"/>
       <c r="S186" s="13"/>
     </row>
-    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B187" s="11" t="s">
         <v>396</v>
       </c>
@@ -6622,7 +6699,7 @@
       </c>
       <c r="S187" s="13"/>
     </row>
-    <row r="188" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B188" s="11" t="s">
         <v>397</v>
       </c>
@@ -6634,7 +6711,7 @@
       </c>
       <c r="S188" s="13"/>
     </row>
-    <row r="189" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="13"/>
       <c r="B189" s="11" t="s">
         <v>398</v>
@@ -6648,7 +6725,7 @@
       <c r="R189" s="14"/>
       <c r="S189" s="13"/>
     </row>
-    <row r="190" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B190" s="11" t="s">
         <v>271</v>
       </c>
@@ -6660,7 +6737,7 @@
       </c>
       <c r="S190" s="13"/>
     </row>
-    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="13"/>
       <c r="B191" s="11" t="s">
         <v>399</v>
@@ -6674,7 +6751,7 @@
       <c r="R191" s="14"/>
       <c r="S191" s="13"/>
     </row>
-    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B192" s="11" t="s">
         <v>400</v>
       </c>
@@ -6686,7 +6763,7 @@
       </c>
       <c r="S192" s="13"/>
     </row>
-    <row r="193" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B193" s="11" t="s">
         <v>401</v>
       </c>
@@ -6698,7 +6775,7 @@
       </c>
       <c r="S193" s="13"/>
     </row>
-    <row r="194" spans="2:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B194" s="11" t="s">
         <v>402</v>
       </c>
@@ -6710,7 +6787,7 @@
       </c>
       <c r="S194" s="13"/>
     </row>
-    <row r="195" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B195" s="11" t="s">
         <v>404</v>
       </c>
@@ -6725,7 +6802,7 @@
       </c>
       <c r="S195" s="13"/>
     </row>
-    <row r="196" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B196" s="11" t="s">
         <v>405</v>
       </c>
@@ -6737,7 +6814,7 @@
       </c>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B197" s="11" t="s">
         <v>272</v>
       </c>
@@ -6752,7 +6829,7 @@
       </c>
       <c r="S197" s="13"/>
     </row>
-    <row r="198" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B198" s="11" t="s">
         <v>407</v>
       </c>
@@ -6764,7 +6841,7 @@
       </c>
       <c r="S198" s="13"/>
     </row>
-    <row r="199" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B199" s="11" t="s">
         <v>760</v>
       </c>
@@ -6776,7 +6853,7 @@
       </c>
       <c r="S199" s="13"/>
     </row>
-    <row r="200" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B200" s="13" t="s">
         <v>195</v>
       </c>
@@ -6788,7 +6865,7 @@
       </c>
       <c r="S200" s="13"/>
     </row>
-    <row r="201" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B201" s="11" t="s">
         <v>409</v>
       </c>
@@ -6800,7 +6877,7 @@
       </c>
       <c r="S201" s="13"/>
     </row>
-    <row r="202" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B202" s="11" t="s">
         <v>410</v>
       </c>
@@ -6811,7 +6888,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="203" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B203" s="11" t="s">
         <v>273</v>
       </c>
@@ -6822,7 +6899,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="204" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B204" s="13" t="s">
         <v>132</v>
       </c>
@@ -6833,7 +6910,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="205" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B205" s="11" t="s">
         <v>411</v>
       </c>
@@ -6844,7 +6921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="206" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B206" s="11" t="s">
         <v>412</v>
       </c>
@@ -6856,7 +6933,7 @@
       </c>
       <c r="Q206" s="13"/>
     </row>
-    <row r="207" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B207" s="11" t="s">
         <v>413</v>
       </c>
@@ -6874,7 +6951,7 @@
       </c>
       <c r="Q207" s="13"/>
     </row>
-    <row r="208" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B208" s="11" t="s">
         <v>699</v>
       </c>
@@ -6885,7 +6962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B209" s="11" t="s">
         <v>415</v>
       </c>
@@ -6897,7 +6974,7 @@
       </c>
       <c r="Q209" s="13"/>
     </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B210" s="11" t="s">
         <v>416</v>
       </c>
@@ -6909,7 +6986,7 @@
       </c>
       <c r="Q210" s="13"/>
     </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B211" s="11" t="s">
         <v>417</v>
       </c>
@@ -6923,7 +7000,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B212" s="11" t="s">
         <v>419</v>
       </c>
@@ -6935,7 +7012,7 @@
       </c>
       <c r="Q212" s="13"/>
     </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="13"/>
       <c r="B213" s="11" t="s">
         <v>420</v>
@@ -6948,7 +7025,7 @@
       </c>
       <c r="R213" s="14"/>
     </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="13"/>
       <c r="B214" s="11" t="s">
         <v>421</v>
@@ -6962,7 +7039,7 @@
       <c r="Q214" s="13"/>
       <c r="R214" s="14"/>
     </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="13"/>
       <c r="B215" s="11" t="s">
         <v>422</v>
@@ -6975,7 +7052,7 @@
       </c>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="13"/>
       <c r="B216" s="11" t="s">
         <v>725</v>
@@ -7000,7 +7077,7 @@
       </c>
       <c r="R216" s="14"/>
     </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="13"/>
       <c r="B217" s="11" t="s">
         <v>423</v>
@@ -7014,7 +7091,7 @@
       <c r="Q217" s="13"/>
       <c r="R217" s="14"/>
     </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="13"/>
       <c r="B218" s="11" t="s">
         <v>424</v>
@@ -7027,7 +7104,7 @@
       </c>
       <c r="R218" s="14"/>
     </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="13"/>
       <c r="B219" s="13" t="s">
         <v>736</v>
@@ -7062,7 +7139,7 @@
       </c>
       <c r="R219" s="14"/>
     </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B220" s="11" t="s">
         <v>425</v>
       </c>
@@ -7074,7 +7151,7 @@
       </c>
       <c r="Q220" s="13"/>
     </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B221" s="11" t="s">
         <v>426</v>
       </c>
@@ -7086,7 +7163,7 @@
       </c>
       <c r="Q221" s="13"/>
     </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B222" s="11" t="s">
         <v>427</v>
       </c>
@@ -7098,7 +7175,7 @@
       </c>
       <c r="Q222" s="13"/>
     </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B223" s="11" t="s">
         <v>428</v>
       </c>
@@ -7110,7 +7187,7 @@
       </c>
       <c r="Q223" s="13"/>
     </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B224" s="11" t="s">
         <v>429</v>
       </c>
@@ -7122,7 +7199,7 @@
       </c>
       <c r="Q224" s="13"/>
     </row>
-    <row r="225" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B225" s="11" t="s">
         <v>430</v>
       </c>
@@ -7140,7 +7217,7 @@
       </c>
       <c r="Q225" s="13"/>
     </row>
-    <row r="226" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B226" s="11" t="s">
         <v>433</v>
       </c>
@@ -7152,7 +7229,7 @@
       </c>
       <c r="Q226" s="13"/>
     </row>
-    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B227" s="11" t="s">
         <v>434</v>
       </c>
@@ -7164,7 +7241,7 @@
       </c>
       <c r="Q227" s="13"/>
     </row>
-    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="13"/>
       <c r="B228" s="11" t="s">
         <v>435</v>
@@ -7177,7 +7254,7 @@
       </c>
       <c r="R228" s="14"/>
     </row>
-    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="13"/>
       <c r="B229" s="11" t="s">
         <v>436</v>
@@ -7190,7 +7267,7 @@
       </c>
       <c r="R229" s="14"/>
     </row>
-    <row r="230" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="13"/>
       <c r="B230" s="11" t="s">
         <v>437</v>
@@ -7206,7 +7283,7 @@
       </c>
       <c r="R230" s="14"/>
     </row>
-    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="13"/>
       <c r="B231" s="11" t="s">
         <v>439</v>
@@ -7219,7 +7296,7 @@
       </c>
       <c r="R231" s="14"/>
     </row>
-    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="13"/>
       <c r="B232" s="11" t="s">
         <v>440</v>
@@ -7232,7 +7309,7 @@
       </c>
       <c r="R232" s="14"/>
     </row>
-    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="13"/>
       <c r="B233" s="11" t="s">
         <v>441</v>
@@ -7245,7 +7322,7 @@
       </c>
       <c r="R233" s="14"/>
     </row>
-    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="13"/>
       <c r="B234" s="11" t="s">
         <v>442</v>
@@ -7258,7 +7335,7 @@
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="13"/>
       <c r="B235" s="11" t="s">
         <v>443</v>
@@ -7271,7 +7348,7 @@
       </c>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="13"/>
       <c r="B236" s="11" t="s">
         <v>444</v>
@@ -7284,7 +7361,7 @@
       </c>
       <c r="R236" s="14"/>
     </row>
-    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B237" s="11" t="s">
         <v>445</v>
       </c>
@@ -7295,7 +7372,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="238" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B238" s="11" t="s">
         <v>446</v>
       </c>
@@ -7306,7 +7383,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B239" s="11" t="s">
         <v>447</v>
       </c>
@@ -7317,7 +7394,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B240" s="11" t="s">
         <v>448</v>
       </c>
@@ -7328,7 +7405,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B241" s="11" t="s">
         <v>274</v>
       </c>
@@ -7340,7 +7417,7 @@
       </c>
       <c r="Q241" s="13"/>
     </row>
-    <row r="242" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B242" s="11" t="s">
         <v>275</v>
       </c>
@@ -7352,7 +7429,7 @@
       </c>
       <c r="Q242" s="13"/>
     </row>
-    <row r="243" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B243" s="11" t="s">
         <v>449</v>
       </c>
@@ -7366,7 +7443,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B244" s="11" t="s">
         <v>451</v>
       </c>
@@ -7380,7 +7457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B245" s="11" t="s">
         <v>276</v>
       </c>
@@ -7392,7 +7469,7 @@
       </c>
       <c r="Q245" s="13"/>
     </row>
-    <row r="246" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B246" s="11" t="s">
         <v>453</v>
       </c>
@@ -7404,7 +7481,7 @@
       </c>
       <c r="Q246" s="13"/>
     </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B247" s="11" t="s">
         <v>454</v>
       </c>
@@ -7416,7 +7493,7 @@
       </c>
       <c r="Q247" s="13"/>
     </row>
-    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B248" s="11" t="s">
         <v>455</v>
       </c>
@@ -7427,7 +7504,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B249" s="11" t="s">
         <v>456</v>
       </c>
@@ -7439,7 +7516,7 @@
       </c>
       <c r="Q249" s="13"/>
     </row>
-    <row r="250" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B250" s="11" t="s">
         <v>457</v>
       </c>
@@ -7450,7 +7527,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="251" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" s="13"/>
       <c r="B251" s="11" t="s">
         <v>458</v>
@@ -7463,7 +7540,7 @@
       </c>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="13"/>
       <c r="B252" s="12" t="s">
         <v>111</v>
@@ -7490,7 +7567,7 @@
       <c r="P252" s="12"/>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A253" s="13"/>
       <c r="B253" s="11" t="s">
         <v>176</v>
@@ -7516,7 +7593,7 @@
       <c r="Q253" s="13"/>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B254" s="11" t="s">
         <v>459</v>
       </c>
@@ -7528,7 +7605,7 @@
       </c>
       <c r="Q254" s="13"/>
     </row>
-    <row r="255" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B255" s="11" t="s">
         <v>460</v>
       </c>
@@ -7540,7 +7617,7 @@
       </c>
       <c r="Q255" s="13"/>
     </row>
-    <row r="256" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B256" s="11" t="s">
         <v>461</v>
       </c>
@@ -7551,7 +7628,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B257" s="11" t="s">
         <v>462</v>
       </c>
@@ -7562,7 +7639,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A258" s="13"/>
       <c r="B258" s="11" t="s">
         <v>463</v>
@@ -7575,7 +7652,7 @@
       </c>
       <c r="R258" s="14"/>
     </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B259" s="11" t="s">
         <v>464</v>
       </c>
@@ -7586,7 +7663,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B260" s="11" t="s">
         <v>465</v>
       </c>
@@ -7598,7 +7675,7 @@
       </c>
       <c r="Q260" s="12"/>
     </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B261" s="11" t="s">
         <v>466</v>
       </c>
@@ -7612,7 +7689,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="262" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="13"/>
       <c r="B262" s="11" t="s">
         <v>468</v>
@@ -7625,7 +7702,7 @@
       </c>
       <c r="R262" s="14"/>
     </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B263" s="11" t="s">
         <v>277</v>
       </c>
@@ -7636,7 +7713,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B264" s="11" t="s">
         <v>469</v>
       </c>
@@ -7647,7 +7724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B265" s="11" t="s">
         <v>470</v>
       </c>
@@ -7658,7 +7735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" s="8" t="s">
         <v>112</v>
       </c>
@@ -7675,7 +7752,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B267" s="11" t="s">
         <v>472</v>
       </c>
@@ -7687,7 +7764,7 @@
       </c>
       <c r="R267" s="12"/>
     </row>
-    <row r="268" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B268" s="11" t="s">
         <v>473</v>
       </c>
@@ -7699,7 +7776,7 @@
       </c>
       <c r="Q268" s="13"/>
     </row>
-    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B269" s="11" t="s">
         <v>474</v>
       </c>
@@ -7710,7 +7787,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="270" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B270" s="11" t="s">
         <v>475</v>
       </c>
@@ -7722,7 +7799,7 @@
       </c>
       <c r="Q270" s="13"/>
     </row>
-    <row r="271" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B271" s="11" t="s">
         <v>476</v>
       </c>
@@ -7733,7 +7810,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="272" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B272" s="11" t="s">
         <v>477</v>
       </c>
@@ -7744,7 +7821,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="273" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B273" s="11" t="s">
         <v>478</v>
       </c>
@@ -7755,7 +7832,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="274" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B274" s="11" t="s">
         <v>479</v>
       </c>
@@ -7766,7 +7843,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="275" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B275" s="11" t="s">
         <v>480</v>
       </c>
@@ -7777,7 +7854,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B276" s="11" t="s">
         <v>481</v>
       </c>
@@ -7788,7 +7865,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="277" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="13"/>
       <c r="B277" s="11" t="s">
         <v>482</v>
@@ -7801,7 +7878,7 @@
       </c>
       <c r="R277" s="14"/>
     </row>
-    <row r="278" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B278" s="11" t="s">
         <v>483</v>
       </c>
@@ -7812,7 +7889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="279" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" s="13"/>
       <c r="B279" s="11" t="s">
         <v>484</v>
@@ -7825,7 +7902,7 @@
       </c>
       <c r="R279" s="14"/>
     </row>
-    <row r="280" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B280" s="11" t="s">
         <v>485</v>
       </c>
@@ -7836,7 +7913,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="281" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B281" s="11" t="s">
         <v>486</v>
       </c>
@@ -7847,7 +7924,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B282" s="11" t="s">
         <v>487</v>
       </c>
@@ -7858,7 +7935,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="283" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B283" s="11" t="s">
         <v>488</v>
       </c>
@@ -7869,7 +7946,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="284" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B284" s="11" t="s">
         <v>489</v>
       </c>
@@ -7880,7 +7957,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B285" s="11" t="s">
         <v>490</v>
       </c>
@@ -7891,7 +7968,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="286" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B286" s="11" t="s">
         <v>491</v>
       </c>
@@ -7902,7 +7979,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B287" s="11" t="s">
         <v>492</v>
       </c>
@@ -7913,7 +7990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B288" s="11" t="s">
         <v>493</v>
       </c>
@@ -7925,7 +8002,7 @@
       </c>
       <c r="Q288" s="13"/>
     </row>
-    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B289" s="11" t="s">
         <v>494</v>
       </c>
@@ -7936,7 +8013,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B290" s="11" t="s">
         <v>495</v>
       </c>
@@ -7947,7 +8024,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B291" s="11" t="s">
         <v>278</v>
       </c>
@@ -7959,7 +8036,7 @@
       </c>
       <c r="Q291" s="13"/>
     </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B292" s="11" t="s">
         <v>496</v>
       </c>
@@ -7970,7 +8047,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B293" s="11" t="s">
         <v>497</v>
       </c>
@@ -7981,7 +8058,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B294" s="11" t="s">
         <v>498</v>
       </c>
@@ -7992,7 +8069,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B295" s="11" t="s">
         <v>499</v>
       </c>
@@ -8003,7 +8080,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B296" s="11" t="s">
         <v>500</v>
       </c>
@@ -8014,7 +8091,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B297" s="11" t="s">
         <v>501</v>
       </c>
@@ -8025,7 +8102,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B298" s="11" t="s">
         <v>700</v>
       </c>
@@ -8036,7 +8113,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="13"/>
       <c r="B299" s="11" t="s">
         <v>502</v>
@@ -8049,7 +8126,7 @@
       </c>
       <c r="R299" s="14"/>
     </row>
-    <row r="300" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B300" s="11" t="s">
         <v>279</v>
       </c>
@@ -8060,7 +8137,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B301" s="11" t="s">
         <v>503</v>
       </c>
@@ -8071,7 +8148,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B302" s="11" t="s">
         <v>504</v>
       </c>
@@ -8083,7 +8160,7 @@
       </c>
       <c r="Q302" s="13"/>
     </row>
-    <row r="303" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B303" s="11" t="s">
         <v>505</v>
       </c>
@@ -8095,7 +8172,7 @@
       </c>
       <c r="Q303" s="13"/>
     </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B304" s="11" t="s">
         <v>506</v>
       </c>
@@ -8106,7 +8183,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B305" s="11" t="s">
         <v>507</v>
       </c>
@@ -8117,7 +8194,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B306" s="11" t="s">
         <v>508</v>
       </c>
@@ -8128,7 +8205,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B307" s="11" t="s">
         <v>509</v>
       </c>
@@ -8139,7 +8216,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B308" s="11" t="s">
         <v>510</v>
       </c>
@@ -8151,7 +8228,7 @@
       </c>
       <c r="Q308" s="13"/>
     </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="13"/>
       <c r="B309" s="11" t="s">
         <v>511</v>
@@ -8164,7 +8241,7 @@
       </c>
       <c r="R309" s="14"/>
     </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="13"/>
       <c r="B310" s="11" t="s">
         <v>512</v>
@@ -8177,7 +8254,7 @@
       </c>
       <c r="R310" s="14"/>
     </row>
-    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B311" s="11" t="s">
         <v>513</v>
       </c>
@@ -8188,7 +8265,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B312" s="11" t="s">
         <v>514</v>
       </c>
@@ -8199,7 +8276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B313" s="11" t="s">
         <v>515</v>
       </c>
@@ -8210,7 +8287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="314" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B314" s="11" t="s">
         <v>516</v>
       </c>
@@ -8221,7 +8298,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="13"/>
       <c r="B315" s="11" t="s">
         <v>517</v>
@@ -8235,7 +8312,7 @@
       <c r="Q315" s="13"/>
       <c r="R315" s="14"/>
     </row>
-    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B316" s="11" t="s">
         <v>518</v>
       </c>
@@ -8247,7 +8324,7 @@
       </c>
       <c r="Q316" s="13"/>
     </row>
-    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B317" s="11" t="s">
         <v>519</v>
       </c>
@@ -8258,7 +8335,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B318" s="11" t="s">
         <v>520</v>
       </c>
@@ -8269,7 +8346,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B319" s="11" t="s">
         <v>521</v>
       </c>
@@ -8280,7 +8357,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B320" s="11" t="s">
         <v>522</v>
       </c>
@@ -8291,7 +8368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B321" s="11" t="s">
         <v>523</v>
       </c>
@@ -8302,7 +8379,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B322" s="11" t="s">
         <v>524</v>
       </c>
@@ -8313,7 +8390,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A323" s="13"/>
       <c r="B323" s="11" t="s">
         <v>525</v>
@@ -8326,7 +8403,7 @@
       </c>
       <c r="R323" s="14"/>
     </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B324" s="11" t="s">
         <v>526</v>
       </c>
@@ -8338,7 +8415,7 @@
       </c>
       <c r="Q324" s="13"/>
     </row>
-    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B325" s="11" t="s">
         <v>527</v>
       </c>
@@ -8349,7 +8426,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B326" s="12" t="s">
         <v>64</v>
       </c>
@@ -8370,7 +8447,7 @@
       <c r="O326" s="12"/>
       <c r="P326" s="12"/>
     </row>
-    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B327" s="11" t="s">
         <v>528</v>
       </c>
@@ -8381,7 +8458,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B328" s="11" t="s">
         <v>529</v>
       </c>
@@ -8392,7 +8469,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B329" s="11" t="s">
         <v>530</v>
       </c>
@@ -8403,7 +8480,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B330" s="11" t="s">
         <v>531</v>
       </c>
@@ -8414,7 +8491,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B331" s="11" t="s">
         <v>532</v>
       </c>
@@ -8426,7 +8503,7 @@
       </c>
       <c r="Q331" s="13"/>
     </row>
-    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B332" s="11" t="s">
         <v>533</v>
       </c>
@@ -8437,7 +8514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="333" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A333" s="13"/>
       <c r="B333" s="11" t="s">
         <v>534</v>
@@ -8453,7 +8530,7 @@
       </c>
       <c r="R333" s="14"/>
     </row>
-    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B334" s="11" t="s">
         <v>536</v>
       </c>
@@ -8465,7 +8542,7 @@
       </c>
       <c r="Q334" s="12"/>
     </row>
-    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B335" s="11" t="s">
         <v>537</v>
       </c>
@@ -8476,7 +8553,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B336" s="11" t="s">
         <v>538</v>
       </c>
@@ -8487,7 +8564,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="337" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B337" s="11" t="s">
         <v>539</v>
       </c>
@@ -8501,7 +8578,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B338" s="11" t="s">
         <v>541</v>
       </c>
@@ -8512,7 +8589,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B339" s="11" t="s">
         <v>542</v>
       </c>
@@ -8523,7 +8600,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A340" s="13"/>
       <c r="B340" s="11" t="s">
         <v>543</v>
@@ -8536,7 +8613,7 @@
       </c>
       <c r="R340" s="14"/>
     </row>
-    <row r="341" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B341" s="11" t="s">
         <v>544</v>
       </c>
@@ -8547,7 +8624,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="342" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A342" s="12"/>
       <c r="B342" s="11" t="s">
         <v>280</v>
@@ -8560,7 +8637,7 @@
       </c>
       <c r="R342" s="12"/>
     </row>
-    <row r="343" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B343" s="11" t="s">
         <v>545</v>
       </c>
@@ -8571,7 +8648,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="344" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B344" s="11" t="s">
         <v>546</v>
       </c>
@@ -8582,7 +8659,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="345" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B345" s="11" t="s">
         <v>547</v>
       </c>
@@ -8593,7 +8670,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B346" s="11" t="s">
         <v>548</v>
       </c>
@@ -8604,7 +8681,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B347" s="11" t="s">
         <v>549</v>
       </c>
@@ -8615,7 +8692,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="348" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B348" s="11" t="s">
         <v>550</v>
       </c>
@@ -8626,7 +8703,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="349" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B349" s="11" t="s">
         <v>551</v>
       </c>
@@ -8638,7 +8715,7 @@
       </c>
       <c r="Q349" s="13"/>
     </row>
-    <row r="350" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B350" s="11" t="s">
         <v>552</v>
       </c>
@@ -8649,7 +8726,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="351" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B351" s="11" t="s">
         <v>553</v>
       </c>
@@ -8660,7 +8737,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="352" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B352" s="11" t="s">
         <v>554</v>
       </c>
@@ -8671,7 +8748,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="353" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B353" s="11" t="s">
         <v>555</v>
       </c>
@@ -8682,7 +8759,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="354" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B354" s="11" t="s">
         <v>556</v>
       </c>
@@ -8693,7 +8770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="355" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B355" s="11" t="s">
         <v>557</v>
       </c>
@@ -8704,7 +8781,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B356" s="11" t="s">
         <v>558</v>
       </c>
@@ -8715,7 +8792,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="357" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A357" s="13"/>
       <c r="B357" s="11" t="s">
         <v>559</v>
@@ -8728,7 +8805,7 @@
       </c>
       <c r="R357" s="14"/>
     </row>
-    <row r="358" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B358" s="11" t="s">
         <v>560</v>
       </c>
@@ -8740,7 +8817,7 @@
       </c>
       <c r="Q358" s="13"/>
     </row>
-    <row r="359" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B359" s="11" t="s">
         <v>561</v>
       </c>
@@ -8751,7 +8828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B360" s="11" t="s">
         <v>562</v>
       </c>
@@ -8762,7 +8839,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B361" s="11" t="s">
         <v>563</v>
       </c>
@@ -8773,7 +8850,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="362" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B362" s="11" t="s">
         <v>564</v>
       </c>
@@ -8784,7 +8861,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="363" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B363" s="11" t="s">
         <v>565</v>
       </c>
@@ -8795,7 +8872,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="364" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B364" s="11" t="s">
         <v>566</v>
       </c>
@@ -8806,7 +8883,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B365" s="11" t="s">
         <v>567</v>
       </c>
@@ -8817,7 +8894,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="366" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A366" s="13"/>
       <c r="B366" s="11" t="s">
         <v>568</v>
@@ -8830,7 +8907,7 @@
       </c>
       <c r="R366" s="14"/>
     </row>
-    <row r="367" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B367" s="11" t="s">
         <v>569</v>
       </c>
@@ -8841,7 +8918,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="368" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B368" s="11" t="s">
         <v>570</v>
       </c>
@@ -8852,7 +8929,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="369" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B369" s="11" t="s">
         <v>571</v>
       </c>
@@ -8866,7 +8943,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B370" s="11" t="s">
         <v>572</v>
       </c>
@@ -8877,7 +8954,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="371" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B371" s="11" t="s">
         <v>573</v>
       </c>
@@ -8891,7 +8968,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="372" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B372" s="11" t="s">
         <v>575</v>
       </c>
@@ -8902,7 +8979,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="373" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B373" s="11" t="s">
         <v>576</v>
       </c>
@@ -8914,7 +8991,7 @@
       </c>
       <c r="Q373" s="13"/>
     </row>
-    <row r="374" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B374" s="11" t="s">
         <v>577</v>
       </c>
@@ -8925,7 +9002,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="375" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B375" s="11" t="s">
         <v>578</v>
       </c>
@@ -8936,7 +9013,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="376" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B376" s="11" t="s">
         <v>579</v>
       </c>
@@ -8947,7 +9024,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="377" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B377" s="11" t="s">
         <v>580</v>
       </c>
@@ -8958,7 +9035,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="378" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B378" s="11" t="s">
         <v>581</v>
       </c>
@@ -8969,7 +9046,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="379" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B379" s="11" t="s">
         <v>582</v>
       </c>
@@ -8980,7 +9057,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="380" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B380" s="11" t="s">
         <v>281</v>
       </c>
@@ -8991,7 +9068,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="381" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A381" s="13"/>
       <c r="B381" s="11" t="s">
         <v>583</v>
@@ -9004,7 +9081,7 @@
       </c>
       <c r="R381" s="14"/>
     </row>
-    <row r="382" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A382" s="11" t="s">
         <v>735</v>
       </c>
@@ -9030,7 +9107,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="383" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B383" s="12" t="s">
         <v>67</v>
       </c>
@@ -9054,7 +9131,7 @@
       <c r="P383" s="12"/>
       <c r="Q383" s="13"/>
     </row>
-    <row r="384" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B384" s="11" t="s">
         <v>584</v>
       </c>
@@ -9065,7 +9142,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="385" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B385" s="11" t="s">
         <v>585</v>
       </c>
@@ -9076,7 +9153,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="386" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B386" s="11" t="s">
         <v>282</v>
       </c>
@@ -9087,7 +9164,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="387" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B387" s="11" t="s">
         <v>586</v>
       </c>
@@ -9099,7 +9176,7 @@
       </c>
       <c r="Q387" s="13"/>
     </row>
-    <row r="388" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B388" s="11" t="s">
         <v>587</v>
       </c>
@@ -9111,7 +9188,7 @@
       </c>
       <c r="Q388" s="13"/>
     </row>
-    <row r="389" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B389" s="11" t="s">
         <v>588</v>
       </c>
@@ -9123,7 +9200,7 @@
       </c>
       <c r="Q389" s="13"/>
     </row>
-    <row r="390" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B390" s="11" t="s">
         <v>589</v>
       </c>
@@ -9135,7 +9212,7 @@
       </c>
       <c r="Q390" s="13"/>
     </row>
-    <row r="391" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B391" s="11" t="s">
         <v>590</v>
       </c>
@@ -9147,7 +9224,7 @@
       </c>
       <c r="Q391" s="12"/>
     </row>
-    <row r="392" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B392" s="11" t="s">
         <v>591</v>
       </c>
@@ -9158,7 +9235,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A393" s="13"/>
       <c r="B393" s="11" t="s">
         <v>592</v>
@@ -9171,7 +9248,7 @@
       </c>
       <c r="R393" s="14"/>
     </row>
-    <row r="394" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A394" s="13"/>
       <c r="B394" s="11" t="s">
         <v>593</v>
@@ -9184,7 +9261,7 @@
       </c>
       <c r="R394" s="14"/>
     </row>
-    <row r="395" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A395" s="13"/>
       <c r="B395" s="11" t="s">
         <v>594</v>
@@ -9197,7 +9274,7 @@
       </c>
       <c r="R395" s="14"/>
     </row>
-    <row r="396" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A396" s="13"/>
       <c r="B396" s="11" t="s">
         <v>595</v>
@@ -9210,7 +9287,7 @@
       </c>
       <c r="R396" s="14"/>
     </row>
-    <row r="397" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A397" s="12"/>
       <c r="B397" s="11" t="s">
         <v>283</v>
@@ -9224,7 +9301,7 @@
       <c r="Q397" s="13"/>
       <c r="R397" s="12"/>
     </row>
-    <row r="398" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B398" s="11" t="s">
         <v>596</v>
       </c>
@@ -9236,7 +9313,7 @@
       </c>
       <c r="Q398" s="13"/>
     </row>
-    <row r="399" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B399" s="11" t="s">
         <v>597</v>
       </c>
@@ -9248,7 +9325,7 @@
       </c>
       <c r="Q399" s="13"/>
     </row>
-    <row r="400" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B400" s="11" t="s">
         <v>284</v>
       </c>
@@ -9259,7 +9336,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="401" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B401" s="11" t="s">
         <v>598</v>
       </c>
@@ -9270,7 +9347,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="402" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B402" s="11" t="s">
         <v>599</v>
       </c>
@@ -9281,7 +9358,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="403" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B403" s="11" t="s">
         <v>600</v>
       </c>
@@ -9292,7 +9369,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B404" s="11" t="s">
         <v>601</v>
       </c>
@@ -9303,7 +9380,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="405" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B405" s="11" t="s">
         <v>602</v>
       </c>
@@ -9314,7 +9391,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A406" s="13"/>
       <c r="B406" s="11" t="s">
         <v>285</v>
@@ -9327,7 +9404,7 @@
       </c>
       <c r="R406" s="14"/>
     </row>
-    <row r="407" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A407" s="13"/>
       <c r="B407" s="11" t="s">
         <v>603</v>
@@ -9340,7 +9417,7 @@
       </c>
       <c r="R407" s="14"/>
     </row>
-    <row r="408" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B408" s="11" t="s">
         <v>286</v>
       </c>
@@ -9351,7 +9428,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="409" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B409" s="11" t="s">
         <v>287</v>
       </c>
@@ -9362,7 +9439,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B410" s="11" t="s">
         <v>288</v>
       </c>
@@ -9373,7 +9450,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="411" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B411" s="11" t="s">
         <v>289</v>
       </c>
@@ -9384,7 +9461,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="412" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B412" s="11" t="s">
         <v>290</v>
       </c>
@@ -9395,7 +9472,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B413" s="11" t="s">
         <v>291</v>
       </c>
@@ -9407,7 +9484,7 @@
       </c>
       <c r="Q413" s="13"/>
     </row>
-    <row r="414" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B414" s="11" t="s">
         <v>292</v>
       </c>
@@ -9418,7 +9495,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="415" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B415" s="11" t="s">
         <v>293</v>
       </c>
@@ -9429,7 +9506,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="416" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B416" s="11" t="s">
         <v>294</v>
       </c>
@@ -9440,7 +9517,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="417" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B417" s="11" t="s">
         <v>295</v>
       </c>
@@ -9451,7 +9528,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B418" s="11" t="s">
         <v>296</v>
       </c>
@@ -9462,7 +9539,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A419" s="13"/>
       <c r="B419" s="11" t="s">
         <v>604</v>
@@ -9475,7 +9552,7 @@
       </c>
       <c r="R419" s="14"/>
     </row>
-    <row r="420" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B420" s="11" t="s">
         <v>297</v>
       </c>
@@ -9486,7 +9563,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B421" s="11" t="s">
         <v>298</v>
       </c>
@@ -9497,7 +9574,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="422" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B422" s="11" t="s">
         <v>299</v>
       </c>
@@ -9515,7 +9592,7 @@
       </c>
       <c r="Q422" s="13"/>
     </row>
-    <row r="423" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B423" s="11" t="s">
         <v>605</v>
       </c>
@@ -9526,7 +9603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="424" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B424" s="11" t="s">
         <v>606</v>
       </c>
@@ -9537,7 +9614,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="425" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B425" s="11" t="s">
         <v>607</v>
       </c>
@@ -9549,7 +9626,7 @@
       </c>
       <c r="Q425" s="13"/>
     </row>
-    <row r="426" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B426" s="11" t="s">
         <v>608</v>
       </c>
@@ -9560,7 +9637,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="427" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B427" s="11" t="s">
         <v>609</v>
       </c>
@@ -9574,7 +9651,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="428" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B428" s="11" t="s">
         <v>611</v>
       </c>
@@ -9585,7 +9662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="429" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B429" s="11" t="s">
         <v>612</v>
       </c>
@@ -9596,7 +9673,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="430" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B430" s="11" t="s">
         <v>613</v>
       </c>
@@ -9607,7 +9684,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A431" s="13"/>
       <c r="B431" s="11" t="s">
         <v>614</v>
@@ -9620,7 +9697,7 @@
       </c>
       <c r="R431" s="14"/>
     </row>
-    <row r="432" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B432" s="11" t="s">
         <v>615</v>
       </c>
@@ -9631,7 +9708,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B433" s="12" t="s">
         <v>62</v>
       </c>
@@ -9658,7 +9735,7 @@
       <c r="O433" s="12"/>
       <c r="P433" s="12"/>
     </row>
-    <row r="434" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A434" s="13"/>
       <c r="B434" s="11" t="s">
         <v>302</v>
@@ -9671,7 +9748,7 @@
       </c>
       <c r="R434" s="14"/>
     </row>
-    <row r="435" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B435" s="11" t="s">
         <v>616</v>
       </c>
@@ -9682,7 +9759,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="436" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B436" s="11" t="s">
         <v>617</v>
       </c>
@@ -9693,7 +9770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="437" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B437" s="11" t="s">
         <v>618</v>
       </c>
@@ -9704,7 +9781,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B438" s="11" t="s">
         <v>619</v>
       </c>
@@ -9715,7 +9792,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="439" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B439" s="11" t="s">
         <v>620</v>
       </c>
@@ -9726,7 +9803,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B440" s="11" t="s">
         <v>701</v>
       </c>
@@ -9737,7 +9814,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="441" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B441" s="11" t="s">
         <v>621</v>
       </c>
@@ -9751,7 +9828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="442" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B442" s="11" t="s">
         <v>623</v>
       </c>
@@ -9763,7 +9840,7 @@
       </c>
       <c r="Q442" s="12"/>
     </row>
-    <row r="443" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B443" s="11" t="s">
         <v>624</v>
       </c>
@@ -9774,7 +9851,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="444" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B444" s="11" t="s">
         <v>625</v>
       </c>
@@ -9785,7 +9862,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B445" s="11" t="s">
         <v>626</v>
       </c>
@@ -9796,7 +9873,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="446" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B446" s="11" t="s">
         <v>627</v>
       </c>
@@ -9807,7 +9884,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="447" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B447" s="11" t="s">
         <v>628</v>
       </c>
@@ -9818,7 +9895,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="448" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B448" s="11" t="s">
         <v>629</v>
       </c>
@@ -9829,7 +9906,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="449" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B449" s="11" t="s">
         <v>630</v>
       </c>
@@ -9840,7 +9917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A450" s="12"/>
       <c r="B450" s="11" t="s">
         <v>318</v>
@@ -9854,7 +9931,7 @@
       <c r="Q450" s="13"/>
       <c r="R450" s="12"/>
     </row>
-    <row r="451" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B451" s="11" t="s">
         <v>631</v>
       </c>
@@ -9865,7 +9942,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="452" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B452" s="11" t="s">
         <v>632</v>
       </c>
@@ -9876,7 +9953,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B453" s="11" t="s">
         <v>633</v>
       </c>
@@ -9887,7 +9964,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="454" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B454" s="11" t="s">
         <v>634</v>
       </c>
@@ -9898,7 +9975,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B455" s="11" t="s">
         <v>635</v>
       </c>
@@ -9909,7 +9986,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="456" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B456" s="11" t="s">
         <v>636</v>
       </c>
@@ -9920,7 +9997,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="457" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B457" s="11" t="s">
         <v>637</v>
       </c>
@@ -9931,7 +10008,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B458" s="11" t="s">
         <v>638</v>
       </c>
@@ -9942,7 +10019,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A459" s="13"/>
       <c r="B459" s="11" t="s">
         <v>639</v>
@@ -9955,7 +10032,7 @@
       </c>
       <c r="R459" s="14"/>
     </row>
-    <row r="460" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B460" s="11" t="s">
         <v>640</v>
       </c>
@@ -9966,7 +10043,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B461" s="11" t="s">
         <v>641</v>
       </c>
@@ -9977,7 +10054,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B462" s="11" t="s">
         <v>642</v>
       </c>
@@ -9988,7 +10065,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="463" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B463" s="11" t="s">
         <v>643</v>
       </c>
@@ -9999,7 +10076,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B464" s="11" t="s">
         <v>644</v>
       </c>
@@ -10010,7 +10087,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B465" s="11" t="s">
         <v>645</v>
       </c>
@@ -10021,7 +10098,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B466" s="11" t="s">
         <v>646</v>
       </c>
@@ -10032,7 +10109,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B467" s="11" t="s">
         <v>647</v>
       </c>
@@ -10043,7 +10120,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B468" s="11" t="s">
         <v>648</v>
       </c>
@@ -10054,7 +10131,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="469" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B469" s="11" t="s">
         <v>649</v>
       </c>
@@ -10065,7 +10142,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="470" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B470" s="11" t="s">
         <v>650</v>
       </c>
@@ -10076,7 +10153,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="471" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B471" s="11" t="s">
         <v>651</v>
       </c>
@@ -10087,7 +10164,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B472" s="11" t="s">
         <v>652</v>
       </c>
@@ -10098,7 +10175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="473" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B473" s="11" t="s">
         <v>653</v>
       </c>
@@ -10109,7 +10186,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B474" s="11" t="s">
         <v>654</v>
       </c>
@@ -10121,7 +10198,7 @@
       </c>
       <c r="Q474" s="13"/>
     </row>
-    <row r="475" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B475" s="11" t="s">
         <v>655</v>
       </c>
@@ -10133,7 +10210,7 @@
       </c>
       <c r="Q475" s="13"/>
     </row>
-    <row r="476" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B476" s="11" t="s">
         <v>656</v>
       </c>
@@ -10144,7 +10221,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="477" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B477" s="11" t="s">
         <v>657</v>
       </c>
@@ -10155,7 +10232,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="478" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:17" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B478" s="11" t="s">
         <v>658</v>
       </c>
@@ -10166,7 +10243,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="479" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B479" s="11" t="s">
         <v>659</v>
       </c>
@@ -10177,7 +10254,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:17" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B480" s="11" t="s">
         <v>660</v>
       </c>
@@ -10188,7 +10265,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B481" s="11" t="s">
         <v>661</v>
       </c>
@@ -10199,7 +10276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B482" s="11" t="s">
         <v>662</v>
       </c>
@@ -10210,7 +10287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A483" s="13"/>
       <c r="B483" s="11" t="s">
         <v>663</v>
@@ -10223,7 +10300,7 @@
       </c>
       <c r="R483" s="14"/>
     </row>
-    <row r="484" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A484" s="13"/>
       <c r="B484" s="11" t="s">
         <v>664</v>
@@ -10236,7 +10313,7 @@
       </c>
       <c r="R484" s="14"/>
     </row>
-    <row r="485" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B485" s="11" t="s">
         <v>665</v>
       </c>
@@ -10247,7 +10324,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B486" s="11" t="s">
         <v>666</v>
       </c>
@@ -10258,7 +10335,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="487" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B487" s="11" t="s">
         <v>667</v>
       </c>
@@ -10269,7 +10346,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="488" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B488" s="11" t="s">
         <v>668</v>
       </c>
@@ -10280,7 +10357,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B489" s="11" t="s">
         <v>669</v>
       </c>
@@ -10291,7 +10368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="490" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B490" s="11" t="s">
         <v>670</v>
       </c>
@@ -10302,7 +10379,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="491" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B491" s="11" t="s">
         <v>671</v>
       </c>
@@ -10313,7 +10390,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="492" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B492" s="11" t="s">
         <v>672</v>
       </c>
@@ -10324,7 +10401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B493" s="11" t="s">
         <v>673</v>
       </c>
@@ -10335,7 +10412,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="494" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B494" s="11" t="s">
         <v>674</v>
       </c>
@@ -10346,7 +10423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B495" s="11" t="s">
         <v>675</v>
       </c>
@@ -10357,7 +10434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="496" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B496" s="11" t="s">
         <v>676</v>
       </c>
@@ -10369,7 +10446,7 @@
       </c>
       <c r="Q496" s="13"/>
     </row>
-    <row r="497" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B497" s="11" t="s">
         <v>677</v>
       </c>
@@ -10380,7 +10457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="498" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B498" s="11" t="s">
         <v>678</v>
       </c>
@@ -10391,7 +10468,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="499" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B499" s="11" t="s">
         <v>679</v>
       </c>
@@ -10402,7 +10479,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="500" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B500" s="11" t="s">
         <v>680</v>
       </c>
@@ -10413,7 +10490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B501" s="11" t="s">
         <v>303</v>
       </c>
@@ -10427,7 +10504,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B502" s="11" t="s">
         <v>681</v>
       </c>
@@ -10438,7 +10515,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B503" s="11" t="s">
         <v>682</v>
       </c>
@@ -10449,7 +10526,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A504" s="13"/>
       <c r="B504" s="11" t="s">
         <v>683</v>
@@ -10462,7 +10539,7 @@
       </c>
       <c r="R504" s="14"/>
     </row>
-    <row r="505" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B505" s="11" t="s">
         <v>305</v>
       </c>
@@ -10473,7 +10550,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="506" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B506" s="11" t="s">
         <v>684</v>
       </c>
@@ -10484,7 +10561,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="507" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B507" s="11" t="s">
         <v>685</v>
       </c>
@@ -10495,7 +10572,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="508" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B508" s="11" t="s">
         <v>306</v>
       </c>
@@ -10513,7 +10590,7 @@
       </c>
       <c r="Q508" s="13"/>
     </row>
-    <row r="509" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B509" s="11" t="s">
         <v>308</v>
       </c>
@@ -10524,7 +10601,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="510" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B510" s="11" t="s">
         <v>686</v>
       </c>
@@ -10535,7 +10612,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B511" s="11" t="s">
         <v>687</v>
       </c>
@@ -10546,7 +10623,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="512" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B512" s="11" t="s">
         <v>688</v>
       </c>
@@ -10557,7 +10634,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="513" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B513" s="11" t="s">
         <v>689</v>
       </c>
@@ -10568,7 +10645,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="514" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B514" s="11" t="s">
         <v>690</v>
       </c>
@@ -10579,7 +10656,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="515" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B515" s="11" t="s">
         <v>691</v>
       </c>
@@ -10590,7 +10667,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="516" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B516" s="11" t="s">
         <v>692</v>
       </c>
@@ -10601,7 +10678,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="517" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A517" s="13"/>
       <c r="B517" s="11" t="s">
         <v>693</v>
@@ -10614,7 +10691,7 @@
       </c>
       <c r="R517" s="14"/>
     </row>
-    <row r="518" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B518" s="11" t="s">
         <v>694</v>
       </c>
@@ -10625,7 +10702,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B519" s="11" t="s">
         <v>309</v>
       </c>
@@ -10648,10 +10725,16 @@
         <v>121</v>
       </c>
     </row>
-    <row r="520" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B520" s="11" t="s">
         <v>759</v>
       </c>
+      <c r="C520" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="D520" s="11" t="s">
+        <v>764</v>
+      </c>
       <c r="F520" s="11" t="s">
         <v>5</v>
       </c>
@@ -10659,7 +10742,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="521" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B521" s="11" t="s">
         <v>695</v>
       </c>
@@ -10674,7 +10757,7 @@
       </c>
       <c r="S521" s="13"/>
     </row>
-    <row r="522" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B522" s="11" t="s">
         <v>697</v>
       </c>
@@ -10685,7 +10768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="523" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B523" s="11" t="s">
         <v>698</v>
       </c>
@@ -10697,63 +10780,122 @@
       </c>
       <c r="S523" s="13"/>
     </row>
-    <row r="524" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B524" s="14" t="s">
+    <row r="524" spans="1:19" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B524" s="25" t="s">
+        <v>770</v>
+      </c>
+      <c r="C524" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="D524" s="24" t="s">
+        <v>761</v>
+      </c>
+      <c r="E524" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F524" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="J524" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="P524" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="525" spans="1:19" s="24" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B525" s="25" t="s">
         <v>765</v>
       </c>
-      <c r="C524" s="11" t="s">
+      <c r="C525" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="D525" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="E525" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="F525" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="G525" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="H525" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="J525" s="24" t="s">
         <v>762</v>
       </c>
-      <c r="D524" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="E524" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P524" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="525" spans="1:19" s="11" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B525" s="14" t="s">
-        <v>764</v>
-      </c>
-      <c r="J525" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="P525" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="526" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B526" s="14"/>
-      <c r="P526" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="527" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B527" s="14"/>
-      <c r="D527" s="12"/>
-      <c r="E527" s="12"/>
-      <c r="F527" s="12"/>
-      <c r="G527" s="12"/>
-      <c r="H527" s="12"/>
-      <c r="I527" s="12"/>
-      <c r="J527" s="12"/>
-      <c r="K527" s="12"/>
-      <c r="L527" s="12"/>
-      <c r="M527" s="12"/>
-      <c r="N527" s="12"/>
-      <c r="O527" s="12"/>
-      <c r="P527" s="12"/>
-    </row>
-    <row r="528" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P525" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="526" spans="1:19" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B526" s="25" t="s">
+        <v>771</v>
+      </c>
+      <c r="C526" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D526" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="E526" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="F526" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="H526" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="J526" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="P526" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="527" spans="1:19" s="24" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B527" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="C527" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="D527" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="E527" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="F527" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="G527" s="27"/>
+      <c r="H527" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="I527" s="27"/>
+      <c r="J527" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="K527" s="27"/>
+      <c r="L527" s="27"/>
+      <c r="M527" s="27"/>
+      <c r="N527" s="27"/>
+      <c r="O527" s="27"/>
+      <c r="P527" s="27"/>
+    </row>
+    <row r="528" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B528" s="14"/>
       <c r="P528" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="529" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B529" s="14"/>
       <c r="C529" s="12"/>
       <c r="D529" s="12"/>
@@ -10770,7 +10912,7 @@
       <c r="O529" s="12"/>
       <c r="P529" s="12"/>
     </row>
-    <row r="530" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B530" s="14"/>
       <c r="C530" s="12"/>
       <c r="D530" s="12"/>
@@ -10787,44 +10929,44 @@
       <c r="O530" s="12"/>
       <c r="P530" s="12"/>
     </row>
-    <row r="531" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B531" s="14"/>
       <c r="Q531" s="12"/>
     </row>
-    <row r="532" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B532" s="14"/>
     </row>
-    <row r="533" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B533" s="14"/>
     </row>
-    <row r="534" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B534" s="14"/>
     </row>
-    <row r="535" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B535" s="14"/>
     </row>
-    <row r="536" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B536" s="14"/>
     </row>
-    <row r="537" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B537" s="14"/>
     </row>
-    <row r="538" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B538" s="14"/>
     </row>
-    <row r="539" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B539" s="14"/>
     </row>
-    <row r="540" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A540" s="14"/>
       <c r="B540" s="14"/>
       <c r="R540" s="12"/>
     </row>
-    <row r="541" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B541" s="14"/>
       <c r="Q541" s="12"/>
     </row>
-    <row r="542" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B542" s="14"/>
       <c r="C542" s="12"/>
       <c r="D542" s="12"/>
@@ -10841,7 +10983,7 @@
       <c r="O542" s="12"/>
       <c r="P542" s="12"/>
     </row>
-    <row r="543" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B543" s="14"/>
       <c r="C543" s="12"/>
       <c r="D543" s="12"/>
@@ -10859,7 +11001,7 @@
       <c r="P543" s="12"/>
       <c r="Q543" s="12"/>
     </row>
-    <row r="544" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A544" s="12"/>
       <c r="B544" s="14"/>
       <c r="C544" s="12"/>
@@ -10879,7 +11021,7 @@
       <c r="Q544" s="12"/>
       <c r="R544" s="12"/>
     </row>
-    <row r="545" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B545" s="14"/>
       <c r="C545" s="12"/>
       <c r="D545" s="12"/>
@@ -10897,7 +11039,7 @@
       <c r="P545" s="12"/>
       <c r="Q545" s="12"/>
     </row>
-    <row r="546" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B546" s="14"/>
     </row>
   </sheetData>
@@ -10908,9 +11050,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G525" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10922,16 +11065,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -10945,7 +11088,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -10956,7 +11099,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -10967,7 +11110,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -10981,7 +11124,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -10992,7 +11135,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -11006,7 +11149,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -11017,7 +11160,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -11028,7 +11171,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -11039,7 +11182,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -11050,7 +11193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
@@ -11061,7 +11204,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -11072,7 +11215,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -11083,7 +11226,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -11094,7 +11237,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>116</v>
       </c>
@@ -11105,7 +11248,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>117</v>
       </c>
@@ -11116,7 +11259,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>118</v>
       </c>
@@ -11127,7 +11270,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
@@ -11138,7 +11281,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>719</v>
       </c>
@@ -11163,22 +11306,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.26953125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11216,7 +11359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -11230,7 +11373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -11244,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11261,7 +11404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -11272,7 +11415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -11286,7 +11429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -11303,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -11317,7 +11460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -11334,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -11361,7 +11504,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11376,12 +11519,12 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -11416,7 +11559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11427,7 +11570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11444,7 +11587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11461,7 +11604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11478,7 +11621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11495,7 +11638,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11512,7 +11655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11529,7 +11672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11546,7 +11689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11563,7 +11706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11580,7 +11723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11606,7 +11749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11632,7 +11775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11658,7 +11801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11684,7 +11827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11710,7 +11853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11736,7 +11879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11762,7 +11905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11788,7 +11931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11814,7 +11957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11840,7 +11983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11866,7 +12009,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11892,7 +12035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11918,7 +12061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11944,7 +12087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11970,7 +12113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11996,7 +12139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12022,7 +12165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12048,7 +12191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -2316,9 +2316,6 @@
     <t>Report; IAO:0000088</t>
   </si>
   <si>
-    <t>The time frame for this reporting is that of the work itself, from the initial conception and planning to the present. The requested information is about resources that the author received, either directly or indirectly (via their institution), to enable them to complete the work. This is not present if the author did the work without receiving any financial support from any third party -- that is, the work was supported by funds from the same institution that pays the person's salary and that institution did not receive third-party funds with which to pay them. If the author or their institution received funds from a third party to support the work, such as a government granting agency, charitable foundation or commercial sponsor, there is a competing interest</t>
-  </si>
-  <si>
     <t>A publication attribute that is the year in which it was published</t>
   </si>
   <si>
@@ -2358,16 +2355,19 @@
     <t>Good practice involves being as inclusive as possible to ensure full transparency and include both financial and non-financial factors that might conceivably influence the conduct, reporting or evaluation of research whether or not it actually does so.</t>
   </si>
   <si>
-    <t>A potential competing interest that involves the potential for either personal financial gain or loss resulting from enactment of the researcher's role.</t>
-  </si>
-  <si>
     <t>Financial potential competing interest</t>
   </si>
   <si>
-    <t>This includes: 1) financial potential competing interest as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to organisations that may be affected by, and 6) being a member of a lobbying group or pressure group relating to, the reported outcome of the research.</t>
-  </si>
-  <si>
-    <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organsation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the reported outcome of the research. It also includes all of the above that relate to an intimate partner</t>
+    <t>A potential competing interest that involves the potential for personal financial gain or loss resulting from enactment of the researcher's role.</t>
+  </si>
+  <si>
+    <t>Competing interests carry no implication of wrong-doing and are often unavoidable in research. However, they must be fully disclosed to enable users of research and research reports to make an informed judgement about the potential for bias.</t>
+  </si>
+  <si>
+    <t>This includes: 1) financial potential competing interest as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the reported outcome of the research.</t>
+  </si>
+  <si>
+    <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organisation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the reported outcome of the research. It also includes all of the above that relate to an intimate partner. Organisation includes commercial organisation, government agency, and charity.</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2629,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,10 +2930,10 @@
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H523" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I523" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J527" sqref="J527"/>
+      <selection pane="bottomRight" activeCell="J528" sqref="J528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10730,10 +10730,10 @@
         <v>759</v>
       </c>
       <c r="C520" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="D520" s="11" t="s">
         <v>763</v>
-      </c>
-      <c r="D520" s="11" t="s">
-        <v>764</v>
       </c>
       <c r="F520" s="11" t="s">
         <v>5</v>
@@ -10782,10 +10782,10 @@
     </row>
     <row r="524" spans="1:19" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B524" s="25" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C524" s="24" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D524" s="24" t="s">
         <v>761</v>
@@ -10797,36 +10797,36 @@
         <v>712</v>
       </c>
       <c r="J524" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="P524" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:19" s="24" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:19" s="24" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B525" s="25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C525" s="24" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D525" s="24" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E525" s="24" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F525" s="24" t="s">
         <v>712</v>
       </c>
       <c r="G525" s="26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H525" s="24" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J525" s="24" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="P525" s="24" t="s">
         <v>121</v>
@@ -10834,22 +10834,22 @@
     </row>
     <row r="526" spans="1:19" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B526" s="25" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C526" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="D526" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="E526" s="24" t="s">
         <v>773</v>
-      </c>
-      <c r="D526" s="24" t="s">
-        <v>767</v>
-      </c>
-      <c r="E526" s="24" t="s">
-        <v>774</v>
       </c>
       <c r="F526" s="24" t="s">
         <v>712</v>
       </c>
       <c r="H526" s="24" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J526" s="24" t="s">
         <v>778</v>
@@ -10858,25 +10858,25 @@
         <v>121</v>
       </c>
     </row>
-    <row r="527" spans="1:19" s="24" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:19" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B527" s="25" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C527" s="24" t="s">
         <v>776</v>
       </c>
       <c r="D527" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E527" s="24" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F527" s="24" t="s">
         <v>712</v>
       </c>
       <c r="G527" s="27"/>
       <c r="H527" s="24" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I527" s="27"/>
       <c r="J527" s="27" t="s">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="19430" windowHeight="10430"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -2629,7 +2629,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,36 +2930,36 @@
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I523" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C514" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J528" sqref="J528"/>
+      <selection pane="bottomRight" activeCell="C527" sqref="C527"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="64.453125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="12" customWidth="1"/>
     <col min="6" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="48.26953125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="82.26953125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="44.1796875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="12"/>
-    <col min="13" max="13" width="18.453125" style="12" customWidth="1"/>
-    <col min="14" max="15" width="9.1796875" style="12"/>
-    <col min="16" max="16" width="13.453125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="37.1796875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="48.7265625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="24.7265625" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="12"/>
+    <col min="7" max="7" width="35.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="82.28515625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="12"/>
+    <col min="13" max="13" width="18.42578125" style="12" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="12"/>
+    <col min="16" max="16" width="13.42578125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="37.140625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="48.7109375" style="12" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
         <v>171</v>
@@ -3050,7 +3050,7 @@
       <c r="R2" s="19"/>
       <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
         <v>172</v>
@@ -3085,7 +3085,7 @@
       <c r="R3" s="19"/>
       <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
         <v>125</v>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
         <v>173</v>
@@ -3163,7 +3163,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>174</v>
@@ -3200,7 +3200,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>178</v>
       </c>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>179</v>
       </c>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>180</v>
       </c>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>181</v>
       </c>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>182</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>131</v>
       </c>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>186</v>
       </c>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="S13" s="13"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>371</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>379</v>
       </c>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>380</v>
       </c>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="11" t="s">
         <v>382</v>
@@ -3498,7 +3498,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="11" t="s">
         <v>383</v>
@@ -3526,7 +3526,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>749</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="18"/>
     </row>
-    <row r="21" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>408</v>
       </c>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>134</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>135</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>196</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>197</v>
       </c>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>137</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>198</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>204</v>
       </c>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>205</v>
       </c>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
         <v>206</v>
@@ -3867,7 +3867,7 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
         <v>207</v>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>138</v>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>208</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
         <v>209</v>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>210</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>211</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>212</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
         <v>213</v>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>214</v>
       </c>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>215</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
         <v>216</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>217</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
         <v>218</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
         <v>219</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
         <v>220</v>
       </c>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
         <v>221</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13" t="s">
         <v>222</v>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13" t="s">
         <v>223</v>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="s">
         <v>224</v>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="R49" s="14"/>
     </row>
-    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13" t="s">
         <v>225</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
         <v>226</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="R51" s="14"/>
     </row>
-    <row r="52" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
         <v>139</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
         <v>140</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>227</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
         <v>228</v>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="R55" s="14"/>
     </row>
-    <row r="56" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>141</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>142</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
         <v>143</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>144</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13" t="s">
         <v>146</v>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="R60" s="14"/>
     </row>
-    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
         <v>148</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
         <v>149</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
         <v>150</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
         <v>751</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
         <v>229</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>230</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
         <v>151</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
         <v>155</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>160</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>231</v>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="13" t="s">
         <v>232</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>233</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
         <v>164</v>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>127</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
         <v>165</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
         <v>166</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
         <v>167</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
         <v>741</v>
       </c>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
         <v>168</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
         <v>169</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="s">
         <v>743</v>
       </c>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="Q81" s="13"/>
     </row>
-    <row r="82" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="13" t="s">
         <v>234</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="13" t="s">
         <v>170</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="11" t="s">
         <v>316</v>
@@ -5307,7 +5307,7 @@
       <c r="R84" s="14"/>
       <c r="S84" s="12"/>
     </row>
-    <row r="85" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="11" t="s">
         <v>320</v>
@@ -5334,7 +5334,7 @@
       <c r="R85" s="14"/>
       <c r="S85" s="12"/>
     </row>
-    <row r="86" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="11" t="s">
         <v>236</v>
@@ -5355,7 +5355,7 @@
       <c r="R86" s="14"/>
       <c r="S86" s="12"/>
     </row>
-    <row r="87" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
         <v>313</v>
       </c>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="S87" s="12"/>
     </row>
-    <row r="88" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="11" t="s">
         <v>322</v>
@@ -5403,7 +5403,7 @@
       <c r="R88" s="14"/>
       <c r="S88" s="12"/>
     </row>
-    <row r="89" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="11" t="s">
         <v>238</v>
@@ -5420,7 +5420,7 @@
       <c r="R89" s="14"/>
       <c r="S89" s="12"/>
     </row>
-    <row r="90" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="11" t="s">
         <v>324</v>
@@ -5434,7 +5434,7 @@
       <c r="R90" s="14"/>
       <c r="S90" s="12"/>
     </row>
-    <row r="91" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
         <v>325</v>
       </c>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="S91" s="12"/>
     </row>
-    <row r="92" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="11" t="s">
         <v>326</v>
@@ -5460,7 +5460,7 @@
       <c r="R92" s="14"/>
       <c r="S92" s="12"/>
     </row>
-    <row r="93" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
         <v>327</v>
       </c>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="S93" s="12"/>
     </row>
-    <row r="94" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="11" t="s">
         <v>328</v>
@@ -5486,7 +5486,7 @@
       <c r="R94" s="14"/>
       <c r="S94" s="13"/>
     </row>
-    <row r="95" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
         <v>329</v>
       </c>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="11" t="s">
         <v>240</v>
       </c>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="S96" s="13"/>
     </row>
-    <row r="97" spans="2:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B97" s="11" t="s">
         <v>242</v>
       </c>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="S97" s="13"/>
     </row>
-    <row r="98" spans="2:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B98" s="11" t="s">
         <v>243</v>
       </c>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="S98" s="13"/>
     </row>
-    <row r="99" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="11" t="s">
         <v>248</v>
       </c>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="S99" s="13"/>
     </row>
-    <row r="100" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="11" t="s">
         <v>250</v>
       </c>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="S100" s="13"/>
     </row>
-    <row r="101" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>63</v>
       </c>
@@ -5607,7 +5607,7 @@
       <c r="P101" s="12"/>
       <c r="S101" s="13"/>
     </row>
-    <row r="102" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="11" t="s">
         <v>330</v>
       </c>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="S102" s="13"/>
     </row>
-    <row r="103" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
         <v>331</v>
       </c>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="S103" s="13"/>
     </row>
-    <row r="104" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
         <v>332</v>
       </c>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="S104" s="13"/>
     </row>
-    <row r="105" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
         <v>333</v>
       </c>
@@ -5656,7 +5656,7 @@
       <c r="Q105" s="12"/>
       <c r="S105" s="13"/>
     </row>
-    <row r="106" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
         <v>334</v>
       </c>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="S106" s="13"/>
     </row>
-    <row r="107" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="11" t="s">
         <v>335</v>
       </c>
@@ -5681,7 +5681,7 @@
       <c r="Q107" s="13"/>
       <c r="S107" s="13"/>
     </row>
-    <row r="108" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="11" t="s">
         <v>336</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="Q108" s="13"/>
       <c r="S108" s="13"/>
     </row>
-    <row r="109" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
         <v>338</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="Q109" s="13"/>
       <c r="S109" s="13"/>
     </row>
-    <row r="110" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="11" t="s">
         <v>339</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="Q110" s="13"/>
       <c r="S110" s="13"/>
     </row>
-    <row r="111" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
         <v>340</v>
       </c>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="S111" s="13"/>
     </row>
-    <row r="112" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="11" t="s">
         <v>341</v>
       </c>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="S112" s="13"/>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="11" t="s">
         <v>342</v>
       </c>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="S113" s="13"/>
     </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="11" t="s">
         <v>343</v>
@@ -5773,7 +5773,7 @@
       <c r="R114" s="12"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="11" t="s">
         <v>344</v>
       </c>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="11" t="s">
         <v>345</v>
@@ -5799,7 +5799,7 @@
       <c r="R116" s="14"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="11" t="s">
         <v>346</v>
@@ -5813,7 +5813,7 @@
       <c r="R117" s="14"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="11" t="s">
         <v>251</v>
@@ -5827,7 +5827,7 @@
       <c r="R118" s="14"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="11" t="s">
         <v>347</v>
@@ -5841,7 +5841,7 @@
       <c r="R119" s="14"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="11" t="s">
         <v>348</v>
       </c>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="S120" s="13"/>
     </row>
-    <row r="121" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="11" t="s">
         <v>349</v>
       </c>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="S121" s="13"/>
     </row>
-    <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="11" t="s">
         <v>350</v>
       </c>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="S122" s="13"/>
     </row>
-    <row r="123" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="11" t="s">
         <v>351</v>
       </c>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>66</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="P124" s="12"/>
       <c r="S124" s="13"/>
     </row>
-    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="11" t="s">
         <v>252</v>
       </c>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="11" t="s">
         <v>253</v>
       </c>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="S126" s="13"/>
     </row>
-    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
         <v>254</v>
       </c>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="11" t="s">
         <v>255</v>
       </c>
@@ -5968,7 +5968,7 @@
       <c r="Q128" s="13"/>
       <c r="S128" s="13"/>
     </row>
-    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="11" t="s">
         <v>352</v>
       </c>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="S129" s="13"/>
     </row>
-    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="11" t="s">
         <v>256</v>
       </c>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="S130" s="13"/>
     </row>
-    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="11" t="s">
         <v>353</v>
       </c>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="S131" s="13"/>
     </row>
-    <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="11" t="s">
         <v>257</v>
       </c>
@@ -6017,7 +6017,7 @@
       <c r="Q132" s="12"/>
       <c r="S132" s="13"/>
     </row>
-    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="11" t="s">
         <v>258</v>
       </c>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="S133" s="13"/>
     </row>
-    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="11" t="s">
         <v>259</v>
       </c>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="S134" s="13"/>
     </row>
-    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="11" t="s">
         <v>354</v>
       </c>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="S135" s="13"/>
     </row>
-    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="11" t="s">
         <v>355</v>
       </c>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="S136" s="13"/>
     </row>
-    <row r="137" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="11" t="s">
         <v>261</v>
@@ -6082,7 +6082,7 @@
       <c r="R137" s="14"/>
       <c r="S137" s="13"/>
     </row>
-    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="11" t="s">
         <v>262</v>
       </c>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="S138" s="13"/>
     </row>
-    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="11" t="s">
         <v>356</v>
       </c>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="S139" s="13"/>
     </row>
-    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="11" t="s">
         <v>357</v>
       </c>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="S140" s="13"/>
     </row>
-    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="11" t="s">
         <v>358</v>
       </c>
@@ -6131,7 +6131,7 @@
       <c r="R141" s="12"/>
       <c r="S141" s="13"/>
     </row>
-    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="11" t="s">
         <v>359</v>
       </c>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="S142" s="13"/>
     </row>
-    <row r="143" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" s="11" t="s">
         <v>263</v>
       </c>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="11" t="s">
         <v>360</v>
       </c>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B145" s="11" t="s">
         <v>264</v>
       </c>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="S145" s="13"/>
     </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="11" t="s">
         <v>265</v>
       </c>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="S146" s="13"/>
     </row>
-    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="11" t="s">
         <v>266</v>
       </c>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="11" t="s">
         <v>361</v>
       </c>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="S148" s="13"/>
     </row>
-    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="11" t="s">
         <v>362</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="Q149" s="13"/>
       <c r="S149" s="13"/>
     </row>
-    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="11" t="s">
         <v>363</v>
       </c>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="S150" s="13"/>
     </row>
-    <row r="151" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="11" t="s">
         <v>267</v>
       </c>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="S151" s="13"/>
     </row>
-    <row r="152" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B152" s="11" t="s">
         <v>364</v>
       </c>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="S152" s="13"/>
     </row>
-    <row r="153" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="11" t="s">
         <v>365</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="Q153" s="13"/>
       <c r="S153" s="13"/>
     </row>
-    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="11" t="s">
         <v>366</v>
       </c>
@@ -6289,7 +6289,7 @@
       </c>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="11" t="s">
         <v>367</v>
       </c>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="S155" s="13"/>
     </row>
-    <row r="156" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="11" t="s">
         <v>368</v>
       </c>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B157" s="11" t="s">
         <v>268</v>
       </c>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="13"/>
       <c r="B158" s="11" t="s">
         <v>369</v>
@@ -6339,7 +6339,7 @@
       <c r="R158" s="14"/>
       <c r="S158" s="13"/>
     </row>
-    <row r="159" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="11" t="s">
         <v>370</v>
       </c>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="11" t="s">
         <v>269</v>
       </c>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="S160" s="13"/>
     </row>
-    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
       <c r="B161" s="13" t="s">
         <v>190</v>
@@ -6377,7 +6377,7 @@
       <c r="R161" s="14"/>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="11" t="s">
         <v>372</v>
       </c>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="S162" s="13"/>
     </row>
-    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="11" t="s">
         <v>373</v>
       </c>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="11" t="s">
         <v>374</v>
       </c>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="11" t="s">
         <v>270</v>
       </c>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="S165" s="13"/>
     </row>
-    <row r="166" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="11" t="s">
         <v>375</v>
       </c>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="S166" s="13"/>
     </row>
-    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="11" t="s">
         <v>376</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="Q167" s="13"/>
       <c r="S167" s="13"/>
     </row>
-    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="11" t="s">
         <v>377</v>
       </c>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="11" t="s">
         <v>378</v>
       </c>
@@ -6475,7 +6475,7 @@
       <c r="Q169" s="13"/>
       <c r="S169" s="13"/>
     </row>
-    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="13" t="s">
         <v>191</v>
       </c>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="S170" s="13"/>
     </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="13" t="s">
         <v>192</v>
       </c>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="S171" s="13"/>
     </row>
-    <row r="172" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="11" t="s">
         <v>381</v>
       </c>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="S172" s="13"/>
     </row>
-    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="13" t="s">
         <v>193</v>
       </c>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="S173" s="13"/>
     </row>
-    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="13" t="s">
         <v>194</v>
       </c>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="S174" s="13"/>
     </row>
-    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="11" t="s">
         <v>384</v>
       </c>
@@ -6548,7 +6548,7 @@
       <c r="Q175" s="13"/>
       <c r="S175" s="13"/>
     </row>
-    <row r="176" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="11" t="s">
         <v>385</v>
       </c>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="S176" s="13"/>
     </row>
-    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="11" t="s">
         <v>386</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="Q177" s="13"/>
       <c r="S177" s="13"/>
     </row>
-    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="11" t="s">
         <v>387</v>
       </c>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="S178" s="13"/>
     </row>
-    <row r="179" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="11" t="s">
         <v>388</v>
       </c>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="S179" s="13"/>
     </row>
-    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="11" t="s">
         <v>389</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="Q180" s="13"/>
       <c r="S180" s="13"/>
     </row>
-    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="11" t="s">
         <v>390</v>
       </c>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="S181" s="13"/>
     </row>
-    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="11" t="s">
         <v>391</v>
       </c>
@@ -6635,7 +6635,7 @@
       <c r="Q182" s="13"/>
       <c r="S182" s="13"/>
     </row>
-    <row r="183" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B183" s="11" t="s">
         <v>392</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="S183" s="13"/>
     </row>
-    <row r="184" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
       <c r="B184" s="11" t="s">
         <v>393</v>
@@ -6661,7 +6661,7 @@
       <c r="R184" s="14"/>
       <c r="S184" s="13"/>
     </row>
-    <row r="185" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="11" t="s">
         <v>394</v>
       </c>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="S185" s="13"/>
     </row>
-    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="11" t="s">
         <v>395</v>
@@ -6687,7 +6687,7 @@
       <c r="R186" s="14"/>
       <c r="S186" s="13"/>
     </row>
-    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="11" t="s">
         <v>396</v>
       </c>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="S187" s="13"/>
     </row>
-    <row r="188" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="11" t="s">
         <v>397</v>
       </c>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="S188" s="13"/>
     </row>
-    <row r="189" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="13"/>
       <c r="B189" s="11" t="s">
         <v>398</v>
@@ -6725,7 +6725,7 @@
       <c r="R189" s="14"/>
       <c r="S189" s="13"/>
     </row>
-    <row r="190" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="11" t="s">
         <v>271</v>
       </c>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="S190" s="13"/>
     </row>
-    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
       <c r="B191" s="11" t="s">
         <v>399</v>
@@ -6751,7 +6751,7 @@
       <c r="R191" s="14"/>
       <c r="S191" s="13"/>
     </row>
-    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="11" t="s">
         <v>400</v>
       </c>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="S192" s="13"/>
     </row>
-    <row r="193" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B193" s="11" t="s">
         <v>401</v>
       </c>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="S193" s="13"/>
     </row>
-    <row r="194" spans="2:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B194" s="11" t="s">
         <v>402</v>
       </c>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="S194" s="13"/>
     </row>
-    <row r="195" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B195" s="11" t="s">
         <v>404</v>
       </c>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="S195" s="13"/>
     </row>
-    <row r="196" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="11" t="s">
         <v>405</v>
       </c>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="11" t="s">
         <v>272</v>
       </c>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="S197" s="13"/>
     </row>
-    <row r="198" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="11" t="s">
         <v>407</v>
       </c>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="S198" s="13"/>
     </row>
-    <row r="199" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="11" t="s">
         <v>760</v>
       </c>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="S199" s="13"/>
     </row>
-    <row r="200" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="13" t="s">
         <v>195</v>
       </c>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="S200" s="13"/>
     </row>
-    <row r="201" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="11" t="s">
         <v>409</v>
       </c>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="S201" s="13"/>
     </row>
-    <row r="202" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="11" t="s">
         <v>410</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="203" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="11" t="s">
         <v>273</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="204" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B204" s="13" t="s">
         <v>132</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="205" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="11" t="s">
         <v>411</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="206" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="11" t="s">
         <v>412</v>
       </c>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="Q206" s="13"/>
     </row>
-    <row r="207" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B207" s="11" t="s">
         <v>413</v>
       </c>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="Q207" s="13"/>
     </row>
-    <row r="208" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="11" t="s">
         <v>699</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="11" t="s">
         <v>415</v>
       </c>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="Q209" s="13"/>
     </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="11" t="s">
         <v>416</v>
       </c>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="Q210" s="13"/>
     </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="11" t="s">
         <v>417</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="11" t="s">
         <v>419</v>
       </c>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="Q212" s="13"/>
     </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="11" t="s">
         <v>420</v>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="R213" s="14"/>
     </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
       <c r="B214" s="11" t="s">
         <v>421</v>
@@ -7039,7 +7039,7 @@
       <c r="Q214" s="13"/>
       <c r="R214" s="14"/>
     </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
       <c r="B215" s="11" t="s">
         <v>422</v>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
       <c r="B216" s="11" t="s">
         <v>725</v>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="R216" s="14"/>
     </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
       <c r="B217" s="11" t="s">
         <v>423</v>
@@ -7091,7 +7091,7 @@
       <c r="Q217" s="13"/>
       <c r="R217" s="14"/>
     </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="11" t="s">
         <v>424</v>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="R218" s="14"/>
     </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="13"/>
       <c r="B219" s="13" t="s">
         <v>736</v>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="R219" s="14"/>
     </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="11" t="s">
         <v>425</v>
       </c>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="Q220" s="13"/>
     </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="11" t="s">
         <v>426</v>
       </c>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="Q221" s="13"/>
     </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="11" t="s">
         <v>427</v>
       </c>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="Q222" s="13"/>
     </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="11" t="s">
         <v>428</v>
       </c>
@@ -7187,7 +7187,7 @@
       </c>
       <c r="Q223" s="13"/>
     </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B224" s="11" t="s">
         <v>429</v>
       </c>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="Q224" s="13"/>
     </row>
-    <row r="225" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="11" t="s">
         <v>430</v>
       </c>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="Q225" s="13"/>
     </row>
-    <row r="226" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B226" s="11" t="s">
         <v>433</v>
       </c>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="Q226" s="13"/>
     </row>
-    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B227" s="11" t="s">
         <v>434</v>
       </c>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="Q227" s="13"/>
     </row>
-    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
       <c r="B228" s="11" t="s">
         <v>435</v>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="R228" s="14"/>
     </row>
-    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="13"/>
       <c r="B229" s="11" t="s">
         <v>436</v>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="R229" s="14"/>
     </row>
-    <row r="230" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
       <c r="B230" s="11" t="s">
         <v>437</v>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="R230" s="14"/>
     </row>
-    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
       <c r="B231" s="11" t="s">
         <v>439</v>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="R231" s="14"/>
     </row>
-    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="13"/>
       <c r="B232" s="11" t="s">
         <v>440</v>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="R232" s="14"/>
     </row>
-    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="13"/>
       <c r="B233" s="11" t="s">
         <v>441</v>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="R233" s="14"/>
     </row>
-    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
       <c r="B234" s="11" t="s">
         <v>442</v>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
       <c r="B235" s="11" t="s">
         <v>443</v>
@@ -7348,7 +7348,7 @@
       </c>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
       <c r="B236" s="11" t="s">
         <v>444</v>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="R236" s="14"/>
     </row>
-    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B237" s="11" t="s">
         <v>445</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="238" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B238" s="11" t="s">
         <v>446</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="11" t="s">
         <v>447</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="11" t="s">
         <v>448</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B241" s="11" t="s">
         <v>274</v>
       </c>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="Q241" s="13"/>
     </row>
-    <row r="242" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="11" t="s">
         <v>275</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="Q242" s="13"/>
     </row>
-    <row r="243" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="11" t="s">
         <v>449</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="11" t="s">
         <v>451</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="11" t="s">
         <v>276</v>
       </c>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="Q245" s="13"/>
     </row>
-    <row r="246" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B246" s="11" t="s">
         <v>453</v>
       </c>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="Q246" s="13"/>
     </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B247" s="11" t="s">
         <v>454</v>
       </c>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="Q247" s="13"/>
     </row>
-    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B248" s="11" t="s">
         <v>455</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B249" s="11" t="s">
         <v>456</v>
       </c>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="Q249" s="13"/>
     </row>
-    <row r="250" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B250" s="11" t="s">
         <v>457</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="251" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="11" t="s">
         <v>458</v>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="13"/>
       <c r="B252" s="12" t="s">
         <v>111</v>
@@ -7567,7 +7567,7 @@
       <c r="P252" s="12"/>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
       <c r="B253" s="11" t="s">
         <v>176</v>
@@ -7593,7 +7593,7 @@
       <c r="Q253" s="13"/>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B254" s="11" t="s">
         <v>459</v>
       </c>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="Q254" s="13"/>
     </row>
-    <row r="255" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B255" s="11" t="s">
         <v>460</v>
       </c>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="Q255" s="13"/>
     </row>
-    <row r="256" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="11" t="s">
         <v>461</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B257" s="11" t="s">
         <v>462</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="11" t="s">
         <v>463</v>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="R258" s="14"/>
     </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B259" s="11" t="s">
         <v>464</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B260" s="11" t="s">
         <v>465</v>
       </c>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="Q260" s="12"/>
     </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B261" s="11" t="s">
         <v>466</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="262" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="13"/>
       <c r="B262" s="11" t="s">
         <v>468</v>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="R262" s="14"/>
     </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B263" s="11" t="s">
         <v>277</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B264" s="11" t="s">
         <v>469</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B265" s="11" t="s">
         <v>470</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>112</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B267" s="11" t="s">
         <v>472</v>
       </c>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="R267" s="12"/>
     </row>
-    <row r="268" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B268" s="11" t="s">
         <v>473</v>
       </c>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="Q268" s="13"/>
     </row>
-    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B269" s="11" t="s">
         <v>474</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="270" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B270" s="11" t="s">
         <v>475</v>
       </c>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="Q270" s="13"/>
     </row>
-    <row r="271" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B271" s="11" t="s">
         <v>476</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="11" t="s">
         <v>477</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="273" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" s="11" t="s">
         <v>478</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="274" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B274" s="11" t="s">
         <v>479</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="275" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B275" s="11" t="s">
         <v>480</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B276" s="11" t="s">
         <v>481</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="277" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="13"/>
       <c r="B277" s="11" t="s">
         <v>482</v>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="R277" s="14"/>
     </row>
-    <row r="278" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B278" s="11" t="s">
         <v>483</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="279" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
       <c r="B279" s="11" t="s">
         <v>484</v>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="R279" s="14"/>
     </row>
-    <row r="280" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B280" s="11" t="s">
         <v>485</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="281" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B281" s="11" t="s">
         <v>486</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B282" s="11" t="s">
         <v>487</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="283" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B283" s="11" t="s">
         <v>488</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="284" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B284" s="11" t="s">
         <v>489</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B285" s="11" t="s">
         <v>490</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="286" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B286" s="11" t="s">
         <v>491</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B287" s="11" t="s">
         <v>492</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" s="11" t="s">
         <v>493</v>
       </c>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="Q288" s="13"/>
     </row>
-    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" s="11" t="s">
         <v>494</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B290" s="11" t="s">
         <v>495</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B291" s="11" t="s">
         <v>278</v>
       </c>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="Q291" s="13"/>
     </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="11" t="s">
         <v>496</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B293" s="11" t="s">
         <v>497</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="11" t="s">
         <v>498</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B295" s="11" t="s">
         <v>499</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B296" s="11" t="s">
         <v>500</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B297" s="11" t="s">
         <v>501</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B298" s="11" t="s">
         <v>700</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="11" t="s">
         <v>502</v>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="R299" s="14"/>
     </row>
-    <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B300" s="11" t="s">
         <v>279</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B301" s="11" t="s">
         <v>503</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B302" s="11" t="s">
         <v>504</v>
       </c>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="Q302" s="13"/>
     </row>
-    <row r="303" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B303" s="11" t="s">
         <v>505</v>
       </c>
@@ -8172,7 +8172,7 @@
       </c>
       <c r="Q303" s="13"/>
     </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B304" s="11" t="s">
         <v>506</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B305" s="11" t="s">
         <v>507</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B306" s="11" t="s">
         <v>508</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B307" s="11" t="s">
         <v>509</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B308" s="11" t="s">
         <v>510</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="Q308" s="13"/>
     </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="11" t="s">
         <v>511</v>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="R309" s="14"/>
     </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="13"/>
       <c r="B310" s="11" t="s">
         <v>512</v>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="R310" s="14"/>
     </row>
-    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B311" s="11" t="s">
         <v>513</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="11" t="s">
         <v>514</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B313" s="11" t="s">
         <v>515</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="314" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B314" s="11" t="s">
         <v>516</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="13"/>
       <c r="B315" s="11" t="s">
         <v>517</v>
@@ -8312,7 +8312,7 @@
       <c r="Q315" s="13"/>
       <c r="R315" s="14"/>
     </row>
-    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B316" s="11" t="s">
         <v>518</v>
       </c>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="Q316" s="13"/>
     </row>
-    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="11" t="s">
         <v>519</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="11" t="s">
         <v>520</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B319" s="11" t="s">
         <v>521</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="11" t="s">
         <v>522</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="11" t="s">
         <v>523</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B322" s="11" t="s">
         <v>524</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="13"/>
       <c r="B323" s="11" t="s">
         <v>525</v>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="R323" s="14"/>
     </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="11" t="s">
         <v>526</v>
       </c>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="Q324" s="13"/>
     </row>
-    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B325" s="11" t="s">
         <v>527</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B326" s="12" t="s">
         <v>64</v>
       </c>
@@ -8447,7 +8447,7 @@
       <c r="O326" s="12"/>
       <c r="P326" s="12"/>
     </row>
-    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B327" s="11" t="s">
         <v>528</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B328" s="11" t="s">
         <v>529</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B329" s="11" t="s">
         <v>530</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B330" s="11" t="s">
         <v>531</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="11" t="s">
         <v>532</v>
       </c>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="Q331" s="13"/>
     </row>
-    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B332" s="11" t="s">
         <v>533</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="333" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
       <c r="B333" s="11" t="s">
         <v>534</v>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="R333" s="14"/>
     </row>
-    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B334" s="11" t="s">
         <v>536</v>
       </c>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="Q334" s="12"/>
     </row>
-    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B335" s="11" t="s">
         <v>537</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B336" s="11" t="s">
         <v>538</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="337" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="11" t="s">
         <v>539</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B338" s="11" t="s">
         <v>541</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="11" t="s">
         <v>542</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="13"/>
       <c r="B340" s="11" t="s">
         <v>543</v>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="R340" s="14"/>
     </row>
-    <row r="341" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B341" s="11" t="s">
         <v>544</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="342" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="11" t="s">
         <v>280</v>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="R342" s="12"/>
     </row>
-    <row r="343" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B343" s="11" t="s">
         <v>545</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="344" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B344" s="11" t="s">
         <v>546</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="345" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B345" s="11" t="s">
         <v>547</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B346" s="11" t="s">
         <v>548</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B347" s="11" t="s">
         <v>549</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="348" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B348" s="11" t="s">
         <v>550</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="349" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B349" s="11" t="s">
         <v>551</v>
       </c>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="Q349" s="13"/>
     </row>
-    <row r="350" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B350" s="11" t="s">
         <v>552</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="351" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B351" s="11" t="s">
         <v>553</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="352" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B352" s="11" t="s">
         <v>554</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="353" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B353" s="11" t="s">
         <v>555</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="354" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B354" s="11" t="s">
         <v>556</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="355" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B355" s="11" t="s">
         <v>557</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B356" s="11" t="s">
         <v>558</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="357" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="13"/>
       <c r="B357" s="11" t="s">
         <v>559</v>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="R357" s="14"/>
     </row>
-    <row r="358" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B358" s="11" t="s">
         <v>560</v>
       </c>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="Q358" s="13"/>
     </row>
-    <row r="359" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B359" s="11" t="s">
         <v>561</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B360" s="11" t="s">
         <v>562</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" s="11" t="s">
         <v>563</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="362" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B362" s="11" t="s">
         <v>564</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="363" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B363" s="11" t="s">
         <v>565</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="364" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B364" s="11" t="s">
         <v>566</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B365" s="11" t="s">
         <v>567</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="366" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="13"/>
       <c r="B366" s="11" t="s">
         <v>568</v>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="R366" s="14"/>
     </row>
-    <row r="367" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B367" s="11" t="s">
         <v>569</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="368" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B368" s="11" t="s">
         <v>570</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="369" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B369" s="11" t="s">
         <v>571</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B370" s="11" t="s">
         <v>572</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="371" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B371" s="11" t="s">
         <v>573</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="372" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B372" s="11" t="s">
         <v>575</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="373" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B373" s="11" t="s">
         <v>576</v>
       </c>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="Q373" s="13"/>
     </row>
-    <row r="374" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B374" s="11" t="s">
         <v>577</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="375" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B375" s="11" t="s">
         <v>578</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="376" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B376" s="11" t="s">
         <v>579</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="377" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B377" s="11" t="s">
         <v>580</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="378" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B378" s="11" t="s">
         <v>581</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="379" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B379" s="11" t="s">
         <v>582</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="380" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B380" s="11" t="s">
         <v>281</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="381" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="13"/>
       <c r="B381" s="11" t="s">
         <v>583</v>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="R381" s="14"/>
     </row>
-    <row r="382" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A382" s="11" t="s">
         <v>735</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="383" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B383" s="12" t="s">
         <v>67</v>
       </c>
@@ -9131,7 +9131,7 @@
       <c r="P383" s="12"/>
       <c r="Q383" s="13"/>
     </row>
-    <row r="384" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B384" s="11" t="s">
         <v>584</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="385" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B385" s="11" t="s">
         <v>585</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="386" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B386" s="11" t="s">
         <v>282</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="387" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B387" s="11" t="s">
         <v>586</v>
       </c>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="Q387" s="13"/>
     </row>
-    <row r="388" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B388" s="11" t="s">
         <v>587</v>
       </c>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="Q388" s="13"/>
     </row>
-    <row r="389" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B389" s="11" t="s">
         <v>588</v>
       </c>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="Q389" s="13"/>
     </row>
-    <row r="390" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B390" s="11" t="s">
         <v>589</v>
       </c>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="Q390" s="13"/>
     </row>
-    <row r="391" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B391" s="11" t="s">
         <v>590</v>
       </c>
@@ -9224,7 +9224,7 @@
       </c>
       <c r="Q391" s="12"/>
     </row>
-    <row r="392" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B392" s="11" t="s">
         <v>591</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
       <c r="B393" s="11" t="s">
         <v>592</v>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="R393" s="14"/>
     </row>
-    <row r="394" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="13"/>
       <c r="B394" s="11" t="s">
         <v>593</v>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="R394" s="14"/>
     </row>
-    <row r="395" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="13"/>
       <c r="B395" s="11" t="s">
         <v>594</v>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="R395" s="14"/>
     </row>
-    <row r="396" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="13"/>
       <c r="B396" s="11" t="s">
         <v>595</v>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="R396" s="14"/>
     </row>
-    <row r="397" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
       <c r="B397" s="11" t="s">
         <v>283</v>
@@ -9301,7 +9301,7 @@
       <c r="Q397" s="13"/>
       <c r="R397" s="12"/>
     </row>
-    <row r="398" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B398" s="11" t="s">
         <v>596</v>
       </c>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="Q398" s="13"/>
     </row>
-    <row r="399" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B399" s="11" t="s">
         <v>597</v>
       </c>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="Q399" s="13"/>
     </row>
-    <row r="400" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="11" t="s">
         <v>284</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="401" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B401" s="11" t="s">
         <v>598</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="402" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B402" s="11" t="s">
         <v>599</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="403" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B403" s="11" t="s">
         <v>600</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B404" s="11" t="s">
         <v>601</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="405" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B405" s="11" t="s">
         <v>602</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
       <c r="B406" s="11" t="s">
         <v>285</v>
@@ -9404,7 +9404,7 @@
       </c>
       <c r="R406" s="14"/>
     </row>
-    <row r="407" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="13"/>
       <c r="B407" s="11" t="s">
         <v>603</v>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="R407" s="14"/>
     </row>
-    <row r="408" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B408" s="11" t="s">
         <v>286</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="409" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B409" s="11" t="s">
         <v>287</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B410" s="11" t="s">
         <v>288</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="411" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B411" s="11" t="s">
         <v>289</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="412" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B412" s="11" t="s">
         <v>290</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B413" s="11" t="s">
         <v>291</v>
       </c>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="Q413" s="13"/>
     </row>
-    <row r="414" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B414" s="11" t="s">
         <v>292</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="415" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B415" s="11" t="s">
         <v>293</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="416" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B416" s="11" t="s">
         <v>294</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="417" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B417" s="11" t="s">
         <v>295</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B418" s="11" t="s">
         <v>296</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="13"/>
       <c r="B419" s="11" t="s">
         <v>604</v>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="R419" s="14"/>
     </row>
-    <row r="420" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B420" s="11" t="s">
         <v>297</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B421" s="11" t="s">
         <v>298</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="422" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B422" s="11" t="s">
         <v>299</v>
       </c>
@@ -9592,7 +9592,7 @@
       </c>
       <c r="Q422" s="13"/>
     </row>
-    <row r="423" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B423" s="11" t="s">
         <v>605</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="424" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B424" s="11" t="s">
         <v>606</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="425" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B425" s="11" t="s">
         <v>607</v>
       </c>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="Q425" s="13"/>
     </row>
-    <row r="426" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B426" s="11" t="s">
         <v>608</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="427" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B427" s="11" t="s">
         <v>609</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="428" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B428" s="11" t="s">
         <v>611</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="429" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B429" s="11" t="s">
         <v>612</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="430" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B430" s="11" t="s">
         <v>613</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="13"/>
       <c r="B431" s="11" t="s">
         <v>614</v>
@@ -9697,7 +9697,7 @@
       </c>
       <c r="R431" s="14"/>
     </row>
-    <row r="432" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B432" s="11" t="s">
         <v>615</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B433" s="12" t="s">
         <v>62</v>
       </c>
@@ -9735,7 +9735,7 @@
       <c r="O433" s="12"/>
       <c r="P433" s="12"/>
     </row>
-    <row r="434" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="13"/>
       <c r="B434" s="11" t="s">
         <v>302</v>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="R434" s="14"/>
     </row>
-    <row r="435" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B435" s="11" t="s">
         <v>616</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="436" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="11" t="s">
         <v>617</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="437" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="11" t="s">
         <v>618</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B438" s="11" t="s">
         <v>619</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="439" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B439" s="11" t="s">
         <v>620</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B440" s="11" t="s">
         <v>701</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="441" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B441" s="11" t="s">
         <v>621</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="442" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B442" s="11" t="s">
         <v>623</v>
       </c>
@@ -9840,7 +9840,7 @@
       </c>
       <c r="Q442" s="12"/>
     </row>
-    <row r="443" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B443" s="11" t="s">
         <v>624</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="444" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B444" s="11" t="s">
         <v>625</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B445" s="11" t="s">
         <v>626</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="446" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B446" s="11" t="s">
         <v>627</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="447" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="11" t="s">
         <v>628</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="448" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="11" t="s">
         <v>629</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="449" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B449" s="11" t="s">
         <v>630</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
       <c r="B450" s="11" t="s">
         <v>318</v>
@@ -9931,7 +9931,7 @@
       <c r="Q450" s="13"/>
       <c r="R450" s="12"/>
     </row>
-    <row r="451" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B451" s="11" t="s">
         <v>631</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="452" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B452" s="11" t="s">
         <v>632</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B453" s="11" t="s">
         <v>633</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="454" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B454" s="11" t="s">
         <v>634</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B455" s="11" t="s">
         <v>635</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="456" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B456" s="11" t="s">
         <v>636</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="457" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B457" s="11" t="s">
         <v>637</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B458" s="11" t="s">
         <v>638</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="13"/>
       <c r="B459" s="11" t="s">
         <v>639</v>
@@ -10032,7 +10032,7 @@
       </c>
       <c r="R459" s="14"/>
     </row>
-    <row r="460" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B460" s="11" t="s">
         <v>640</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B461" s="11" t="s">
         <v>641</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B462" s="11" t="s">
         <v>642</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="463" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B463" s="11" t="s">
         <v>643</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B464" s="11" t="s">
         <v>644</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B465" s="11" t="s">
         <v>645</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B466" s="11" t="s">
         <v>646</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B467" s="11" t="s">
         <v>647</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B468" s="11" t="s">
         <v>648</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="469" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B469" s="11" t="s">
         <v>649</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="470" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B470" s="11" t="s">
         <v>650</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="471" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B471" s="11" t="s">
         <v>651</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B472" s="11" t="s">
         <v>652</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="473" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B473" s="11" t="s">
         <v>653</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B474" s="11" t="s">
         <v>654</v>
       </c>
@@ -10198,7 +10198,7 @@
       </c>
       <c r="Q474" s="13"/>
     </row>
-    <row r="475" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B475" s="11" t="s">
         <v>655</v>
       </c>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="Q475" s="13"/>
     </row>
-    <row r="476" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B476" s="11" t="s">
         <v>656</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="477" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B477" s="11" t="s">
         <v>657</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="478" spans="2:17" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="11" t="s">
         <v>658</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="479" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B479" s="11" t="s">
         <v>659</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="2:17" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B480" s="11" t="s">
         <v>660</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B481" s="11" t="s">
         <v>661</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B482" s="11" t="s">
         <v>662</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="13"/>
       <c r="B483" s="11" t="s">
         <v>663</v>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="R483" s="14"/>
     </row>
-    <row r="484" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="13"/>
       <c r="B484" s="11" t="s">
         <v>664</v>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="R484" s="14"/>
     </row>
-    <row r="485" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="11" t="s">
         <v>665</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B486" s="11" t="s">
         <v>666</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="487" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B487" s="11" t="s">
         <v>667</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="488" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B488" s="11" t="s">
         <v>668</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B489" s="11" t="s">
         <v>669</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="490" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B490" s="11" t="s">
         <v>670</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="491" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B491" s="11" t="s">
         <v>671</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="492" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B492" s="11" t="s">
         <v>672</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B493" s="11" t="s">
         <v>673</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="494" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B494" s="11" t="s">
         <v>674</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B495" s="11" t="s">
         <v>675</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="496" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B496" s="11" t="s">
         <v>676</v>
       </c>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="Q496" s="13"/>
     </row>
-    <row r="497" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B497" s="11" t="s">
         <v>677</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="498" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B498" s="11" t="s">
         <v>678</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="499" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B499" s="11" t="s">
         <v>679</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="500" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B500" s="11" t="s">
         <v>680</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B501" s="11" t="s">
         <v>303</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B502" s="11" t="s">
         <v>681</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="11" t="s">
         <v>682</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="13"/>
       <c r="B504" s="11" t="s">
         <v>683</v>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="R504" s="14"/>
     </row>
-    <row r="505" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B505" s="11" t="s">
         <v>305</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="506" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B506" s="11" t="s">
         <v>684</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="507" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B507" s="11" t="s">
         <v>685</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="508" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B508" s="11" t="s">
         <v>306</v>
       </c>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="Q508" s="13"/>
     </row>
-    <row r="509" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B509" s="11" t="s">
         <v>308</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="510" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B510" s="11" t="s">
         <v>686</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B511" s="11" t="s">
         <v>687</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="512" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B512" s="11" t="s">
         <v>688</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="513" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B513" s="11" t="s">
         <v>689</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="514" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B514" s="11" t="s">
         <v>690</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="515" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B515" s="11" t="s">
         <v>691</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="516" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B516" s="11" t="s">
         <v>692</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="517" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="13"/>
       <c r="B517" s="11" t="s">
         <v>693</v>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="R517" s="14"/>
     </row>
-    <row r="518" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B518" s="11" t="s">
         <v>694</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B519" s="11" t="s">
         <v>309</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="520" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B520" s="11" t="s">
         <v>759</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="521" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B521" s="11" t="s">
         <v>695</v>
       </c>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="S521" s="13"/>
     </row>
-    <row r="522" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B522" s="11" t="s">
         <v>697</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="523" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B523" s="11" t="s">
         <v>698</v>
       </c>
@@ -10780,7 +10780,7 @@
       </c>
       <c r="S523" s="13"/>
     </row>
-    <row r="524" spans="1:19" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B524" s="25" t="s">
         <v>769</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:19" s="24" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:19" s="24" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="25" t="s">
         <v>764</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="526" spans="1:19" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:19" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B526" s="25" t="s">
         <v>770</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="527" spans="1:19" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:19" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B527" s="25" t="s">
         <v>775</v>
       </c>
@@ -10889,13 +10889,13 @@
       <c r="O527" s="27"/>
       <c r="P527" s="27"/>
     </row>
-    <row r="528" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B528" s="14"/>
       <c r="P528" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="529" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B529" s="14"/>
       <c r="C529" s="12"/>
       <c r="D529" s="12"/>
@@ -10912,7 +10912,7 @@
       <c r="O529" s="12"/>
       <c r="P529" s="12"/>
     </row>
-    <row r="530" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B530" s="14"/>
       <c r="C530" s="12"/>
       <c r="D530" s="12"/>
@@ -10929,44 +10929,44 @@
       <c r="O530" s="12"/>
       <c r="P530" s="12"/>
     </row>
-    <row r="531" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B531" s="14"/>
       <c r="Q531" s="12"/>
     </row>
-    <row r="532" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B532" s="14"/>
     </row>
-    <row r="533" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B533" s="14"/>
     </row>
-    <row r="534" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B534" s="14"/>
     </row>
-    <row r="535" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B535" s="14"/>
     </row>
-    <row r="536" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B536" s="14"/>
     </row>
-    <row r="537" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B537" s="14"/>
     </row>
-    <row r="538" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B538" s="14"/>
     </row>
-    <row r="539" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B539" s="14"/>
     </row>
-    <row r="540" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="14"/>
       <c r="B540" s="14"/>
       <c r="R540" s="12"/>
     </row>
-    <row r="541" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B541" s="14"/>
       <c r="Q541" s="12"/>
     </row>
-    <row r="542" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B542" s="14"/>
       <c r="C542" s="12"/>
       <c r="D542" s="12"/>
@@ -10983,7 +10983,7 @@
       <c r="O542" s="12"/>
       <c r="P542" s="12"/>
     </row>
-    <row r="543" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B543" s="14"/>
       <c r="C543" s="12"/>
       <c r="D543" s="12"/>
@@ -11001,7 +11001,7 @@
       <c r="P543" s="12"/>
       <c r="Q543" s="12"/>
     </row>
-    <row r="544" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="12"/>
       <c r="B544" s="14"/>
       <c r="C544" s="12"/>
@@ -11021,7 +11021,7 @@
       <c r="Q544" s="12"/>
       <c r="R544" s="12"/>
     </row>
-    <row r="545" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B545" s="14"/>
       <c r="C545" s="12"/>
       <c r="D545" s="12"/>
@@ -11039,7 +11039,7 @@
       <c r="P545" s="12"/>
       <c r="Q545" s="12"/>
     </row>
-    <row r="546" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B546" s="14"/>
     </row>
   </sheetData>
@@ -11065,16 +11065,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>116</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>117</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>118</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>719</v>
       </c>
@@ -11306,22 +11306,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.26953125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -11504,7 +11504,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11519,12 +11519,12 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="43.26953125" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="778">
   <si>
     <t>ID</t>
   </si>
@@ -2328,12 +2328,6 @@
     <t>https://journals.plos.org/plosbiology/s/competing-interests</t>
   </si>
   <si>
-    <t>Researcher attribute</t>
-  </si>
-  <si>
-    <t>An attribute of a researcher that interferes with, or could reasonably be perceived as interfering with, the full and objective enactment of the researcher's role.</t>
-  </si>
-  <si>
     <t>The definition was adapted from the PLOS definition.</t>
   </si>
   <si>
@@ -2343,31 +2337,31 @@
     <t>Potential competing interest</t>
   </si>
   <si>
-    <t>A report that provides information about a researcher's potential competing interest.</t>
-  </si>
-  <si>
-    <t>An attribute of a researcher that could potentially result in a competing interest.</t>
-  </si>
-  <si>
-    <t>Specifically dependent continuant</t>
-  </si>
-  <si>
-    <t>Good practice involves being as inclusive as possible to ensure full transparency and include both financial and non-financial factors that might conceivably influence the conduct, reporting or evaluation of research whether or not it actually does so.</t>
-  </si>
-  <si>
     <t>Financial potential competing interest</t>
   </si>
   <si>
-    <t>A potential competing interest that involves the potential for personal financial gain or loss resulting from enactment of the researcher's role.</t>
-  </si>
-  <si>
-    <t>Competing interests carry no implication of wrong-doing and are often unavoidable in research. However, they must be fully disclosed to enable users of research and research reports to make an informed judgement about the potential for bias.</t>
-  </si>
-  <si>
-    <t>This includes: 1) financial potential competing interest as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the reported outcome of the research.</t>
-  </si>
-  <si>
-    <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organisation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the reported outcome of the research. It also includes all of the above that relate to an intimate partner. Organisation includes commercial organisation, government agency, and charity.</t>
+    <t>An attribute of a person that could be a competing interest.</t>
+  </si>
+  <si>
+    <t>A potential competing interest that involves the potential for personal financial gain or loss resulting from enactment of the professional role.</t>
+  </si>
+  <si>
+    <t>Good practice involves being as inclusive as possible to ensure full transparency and include both financial and non-financial attributes that might conceivably influence the conduct, reporting or evaluation of research whether or not it actually does so.</t>
+  </si>
+  <si>
+    <t>Competing interests carry no implication of wrong-doing and are often unavoidable. However, they must be fully disclosed to enable stakeholders to make an informed judgement about the potential for bias.</t>
+  </si>
+  <si>
+    <t>This includes: 1) financial potential competing interest as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the conduct of the professional role.</t>
+  </si>
+  <si>
+    <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organisation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the enactment of the professional role. It also includes all of the above that relate to an intimate partner. Organisation includes commercial organisation, government agency, and charity.</t>
+  </si>
+  <si>
+    <t>A report that provides information about a person's potential competing interest.</t>
+  </si>
+  <si>
+    <t>An attribute of a person that interferes with the full and objective enactment of a professional role.</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2623,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2924,7 @@
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C514" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C520" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C527" sqref="C527"/>
@@ -10782,10 +10776,10 @@
     </row>
     <row r="524" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B524" s="25" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C524" s="24" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D524" s="24" t="s">
         <v>761</v>
@@ -10797,7 +10791,7 @@
         <v>712</v>
       </c>
       <c r="J524" s="24" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="P524" s="24" t="s">
         <v>121</v>
@@ -10808,13 +10802,13 @@
         <v>764</v>
       </c>
       <c r="C525" s="24" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="D525" s="24" t="s">
-        <v>766</v>
+        <v>70</v>
       </c>
       <c r="E525" s="24" t="s">
-        <v>773</v>
+        <v>70</v>
       </c>
       <c r="F525" s="24" t="s">
         <v>712</v>
@@ -10823,10 +10817,10 @@
         <v>765</v>
       </c>
       <c r="H525" s="24" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J525" s="24" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="P525" s="24" t="s">
         <v>121</v>
@@ -10834,25 +10828,25 @@
     </row>
     <row r="526" spans="1:19" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B526" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="C526" s="24" t="s">
         <v>770</v>
       </c>
-      <c r="C526" s="24" t="s">
-        <v>772</v>
-      </c>
       <c r="D526" s="24" t="s">
-        <v>766</v>
+        <v>70</v>
       </c>
       <c r="E526" s="24" t="s">
-        <v>773</v>
+        <v>70</v>
       </c>
       <c r="F526" s="24" t="s">
         <v>712</v>
       </c>
       <c r="H526" s="24" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J526" s="24" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="P526" s="24" t="s">
         <v>121</v>
@@ -10860,27 +10854,27 @@
     </row>
     <row r="527" spans="1:19" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B527" s="25" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C527" s="24" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D527" s="27" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E527" s="24" t="s">
-        <v>773</v>
+        <v>70</v>
       </c>
       <c r="F527" s="24" t="s">
         <v>712</v>
       </c>
       <c r="G527" s="27"/>
       <c r="H527" s="24" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I527" s="27"/>
       <c r="J527" s="27" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="K527" s="27"/>
       <c r="L527" s="27"/>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BD6DBC-AA3C-4001-9813-C9A3A3760606}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="783">
   <si>
     <t>ID</t>
   </si>
@@ -2361,13 +2362,28 @@
     <t>A report that provides information about a person's potential competing interest.</t>
   </si>
   <si>
-    <t>An attribute of a person that interferes with the full and objective enactment of a professional role.</t>
+    <t>A vested interest of a person that interferes with the full and objective enactment of a professional role.</t>
+  </si>
+  <si>
+    <t>Personal stake</t>
+  </si>
+  <si>
+    <t>This is derived from the idea of a stakeholder and is a generalisation of vested interest.</t>
+  </si>
+  <si>
+    <t>Dr Smith has a personal stake in the outcome of the clinical trial of the drug, varenicline, because he has shares in the company that produces the drug.</t>
+  </si>
+  <si>
+    <t>An attribute of a person that involves an outcome of value to that person arising from a process.</t>
+  </si>
+  <si>
+    <t>Value here can be positive or negative. This definition refers to actual value rather than perceived value. The process that produces the outcome will often be an event such as reporting of the outcome of a clinical trial, or delivery of a verdict in a trial, or enactment of legislation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2623,7 +2639,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,40 +2936,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C520" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C526" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C527" sqref="C527"/>
+      <selection pane="bottomRight" activeCell="J527" sqref="J527"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="82.28515625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="12"/>
-    <col min="13" max="13" width="18.42578125" style="12" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="12"/>
-    <col min="16" max="16" width="13.42578125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="37.140625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="48.7109375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="12"/>
+    <col min="7" max="7" width="35.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="48.26953125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="82.26953125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="44.1796875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="12"/>
+    <col min="13" max="13" width="18.453125" style="12" customWidth="1"/>
+    <col min="14" max="15" width="9.1796875" style="12"/>
+    <col min="16" max="16" width="13.453125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="37.1796875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="48.7265625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="24.7265625" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3025,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
         <v>171</v>
@@ -3044,7 +3060,7 @@
       <c r="R2" s="19"/>
       <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
         <v>172</v>
@@ -3079,7 +3095,7 @@
       <c r="R3" s="19"/>
       <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
         <v>125</v>
@@ -3122,7 +3138,7 @@
       </c>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
         <v>173</v>
@@ -3157,7 +3173,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>174</v>
@@ -3194,7 +3210,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>178</v>
       </c>
@@ -3220,7 +3236,7 @@
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>179</v>
       </c>
@@ -3246,7 +3262,7 @@
       </c>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>180</v>
       </c>
@@ -3272,7 +3288,7 @@
       </c>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
         <v>181</v>
       </c>
@@ -3298,7 +3314,7 @@
       </c>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>182</v>
       </c>
@@ -3324,7 +3340,7 @@
       </c>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>131</v>
       </c>
@@ -3350,7 +3366,7 @@
       </c>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>186</v>
       </c>
@@ -3386,7 +3402,7 @@
       </c>
       <c r="S13" s="13"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
         <v>371</v>
       </c>
@@ -3412,7 +3428,7 @@
       </c>
       <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
         <v>379</v>
       </c>
@@ -3438,7 +3454,7 @@
       </c>
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
         <v>380</v>
       </c>
@@ -3464,7 +3480,7 @@
       </c>
       <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="11" t="s">
         <v>382</v>
@@ -3492,7 +3508,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="11" t="s">
         <v>383</v>
@@ -3520,7 +3536,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
@@ -3557,7 +3573,7 @@
       </c>
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>749</v>
       </c>
@@ -3588,7 +3604,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="18"/>
     </row>
-    <row r="21" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
         <v>408</v>
       </c>
@@ -3614,7 +3630,7 @@
       </c>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
         <v>134</v>
       </c>
@@ -3641,7 +3657,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="13" t="s">
         <v>135</v>
       </c>
@@ -3666,7 +3682,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
         <v>196</v>
       </c>
@@ -3693,7 +3709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
         <v>197</v>
       </c>
@@ -3719,7 +3735,7 @@
       </c>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>137</v>
       </c>
@@ -3744,7 +3760,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
         <v>198</v>
       </c>
@@ -3781,7 +3797,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>204</v>
       </c>
@@ -3807,7 +3823,7 @@
       </c>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
         <v>205</v>
       </c>
@@ -3833,7 +3849,7 @@
       </c>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
         <v>206</v>
@@ -3861,7 +3877,7 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
         <v>207</v>
@@ -3888,7 +3904,7 @@
       </c>
       <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>138</v>
@@ -3915,7 +3931,7 @@
       </c>
       <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
         <v>208</v>
       </c>
@@ -3940,7 +3956,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
         <v>209</v>
@@ -3967,7 +3983,7 @@
       </c>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B35" s="13" t="s">
         <v>210</v>
       </c>
@@ -4002,7 +4018,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>211</v>
@@ -4029,7 +4045,7 @@
       </c>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="13" t="s">
         <v>212</v>
       </c>
@@ -4054,7 +4070,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
         <v>213</v>
@@ -4081,7 +4097,7 @@
       </c>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>214</v>
       </c>
@@ -4107,7 +4123,7 @@
       </c>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="13" t="s">
         <v>215</v>
       </c>
@@ -4132,7 +4148,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="13" t="s">
         <v>216</v>
       </c>
@@ -4157,7 +4173,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="13" t="s">
         <v>217</v>
       </c>
@@ -4182,7 +4198,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="13" t="s">
         <v>218</v>
       </c>
@@ -4207,7 +4223,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="13" t="s">
         <v>219</v>
       </c>
@@ -4232,7 +4248,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="13" t="s">
         <v>220</v>
       </c>
@@ -4258,7 +4274,7 @@
       </c>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="13" t="s">
         <v>221</v>
       </c>
@@ -4283,7 +4299,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
       <c r="B47" s="13" t="s">
         <v>222</v>
@@ -4310,7 +4326,7 @@
       </c>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="13" t="s">
         <v>223</v>
@@ -4337,7 +4353,7 @@
       </c>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="s">
         <v>224</v>
@@ -4364,7 +4380,7 @@
       </c>
       <c r="R49" s="14"/>
     </row>
-    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="13" t="s">
         <v>225</v>
@@ -4391,7 +4407,7 @@
       </c>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
         <v>226</v>
@@ -4418,7 +4434,7 @@
       </c>
       <c r="R51" s="14"/>
     </row>
-    <row r="52" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B52" s="13" t="s">
         <v>139</v>
       </c>
@@ -4443,7 +4459,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B53" s="13" t="s">
         <v>140</v>
       </c>
@@ -4468,7 +4484,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="13" t="s">
         <v>227</v>
       </c>
@@ -4493,7 +4509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
         <v>228</v>
@@ -4520,7 +4536,7 @@
       </c>
       <c r="R55" s="14"/>
     </row>
-    <row r="56" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="13" t="s">
         <v>141</v>
       </c>
@@ -4545,7 +4561,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B57" s="13" t="s">
         <v>142</v>
       </c>
@@ -4570,7 +4586,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="13" t="s">
         <v>143</v>
       </c>
@@ -4595,7 +4611,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B59" s="13" t="s">
         <v>144</v>
       </c>
@@ -4624,7 +4640,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="13"/>
       <c r="B60" s="13" t="s">
         <v>146</v>
@@ -4653,7 +4669,7 @@
       </c>
       <c r="R60" s="14"/>
     </row>
-    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="13" t="s">
         <v>148</v>
       </c>
@@ -4678,7 +4694,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
         <v>149</v>
       </c>
@@ -4703,7 +4719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B63" s="13" t="s">
         <v>150</v>
       </c>
@@ -4739,7 +4755,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="11" t="s">
         <v>751</v>
       </c>
@@ -4762,7 +4778,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="13" t="s">
         <v>229</v>
       </c>
@@ -4787,7 +4803,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="13" t="s">
         <v>230</v>
       </c>
@@ -4812,7 +4828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B67" s="13" t="s">
         <v>151</v>
       </c>
@@ -4843,7 +4859,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B68" s="13" t="s">
         <v>155</v>
       </c>
@@ -4876,7 +4892,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B69" s="13" t="s">
         <v>160</v>
       </c>
@@ -4907,7 +4923,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>231</v>
@@ -4934,7 +4950,7 @@
       </c>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="13" t="s">
         <v>232</v>
       </c>
@@ -4959,7 +4975,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="13" t="s">
         <v>233</v>
       </c>
@@ -4984,7 +5000,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
         <v>164</v>
@@ -5011,7 +5027,7 @@
       </c>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B74" s="11" t="s">
         <v>127</v>
       </c>
@@ -5034,7 +5050,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="13" t="s">
         <v>165</v>
       </c>
@@ -5059,7 +5075,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B76" s="13" t="s">
         <v>166</v>
       </c>
@@ -5084,7 +5100,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="13" t="s">
         <v>167</v>
       </c>
@@ -5109,7 +5125,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="13" t="s">
         <v>741</v>
       </c>
@@ -5141,7 +5157,7 @@
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="13" t="s">
         <v>168</v>
       </c>
@@ -5166,7 +5182,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B80" s="13" t="s">
         <v>169</v>
       </c>
@@ -5191,7 +5207,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B81" s="13" t="s">
         <v>743</v>
       </c>
@@ -5227,7 +5243,7 @@
       </c>
       <c r="Q81" s="13"/>
     </row>
-    <row r="82" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B82" s="13" t="s">
         <v>234</v>
       </c>
@@ -5252,7 +5268,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B83" s="13" t="s">
         <v>170</v>
       </c>
@@ -5277,7 +5293,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="13"/>
       <c r="B84" s="11" t="s">
         <v>316</v>
@@ -5301,7 +5317,7 @@
       <c r="R84" s="14"/>
       <c r="S84" s="12"/>
     </row>
-    <row r="85" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="13"/>
       <c r="B85" s="11" t="s">
         <v>320</v>
@@ -5328,7 +5344,7 @@
       <c r="R85" s="14"/>
       <c r="S85" s="12"/>
     </row>
-    <row r="86" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="13"/>
       <c r="B86" s="11" t="s">
         <v>236</v>
@@ -5349,7 +5365,7 @@
       <c r="R86" s="14"/>
       <c r="S86" s="12"/>
     </row>
-    <row r="87" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B87" s="11" t="s">
         <v>313</v>
       </c>
@@ -5370,7 +5386,7 @@
       </c>
       <c r="S87" s="12"/>
     </row>
-    <row r="88" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A88" s="13"/>
       <c r="B88" s="11" t="s">
         <v>322</v>
@@ -5397,7 +5413,7 @@
       <c r="R88" s="14"/>
       <c r="S88" s="12"/>
     </row>
-    <row r="89" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13"/>
       <c r="B89" s="11" t="s">
         <v>238</v>
@@ -5414,7 +5430,7 @@
       <c r="R89" s="14"/>
       <c r="S89" s="12"/>
     </row>
-    <row r="90" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13"/>
       <c r="B90" s="11" t="s">
         <v>324</v>
@@ -5428,7 +5444,7 @@
       <c r="R90" s="14"/>
       <c r="S90" s="12"/>
     </row>
-    <row r="91" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="11" t="s">
         <v>325</v>
       </c>
@@ -5440,7 +5456,7 @@
       </c>
       <c r="S91" s="12"/>
     </row>
-    <row r="92" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13"/>
       <c r="B92" s="11" t="s">
         <v>326</v>
@@ -5454,7 +5470,7 @@
       <c r="R92" s="14"/>
       <c r="S92" s="12"/>
     </row>
-    <row r="93" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="11" t="s">
         <v>327</v>
       </c>
@@ -5466,7 +5482,7 @@
       </c>
       <c r="S93" s="12"/>
     </row>
-    <row r="94" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13"/>
       <c r="B94" s="11" t="s">
         <v>328</v>
@@ -5480,7 +5496,7 @@
       <c r="R94" s="14"/>
       <c r="S94" s="13"/>
     </row>
-    <row r="95" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="11" t="s">
         <v>329</v>
       </c>
@@ -5492,7 +5508,7 @@
       </c>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B96" s="11" t="s">
         <v>240</v>
       </c>
@@ -5510,7 +5526,7 @@
       </c>
       <c r="S96" s="13"/>
     </row>
-    <row r="97" spans="2:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B97" s="11" t="s">
         <v>242</v>
       </c>
@@ -5522,7 +5538,7 @@
       </c>
       <c r="S97" s="13"/>
     </row>
-    <row r="98" spans="2:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B98" s="11" t="s">
         <v>243</v>
       </c>
@@ -5546,7 +5562,7 @@
       </c>
       <c r="S98" s="13"/>
     </row>
-    <row r="99" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B99" s="11" t="s">
         <v>248</v>
       </c>
@@ -5561,7 +5577,7 @@
       </c>
       <c r="S99" s="13"/>
     </row>
-    <row r="100" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B100" s="11" t="s">
         <v>250</v>
       </c>
@@ -5573,7 +5589,7 @@
       </c>
       <c r="S100" s="13"/>
     </row>
-    <row r="101" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="12" t="s">
         <v>63</v>
       </c>
@@ -5601,7 +5617,7 @@
       <c r="P101" s="12"/>
       <c r="S101" s="13"/>
     </row>
-    <row r="102" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B102" s="11" t="s">
         <v>330</v>
       </c>
@@ -5613,7 +5629,7 @@
       </c>
       <c r="S102" s="13"/>
     </row>
-    <row r="103" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="11" t="s">
         <v>331</v>
       </c>
@@ -5625,7 +5641,7 @@
       </c>
       <c r="S103" s="13"/>
     </row>
-    <row r="104" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="11" t="s">
         <v>332</v>
       </c>
@@ -5637,7 +5653,7 @@
       </c>
       <c r="S104" s="13"/>
     </row>
-    <row r="105" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="11" t="s">
         <v>333</v>
       </c>
@@ -5650,7 +5666,7 @@
       <c r="Q105" s="12"/>
       <c r="S105" s="13"/>
     </row>
-    <row r="106" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="11" t="s">
         <v>334</v>
       </c>
@@ -5662,7 +5678,7 @@
       </c>
       <c r="S106" s="13"/>
     </row>
-    <row r="107" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B107" s="11" t="s">
         <v>335</v>
       </c>
@@ -5675,7 +5691,7 @@
       <c r="Q107" s="13"/>
       <c r="S107" s="13"/>
     </row>
-    <row r="108" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B108" s="11" t="s">
         <v>336</v>
       </c>
@@ -5691,7 +5707,7 @@
       <c r="Q108" s="13"/>
       <c r="S108" s="13"/>
     </row>
-    <row r="109" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B109" s="11" t="s">
         <v>338</v>
       </c>
@@ -5704,7 +5720,7 @@
       <c r="Q109" s="13"/>
       <c r="S109" s="13"/>
     </row>
-    <row r="110" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B110" s="11" t="s">
         <v>339</v>
       </c>
@@ -5717,7 +5733,7 @@
       <c r="Q110" s="13"/>
       <c r="S110" s="13"/>
     </row>
-    <row r="111" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B111" s="11" t="s">
         <v>340</v>
       </c>
@@ -5729,7 +5745,7 @@
       </c>
       <c r="S111" s="13"/>
     </row>
-    <row r="112" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B112" s="11" t="s">
         <v>341</v>
       </c>
@@ -5741,7 +5757,7 @@
       </c>
       <c r="S112" s="13"/>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B113" s="11" t="s">
         <v>342</v>
       </c>
@@ -5753,7 +5769,7 @@
       </c>
       <c r="S113" s="13"/>
     </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12"/>
       <c r="B114" s="11" t="s">
         <v>343</v>
@@ -5767,7 +5783,7 @@
       <c r="R114" s="12"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B115" s="11" t="s">
         <v>344</v>
       </c>
@@ -5779,7 +5795,7 @@
       </c>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="13"/>
       <c r="B116" s="11" t="s">
         <v>345</v>
@@ -5793,7 +5809,7 @@
       <c r="R116" s="14"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="13"/>
       <c r="B117" s="11" t="s">
         <v>346</v>
@@ -5807,7 +5823,7 @@
       <c r="R117" s="14"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="13"/>
       <c r="B118" s="11" t="s">
         <v>251</v>
@@ -5821,7 +5837,7 @@
       <c r="R118" s="14"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="13"/>
       <c r="B119" s="11" t="s">
         <v>347</v>
@@ -5835,7 +5851,7 @@
       <c r="R119" s="14"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="11" t="s">
         <v>348</v>
       </c>
@@ -5847,7 +5863,7 @@
       </c>
       <c r="S120" s="13"/>
     </row>
-    <row r="121" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B121" s="11" t="s">
         <v>349</v>
       </c>
@@ -5859,7 +5875,7 @@
       </c>
       <c r="S121" s="13"/>
     </row>
-    <row r="122" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="11" t="s">
         <v>350</v>
       </c>
@@ -5871,7 +5887,7 @@
       </c>
       <c r="S122" s="13"/>
     </row>
-    <row r="123" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B123" s="11" t="s">
         <v>351</v>
       </c>
@@ -5883,7 +5899,7 @@
       </c>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B124" s="12" t="s">
         <v>66</v>
       </c>
@@ -5913,7 +5929,7 @@
       <c r="P124" s="12"/>
       <c r="S124" s="13"/>
     </row>
-    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="11" t="s">
         <v>252</v>
       </c>
@@ -5925,7 +5941,7 @@
       </c>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126" s="11" t="s">
         <v>253</v>
       </c>
@@ -5937,7 +5953,7 @@
       </c>
       <c r="S126" s="13"/>
     </row>
-    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="11" t="s">
         <v>254</v>
       </c>
@@ -5949,7 +5965,7 @@
       </c>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B128" s="11" t="s">
         <v>255</v>
       </c>
@@ -5962,7 +5978,7 @@
       <c r="Q128" s="13"/>
       <c r="S128" s="13"/>
     </row>
-    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B129" s="11" t="s">
         <v>352</v>
       </c>
@@ -5974,7 +5990,7 @@
       </c>
       <c r="S129" s="13"/>
     </row>
-    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B130" s="11" t="s">
         <v>256</v>
       </c>
@@ -5986,7 +6002,7 @@
       </c>
       <c r="S130" s="13"/>
     </row>
-    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B131" s="11" t="s">
         <v>353</v>
       </c>
@@ -5998,7 +6014,7 @@
       </c>
       <c r="S131" s="13"/>
     </row>
-    <row r="132" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="11" t="s">
         <v>257</v>
       </c>
@@ -6011,7 +6027,7 @@
       <c r="Q132" s="12"/>
       <c r="S132" s="13"/>
     </row>
-    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B133" s="11" t="s">
         <v>258</v>
       </c>
@@ -6023,7 +6039,7 @@
       </c>
       <c r="S133" s="13"/>
     </row>
-    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B134" s="11" t="s">
         <v>259</v>
       </c>
@@ -6038,7 +6054,7 @@
       </c>
       <c r="S134" s="13"/>
     </row>
-    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B135" s="11" t="s">
         <v>354</v>
       </c>
@@ -6050,7 +6066,7 @@
       </c>
       <c r="S135" s="13"/>
     </row>
-    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B136" s="11" t="s">
         <v>355</v>
       </c>
@@ -6062,7 +6078,7 @@
       </c>
       <c r="S136" s="13"/>
     </row>
-    <row r="137" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="13"/>
       <c r="B137" s="11" t="s">
         <v>261</v>
@@ -6076,7 +6092,7 @@
       <c r="R137" s="14"/>
       <c r="S137" s="13"/>
     </row>
-    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B138" s="11" t="s">
         <v>262</v>
       </c>
@@ -6088,7 +6104,7 @@
       </c>
       <c r="S138" s="13"/>
     </row>
-    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B139" s="11" t="s">
         <v>356</v>
       </c>
@@ -6100,7 +6116,7 @@
       </c>
       <c r="S139" s="13"/>
     </row>
-    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B140" s="11" t="s">
         <v>357</v>
       </c>
@@ -6112,7 +6128,7 @@
       </c>
       <c r="S140" s="13"/>
     </row>
-    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B141" s="11" t="s">
         <v>358</v>
       </c>
@@ -6125,7 +6141,7 @@
       <c r="R141" s="12"/>
       <c r="S141" s="13"/>
     </row>
-    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B142" s="11" t="s">
         <v>359</v>
       </c>
@@ -6137,7 +6153,7 @@
       </c>
       <c r="S142" s="13"/>
     </row>
-    <row r="143" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B143" s="11" t="s">
         <v>263</v>
       </c>
@@ -6149,7 +6165,7 @@
       </c>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B144" s="11" t="s">
         <v>360</v>
       </c>
@@ -6161,7 +6177,7 @@
       </c>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B145" s="11" t="s">
         <v>264</v>
       </c>
@@ -6173,7 +6189,7 @@
       </c>
       <c r="S145" s="13"/>
     </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B146" s="11" t="s">
         <v>265</v>
       </c>
@@ -6185,7 +6201,7 @@
       </c>
       <c r="S146" s="13"/>
     </row>
-    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B147" s="11" t="s">
         <v>266</v>
       </c>
@@ -6197,7 +6213,7 @@
       </c>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B148" s="11" t="s">
         <v>361</v>
       </c>
@@ -6209,7 +6225,7 @@
       </c>
       <c r="S148" s="13"/>
     </row>
-    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B149" s="11" t="s">
         <v>362</v>
       </c>
@@ -6222,7 +6238,7 @@
       <c r="Q149" s="13"/>
       <c r="S149" s="13"/>
     </row>
-    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B150" s="11" t="s">
         <v>363</v>
       </c>
@@ -6234,7 +6250,7 @@
       </c>
       <c r="S150" s="13"/>
     </row>
-    <row r="151" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B151" s="11" t="s">
         <v>267</v>
       </c>
@@ -6246,7 +6262,7 @@
       </c>
       <c r="S151" s="13"/>
     </row>
-    <row r="152" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B152" s="11" t="s">
         <v>364</v>
       </c>
@@ -6258,7 +6274,7 @@
       </c>
       <c r="S152" s="13"/>
     </row>
-    <row r="153" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B153" s="11" t="s">
         <v>365</v>
       </c>
@@ -6271,7 +6287,7 @@
       <c r="Q153" s="13"/>
       <c r="S153" s="13"/>
     </row>
-    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B154" s="11" t="s">
         <v>366</v>
       </c>
@@ -6283,7 +6299,7 @@
       </c>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B155" s="11" t="s">
         <v>367</v>
       </c>
@@ -6295,7 +6311,7 @@
       </c>
       <c r="S155" s="13"/>
     </row>
-    <row r="156" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B156" s="11" t="s">
         <v>368</v>
       </c>
@@ -6307,7 +6323,7 @@
       </c>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B157" s="11" t="s">
         <v>268</v>
       </c>
@@ -6319,7 +6335,7 @@
       </c>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="13"/>
       <c r="B158" s="11" t="s">
         <v>369</v>
@@ -6333,7 +6349,7 @@
       <c r="R158" s="14"/>
       <c r="S158" s="13"/>
     </row>
-    <row r="159" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B159" s="11" t="s">
         <v>370</v>
       </c>
@@ -6345,7 +6361,7 @@
       </c>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B160" s="11" t="s">
         <v>269</v>
       </c>
@@ -6357,7 +6373,7 @@
       </c>
       <c r="S160" s="13"/>
     </row>
-    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="13"/>
       <c r="B161" s="13" t="s">
         <v>190</v>
@@ -6371,7 +6387,7 @@
       <c r="R161" s="14"/>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B162" s="11" t="s">
         <v>372</v>
       </c>
@@ -6383,7 +6399,7 @@
       </c>
       <c r="S162" s="13"/>
     </row>
-    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B163" s="11" t="s">
         <v>373</v>
       </c>
@@ -6395,7 +6411,7 @@
       </c>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B164" s="11" t="s">
         <v>374</v>
       </c>
@@ -6407,7 +6423,7 @@
       </c>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B165" s="11" t="s">
         <v>270</v>
       </c>
@@ -6419,7 +6435,7 @@
       </c>
       <c r="S165" s="13"/>
     </row>
-    <row r="166" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B166" s="11" t="s">
         <v>375</v>
       </c>
@@ -6431,7 +6447,7 @@
       </c>
       <c r="S166" s="13"/>
     </row>
-    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B167" s="11" t="s">
         <v>376</v>
       </c>
@@ -6444,7 +6460,7 @@
       <c r="Q167" s="13"/>
       <c r="S167" s="13"/>
     </row>
-    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B168" s="11" t="s">
         <v>377</v>
       </c>
@@ -6456,7 +6472,7 @@
       </c>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B169" s="11" t="s">
         <v>378</v>
       </c>
@@ -6469,7 +6485,7 @@
       <c r="Q169" s="13"/>
       <c r="S169" s="13"/>
     </row>
-    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B170" s="13" t="s">
         <v>191</v>
       </c>
@@ -6481,7 +6497,7 @@
       </c>
       <c r="S170" s="13"/>
     </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B171" s="13" t="s">
         <v>192</v>
       </c>
@@ -6493,7 +6509,7 @@
       </c>
       <c r="S171" s="13"/>
     </row>
-    <row r="172" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B172" s="11" t="s">
         <v>381</v>
       </c>
@@ -6505,7 +6521,7 @@
       </c>
       <c r="S172" s="13"/>
     </row>
-    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B173" s="13" t="s">
         <v>193</v>
       </c>
@@ -6517,7 +6533,7 @@
       </c>
       <c r="S173" s="13"/>
     </row>
-    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B174" s="13" t="s">
         <v>194</v>
       </c>
@@ -6529,7 +6545,7 @@
       </c>
       <c r="S174" s="13"/>
     </row>
-    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B175" s="11" t="s">
         <v>384</v>
       </c>
@@ -6542,7 +6558,7 @@
       <c r="Q175" s="13"/>
       <c r="S175" s="13"/>
     </row>
-    <row r="176" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B176" s="11" t="s">
         <v>385</v>
       </c>
@@ -6554,7 +6570,7 @@
       </c>
       <c r="S176" s="13"/>
     </row>
-    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B177" s="11" t="s">
         <v>386</v>
       </c>
@@ -6567,7 +6583,7 @@
       <c r="Q177" s="13"/>
       <c r="S177" s="13"/>
     </row>
-    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B178" s="11" t="s">
         <v>387</v>
       </c>
@@ -6579,7 +6595,7 @@
       </c>
       <c r="S178" s="13"/>
     </row>
-    <row r="179" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B179" s="11" t="s">
         <v>388</v>
       </c>
@@ -6591,7 +6607,7 @@
       </c>
       <c r="S179" s="13"/>
     </row>
-    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B180" s="11" t="s">
         <v>389</v>
       </c>
@@ -6604,7 +6620,7 @@
       <c r="Q180" s="13"/>
       <c r="S180" s="13"/>
     </row>
-    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B181" s="11" t="s">
         <v>390</v>
       </c>
@@ -6616,7 +6632,7 @@
       </c>
       <c r="S181" s="13"/>
     </row>
-    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B182" s="11" t="s">
         <v>391</v>
       </c>
@@ -6629,7 +6645,7 @@
       <c r="Q182" s="13"/>
       <c r="S182" s="13"/>
     </row>
-    <row r="183" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B183" s="11" t="s">
         <v>392</v>
       </c>
@@ -6641,7 +6657,7 @@
       </c>
       <c r="S183" s="13"/>
     </row>
-    <row r="184" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="13"/>
       <c r="B184" s="11" t="s">
         <v>393</v>
@@ -6655,7 +6671,7 @@
       <c r="R184" s="14"/>
       <c r="S184" s="13"/>
     </row>
-    <row r="185" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B185" s="11" t="s">
         <v>394</v>
       </c>
@@ -6667,7 +6683,7 @@
       </c>
       <c r="S185" s="13"/>
     </row>
-    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="13"/>
       <c r="B186" s="11" t="s">
         <v>395</v>
@@ -6681,7 +6697,7 @@
       <c r="R186" s="14"/>
       <c r="S186" s="13"/>
     </row>
-    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B187" s="11" t="s">
         <v>396</v>
       </c>
@@ -6693,7 +6709,7 @@
       </c>
       <c r="S187" s="13"/>
     </row>
-    <row r="188" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B188" s="11" t="s">
         <v>397</v>
       </c>
@@ -6705,7 +6721,7 @@
       </c>
       <c r="S188" s="13"/>
     </row>
-    <row r="189" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="13"/>
       <c r="B189" s="11" t="s">
         <v>398</v>
@@ -6719,7 +6735,7 @@
       <c r="R189" s="14"/>
       <c r="S189" s="13"/>
     </row>
-    <row r="190" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B190" s="11" t="s">
         <v>271</v>
       </c>
@@ -6731,7 +6747,7 @@
       </c>
       <c r="S190" s="13"/>
     </row>
-    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="13"/>
       <c r="B191" s="11" t="s">
         <v>399</v>
@@ -6745,7 +6761,7 @@
       <c r="R191" s="14"/>
       <c r="S191" s="13"/>
     </row>
-    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B192" s="11" t="s">
         <v>400</v>
       </c>
@@ -6757,7 +6773,7 @@
       </c>
       <c r="S192" s="13"/>
     </row>
-    <row r="193" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B193" s="11" t="s">
         <v>401</v>
       </c>
@@ -6769,7 +6785,7 @@
       </c>
       <c r="S193" s="13"/>
     </row>
-    <row r="194" spans="2:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B194" s="11" t="s">
         <v>402</v>
       </c>
@@ -6781,7 +6797,7 @@
       </c>
       <c r="S194" s="13"/>
     </row>
-    <row r="195" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B195" s="11" t="s">
         <v>404</v>
       </c>
@@ -6796,7 +6812,7 @@
       </c>
       <c r="S195" s="13"/>
     </row>
-    <row r="196" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B196" s="11" t="s">
         <v>405</v>
       </c>
@@ -6808,7 +6824,7 @@
       </c>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B197" s="11" t="s">
         <v>272</v>
       </c>
@@ -6823,7 +6839,7 @@
       </c>
       <c r="S197" s="13"/>
     </row>
-    <row r="198" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B198" s="11" t="s">
         <v>407</v>
       </c>
@@ -6835,7 +6851,7 @@
       </c>
       <c r="S198" s="13"/>
     </row>
-    <row r="199" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B199" s="11" t="s">
         <v>760</v>
       </c>
@@ -6847,7 +6863,7 @@
       </c>
       <c r="S199" s="13"/>
     </row>
-    <row r="200" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B200" s="13" t="s">
         <v>195</v>
       </c>
@@ -6859,7 +6875,7 @@
       </c>
       <c r="S200" s="13"/>
     </row>
-    <row r="201" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B201" s="11" t="s">
         <v>409</v>
       </c>
@@ -6871,7 +6887,7 @@
       </c>
       <c r="S201" s="13"/>
     </row>
-    <row r="202" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B202" s="11" t="s">
         <v>410</v>
       </c>
@@ -6882,7 +6898,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="203" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B203" s="11" t="s">
         <v>273</v>
       </c>
@@ -6893,7 +6909,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="204" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B204" s="13" t="s">
         <v>132</v>
       </c>
@@ -6904,7 +6920,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="205" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B205" s="11" t="s">
         <v>411</v>
       </c>
@@ -6915,7 +6931,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="206" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B206" s="11" t="s">
         <v>412</v>
       </c>
@@ -6927,7 +6943,7 @@
       </c>
       <c r="Q206" s="13"/>
     </row>
-    <row r="207" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B207" s="11" t="s">
         <v>413</v>
       </c>
@@ -6945,7 +6961,7 @@
       </c>
       <c r="Q207" s="13"/>
     </row>
-    <row r="208" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B208" s="11" t="s">
         <v>699</v>
       </c>
@@ -6956,7 +6972,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B209" s="11" t="s">
         <v>415</v>
       </c>
@@ -6968,7 +6984,7 @@
       </c>
       <c r="Q209" s="13"/>
     </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B210" s="11" t="s">
         <v>416</v>
       </c>
@@ -6980,7 +6996,7 @@
       </c>
       <c r="Q210" s="13"/>
     </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B211" s="11" t="s">
         <v>417</v>
       </c>
@@ -6994,7 +7010,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B212" s="11" t="s">
         <v>419</v>
       </c>
@@ -7006,7 +7022,7 @@
       </c>
       <c r="Q212" s="13"/>
     </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="13"/>
       <c r="B213" s="11" t="s">
         <v>420</v>
@@ -7019,7 +7035,7 @@
       </c>
       <c r="R213" s="14"/>
     </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="13"/>
       <c r="B214" s="11" t="s">
         <v>421</v>
@@ -7033,7 +7049,7 @@
       <c r="Q214" s="13"/>
       <c r="R214" s="14"/>
     </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="13"/>
       <c r="B215" s="11" t="s">
         <v>422</v>
@@ -7046,7 +7062,7 @@
       </c>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="13"/>
       <c r="B216" s="11" t="s">
         <v>725</v>
@@ -7071,7 +7087,7 @@
       </c>
       <c r="R216" s="14"/>
     </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="13"/>
       <c r="B217" s="11" t="s">
         <v>423</v>
@@ -7085,7 +7101,7 @@
       <c r="Q217" s="13"/>
       <c r="R217" s="14"/>
     </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="13"/>
       <c r="B218" s="11" t="s">
         <v>424</v>
@@ -7098,7 +7114,7 @@
       </c>
       <c r="R218" s="14"/>
     </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="13"/>
       <c r="B219" s="13" t="s">
         <v>736</v>
@@ -7133,7 +7149,7 @@
       </c>
       <c r="R219" s="14"/>
     </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B220" s="11" t="s">
         <v>425</v>
       </c>
@@ -7145,7 +7161,7 @@
       </c>
       <c r="Q220" s="13"/>
     </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B221" s="11" t="s">
         <v>426</v>
       </c>
@@ -7157,7 +7173,7 @@
       </c>
       <c r="Q221" s="13"/>
     </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B222" s="11" t="s">
         <v>427</v>
       </c>
@@ -7169,7 +7185,7 @@
       </c>
       <c r="Q222" s="13"/>
     </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B223" s="11" t="s">
         <v>428</v>
       </c>
@@ -7181,7 +7197,7 @@
       </c>
       <c r="Q223" s="13"/>
     </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B224" s="11" t="s">
         <v>429</v>
       </c>
@@ -7193,7 +7209,7 @@
       </c>
       <c r="Q224" s="13"/>
     </row>
-    <row r="225" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B225" s="11" t="s">
         <v>430</v>
       </c>
@@ -7211,7 +7227,7 @@
       </c>
       <c r="Q225" s="13"/>
     </row>
-    <row r="226" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B226" s="11" t="s">
         <v>433</v>
       </c>
@@ -7223,7 +7239,7 @@
       </c>
       <c r="Q226" s="13"/>
     </row>
-    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B227" s="11" t="s">
         <v>434</v>
       </c>
@@ -7235,7 +7251,7 @@
       </c>
       <c r="Q227" s="13"/>
     </row>
-    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="13"/>
       <c r="B228" s="11" t="s">
         <v>435</v>
@@ -7248,7 +7264,7 @@
       </c>
       <c r="R228" s="14"/>
     </row>
-    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="13"/>
       <c r="B229" s="11" t="s">
         <v>436</v>
@@ -7261,7 +7277,7 @@
       </c>
       <c r="R229" s="14"/>
     </row>
-    <row r="230" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="13"/>
       <c r="B230" s="11" t="s">
         <v>437</v>
@@ -7277,7 +7293,7 @@
       </c>
       <c r="R230" s="14"/>
     </row>
-    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="13"/>
       <c r="B231" s="11" t="s">
         <v>439</v>
@@ -7290,7 +7306,7 @@
       </c>
       <c r="R231" s="14"/>
     </row>
-    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="13"/>
       <c r="B232" s="11" t="s">
         <v>440</v>
@@ -7303,7 +7319,7 @@
       </c>
       <c r="R232" s="14"/>
     </row>
-    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="13"/>
       <c r="B233" s="11" t="s">
         <v>441</v>
@@ -7316,7 +7332,7 @@
       </c>
       <c r="R233" s="14"/>
     </row>
-    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="13"/>
       <c r="B234" s="11" t="s">
         <v>442</v>
@@ -7329,7 +7345,7 @@
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="13"/>
       <c r="B235" s="11" t="s">
         <v>443</v>
@@ -7342,7 +7358,7 @@
       </c>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="13"/>
       <c r="B236" s="11" t="s">
         <v>444</v>
@@ -7355,7 +7371,7 @@
       </c>
       <c r="R236" s="14"/>
     </row>
-    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B237" s="11" t="s">
         <v>445</v>
       </c>
@@ -7366,7 +7382,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="238" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B238" s="11" t="s">
         <v>446</v>
       </c>
@@ -7377,7 +7393,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B239" s="11" t="s">
         <v>447</v>
       </c>
@@ -7388,7 +7404,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B240" s="11" t="s">
         <v>448</v>
       </c>
@@ -7399,7 +7415,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B241" s="11" t="s">
         <v>274</v>
       </c>
@@ -7411,7 +7427,7 @@
       </c>
       <c r="Q241" s="13"/>
     </row>
-    <row r="242" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B242" s="11" t="s">
         <v>275</v>
       </c>
@@ -7423,7 +7439,7 @@
       </c>
       <c r="Q242" s="13"/>
     </row>
-    <row r="243" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B243" s="11" t="s">
         <v>449</v>
       </c>
@@ -7437,7 +7453,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B244" s="11" t="s">
         <v>451</v>
       </c>
@@ -7451,7 +7467,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B245" s="11" t="s">
         <v>276</v>
       </c>
@@ -7463,7 +7479,7 @@
       </c>
       <c r="Q245" s="13"/>
     </row>
-    <row r="246" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B246" s="11" t="s">
         <v>453</v>
       </c>
@@ -7475,7 +7491,7 @@
       </c>
       <c r="Q246" s="13"/>
     </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B247" s="11" t="s">
         <v>454</v>
       </c>
@@ -7487,7 +7503,7 @@
       </c>
       <c r="Q247" s="13"/>
     </row>
-    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B248" s="11" t="s">
         <v>455</v>
       </c>
@@ -7498,7 +7514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B249" s="11" t="s">
         <v>456</v>
       </c>
@@ -7510,7 +7526,7 @@
       </c>
       <c r="Q249" s="13"/>
     </row>
-    <row r="250" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B250" s="11" t="s">
         <v>457</v>
       </c>
@@ -7521,7 +7537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="251" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" s="13"/>
       <c r="B251" s="11" t="s">
         <v>458</v>
@@ -7534,7 +7550,7 @@
       </c>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="13"/>
       <c r="B252" s="12" t="s">
         <v>111</v>
@@ -7561,7 +7577,7 @@
       <c r="P252" s="12"/>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A253" s="13"/>
       <c r="B253" s="11" t="s">
         <v>176</v>
@@ -7587,7 +7603,7 @@
       <c r="Q253" s="13"/>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B254" s="11" t="s">
         <v>459</v>
       </c>
@@ -7599,7 +7615,7 @@
       </c>
       <c r="Q254" s="13"/>
     </row>
-    <row r="255" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B255" s="11" t="s">
         <v>460</v>
       </c>
@@ -7611,7 +7627,7 @@
       </c>
       <c r="Q255" s="13"/>
     </row>
-    <row r="256" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B256" s="11" t="s">
         <v>461</v>
       </c>
@@ -7622,7 +7638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B257" s="11" t="s">
         <v>462</v>
       </c>
@@ -7633,7 +7649,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A258" s="13"/>
       <c r="B258" s="11" t="s">
         <v>463</v>
@@ -7646,7 +7662,7 @@
       </c>
       <c r="R258" s="14"/>
     </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B259" s="11" t="s">
         <v>464</v>
       </c>
@@ -7657,7 +7673,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B260" s="11" t="s">
         <v>465</v>
       </c>
@@ -7669,7 +7685,7 @@
       </c>
       <c r="Q260" s="12"/>
     </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B261" s="11" t="s">
         <v>466</v>
       </c>
@@ -7683,7 +7699,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="262" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="13"/>
       <c r="B262" s="11" t="s">
         <v>468</v>
@@ -7696,7 +7712,7 @@
       </c>
       <c r="R262" s="14"/>
     </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B263" s="11" t="s">
         <v>277</v>
       </c>
@@ -7707,7 +7723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B264" s="11" t="s">
         <v>469</v>
       </c>
@@ -7718,7 +7734,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B265" s="11" t="s">
         <v>470</v>
       </c>
@@ -7729,7 +7745,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" s="8" t="s">
         <v>112</v>
       </c>
@@ -7746,7 +7762,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B267" s="11" t="s">
         <v>472</v>
       </c>
@@ -7758,7 +7774,7 @@
       </c>
       <c r="R267" s="12"/>
     </row>
-    <row r="268" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B268" s="11" t="s">
         <v>473</v>
       </c>
@@ -7770,7 +7786,7 @@
       </c>
       <c r="Q268" s="13"/>
     </row>
-    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B269" s="11" t="s">
         <v>474</v>
       </c>
@@ -7781,7 +7797,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="270" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B270" s="11" t="s">
         <v>475</v>
       </c>
@@ -7793,7 +7809,7 @@
       </c>
       <c r="Q270" s="13"/>
     </row>
-    <row r="271" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B271" s="11" t="s">
         <v>476</v>
       </c>
@@ -7804,7 +7820,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="272" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B272" s="11" t="s">
         <v>477</v>
       </c>
@@ -7815,7 +7831,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="273" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B273" s="11" t="s">
         <v>478</v>
       </c>
@@ -7826,7 +7842,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="274" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B274" s="11" t="s">
         <v>479</v>
       </c>
@@ -7837,7 +7853,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="275" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B275" s="11" t="s">
         <v>480</v>
       </c>
@@ -7848,7 +7864,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B276" s="11" t="s">
         <v>481</v>
       </c>
@@ -7859,7 +7875,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="277" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="13"/>
       <c r="B277" s="11" t="s">
         <v>482</v>
@@ -7872,7 +7888,7 @@
       </c>
       <c r="R277" s="14"/>
     </row>
-    <row r="278" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B278" s="11" t="s">
         <v>483</v>
       </c>
@@ -7883,7 +7899,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="279" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" s="13"/>
       <c r="B279" s="11" t="s">
         <v>484</v>
@@ -7896,7 +7912,7 @@
       </c>
       <c r="R279" s="14"/>
     </row>
-    <row r="280" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B280" s="11" t="s">
         <v>485</v>
       </c>
@@ -7907,7 +7923,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="281" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B281" s="11" t="s">
         <v>486</v>
       </c>
@@ -7918,7 +7934,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B282" s="11" t="s">
         <v>487</v>
       </c>
@@ -7929,7 +7945,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="283" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B283" s="11" t="s">
         <v>488</v>
       </c>
@@ -7940,7 +7956,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="284" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B284" s="11" t="s">
         <v>489</v>
       </c>
@@ -7951,7 +7967,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B285" s="11" t="s">
         <v>490</v>
       </c>
@@ -7962,7 +7978,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="286" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B286" s="11" t="s">
         <v>491</v>
       </c>
@@ -7973,7 +7989,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B287" s="11" t="s">
         <v>492</v>
       </c>
@@ -7984,7 +8000,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B288" s="11" t="s">
         <v>493</v>
       </c>
@@ -7996,7 +8012,7 @@
       </c>
       <c r="Q288" s="13"/>
     </row>
-    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B289" s="11" t="s">
         <v>494</v>
       </c>
@@ -8007,7 +8023,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B290" s="11" t="s">
         <v>495</v>
       </c>
@@ -8018,7 +8034,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B291" s="11" t="s">
         <v>278</v>
       </c>
@@ -8030,7 +8046,7 @@
       </c>
       <c r="Q291" s="13"/>
     </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B292" s="11" t="s">
         <v>496</v>
       </c>
@@ -8041,7 +8057,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B293" s="11" t="s">
         <v>497</v>
       </c>
@@ -8052,7 +8068,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B294" s="11" t="s">
         <v>498</v>
       </c>
@@ -8063,7 +8079,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B295" s="11" t="s">
         <v>499</v>
       </c>
@@ -8074,7 +8090,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B296" s="11" t="s">
         <v>500</v>
       </c>
@@ -8085,7 +8101,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B297" s="11" t="s">
         <v>501</v>
       </c>
@@ -8096,7 +8112,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B298" s="11" t="s">
         <v>700</v>
       </c>
@@ -8107,7 +8123,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="13"/>
       <c r="B299" s="11" t="s">
         <v>502</v>
@@ -8120,7 +8136,7 @@
       </c>
       <c r="R299" s="14"/>
     </row>
-    <row r="300" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B300" s="11" t="s">
         <v>279</v>
       </c>
@@ -8131,7 +8147,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B301" s="11" t="s">
         <v>503</v>
       </c>
@@ -8142,7 +8158,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B302" s="11" t="s">
         <v>504</v>
       </c>
@@ -8154,7 +8170,7 @@
       </c>
       <c r="Q302" s="13"/>
     </row>
-    <row r="303" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B303" s="11" t="s">
         <v>505</v>
       </c>
@@ -8166,7 +8182,7 @@
       </c>
       <c r="Q303" s="13"/>
     </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B304" s="11" t="s">
         <v>506</v>
       </c>
@@ -8177,7 +8193,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B305" s="11" t="s">
         <v>507</v>
       </c>
@@ -8188,7 +8204,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B306" s="11" t="s">
         <v>508</v>
       </c>
@@ -8199,7 +8215,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B307" s="11" t="s">
         <v>509</v>
       </c>
@@ -8210,7 +8226,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B308" s="11" t="s">
         <v>510</v>
       </c>
@@ -8222,7 +8238,7 @@
       </c>
       <c r="Q308" s="13"/>
     </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="13"/>
       <c r="B309" s="11" t="s">
         <v>511</v>
@@ -8235,7 +8251,7 @@
       </c>
       <c r="R309" s="14"/>
     </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="13"/>
       <c r="B310" s="11" t="s">
         <v>512</v>
@@ -8248,7 +8264,7 @@
       </c>
       <c r="R310" s="14"/>
     </row>
-    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B311" s="11" t="s">
         <v>513</v>
       </c>
@@ -8259,7 +8275,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B312" s="11" t="s">
         <v>514</v>
       </c>
@@ -8270,7 +8286,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B313" s="11" t="s">
         <v>515</v>
       </c>
@@ -8281,7 +8297,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="314" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B314" s="11" t="s">
         <v>516</v>
       </c>
@@ -8292,7 +8308,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="13"/>
       <c r="B315" s="11" t="s">
         <v>517</v>
@@ -8306,7 +8322,7 @@
       <c r="Q315" s="13"/>
       <c r="R315" s="14"/>
     </row>
-    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B316" s="11" t="s">
         <v>518</v>
       </c>
@@ -8318,7 +8334,7 @@
       </c>
       <c r="Q316" s="13"/>
     </row>
-    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B317" s="11" t="s">
         <v>519</v>
       </c>
@@ -8329,7 +8345,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B318" s="11" t="s">
         <v>520</v>
       </c>
@@ -8340,7 +8356,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B319" s="11" t="s">
         <v>521</v>
       </c>
@@ -8351,7 +8367,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B320" s="11" t="s">
         <v>522</v>
       </c>
@@ -8362,7 +8378,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B321" s="11" t="s">
         <v>523</v>
       </c>
@@ -8373,7 +8389,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B322" s="11" t="s">
         <v>524</v>
       </c>
@@ -8384,7 +8400,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A323" s="13"/>
       <c r="B323" s="11" t="s">
         <v>525</v>
@@ -8397,7 +8413,7 @@
       </c>
       <c r="R323" s="14"/>
     </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B324" s="11" t="s">
         <v>526</v>
       </c>
@@ -8409,7 +8425,7 @@
       </c>
       <c r="Q324" s="13"/>
     </row>
-    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B325" s="11" t="s">
         <v>527</v>
       </c>
@@ -8420,7 +8436,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B326" s="12" t="s">
         <v>64</v>
       </c>
@@ -8441,7 +8457,7 @@
       <c r="O326" s="12"/>
       <c r="P326" s="12"/>
     </row>
-    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B327" s="11" t="s">
         <v>528</v>
       </c>
@@ -8452,7 +8468,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B328" s="11" t="s">
         <v>529</v>
       </c>
@@ -8463,7 +8479,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B329" s="11" t="s">
         <v>530</v>
       </c>
@@ -8474,7 +8490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B330" s="11" t="s">
         <v>531</v>
       </c>
@@ -8485,7 +8501,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B331" s="11" t="s">
         <v>532</v>
       </c>
@@ -8497,7 +8513,7 @@
       </c>
       <c r="Q331" s="13"/>
     </row>
-    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B332" s="11" t="s">
         <v>533</v>
       </c>
@@ -8508,7 +8524,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="333" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A333" s="13"/>
       <c r="B333" s="11" t="s">
         <v>534</v>
@@ -8524,7 +8540,7 @@
       </c>
       <c r="R333" s="14"/>
     </row>
-    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B334" s="11" t="s">
         <v>536</v>
       </c>
@@ -8536,7 +8552,7 @@
       </c>
       <c r="Q334" s="12"/>
     </row>
-    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B335" s="11" t="s">
         <v>537</v>
       </c>
@@ -8547,7 +8563,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B336" s="11" t="s">
         <v>538</v>
       </c>
@@ -8558,7 +8574,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="337" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B337" s="11" t="s">
         <v>539</v>
       </c>
@@ -8572,7 +8588,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B338" s="11" t="s">
         <v>541</v>
       </c>
@@ -8583,7 +8599,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B339" s="11" t="s">
         <v>542</v>
       </c>
@@ -8594,7 +8610,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A340" s="13"/>
       <c r="B340" s="11" t="s">
         <v>543</v>
@@ -8607,7 +8623,7 @@
       </c>
       <c r="R340" s="14"/>
     </row>
-    <row r="341" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B341" s="11" t="s">
         <v>544</v>
       </c>
@@ -8618,7 +8634,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="342" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A342" s="12"/>
       <c r="B342" s="11" t="s">
         <v>280</v>
@@ -8631,7 +8647,7 @@
       </c>
       <c r="R342" s="12"/>
     </row>
-    <row r="343" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B343" s="11" t="s">
         <v>545</v>
       </c>
@@ -8642,7 +8658,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="344" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B344" s="11" t="s">
         <v>546</v>
       </c>
@@ -8653,7 +8669,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="345" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B345" s="11" t="s">
         <v>547</v>
       </c>
@@ -8664,7 +8680,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B346" s="11" t="s">
         <v>548</v>
       </c>
@@ -8675,7 +8691,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B347" s="11" t="s">
         <v>549</v>
       </c>
@@ -8686,7 +8702,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="348" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B348" s="11" t="s">
         <v>550</v>
       </c>
@@ -8697,7 +8713,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="349" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B349" s="11" t="s">
         <v>551</v>
       </c>
@@ -8709,7 +8725,7 @@
       </c>
       <c r="Q349" s="13"/>
     </row>
-    <row r="350" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B350" s="11" t="s">
         <v>552</v>
       </c>
@@ -8720,7 +8736,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="351" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B351" s="11" t="s">
         <v>553</v>
       </c>
@@ -8731,7 +8747,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="352" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B352" s="11" t="s">
         <v>554</v>
       </c>
@@ -8742,7 +8758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="353" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B353" s="11" t="s">
         <v>555</v>
       </c>
@@ -8753,7 +8769,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="354" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B354" s="11" t="s">
         <v>556</v>
       </c>
@@ -8764,7 +8780,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="355" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B355" s="11" t="s">
         <v>557</v>
       </c>
@@ -8775,7 +8791,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B356" s="11" t="s">
         <v>558</v>
       </c>
@@ -8786,7 +8802,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="357" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A357" s="13"/>
       <c r="B357" s="11" t="s">
         <v>559</v>
@@ -8799,7 +8815,7 @@
       </c>
       <c r="R357" s="14"/>
     </row>
-    <row r="358" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B358" s="11" t="s">
         <v>560</v>
       </c>
@@ -8811,7 +8827,7 @@
       </c>
       <c r="Q358" s="13"/>
     </row>
-    <row r="359" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B359" s="11" t="s">
         <v>561</v>
       </c>
@@ -8822,7 +8838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B360" s="11" t="s">
         <v>562</v>
       </c>
@@ -8833,7 +8849,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B361" s="11" t="s">
         <v>563</v>
       </c>
@@ -8844,7 +8860,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="362" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B362" s="11" t="s">
         <v>564</v>
       </c>
@@ -8855,7 +8871,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="363" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B363" s="11" t="s">
         <v>565</v>
       </c>
@@ -8866,7 +8882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="364" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B364" s="11" t="s">
         <v>566</v>
       </c>
@@ -8877,7 +8893,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B365" s="11" t="s">
         <v>567</v>
       </c>
@@ -8888,7 +8904,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="366" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A366" s="13"/>
       <c r="B366" s="11" t="s">
         <v>568</v>
@@ -8901,7 +8917,7 @@
       </c>
       <c r="R366" s="14"/>
     </row>
-    <row r="367" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B367" s="11" t="s">
         <v>569</v>
       </c>
@@ -8912,7 +8928,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="368" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B368" s="11" t="s">
         <v>570</v>
       </c>
@@ -8923,7 +8939,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="369" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B369" s="11" t="s">
         <v>571</v>
       </c>
@@ -8937,7 +8953,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B370" s="11" t="s">
         <v>572</v>
       </c>
@@ -8948,7 +8964,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="371" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B371" s="11" t="s">
         <v>573</v>
       </c>
@@ -8962,7 +8978,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="372" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B372" s="11" t="s">
         <v>575</v>
       </c>
@@ -8973,7 +8989,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="373" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B373" s="11" t="s">
         <v>576</v>
       </c>
@@ -8985,7 +9001,7 @@
       </c>
       <c r="Q373" s="13"/>
     </row>
-    <row r="374" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B374" s="11" t="s">
         <v>577</v>
       </c>
@@ -8996,7 +9012,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="375" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B375" s="11" t="s">
         <v>578</v>
       </c>
@@ -9007,7 +9023,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="376" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B376" s="11" t="s">
         <v>579</v>
       </c>
@@ -9018,7 +9034,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="377" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B377" s="11" t="s">
         <v>580</v>
       </c>
@@ -9029,7 +9045,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="378" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B378" s="11" t="s">
         <v>581</v>
       </c>
@@ -9040,7 +9056,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="379" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B379" s="11" t="s">
         <v>582</v>
       </c>
@@ -9051,7 +9067,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="380" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B380" s="11" t="s">
         <v>281</v>
       </c>
@@ -9062,7 +9078,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="381" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A381" s="13"/>
       <c r="B381" s="11" t="s">
         <v>583</v>
@@ -9075,7 +9091,7 @@
       </c>
       <c r="R381" s="14"/>
     </row>
-    <row r="382" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A382" s="11" t="s">
         <v>735</v>
       </c>
@@ -9101,7 +9117,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="383" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B383" s="12" t="s">
         <v>67</v>
       </c>
@@ -9125,7 +9141,7 @@
       <c r="P383" s="12"/>
       <c r="Q383" s="13"/>
     </row>
-    <row r="384" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B384" s="11" t="s">
         <v>584</v>
       </c>
@@ -9136,7 +9152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="385" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B385" s="11" t="s">
         <v>585</v>
       </c>
@@ -9147,7 +9163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="386" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B386" s="11" t="s">
         <v>282</v>
       </c>
@@ -9158,7 +9174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="387" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B387" s="11" t="s">
         <v>586</v>
       </c>
@@ -9170,7 +9186,7 @@
       </c>
       <c r="Q387" s="13"/>
     </row>
-    <row r="388" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B388" s="11" t="s">
         <v>587</v>
       </c>
@@ -9182,7 +9198,7 @@
       </c>
       <c r="Q388" s="13"/>
     </row>
-    <row r="389" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B389" s="11" t="s">
         <v>588</v>
       </c>
@@ -9194,7 +9210,7 @@
       </c>
       <c r="Q389" s="13"/>
     </row>
-    <row r="390" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B390" s="11" t="s">
         <v>589</v>
       </c>
@@ -9206,7 +9222,7 @@
       </c>
       <c r="Q390" s="13"/>
     </row>
-    <row r="391" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B391" s="11" t="s">
         <v>590</v>
       </c>
@@ -9218,7 +9234,7 @@
       </c>
       <c r="Q391" s="12"/>
     </row>
-    <row r="392" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B392" s="11" t="s">
         <v>591</v>
       </c>
@@ -9229,7 +9245,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A393" s="13"/>
       <c r="B393" s="11" t="s">
         <v>592</v>
@@ -9242,7 +9258,7 @@
       </c>
       <c r="R393" s="14"/>
     </row>
-    <row r="394" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A394" s="13"/>
       <c r="B394" s="11" t="s">
         <v>593</v>
@@ -9255,7 +9271,7 @@
       </c>
       <c r="R394" s="14"/>
     </row>
-    <row r="395" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A395" s="13"/>
       <c r="B395" s="11" t="s">
         <v>594</v>
@@ -9268,7 +9284,7 @@
       </c>
       <c r="R395" s="14"/>
     </row>
-    <row r="396" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A396" s="13"/>
       <c r="B396" s="11" t="s">
         <v>595</v>
@@ -9281,7 +9297,7 @@
       </c>
       <c r="R396" s="14"/>
     </row>
-    <row r="397" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A397" s="12"/>
       <c r="B397" s="11" t="s">
         <v>283</v>
@@ -9295,7 +9311,7 @@
       <c r="Q397" s="13"/>
       <c r="R397" s="12"/>
     </row>
-    <row r="398" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B398" s="11" t="s">
         <v>596</v>
       </c>
@@ -9307,7 +9323,7 @@
       </c>
       <c r="Q398" s="13"/>
     </row>
-    <row r="399" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B399" s="11" t="s">
         <v>597</v>
       </c>
@@ -9319,7 +9335,7 @@
       </c>
       <c r="Q399" s="13"/>
     </row>
-    <row r="400" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B400" s="11" t="s">
         <v>284</v>
       </c>
@@ -9330,7 +9346,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="401" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B401" s="11" t="s">
         <v>598</v>
       </c>
@@ -9341,7 +9357,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="402" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B402" s="11" t="s">
         <v>599</v>
       </c>
@@ -9352,7 +9368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="403" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B403" s="11" t="s">
         <v>600</v>
       </c>
@@ -9363,7 +9379,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B404" s="11" t="s">
         <v>601</v>
       </c>
@@ -9374,7 +9390,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="405" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B405" s="11" t="s">
         <v>602</v>
       </c>
@@ -9385,7 +9401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A406" s="13"/>
       <c r="B406" s="11" t="s">
         <v>285</v>
@@ -9398,7 +9414,7 @@
       </c>
       <c r="R406" s="14"/>
     </row>
-    <row r="407" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A407" s="13"/>
       <c r="B407" s="11" t="s">
         <v>603</v>
@@ -9411,7 +9427,7 @@
       </c>
       <c r="R407" s="14"/>
     </row>
-    <row r="408" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B408" s="11" t="s">
         <v>286</v>
       </c>
@@ -9422,7 +9438,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="409" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B409" s="11" t="s">
         <v>287</v>
       </c>
@@ -9433,7 +9449,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B410" s="11" t="s">
         <v>288</v>
       </c>
@@ -9444,7 +9460,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="411" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B411" s="11" t="s">
         <v>289</v>
       </c>
@@ -9455,7 +9471,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="412" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B412" s="11" t="s">
         <v>290</v>
       </c>
@@ -9466,7 +9482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B413" s="11" t="s">
         <v>291</v>
       </c>
@@ -9478,7 +9494,7 @@
       </c>
       <c r="Q413" s="13"/>
     </row>
-    <row r="414" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B414" s="11" t="s">
         <v>292</v>
       </c>
@@ -9489,7 +9505,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="415" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B415" s="11" t="s">
         <v>293</v>
       </c>
@@ -9500,7 +9516,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="416" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B416" s="11" t="s">
         <v>294</v>
       </c>
@@ -9511,7 +9527,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="417" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B417" s="11" t="s">
         <v>295</v>
       </c>
@@ -9522,7 +9538,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B418" s="11" t="s">
         <v>296</v>
       </c>
@@ -9533,7 +9549,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A419" s="13"/>
       <c r="B419" s="11" t="s">
         <v>604</v>
@@ -9546,7 +9562,7 @@
       </c>
       <c r="R419" s="14"/>
     </row>
-    <row r="420" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B420" s="11" t="s">
         <v>297</v>
       </c>
@@ -9557,7 +9573,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B421" s="11" t="s">
         <v>298</v>
       </c>
@@ -9568,7 +9584,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="422" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B422" s="11" t="s">
         <v>299</v>
       </c>
@@ -9586,7 +9602,7 @@
       </c>
       <c r="Q422" s="13"/>
     </row>
-    <row r="423" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B423" s="11" t="s">
         <v>605</v>
       </c>
@@ -9597,7 +9613,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="424" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B424" s="11" t="s">
         <v>606</v>
       </c>
@@ -9608,7 +9624,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="425" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B425" s="11" t="s">
         <v>607</v>
       </c>
@@ -9620,7 +9636,7 @@
       </c>
       <c r="Q425" s="13"/>
     </row>
-    <row r="426" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B426" s="11" t="s">
         <v>608</v>
       </c>
@@ -9631,7 +9647,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="427" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B427" s="11" t="s">
         <v>609</v>
       </c>
@@ -9645,7 +9661,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="428" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B428" s="11" t="s">
         <v>611</v>
       </c>
@@ -9656,7 +9672,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="429" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B429" s="11" t="s">
         <v>612</v>
       </c>
@@ -9667,7 +9683,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="430" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B430" s="11" t="s">
         <v>613</v>
       </c>
@@ -9678,7 +9694,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A431" s="13"/>
       <c r="B431" s="11" t="s">
         <v>614</v>
@@ -9691,7 +9707,7 @@
       </c>
       <c r="R431" s="14"/>
     </row>
-    <row r="432" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B432" s="11" t="s">
         <v>615</v>
       </c>
@@ -9702,7 +9718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B433" s="12" t="s">
         <v>62</v>
       </c>
@@ -9729,7 +9745,7 @@
       <c r="O433" s="12"/>
       <c r="P433" s="12"/>
     </row>
-    <row r="434" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A434" s="13"/>
       <c r="B434" s="11" t="s">
         <v>302</v>
@@ -9742,7 +9758,7 @@
       </c>
       <c r="R434" s="14"/>
     </row>
-    <row r="435" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B435" s="11" t="s">
         <v>616</v>
       </c>
@@ -9753,7 +9769,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="436" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B436" s="11" t="s">
         <v>617</v>
       </c>
@@ -9764,7 +9780,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="437" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B437" s="11" t="s">
         <v>618</v>
       </c>
@@ -9775,7 +9791,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B438" s="11" t="s">
         <v>619</v>
       </c>
@@ -9786,7 +9802,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="439" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B439" s="11" t="s">
         <v>620</v>
       </c>
@@ -9797,7 +9813,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B440" s="11" t="s">
         <v>701</v>
       </c>
@@ -9808,7 +9824,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="441" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B441" s="11" t="s">
         <v>621</v>
       </c>
@@ -9822,7 +9838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="442" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B442" s="11" t="s">
         <v>623</v>
       </c>
@@ -9834,7 +9850,7 @@
       </c>
       <c r="Q442" s="12"/>
     </row>
-    <row r="443" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B443" s="11" t="s">
         <v>624</v>
       </c>
@@ -9845,7 +9861,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="444" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B444" s="11" t="s">
         <v>625</v>
       </c>
@@ -9856,7 +9872,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B445" s="11" t="s">
         <v>626</v>
       </c>
@@ -9867,7 +9883,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="446" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B446" s="11" t="s">
         <v>627</v>
       </c>
@@ -9878,7 +9894,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="447" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B447" s="11" t="s">
         <v>628</v>
       </c>
@@ -9889,7 +9905,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="448" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B448" s="11" t="s">
         <v>629</v>
       </c>
@@ -9900,7 +9916,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="449" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B449" s="11" t="s">
         <v>630</v>
       </c>
@@ -9911,7 +9927,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A450" s="12"/>
       <c r="B450" s="11" t="s">
         <v>318</v>
@@ -9925,7 +9941,7 @@
       <c r="Q450" s="13"/>
       <c r="R450" s="12"/>
     </row>
-    <row r="451" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B451" s="11" t="s">
         <v>631</v>
       </c>
@@ -9936,7 +9952,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="452" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B452" s="11" t="s">
         <v>632</v>
       </c>
@@ -9947,7 +9963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B453" s="11" t="s">
         <v>633</v>
       </c>
@@ -9958,7 +9974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="454" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B454" s="11" t="s">
         <v>634</v>
       </c>
@@ -9969,7 +9985,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B455" s="11" t="s">
         <v>635</v>
       </c>
@@ -9980,7 +9996,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="456" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B456" s="11" t="s">
         <v>636</v>
       </c>
@@ -9991,7 +10007,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="457" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B457" s="11" t="s">
         <v>637</v>
       </c>
@@ -10002,7 +10018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B458" s="11" t="s">
         <v>638</v>
       </c>
@@ -10013,7 +10029,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A459" s="13"/>
       <c r="B459" s="11" t="s">
         <v>639</v>
@@ -10026,7 +10042,7 @@
       </c>
       <c r="R459" s="14"/>
     </row>
-    <row r="460" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B460" s="11" t="s">
         <v>640</v>
       </c>
@@ -10037,7 +10053,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B461" s="11" t="s">
         <v>641</v>
       </c>
@@ -10048,7 +10064,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B462" s="11" t="s">
         <v>642</v>
       </c>
@@ -10059,7 +10075,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="463" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B463" s="11" t="s">
         <v>643</v>
       </c>
@@ -10070,7 +10086,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B464" s="11" t="s">
         <v>644</v>
       </c>
@@ -10081,7 +10097,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B465" s="11" t="s">
         <v>645</v>
       </c>
@@ -10092,7 +10108,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B466" s="11" t="s">
         <v>646</v>
       </c>
@@ -10103,7 +10119,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B467" s="11" t="s">
         <v>647</v>
       </c>
@@ -10114,7 +10130,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B468" s="11" t="s">
         <v>648</v>
       </c>
@@ -10125,7 +10141,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="469" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B469" s="11" t="s">
         <v>649</v>
       </c>
@@ -10136,7 +10152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="470" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B470" s="11" t="s">
         <v>650</v>
       </c>
@@ -10147,7 +10163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="471" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B471" s="11" t="s">
         <v>651</v>
       </c>
@@ -10158,7 +10174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B472" s="11" t="s">
         <v>652</v>
       </c>
@@ -10169,7 +10185,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="473" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B473" s="11" t="s">
         <v>653</v>
       </c>
@@ -10180,7 +10196,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B474" s="11" t="s">
         <v>654</v>
       </c>
@@ -10192,7 +10208,7 @@
       </c>
       <c r="Q474" s="13"/>
     </row>
-    <row r="475" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B475" s="11" t="s">
         <v>655</v>
       </c>
@@ -10204,7 +10220,7 @@
       </c>
       <c r="Q475" s="13"/>
     </row>
-    <row r="476" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B476" s="11" t="s">
         <v>656</v>
       </c>
@@ -10215,7 +10231,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="477" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B477" s="11" t="s">
         <v>657</v>
       </c>
@@ -10226,7 +10242,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="478" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:17" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B478" s="11" t="s">
         <v>658</v>
       </c>
@@ -10237,7 +10253,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="479" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B479" s="11" t="s">
         <v>659</v>
       </c>
@@ -10248,7 +10264,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:17" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B480" s="11" t="s">
         <v>660</v>
       </c>
@@ -10259,7 +10275,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B481" s="11" t="s">
         <v>661</v>
       </c>
@@ -10270,7 +10286,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B482" s="11" t="s">
         <v>662</v>
       </c>
@@ -10281,7 +10297,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A483" s="13"/>
       <c r="B483" s="11" t="s">
         <v>663</v>
@@ -10294,7 +10310,7 @@
       </c>
       <c r="R483" s="14"/>
     </row>
-    <row r="484" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A484" s="13"/>
       <c r="B484" s="11" t="s">
         <v>664</v>
@@ -10307,7 +10323,7 @@
       </c>
       <c r="R484" s="14"/>
     </row>
-    <row r="485" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B485" s="11" t="s">
         <v>665</v>
       </c>
@@ -10318,7 +10334,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B486" s="11" t="s">
         <v>666</v>
       </c>
@@ -10329,7 +10345,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="487" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B487" s="11" t="s">
         <v>667</v>
       </c>
@@ -10340,7 +10356,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="488" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B488" s="11" t="s">
         <v>668</v>
       </c>
@@ -10351,7 +10367,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B489" s="11" t="s">
         <v>669</v>
       </c>
@@ -10362,7 +10378,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="490" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B490" s="11" t="s">
         <v>670</v>
       </c>
@@ -10373,7 +10389,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="491" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B491" s="11" t="s">
         <v>671</v>
       </c>
@@ -10384,7 +10400,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="492" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B492" s="11" t="s">
         <v>672</v>
       </c>
@@ -10395,7 +10411,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B493" s="11" t="s">
         <v>673</v>
       </c>
@@ -10406,7 +10422,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="494" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B494" s="11" t="s">
         <v>674</v>
       </c>
@@ -10417,7 +10433,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B495" s="11" t="s">
         <v>675</v>
       </c>
@@ -10428,7 +10444,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="496" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B496" s="11" t="s">
         <v>676</v>
       </c>
@@ -10440,7 +10456,7 @@
       </c>
       <c r="Q496" s="13"/>
     </row>
-    <row r="497" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B497" s="11" t="s">
         <v>677</v>
       </c>
@@ -10451,7 +10467,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="498" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B498" s="11" t="s">
         <v>678</v>
       </c>
@@ -10462,7 +10478,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="499" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B499" s="11" t="s">
         <v>679</v>
       </c>
@@ -10473,7 +10489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="500" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B500" s="11" t="s">
         <v>680</v>
       </c>
@@ -10484,7 +10500,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B501" s="11" t="s">
         <v>303</v>
       </c>
@@ -10498,7 +10514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B502" s="11" t="s">
         <v>681</v>
       </c>
@@ -10509,7 +10525,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B503" s="11" t="s">
         <v>682</v>
       </c>
@@ -10520,7 +10536,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A504" s="13"/>
       <c r="B504" s="11" t="s">
         <v>683</v>
@@ -10533,7 +10549,7 @@
       </c>
       <c r="R504" s="14"/>
     </row>
-    <row r="505" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B505" s="11" t="s">
         <v>305</v>
       </c>
@@ -10544,7 +10560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="506" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B506" s="11" t="s">
         <v>684</v>
       </c>
@@ -10555,7 +10571,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="507" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B507" s="11" t="s">
         <v>685</v>
       </c>
@@ -10566,7 +10582,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="508" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B508" s="11" t="s">
         <v>306</v>
       </c>
@@ -10584,7 +10600,7 @@
       </c>
       <c r="Q508" s="13"/>
     </row>
-    <row r="509" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B509" s="11" t="s">
         <v>308</v>
       </c>
@@ -10595,7 +10611,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="510" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B510" s="11" t="s">
         <v>686</v>
       </c>
@@ -10606,7 +10622,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B511" s="11" t="s">
         <v>687</v>
       </c>
@@ -10617,7 +10633,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="512" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B512" s="11" t="s">
         <v>688</v>
       </c>
@@ -10628,7 +10644,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="513" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B513" s="11" t="s">
         <v>689</v>
       </c>
@@ -10639,7 +10655,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="514" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B514" s="11" t="s">
         <v>690</v>
       </c>
@@ -10650,7 +10666,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="515" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B515" s="11" t="s">
         <v>691</v>
       </c>
@@ -10661,7 +10677,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="516" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B516" s="11" t="s">
         <v>692</v>
       </c>
@@ -10672,7 +10688,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="517" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A517" s="13"/>
       <c r="B517" s="11" t="s">
         <v>693</v>
@@ -10685,7 +10701,7 @@
       </c>
       <c r="R517" s="14"/>
     </row>
-    <row r="518" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B518" s="11" t="s">
         <v>694</v>
       </c>
@@ -10696,7 +10712,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B519" s="11" t="s">
         <v>309</v>
       </c>
@@ -10719,7 +10735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="520" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B520" s="11" t="s">
         <v>759</v>
       </c>
@@ -10736,7 +10752,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="521" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B521" s="11" t="s">
         <v>695</v>
       </c>
@@ -10751,7 +10767,7 @@
       </c>
       <c r="S521" s="13"/>
     </row>
-    <row r="522" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B522" s="11" t="s">
         <v>697</v>
       </c>
@@ -10762,7 +10778,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="523" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B523" s="11" t="s">
         <v>698</v>
       </c>
@@ -10774,7 +10790,7 @@
       </c>
       <c r="S523" s="13"/>
     </row>
-    <row r="524" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B524" s="25" t="s">
         <v>767</v>
       </c>
@@ -10797,7 +10813,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:19" s="24" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" s="24" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B525" s="25" t="s">
         <v>764</v>
       </c>
@@ -10805,7 +10821,7 @@
         <v>777</v>
       </c>
       <c r="D525" s="24" t="s">
-        <v>70</v>
+        <v>778</v>
       </c>
       <c r="E525" s="24" t="s">
         <v>70</v>
@@ -10826,7 +10842,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="526" spans="1:19" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B526" s="25" t="s">
         <v>768</v>
       </c>
@@ -10852,7 +10868,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="527" spans="1:19" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B527" s="25" t="s">
         <v>769</v>
       </c>
@@ -10883,13 +10899,36 @@
       <c r="O527" s="27"/>
       <c r="P527" s="27"/>
     </row>
-    <row r="528" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B528" s="14"/>
-      <c r="P528" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="529" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" s="24" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B528" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="C528" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="D528" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E528" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F528" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H528" s="24" t="s">
+        <v>779</v>
+      </c>
+      <c r="J528" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="K528" s="24" t="s">
+        <v>780</v>
+      </c>
+      <c r="P528" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="529" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B529" s="14"/>
       <c r="C529" s="12"/>
       <c r="D529" s="12"/>
@@ -10906,7 +10945,7 @@
       <c r="O529" s="12"/>
       <c r="P529" s="12"/>
     </row>
-    <row r="530" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B530" s="14"/>
       <c r="C530" s="12"/>
       <c r="D530" s="12"/>
@@ -10923,44 +10962,44 @@
       <c r="O530" s="12"/>
       <c r="P530" s="12"/>
     </row>
-    <row r="531" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B531" s="14"/>
       <c r="Q531" s="12"/>
     </row>
-    <row r="532" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B532" s="14"/>
     </row>
-    <row r="533" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B533" s="14"/>
     </row>
-    <row r="534" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B534" s="14"/>
     </row>
-    <row r="535" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B535" s="14"/>
     </row>
-    <row r="536" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B536" s="14"/>
     </row>
-    <row r="537" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B537" s="14"/>
     </row>
-    <row r="538" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B538" s="14"/>
     </row>
-    <row r="539" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B539" s="14"/>
     </row>
-    <row r="540" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A540" s="14"/>
       <c r="B540" s="14"/>
       <c r="R540" s="12"/>
     </row>
-    <row r="541" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B541" s="14"/>
       <c r="Q541" s="12"/>
     </row>
-    <row r="542" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B542" s="14"/>
       <c r="C542" s="12"/>
       <c r="D542" s="12"/>
@@ -10977,7 +11016,7 @@
       <c r="O542" s="12"/>
       <c r="P542" s="12"/>
     </row>
-    <row r="543" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B543" s="14"/>
       <c r="C543" s="12"/>
       <c r="D543" s="12"/>
@@ -10995,7 +11034,7 @@
       <c r="P543" s="12"/>
       <c r="Q543" s="12"/>
     </row>
-    <row r="544" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A544" s="12"/>
       <c r="B544" s="14"/>
       <c r="C544" s="12"/>
@@ -11015,7 +11054,7 @@
       <c r="Q544" s="12"/>
       <c r="R544" s="12"/>
     </row>
-    <row r="545" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B545" s="14"/>
       <c r="C545" s="12"/>
       <c r="D545" s="12"/>
@@ -11033,18 +11072,18 @@
       <c r="P545" s="12"/>
       <c r="Q545" s="12"/>
     </row>
-    <row r="546" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B546" s="14"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S2822">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2822">
     <sortCondition ref="F2:F2822"/>
     <sortCondition descending="1" ref="N2:N2822"/>
     <sortCondition ref="B2:B2822"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G525" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G525" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -11052,23 +11091,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -11082,7 +11121,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11093,7 +11132,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -11104,7 +11143,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -11118,7 +11157,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -11129,7 +11168,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -11143,7 +11182,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -11154,7 +11193,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -11165,7 +11204,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -11176,7 +11215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -11187,7 +11226,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
@@ -11198,7 +11237,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -11209,7 +11248,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -11220,7 +11259,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -11231,7 +11270,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>116</v>
       </c>
@@ -11242,7 +11281,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>117</v>
       </c>
@@ -11253,7 +11292,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>118</v>
       </c>
@@ -11264,7 +11303,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
@@ -11275,7 +11314,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>719</v>
       </c>
@@ -11293,29 +11332,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.26953125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11353,7 +11392,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -11367,7 +11406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -11381,7 +11420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11398,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -11409,7 +11448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -11423,7 +11462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -11440,7 +11479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -11454,7 +11493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -11471,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -11491,14 +11530,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11506,19 +11545,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -11553,7 +11592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11564,7 +11603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11581,7 +11620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11598,7 +11637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11615,7 +11654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11632,7 +11671,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11649,7 +11688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11666,7 +11705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11683,7 +11722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11700,7 +11739,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11717,7 +11756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11743,7 +11782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11769,7 +11808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11795,7 +11834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11821,7 +11860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11847,7 +11886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11873,7 +11912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11899,7 +11938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11925,7 +11964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11951,7 +11990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11977,7 +12016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12003,7 +12042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12029,7 +12068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12055,7 +12094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12081,7 +12120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12107,7 +12146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12133,7 +12172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12159,7 +12198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12185,7 +12224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BD6DBC-AA3C-4001-9813-C9A3A3760606}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -2344,27 +2343,15 @@
     <t>An attribute of a person that could be a competing interest.</t>
   </si>
   <si>
-    <t>A potential competing interest that involves the potential for personal financial gain or loss resulting from enactment of the professional role.</t>
-  </si>
-  <si>
     <t>Good practice involves being as inclusive as possible to ensure full transparency and include both financial and non-financial attributes that might conceivably influence the conduct, reporting or evaluation of research whether or not it actually does so.</t>
   </si>
   <si>
-    <t>Competing interests carry no implication of wrong-doing and are often unavoidable. However, they must be fully disclosed to enable stakeholders to make an informed judgement about the potential for bias.</t>
-  </si>
-  <si>
-    <t>This includes: 1) financial potential competing interest as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the conduct of the professional role.</t>
-  </si>
-  <si>
     <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organisation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the enactment of the professional role. It also includes all of the above that relate to an intimate partner. Organisation includes commercial organisation, government agency, and charity.</t>
   </si>
   <si>
     <t>A report that provides information about a person's potential competing interest.</t>
   </si>
   <si>
-    <t>A vested interest of a person that interferes with the full and objective enactment of a professional role.</t>
-  </si>
-  <si>
     <t>Personal stake</t>
   </si>
   <si>
@@ -2374,16 +2361,28 @@
     <t>Dr Smith has a personal stake in the outcome of the clinical trial of the drug, varenicline, because he has shares in the company that produces the drug.</t>
   </si>
   <si>
-    <t>An attribute of a person that involves an outcome of value to that person arising from a process.</t>
-  </si>
-  <si>
     <t>Value here can be positive or negative. This definition refers to actual value rather than perceived value. The process that produces the outcome will often be an event such as reporting of the outcome of a clinical trial, or delivery of a verdict in a trial, or enactment of legislation.</t>
+  </si>
+  <si>
+    <t>A potential competing interest that involves the possibility of personal financial gain or loss resulting from enactment of the professional role.</t>
+  </si>
+  <si>
+    <t>A personal stake of a person that interferes with the impartial enactment of a professional role.</t>
+  </si>
+  <si>
+    <t>They should be fully disclosed by people in any research, clinical, professional or policy-making role to enable stakeholders to make an informed judgement about the potential for bias. They include: 1) financial potential competing interests, as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the conduct of the professional role.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competing interests carry no implication of wrong-doing and are often unavoidable. </t>
+  </si>
+  <si>
+    <t>A personal attribute that involves an outcome of value to that person arising from a process.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2639,7 +2638,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,40 +2935,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C526" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J527" sqref="J527"/>
+      <selection pane="bottomRight" activeCell="B529" sqref="B529"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="64.453125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="12" customWidth="1"/>
     <col min="6" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="48.26953125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="82.26953125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="44.1796875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="12"/>
-    <col min="13" max="13" width="18.453125" style="12" customWidth="1"/>
-    <col min="14" max="15" width="9.1796875" style="12"/>
-    <col min="16" max="16" width="13.453125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="37.1796875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="48.7265625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="24.7265625" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="12"/>
+    <col min="7" max="7" width="35.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="82.28515625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="12"/>
+    <col min="13" max="13" width="18.42578125" style="12" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="12"/>
+    <col min="16" max="16" width="13.42578125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="37.140625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="48.7109375" style="12" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
         <v>171</v>
@@ -3060,7 +3059,7 @@
       <c r="R2" s="19"/>
       <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
         <v>172</v>
@@ -3095,7 +3094,7 @@
       <c r="R3" s="19"/>
       <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
         <v>125</v>
@@ -3138,7 +3137,7 @@
       </c>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
         <v>173</v>
@@ -3173,7 +3172,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>174</v>
@@ -3210,7 +3209,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>178</v>
       </c>
@@ -3236,7 +3235,7 @@
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>179</v>
       </c>
@@ -3262,7 +3261,7 @@
       </c>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>180</v>
       </c>
@@ -3288,7 +3287,7 @@
       </c>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>181</v>
       </c>
@@ -3314,7 +3313,7 @@
       </c>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>182</v>
       </c>
@@ -3340,7 +3339,7 @@
       </c>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>131</v>
       </c>
@@ -3366,7 +3365,7 @@
       </c>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>186</v>
       </c>
@@ -3402,7 +3401,7 @@
       </c>
       <c r="S13" s="13"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>371</v>
       </c>
@@ -3428,7 +3427,7 @@
       </c>
       <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>379</v>
       </c>
@@ -3454,7 +3453,7 @@
       </c>
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>380</v>
       </c>
@@ -3480,7 +3479,7 @@
       </c>
       <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="11" t="s">
         <v>382</v>
@@ -3508,7 +3507,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="11" t="s">
         <v>383</v>
@@ -3536,7 +3535,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
@@ -3573,7 +3572,7 @@
       </c>
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>749</v>
       </c>
@@ -3604,7 +3603,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="18"/>
     </row>
-    <row r="21" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>408</v>
       </c>
@@ -3630,7 +3629,7 @@
       </c>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>134</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>135</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>196</v>
       </c>
@@ -3709,7 +3708,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>197</v>
       </c>
@@ -3735,7 +3734,7 @@
       </c>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>137</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>198</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>204</v>
       </c>
@@ -3823,7 +3822,7 @@
       </c>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>205</v>
       </c>
@@ -3849,7 +3848,7 @@
       </c>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
         <v>206</v>
@@ -3877,7 +3876,7 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
         <v>207</v>
@@ -3904,7 +3903,7 @@
       </c>
       <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>138</v>
@@ -3931,7 +3930,7 @@
       </c>
       <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>208</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
         <v>209</v>
@@ -3983,7 +3982,7 @@
       </c>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>210</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>211</v>
@@ -4045,7 +4044,7 @@
       </c>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>212</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
         <v>213</v>
@@ -4097,7 +4096,7 @@
       </c>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>214</v>
       </c>
@@ -4123,7 +4122,7 @@
       </c>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>215</v>
       </c>
@@ -4148,7 +4147,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
         <v>216</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>217</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
         <v>218</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
         <v>219</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
         <v>220</v>
       </c>
@@ -4274,7 +4273,7 @@
       </c>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
         <v>221</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13" t="s">
         <v>222</v>
@@ -4326,7 +4325,7 @@
       </c>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13" t="s">
         <v>223</v>
@@ -4353,7 +4352,7 @@
       </c>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="s">
         <v>224</v>
@@ -4380,7 +4379,7 @@
       </c>
       <c r="R49" s="14"/>
     </row>
-    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13" t="s">
         <v>225</v>
@@ -4407,7 +4406,7 @@
       </c>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
         <v>226</v>
@@ -4434,7 +4433,7 @@
       </c>
       <c r="R51" s="14"/>
     </row>
-    <row r="52" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
         <v>139</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
         <v>140</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>227</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
         <v>228</v>
@@ -4536,7 +4535,7 @@
       </c>
       <c r="R55" s="14"/>
     </row>
-    <row r="56" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>141</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>142</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
         <v>143</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>144</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13" t="s">
         <v>146</v>
@@ -4669,7 +4668,7 @@
       </c>
       <c r="R60" s="14"/>
     </row>
-    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
         <v>148</v>
       </c>
@@ -4694,7 +4693,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
         <v>149</v>
       </c>
@@ -4719,7 +4718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
         <v>150</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
         <v>751</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
         <v>229</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>230</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
         <v>151</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
         <v>155</v>
       </c>
@@ -4892,7 +4891,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>160</v>
       </c>
@@ -4923,7 +4922,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>231</v>
@@ -4950,7 +4949,7 @@
       </c>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="13" t="s">
         <v>232</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>233</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
         <v>164</v>
@@ -5027,7 +5026,7 @@
       </c>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>127</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
         <v>165</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
         <v>166</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
         <v>167</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
         <v>741</v>
       </c>
@@ -5157,7 +5156,7 @@
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
         <v>168</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
         <v>169</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="s">
         <v>743</v>
       </c>
@@ -5243,7 +5242,7 @@
       </c>
       <c r="Q81" s="13"/>
     </row>
-    <row r="82" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="13" t="s">
         <v>234</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="13" t="s">
         <v>170</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="11" t="s">
         <v>316</v>
@@ -5317,7 +5316,7 @@
       <c r="R84" s="14"/>
       <c r="S84" s="12"/>
     </row>
-    <row r="85" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="11" t="s">
         <v>320</v>
@@ -5344,7 +5343,7 @@
       <c r="R85" s="14"/>
       <c r="S85" s="12"/>
     </row>
-    <row r="86" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="11" t="s">
         <v>236</v>
@@ -5365,7 +5364,7 @@
       <c r="R86" s="14"/>
       <c r="S86" s="12"/>
     </row>
-    <row r="87" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
         <v>313</v>
       </c>
@@ -5386,7 +5385,7 @@
       </c>
       <c r="S87" s="12"/>
     </row>
-    <row r="88" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="11" t="s">
         <v>322</v>
@@ -5413,7 +5412,7 @@
       <c r="R88" s="14"/>
       <c r="S88" s="12"/>
     </row>
-    <row r="89" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="11" t="s">
         <v>238</v>
@@ -5430,7 +5429,7 @@
       <c r="R89" s="14"/>
       <c r="S89" s="12"/>
     </row>
-    <row r="90" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="11" t="s">
         <v>324</v>
@@ -5444,7 +5443,7 @@
       <c r="R90" s="14"/>
       <c r="S90" s="12"/>
     </row>
-    <row r="91" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
         <v>325</v>
       </c>
@@ -5456,7 +5455,7 @@
       </c>
       <c r="S91" s="12"/>
     </row>
-    <row r="92" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="11" t="s">
         <v>326</v>
@@ -5470,7 +5469,7 @@
       <c r="R92" s="14"/>
       <c r="S92" s="12"/>
     </row>
-    <row r="93" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
         <v>327</v>
       </c>
@@ -5482,7 +5481,7 @@
       </c>
       <c r="S93" s="12"/>
     </row>
-    <row r="94" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="11" t="s">
         <v>328</v>
@@ -5496,7 +5495,7 @@
       <c r="R94" s="14"/>
       <c r="S94" s="13"/>
     </row>
-    <row r="95" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
         <v>329</v>
       </c>
@@ -5508,7 +5507,7 @@
       </c>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="11" t="s">
         <v>240</v>
       </c>
@@ -5526,7 +5525,7 @@
       </c>
       <c r="S96" s="13"/>
     </row>
-    <row r="97" spans="2:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B97" s="11" t="s">
         <v>242</v>
       </c>
@@ -5538,7 +5537,7 @@
       </c>
       <c r="S97" s="13"/>
     </row>
-    <row r="98" spans="2:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B98" s="11" t="s">
         <v>243</v>
       </c>
@@ -5562,7 +5561,7 @@
       </c>
       <c r="S98" s="13"/>
     </row>
-    <row r="99" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="11" t="s">
         <v>248</v>
       </c>
@@ -5577,7 +5576,7 @@
       </c>
       <c r="S99" s="13"/>
     </row>
-    <row r="100" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="11" t="s">
         <v>250</v>
       </c>
@@ -5589,7 +5588,7 @@
       </c>
       <c r="S100" s="13"/>
     </row>
-    <row r="101" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>63</v>
       </c>
@@ -5617,7 +5616,7 @@
       <c r="P101" s="12"/>
       <c r="S101" s="13"/>
     </row>
-    <row r="102" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="11" t="s">
         <v>330</v>
       </c>
@@ -5629,7 +5628,7 @@
       </c>
       <c r="S102" s="13"/>
     </row>
-    <row r="103" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
         <v>331</v>
       </c>
@@ -5641,7 +5640,7 @@
       </c>
       <c r="S103" s="13"/>
     </row>
-    <row r="104" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
         <v>332</v>
       </c>
@@ -5653,7 +5652,7 @@
       </c>
       <c r="S104" s="13"/>
     </row>
-    <row r="105" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
         <v>333</v>
       </c>
@@ -5666,7 +5665,7 @@
       <c r="Q105" s="12"/>
       <c r="S105" s="13"/>
     </row>
-    <row r="106" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
         <v>334</v>
       </c>
@@ -5678,7 +5677,7 @@
       </c>
       <c r="S106" s="13"/>
     </row>
-    <row r="107" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="11" t="s">
         <v>335</v>
       </c>
@@ -5691,7 +5690,7 @@
       <c r="Q107" s="13"/>
       <c r="S107" s="13"/>
     </row>
-    <row r="108" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="11" t="s">
         <v>336</v>
       </c>
@@ -5707,7 +5706,7 @@
       <c r="Q108" s="13"/>
       <c r="S108" s="13"/>
     </row>
-    <row r="109" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
         <v>338</v>
       </c>
@@ -5720,7 +5719,7 @@
       <c r="Q109" s="13"/>
       <c r="S109" s="13"/>
     </row>
-    <row r="110" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="11" t="s">
         <v>339</v>
       </c>
@@ -5733,7 +5732,7 @@
       <c r="Q110" s="13"/>
       <c r="S110" s="13"/>
     </row>
-    <row r="111" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
         <v>340</v>
       </c>
@@ -5745,7 +5744,7 @@
       </c>
       <c r="S111" s="13"/>
     </row>
-    <row r="112" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="11" t="s">
         <v>341</v>
       </c>
@@ -5757,7 +5756,7 @@
       </c>
       <c r="S112" s="13"/>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="11" t="s">
         <v>342</v>
       </c>
@@ -5769,7 +5768,7 @@
       </c>
       <c r="S113" s="13"/>
     </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="11" t="s">
         <v>343</v>
@@ -5783,7 +5782,7 @@
       <c r="R114" s="12"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="11" t="s">
         <v>344</v>
       </c>
@@ -5795,7 +5794,7 @@
       </c>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="11" t="s">
         <v>345</v>
@@ -5809,7 +5808,7 @@
       <c r="R116" s="14"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="11" t="s">
         <v>346</v>
@@ -5823,7 +5822,7 @@
       <c r="R117" s="14"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="11" t="s">
         <v>251</v>
@@ -5837,7 +5836,7 @@
       <c r="R118" s="14"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="11" t="s">
         <v>347</v>
@@ -5851,7 +5850,7 @@
       <c r="R119" s="14"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="11" t="s">
         <v>348</v>
       </c>
@@ -5863,7 +5862,7 @@
       </c>
       <c r="S120" s="13"/>
     </row>
-    <row r="121" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="11" t="s">
         <v>349</v>
       </c>
@@ -5875,7 +5874,7 @@
       </c>
       <c r="S121" s="13"/>
     </row>
-    <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="11" t="s">
         <v>350</v>
       </c>
@@ -5887,7 +5886,7 @@
       </c>
       <c r="S122" s="13"/>
     </row>
-    <row r="123" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="11" t="s">
         <v>351</v>
       </c>
@@ -5899,7 +5898,7 @@
       </c>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>66</v>
       </c>
@@ -5929,7 +5928,7 @@
       <c r="P124" s="12"/>
       <c r="S124" s="13"/>
     </row>
-    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="11" t="s">
         <v>252</v>
       </c>
@@ -5941,7 +5940,7 @@
       </c>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="11" t="s">
         <v>253</v>
       </c>
@@ -5953,7 +5952,7 @@
       </c>
       <c r="S126" s="13"/>
     </row>
-    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
         <v>254</v>
       </c>
@@ -5965,7 +5964,7 @@
       </c>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="11" t="s">
         <v>255</v>
       </c>
@@ -5978,7 +5977,7 @@
       <c r="Q128" s="13"/>
       <c r="S128" s="13"/>
     </row>
-    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="11" t="s">
         <v>352</v>
       </c>
@@ -5990,7 +5989,7 @@
       </c>
       <c r="S129" s="13"/>
     </row>
-    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="11" t="s">
         <v>256</v>
       </c>
@@ -6002,7 +6001,7 @@
       </c>
       <c r="S130" s="13"/>
     </row>
-    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="11" t="s">
         <v>353</v>
       </c>
@@ -6014,7 +6013,7 @@
       </c>
       <c r="S131" s="13"/>
     </row>
-    <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="11" t="s">
         <v>257</v>
       </c>
@@ -6027,7 +6026,7 @@
       <c r="Q132" s="12"/>
       <c r="S132" s="13"/>
     </row>
-    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="11" t="s">
         <v>258</v>
       </c>
@@ -6039,7 +6038,7 @@
       </c>
       <c r="S133" s="13"/>
     </row>
-    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="11" t="s">
         <v>259</v>
       </c>
@@ -6054,7 +6053,7 @@
       </c>
       <c r="S134" s="13"/>
     </row>
-    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="11" t="s">
         <v>354</v>
       </c>
@@ -6066,7 +6065,7 @@
       </c>
       <c r="S135" s="13"/>
     </row>
-    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="11" t="s">
         <v>355</v>
       </c>
@@ -6078,7 +6077,7 @@
       </c>
       <c r="S136" s="13"/>
     </row>
-    <row r="137" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="11" t="s">
         <v>261</v>
@@ -6092,7 +6091,7 @@
       <c r="R137" s="14"/>
       <c r="S137" s="13"/>
     </row>
-    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="11" t="s">
         <v>262</v>
       </c>
@@ -6104,7 +6103,7 @@
       </c>
       <c r="S138" s="13"/>
     </row>
-    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="11" t="s">
         <v>356</v>
       </c>
@@ -6116,7 +6115,7 @@
       </c>
       <c r="S139" s="13"/>
     </row>
-    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="11" t="s">
         <v>357</v>
       </c>
@@ -6128,7 +6127,7 @@
       </c>
       <c r="S140" s="13"/>
     </row>
-    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="11" t="s">
         <v>358</v>
       </c>
@@ -6141,7 +6140,7 @@
       <c r="R141" s="12"/>
       <c r="S141" s="13"/>
     </row>
-    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="11" t="s">
         <v>359</v>
       </c>
@@ -6153,7 +6152,7 @@
       </c>
       <c r="S142" s="13"/>
     </row>
-    <row r="143" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" s="11" t="s">
         <v>263</v>
       </c>
@@ -6165,7 +6164,7 @@
       </c>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="11" t="s">
         <v>360</v>
       </c>
@@ -6177,7 +6176,7 @@
       </c>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B145" s="11" t="s">
         <v>264</v>
       </c>
@@ -6189,7 +6188,7 @@
       </c>
       <c r="S145" s="13"/>
     </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="11" t="s">
         <v>265</v>
       </c>
@@ -6201,7 +6200,7 @@
       </c>
       <c r="S146" s="13"/>
     </row>
-    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="11" t="s">
         <v>266</v>
       </c>
@@ -6213,7 +6212,7 @@
       </c>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="11" t="s">
         <v>361</v>
       </c>
@@ -6225,7 +6224,7 @@
       </c>
       <c r="S148" s="13"/>
     </row>
-    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="11" t="s">
         <v>362</v>
       </c>
@@ -6238,7 +6237,7 @@
       <c r="Q149" s="13"/>
       <c r="S149" s="13"/>
     </row>
-    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="11" t="s">
         <v>363</v>
       </c>
@@ -6250,7 +6249,7 @@
       </c>
       <c r="S150" s="13"/>
     </row>
-    <row r="151" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="11" t="s">
         <v>267</v>
       </c>
@@ -6262,7 +6261,7 @@
       </c>
       <c r="S151" s="13"/>
     </row>
-    <row r="152" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B152" s="11" t="s">
         <v>364</v>
       </c>
@@ -6274,7 +6273,7 @@
       </c>
       <c r="S152" s="13"/>
     </row>
-    <row r="153" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="11" t="s">
         <v>365</v>
       </c>
@@ -6287,7 +6286,7 @@
       <c r="Q153" s="13"/>
       <c r="S153" s="13"/>
     </row>
-    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="11" t="s">
         <v>366</v>
       </c>
@@ -6299,7 +6298,7 @@
       </c>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="11" t="s">
         <v>367</v>
       </c>
@@ -6311,7 +6310,7 @@
       </c>
       <c r="S155" s="13"/>
     </row>
-    <row r="156" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="11" t="s">
         <v>368</v>
       </c>
@@ -6323,7 +6322,7 @@
       </c>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B157" s="11" t="s">
         <v>268</v>
       </c>
@@ -6335,7 +6334,7 @@
       </c>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="13"/>
       <c r="B158" s="11" t="s">
         <v>369</v>
@@ -6349,7 +6348,7 @@
       <c r="R158" s="14"/>
       <c r="S158" s="13"/>
     </row>
-    <row r="159" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="11" t="s">
         <v>370</v>
       </c>
@@ -6361,7 +6360,7 @@
       </c>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="11" t="s">
         <v>269</v>
       </c>
@@ -6373,7 +6372,7 @@
       </c>
       <c r="S160" s="13"/>
     </row>
-    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
       <c r="B161" s="13" t="s">
         <v>190</v>
@@ -6387,7 +6386,7 @@
       <c r="R161" s="14"/>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="11" t="s">
         <v>372</v>
       </c>
@@ -6399,7 +6398,7 @@
       </c>
       <c r="S162" s="13"/>
     </row>
-    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="11" t="s">
         <v>373</v>
       </c>
@@ -6411,7 +6410,7 @@
       </c>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="11" t="s">
         <v>374</v>
       </c>
@@ -6423,7 +6422,7 @@
       </c>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="11" t="s">
         <v>270</v>
       </c>
@@ -6435,7 +6434,7 @@
       </c>
       <c r="S165" s="13"/>
     </row>
-    <row r="166" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="11" t="s">
         <v>375</v>
       </c>
@@ -6447,7 +6446,7 @@
       </c>
       <c r="S166" s="13"/>
     </row>
-    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="11" t="s">
         <v>376</v>
       </c>
@@ -6460,7 +6459,7 @@
       <c r="Q167" s="13"/>
       <c r="S167" s="13"/>
     </row>
-    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="11" t="s">
         <v>377</v>
       </c>
@@ -6472,7 +6471,7 @@
       </c>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="11" t="s">
         <v>378</v>
       </c>
@@ -6485,7 +6484,7 @@
       <c r="Q169" s="13"/>
       <c r="S169" s="13"/>
     </row>
-    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="13" t="s">
         <v>191</v>
       </c>
@@ -6497,7 +6496,7 @@
       </c>
       <c r="S170" s="13"/>
     </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="13" t="s">
         <v>192</v>
       </c>
@@ -6509,7 +6508,7 @@
       </c>
       <c r="S171" s="13"/>
     </row>
-    <row r="172" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="11" t="s">
         <v>381</v>
       </c>
@@ -6521,7 +6520,7 @@
       </c>
       <c r="S172" s="13"/>
     </row>
-    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="13" t="s">
         <v>193</v>
       </c>
@@ -6533,7 +6532,7 @@
       </c>
       <c r="S173" s="13"/>
     </row>
-    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="13" t="s">
         <v>194</v>
       </c>
@@ -6545,7 +6544,7 @@
       </c>
       <c r="S174" s="13"/>
     </row>
-    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="11" t="s">
         <v>384</v>
       </c>
@@ -6558,7 +6557,7 @@
       <c r="Q175" s="13"/>
       <c r="S175" s="13"/>
     </row>
-    <row r="176" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="11" t="s">
         <v>385</v>
       </c>
@@ -6570,7 +6569,7 @@
       </c>
       <c r="S176" s="13"/>
     </row>
-    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="11" t="s">
         <v>386</v>
       </c>
@@ -6583,7 +6582,7 @@
       <c r="Q177" s="13"/>
       <c r="S177" s="13"/>
     </row>
-    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="11" t="s">
         <v>387</v>
       </c>
@@ -6595,7 +6594,7 @@
       </c>
       <c r="S178" s="13"/>
     </row>
-    <row r="179" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="11" t="s">
         <v>388</v>
       </c>
@@ -6607,7 +6606,7 @@
       </c>
       <c r="S179" s="13"/>
     </row>
-    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="11" t="s">
         <v>389</v>
       </c>
@@ -6620,7 +6619,7 @@
       <c r="Q180" s="13"/>
       <c r="S180" s="13"/>
     </row>
-    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="11" t="s">
         <v>390</v>
       </c>
@@ -6632,7 +6631,7 @@
       </c>
       <c r="S181" s="13"/>
     </row>
-    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="11" t="s">
         <v>391</v>
       </c>
@@ -6645,7 +6644,7 @@
       <c r="Q182" s="13"/>
       <c r="S182" s="13"/>
     </row>
-    <row r="183" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B183" s="11" t="s">
         <v>392</v>
       </c>
@@ -6657,7 +6656,7 @@
       </c>
       <c r="S183" s="13"/>
     </row>
-    <row r="184" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
       <c r="B184" s="11" t="s">
         <v>393</v>
@@ -6671,7 +6670,7 @@
       <c r="R184" s="14"/>
       <c r="S184" s="13"/>
     </row>
-    <row r="185" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="11" t="s">
         <v>394</v>
       </c>
@@ -6683,7 +6682,7 @@
       </c>
       <c r="S185" s="13"/>
     </row>
-    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="11" t="s">
         <v>395</v>
@@ -6697,7 +6696,7 @@
       <c r="R186" s="14"/>
       <c r="S186" s="13"/>
     </row>
-    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="11" t="s">
         <v>396</v>
       </c>
@@ -6709,7 +6708,7 @@
       </c>
       <c r="S187" s="13"/>
     </row>
-    <row r="188" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="11" t="s">
         <v>397</v>
       </c>
@@ -6721,7 +6720,7 @@
       </c>
       <c r="S188" s="13"/>
     </row>
-    <row r="189" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="13"/>
       <c r="B189" s="11" t="s">
         <v>398</v>
@@ -6735,7 +6734,7 @@
       <c r="R189" s="14"/>
       <c r="S189" s="13"/>
     </row>
-    <row r="190" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="11" t="s">
         <v>271</v>
       </c>
@@ -6747,7 +6746,7 @@
       </c>
       <c r="S190" s="13"/>
     </row>
-    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
       <c r="B191" s="11" t="s">
         <v>399</v>
@@ -6761,7 +6760,7 @@
       <c r="R191" s="14"/>
       <c r="S191" s="13"/>
     </row>
-    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="11" t="s">
         <v>400</v>
       </c>
@@ -6773,7 +6772,7 @@
       </c>
       <c r="S192" s="13"/>
     </row>
-    <row r="193" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B193" s="11" t="s">
         <v>401</v>
       </c>
@@ -6785,7 +6784,7 @@
       </c>
       <c r="S193" s="13"/>
     </row>
-    <row r="194" spans="2:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B194" s="11" t="s">
         <v>402</v>
       </c>
@@ -6797,7 +6796,7 @@
       </c>
       <c r="S194" s="13"/>
     </row>
-    <row r="195" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B195" s="11" t="s">
         <v>404</v>
       </c>
@@ -6812,7 +6811,7 @@
       </c>
       <c r="S195" s="13"/>
     </row>
-    <row r="196" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="11" t="s">
         <v>405</v>
       </c>
@@ -6824,7 +6823,7 @@
       </c>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="11" t="s">
         <v>272</v>
       </c>
@@ -6839,7 +6838,7 @@
       </c>
       <c r="S197" s="13"/>
     </row>
-    <row r="198" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="11" t="s">
         <v>407</v>
       </c>
@@ -6851,7 +6850,7 @@
       </c>
       <c r="S198" s="13"/>
     </row>
-    <row r="199" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="11" t="s">
         <v>760</v>
       </c>
@@ -6863,7 +6862,7 @@
       </c>
       <c r="S199" s="13"/>
     </row>
-    <row r="200" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="13" t="s">
         <v>195</v>
       </c>
@@ -6875,7 +6874,7 @@
       </c>
       <c r="S200" s="13"/>
     </row>
-    <row r="201" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="11" t="s">
         <v>409</v>
       </c>
@@ -6887,7 +6886,7 @@
       </c>
       <c r="S201" s="13"/>
     </row>
-    <row r="202" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="11" t="s">
         <v>410</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="203" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="11" t="s">
         <v>273</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="204" spans="2:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B204" s="13" t="s">
         <v>132</v>
       </c>
@@ -6920,7 +6919,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="205" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="11" t="s">
         <v>411</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="206" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="11" t="s">
         <v>412</v>
       </c>
@@ -6943,7 +6942,7 @@
       </c>
       <c r="Q206" s="13"/>
     </row>
-    <row r="207" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B207" s="11" t="s">
         <v>413</v>
       </c>
@@ -6961,7 +6960,7 @@
       </c>
       <c r="Q207" s="13"/>
     </row>
-    <row r="208" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="11" t="s">
         <v>699</v>
       </c>
@@ -6972,7 +6971,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="11" t="s">
         <v>415</v>
       </c>
@@ -6984,7 +6983,7 @@
       </c>
       <c r="Q209" s="13"/>
     </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="11" t="s">
         <v>416</v>
       </c>
@@ -6996,7 +6995,7 @@
       </c>
       <c r="Q210" s="13"/>
     </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="11" t="s">
         <v>417</v>
       </c>
@@ -7010,7 +7009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="11" t="s">
         <v>419</v>
       </c>
@@ -7022,7 +7021,7 @@
       </c>
       <c r="Q212" s="13"/>
     </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="11" t="s">
         <v>420</v>
@@ -7035,7 +7034,7 @@
       </c>
       <c r="R213" s="14"/>
     </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
       <c r="B214" s="11" t="s">
         <v>421</v>
@@ -7049,7 +7048,7 @@
       <c r="Q214" s="13"/>
       <c r="R214" s="14"/>
     </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
       <c r="B215" s="11" t="s">
         <v>422</v>
@@ -7062,7 +7061,7 @@
       </c>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
       <c r="B216" s="11" t="s">
         <v>725</v>
@@ -7087,7 +7086,7 @@
       </c>
       <c r="R216" s="14"/>
     </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
       <c r="B217" s="11" t="s">
         <v>423</v>
@@ -7101,7 +7100,7 @@
       <c r="Q217" s="13"/>
       <c r="R217" s="14"/>
     </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="11" t="s">
         <v>424</v>
@@ -7114,7 +7113,7 @@
       </c>
       <c r="R218" s="14"/>
     </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="13"/>
       <c r="B219" s="13" t="s">
         <v>736</v>
@@ -7149,7 +7148,7 @@
       </c>
       <c r="R219" s="14"/>
     </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="11" t="s">
         <v>425</v>
       </c>
@@ -7161,7 +7160,7 @@
       </c>
       <c r="Q220" s="13"/>
     </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="11" t="s">
         <v>426</v>
       </c>
@@ -7173,7 +7172,7 @@
       </c>
       <c r="Q221" s="13"/>
     </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="11" t="s">
         <v>427</v>
       </c>
@@ -7185,7 +7184,7 @@
       </c>
       <c r="Q222" s="13"/>
     </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="11" t="s">
         <v>428</v>
       </c>
@@ -7197,7 +7196,7 @@
       </c>
       <c r="Q223" s="13"/>
     </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B224" s="11" t="s">
         <v>429</v>
       </c>
@@ -7209,7 +7208,7 @@
       </c>
       <c r="Q224" s="13"/>
     </row>
-    <row r="225" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="11" t="s">
         <v>430</v>
       </c>
@@ -7227,7 +7226,7 @@
       </c>
       <c r="Q225" s="13"/>
     </row>
-    <row r="226" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B226" s="11" t="s">
         <v>433</v>
       </c>
@@ -7239,7 +7238,7 @@
       </c>
       <c r="Q226" s="13"/>
     </row>
-    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B227" s="11" t="s">
         <v>434</v>
       </c>
@@ -7251,7 +7250,7 @@
       </c>
       <c r="Q227" s="13"/>
     </row>
-    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
       <c r="B228" s="11" t="s">
         <v>435</v>
@@ -7264,7 +7263,7 @@
       </c>
       <c r="R228" s="14"/>
     </row>
-    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="13"/>
       <c r="B229" s="11" t="s">
         <v>436</v>
@@ -7277,7 +7276,7 @@
       </c>
       <c r="R229" s="14"/>
     </row>
-    <row r="230" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
       <c r="B230" s="11" t="s">
         <v>437</v>
@@ -7293,7 +7292,7 @@
       </c>
       <c r="R230" s="14"/>
     </row>
-    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
       <c r="B231" s="11" t="s">
         <v>439</v>
@@ -7306,7 +7305,7 @@
       </c>
       <c r="R231" s="14"/>
     </row>
-    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="13"/>
       <c r="B232" s="11" t="s">
         <v>440</v>
@@ -7319,7 +7318,7 @@
       </c>
       <c r="R232" s="14"/>
     </row>
-    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="13"/>
       <c r="B233" s="11" t="s">
         <v>441</v>
@@ -7332,7 +7331,7 @@
       </c>
       <c r="R233" s="14"/>
     </row>
-    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
       <c r="B234" s="11" t="s">
         <v>442</v>
@@ -7345,7 +7344,7 @@
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
       <c r="B235" s="11" t="s">
         <v>443</v>
@@ -7358,7 +7357,7 @@
       </c>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
       <c r="B236" s="11" t="s">
         <v>444</v>
@@ -7371,7 +7370,7 @@
       </c>
       <c r="R236" s="14"/>
     </row>
-    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B237" s="11" t="s">
         <v>445</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="238" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B238" s="11" t="s">
         <v>446</v>
       </c>
@@ -7393,7 +7392,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="11" t="s">
         <v>447</v>
       </c>
@@ -7404,7 +7403,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="11" t="s">
         <v>448</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B241" s="11" t="s">
         <v>274</v>
       </c>
@@ -7427,7 +7426,7 @@
       </c>
       <c r="Q241" s="13"/>
     </row>
-    <row r="242" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="11" t="s">
         <v>275</v>
       </c>
@@ -7439,7 +7438,7 @@
       </c>
       <c r="Q242" s="13"/>
     </row>
-    <row r="243" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="11" t="s">
         <v>449</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="11" t="s">
         <v>451</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="11" t="s">
         <v>276</v>
       </c>
@@ -7479,7 +7478,7 @@
       </c>
       <c r="Q245" s="13"/>
     </row>
-    <row r="246" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B246" s="11" t="s">
         <v>453</v>
       </c>
@@ -7491,7 +7490,7 @@
       </c>
       <c r="Q246" s="13"/>
     </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B247" s="11" t="s">
         <v>454</v>
       </c>
@@ -7503,7 +7502,7 @@
       </c>
       <c r="Q247" s="13"/>
     </row>
-    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B248" s="11" t="s">
         <v>455</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B249" s="11" t="s">
         <v>456</v>
       </c>
@@ -7526,7 +7525,7 @@
       </c>
       <c r="Q249" s="13"/>
     </row>
-    <row r="250" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B250" s="11" t="s">
         <v>457</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="251" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="11" t="s">
         <v>458</v>
@@ -7550,7 +7549,7 @@
       </c>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="13"/>
       <c r="B252" s="12" t="s">
         <v>111</v>
@@ -7577,7 +7576,7 @@
       <c r="P252" s="12"/>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
       <c r="B253" s="11" t="s">
         <v>176</v>
@@ -7603,7 +7602,7 @@
       <c r="Q253" s="13"/>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B254" s="11" t="s">
         <v>459</v>
       </c>
@@ -7615,7 +7614,7 @@
       </c>
       <c r="Q254" s="13"/>
     </row>
-    <row r="255" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B255" s="11" t="s">
         <v>460</v>
       </c>
@@ -7627,7 +7626,7 @@
       </c>
       <c r="Q255" s="13"/>
     </row>
-    <row r="256" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="11" t="s">
         <v>461</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B257" s="11" t="s">
         <v>462</v>
       </c>
@@ -7649,7 +7648,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="11" t="s">
         <v>463</v>
@@ -7662,7 +7661,7 @@
       </c>
       <c r="R258" s="14"/>
     </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B259" s="11" t="s">
         <v>464</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B260" s="11" t="s">
         <v>465</v>
       </c>
@@ -7685,7 +7684,7 @@
       </c>
       <c r="Q260" s="12"/>
     </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B261" s="11" t="s">
         <v>466</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="262" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="13"/>
       <c r="B262" s="11" t="s">
         <v>468</v>
@@ -7712,7 +7711,7 @@
       </c>
       <c r="R262" s="14"/>
     </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B263" s="11" t="s">
         <v>277</v>
       </c>
@@ -7723,7 +7722,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B264" s="11" t="s">
         <v>469</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B265" s="11" t="s">
         <v>470</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>112</v>
       </c>
@@ -7762,7 +7761,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B267" s="11" t="s">
         <v>472</v>
       </c>
@@ -7774,7 +7773,7 @@
       </c>
       <c r="R267" s="12"/>
     </row>
-    <row r="268" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B268" s="11" t="s">
         <v>473</v>
       </c>
@@ -7786,7 +7785,7 @@
       </c>
       <c r="Q268" s="13"/>
     </row>
-    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B269" s="11" t="s">
         <v>474</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="270" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B270" s="11" t="s">
         <v>475</v>
       </c>
@@ -7809,7 +7808,7 @@
       </c>
       <c r="Q270" s="13"/>
     </row>
-    <row r="271" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B271" s="11" t="s">
         <v>476</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="11" t="s">
         <v>477</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="273" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" s="11" t="s">
         <v>478</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="274" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B274" s="11" t="s">
         <v>479</v>
       </c>
@@ -7853,7 +7852,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="275" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B275" s="11" t="s">
         <v>480</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B276" s="11" t="s">
         <v>481</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="277" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="13"/>
       <c r="B277" s="11" t="s">
         <v>482</v>
@@ -7888,7 +7887,7 @@
       </c>
       <c r="R277" s="14"/>
     </row>
-    <row r="278" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B278" s="11" t="s">
         <v>483</v>
       </c>
@@ -7899,7 +7898,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="279" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
       <c r="B279" s="11" t="s">
         <v>484</v>
@@ -7912,7 +7911,7 @@
       </c>
       <c r="R279" s="14"/>
     </row>
-    <row r="280" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B280" s="11" t="s">
         <v>485</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="281" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B281" s="11" t="s">
         <v>486</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B282" s="11" t="s">
         <v>487</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="283" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B283" s="11" t="s">
         <v>488</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="284" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B284" s="11" t="s">
         <v>489</v>
       </c>
@@ -7967,7 +7966,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B285" s="11" t="s">
         <v>490</v>
       </c>
@@ -7978,7 +7977,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="286" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B286" s="11" t="s">
         <v>491</v>
       </c>
@@ -7989,7 +7988,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B287" s="11" t="s">
         <v>492</v>
       </c>
@@ -8000,7 +7999,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" s="11" t="s">
         <v>493</v>
       </c>
@@ -8012,7 +8011,7 @@
       </c>
       <c r="Q288" s="13"/>
     </row>
-    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" s="11" t="s">
         <v>494</v>
       </c>
@@ -8023,7 +8022,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B290" s="11" t="s">
         <v>495</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B291" s="11" t="s">
         <v>278</v>
       </c>
@@ -8046,7 +8045,7 @@
       </c>
       <c r="Q291" s="13"/>
     </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="11" t="s">
         <v>496</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B293" s="11" t="s">
         <v>497</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="11" t="s">
         <v>498</v>
       </c>
@@ -8079,7 +8078,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B295" s="11" t="s">
         <v>499</v>
       </c>
@@ -8090,7 +8089,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B296" s="11" t="s">
         <v>500</v>
       </c>
@@ -8101,7 +8100,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B297" s="11" t="s">
         <v>501</v>
       </c>
@@ -8112,7 +8111,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B298" s="11" t="s">
         <v>700</v>
       </c>
@@ -8123,7 +8122,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="11" t="s">
         <v>502</v>
@@ -8136,7 +8135,7 @@
       </c>
       <c r="R299" s="14"/>
     </row>
-    <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B300" s="11" t="s">
         <v>279</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B301" s="11" t="s">
         <v>503</v>
       </c>
@@ -8158,7 +8157,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B302" s="11" t="s">
         <v>504</v>
       </c>
@@ -8170,7 +8169,7 @@
       </c>
       <c r="Q302" s="13"/>
     </row>
-    <row r="303" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B303" s="11" t="s">
         <v>505</v>
       </c>
@@ -8182,7 +8181,7 @@
       </c>
       <c r="Q303" s="13"/>
     </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B304" s="11" t="s">
         <v>506</v>
       </c>
@@ -8193,7 +8192,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B305" s="11" t="s">
         <v>507</v>
       </c>
@@ -8204,7 +8203,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B306" s="11" t="s">
         <v>508</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B307" s="11" t="s">
         <v>509</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B308" s="11" t="s">
         <v>510</v>
       </c>
@@ -8238,7 +8237,7 @@
       </c>
       <c r="Q308" s="13"/>
     </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="11" t="s">
         <v>511</v>
@@ -8251,7 +8250,7 @@
       </c>
       <c r="R309" s="14"/>
     </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="13"/>
       <c r="B310" s="11" t="s">
         <v>512</v>
@@ -8264,7 +8263,7 @@
       </c>
       <c r="R310" s="14"/>
     </row>
-    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B311" s="11" t="s">
         <v>513</v>
       </c>
@@ -8275,7 +8274,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="11" t="s">
         <v>514</v>
       </c>
@@ -8286,7 +8285,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B313" s="11" t="s">
         <v>515</v>
       </c>
@@ -8297,7 +8296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="314" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B314" s="11" t="s">
         <v>516</v>
       </c>
@@ -8308,7 +8307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="13"/>
       <c r="B315" s="11" t="s">
         <v>517</v>
@@ -8322,7 +8321,7 @@
       <c r="Q315" s="13"/>
       <c r="R315" s="14"/>
     </row>
-    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B316" s="11" t="s">
         <v>518</v>
       </c>
@@ -8334,7 +8333,7 @@
       </c>
       <c r="Q316" s="13"/>
     </row>
-    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="11" t="s">
         <v>519</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="11" t="s">
         <v>520</v>
       </c>
@@ -8356,7 +8355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B319" s="11" t="s">
         <v>521</v>
       </c>
@@ -8367,7 +8366,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="11" t="s">
         <v>522</v>
       </c>
@@ -8378,7 +8377,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="11" t="s">
         <v>523</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B322" s="11" t="s">
         <v>524</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="13"/>
       <c r="B323" s="11" t="s">
         <v>525</v>
@@ -8413,7 +8412,7 @@
       </c>
       <c r="R323" s="14"/>
     </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="11" t="s">
         <v>526</v>
       </c>
@@ -8425,7 +8424,7 @@
       </c>
       <c r="Q324" s="13"/>
     </row>
-    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B325" s="11" t="s">
         <v>527</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B326" s="12" t="s">
         <v>64</v>
       </c>
@@ -8457,7 +8456,7 @@
       <c r="O326" s="12"/>
       <c r="P326" s="12"/>
     </row>
-    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B327" s="11" t="s">
         <v>528</v>
       </c>
@@ -8468,7 +8467,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B328" s="11" t="s">
         <v>529</v>
       </c>
@@ -8479,7 +8478,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B329" s="11" t="s">
         <v>530</v>
       </c>
@@ -8490,7 +8489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B330" s="11" t="s">
         <v>531</v>
       </c>
@@ -8501,7 +8500,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="11" t="s">
         <v>532</v>
       </c>
@@ -8513,7 +8512,7 @@
       </c>
       <c r="Q331" s="13"/>
     </row>
-    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B332" s="11" t="s">
         <v>533</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="333" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
       <c r="B333" s="11" t="s">
         <v>534</v>
@@ -8540,7 +8539,7 @@
       </c>
       <c r="R333" s="14"/>
     </row>
-    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B334" s="11" t="s">
         <v>536</v>
       </c>
@@ -8552,7 +8551,7 @@
       </c>
       <c r="Q334" s="12"/>
     </row>
-    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B335" s="11" t="s">
         <v>537</v>
       </c>
@@ -8563,7 +8562,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B336" s="11" t="s">
         <v>538</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="337" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="11" t="s">
         <v>539</v>
       </c>
@@ -8588,7 +8587,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B338" s="11" t="s">
         <v>541</v>
       </c>
@@ -8599,7 +8598,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="11" t="s">
         <v>542</v>
       </c>
@@ -8610,7 +8609,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="13"/>
       <c r="B340" s="11" t="s">
         <v>543</v>
@@ -8623,7 +8622,7 @@
       </c>
       <c r="R340" s="14"/>
     </row>
-    <row r="341" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B341" s="11" t="s">
         <v>544</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="342" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="11" t="s">
         <v>280</v>
@@ -8647,7 +8646,7 @@
       </c>
       <c r="R342" s="12"/>
     </row>
-    <row r="343" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B343" s="11" t="s">
         <v>545</v>
       </c>
@@ -8658,7 +8657,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="344" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B344" s="11" t="s">
         <v>546</v>
       </c>
@@ -8669,7 +8668,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="345" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B345" s="11" t="s">
         <v>547</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B346" s="11" t="s">
         <v>548</v>
       </c>
@@ -8691,7 +8690,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B347" s="11" t="s">
         <v>549</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="348" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B348" s="11" t="s">
         <v>550</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="349" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B349" s="11" t="s">
         <v>551</v>
       </c>
@@ -8725,7 +8724,7 @@
       </c>
       <c r="Q349" s="13"/>
     </row>
-    <row r="350" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B350" s="11" t="s">
         <v>552</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="351" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B351" s="11" t="s">
         <v>553</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="352" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B352" s="11" t="s">
         <v>554</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="353" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B353" s="11" t="s">
         <v>555</v>
       </c>
@@ -8769,7 +8768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="354" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B354" s="11" t="s">
         <v>556</v>
       </c>
@@ -8780,7 +8779,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="355" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B355" s="11" t="s">
         <v>557</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B356" s="11" t="s">
         <v>558</v>
       </c>
@@ -8802,7 +8801,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="357" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="13"/>
       <c r="B357" s="11" t="s">
         <v>559</v>
@@ -8815,7 +8814,7 @@
       </c>
       <c r="R357" s="14"/>
     </row>
-    <row r="358" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B358" s="11" t="s">
         <v>560</v>
       </c>
@@ -8827,7 +8826,7 @@
       </c>
       <c r="Q358" s="13"/>
     </row>
-    <row r="359" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B359" s="11" t="s">
         <v>561</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B360" s="11" t="s">
         <v>562</v>
       </c>
@@ -8849,7 +8848,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" s="11" t="s">
         <v>563</v>
       </c>
@@ -8860,7 +8859,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="362" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B362" s="11" t="s">
         <v>564</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="363" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B363" s="11" t="s">
         <v>565</v>
       </c>
@@ -8882,7 +8881,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="364" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B364" s="11" t="s">
         <v>566</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B365" s="11" t="s">
         <v>567</v>
       </c>
@@ -8904,7 +8903,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="366" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="13"/>
       <c r="B366" s="11" t="s">
         <v>568</v>
@@ -8917,7 +8916,7 @@
       </c>
       <c r="R366" s="14"/>
     </row>
-    <row r="367" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B367" s="11" t="s">
         <v>569</v>
       </c>
@@ -8928,7 +8927,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="368" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B368" s="11" t="s">
         <v>570</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="369" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B369" s="11" t="s">
         <v>571</v>
       </c>
@@ -8953,7 +8952,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B370" s="11" t="s">
         <v>572</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="371" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B371" s="11" t="s">
         <v>573</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="372" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B372" s="11" t="s">
         <v>575</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="373" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B373" s="11" t="s">
         <v>576</v>
       </c>
@@ -9001,7 +9000,7 @@
       </c>
       <c r="Q373" s="13"/>
     </row>
-    <row r="374" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B374" s="11" t="s">
         <v>577</v>
       </c>
@@ -9012,7 +9011,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="375" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B375" s="11" t="s">
         <v>578</v>
       </c>
@@ -9023,7 +9022,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="376" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B376" s="11" t="s">
         <v>579</v>
       </c>
@@ -9034,7 +9033,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="377" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B377" s="11" t="s">
         <v>580</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="378" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B378" s="11" t="s">
         <v>581</v>
       </c>
@@ -9056,7 +9055,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="379" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B379" s="11" t="s">
         <v>582</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="380" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B380" s="11" t="s">
         <v>281</v>
       </c>
@@ -9078,7 +9077,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="381" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="13"/>
       <c r="B381" s="11" t="s">
         <v>583</v>
@@ -9091,7 +9090,7 @@
       </c>
       <c r="R381" s="14"/>
     </row>
-    <row r="382" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A382" s="11" t="s">
         <v>735</v>
       </c>
@@ -9117,7 +9116,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="383" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B383" s="12" t="s">
         <v>67</v>
       </c>
@@ -9141,7 +9140,7 @@
       <c r="P383" s="12"/>
       <c r="Q383" s="13"/>
     </row>
-    <row r="384" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B384" s="11" t="s">
         <v>584</v>
       </c>
@@ -9152,7 +9151,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="385" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B385" s="11" t="s">
         <v>585</v>
       </c>
@@ -9163,7 +9162,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="386" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B386" s="11" t="s">
         <v>282</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="387" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B387" s="11" t="s">
         <v>586</v>
       </c>
@@ -9186,7 +9185,7 @@
       </c>
       <c r="Q387" s="13"/>
     </row>
-    <row r="388" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B388" s="11" t="s">
         <v>587</v>
       </c>
@@ -9198,7 +9197,7 @@
       </c>
       <c r="Q388" s="13"/>
     </row>
-    <row r="389" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B389" s="11" t="s">
         <v>588</v>
       </c>
@@ -9210,7 +9209,7 @@
       </c>
       <c r="Q389" s="13"/>
     </row>
-    <row r="390" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B390" s="11" t="s">
         <v>589</v>
       </c>
@@ -9222,7 +9221,7 @@
       </c>
       <c r="Q390" s="13"/>
     </row>
-    <row r="391" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B391" s="11" t="s">
         <v>590</v>
       </c>
@@ -9234,7 +9233,7 @@
       </c>
       <c r="Q391" s="12"/>
     </row>
-    <row r="392" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B392" s="11" t="s">
         <v>591</v>
       </c>
@@ -9245,7 +9244,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
       <c r="B393" s="11" t="s">
         <v>592</v>
@@ -9258,7 +9257,7 @@
       </c>
       <c r="R393" s="14"/>
     </row>
-    <row r="394" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="13"/>
       <c r="B394" s="11" t="s">
         <v>593</v>
@@ -9271,7 +9270,7 @@
       </c>
       <c r="R394" s="14"/>
     </row>
-    <row r="395" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="13"/>
       <c r="B395" s="11" t="s">
         <v>594</v>
@@ -9284,7 +9283,7 @@
       </c>
       <c r="R395" s="14"/>
     </row>
-    <row r="396" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="13"/>
       <c r="B396" s="11" t="s">
         <v>595</v>
@@ -9297,7 +9296,7 @@
       </c>
       <c r="R396" s="14"/>
     </row>
-    <row r="397" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
       <c r="B397" s="11" t="s">
         <v>283</v>
@@ -9311,7 +9310,7 @@
       <c r="Q397" s="13"/>
       <c r="R397" s="12"/>
     </row>
-    <row r="398" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B398" s="11" t="s">
         <v>596</v>
       </c>
@@ -9323,7 +9322,7 @@
       </c>
       <c r="Q398" s="13"/>
     </row>
-    <row r="399" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B399" s="11" t="s">
         <v>597</v>
       </c>
@@ -9335,7 +9334,7 @@
       </c>
       <c r="Q399" s="13"/>
     </row>
-    <row r="400" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="11" t="s">
         <v>284</v>
       </c>
@@ -9346,7 +9345,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="401" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B401" s="11" t="s">
         <v>598</v>
       </c>
@@ -9357,7 +9356,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="402" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B402" s="11" t="s">
         <v>599</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="403" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B403" s="11" t="s">
         <v>600</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B404" s="11" t="s">
         <v>601</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="405" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B405" s="11" t="s">
         <v>602</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
       <c r="B406" s="11" t="s">
         <v>285</v>
@@ -9414,7 +9413,7 @@
       </c>
       <c r="R406" s="14"/>
     </row>
-    <row r="407" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="13"/>
       <c r="B407" s="11" t="s">
         <v>603</v>
@@ -9427,7 +9426,7 @@
       </c>
       <c r="R407" s="14"/>
     </row>
-    <row r="408" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B408" s="11" t="s">
         <v>286</v>
       </c>
@@ -9438,7 +9437,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="409" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B409" s="11" t="s">
         <v>287</v>
       </c>
@@ -9449,7 +9448,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B410" s="11" t="s">
         <v>288</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="411" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B411" s="11" t="s">
         <v>289</v>
       </c>
@@ -9471,7 +9470,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="412" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B412" s="11" t="s">
         <v>290</v>
       </c>
@@ -9482,7 +9481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B413" s="11" t="s">
         <v>291</v>
       </c>
@@ -9494,7 +9493,7 @@
       </c>
       <c r="Q413" s="13"/>
     </row>
-    <row r="414" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B414" s="11" t="s">
         <v>292</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="415" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B415" s="11" t="s">
         <v>293</v>
       </c>
@@ -9516,7 +9515,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="416" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B416" s="11" t="s">
         <v>294</v>
       </c>
@@ -9527,7 +9526,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="417" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B417" s="11" t="s">
         <v>295</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B418" s="11" t="s">
         <v>296</v>
       </c>
@@ -9549,7 +9548,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="13"/>
       <c r="B419" s="11" t="s">
         <v>604</v>
@@ -9562,7 +9561,7 @@
       </c>
       <c r="R419" s="14"/>
     </row>
-    <row r="420" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B420" s="11" t="s">
         <v>297</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B421" s="11" t="s">
         <v>298</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="422" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B422" s="11" t="s">
         <v>299</v>
       </c>
@@ -9602,7 +9601,7 @@
       </c>
       <c r="Q422" s="13"/>
     </row>
-    <row r="423" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B423" s="11" t="s">
         <v>605</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="424" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B424" s="11" t="s">
         <v>606</v>
       </c>
@@ -9624,7 +9623,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="425" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B425" s="11" t="s">
         <v>607</v>
       </c>
@@ -9636,7 +9635,7 @@
       </c>
       <c r="Q425" s="13"/>
     </row>
-    <row r="426" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B426" s="11" t="s">
         <v>608</v>
       </c>
@@ -9647,7 +9646,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="427" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B427" s="11" t="s">
         <v>609</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="428" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B428" s="11" t="s">
         <v>611</v>
       </c>
@@ -9672,7 +9671,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="429" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B429" s="11" t="s">
         <v>612</v>
       </c>
@@ -9683,7 +9682,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="430" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B430" s="11" t="s">
         <v>613</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="13"/>
       <c r="B431" s="11" t="s">
         <v>614</v>
@@ -9707,7 +9706,7 @@
       </c>
       <c r="R431" s="14"/>
     </row>
-    <row r="432" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B432" s="11" t="s">
         <v>615</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B433" s="12" t="s">
         <v>62</v>
       </c>
@@ -9745,7 +9744,7 @@
       <c r="O433" s="12"/>
       <c r="P433" s="12"/>
     </row>
-    <row r="434" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="13"/>
       <c r="B434" s="11" t="s">
         <v>302</v>
@@ -9758,7 +9757,7 @@
       </c>
       <c r="R434" s="14"/>
     </row>
-    <row r="435" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B435" s="11" t="s">
         <v>616</v>
       </c>
@@ -9769,7 +9768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="436" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="11" t="s">
         <v>617</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="437" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="11" t="s">
         <v>618</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B438" s="11" t="s">
         <v>619</v>
       </c>
@@ -9802,7 +9801,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="439" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B439" s="11" t="s">
         <v>620</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B440" s="11" t="s">
         <v>701</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="441" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B441" s="11" t="s">
         <v>621</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="442" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B442" s="11" t="s">
         <v>623</v>
       </c>
@@ -9850,7 +9849,7 @@
       </c>
       <c r="Q442" s="12"/>
     </row>
-    <row r="443" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B443" s="11" t="s">
         <v>624</v>
       </c>
@@ -9861,7 +9860,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="444" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B444" s="11" t="s">
         <v>625</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B445" s="11" t="s">
         <v>626</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="446" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B446" s="11" t="s">
         <v>627</v>
       </c>
@@ -9894,7 +9893,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="447" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="11" t="s">
         <v>628</v>
       </c>
@@ -9905,7 +9904,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="448" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="11" t="s">
         <v>629</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="449" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B449" s="11" t="s">
         <v>630</v>
       </c>
@@ -9927,7 +9926,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
       <c r="B450" s="11" t="s">
         <v>318</v>
@@ -9941,7 +9940,7 @@
       <c r="Q450" s="13"/>
       <c r="R450" s="12"/>
     </row>
-    <row r="451" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B451" s="11" t="s">
         <v>631</v>
       </c>
@@ -9952,7 +9951,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="452" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B452" s="11" t="s">
         <v>632</v>
       </c>
@@ -9963,7 +9962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B453" s="11" t="s">
         <v>633</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="454" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B454" s="11" t="s">
         <v>634</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B455" s="11" t="s">
         <v>635</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="456" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B456" s="11" t="s">
         <v>636</v>
       </c>
@@ -10007,7 +10006,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="457" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B457" s="11" t="s">
         <v>637</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B458" s="11" t="s">
         <v>638</v>
       </c>
@@ -10029,7 +10028,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="13"/>
       <c r="B459" s="11" t="s">
         <v>639</v>
@@ -10042,7 +10041,7 @@
       </c>
       <c r="R459" s="14"/>
     </row>
-    <row r="460" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B460" s="11" t="s">
         <v>640</v>
       </c>
@@ -10053,7 +10052,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B461" s="11" t="s">
         <v>641</v>
       </c>
@@ -10064,7 +10063,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B462" s="11" t="s">
         <v>642</v>
       </c>
@@ -10075,7 +10074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="463" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B463" s="11" t="s">
         <v>643</v>
       </c>
@@ -10086,7 +10085,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B464" s="11" t="s">
         <v>644</v>
       </c>
@@ -10097,7 +10096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B465" s="11" t="s">
         <v>645</v>
       </c>
@@ -10108,7 +10107,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B466" s="11" t="s">
         <v>646</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B467" s="11" t="s">
         <v>647</v>
       </c>
@@ -10130,7 +10129,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B468" s="11" t="s">
         <v>648</v>
       </c>
@@ -10141,7 +10140,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="469" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B469" s="11" t="s">
         <v>649</v>
       </c>
@@ -10152,7 +10151,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="470" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B470" s="11" t="s">
         <v>650</v>
       </c>
@@ -10163,7 +10162,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="471" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B471" s="11" t="s">
         <v>651</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B472" s="11" t="s">
         <v>652</v>
       </c>
@@ -10185,7 +10184,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="473" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B473" s="11" t="s">
         <v>653</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B474" s="11" t="s">
         <v>654</v>
       </c>
@@ -10208,7 +10207,7 @@
       </c>
       <c r="Q474" s="13"/>
     </row>
-    <row r="475" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B475" s="11" t="s">
         <v>655</v>
       </c>
@@ -10220,7 +10219,7 @@
       </c>
       <c r="Q475" s="13"/>
     </row>
-    <row r="476" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B476" s="11" t="s">
         <v>656</v>
       </c>
@@ -10231,7 +10230,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="477" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B477" s="11" t="s">
         <v>657</v>
       </c>
@@ -10242,7 +10241,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="478" spans="2:17" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="11" t="s">
         <v>658</v>
       </c>
@@ -10253,7 +10252,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="479" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B479" s="11" t="s">
         <v>659</v>
       </c>
@@ -10264,7 +10263,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="2:17" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B480" s="11" t="s">
         <v>660</v>
       </c>
@@ -10275,7 +10274,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B481" s="11" t="s">
         <v>661</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B482" s="11" t="s">
         <v>662</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="13"/>
       <c r="B483" s="11" t="s">
         <v>663</v>
@@ -10310,7 +10309,7 @@
       </c>
       <c r="R483" s="14"/>
     </row>
-    <row r="484" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="13"/>
       <c r="B484" s="11" t="s">
         <v>664</v>
@@ -10323,7 +10322,7 @@
       </c>
       <c r="R484" s="14"/>
     </row>
-    <row r="485" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="11" t="s">
         <v>665</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B486" s="11" t="s">
         <v>666</v>
       </c>
@@ -10345,7 +10344,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="487" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B487" s="11" t="s">
         <v>667</v>
       </c>
@@ -10356,7 +10355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="488" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B488" s="11" t="s">
         <v>668</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B489" s="11" t="s">
         <v>669</v>
       </c>
@@ -10378,7 +10377,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="490" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B490" s="11" t="s">
         <v>670</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="491" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B491" s="11" t="s">
         <v>671</v>
       </c>
@@ -10400,7 +10399,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="492" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B492" s="11" t="s">
         <v>672</v>
       </c>
@@ -10411,7 +10410,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B493" s="11" t="s">
         <v>673</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="494" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B494" s="11" t="s">
         <v>674</v>
       </c>
@@ -10433,7 +10432,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B495" s="11" t="s">
         <v>675</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="496" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B496" s="11" t="s">
         <v>676</v>
       </c>
@@ -10456,7 +10455,7 @@
       </c>
       <c r="Q496" s="13"/>
     </row>
-    <row r="497" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B497" s="11" t="s">
         <v>677</v>
       </c>
@@ -10467,7 +10466,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="498" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B498" s="11" t="s">
         <v>678</v>
       </c>
@@ -10478,7 +10477,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="499" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B499" s="11" t="s">
         <v>679</v>
       </c>
@@ -10489,7 +10488,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="500" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B500" s="11" t="s">
         <v>680</v>
       </c>
@@ -10500,7 +10499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B501" s="11" t="s">
         <v>303</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B502" s="11" t="s">
         <v>681</v>
       </c>
@@ -10525,7 +10524,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="11" t="s">
         <v>682</v>
       </c>
@@ -10536,7 +10535,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="13"/>
       <c r="B504" s="11" t="s">
         <v>683</v>
@@ -10549,7 +10548,7 @@
       </c>
       <c r="R504" s="14"/>
     </row>
-    <row r="505" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B505" s="11" t="s">
         <v>305</v>
       </c>
@@ -10560,7 +10559,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="506" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B506" s="11" t="s">
         <v>684</v>
       </c>
@@ -10571,7 +10570,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="507" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B507" s="11" t="s">
         <v>685</v>
       </c>
@@ -10582,7 +10581,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="508" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B508" s="11" t="s">
         <v>306</v>
       </c>
@@ -10600,7 +10599,7 @@
       </c>
       <c r="Q508" s="13"/>
     </row>
-    <row r="509" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B509" s="11" t="s">
         <v>308</v>
       </c>
@@ -10611,7 +10610,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="510" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B510" s="11" t="s">
         <v>686</v>
       </c>
@@ -10622,7 +10621,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B511" s="11" t="s">
         <v>687</v>
       </c>
@@ -10633,7 +10632,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="512" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B512" s="11" t="s">
         <v>688</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="513" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B513" s="11" t="s">
         <v>689</v>
       </c>
@@ -10655,7 +10654,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="514" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B514" s="11" t="s">
         <v>690</v>
       </c>
@@ -10666,7 +10665,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="515" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B515" s="11" t="s">
         <v>691</v>
       </c>
@@ -10677,7 +10676,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="516" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B516" s="11" t="s">
         <v>692</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="517" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="13"/>
       <c r="B517" s="11" t="s">
         <v>693</v>
@@ -10701,7 +10700,7 @@
       </c>
       <c r="R517" s="14"/>
     </row>
-    <row r="518" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B518" s="11" t="s">
         <v>694</v>
       </c>
@@ -10712,7 +10711,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B519" s="11" t="s">
         <v>309</v>
       </c>
@@ -10735,7 +10734,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="520" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B520" s="11" t="s">
         <v>759</v>
       </c>
@@ -10752,7 +10751,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="521" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B521" s="11" t="s">
         <v>695</v>
       </c>
@@ -10767,7 +10766,7 @@
       </c>
       <c r="S521" s="13"/>
     </row>
-    <row r="522" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B522" s="11" t="s">
         <v>697</v>
       </c>
@@ -10778,7 +10777,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="523" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B523" s="11" t="s">
         <v>698</v>
       </c>
@@ -10790,38 +10789,44 @@
       </c>
       <c r="S523" s="13"/>
     </row>
-    <row r="524" spans="1:19" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:19" s="24" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B524" s="25" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C524" s="24" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D524" s="24" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="E524" s="24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F524" s="24" t="s">
         <v>712</v>
       </c>
+      <c r="G524" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="H524" s="24" t="s">
+        <v>766</v>
+      </c>
       <c r="J524" s="24" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="P524" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:19" s="24" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:19" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B525" s="25" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C525" s="24" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D525" s="24" t="s">
-        <v>778</v>
+        <v>70</v>
       </c>
       <c r="E525" s="24" t="s">
         <v>70</v>
@@ -10829,28 +10834,25 @@
       <c r="F525" s="24" t="s">
         <v>712</v>
       </c>
-      <c r="G525" s="26" t="s">
-        <v>765</v>
-      </c>
       <c r="H525" s="24" t="s">
         <v>766</v>
       </c>
       <c r="J525" s="24" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="P525" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="526" spans="1:19" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:19" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B526" s="25" t="s">
+        <v>769</v>
+      </c>
+      <c r="C526" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="D526" s="27" t="s">
         <v>768</v>
-      </c>
-      <c r="C526" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="D526" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="E526" s="24" t="s">
         <v>70</v>
@@ -10858,53 +10860,50 @@
       <c r="F526" s="24" t="s">
         <v>712</v>
       </c>
+      <c r="G526" s="27"/>
       <c r="H526" s="24" t="s">
         <v>766</v>
       </c>
-      <c r="J526" s="24" t="s">
-        <v>774</v>
-      </c>
-      <c r="P526" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="527" spans="1:19" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="I526" s="27"/>
+      <c r="J526" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="K526" s="27"/>
+      <c r="L526" s="27"/>
+      <c r="M526" s="27"/>
+      <c r="N526" s="27"/>
+      <c r="O526" s="27"/>
+      <c r="P526" s="27"/>
+    </row>
+    <row r="527" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B527" s="25" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C527" s="24" t="s">
-        <v>771</v>
-      </c>
-      <c r="D527" s="27" t="s">
-        <v>768</v>
+        <v>773</v>
+      </c>
+      <c r="D527" s="24" t="s">
+        <v>761</v>
       </c>
       <c r="E527" s="24" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F527" s="24" t="s">
         <v>712</v>
       </c>
-      <c r="G527" s="27"/>
-      <c r="H527" s="24" t="s">
-        <v>766</v>
-      </c>
-      <c r="I527" s="27"/>
-      <c r="J527" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K527" s="27"/>
-      <c r="L527" s="27"/>
-      <c r="M527" s="27"/>
-      <c r="N527" s="27"/>
-      <c r="O527" s="27"/>
-      <c r="P527" s="27"/>
-    </row>
-    <row r="528" spans="1:19" s="24" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="J527" s="24" t="s">
+        <v>771</v>
+      </c>
+      <c r="P527" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="528" spans="1:19" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B528" s="25" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C528" s="24" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D528" s="24" t="s">
         <v>70</v>
@@ -10916,19 +10915,19 @@
         <v>5</v>
       </c>
       <c r="H528" s="24" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="J528" s="24" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="K528" s="24" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="P528" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="529" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B529" s="14"/>
       <c r="C529" s="12"/>
       <c r="D529" s="12"/>
@@ -10945,7 +10944,7 @@
       <c r="O529" s="12"/>
       <c r="P529" s="12"/>
     </row>
-    <row r="530" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B530" s="14"/>
       <c r="C530" s="12"/>
       <c r="D530" s="12"/>
@@ -10962,44 +10961,44 @@
       <c r="O530" s="12"/>
       <c r="P530" s="12"/>
     </row>
-    <row r="531" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B531" s="14"/>
       <c r="Q531" s="12"/>
     </row>
-    <row r="532" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B532" s="14"/>
     </row>
-    <row r="533" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B533" s="14"/>
     </row>
-    <row r="534" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B534" s="14"/>
     </row>
-    <row r="535" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B535" s="14"/>
     </row>
-    <row r="536" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B536" s="14"/>
     </row>
-    <row r="537" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B537" s="14"/>
     </row>
-    <row r="538" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B538" s="14"/>
     </row>
-    <row r="539" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B539" s="14"/>
     </row>
-    <row r="540" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="14"/>
       <c r="B540" s="14"/>
       <c r="R540" s="12"/>
     </row>
-    <row r="541" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B541" s="14"/>
       <c r="Q541" s="12"/>
     </row>
-    <row r="542" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B542" s="14"/>
       <c r="C542" s="12"/>
       <c r="D542" s="12"/>
@@ -11016,7 +11015,7 @@
       <c r="O542" s="12"/>
       <c r="P542" s="12"/>
     </row>
-    <row r="543" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B543" s="14"/>
       <c r="C543" s="12"/>
       <c r="D543" s="12"/>
@@ -11034,7 +11033,7 @@
       <c r="P543" s="12"/>
       <c r="Q543" s="12"/>
     </row>
-    <row r="544" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="12"/>
       <c r="B544" s="14"/>
       <c r="C544" s="12"/>
@@ -11054,7 +11053,7 @@
       <c r="Q544" s="12"/>
       <c r="R544" s="12"/>
     </row>
-    <row r="545" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B545" s="14"/>
       <c r="C545" s="12"/>
       <c r="D545" s="12"/>
@@ -11072,18 +11071,18 @@
       <c r="P545" s="12"/>
       <c r="Q545" s="12"/>
     </row>
-    <row r="546" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B546" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2822">
+  <sortState ref="A2:S2822">
     <sortCondition ref="F2:F2822"/>
     <sortCondition descending="1" ref="N2:N2822"/>
     <sortCondition ref="B2:B2822"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G525" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G524" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -11091,23 +11090,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -11121,7 +11120,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11132,7 +11131,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -11143,7 +11142,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -11157,7 +11156,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -11168,7 +11167,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -11182,7 +11181,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -11215,7 +11214,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -11226,7 +11225,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
@@ -11237,7 +11236,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -11248,7 +11247,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -11259,7 +11258,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -11270,7 +11269,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>116</v>
       </c>
@@ -11281,7 +11280,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>117</v>
       </c>
@@ -11292,7 +11291,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>118</v>
       </c>
@@ -11303,7 +11302,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
@@ -11314,7 +11313,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>719</v>
       </c>
@@ -11332,29 +11331,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.26953125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11392,7 +11391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -11406,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -11420,7 +11419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11437,7 +11436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -11448,7 +11447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -11479,7 +11478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -11493,7 +11492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -11510,7 +11509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -11530,14 +11529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11545,19 +11544,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="43.26953125" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11603,7 +11602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11620,7 +11619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11654,7 +11653,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11671,7 +11670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11688,7 +11687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11705,7 +11704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11722,7 +11721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11739,7 +11738,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11756,7 +11755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11782,7 +11781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11808,7 +11807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11834,7 +11833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11860,7 +11859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11886,7 +11885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11912,7 +11911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11938,7 +11937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11964,7 +11963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11990,7 +11989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12068,7 +12067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12094,7 +12093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12120,7 +12119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12146,7 +12145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12172,7 +12171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12198,7 +12197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12224,7 +12223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -2367,23 +2367,23 @@
     <t>A potential competing interest that involves the possibility of personal financial gain or loss resulting from enactment of the professional role.</t>
   </si>
   <si>
-    <t>A personal stake of a person that interferes with the impartial enactment of a professional role.</t>
-  </si>
-  <si>
     <t>They should be fully disclosed by people in any research, clinical, professional or policy-making role to enable stakeholders to make an informed judgement about the potential for bias. They include: 1) financial potential competing interests, as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the conduct of the professional role.</t>
   </si>
   <si>
-    <t xml:space="preserve">Competing interests carry no implication of wrong-doing and are often unavoidable. </t>
-  </si>
-  <si>
     <t>A personal attribute that involves an outcome of value to that person arising from a process.</t>
+  </si>
+  <si>
+    <t>A personal stake that interferes with the impartial enactment of a professional role.</t>
+  </si>
+  <si>
+    <t>Competing interests carry no implication of wrong-doing and are often unavoidable. However, they must be disclosed and in some cases may preclude someone from performing a particular role.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2489,14 +2489,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2594,10 +2586,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2638,7 +2630,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,10 +2931,10 @@
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C526" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I526" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B529" sqref="B529"/>
+      <selection pane="bottomRight" activeCell="J527" sqref="J527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10794,7 +10786,7 @@
         <v>764</v>
       </c>
       <c r="C524" s="24" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D524" s="24" t="s">
         <v>774</v>
@@ -10805,14 +10797,14 @@
       <c r="F524" s="24" t="s">
         <v>712</v>
       </c>
-      <c r="G524" s="26" t="s">
+      <c r="G524" s="27" t="s">
         <v>765</v>
       </c>
       <c r="H524" s="24" t="s">
         <v>766</v>
       </c>
       <c r="J524" s="24" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="P524" s="24" t="s">
         <v>121</v>
@@ -10838,7 +10830,7 @@
         <v>766</v>
       </c>
       <c r="J525" s="24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="P525" s="24" t="s">
         <v>121</v>
@@ -10851,7 +10843,7 @@
       <c r="C526" s="24" t="s">
         <v>778</v>
       </c>
-      <c r="D526" s="27" t="s">
+      <c r="D526" s="26" t="s">
         <v>768</v>
       </c>
       <c r="E526" s="24" t="s">
@@ -10860,20 +10852,20 @@
       <c r="F526" s="24" t="s">
         <v>712</v>
       </c>
-      <c r="G526" s="27"/>
+      <c r="G526" s="26"/>
       <c r="H526" s="24" t="s">
         <v>766</v>
       </c>
-      <c r="I526" s="27"/>
-      <c r="J526" s="27" t="s">
+      <c r="I526" s="26"/>
+      <c r="J526" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="K526" s="27"/>
-      <c r="L526" s="27"/>
-      <c r="M526" s="27"/>
-      <c r="N526" s="27"/>
-      <c r="O526" s="27"/>
-      <c r="P526" s="27"/>
+      <c r="K526" s="26"/>
+      <c r="L526" s="26"/>
+      <c r="M526" s="26"/>
+      <c r="N526" s="26"/>
+      <c r="O526" s="26"/>
+      <c r="P526" s="26"/>
     </row>
     <row r="527" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B527" s="25" t="s">
@@ -10903,7 +10895,7 @@
         <v>774</v>
       </c>
       <c r="C528" s="24" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D528" s="24" t="s">
         <v>70</v>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCCEF66-851E-D44A-B951-8CD62D5DB252}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="787">
   <si>
     <t>ID</t>
   </si>
@@ -2377,12 +2378,24 @@
   </si>
   <si>
     <t>Competing interests carry no implication of wrong-doing and are often unavoidable. However, they must be disclosed and in some cases may preclude someone from performing a particular role.</t>
+  </si>
+  <si>
+    <t>Generically Dependent Continuant</t>
+  </si>
+  <si>
+    <t>Funding</t>
+  </si>
+  <si>
+    <t>Funding that originates from one or more tobacco companies.</t>
+  </si>
+  <si>
+    <t>Tobacco industry funding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2511,7 +2524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2592,6 +2605,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2630,7 +2649,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,40 +2946,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I526" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J527" sqref="J527"/>
+      <selection pane="bottomRight" activeCell="J529" sqref="J529"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="82.28515625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="12"/>
-    <col min="13" max="13" width="18.42578125" style="12" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="12"/>
-    <col min="16" max="16" width="13.42578125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="37.140625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="48.7109375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="12"/>
+    <col min="7" max="7" width="35.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="48.33203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="82.33203125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="44.1640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="12"/>
+    <col min="13" max="13" width="18.5" style="12" customWidth="1"/>
+    <col min="14" max="15" width="9.1640625" style="12"/>
+    <col min="16" max="16" width="13.5" style="12" customWidth="1"/>
+    <col min="17" max="17" width="37.1640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="48.6640625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3016,7 +3035,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
         <v>171</v>
@@ -3051,7 +3070,7 @@
       <c r="R2" s="19"/>
       <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
         <v>172</v>
@@ -3086,7 +3105,7 @@
       <c r="R3" s="19"/>
       <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
         <v>125</v>
@@ -3129,7 +3148,7 @@
       </c>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
         <v>173</v>
@@ -3164,7 +3183,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>174</v>
@@ -3201,7 +3220,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>178</v>
       </c>
@@ -3227,7 +3246,7 @@
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>179</v>
       </c>
@@ -3253,7 +3272,7 @@
       </c>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>180</v>
       </c>
@@ -3279,7 +3298,7 @@
       </c>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>181</v>
       </c>
@@ -3305,7 +3324,7 @@
       </c>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>182</v>
       </c>
@@ -3331,7 +3350,7 @@
       </c>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>131</v>
       </c>
@@ -3357,7 +3376,7 @@
       </c>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="11" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>186</v>
       </c>
@@ -3393,7 +3412,7 @@
       </c>
       <c r="S13" s="13"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>371</v>
       </c>
@@ -3419,7 +3438,7 @@
       </c>
       <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>379</v>
       </c>
@@ -3445,7 +3464,7 @@
       </c>
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>380</v>
       </c>
@@ -3471,7 +3490,7 @@
       </c>
       <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="11" t="s">
         <v>382</v>
@@ -3499,7 +3518,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="11" t="s">
         <v>383</v>
@@ -3527,7 +3546,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
@@ -3564,7 +3583,7 @@
       </c>
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>749</v>
       </c>
@@ -3595,7 +3614,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="18"/>
     </row>
-    <row r="21" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>408</v>
       </c>
@@ -3621,7 +3640,7 @@
       </c>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
         <v>134</v>
       </c>
@@ -3648,7 +3667,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
         <v>135</v>
       </c>
@@ -3673,7 +3692,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>196</v>
       </c>
@@ -3700,7 +3719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>197</v>
       </c>
@@ -3726,7 +3745,7 @@
       </c>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
         <v>137</v>
       </c>
@@ -3751,7 +3770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>198</v>
       </c>
@@ -3788,7 +3807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>204</v>
       </c>
@@ -3814,7 +3833,7 @@
       </c>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
         <v>205</v>
       </c>
@@ -3840,7 +3859,7 @@
       </c>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
         <v>206</v>
@@ -3868,7 +3887,7 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
         <v>207</v>
@@ -3895,7 +3914,7 @@
       </c>
       <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>138</v>
@@ -3922,7 +3941,7 @@
       </c>
       <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>208</v>
       </c>
@@ -3947,7 +3966,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
         <v>209</v>
@@ -3974,7 +3993,7 @@
       </c>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>210</v>
       </c>
@@ -4009,7 +4028,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>211</v>
@@ -4036,7 +4055,7 @@
       </c>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>212</v>
       </c>
@@ -4061,7 +4080,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
         <v>213</v>
@@ -4088,7 +4107,7 @@
       </c>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>214</v>
       </c>
@@ -4114,7 +4133,7 @@
       </c>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>215</v>
       </c>
@@ -4139,7 +4158,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="13" t="s">
         <v>216</v>
       </c>
@@ -4164,7 +4183,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B42" s="13" t="s">
         <v>217</v>
       </c>
@@ -4189,7 +4208,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
         <v>218</v>
       </c>
@@ -4214,7 +4233,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="13" t="s">
         <v>219</v>
       </c>
@@ -4239,7 +4258,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="13" t="s">
         <v>220</v>
       </c>
@@ -4265,7 +4284,7 @@
       </c>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
         <v>221</v>
       </c>
@@ -4290,7 +4309,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="13" t="s">
         <v>222</v>
@@ -4317,7 +4336,7 @@
       </c>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="13" t="s">
         <v>223</v>
@@ -4344,7 +4363,7 @@
       </c>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="s">
         <v>224</v>
@@ -4371,7 +4390,7 @@
       </c>
       <c r="R49" s="14"/>
     </row>
-    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="B50" s="13" t="s">
         <v>225</v>
@@ -4398,7 +4417,7 @@
       </c>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
         <v>226</v>
@@ -4425,7 +4444,7 @@
       </c>
       <c r="R51" s="14"/>
     </row>
-    <row r="52" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
         <v>139</v>
       </c>
@@ -4450,7 +4469,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>140</v>
       </c>
@@ -4475,7 +4494,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
         <v>227</v>
       </c>
@@ -4500,7 +4519,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
         <v>228</v>
@@ -4527,7 +4546,7 @@
       </c>
       <c r="R55" s="14"/>
     </row>
-    <row r="56" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="13" t="s">
         <v>141</v>
       </c>
@@ -4552,7 +4571,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="13" t="s">
         <v>142</v>
       </c>
@@ -4577,7 +4596,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="13" t="s">
         <v>143</v>
       </c>
@@ -4602,7 +4621,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
         <v>144</v>
       </c>
@@ -4631,7 +4650,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="B60" s="13" t="s">
         <v>146</v>
@@ -4660,7 +4679,7 @@
       </c>
       <c r="R60" s="14"/>
     </row>
-    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="13" t="s">
         <v>148</v>
       </c>
@@ -4685,7 +4704,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
         <v>149</v>
       </c>
@@ -4710,7 +4729,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
         <v>150</v>
       </c>
@@ -4746,7 +4765,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="11" t="s">
         <v>751</v>
       </c>
@@ -4769,7 +4788,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
         <v>229</v>
       </c>
@@ -4794,7 +4813,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
         <v>230</v>
       </c>
@@ -4819,7 +4838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B67" s="13" t="s">
         <v>151</v>
       </c>
@@ -4850,7 +4869,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
         <v>155</v>
       </c>
@@ -4883,7 +4902,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" s="13" t="s">
         <v>160</v>
       </c>
@@ -4914,7 +4933,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>231</v>
@@ -4941,7 +4960,7 @@
       </c>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" s="13" t="s">
         <v>232</v>
       </c>
@@ -4966,7 +4985,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" s="13" t="s">
         <v>233</v>
       </c>
@@ -4991,7 +5010,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
         <v>164</v>
@@ -5018,7 +5037,7 @@
       </c>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="s">
         <v>127</v>
       </c>
@@ -5041,7 +5060,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B75" s="13" t="s">
         <v>165</v>
       </c>
@@ -5066,7 +5085,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B76" s="13" t="s">
         <v>166</v>
       </c>
@@ -5091,7 +5110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B77" s="13" t="s">
         <v>167</v>
       </c>
@@ -5116,7 +5135,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" s="13" t="s">
         <v>741</v>
       </c>
@@ -5148,7 +5167,7 @@
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" s="13" t="s">
         <v>168</v>
       </c>
@@ -5173,7 +5192,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" s="13" t="s">
         <v>169</v>
       </c>
@@ -5198,7 +5217,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" s="13" t="s">
         <v>743</v>
       </c>
@@ -5234,7 +5253,7 @@
       </c>
       <c r="Q81" s="13"/>
     </row>
-    <row r="82" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B82" s="13" t="s">
         <v>234</v>
       </c>
@@ -5259,7 +5278,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" s="13" t="s">
         <v>170</v>
       </c>
@@ -5284,7 +5303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="13"/>
       <c r="B84" s="11" t="s">
         <v>316</v>
@@ -5308,7 +5327,7 @@
       <c r="R84" s="14"/>
       <c r="S84" s="12"/>
     </row>
-    <row r="85" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="13"/>
       <c r="B85" s="11" t="s">
         <v>320</v>
@@ -5335,7 +5354,7 @@
       <c r="R85" s="14"/>
       <c r="S85" s="12"/>
     </row>
-    <row r="86" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="13"/>
       <c r="B86" s="11" t="s">
         <v>236</v>
@@ -5356,7 +5375,7 @@
       <c r="R86" s="14"/>
       <c r="S86" s="12"/>
     </row>
-    <row r="87" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B87" s="11" t="s">
         <v>313</v>
       </c>
@@ -5377,7 +5396,7 @@
       </c>
       <c r="S87" s="12"/>
     </row>
-    <row r="88" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A88" s="13"/>
       <c r="B88" s="11" t="s">
         <v>322</v>
@@ -5404,7 +5423,7 @@
       <c r="R88" s="14"/>
       <c r="S88" s="12"/>
     </row>
-    <row r="89" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="B89" s="11" t="s">
         <v>238</v>
@@ -5421,7 +5440,7 @@
       <c r="R89" s="14"/>
       <c r="S89" s="12"/>
     </row>
-    <row r="90" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="13"/>
       <c r="B90" s="11" t="s">
         <v>324</v>
@@ -5435,7 +5454,7 @@
       <c r="R90" s="14"/>
       <c r="S90" s="12"/>
     </row>
-    <row r="91" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B91" s="11" t="s">
         <v>325</v>
       </c>
@@ -5447,7 +5466,7 @@
       </c>
       <c r="S91" s="12"/>
     </row>
-    <row r="92" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="13"/>
       <c r="B92" s="11" t="s">
         <v>326</v>
@@ -5461,7 +5480,7 @@
       <c r="R92" s="14"/>
       <c r="S92" s="12"/>
     </row>
-    <row r="93" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B93" s="11" t="s">
         <v>327</v>
       </c>
@@ -5473,7 +5492,7 @@
       </c>
       <c r="S93" s="12"/>
     </row>
-    <row r="94" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="B94" s="11" t="s">
         <v>328</v>
@@ -5487,7 +5506,7 @@
       <c r="R94" s="14"/>
       <c r="S94" s="13"/>
     </row>
-    <row r="95" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" s="11" t="s">
         <v>329</v>
       </c>
@@ -5499,7 +5518,7 @@
       </c>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B96" s="11" t="s">
         <v>240</v>
       </c>
@@ -5517,7 +5536,7 @@
       </c>
       <c r="S96" s="13"/>
     </row>
-    <row r="97" spans="2:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B97" s="11" t="s">
         <v>242</v>
       </c>
@@ -5529,7 +5548,7 @@
       </c>
       <c r="S97" s="13"/>
     </row>
-    <row r="98" spans="2:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B98" s="11" t="s">
         <v>243</v>
       </c>
@@ -5553,7 +5572,7 @@
       </c>
       <c r="S98" s="13"/>
     </row>
-    <row r="99" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B99" s="11" t="s">
         <v>248</v>
       </c>
@@ -5568,7 +5587,7 @@
       </c>
       <c r="S99" s="13"/>
     </row>
-    <row r="100" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B100" s="11" t="s">
         <v>250</v>
       </c>
@@ -5580,7 +5599,7 @@
       </c>
       <c r="S100" s="13"/>
     </row>
-    <row r="101" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="12" t="s">
         <v>63</v>
       </c>
@@ -5608,7 +5627,7 @@
       <c r="P101" s="12"/>
       <c r="S101" s="13"/>
     </row>
-    <row r="102" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B102" s="11" t="s">
         <v>330</v>
       </c>
@@ -5620,7 +5639,7 @@
       </c>
       <c r="S102" s="13"/>
     </row>
-    <row r="103" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B103" s="11" t="s">
         <v>331</v>
       </c>
@@ -5632,7 +5651,7 @@
       </c>
       <c r="S103" s="13"/>
     </row>
-    <row r="104" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B104" s="11" t="s">
         <v>332</v>
       </c>
@@ -5644,7 +5663,7 @@
       </c>
       <c r="S104" s="13"/>
     </row>
-    <row r="105" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B105" s="11" t="s">
         <v>333</v>
       </c>
@@ -5657,7 +5676,7 @@
       <c r="Q105" s="12"/>
       <c r="S105" s="13"/>
     </row>
-    <row r="106" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B106" s="11" t="s">
         <v>334</v>
       </c>
@@ -5669,7 +5688,7 @@
       </c>
       <c r="S106" s="13"/>
     </row>
-    <row r="107" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B107" s="11" t="s">
         <v>335</v>
       </c>
@@ -5682,7 +5701,7 @@
       <c r="Q107" s="13"/>
       <c r="S107" s="13"/>
     </row>
-    <row r="108" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B108" s="11" t="s">
         <v>336</v>
       </c>
@@ -5698,7 +5717,7 @@
       <c r="Q108" s="13"/>
       <c r="S108" s="13"/>
     </row>
-    <row r="109" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B109" s="11" t="s">
         <v>338</v>
       </c>
@@ -5711,7 +5730,7 @@
       <c r="Q109" s="13"/>
       <c r="S109" s="13"/>
     </row>
-    <row r="110" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B110" s="11" t="s">
         <v>339</v>
       </c>
@@ -5724,7 +5743,7 @@
       <c r="Q110" s="13"/>
       <c r="S110" s="13"/>
     </row>
-    <row r="111" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B111" s="11" t="s">
         <v>340</v>
       </c>
@@ -5736,7 +5755,7 @@
       </c>
       <c r="S111" s="13"/>
     </row>
-    <row r="112" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B112" s="11" t="s">
         <v>341</v>
       </c>
@@ -5748,7 +5767,7 @@
       </c>
       <c r="S112" s="13"/>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B113" s="11" t="s">
         <v>342</v>
       </c>
@@ -5760,7 +5779,7 @@
       </c>
       <c r="S113" s="13"/>
     </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="12"/>
       <c r="B114" s="11" t="s">
         <v>343</v>
@@ -5774,7 +5793,7 @@
       <c r="R114" s="12"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B115" s="11" t="s">
         <v>344</v>
       </c>
@@ -5786,7 +5805,7 @@
       </c>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="13"/>
       <c r="B116" s="11" t="s">
         <v>345</v>
@@ -5800,7 +5819,7 @@
       <c r="R116" s="14"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="13"/>
       <c r="B117" s="11" t="s">
         <v>346</v>
@@ -5814,7 +5833,7 @@
       <c r="R117" s="14"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="13"/>
       <c r="B118" s="11" t="s">
         <v>251</v>
@@ -5828,7 +5847,7 @@
       <c r="R118" s="14"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="13"/>
       <c r="B119" s="11" t="s">
         <v>347</v>
@@ -5842,7 +5861,7 @@
       <c r="R119" s="14"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B120" s="11" t="s">
         <v>348</v>
       </c>
@@ -5854,7 +5873,7 @@
       </c>
       <c r="S120" s="13"/>
     </row>
-    <row r="121" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B121" s="11" t="s">
         <v>349</v>
       </c>
@@ -5866,7 +5885,7 @@
       </c>
       <c r="S121" s="13"/>
     </row>
-    <row r="122" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="11" t="s">
         <v>350</v>
       </c>
@@ -5878,7 +5897,7 @@
       </c>
       <c r="S122" s="13"/>
     </row>
-    <row r="123" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B123" s="11" t="s">
         <v>351</v>
       </c>
@@ -5890,7 +5909,7 @@
       </c>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B124" s="12" t="s">
         <v>66</v>
       </c>
@@ -5920,7 +5939,7 @@
       <c r="P124" s="12"/>
       <c r="S124" s="13"/>
     </row>
-    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B125" s="11" t="s">
         <v>252</v>
       </c>
@@ -5932,7 +5951,7 @@
       </c>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B126" s="11" t="s">
         <v>253</v>
       </c>
@@ -5944,7 +5963,7 @@
       </c>
       <c r="S126" s="13"/>
     </row>
-    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B127" s="11" t="s">
         <v>254</v>
       </c>
@@ -5956,7 +5975,7 @@
       </c>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B128" s="11" t="s">
         <v>255</v>
       </c>
@@ -5969,7 +5988,7 @@
       <c r="Q128" s="13"/>
       <c r="S128" s="13"/>
     </row>
-    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="11" t="s">
         <v>352</v>
       </c>
@@ -5981,7 +6000,7 @@
       </c>
       <c r="S129" s="13"/>
     </row>
-    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="11" t="s">
         <v>256</v>
       </c>
@@ -5993,7 +6012,7 @@
       </c>
       <c r="S130" s="13"/>
     </row>
-    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B131" s="11" t="s">
         <v>353</v>
       </c>
@@ -6005,7 +6024,7 @@
       </c>
       <c r="S131" s="13"/>
     </row>
-    <row r="132" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B132" s="11" t="s">
         <v>257</v>
       </c>
@@ -6018,7 +6037,7 @@
       <c r="Q132" s="12"/>
       <c r="S132" s="13"/>
     </row>
-    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B133" s="11" t="s">
         <v>258</v>
       </c>
@@ -6030,7 +6049,7 @@
       </c>
       <c r="S133" s="13"/>
     </row>
-    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B134" s="11" t="s">
         <v>259</v>
       </c>
@@ -6045,7 +6064,7 @@
       </c>
       <c r="S134" s="13"/>
     </row>
-    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B135" s="11" t="s">
         <v>354</v>
       </c>
@@ -6057,7 +6076,7 @@
       </c>
       <c r="S135" s="13"/>
     </row>
-    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B136" s="11" t="s">
         <v>355</v>
       </c>
@@ -6069,7 +6088,7 @@
       </c>
       <c r="S136" s="13"/>
     </row>
-    <row r="137" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="13"/>
       <c r="B137" s="11" t="s">
         <v>261</v>
@@ -6083,7 +6102,7 @@
       <c r="R137" s="14"/>
       <c r="S137" s="13"/>
     </row>
-    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B138" s="11" t="s">
         <v>262</v>
       </c>
@@ -6095,7 +6114,7 @@
       </c>
       <c r="S138" s="13"/>
     </row>
-    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B139" s="11" t="s">
         <v>356</v>
       </c>
@@ -6107,7 +6126,7 @@
       </c>
       <c r="S139" s="13"/>
     </row>
-    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" s="11" t="s">
         <v>357</v>
       </c>
@@ -6119,7 +6138,7 @@
       </c>
       <c r="S140" s="13"/>
     </row>
-    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B141" s="11" t="s">
         <v>358</v>
       </c>
@@ -6132,7 +6151,7 @@
       <c r="R141" s="12"/>
       <c r="S141" s="13"/>
     </row>
-    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B142" s="11" t="s">
         <v>359</v>
       </c>
@@ -6144,7 +6163,7 @@
       </c>
       <c r="S142" s="13"/>
     </row>
-    <row r="143" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B143" s="11" t="s">
         <v>263</v>
       </c>
@@ -6156,7 +6175,7 @@
       </c>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B144" s="11" t="s">
         <v>360</v>
       </c>
@@ -6168,7 +6187,7 @@
       </c>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B145" s="11" t="s">
         <v>264</v>
       </c>
@@ -6180,7 +6199,7 @@
       </c>
       <c r="S145" s="13"/>
     </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B146" s="11" t="s">
         <v>265</v>
       </c>
@@ -6192,7 +6211,7 @@
       </c>
       <c r="S146" s="13"/>
     </row>
-    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B147" s="11" t="s">
         <v>266</v>
       </c>
@@ -6204,7 +6223,7 @@
       </c>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B148" s="11" t="s">
         <v>361</v>
       </c>
@@ -6216,7 +6235,7 @@
       </c>
       <c r="S148" s="13"/>
     </row>
-    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B149" s="11" t="s">
         <v>362</v>
       </c>
@@ -6229,7 +6248,7 @@
       <c r="Q149" s="13"/>
       <c r="S149" s="13"/>
     </row>
-    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B150" s="11" t="s">
         <v>363</v>
       </c>
@@ -6241,7 +6260,7 @@
       </c>
       <c r="S150" s="13"/>
     </row>
-    <row r="151" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B151" s="11" t="s">
         <v>267</v>
       </c>
@@ -6253,7 +6272,7 @@
       </c>
       <c r="S151" s="13"/>
     </row>
-    <row r="152" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B152" s="11" t="s">
         <v>364</v>
       </c>
@@ -6265,7 +6284,7 @@
       </c>
       <c r="S152" s="13"/>
     </row>
-    <row r="153" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B153" s="11" t="s">
         <v>365</v>
       </c>
@@ -6278,7 +6297,7 @@
       <c r="Q153" s="13"/>
       <c r="S153" s="13"/>
     </row>
-    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B154" s="11" t="s">
         <v>366</v>
       </c>
@@ -6290,7 +6309,7 @@
       </c>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B155" s="11" t="s">
         <v>367</v>
       </c>
@@ -6302,7 +6321,7 @@
       </c>
       <c r="S155" s="13"/>
     </row>
-    <row r="156" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B156" s="11" t="s">
         <v>368</v>
       </c>
@@ -6314,7 +6333,7 @@
       </c>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B157" s="11" t="s">
         <v>268</v>
       </c>
@@ -6326,7 +6345,7 @@
       </c>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="13"/>
       <c r="B158" s="11" t="s">
         <v>369</v>
@@ -6340,7 +6359,7 @@
       <c r="R158" s="14"/>
       <c r="S158" s="13"/>
     </row>
-    <row r="159" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B159" s="11" t="s">
         <v>370</v>
       </c>
@@ -6352,7 +6371,7 @@
       </c>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B160" s="11" t="s">
         <v>269</v>
       </c>
@@ -6364,7 +6383,7 @@
       </c>
       <c r="S160" s="13"/>
     </row>
-    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="13"/>
       <c r="B161" s="13" t="s">
         <v>190</v>
@@ -6378,7 +6397,7 @@
       <c r="R161" s="14"/>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B162" s="11" t="s">
         <v>372</v>
       </c>
@@ -6390,7 +6409,7 @@
       </c>
       <c r="S162" s="13"/>
     </row>
-    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B163" s="11" t="s">
         <v>373</v>
       </c>
@@ -6402,7 +6421,7 @@
       </c>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B164" s="11" t="s">
         <v>374</v>
       </c>
@@ -6414,7 +6433,7 @@
       </c>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B165" s="11" t="s">
         <v>270</v>
       </c>
@@ -6426,7 +6445,7 @@
       </c>
       <c r="S165" s="13"/>
     </row>
-    <row r="166" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B166" s="11" t="s">
         <v>375</v>
       </c>
@@ -6438,7 +6457,7 @@
       </c>
       <c r="S166" s="13"/>
     </row>
-    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B167" s="11" t="s">
         <v>376</v>
       </c>
@@ -6451,7 +6470,7 @@
       <c r="Q167" s="13"/>
       <c r="S167" s="13"/>
     </row>
-    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B168" s="11" t="s">
         <v>377</v>
       </c>
@@ -6463,7 +6482,7 @@
       </c>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B169" s="11" t="s">
         <v>378</v>
       </c>
@@ -6476,7 +6495,7 @@
       <c r="Q169" s="13"/>
       <c r="S169" s="13"/>
     </row>
-    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B170" s="13" t="s">
         <v>191</v>
       </c>
@@ -6488,7 +6507,7 @@
       </c>
       <c r="S170" s="13"/>
     </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B171" s="13" t="s">
         <v>192</v>
       </c>
@@ -6500,7 +6519,7 @@
       </c>
       <c r="S171" s="13"/>
     </row>
-    <row r="172" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B172" s="11" t="s">
         <v>381</v>
       </c>
@@ -6512,7 +6531,7 @@
       </c>
       <c r="S172" s="13"/>
     </row>
-    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B173" s="13" t="s">
         <v>193</v>
       </c>
@@ -6524,7 +6543,7 @@
       </c>
       <c r="S173" s="13"/>
     </row>
-    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B174" s="13" t="s">
         <v>194</v>
       </c>
@@ -6536,7 +6555,7 @@
       </c>
       <c r="S174" s="13"/>
     </row>
-    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B175" s="11" t="s">
         <v>384</v>
       </c>
@@ -6549,7 +6568,7 @@
       <c r="Q175" s="13"/>
       <c r="S175" s="13"/>
     </row>
-    <row r="176" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B176" s="11" t="s">
         <v>385</v>
       </c>
@@ -6561,7 +6580,7 @@
       </c>
       <c r="S176" s="13"/>
     </row>
-    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B177" s="11" t="s">
         <v>386</v>
       </c>
@@ -6574,7 +6593,7 @@
       <c r="Q177" s="13"/>
       <c r="S177" s="13"/>
     </row>
-    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B178" s="11" t="s">
         <v>387</v>
       </c>
@@ -6586,7 +6605,7 @@
       </c>
       <c r="S178" s="13"/>
     </row>
-    <row r="179" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B179" s="11" t="s">
         <v>388</v>
       </c>
@@ -6598,7 +6617,7 @@
       </c>
       <c r="S179" s="13"/>
     </row>
-    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B180" s="11" t="s">
         <v>389</v>
       </c>
@@ -6611,7 +6630,7 @@
       <c r="Q180" s="13"/>
       <c r="S180" s="13"/>
     </row>
-    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B181" s="11" t="s">
         <v>390</v>
       </c>
@@ -6623,7 +6642,7 @@
       </c>
       <c r="S181" s="13"/>
     </row>
-    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B182" s="11" t="s">
         <v>391</v>
       </c>
@@ -6636,7 +6655,7 @@
       <c r="Q182" s="13"/>
       <c r="S182" s="13"/>
     </row>
-    <row r="183" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B183" s="11" t="s">
         <v>392</v>
       </c>
@@ -6648,7 +6667,7 @@
       </c>
       <c r="S183" s="13"/>
     </row>
-    <row r="184" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="13"/>
       <c r="B184" s="11" t="s">
         <v>393</v>
@@ -6662,7 +6681,7 @@
       <c r="R184" s="14"/>
       <c r="S184" s="13"/>
     </row>
-    <row r="185" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B185" s="11" t="s">
         <v>394</v>
       </c>
@@ -6674,7 +6693,7 @@
       </c>
       <c r="S185" s="13"/>
     </row>
-    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="13"/>
       <c r="B186" s="11" t="s">
         <v>395</v>
@@ -6688,7 +6707,7 @@
       <c r="R186" s="14"/>
       <c r="S186" s="13"/>
     </row>
-    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B187" s="11" t="s">
         <v>396</v>
       </c>
@@ -6700,7 +6719,7 @@
       </c>
       <c r="S187" s="13"/>
     </row>
-    <row r="188" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B188" s="11" t="s">
         <v>397</v>
       </c>
@@ -6712,7 +6731,7 @@
       </c>
       <c r="S188" s="13"/>
     </row>
-    <row r="189" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="13"/>
       <c r="B189" s="11" t="s">
         <v>398</v>
@@ -6726,7 +6745,7 @@
       <c r="R189" s="14"/>
       <c r="S189" s="13"/>
     </row>
-    <row r="190" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B190" s="11" t="s">
         <v>271</v>
       </c>
@@ -6738,7 +6757,7 @@
       </c>
       <c r="S190" s="13"/>
     </row>
-    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="13"/>
       <c r="B191" s="11" t="s">
         <v>399</v>
@@ -6752,7 +6771,7 @@
       <c r="R191" s="14"/>
       <c r="S191" s="13"/>
     </row>
-    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B192" s="11" t="s">
         <v>400</v>
       </c>
@@ -6764,7 +6783,7 @@
       </c>
       <c r="S192" s="13"/>
     </row>
-    <row r="193" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B193" s="11" t="s">
         <v>401</v>
       </c>
@@ -6776,7 +6795,7 @@
       </c>
       <c r="S193" s="13"/>
     </row>
-    <row r="194" spans="2:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B194" s="11" t="s">
         <v>402</v>
       </c>
@@ -6788,7 +6807,7 @@
       </c>
       <c r="S194" s="13"/>
     </row>
-    <row r="195" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B195" s="11" t="s">
         <v>404</v>
       </c>
@@ -6803,7 +6822,7 @@
       </c>
       <c r="S195" s="13"/>
     </row>
-    <row r="196" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B196" s="11" t="s">
         <v>405</v>
       </c>
@@ -6815,7 +6834,7 @@
       </c>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B197" s="11" t="s">
         <v>272</v>
       </c>
@@ -6830,7 +6849,7 @@
       </c>
       <c r="S197" s="13"/>
     </row>
-    <row r="198" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B198" s="11" t="s">
         <v>407</v>
       </c>
@@ -6842,7 +6861,7 @@
       </c>
       <c r="S198" s="13"/>
     </row>
-    <row r="199" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B199" s="11" t="s">
         <v>760</v>
       </c>
@@ -6854,7 +6873,7 @@
       </c>
       <c r="S199" s="13"/>
     </row>
-    <row r="200" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B200" s="13" t="s">
         <v>195</v>
       </c>
@@ -6866,7 +6885,7 @@
       </c>
       <c r="S200" s="13"/>
     </row>
-    <row r="201" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B201" s="11" t="s">
         <v>409</v>
       </c>
@@ -6878,7 +6897,7 @@
       </c>
       <c r="S201" s="13"/>
     </row>
-    <row r="202" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B202" s="11" t="s">
         <v>410</v>
       </c>
@@ -6889,7 +6908,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="203" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B203" s="11" t="s">
         <v>273</v>
       </c>
@@ -6900,7 +6919,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="204" spans="2:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B204" s="13" t="s">
         <v>132</v>
       </c>
@@ -6911,7 +6930,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="205" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B205" s="11" t="s">
         <v>411</v>
       </c>
@@ -6922,7 +6941,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="206" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B206" s="11" t="s">
         <v>412</v>
       </c>
@@ -6934,7 +6953,7 @@
       </c>
       <c r="Q206" s="13"/>
     </row>
-    <row r="207" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B207" s="11" t="s">
         <v>413</v>
       </c>
@@ -6952,7 +6971,7 @@
       </c>
       <c r="Q207" s="13"/>
     </row>
-    <row r="208" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B208" s="11" t="s">
         <v>699</v>
       </c>
@@ -6963,7 +6982,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B209" s="11" t="s">
         <v>415</v>
       </c>
@@ -6975,7 +6994,7 @@
       </c>
       <c r="Q209" s="13"/>
     </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B210" s="11" t="s">
         <v>416</v>
       </c>
@@ -6987,7 +7006,7 @@
       </c>
       <c r="Q210" s="13"/>
     </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B211" s="11" t="s">
         <v>417</v>
       </c>
@@ -7001,7 +7020,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B212" s="11" t="s">
         <v>419</v>
       </c>
@@ -7013,7 +7032,7 @@
       </c>
       <c r="Q212" s="13"/>
     </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="13"/>
       <c r="B213" s="11" t="s">
         <v>420</v>
@@ -7026,7 +7045,7 @@
       </c>
       <c r="R213" s="14"/>
     </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="13"/>
       <c r="B214" s="11" t="s">
         <v>421</v>
@@ -7040,7 +7059,7 @@
       <c r="Q214" s="13"/>
       <c r="R214" s="14"/>
     </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="13"/>
       <c r="B215" s="11" t="s">
         <v>422</v>
@@ -7053,7 +7072,7 @@
       </c>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="13"/>
       <c r="B216" s="11" t="s">
         <v>725</v>
@@ -7078,7 +7097,7 @@
       </c>
       <c r="R216" s="14"/>
     </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="13"/>
       <c r="B217" s="11" t="s">
         <v>423</v>
@@ -7092,7 +7111,7 @@
       <c r="Q217" s="13"/>
       <c r="R217" s="14"/>
     </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="13"/>
       <c r="B218" s="11" t="s">
         <v>424</v>
@@ -7105,7 +7124,7 @@
       </c>
       <c r="R218" s="14"/>
     </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="13"/>
       <c r="B219" s="13" t="s">
         <v>736</v>
@@ -7140,7 +7159,7 @@
       </c>
       <c r="R219" s="14"/>
     </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B220" s="11" t="s">
         <v>425</v>
       </c>
@@ -7152,7 +7171,7 @@
       </c>
       <c r="Q220" s="13"/>
     </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B221" s="11" t="s">
         <v>426</v>
       </c>
@@ -7164,7 +7183,7 @@
       </c>
       <c r="Q221" s="13"/>
     </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B222" s="11" t="s">
         <v>427</v>
       </c>
@@ -7176,7 +7195,7 @@
       </c>
       <c r="Q222" s="13"/>
     </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B223" s="11" t="s">
         <v>428</v>
       </c>
@@ -7188,7 +7207,7 @@
       </c>
       <c r="Q223" s="13"/>
     </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B224" s="11" t="s">
         <v>429</v>
       </c>
@@ -7200,7 +7219,7 @@
       </c>
       <c r="Q224" s="13"/>
     </row>
-    <row r="225" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B225" s="11" t="s">
         <v>430</v>
       </c>
@@ -7218,7 +7237,7 @@
       </c>
       <c r="Q225" s="13"/>
     </row>
-    <row r="226" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B226" s="11" t="s">
         <v>433</v>
       </c>
@@ -7230,7 +7249,7 @@
       </c>
       <c r="Q226" s="13"/>
     </row>
-    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B227" s="11" t="s">
         <v>434</v>
       </c>
@@ -7242,7 +7261,7 @@
       </c>
       <c r="Q227" s="13"/>
     </row>
-    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="13"/>
       <c r="B228" s="11" t="s">
         <v>435</v>
@@ -7255,7 +7274,7 @@
       </c>
       <c r="R228" s="14"/>
     </row>
-    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="13"/>
       <c r="B229" s="11" t="s">
         <v>436</v>
@@ -7268,7 +7287,7 @@
       </c>
       <c r="R229" s="14"/>
     </row>
-    <row r="230" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="13"/>
       <c r="B230" s="11" t="s">
         <v>437</v>
@@ -7284,7 +7303,7 @@
       </c>
       <c r="R230" s="14"/>
     </row>
-    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="13"/>
       <c r="B231" s="11" t="s">
         <v>439</v>
@@ -7297,7 +7316,7 @@
       </c>
       <c r="R231" s="14"/>
     </row>
-    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="13"/>
       <c r="B232" s="11" t="s">
         <v>440</v>
@@ -7310,7 +7329,7 @@
       </c>
       <c r="R232" s="14"/>
     </row>
-    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="13"/>
       <c r="B233" s="11" t="s">
         <v>441</v>
@@ -7323,7 +7342,7 @@
       </c>
       <c r="R233" s="14"/>
     </row>
-    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="13"/>
       <c r="B234" s="11" t="s">
         <v>442</v>
@@ -7336,7 +7355,7 @@
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="13"/>
       <c r="B235" s="11" t="s">
         <v>443</v>
@@ -7349,7 +7368,7 @@
       </c>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="13"/>
       <c r="B236" s="11" t="s">
         <v>444</v>
@@ -7362,7 +7381,7 @@
       </c>
       <c r="R236" s="14"/>
     </row>
-    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B237" s="11" t="s">
         <v>445</v>
       </c>
@@ -7373,7 +7392,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="238" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B238" s="11" t="s">
         <v>446</v>
       </c>
@@ -7384,7 +7403,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B239" s="11" t="s">
         <v>447</v>
       </c>
@@ -7395,7 +7414,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B240" s="11" t="s">
         <v>448</v>
       </c>
@@ -7406,7 +7425,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B241" s="11" t="s">
         <v>274</v>
       </c>
@@ -7418,7 +7437,7 @@
       </c>
       <c r="Q241" s="13"/>
     </row>
-    <row r="242" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B242" s="11" t="s">
         <v>275</v>
       </c>
@@ -7430,7 +7449,7 @@
       </c>
       <c r="Q242" s="13"/>
     </row>
-    <row r="243" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B243" s="11" t="s">
         <v>449</v>
       </c>
@@ -7444,7 +7463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B244" s="11" t="s">
         <v>451</v>
       </c>
@@ -7458,7 +7477,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B245" s="11" t="s">
         <v>276</v>
       </c>
@@ -7470,7 +7489,7 @@
       </c>
       <c r="Q245" s="13"/>
     </row>
-    <row r="246" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B246" s="11" t="s">
         <v>453</v>
       </c>
@@ -7482,7 +7501,7 @@
       </c>
       <c r="Q246" s="13"/>
     </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B247" s="11" t="s">
         <v>454</v>
       </c>
@@ -7494,7 +7513,7 @@
       </c>
       <c r="Q247" s="13"/>
     </row>
-    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B248" s="11" t="s">
         <v>455</v>
       </c>
@@ -7505,7 +7524,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B249" s="11" t="s">
         <v>456</v>
       </c>
@@ -7517,7 +7536,7 @@
       </c>
       <c r="Q249" s="13"/>
     </row>
-    <row r="250" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B250" s="11" t="s">
         <v>457</v>
       </c>
@@ -7528,7 +7547,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="251" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="13"/>
       <c r="B251" s="11" t="s">
         <v>458</v>
@@ -7541,7 +7560,7 @@
       </c>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="13"/>
       <c r="B252" s="12" t="s">
         <v>111</v>
@@ -7568,7 +7587,7 @@
       <c r="P252" s="12"/>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" s="13"/>
       <c r="B253" s="11" t="s">
         <v>176</v>
@@ -7594,7 +7613,7 @@
       <c r="Q253" s="13"/>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B254" s="11" t="s">
         <v>459</v>
       </c>
@@ -7606,7 +7625,7 @@
       </c>
       <c r="Q254" s="13"/>
     </row>
-    <row r="255" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B255" s="11" t="s">
         <v>460</v>
       </c>
@@ -7618,7 +7637,7 @@
       </c>
       <c r="Q255" s="13"/>
     </row>
-    <row r="256" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B256" s="11" t="s">
         <v>461</v>
       </c>
@@ -7629,7 +7648,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B257" s="11" t="s">
         <v>462</v>
       </c>
@@ -7640,7 +7659,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="13"/>
       <c r="B258" s="11" t="s">
         <v>463</v>
@@ -7653,7 +7672,7 @@
       </c>
       <c r="R258" s="14"/>
     </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B259" s="11" t="s">
         <v>464</v>
       </c>
@@ -7664,7 +7683,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B260" s="11" t="s">
         <v>465</v>
       </c>
@@ -7676,7 +7695,7 @@
       </c>
       <c r="Q260" s="12"/>
     </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B261" s="11" t="s">
         <v>466</v>
       </c>
@@ -7690,7 +7709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="262" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="13"/>
       <c r="B262" s="11" t="s">
         <v>468</v>
@@ -7703,7 +7722,7 @@
       </c>
       <c r="R262" s="14"/>
     </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B263" s="11" t="s">
         <v>277</v>
       </c>
@@ -7714,7 +7733,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B264" s="11" t="s">
         <v>469</v>
       </c>
@@ -7725,7 +7744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B265" s="11" t="s">
         <v>470</v>
       </c>
@@ -7736,7 +7755,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
         <v>112</v>
       </c>
@@ -7753,7 +7772,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B267" s="11" t="s">
         <v>472</v>
       </c>
@@ -7765,7 +7784,7 @@
       </c>
       <c r="R267" s="12"/>
     </row>
-    <row r="268" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B268" s="11" t="s">
         <v>473</v>
       </c>
@@ -7777,7 +7796,7 @@
       </c>
       <c r="Q268" s="13"/>
     </row>
-    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B269" s="11" t="s">
         <v>474</v>
       </c>
@@ -7788,7 +7807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="270" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B270" s="11" t="s">
         <v>475</v>
       </c>
@@ -7800,7 +7819,7 @@
       </c>
       <c r="Q270" s="13"/>
     </row>
-    <row r="271" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B271" s="11" t="s">
         <v>476</v>
       </c>
@@ -7811,7 +7830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="272" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B272" s="11" t="s">
         <v>477</v>
       </c>
@@ -7822,7 +7841,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="273" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B273" s="11" t="s">
         <v>478</v>
       </c>
@@ -7833,7 +7852,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="274" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B274" s="11" t="s">
         <v>479</v>
       </c>
@@ -7844,7 +7863,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="275" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B275" s="11" t="s">
         <v>480</v>
       </c>
@@ -7855,7 +7874,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B276" s="11" t="s">
         <v>481</v>
       </c>
@@ -7866,7 +7885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="277" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="13"/>
       <c r="B277" s="11" t="s">
         <v>482</v>
@@ -7879,7 +7898,7 @@
       </c>
       <c r="R277" s="14"/>
     </row>
-    <row r="278" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B278" s="11" t="s">
         <v>483</v>
       </c>
@@ -7890,7 +7909,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="279" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="13"/>
       <c r="B279" s="11" t="s">
         <v>484</v>
@@ -7903,7 +7922,7 @@
       </c>
       <c r="R279" s="14"/>
     </row>
-    <row r="280" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B280" s="11" t="s">
         <v>485</v>
       </c>
@@ -7914,7 +7933,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="281" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B281" s="11" t="s">
         <v>486</v>
       </c>
@@ -7925,7 +7944,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B282" s="11" t="s">
         <v>487</v>
       </c>
@@ -7936,7 +7955,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="283" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B283" s="11" t="s">
         <v>488</v>
       </c>
@@ -7947,7 +7966,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="284" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B284" s="11" t="s">
         <v>489</v>
       </c>
@@ -7958,7 +7977,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B285" s="11" t="s">
         <v>490</v>
       </c>
@@ -7969,7 +7988,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="286" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B286" s="11" t="s">
         <v>491</v>
       </c>
@@ -7980,7 +7999,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="11" t="s">
         <v>492</v>
       </c>
@@ -7991,7 +8010,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="11" t="s">
         <v>493</v>
       </c>
@@ -8003,7 +8022,7 @@
       </c>
       <c r="Q288" s="13"/>
     </row>
-    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B289" s="11" t="s">
         <v>494</v>
       </c>
@@ -8014,7 +8033,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B290" s="11" t="s">
         <v>495</v>
       </c>
@@ -8025,7 +8044,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B291" s="11" t="s">
         <v>278</v>
       </c>
@@ -8037,7 +8056,7 @@
       </c>
       <c r="Q291" s="13"/>
     </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B292" s="11" t="s">
         <v>496</v>
       </c>
@@ -8048,7 +8067,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B293" s="11" t="s">
         <v>497</v>
       </c>
@@ -8059,7 +8078,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B294" s="11" t="s">
         <v>498</v>
       </c>
@@ -8070,7 +8089,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B295" s="11" t="s">
         <v>499</v>
       </c>
@@ -8081,7 +8100,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B296" s="11" t="s">
         <v>500</v>
       </c>
@@ -8092,7 +8111,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B297" s="11" t="s">
         <v>501</v>
       </c>
@@ -8103,7 +8122,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B298" s="11" t="s">
         <v>700</v>
       </c>
@@ -8114,7 +8133,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="13"/>
       <c r="B299" s="11" t="s">
         <v>502</v>
@@ -8127,7 +8146,7 @@
       </c>
       <c r="R299" s="14"/>
     </row>
-    <row r="300" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B300" s="11" t="s">
         <v>279</v>
       </c>
@@ -8138,7 +8157,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B301" s="11" t="s">
         <v>503</v>
       </c>
@@ -8149,7 +8168,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B302" s="11" t="s">
         <v>504</v>
       </c>
@@ -8161,7 +8180,7 @@
       </c>
       <c r="Q302" s="13"/>
     </row>
-    <row r="303" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B303" s="11" t="s">
         <v>505</v>
       </c>
@@ -8173,7 +8192,7 @@
       </c>
       <c r="Q303" s="13"/>
     </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B304" s="11" t="s">
         <v>506</v>
       </c>
@@ -8184,7 +8203,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B305" s="11" t="s">
         <v>507</v>
       </c>
@@ -8195,7 +8214,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B306" s="11" t="s">
         <v>508</v>
       </c>
@@ -8206,7 +8225,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B307" s="11" t="s">
         <v>509</v>
       </c>
@@ -8217,7 +8236,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B308" s="11" t="s">
         <v>510</v>
       </c>
@@ -8229,7 +8248,7 @@
       </c>
       <c r="Q308" s="13"/>
     </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="13"/>
       <c r="B309" s="11" t="s">
         <v>511</v>
@@ -8242,7 +8261,7 @@
       </c>
       <c r="R309" s="14"/>
     </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="13"/>
       <c r="B310" s="11" t="s">
         <v>512</v>
@@ -8255,7 +8274,7 @@
       </c>
       <c r="R310" s="14"/>
     </row>
-    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B311" s="11" t="s">
         <v>513</v>
       </c>
@@ -8266,7 +8285,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B312" s="11" t="s">
         <v>514</v>
       </c>
@@ -8277,7 +8296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B313" s="11" t="s">
         <v>515</v>
       </c>
@@ -8288,7 +8307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="314" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B314" s="11" t="s">
         <v>516</v>
       </c>
@@ -8299,7 +8318,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="13"/>
       <c r="B315" s="11" t="s">
         <v>517</v>
@@ -8313,7 +8332,7 @@
       <c r="Q315" s="13"/>
       <c r="R315" s="14"/>
     </row>
-    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B316" s="11" t="s">
         <v>518</v>
       </c>
@@ -8325,7 +8344,7 @@
       </c>
       <c r="Q316" s="13"/>
     </row>
-    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B317" s="11" t="s">
         <v>519</v>
       </c>
@@ -8336,7 +8355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B318" s="11" t="s">
         <v>520</v>
       </c>
@@ -8347,7 +8366,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B319" s="11" t="s">
         <v>521</v>
       </c>
@@ -8358,7 +8377,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B320" s="11" t="s">
         <v>522</v>
       </c>
@@ -8369,7 +8388,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B321" s="11" t="s">
         <v>523</v>
       </c>
@@ -8380,7 +8399,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B322" s="11" t="s">
         <v>524</v>
       </c>
@@ -8391,7 +8410,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="13"/>
       <c r="B323" s="11" t="s">
         <v>525</v>
@@ -8404,7 +8423,7 @@
       </c>
       <c r="R323" s="14"/>
     </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B324" s="11" t="s">
         <v>526</v>
       </c>
@@ -8416,7 +8435,7 @@
       </c>
       <c r="Q324" s="13"/>
     </row>
-    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B325" s="11" t="s">
         <v>527</v>
       </c>
@@ -8427,7 +8446,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B326" s="12" t="s">
         <v>64</v>
       </c>
@@ -8448,7 +8467,7 @@
       <c r="O326" s="12"/>
       <c r="P326" s="12"/>
     </row>
-    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B327" s="11" t="s">
         <v>528</v>
       </c>
@@ -8459,7 +8478,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B328" s="11" t="s">
         <v>529</v>
       </c>
@@ -8470,7 +8489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B329" s="11" t="s">
         <v>530</v>
       </c>
@@ -8481,7 +8500,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B330" s="11" t="s">
         <v>531</v>
       </c>
@@ -8492,7 +8511,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B331" s="11" t="s">
         <v>532</v>
       </c>
@@ -8504,7 +8523,7 @@
       </c>
       <c r="Q331" s="13"/>
     </row>
-    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B332" s="11" t="s">
         <v>533</v>
       </c>
@@ -8515,7 +8534,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="333" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="13"/>
       <c r="B333" s="11" t="s">
         <v>534</v>
@@ -8531,7 +8550,7 @@
       </c>
       <c r="R333" s="14"/>
     </row>
-    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B334" s="11" t="s">
         <v>536</v>
       </c>
@@ -8543,7 +8562,7 @@
       </c>
       <c r="Q334" s="12"/>
     </row>
-    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B335" s="11" t="s">
         <v>537</v>
       </c>
@@ -8554,7 +8573,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B336" s="11" t="s">
         <v>538</v>
       </c>
@@ -8565,7 +8584,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="337" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B337" s="11" t="s">
         <v>539</v>
       </c>
@@ -8579,7 +8598,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B338" s="11" t="s">
         <v>541</v>
       </c>
@@ -8590,7 +8609,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B339" s="11" t="s">
         <v>542</v>
       </c>
@@ -8601,7 +8620,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="13"/>
       <c r="B340" s="11" t="s">
         <v>543</v>
@@ -8614,7 +8633,7 @@
       </c>
       <c r="R340" s="14"/>
     </row>
-    <row r="341" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B341" s="11" t="s">
         <v>544</v>
       </c>
@@ -8625,7 +8644,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="342" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="12"/>
       <c r="B342" s="11" t="s">
         <v>280</v>
@@ -8638,7 +8657,7 @@
       </c>
       <c r="R342" s="12"/>
     </row>
-    <row r="343" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B343" s="11" t="s">
         <v>545</v>
       </c>
@@ -8649,7 +8668,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="344" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B344" s="11" t="s">
         <v>546</v>
       </c>
@@ -8660,7 +8679,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="345" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B345" s="11" t="s">
         <v>547</v>
       </c>
@@ -8671,7 +8690,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B346" s="11" t="s">
         <v>548</v>
       </c>
@@ -8682,7 +8701,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B347" s="11" t="s">
         <v>549</v>
       </c>
@@ -8693,7 +8712,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="348" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B348" s="11" t="s">
         <v>550</v>
       </c>
@@ -8704,7 +8723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="349" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B349" s="11" t="s">
         <v>551</v>
       </c>
@@ -8716,7 +8735,7 @@
       </c>
       <c r="Q349" s="13"/>
     </row>
-    <row r="350" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B350" s="11" t="s">
         <v>552</v>
       </c>
@@ -8727,7 +8746,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="351" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B351" s="11" t="s">
         <v>553</v>
       </c>
@@ -8738,7 +8757,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="352" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B352" s="11" t="s">
         <v>554</v>
       </c>
@@ -8749,7 +8768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="353" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B353" s="11" t="s">
         <v>555</v>
       </c>
@@ -8760,7 +8779,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="354" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B354" s="11" t="s">
         <v>556</v>
       </c>
@@ -8771,7 +8790,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="355" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B355" s="11" t="s">
         <v>557</v>
       </c>
@@ -8782,7 +8801,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B356" s="11" t="s">
         <v>558</v>
       </c>
@@ -8793,7 +8812,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="357" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="13"/>
       <c r="B357" s="11" t="s">
         <v>559</v>
@@ -8806,7 +8825,7 @@
       </c>
       <c r="R357" s="14"/>
     </row>
-    <row r="358" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B358" s="11" t="s">
         <v>560</v>
       </c>
@@ -8818,7 +8837,7 @@
       </c>
       <c r="Q358" s="13"/>
     </row>
-    <row r="359" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B359" s="11" t="s">
         <v>561</v>
       </c>
@@ -8829,7 +8848,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B360" s="11" t="s">
         <v>562</v>
       </c>
@@ -8840,7 +8859,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B361" s="11" t="s">
         <v>563</v>
       </c>
@@ -8851,7 +8870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="362" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B362" s="11" t="s">
         <v>564</v>
       </c>
@@ -8862,7 +8881,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="363" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B363" s="11" t="s">
         <v>565</v>
       </c>
@@ -8873,7 +8892,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="364" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B364" s="11" t="s">
         <v>566</v>
       </c>
@@ -8884,7 +8903,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B365" s="11" t="s">
         <v>567</v>
       </c>
@@ -8895,7 +8914,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="366" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="13"/>
       <c r="B366" s="11" t="s">
         <v>568</v>
@@ -8908,7 +8927,7 @@
       </c>
       <c r="R366" s="14"/>
     </row>
-    <row r="367" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B367" s="11" t="s">
         <v>569</v>
       </c>
@@ -8919,7 +8938,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="368" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B368" s="11" t="s">
         <v>570</v>
       </c>
@@ -8930,7 +8949,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="369" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B369" s="11" t="s">
         <v>571</v>
       </c>
@@ -8944,7 +8963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B370" s="11" t="s">
         <v>572</v>
       </c>
@@ -8955,7 +8974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="371" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B371" s="11" t="s">
         <v>573</v>
       </c>
@@ -8969,7 +8988,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="372" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B372" s="11" t="s">
         <v>575</v>
       </c>
@@ -8980,7 +8999,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="373" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B373" s="11" t="s">
         <v>576</v>
       </c>
@@ -8992,7 +9011,7 @@
       </c>
       <c r="Q373" s="13"/>
     </row>
-    <row r="374" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B374" s="11" t="s">
         <v>577</v>
       </c>
@@ -9003,7 +9022,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="375" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B375" s="11" t="s">
         <v>578</v>
       </c>
@@ -9014,7 +9033,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="376" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B376" s="11" t="s">
         <v>579</v>
       </c>
@@ -9025,7 +9044,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="377" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B377" s="11" t="s">
         <v>580</v>
       </c>
@@ -9036,7 +9055,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="378" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B378" s="11" t="s">
         <v>581</v>
       </c>
@@ -9047,7 +9066,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="379" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B379" s="11" t="s">
         <v>582</v>
       </c>
@@ -9058,7 +9077,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="380" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B380" s="11" t="s">
         <v>281</v>
       </c>
@@ -9069,7 +9088,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="381" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="13"/>
       <c r="B381" s="11" t="s">
         <v>583</v>
@@ -9082,7 +9101,7 @@
       </c>
       <c r="R381" s="14"/>
     </row>
-    <row r="382" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A382" s="11" t="s">
         <v>735</v>
       </c>
@@ -9108,7 +9127,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="383" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B383" s="12" t="s">
         <v>67</v>
       </c>
@@ -9132,7 +9151,7 @@
       <c r="P383" s="12"/>
       <c r="Q383" s="13"/>
     </row>
-    <row r="384" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B384" s="11" t="s">
         <v>584</v>
       </c>
@@ -9143,7 +9162,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="385" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B385" s="11" t="s">
         <v>585</v>
       </c>
@@ -9154,7 +9173,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="386" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B386" s="11" t="s">
         <v>282</v>
       </c>
@@ -9165,7 +9184,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="387" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B387" s="11" t="s">
         <v>586</v>
       </c>
@@ -9177,7 +9196,7 @@
       </c>
       <c r="Q387" s="13"/>
     </row>
-    <row r="388" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B388" s="11" t="s">
         <v>587</v>
       </c>
@@ -9189,7 +9208,7 @@
       </c>
       <c r="Q388" s="13"/>
     </row>
-    <row r="389" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B389" s="11" t="s">
         <v>588</v>
       </c>
@@ -9201,7 +9220,7 @@
       </c>
       <c r="Q389" s="13"/>
     </row>
-    <row r="390" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B390" s="11" t="s">
         <v>589</v>
       </c>
@@ -9213,7 +9232,7 @@
       </c>
       <c r="Q390" s="13"/>
     </row>
-    <row r="391" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B391" s="11" t="s">
         <v>590</v>
       </c>
@@ -9225,7 +9244,7 @@
       </c>
       <c r="Q391" s="12"/>
     </row>
-    <row r="392" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B392" s="11" t="s">
         <v>591</v>
       </c>
@@ -9236,7 +9255,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="13"/>
       <c r="B393" s="11" t="s">
         <v>592</v>
@@ -9249,7 +9268,7 @@
       </c>
       <c r="R393" s="14"/>
     </row>
-    <row r="394" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="13"/>
       <c r="B394" s="11" t="s">
         <v>593</v>
@@ -9262,7 +9281,7 @@
       </c>
       <c r="R394" s="14"/>
     </row>
-    <row r="395" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="13"/>
       <c r="B395" s="11" t="s">
         <v>594</v>
@@ -9275,7 +9294,7 @@
       </c>
       <c r="R395" s="14"/>
     </row>
-    <row r="396" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="13"/>
       <c r="B396" s="11" t="s">
         <v>595</v>
@@ -9288,7 +9307,7 @@
       </c>
       <c r="R396" s="14"/>
     </row>
-    <row r="397" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="12"/>
       <c r="B397" s="11" t="s">
         <v>283</v>
@@ -9302,7 +9321,7 @@
       <c r="Q397" s="13"/>
       <c r="R397" s="12"/>
     </row>
-    <row r="398" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B398" s="11" t="s">
         <v>596</v>
       </c>
@@ -9314,7 +9333,7 @@
       </c>
       <c r="Q398" s="13"/>
     </row>
-    <row r="399" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B399" s="11" t="s">
         <v>597</v>
       </c>
@@ -9326,7 +9345,7 @@
       </c>
       <c r="Q399" s="13"/>
     </row>
-    <row r="400" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B400" s="11" t="s">
         <v>284</v>
       </c>
@@ -9337,7 +9356,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="401" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B401" s="11" t="s">
         <v>598</v>
       </c>
@@ -9348,7 +9367,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="402" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B402" s="11" t="s">
         <v>599</v>
       </c>
@@ -9359,7 +9378,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="403" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B403" s="11" t="s">
         <v>600</v>
       </c>
@@ -9370,7 +9389,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B404" s="11" t="s">
         <v>601</v>
       </c>
@@ -9381,7 +9400,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="405" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B405" s="11" t="s">
         <v>602</v>
       </c>
@@ -9392,7 +9411,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="13"/>
       <c r="B406" s="11" t="s">
         <v>285</v>
@@ -9405,7 +9424,7 @@
       </c>
       <c r="R406" s="14"/>
     </row>
-    <row r="407" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="13"/>
       <c r="B407" s="11" t="s">
         <v>603</v>
@@ -9418,7 +9437,7 @@
       </c>
       <c r="R407" s="14"/>
     </row>
-    <row r="408" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B408" s="11" t="s">
         <v>286</v>
       </c>
@@ -9429,7 +9448,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="409" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B409" s="11" t="s">
         <v>287</v>
       </c>
@@ -9440,7 +9459,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B410" s="11" t="s">
         <v>288</v>
       </c>
@@ -9451,7 +9470,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="411" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B411" s="11" t="s">
         <v>289</v>
       </c>
@@ -9462,7 +9481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="412" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B412" s="11" t="s">
         <v>290</v>
       </c>
@@ -9473,7 +9492,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B413" s="11" t="s">
         <v>291</v>
       </c>
@@ -9485,7 +9504,7 @@
       </c>
       <c r="Q413" s="13"/>
     </row>
-    <row r="414" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B414" s="11" t="s">
         <v>292</v>
       </c>
@@ -9496,7 +9515,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="415" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B415" s="11" t="s">
         <v>293</v>
       </c>
@@ -9507,7 +9526,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="416" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B416" s="11" t="s">
         <v>294</v>
       </c>
@@ -9518,7 +9537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="417" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B417" s="11" t="s">
         <v>295</v>
       </c>
@@ -9529,7 +9548,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B418" s="11" t="s">
         <v>296</v>
       </c>
@@ -9540,7 +9559,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="13"/>
       <c r="B419" s="11" t="s">
         <v>604</v>
@@ -9553,7 +9572,7 @@
       </c>
       <c r="R419" s="14"/>
     </row>
-    <row r="420" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B420" s="11" t="s">
         <v>297</v>
       </c>
@@ -9564,7 +9583,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B421" s="11" t="s">
         <v>298</v>
       </c>
@@ -9575,7 +9594,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="422" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B422" s="11" t="s">
         <v>299</v>
       </c>
@@ -9593,7 +9612,7 @@
       </c>
       <c r="Q422" s="13"/>
     </row>
-    <row r="423" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B423" s="11" t="s">
         <v>605</v>
       </c>
@@ -9604,7 +9623,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="424" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B424" s="11" t="s">
         <v>606</v>
       </c>
@@ -9615,7 +9634,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="425" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B425" s="11" t="s">
         <v>607</v>
       </c>
@@ -9627,7 +9646,7 @@
       </c>
       <c r="Q425" s="13"/>
     </row>
-    <row r="426" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B426" s="11" t="s">
         <v>608</v>
       </c>
@@ -9638,7 +9657,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="427" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B427" s="11" t="s">
         <v>609</v>
       </c>
@@ -9652,7 +9671,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="428" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B428" s="11" t="s">
         <v>611</v>
       </c>
@@ -9663,7 +9682,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="429" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B429" s="11" t="s">
         <v>612</v>
       </c>
@@ -9674,7 +9693,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="430" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B430" s="11" t="s">
         <v>613</v>
       </c>
@@ -9685,7 +9704,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="13"/>
       <c r="B431" s="11" t="s">
         <v>614</v>
@@ -9698,7 +9717,7 @@
       </c>
       <c r="R431" s="14"/>
     </row>
-    <row r="432" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B432" s="11" t="s">
         <v>615</v>
       </c>
@@ -9709,7 +9728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B433" s="12" t="s">
         <v>62</v>
       </c>
@@ -9736,7 +9755,7 @@
       <c r="O433" s="12"/>
       <c r="P433" s="12"/>
     </row>
-    <row r="434" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="13"/>
       <c r="B434" s="11" t="s">
         <v>302</v>
@@ -9749,7 +9768,7 @@
       </c>
       <c r="R434" s="14"/>
     </row>
-    <row r="435" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B435" s="11" t="s">
         <v>616</v>
       </c>
@@ -9760,7 +9779,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="436" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B436" s="11" t="s">
         <v>617</v>
       </c>
@@ -9771,7 +9790,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="437" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B437" s="11" t="s">
         <v>618</v>
       </c>
@@ -9782,7 +9801,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B438" s="11" t="s">
         <v>619</v>
       </c>
@@ -9793,7 +9812,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="439" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B439" s="11" t="s">
         <v>620</v>
       </c>
@@ -9804,7 +9823,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B440" s="11" t="s">
         <v>701</v>
       </c>
@@ -9815,7 +9834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="441" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B441" s="11" t="s">
         <v>621</v>
       </c>
@@ -9829,7 +9848,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="442" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B442" s="11" t="s">
         <v>623</v>
       </c>
@@ -9841,7 +9860,7 @@
       </c>
       <c r="Q442" s="12"/>
     </row>
-    <row r="443" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B443" s="11" t="s">
         <v>624</v>
       </c>
@@ -9852,7 +9871,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="444" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B444" s="11" t="s">
         <v>625</v>
       </c>
@@ -9863,7 +9882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B445" s="11" t="s">
         <v>626</v>
       </c>
@@ -9874,7 +9893,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="446" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B446" s="11" t="s">
         <v>627</v>
       </c>
@@ -9885,7 +9904,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="447" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B447" s="11" t="s">
         <v>628</v>
       </c>
@@ -9896,7 +9915,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="448" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B448" s="11" t="s">
         <v>629</v>
       </c>
@@ -9907,7 +9926,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="449" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B449" s="11" t="s">
         <v>630</v>
       </c>
@@ -9918,7 +9937,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="12"/>
       <c r="B450" s="11" t="s">
         <v>318</v>
@@ -9932,7 +9951,7 @@
       <c r="Q450" s="13"/>
       <c r="R450" s="12"/>
     </row>
-    <row r="451" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B451" s="11" t="s">
         <v>631</v>
       </c>
@@ -9943,7 +9962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="452" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B452" s="11" t="s">
         <v>632</v>
       </c>
@@ -9954,7 +9973,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B453" s="11" t="s">
         <v>633</v>
       </c>
@@ -9965,7 +9984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="454" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B454" s="11" t="s">
         <v>634</v>
       </c>
@@ -9976,7 +9995,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B455" s="11" t="s">
         <v>635</v>
       </c>
@@ -9987,7 +10006,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="456" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B456" s="11" t="s">
         <v>636</v>
       </c>
@@ -9998,7 +10017,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="457" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B457" s="11" t="s">
         <v>637</v>
       </c>
@@ -10009,7 +10028,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B458" s="11" t="s">
         <v>638</v>
       </c>
@@ -10020,7 +10039,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="13"/>
       <c r="B459" s="11" t="s">
         <v>639</v>
@@ -10033,7 +10052,7 @@
       </c>
       <c r="R459" s="14"/>
     </row>
-    <row r="460" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B460" s="11" t="s">
         <v>640</v>
       </c>
@@ -10044,7 +10063,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B461" s="11" t="s">
         <v>641</v>
       </c>
@@ -10055,7 +10074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B462" s="11" t="s">
         <v>642</v>
       </c>
@@ -10066,7 +10085,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="463" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B463" s="11" t="s">
         <v>643</v>
       </c>
@@ -10077,7 +10096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B464" s="11" t="s">
         <v>644</v>
       </c>
@@ -10088,7 +10107,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B465" s="11" t="s">
         <v>645</v>
       </c>
@@ -10099,7 +10118,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B466" s="11" t="s">
         <v>646</v>
       </c>
@@ -10110,7 +10129,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B467" s="11" t="s">
         <v>647</v>
       </c>
@@ -10121,7 +10140,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B468" s="11" t="s">
         <v>648</v>
       </c>
@@ -10132,7 +10151,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="469" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B469" s="11" t="s">
         <v>649</v>
       </c>
@@ -10143,7 +10162,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="470" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B470" s="11" t="s">
         <v>650</v>
       </c>
@@ -10154,7 +10173,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="471" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B471" s="11" t="s">
         <v>651</v>
       </c>
@@ -10165,7 +10184,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B472" s="11" t="s">
         <v>652</v>
       </c>
@@ -10176,7 +10195,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="473" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B473" s="11" t="s">
         <v>653</v>
       </c>
@@ -10187,7 +10206,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B474" s="11" t="s">
         <v>654</v>
       </c>
@@ -10199,7 +10218,7 @@
       </c>
       <c r="Q474" s="13"/>
     </row>
-    <row r="475" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B475" s="11" t="s">
         <v>655</v>
       </c>
@@ -10211,7 +10230,7 @@
       </c>
       <c r="Q475" s="13"/>
     </row>
-    <row r="476" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B476" s="11" t="s">
         <v>656</v>
       </c>
@@ -10222,7 +10241,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="477" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B477" s="11" t="s">
         <v>657</v>
       </c>
@@ -10233,7 +10252,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="478" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:17" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B478" s="11" t="s">
         <v>658</v>
       </c>
@@ -10244,7 +10263,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="479" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:17" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B479" s="11" t="s">
         <v>659</v>
       </c>
@@ -10255,7 +10274,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:17" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B480" s="11" t="s">
         <v>660</v>
       </c>
@@ -10266,7 +10285,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B481" s="11" t="s">
         <v>661</v>
       </c>
@@ -10277,7 +10296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B482" s="11" t="s">
         <v>662</v>
       </c>
@@ -10288,7 +10307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="13"/>
       <c r="B483" s="11" t="s">
         <v>663</v>
@@ -10301,7 +10320,7 @@
       </c>
       <c r="R483" s="14"/>
     </row>
-    <row r="484" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="13"/>
       <c r="B484" s="11" t="s">
         <v>664</v>
@@ -10314,7 +10333,7 @@
       </c>
       <c r="R484" s="14"/>
     </row>
-    <row r="485" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B485" s="11" t="s">
         <v>665</v>
       </c>
@@ -10325,7 +10344,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B486" s="11" t="s">
         <v>666</v>
       </c>
@@ -10336,7 +10355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="487" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B487" s="11" t="s">
         <v>667</v>
       </c>
@@ -10347,7 +10366,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="488" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B488" s="11" t="s">
         <v>668</v>
       </c>
@@ -10358,7 +10377,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B489" s="11" t="s">
         <v>669</v>
       </c>
@@ -10369,7 +10388,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="490" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B490" s="11" t="s">
         <v>670</v>
       </c>
@@ -10380,7 +10399,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="491" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B491" s="11" t="s">
         <v>671</v>
       </c>
@@ -10391,7 +10410,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="492" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B492" s="11" t="s">
         <v>672</v>
       </c>
@@ -10402,7 +10421,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B493" s="11" t="s">
         <v>673</v>
       </c>
@@ -10413,7 +10432,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="494" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B494" s="11" t="s">
         <v>674</v>
       </c>
@@ -10424,7 +10443,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B495" s="11" t="s">
         <v>675</v>
       </c>
@@ -10435,7 +10454,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="496" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B496" s="11" t="s">
         <v>676</v>
       </c>
@@ -10447,7 +10466,7 @@
       </c>
       <c r="Q496" s="13"/>
     </row>
-    <row r="497" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B497" s="11" t="s">
         <v>677</v>
       </c>
@@ -10458,7 +10477,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="498" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B498" s="11" t="s">
         <v>678</v>
       </c>
@@ -10469,7 +10488,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="499" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B499" s="11" t="s">
         <v>679</v>
       </c>
@@ -10480,7 +10499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="500" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B500" s="11" t="s">
         <v>680</v>
       </c>
@@ -10491,7 +10510,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B501" s="11" t="s">
         <v>303</v>
       </c>
@@ -10505,7 +10524,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B502" s="11" t="s">
         <v>681</v>
       </c>
@@ -10516,7 +10535,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B503" s="11" t="s">
         <v>682</v>
       </c>
@@ -10527,7 +10546,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="13"/>
       <c r="B504" s="11" t="s">
         <v>683</v>
@@ -10540,7 +10559,7 @@
       </c>
       <c r="R504" s="14"/>
     </row>
-    <row r="505" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B505" s="11" t="s">
         <v>305</v>
       </c>
@@ -10551,7 +10570,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="506" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B506" s="11" t="s">
         <v>684</v>
       </c>
@@ -10562,7 +10581,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="507" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B507" s="11" t="s">
         <v>685</v>
       </c>
@@ -10573,7 +10592,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="508" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B508" s="11" t="s">
         <v>306</v>
       </c>
@@ -10591,7 +10610,7 @@
       </c>
       <c r="Q508" s="13"/>
     </row>
-    <row r="509" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B509" s="11" t="s">
         <v>308</v>
       </c>
@@ -10602,7 +10621,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="510" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B510" s="11" t="s">
         <v>686</v>
       </c>
@@ -10613,7 +10632,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B511" s="11" t="s">
         <v>687</v>
       </c>
@@ -10624,7 +10643,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="512" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B512" s="11" t="s">
         <v>688</v>
       </c>
@@ -10635,7 +10654,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="513" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B513" s="11" t="s">
         <v>689</v>
       </c>
@@ -10646,7 +10665,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="514" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B514" s="11" t="s">
         <v>690</v>
       </c>
@@ -10657,7 +10676,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="515" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B515" s="11" t="s">
         <v>691</v>
       </c>
@@ -10668,7 +10687,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="516" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B516" s="11" t="s">
         <v>692</v>
       </c>
@@ -10679,7 +10698,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="517" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="13"/>
       <c r="B517" s="11" t="s">
         <v>693</v>
@@ -10692,7 +10711,7 @@
       </c>
       <c r="R517" s="14"/>
     </row>
-    <row r="518" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B518" s="11" t="s">
         <v>694</v>
       </c>
@@ -10703,7 +10722,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B519" s="11" t="s">
         <v>309</v>
       </c>
@@ -10726,7 +10745,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="520" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B520" s="11" t="s">
         <v>759</v>
       </c>
@@ -10743,7 +10762,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="521" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B521" s="11" t="s">
         <v>695</v>
       </c>
@@ -10758,7 +10777,7 @@
       </c>
       <c r="S521" s="13"/>
     </row>
-    <row r="522" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B522" s="11" t="s">
         <v>697</v>
       </c>
@@ -10769,7 +10788,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="523" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B523" s="11" t="s">
         <v>698</v>
       </c>
@@ -10781,7 +10800,7 @@
       </c>
       <c r="S523" s="13"/>
     </row>
-    <row r="524" spans="1:19" s="24" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" s="24" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B524" s="25" t="s">
         <v>764</v>
       </c>
@@ -10810,7 +10829,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:19" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" s="24" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="B525" s="25" t="s">
         <v>768</v>
       </c>
@@ -10836,7 +10855,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="526" spans="1:19" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" s="24" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="B526" s="25" t="s">
         <v>769</v>
       </c>
@@ -10867,7 +10886,7 @@
       <c r="O526" s="26"/>
       <c r="P526" s="26"/>
     </row>
-    <row r="527" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B527" s="25" t="s">
         <v>767</v>
       </c>
@@ -10890,7 +10909,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="528" spans="1:19" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B528" s="25" t="s">
         <v>774</v>
       </c>
@@ -10919,24 +10938,40 @@
         <v>121</v>
       </c>
     </row>
-    <row r="529" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B529" s="14"/>
-      <c r="C529" s="12"/>
-      <c r="D529" s="12"/>
-      <c r="E529" s="12"/>
-      <c r="F529" s="12"/>
-      <c r="G529" s="12"/>
-      <c r="H529" s="12"/>
-      <c r="I529" s="12"/>
-      <c r="J529" s="12"/>
-      <c r="K529" s="12"/>
-      <c r="L529" s="12"/>
-      <c r="M529" s="12"/>
-      <c r="N529" s="12"/>
-      <c r="O529" s="12"/>
-      <c r="P529" s="12"/>
-    </row>
-    <row r="530" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:18" s="28" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A529" s="29"/>
+      <c r="B529" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="C529" s="29" t="s">
+        <v>785</v>
+      </c>
+      <c r="D529" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="E529" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="F529" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G529" s="29"/>
+      <c r="H529" s="29"/>
+      <c r="I529" s="29"/>
+      <c r="J529" s="15"/>
+      <c r="K529" s="29"/>
+      <c r="L529" s="29"/>
+      <c r="M529" s="29"/>
+      <c r="N529" s="29">
+        <v>1</v>
+      </c>
+      <c r="O529" s="29"/>
+      <c r="P529" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q529" s="29"/>
+    </row>
+    <row r="530" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B530" s="14"/>
       <c r="C530" s="12"/>
       <c r="D530" s="12"/>
@@ -10953,44 +10988,44 @@
       <c r="O530" s="12"/>
       <c r="P530" s="12"/>
     </row>
-    <row r="531" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B531" s="14"/>
       <c r="Q531" s="12"/>
     </row>
-    <row r="532" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B532" s="14"/>
     </row>
-    <row r="533" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B533" s="14"/>
     </row>
-    <row r="534" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B534" s="14"/>
     </row>
-    <row r="535" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B535" s="14"/>
     </row>
-    <row r="536" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B536" s="14"/>
     </row>
-    <row r="537" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B537" s="14"/>
     </row>
-    <row r="538" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B538" s="14"/>
     </row>
-    <row r="539" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B539" s="14"/>
     </row>
-    <row r="540" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="14"/>
       <c r="B540" s="14"/>
       <c r="R540" s="12"/>
     </row>
-    <row r="541" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B541" s="14"/>
       <c r="Q541" s="12"/>
     </row>
-    <row r="542" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B542" s="14"/>
       <c r="C542" s="12"/>
       <c r="D542" s="12"/>
@@ -11007,7 +11042,7 @@
       <c r="O542" s="12"/>
       <c r="P542" s="12"/>
     </row>
-    <row r="543" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B543" s="14"/>
       <c r="C543" s="12"/>
       <c r="D543" s="12"/>
@@ -11025,7 +11060,7 @@
       <c r="P543" s="12"/>
       <c r="Q543" s="12"/>
     </row>
-    <row r="544" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="12"/>
       <c r="B544" s="14"/>
       <c r="C544" s="12"/>
@@ -11045,7 +11080,7 @@
       <c r="Q544" s="12"/>
       <c r="R544" s="12"/>
     </row>
-    <row r="545" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B545" s="14"/>
       <c r="C545" s="12"/>
       <c r="D545" s="12"/>
@@ -11063,7 +11098,7 @@
       <c r="P545" s="12"/>
       <c r="Q545" s="12"/>
     </row>
-    <row r="546" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B546" s="14"/>
     </row>
   </sheetData>
@@ -11073,8 +11108,8 @@
     <sortCondition ref="B2:B2822"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G524" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G524" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -11082,23 +11117,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -11112,7 +11147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11123,7 +11158,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -11134,7 +11169,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -11148,7 +11183,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -11159,7 +11194,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -11173,7 +11208,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -11184,7 +11219,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -11195,7 +11230,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -11206,7 +11241,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -11217,7 +11252,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
@@ -11228,7 +11263,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -11239,7 +11274,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -11250,7 +11285,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -11261,7 +11296,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>116</v>
       </c>
@@ -11272,7 +11307,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>117</v>
       </c>
@@ -11283,7 +11318,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>118</v>
       </c>
@@ -11294,7 +11329,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
@@ -11305,7 +11340,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>719</v>
       </c>
@@ -11323,29 +11358,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11383,7 +11418,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -11397,7 +11432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -11411,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -11428,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -11439,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -11453,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -11470,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -11484,7 +11519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -11501,7 +11536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -11521,14 +11556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11536,19 +11571,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -11583,7 +11618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11594,7 +11629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11611,7 +11646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11628,7 +11663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11645,7 +11680,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11662,7 +11697,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11679,7 +11714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11696,7 +11731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11713,7 +11748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11730,7 +11765,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11747,7 +11782,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11773,7 +11808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11799,7 +11834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11825,7 +11860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11851,7 +11886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11877,7 +11912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11903,7 +11938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11929,7 +11964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11955,7 +11990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11981,7 +12016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12007,7 +12042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12033,7 +12068,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12059,7 +12094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12085,7 +12120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12111,7 +12146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12137,7 +12172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12163,7 +12198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12189,7 +12224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12215,7 +12250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D92F68A-49B1-234D-B394-458DA2393A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFDD43F-F137-094F-84C0-671DDC6E7B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10700" yWindow="-19320" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -224,6 +224,9 @@
     <t>Covariation</t>
   </si>
   <si>
+    <t>OBCS:0000071</t>
+  </si>
+  <si>
     <t>Credible interval</t>
   </si>
   <si>
@@ -680,9 +683,6 @@
     <t>A person who has analytic toxicologist role.</t>
   </si>
   <si>
-    <t>Human being</t>
-  </si>
-  <si>
     <t>Object</t>
   </si>
   <si>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">Subclass of </t>
   </si>
   <si>
-    <t>OBCS:0000071</t>
+    <t>human being</t>
   </si>
 </sst>
 </file>
@@ -3053,10 +3053,10 @@
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3079,8 +3079,8 @@
     <col min="17" max="17" width="37.1640625" style="10" customWidth="1"/>
     <col min="18" max="18" width="48.6640625" style="10" customWidth="1"/>
     <col min="19" max="19" width="24.6640625" style="10" customWidth="1"/>
-    <col min="20" max="20" width="9.1640625" style="10" customWidth="1"/>
-    <col min="21" max="16384" width="9.1640625" style="10"/>
+    <col min="20" max="21" width="9.1640625" style="10" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -3665,13 +3665,13 @@
     </row>
     <row r="19" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>826</v>
+        <v>66</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>57</v>
@@ -3683,7 +3683,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="20" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="13"/>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="21" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="22" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -3770,7 +3770,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="26"/>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="23" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="24" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -3822,7 +3822,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="26"/>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="25" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="26" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -3889,16 +3889,16 @@
     </row>
     <row r="27" spans="1:19" s="25" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>22</v>
@@ -3908,10 +3908,10 @@
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="26"/>
@@ -3921,7 +3921,7 @@
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P27" s="26" t="s">
         <v>41</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="28" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="29" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -3982,7 +3982,7 @@
     <row r="30" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -4010,7 +4010,7 @@
     <row r="31" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
@@ -4037,7 +4037,7 @@
     <row r="32" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="33" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -4089,7 +4089,7 @@
     <row r="34" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -4115,13 +4115,13 @@
     </row>
     <row r="35" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>23</v>
@@ -4134,11 +4134,11 @@
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
@@ -4154,7 +4154,7 @@
     <row r="36" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="37" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
@@ -4206,7 +4206,7 @@
     <row r="38" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -4232,10 +4232,10 @@
     </row>
     <row r="39" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="40" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="41" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="42" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="43" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="44" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="45" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="46" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
@@ -4438,7 +4438,7 @@
     <row r="47" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -4465,7 +4465,7 @@
     <row r="48" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
@@ -4492,7 +4492,7 @@
     <row r="49" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
@@ -4519,7 +4519,7 @@
     <row r="50" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
@@ -4546,7 +4546,7 @@
     <row r="51" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
       <c r="B51" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="52" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="53" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="54" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -4648,7 +4648,7 @@
     <row r="55" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26"/>
       <c r="B55" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="56" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="57" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="58" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -4749,10 +4749,10 @@
     </row>
     <row r="59" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
@@ -4762,7 +4762,7 @@
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
       <c r="I59" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="26"/>
@@ -4779,7 +4779,7 @@
     <row r="60" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
       <c r="B60" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -4790,7 +4790,7 @@
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
       <c r="I60" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="26"/>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="61" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="62" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
@@ -4857,16 +4857,16 @@
     </row>
     <row r="63" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E63" s="26" t="s">
         <v>33</v>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="G63" s="26"/>
       <c r="H63" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I63" s="26"/>
       <c r="J63" s="11"/>
@@ -4891,18 +4891,18 @@
         <v>41</v>
       </c>
       <c r="R63" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>22</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="65" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="66" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
@@ -4972,16 +4972,16 @@
     </row>
     <row r="67" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E67" s="26"/>
       <c r="F67" s="26" t="s">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="G67" s="26"/>
       <c r="H67" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I67" s="26"/>
       <c r="J67" s="11"/>
@@ -5006,26 +5006,26 @@
     </row>
     <row r="68" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="26" t="s">
         <v>23</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I68" s="26"/>
       <c r="J68" s="11"/>
@@ -5042,16 +5042,16 @@
     </row>
     <row r="69" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="26" t="s">
@@ -5068,7 +5068,7 @@
         <v>24</v>
       </c>
       <c r="O69" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P69" s="26" t="s">
         <v>41</v>
@@ -5077,7 +5077,7 @@
     <row r="70" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
       <c r="B70" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="71" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="72" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
@@ -5154,7 +5154,7 @@
     <row r="73" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
       <c r="B73" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
@@ -5180,16 +5180,16 @@
     </row>
     <row r="74" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E74" s="25" t="s">
         <v>22</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="75" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="76" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="77" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
@@ -5281,19 +5281,19 @@
     </row>
     <row r="78" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F78" s="26" t="s">
         <v>23</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="79" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="80" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -5366,28 +5366,28 @@
     </row>
     <row r="81" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F81" s="26" t="s">
         <v>23</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I81" s="26"/>
       <c r="J81" s="11"/>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="82" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="83" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
@@ -5455,16 +5455,16 @@
     </row>
     <row r="84" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E84" s="25" t="s">
         <v>22</v>
@@ -5481,16 +5481,16 @@
     </row>
     <row r="85" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E85" s="25" t="s">
         <v>33</v>
@@ -5499,7 +5499,7 @@
         <v>23</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P85" s="25" t="s">
         <v>41</v>
@@ -5511,7 +5511,7 @@
     <row r="86" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
       <c r="B86" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E86" s="25" t="s">
         <v>33</v>
@@ -5520,7 +5520,7 @@
         <v>23</v>
       </c>
       <c r="I86" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P86" s="25" t="s">
         <v>41</v>
@@ -5531,16 +5531,16 @@
     </row>
     <row r="87" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E87" s="25" t="s">
         <v>33</v>
@@ -5555,13 +5555,13 @@
     </row>
     <row r="88" spans="1:19" s="25" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>23</v>
@@ -5573,7 +5573,7 @@
         <v>23</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P88" s="25" t="s">
         <v>41</v>
@@ -5585,13 +5585,13 @@
     <row r="89" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
       <c r="B89" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I89" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P89" s="25" t="s">
         <v>41</v>
@@ -5602,7 +5602,7 @@
     <row r="90" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="26"/>
       <c r="B90" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>23</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="91" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>23</v>
@@ -5628,7 +5628,7 @@
     <row r="92" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
       <c r="B92" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>23</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="93" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>23</v>
@@ -5654,7 +5654,7 @@
     <row r="94" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
       <c r="B94" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>23</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="95" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>23</v>
@@ -5679,16 +5679,16 @@
     </row>
     <row r="96" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I96" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P96" s="25" t="s">
         <v>41</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="97" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>23</v>
@@ -5709,25 +5709,25 @@
     </row>
     <row r="98" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I98" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P98" s="25" t="s">
         <v>41</v>
@@ -5736,13 +5736,13 @@
     </row>
     <row r="99" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I99" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P99" s="25" t="s">
         <v>41</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="100" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>23</v>
@@ -5763,16 +5763,16 @@
     </row>
     <row r="101" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>218</v>
+        <v>826</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>219</v>
@@ -7787,7 +7787,7 @@
         <v>23</v>
       </c>
       <c r="O253" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P253" s="25" t="s">
         <v>41</v>
@@ -8082,7 +8082,7 @@
     </row>
     <row r="278" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F278" s="25" t="s">
         <v>23</v>
@@ -10125,7 +10125,7 @@
     <row r="450" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="10"/>
       <c r="B450" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F450" s="25" t="s">
         <v>23</v>
@@ -10788,7 +10788,7 @@
         <v>676</v>
       </c>
       <c r="D508" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F508" s="25" t="s">
         <v>23</v>
@@ -11336,8 +11336,8 @@
     <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
     <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="4"/>
+    <col min="5" max="6" width="9.1640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11584,8 +11584,8 @@
     <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="13" max="14" width="9.1640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFDD43F-F137-094F-84C0-671DDC6E7B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13112B9-56BF-AC48-A164-C71087B32BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10700" yWindow="-19320" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="831">
   <si>
     <t>ID</t>
   </si>
@@ -449,9 +449,6 @@
     <t>An information content entity that is used in a research study to specify how a measurement should be undertaken.</t>
   </si>
   <si>
-    <t>Information content entity (IAO)</t>
-  </si>
-  <si>
     <t>This and the one below need VERY clear labels to disambiguate</t>
   </si>
   <si>
@@ -464,9 +461,6 @@
     <t>A planned process that has as its output a data item corresponding to a quantitative or qualitative description of the attributes of an entity.</t>
   </si>
   <si>
-    <t>Planned process (OBI)</t>
-  </si>
-  <si>
     <t>Measurement is not itself defined, except tautologically as "the data item that is the output of a measuremnet"</t>
   </si>
   <si>
@@ -482,9 +476,6 @@
     <t>A measurment datum that is produced as part of a research study.</t>
   </si>
   <si>
-    <t>Measurement datum (IAO)</t>
-  </si>
-  <si>
     <t>RW</t>
   </si>
   <si>
@@ -599,9 +590,6 @@
     <t>A data item that represents a human being who has received an intervention intended to result in cessation of an addictive behaviour and who, after a period of abstinence, has resumed the behaviour.</t>
   </si>
   <si>
-    <t>Data item</t>
-  </si>
-  <si>
     <t>ADDICTO:0000161</t>
   </si>
   <si>
@@ -683,6 +671,9 @@
     <t>A person who has analytic toxicologist role.</t>
   </si>
   <si>
+    <t>human being</t>
+  </si>
+  <si>
     <t>Object</t>
   </si>
   <si>
@@ -1232,9 +1223,6 @@
     <t>The aggregate of written works, including articles, books, book chapters and reports.</t>
   </si>
   <si>
-    <t>Material information bearer</t>
-  </si>
-  <si>
     <t>Living Costs and Food Survey</t>
   </si>
   <si>
@@ -1640,9 +1628,6 @@
     <t>A planned process executed in the performance of scientific research wherein systematic investigations are performed to establish facts and reach new conclusions about phenomena in the world.</t>
   </si>
   <si>
-    <t>Planned process</t>
-  </si>
-  <si>
     <t>Research</t>
   </si>
   <si>
@@ -1820,9 +1805,6 @@
     <t>An information content entity that represents attributes of a population for the purposes of modelling processes or outcomes in that population.</t>
   </si>
   <si>
-    <t>Information content entity [IAO:</t>
-  </si>
-  <si>
     <t>Single Drug Screening Question</t>
   </si>
   <si>
@@ -2183,9 +2165,6 @@
     <t>A report that provides information about a person's potential competing interest.</t>
   </si>
   <si>
-    <t>Report; IAO:0000088</t>
-  </si>
-  <si>
     <t>Good practice involves being as inclusive as possible to ensure full transparency and include both financial and non-financial attributes that might conceivably influence the conduct, reporting or evaluation of research whether or not it actually does so.</t>
   </si>
   <si>
@@ -2504,7 +2483,40 @@
     <t xml:space="preserve">Subclass of </t>
   </si>
   <si>
-    <t>human being</t>
+    <t>material information bearer</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>information content entity</t>
+  </si>
+  <si>
+    <t>planned process</t>
+  </si>
+  <si>
+    <t>measurement datum</t>
+  </si>
+  <si>
+    <t>process boundary</t>
+  </si>
+  <si>
+    <t>data item</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>OBCS:0000035</t>
+  </si>
+  <si>
+    <t>model</t>
   </si>
 </sst>
 </file>
@@ -3053,10 +3065,10 @@
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
+      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3079,8 +3091,8 @@
     <col min="17" max="17" width="37.1640625" style="10" customWidth="1"/>
     <col min="18" max="18" width="48.6640625" style="10" customWidth="1"/>
     <col min="19" max="19" width="24.6640625" style="10" customWidth="1"/>
-    <col min="20" max="21" width="9.1640625" style="10" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="10"/>
+    <col min="20" max="22" width="9.1640625" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -4866,7 +4878,7 @@
         <v>130</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>71</v>
+        <v>820</v>
       </c>
       <c r="E63" s="26" t="s">
         <v>33</v>
@@ -4905,7 +4917,7 @@
         <v>135</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>22</v>
+        <v>821</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>22</v>
@@ -4981,7 +4993,7 @@
         <v>140</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>141</v>
+        <v>822</v>
       </c>
       <c r="E67" s="26"/>
       <c r="F67" s="26" t="s">
@@ -4989,7 +5001,7 @@
       </c>
       <c r="G67" s="26"/>
       <c r="H67" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I67" s="26"/>
       <c r="J67" s="11"/>
@@ -5006,26 +5018,26 @@
     </row>
     <row r="68" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="C68" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>145</v>
-      </c>
       <c r="D68" s="26" t="s">
-        <v>146</v>
+        <v>823</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="26" t="s">
         <v>23</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I68" s="26"/>
       <c r="J68" s="11"/>
@@ -5042,16 +5054,16 @@
     </row>
     <row r="69" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>151</v>
-      </c>
       <c r="D69" s="26" t="s">
-        <v>152</v>
+        <v>824</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="26" t="s">
@@ -5068,7 +5080,7 @@
         <v>24</v>
       </c>
       <c r="O69" s="26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P69" s="26" t="s">
         <v>41</v>
@@ -5077,7 +5089,7 @@
     <row r="70" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
       <c r="B70" s="26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
@@ -5103,7 +5115,7 @@
     </row>
     <row r="71" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
@@ -5128,7 +5140,7 @@
     </row>
     <row r="72" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
@@ -5154,7 +5166,7 @@
     <row r="73" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
       <c r="B73" s="26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
@@ -5180,13 +5192,13 @@
     </row>
     <row r="74" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>134</v>
@@ -5206,7 +5218,7 @@
     </row>
     <row r="75" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
@@ -5231,7 +5243,7 @@
     </row>
     <row r="76" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -5256,7 +5268,7 @@
     </row>
     <row r="77" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
@@ -5281,19 +5293,19 @@
     </row>
     <row r="78" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="E78" s="26" t="s">
         <v>165</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="F78" s="26" t="s">
         <v>23</v>
@@ -5316,7 +5328,7 @@
     </row>
     <row r="79" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
@@ -5341,7 +5353,7 @@
     </row>
     <row r="80" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -5366,28 +5378,28 @@
     </row>
     <row r="81" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>825</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H81" s="26" t="s">
         <v>171</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F81" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H81" s="26" t="s">
-        <v>174</v>
       </c>
       <c r="I81" s="26"/>
       <c r="J81" s="11"/>
@@ -5405,7 +5417,7 @@
     </row>
     <row r="82" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -5430,7 +5442,7 @@
     </row>
     <row r="83" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
@@ -5455,16 +5467,16 @@
     </row>
     <row r="84" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>180</v>
       </c>
       <c r="E84" s="25" t="s">
         <v>22</v>
@@ -5481,16 +5493,16 @@
     </row>
     <row r="85" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>184</v>
+        <v>830</v>
       </c>
       <c r="E85" s="25" t="s">
         <v>33</v>
@@ -5499,7 +5511,7 @@
         <v>23</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P85" s="25" t="s">
         <v>41</v>
@@ -5511,7 +5523,7 @@
     <row r="86" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
       <c r="B86" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E86" s="25" t="s">
         <v>33</v>
@@ -5520,7 +5532,7 @@
         <v>23</v>
       </c>
       <c r="I86" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P86" s="25" t="s">
         <v>41</v>
@@ -5531,16 +5543,16 @@
     </row>
     <row r="87" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>191</v>
+        <v>826</v>
       </c>
       <c r="E87" s="25" t="s">
         <v>33</v>
@@ -5555,13 +5567,13 @@
     </row>
     <row r="88" spans="1:19" s="25" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>23</v>
@@ -5573,7 +5585,7 @@
         <v>23</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P88" s="25" t="s">
         <v>41</v>
@@ -5585,13 +5597,13 @@
     <row r="89" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
       <c r="B89" s="25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I89" s="25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P89" s="25" t="s">
         <v>41</v>
@@ -5602,7 +5614,7 @@
     <row r="90" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="26"/>
       <c r="B90" s="25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>23</v>
@@ -5615,7 +5627,7 @@
     </row>
     <row r="91" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="25" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>23</v>
@@ -5628,7 +5640,7 @@
     <row r="92" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
       <c r="B92" s="25" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>23</v>
@@ -5641,7 +5653,7 @@
     </row>
     <row r="93" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>23</v>
@@ -5654,7 +5666,7 @@
     <row r="94" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
       <c r="B94" s="25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>23</v>
@@ -5667,7 +5679,7 @@
     </row>
     <row r="95" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="25" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>23</v>
@@ -5679,10 +5691,10 @@
     </row>
     <row r="96" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>23</v>
@@ -5697,7 +5709,7 @@
     </row>
     <row r="97" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="25" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>23</v>
@@ -5709,25 +5721,25 @@
     </row>
     <row r="98" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="I98" s="25" t="s">
         <v>208</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="I98" s="25" t="s">
-        <v>212</v>
       </c>
       <c r="P98" s="25" t="s">
         <v>41</v>
@@ -5736,13 +5748,13 @@
     </row>
     <row r="99" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I99" s="25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P99" s="25" t="s">
         <v>41</v>
@@ -5751,7 +5763,7 @@
     </row>
     <row r="100" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="25" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>23</v>
@@ -5763,19 +5775,19 @@
     </row>
     <row r="101" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E101" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>23</v>
@@ -5794,7 +5806,7 @@
     </row>
     <row r="102" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F102" s="25" t="s">
         <v>23</v>
@@ -5806,7 +5818,7 @@
     </row>
     <row r="103" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F103" s="25" t="s">
         <v>23</v>
@@ -5818,7 +5830,7 @@
     </row>
     <row r="104" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F104" s="25" t="s">
         <v>23</v>
@@ -5830,7 +5842,7 @@
     </row>
     <row r="105" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F105" s="25" t="s">
         <v>23</v>
@@ -5843,7 +5855,7 @@
     </row>
     <row r="106" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F106" s="25" t="s">
         <v>23</v>
@@ -5855,7 +5867,7 @@
     </row>
     <row r="107" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F107" s="25" t="s">
         <v>23</v>
@@ -5868,13 +5880,13 @@
     </row>
     <row r="108" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F108" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I108" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P108" s="25" t="s">
         <v>41</v>
@@ -5884,7 +5896,7 @@
     </row>
     <row r="109" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F109" s="25" t="s">
         <v>23</v>
@@ -5897,7 +5909,7 @@
     </row>
     <row r="110" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F110" s="25" t="s">
         <v>23</v>
@@ -5910,7 +5922,7 @@
     </row>
     <row r="111" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>23</v>
@@ -5922,7 +5934,7 @@
     </row>
     <row r="112" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>23</v>
@@ -5934,7 +5946,7 @@
     </row>
     <row r="113" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F113" s="25" t="s">
         <v>23</v>
@@ -5947,7 +5959,7 @@
     <row r="114" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F114" s="25" t="s">
         <v>23</v>
@@ -5960,7 +5972,7 @@
     </row>
     <row r="115" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F115" s="25" t="s">
         <v>23</v>
@@ -5973,7 +5985,7 @@
     <row r="116" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="26"/>
       <c r="B116" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F116" s="25" t="s">
         <v>23</v>
@@ -5987,7 +5999,7 @@
     <row r="117" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="26"/>
       <c r="B117" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F117" s="25" t="s">
         <v>23</v>
@@ -6001,7 +6013,7 @@
     <row r="118" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="26"/>
       <c r="B118" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F118" s="25" t="s">
         <v>23</v>
@@ -6015,7 +6027,7 @@
     <row r="119" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="26"/>
       <c r="B119" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F119" s="25" t="s">
         <v>23</v>
@@ -6028,7 +6040,7 @@
     </row>
     <row r="120" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F120" s="25" t="s">
         <v>23</v>
@@ -6040,7 +6052,7 @@
     </row>
     <row r="121" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F121" s="25" t="s">
         <v>23</v>
@@ -6052,7 +6064,7 @@
     </row>
     <row r="122" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" s="25" t="s">
         <v>23</v>
@@ -6064,7 +6076,7 @@
     </row>
     <row r="123" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F123" s="25" t="s">
         <v>23</v>
@@ -6076,26 +6088,26 @@
     </row>
     <row r="124" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="E124" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
@@ -6109,7 +6121,7 @@
     </row>
     <row r="125" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F125" s="25" t="s">
         <v>23</v>
@@ -6121,7 +6133,7 @@
     </row>
     <row r="126" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>23</v>
@@ -6133,7 +6145,7 @@
     </row>
     <row r="127" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" s="25" t="s">
         <v>23</v>
@@ -6145,7 +6157,7 @@
     </row>
     <row r="128" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F128" s="25" t="s">
         <v>23</v>
@@ -6158,7 +6170,7 @@
     </row>
     <row r="129" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F129" s="25" t="s">
         <v>23</v>
@@ -6170,7 +6182,7 @@
     </row>
     <row r="130" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F130" s="25" t="s">
         <v>23</v>
@@ -6182,7 +6194,7 @@
     </row>
     <row r="131" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" s="25" t="s">
         <v>23</v>
@@ -6194,7 +6206,7 @@
     </row>
     <row r="132" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F132" s="25" t="s">
         <v>23</v>
@@ -6207,7 +6219,7 @@
     </row>
     <row r="133" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" s="25" t="s">
         <v>23</v>
@@ -6219,13 +6231,13 @@
     </row>
     <row r="134" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F134" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I134" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P134" s="25" t="s">
         <v>41</v>
@@ -6234,7 +6246,7 @@
     </row>
     <row r="135" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F135" s="25" t="s">
         <v>23</v>
@@ -6246,7 +6258,7 @@
     </row>
     <row r="136" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F136" s="25" t="s">
         <v>23</v>
@@ -6259,7 +6271,7 @@
     <row r="137" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="26"/>
       <c r="B137" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F137" s="25" t="s">
         <v>23</v>
@@ -6272,7 +6284,7 @@
     </row>
     <row r="138" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="25" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F138" s="25" t="s">
         <v>23</v>
@@ -6284,7 +6296,7 @@
     </row>
     <row r="139" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F139" s="25" t="s">
         <v>23</v>
@@ -6296,7 +6308,7 @@
     </row>
     <row r="140" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F140" s="25" t="s">
         <v>23</v>
@@ -6308,7 +6320,7 @@
     </row>
     <row r="141" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F141" s="25" t="s">
         <v>23</v>
@@ -6321,7 +6333,7 @@
     </row>
     <row r="142" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F142" s="25" t="s">
         <v>23</v>
@@ -6333,7 +6345,7 @@
     </row>
     <row r="143" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F143" s="25" t="s">
         <v>23</v>
@@ -6345,7 +6357,7 @@
     </row>
     <row r="144" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F144" s="25" t="s">
         <v>23</v>
@@ -6357,7 +6369,7 @@
     </row>
     <row r="145" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F145" s="25" t="s">
         <v>23</v>
@@ -6369,7 +6381,7 @@
     </row>
     <row r="146" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F146" s="25" t="s">
         <v>23</v>
@@ -6381,7 +6393,7 @@
     </row>
     <row r="147" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F147" s="25" t="s">
         <v>23</v>
@@ -6393,7 +6405,7 @@
     </row>
     <row r="148" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F148" s="25" t="s">
         <v>23</v>
@@ -6405,7 +6417,7 @@
     </row>
     <row r="149" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F149" s="25" t="s">
         <v>23</v>
@@ -6418,7 +6430,7 @@
     </row>
     <row r="150" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F150" s="25" t="s">
         <v>23</v>
@@ -6430,7 +6442,7 @@
     </row>
     <row r="151" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F151" s="25" t="s">
         <v>23</v>
@@ -6442,7 +6454,7 @@
     </row>
     <row r="152" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F152" s="25" t="s">
         <v>23</v>
@@ -6454,7 +6466,7 @@
     </row>
     <row r="153" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F153" s="25" t="s">
         <v>23</v>
@@ -6467,7 +6479,7 @@
     </row>
     <row r="154" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F154" s="25" t="s">
         <v>23</v>
@@ -6479,7 +6491,7 @@
     </row>
     <row r="155" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F155" s="25" t="s">
         <v>23</v>
@@ -6491,7 +6503,7 @@
     </row>
     <row r="156" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F156" s="25" t="s">
         <v>23</v>
@@ -6503,7 +6515,7 @@
     </row>
     <row r="157" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F157" s="25" t="s">
         <v>23</v>
@@ -6516,7 +6528,7 @@
     <row r="158" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="26"/>
       <c r="B158" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F158" s="25" t="s">
         <v>23</v>
@@ -6529,7 +6541,7 @@
     </row>
     <row r="159" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="25" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F159" s="25" t="s">
         <v>23</v>
@@ -6541,7 +6553,7 @@
     </row>
     <row r="160" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="25" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F160" s="25" t="s">
         <v>23</v>
@@ -6554,7 +6566,7 @@
     <row r="161" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="26"/>
       <c r="B161" s="26" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F161" s="25" t="s">
         <v>23</v>
@@ -6567,7 +6579,7 @@
     </row>
     <row r="162" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="25" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F162" s="25" t="s">
         <v>23</v>
@@ -6579,7 +6591,7 @@
     </row>
     <row r="163" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F163" s="25" t="s">
         <v>23</v>
@@ -6591,7 +6603,7 @@
     </row>
     <row r="164" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="25" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F164" s="25" t="s">
         <v>23</v>
@@ -6603,7 +6615,7 @@
     </row>
     <row r="165" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F165" s="25" t="s">
         <v>23</v>
@@ -6615,7 +6627,7 @@
     </row>
     <row r="166" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="25" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F166" s="25" t="s">
         <v>23</v>
@@ -6627,7 +6639,7 @@
     </row>
     <row r="167" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F167" s="25" t="s">
         <v>23</v>
@@ -6640,7 +6652,7 @@
     </row>
     <row r="168" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F168" s="25" t="s">
         <v>23</v>
@@ -6652,7 +6664,7 @@
     </row>
     <row r="169" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F169" s="25" t="s">
         <v>23</v>
@@ -6665,7 +6677,7 @@
     </row>
     <row r="170" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F170" s="25" t="s">
         <v>23</v>
@@ -6677,7 +6689,7 @@
     </row>
     <row r="171" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F171" s="25" t="s">
         <v>23</v>
@@ -6689,7 +6701,7 @@
     </row>
     <row r="172" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="25" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F172" s="25" t="s">
         <v>23</v>
@@ -6701,7 +6713,7 @@
     </row>
     <row r="173" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F173" s="25" t="s">
         <v>23</v>
@@ -6713,7 +6725,7 @@
     </row>
     <row r="174" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F174" s="25" t="s">
         <v>23</v>
@@ -6725,7 +6737,7 @@
     </row>
     <row r="175" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F175" s="25" t="s">
         <v>23</v>
@@ -6738,7 +6750,7 @@
     </row>
     <row r="176" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F176" s="25" t="s">
         <v>23</v>
@@ -6750,7 +6762,7 @@
     </row>
     <row r="177" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="25" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F177" s="25" t="s">
         <v>23</v>
@@ -6763,7 +6775,7 @@
     </row>
     <row r="178" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F178" s="25" t="s">
         <v>23</v>
@@ -6775,7 +6787,7 @@
     </row>
     <row r="179" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F179" s="25" t="s">
         <v>23</v>
@@ -6787,7 +6799,7 @@
     </row>
     <row r="180" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F180" s="25" t="s">
         <v>23</v>
@@ -6800,7 +6812,7 @@
     </row>
     <row r="181" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F181" s="25" t="s">
         <v>23</v>
@@ -6812,7 +6824,7 @@
     </row>
     <row r="182" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="25" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F182" s="25" t="s">
         <v>23</v>
@@ -6825,7 +6837,7 @@
     </row>
     <row r="183" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="25" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F183" s="25" t="s">
         <v>23</v>
@@ -6838,7 +6850,7 @@
     <row r="184" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="26"/>
       <c r="B184" s="25" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F184" s="25" t="s">
         <v>23</v>
@@ -6851,7 +6863,7 @@
     </row>
     <row r="185" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F185" s="25" t="s">
         <v>23</v>
@@ -6864,7 +6876,7 @@
     <row r="186" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="26"/>
       <c r="B186" s="25" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F186" s="25" t="s">
         <v>23</v>
@@ -6877,7 +6889,7 @@
     </row>
     <row r="187" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F187" s="25" t="s">
         <v>23</v>
@@ -6889,7 +6901,7 @@
     </row>
     <row r="188" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F188" s="25" t="s">
         <v>23</v>
@@ -6902,7 +6914,7 @@
     <row r="189" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="26"/>
       <c r="B189" s="25" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F189" s="25" t="s">
         <v>23</v>
@@ -6915,7 +6927,7 @@
     </row>
     <row r="190" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F190" s="25" t="s">
         <v>23</v>
@@ -6928,7 +6940,7 @@
     <row r="191" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="26"/>
       <c r="B191" s="25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F191" s="25" t="s">
         <v>23</v>
@@ -6941,7 +6953,7 @@
     </row>
     <row r="192" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F192" s="25" t="s">
         <v>23</v>
@@ -6953,7 +6965,7 @@
     </row>
     <row r="193" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F193" s="25" t="s">
         <v>23</v>
@@ -6965,7 +6977,7 @@
     </row>
     <row r="194" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="25" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F194" s="25" t="s">
         <v>23</v>
@@ -6977,13 +6989,13 @@
     </row>
     <row r="195" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F195" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I195" s="25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P195" s="25" t="s">
         <v>41</v>
@@ -6992,7 +7004,7 @@
     </row>
     <row r="196" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="25" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F196" s="25" t="s">
         <v>23</v>
@@ -7004,13 +7016,13 @@
     </row>
     <row r="197" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F197" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I197" s="25" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P197" s="25" t="s">
         <v>41</v>
@@ -7019,7 +7031,7 @@
     </row>
     <row r="198" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="25" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F198" s="25" t="s">
         <v>23</v>
@@ -7031,7 +7043,7 @@
     </row>
     <row r="199" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F199" s="25" t="s">
         <v>23</v>
@@ -7043,7 +7055,7 @@
     </row>
     <row r="200" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F200" s="25" t="s">
         <v>23</v>
@@ -7055,7 +7067,7 @@
     </row>
     <row r="201" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F201" s="25" t="s">
         <v>23</v>
@@ -7067,7 +7079,7 @@
     </row>
     <row r="202" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F202" s="25" t="s">
         <v>23</v>
@@ -7078,7 +7090,7 @@
     </row>
     <row r="203" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F203" s="25" t="s">
         <v>23</v>
@@ -7089,7 +7101,7 @@
     </row>
     <row r="204" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F204" s="25" t="s">
         <v>23</v>
@@ -7100,7 +7112,7 @@
     </row>
     <row r="205" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="25" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F205" s="25" t="s">
         <v>23</v>
@@ -7111,7 +7123,7 @@
     </row>
     <row r="206" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F206" s="25" t="s">
         <v>23</v>
@@ -7123,16 +7135,16 @@
     </row>
     <row r="207" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>331</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D207" s="25" t="s">
         <v>334</v>
-      </c>
-      <c r="B207" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="C207" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="D207" s="25" t="s">
-        <v>337</v>
       </c>
       <c r="F207" s="25" t="s">
         <v>23</v>
@@ -7144,7 +7156,7 @@
     </row>
     <row r="208" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="25" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F208" s="25" t="s">
         <v>23</v>
@@ -7155,7 +7167,7 @@
     </row>
     <row r="209" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F209" s="25" t="s">
         <v>23</v>
@@ -7167,7 +7179,7 @@
     </row>
     <row r="210" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F210" s="25" t="s">
         <v>23</v>
@@ -7179,13 +7191,13 @@
     </row>
     <row r="211" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F211" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I211" s="25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P211" s="25" t="s">
         <v>41</v>
@@ -7193,7 +7205,7 @@
     </row>
     <row r="212" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F212" s="25" t="s">
         <v>23</v>
@@ -7206,7 +7218,7 @@
     <row r="213" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="26"/>
       <c r="B213" s="25" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F213" s="25" t="s">
         <v>23</v>
@@ -7219,7 +7231,7 @@
     <row r="214" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="26"/>
       <c r="B214" s="25" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F214" s="25" t="s">
         <v>23</v>
@@ -7233,7 +7245,7 @@
     <row r="215" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="26"/>
       <c r="B215" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F215" s="25" t="s">
         <v>23</v>
@@ -7245,13 +7257,13 @@
     </row>
     <row r="216" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C216" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D216" s="25" t="s">
         <v>23</v>
@@ -7263,7 +7275,7 @@
         <v>23</v>
       </c>
       <c r="H216" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P216" s="25" t="s">
         <v>41</v>
@@ -7273,7 +7285,7 @@
     <row r="217" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="26"/>
       <c r="B217" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F217" s="25" t="s">
         <v>23</v>
@@ -7287,7 +7299,7 @@
     <row r="218" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="26"/>
       <c r="B218" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F218" s="25" t="s">
         <v>23</v>
@@ -7299,19 +7311,19 @@
     </row>
     <row r="219" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B219" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D219" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="B219" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="C219" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="D219" s="26" t="s">
-        <v>355</v>
-      </c>
       <c r="E219" s="26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F219" s="26" t="s">
         <v>23</v>
@@ -7320,10 +7332,10 @@
       <c r="H219" s="26"/>
       <c r="I219" s="26"/>
       <c r="J219" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K219" s="26" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L219" s="26"/>
       <c r="M219" s="26"/>
@@ -7336,7 +7348,7 @@
     </row>
     <row r="220" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F220" s="25" t="s">
         <v>23</v>
@@ -7348,7 +7360,7 @@
     </row>
     <row r="221" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F221" s="25" t="s">
         <v>23</v>
@@ -7360,7 +7372,7 @@
     </row>
     <row r="222" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F222" s="25" t="s">
         <v>23</v>
@@ -7372,7 +7384,7 @@
     </row>
     <row r="223" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F223" s="25" t="s">
         <v>23</v>
@@ -7384,7 +7396,7 @@
     </row>
     <row r="224" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F224" s="25" t="s">
         <v>23</v>
@@ -7396,16 +7408,16 @@
     </row>
     <row r="225" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>360</v>
+      </c>
+      <c r="B225" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C225" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D225" s="25" t="s">
         <v>363</v>
-      </c>
-      <c r="B225" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="C225" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="D225" s="25" t="s">
-        <v>366</v>
       </c>
       <c r="F225" s="25" t="s">
         <v>23</v>
@@ -7417,7 +7429,7 @@
     </row>
     <row r="226" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F226" s="25" t="s">
         <v>23</v>
@@ -7429,7 +7441,7 @@
     </row>
     <row r="227" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F227" s="25" t="s">
         <v>23</v>
@@ -7442,7 +7454,7 @@
     <row r="228" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="26"/>
       <c r="B228" s="25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F228" s="25" t="s">
         <v>23</v>
@@ -7455,7 +7467,7 @@
     <row r="229" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="26"/>
       <c r="B229" s="25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F229" s="25" t="s">
         <v>23</v>
@@ -7468,13 +7480,13 @@
     <row r="230" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="26"/>
       <c r="B230" s="25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F230" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I230" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P230" s="25" t="s">
         <v>41</v>
@@ -7484,7 +7496,7 @@
     <row r="231" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="26"/>
       <c r="B231" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F231" s="25" t="s">
         <v>23</v>
@@ -7497,7 +7509,7 @@
     <row r="232" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="26"/>
       <c r="B232" s="25" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F232" s="25" t="s">
         <v>23</v>
@@ -7510,7 +7522,7 @@
     <row r="233" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="26"/>
       <c r="B233" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F233" s="25" t="s">
         <v>23</v>
@@ -7523,7 +7535,7 @@
     <row r="234" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="26"/>
       <c r="B234" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F234" s="25" t="s">
         <v>23</v>
@@ -7536,7 +7548,7 @@
     <row r="235" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="26"/>
       <c r="B235" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F235" s="25" t="s">
         <v>23</v>
@@ -7549,7 +7561,7 @@
     <row r="236" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="26"/>
       <c r="B236" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F236" s="25" t="s">
         <v>23</v>
@@ -7561,7 +7573,7 @@
     </row>
     <row r="237" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F237" s="25" t="s">
         <v>23</v>
@@ -7572,7 +7584,7 @@
     </row>
     <row r="238" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="25" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F238" s="25" t="s">
         <v>23</v>
@@ -7583,7 +7595,7 @@
     </row>
     <row r="239" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F239" s="25" t="s">
         <v>23</v>
@@ -7594,7 +7606,7 @@
     </row>
     <row r="240" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="25" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F240" s="25" t="s">
         <v>23</v>
@@ -7605,7 +7617,7 @@
     </row>
     <row r="241" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F241" s="25" t="s">
         <v>23</v>
@@ -7617,7 +7629,7 @@
     </row>
     <row r="242" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F242" s="25" t="s">
         <v>23</v>
@@ -7629,13 +7641,13 @@
     </row>
     <row r="243" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F243" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I243" s="25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P243" s="25" t="s">
         <v>41</v>
@@ -7643,13 +7655,13 @@
     </row>
     <row r="244" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F244" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I244" s="25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P244" s="25" t="s">
         <v>41</v>
@@ -7657,7 +7669,7 @@
     </row>
     <row r="245" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F245" s="25" t="s">
         <v>23</v>
@@ -7669,7 +7681,7 @@
     </row>
     <row r="246" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F246" s="25" t="s">
         <v>23</v>
@@ -7681,7 +7693,7 @@
     </row>
     <row r="247" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F247" s="25" t="s">
         <v>23</v>
@@ -7693,7 +7705,7 @@
     </row>
     <row r="248" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F248" s="25" t="s">
         <v>23</v>
@@ -7704,7 +7716,7 @@
     </row>
     <row r="249" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F249" s="25" t="s">
         <v>23</v>
@@ -7716,7 +7728,7 @@
     </row>
     <row r="250" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F250" s="25" t="s">
         <v>23</v>
@@ -7728,7 +7740,7 @@
     <row r="251" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="26"/>
       <c r="B251" s="25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F251" s="25" t="s">
         <v>23</v>
@@ -7740,16 +7752,16 @@
     </row>
     <row r="252" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D252" s="10" t="s">
         <v>396</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D252" s="10" t="s">
-        <v>399</v>
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="10" t="s">
@@ -7769,16 +7781,16 @@
     </row>
     <row r="253" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="26" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B253" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>402</v>
+        <v>819</v>
       </c>
       <c r="E253" s="25" t="s">
         <v>46</v>
@@ -7787,7 +7799,7 @@
         <v>23</v>
       </c>
       <c r="O253" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P253" s="25" t="s">
         <v>41</v>
@@ -7797,7 +7809,7 @@
     </row>
     <row r="254" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="25" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F254" s="25" t="s">
         <v>23</v>
@@ -7809,7 +7821,7 @@
     </row>
     <row r="255" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="25" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F255" s="25" t="s">
         <v>23</v>
@@ -7821,7 +7833,7 @@
     </row>
     <row r="256" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="25" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F256" s="25" t="s">
         <v>23</v>
@@ -7832,7 +7844,7 @@
     </row>
     <row r="257" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="25" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F257" s="25" t="s">
         <v>23</v>
@@ -7844,7 +7856,7 @@
     <row r="258" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="26"/>
       <c r="B258" s="25" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F258" s="25" t="s">
         <v>23</v>
@@ -7856,7 +7868,7 @@
     </row>
     <row r="259" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="25" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F259" s="25" t="s">
         <v>23</v>
@@ -7867,7 +7879,7 @@
     </row>
     <row r="260" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F260" s="25" t="s">
         <v>23</v>
@@ -7879,13 +7891,13 @@
     </row>
     <row r="261" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="25" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F261" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I261" s="25" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P261" s="25" t="s">
         <v>41</v>
@@ -7894,7 +7906,7 @@
     <row r="262" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="26"/>
       <c r="B262" s="25" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F262" s="25" t="s">
         <v>23</v>
@@ -7906,7 +7918,7 @@
     </row>
     <row r="263" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F263" s="25" t="s">
         <v>23</v>
@@ -7917,7 +7929,7 @@
     </row>
     <row r="264" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="25" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F264" s="25" t="s">
         <v>23</v>
@@ -7928,7 +7940,7 @@
     </row>
     <row r="265" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F265" s="25" t="s">
         <v>23</v>
@@ -7939,13 +7951,13 @@
     </row>
     <row r="266" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C266" s="25" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F266" s="25" t="s">
         <v>23</v>
@@ -7956,7 +7968,7 @@
     </row>
     <row r="267" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="25" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F267" s="25" t="s">
         <v>23</v>
@@ -7968,7 +7980,7 @@
     </row>
     <row r="268" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="25" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F268" s="25" t="s">
         <v>23</v>
@@ -7980,7 +7992,7 @@
     </row>
     <row r="269" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="25" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F269" s="25" t="s">
         <v>23</v>
@@ -7991,7 +8003,7 @@
     </row>
     <row r="270" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="25" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F270" s="25" t="s">
         <v>23</v>
@@ -8003,7 +8015,7 @@
     </row>
     <row r="271" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="25" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F271" s="25" t="s">
         <v>23</v>
@@ -8014,7 +8026,7 @@
     </row>
     <row r="272" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="25" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F272" s="25" t="s">
         <v>23</v>
@@ -8025,7 +8037,7 @@
     </row>
     <row r="273" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="25" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F273" s="25" t="s">
         <v>23</v>
@@ -8036,7 +8048,7 @@
     </row>
     <row r="274" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="25" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F274" s="25" t="s">
         <v>23</v>
@@ -8047,7 +8059,7 @@
     </row>
     <row r="275" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="25" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F275" s="25" t="s">
         <v>23</v>
@@ -8058,7 +8070,7 @@
     </row>
     <row r="276" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="25" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F276" s="25" t="s">
         <v>23</v>
@@ -8070,7 +8082,7 @@
     <row r="277" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="26"/>
       <c r="B277" s="25" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F277" s="25" t="s">
         <v>23</v>
@@ -8081,8 +8093,11 @@
       <c r="R277" s="11"/>
     </row>
     <row r="278" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="25" t="s">
+        <v>829</v>
+      </c>
       <c r="B278" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F278" s="25" t="s">
         <v>23</v>
@@ -8094,7 +8109,7 @@
     <row r="279" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="26"/>
       <c r="B279" s="25" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F279" s="25" t="s">
         <v>23</v>
@@ -8106,7 +8121,7 @@
     </row>
     <row r="280" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="25" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F280" s="25" t="s">
         <v>23</v>
@@ -8117,7 +8132,7 @@
     </row>
     <row r="281" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="25" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F281" s="25" t="s">
         <v>23</v>
@@ -8128,7 +8143,7 @@
     </row>
     <row r="282" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="25" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F282" s="25" t="s">
         <v>23</v>
@@ -8139,7 +8154,7 @@
     </row>
     <row r="283" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="25" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F283" s="25" t="s">
         <v>23</v>
@@ -8150,7 +8165,7 @@
     </row>
     <row r="284" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="25" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F284" s="25" t="s">
         <v>23</v>
@@ -8161,7 +8176,7 @@
     </row>
     <row r="285" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="25" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F285" s="25" t="s">
         <v>23</v>
@@ -8172,7 +8187,7 @@
     </row>
     <row r="286" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="25" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F286" s="25" t="s">
         <v>23</v>
@@ -8183,7 +8198,7 @@
     </row>
     <row r="287" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="25" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F287" s="25" t="s">
         <v>23</v>
@@ -8194,7 +8209,7 @@
     </row>
     <row r="288" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="25" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F288" s="25" t="s">
         <v>23</v>
@@ -8206,7 +8221,7 @@
     </row>
     <row r="289" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="25" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F289" s="25" t="s">
         <v>23</v>
@@ -8217,7 +8232,7 @@
     </row>
     <row r="290" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="25" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F290" s="25" t="s">
         <v>23</v>
@@ -8228,7 +8243,7 @@
     </row>
     <row r="291" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="25" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F291" s="25" t="s">
         <v>23</v>
@@ -8240,7 +8255,7 @@
     </row>
     <row r="292" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="25" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F292" s="25" t="s">
         <v>23</v>
@@ -8251,7 +8266,7 @@
     </row>
     <row r="293" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F293" s="25" t="s">
         <v>23</v>
@@ -8262,7 +8277,7 @@
     </row>
     <row r="294" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="25" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F294" s="25" t="s">
         <v>23</v>
@@ -8273,7 +8288,7 @@
     </row>
     <row r="295" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="25" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F295" s="25" t="s">
         <v>23</v>
@@ -8284,7 +8299,7 @@
     </row>
     <row r="296" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="25" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F296" s="25" t="s">
         <v>23</v>
@@ -8295,7 +8310,7 @@
     </row>
     <row r="297" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="25" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F297" s="25" t="s">
         <v>23</v>
@@ -8306,7 +8321,7 @@
     </row>
     <row r="298" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="25" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F298" s="25" t="s">
         <v>23</v>
@@ -8318,7 +8333,7 @@
     <row r="299" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="26"/>
       <c r="B299" s="25" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F299" s="25" t="s">
         <v>23</v>
@@ -8330,7 +8345,7 @@
     </row>
     <row r="300" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="25" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F300" s="25" t="s">
         <v>23</v>
@@ -8341,7 +8356,7 @@
     </row>
     <row r="301" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="25" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F301" s="25" t="s">
         <v>23</v>
@@ -8352,7 +8367,7 @@
     </row>
     <row r="302" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="25" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F302" s="25" t="s">
         <v>23</v>
@@ -8364,7 +8379,7 @@
     </row>
     <row r="303" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="25" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F303" s="25" t="s">
         <v>23</v>
@@ -8376,7 +8391,7 @@
     </row>
     <row r="304" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="25" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F304" s="25" t="s">
         <v>23</v>
@@ -8387,7 +8402,7 @@
     </row>
     <row r="305" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="25" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F305" s="25" t="s">
         <v>23</v>
@@ -8398,7 +8413,7 @@
     </row>
     <row r="306" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="25" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F306" s="25" t="s">
         <v>23</v>
@@ -8409,7 +8424,7 @@
     </row>
     <row r="307" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="25" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F307" s="25" t="s">
         <v>23</v>
@@ -8420,7 +8435,7 @@
     </row>
     <row r="308" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F308" s="25" t="s">
         <v>23</v>
@@ -8433,7 +8448,7 @@
     <row r="309" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="26"/>
       <c r="B309" s="25" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F309" s="25" t="s">
         <v>23</v>
@@ -8446,7 +8461,7 @@
     <row r="310" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="26"/>
       <c r="B310" s="25" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F310" s="25" t="s">
         <v>23</v>
@@ -8458,7 +8473,7 @@
     </row>
     <row r="311" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="25" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F311" s="25" t="s">
         <v>23</v>
@@ -8469,7 +8484,7 @@
     </row>
     <row r="312" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="25" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F312" s="25" t="s">
         <v>23</v>
@@ -8480,7 +8495,7 @@
     </row>
     <row r="313" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F313" s="25" t="s">
         <v>23</v>
@@ -8491,7 +8506,7 @@
     </row>
     <row r="314" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="25" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F314" s="25" t="s">
         <v>23</v>
@@ -8503,7 +8518,7 @@
     <row r="315" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="26"/>
       <c r="B315" s="25" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F315" s="25" t="s">
         <v>23</v>
@@ -8516,7 +8531,7 @@
     </row>
     <row r="316" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="25" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F316" s="25" t="s">
         <v>23</v>
@@ -8528,7 +8543,7 @@
     </row>
     <row r="317" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="25" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F317" s="25" t="s">
         <v>23</v>
@@ -8539,7 +8554,7 @@
     </row>
     <row r="318" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="25" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F318" s="25" t="s">
         <v>23</v>
@@ -8550,7 +8565,7 @@
     </row>
     <row r="319" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="25" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F319" s="25" t="s">
         <v>23</v>
@@ -8561,7 +8576,7 @@
     </row>
     <row r="320" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="25" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F320" s="25" t="s">
         <v>23</v>
@@ -8572,7 +8587,7 @@
     </row>
     <row r="321" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F321" s="25" t="s">
         <v>23</v>
@@ -8583,7 +8598,7 @@
     </row>
     <row r="322" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="25" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F322" s="25" t="s">
         <v>23</v>
@@ -8595,7 +8610,7 @@
     <row r="323" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="26"/>
       <c r="B323" s="25" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F323" s="25" t="s">
         <v>23</v>
@@ -8607,7 +8622,7 @@
     </row>
     <row r="324" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="25" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F324" s="25" t="s">
         <v>23</v>
@@ -8619,7 +8634,7 @@
     </row>
     <row r="325" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="25" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F325" s="25" t="s">
         <v>23</v>
@@ -8630,7 +8645,7 @@
     </row>
     <row r="326" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C326" s="10"/>
       <c r="D326" s="10"/>
@@ -8651,7 +8666,7 @@
     </row>
     <row r="327" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="25" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F327" s="25" t="s">
         <v>23</v>
@@ -8662,7 +8677,7 @@
     </row>
     <row r="328" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="25" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F328" s="25" t="s">
         <v>23</v>
@@ -8673,7 +8688,7 @@
     </row>
     <row r="329" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="25" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F329" s="25" t="s">
         <v>23</v>
@@ -8684,7 +8699,7 @@
     </row>
     <row r="330" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="25" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F330" s="25" t="s">
         <v>23</v>
@@ -8695,7 +8710,7 @@
     </row>
     <row r="331" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F331" s="25" t="s">
         <v>23</v>
@@ -8707,7 +8722,7 @@
     </row>
     <row r="332" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="25" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F332" s="25" t="s">
         <v>23</v>
@@ -8719,10 +8734,10 @@
     <row r="333" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="26"/>
       <c r="B333" s="25" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D333" s="25" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F333" s="25" t="s">
         <v>23</v>
@@ -8734,7 +8749,7 @@
     </row>
     <row r="334" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F334" s="25" t="s">
         <v>23</v>
@@ -8746,7 +8761,7 @@
     </row>
     <row r="335" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="25" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F335" s="25" t="s">
         <v>23</v>
@@ -8757,7 +8772,7 @@
     </row>
     <row r="336" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="25" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F336" s="25" t="s">
         <v>23</v>
@@ -8768,13 +8783,13 @@
     </row>
     <row r="337" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="25" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F337" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I337" s="25" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P337" s="25" t="s">
         <v>41</v>
@@ -8782,7 +8797,7 @@
     </row>
     <row r="338" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="25" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F338" s="25" t="s">
         <v>23</v>
@@ -8793,7 +8808,7 @@
     </row>
     <row r="339" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="25" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F339" s="25" t="s">
         <v>23</v>
@@ -8805,7 +8820,7 @@
     <row r="340" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="26"/>
       <c r="B340" s="25" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F340" s="25" t="s">
         <v>23</v>
@@ -8817,7 +8832,7 @@
     </row>
     <row r="341" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="25" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F341" s="25" t="s">
         <v>23</v>
@@ -8829,7 +8844,7 @@
     <row r="342" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="10"/>
       <c r="B342" s="25" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F342" s="25" t="s">
         <v>23</v>
@@ -8841,7 +8856,7 @@
     </row>
     <row r="343" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="25" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F343" s="25" t="s">
         <v>23</v>
@@ -8852,7 +8867,7 @@
     </row>
     <row r="344" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="25" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F344" s="25" t="s">
         <v>23</v>
@@ -8863,7 +8878,7 @@
     </row>
     <row r="345" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="25" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F345" s="25" t="s">
         <v>23</v>
@@ -8874,7 +8889,7 @@
     </row>
     <row r="346" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="25" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F346" s="25" t="s">
         <v>23</v>
@@ -8885,7 +8900,7 @@
     </row>
     <row r="347" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="25" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F347" s="25" t="s">
         <v>23</v>
@@ -8896,7 +8911,7 @@
     </row>
     <row r="348" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="25" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F348" s="25" t="s">
         <v>23</v>
@@ -8907,7 +8922,7 @@
     </row>
     <row r="349" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="25" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F349" s="25" t="s">
         <v>23</v>
@@ -8919,7 +8934,7 @@
     </row>
     <row r="350" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="25" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F350" s="25" t="s">
         <v>23</v>
@@ -8930,7 +8945,7 @@
     </row>
     <row r="351" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="25" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F351" s="25" t="s">
         <v>23</v>
@@ -8941,7 +8956,7 @@
     </row>
     <row r="352" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="25" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F352" s="25" t="s">
         <v>23</v>
@@ -8952,7 +8967,7 @@
     </row>
     <row r="353" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F353" s="25" t="s">
         <v>23</v>
@@ -8963,7 +8978,7 @@
     </row>
     <row r="354" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="25" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F354" s="25" t="s">
         <v>23</v>
@@ -8974,7 +8989,7 @@
     </row>
     <row r="355" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="25" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F355" s="25" t="s">
         <v>23</v>
@@ -8985,7 +9000,7 @@
     </row>
     <row r="356" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="25" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F356" s="25" t="s">
         <v>23</v>
@@ -8997,7 +9012,7 @@
     <row r="357" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="26"/>
       <c r="B357" s="25" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F357" s="25" t="s">
         <v>23</v>
@@ -9009,7 +9024,7 @@
     </row>
     <row r="358" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="25" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F358" s="25" t="s">
         <v>23</v>
@@ -9021,7 +9036,7 @@
     </row>
     <row r="359" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="25" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F359" s="25" t="s">
         <v>23</v>
@@ -9032,7 +9047,7 @@
     </row>
     <row r="360" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="25" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F360" s="25" t="s">
         <v>23</v>
@@ -9043,7 +9058,7 @@
     </row>
     <row r="361" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="25" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F361" s="25" t="s">
         <v>23</v>
@@ -9054,7 +9069,7 @@
     </row>
     <row r="362" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="25" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F362" s="25" t="s">
         <v>23</v>
@@ -9065,7 +9080,7 @@
     </row>
     <row r="363" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F363" s="25" t="s">
         <v>23</v>
@@ -9076,7 +9091,7 @@
     </row>
     <row r="364" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="25" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F364" s="25" t="s">
         <v>23</v>
@@ -9087,7 +9102,7 @@
     </row>
     <row r="365" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="25" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F365" s="25" t="s">
         <v>23</v>
@@ -9099,7 +9114,7 @@
     <row r="366" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="26"/>
       <c r="B366" s="25" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F366" s="25" t="s">
         <v>23</v>
@@ -9111,7 +9126,7 @@
     </row>
     <row r="367" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="25" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F367" s="25" t="s">
         <v>23</v>
@@ -9122,7 +9137,7 @@
     </row>
     <row r="368" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="25" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F368" s="25" t="s">
         <v>23</v>
@@ -9133,13 +9148,13 @@
     </row>
     <row r="369" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="25" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F369" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I369" s="25" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P369" s="25" t="s">
         <v>41</v>
@@ -9147,7 +9162,7 @@
     </row>
     <row r="370" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="25" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F370" s="25" t="s">
         <v>23</v>
@@ -9158,13 +9173,13 @@
     </row>
     <row r="371" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="25" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F371" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I371" s="25" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P371" s="25" t="s">
         <v>41</v>
@@ -9172,7 +9187,7 @@
     </row>
     <row r="372" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="25" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F372" s="25" t="s">
         <v>23</v>
@@ -9183,7 +9198,7 @@
     </row>
     <row r="373" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="25" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F373" s="25" t="s">
         <v>23</v>
@@ -9195,7 +9210,7 @@
     </row>
     <row r="374" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="25" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F374" s="25" t="s">
         <v>23</v>
@@ -9206,7 +9221,7 @@
     </row>
     <row r="375" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="25" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F375" s="25" t="s">
         <v>23</v>
@@ -9217,7 +9232,7 @@
     </row>
     <row r="376" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="25" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F376" s="25" t="s">
         <v>23</v>
@@ -9228,7 +9243,7 @@
     </row>
     <row r="377" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="25" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F377" s="25" t="s">
         <v>23</v>
@@ -9239,7 +9254,7 @@
     </row>
     <row r="378" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F378" s="25" t="s">
         <v>23</v>
@@ -9250,7 +9265,7 @@
     </row>
     <row r="379" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F379" s="25" t="s">
         <v>23</v>
@@ -9261,7 +9276,7 @@
     </row>
     <row r="380" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="25" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F380" s="25" t="s">
         <v>23</v>
@@ -9273,7 +9288,7 @@
     <row r="381" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="26"/>
       <c r="B381" s="25" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F381" s="25" t="s">
         <v>23</v>
@@ -9285,16 +9300,16 @@
     </row>
     <row r="382" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="25" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B382" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>538</v>
+        <v>823</v>
       </c>
       <c r="E382" s="10" t="s">
         <v>22</v>
@@ -9303,7 +9318,7 @@
         <v>23</v>
       </c>
       <c r="I382" s="25" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="P382" s="25" t="s">
         <v>41</v>
@@ -9311,10 +9326,10 @@
     </row>
     <row r="383" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="10" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D383" s="10"/>
       <c r="E383" s="10"/>
@@ -9335,7 +9350,7 @@
     </row>
     <row r="384" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="25" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F384" s="25" t="s">
         <v>23</v>
@@ -9346,7 +9361,7 @@
     </row>
     <row r="385" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="25" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F385" s="25" t="s">
         <v>23</v>
@@ -9357,7 +9372,7 @@
     </row>
     <row r="386" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="25" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F386" s="25" t="s">
         <v>23</v>
@@ -9368,7 +9383,7 @@
     </row>
     <row r="387" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="25" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F387" s="25" t="s">
         <v>23</v>
@@ -9380,7 +9395,7 @@
     </row>
     <row r="388" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="25" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F388" s="25" t="s">
         <v>23</v>
@@ -9392,7 +9407,7 @@
     </row>
     <row r="389" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="25" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F389" s="25" t="s">
         <v>23</v>
@@ -9404,7 +9419,7 @@
     </row>
     <row r="390" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="25" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F390" s="25" t="s">
         <v>23</v>
@@ -9416,7 +9431,7 @@
     </row>
     <row r="391" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="25" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F391" s="25" t="s">
         <v>23</v>
@@ -9428,7 +9443,7 @@
     </row>
     <row r="392" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="25" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F392" s="25" t="s">
         <v>23</v>
@@ -9440,7 +9455,7 @@
     <row r="393" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="26"/>
       <c r="B393" s="25" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F393" s="25" t="s">
         <v>23</v>
@@ -9453,7 +9468,7 @@
     <row r="394" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="26"/>
       <c r="B394" s="25" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F394" s="25" t="s">
         <v>23</v>
@@ -9466,7 +9481,7 @@
     <row r="395" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="26"/>
       <c r="B395" s="25" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F395" s="25" t="s">
         <v>23</v>
@@ -9479,7 +9494,7 @@
     <row r="396" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="26"/>
       <c r="B396" s="25" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F396" s="25" t="s">
         <v>23</v>
@@ -9492,7 +9507,7 @@
     <row r="397" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="10"/>
       <c r="B397" s="25" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F397" s="25" t="s">
         <v>23</v>
@@ -9505,7 +9520,7 @@
     </row>
     <row r="398" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="25" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F398" s="25" t="s">
         <v>23</v>
@@ -9517,7 +9532,7 @@
     </row>
     <row r="399" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="25" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F399" s="25" t="s">
         <v>23</v>
@@ -9529,7 +9544,7 @@
     </row>
     <row r="400" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="25" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F400" s="25" t="s">
         <v>23</v>
@@ -9540,7 +9555,7 @@
     </row>
     <row r="401" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="25" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F401" s="25" t="s">
         <v>23</v>
@@ -9551,7 +9566,7 @@
     </row>
     <row r="402" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="25" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F402" s="25" t="s">
         <v>23</v>
@@ -9562,7 +9577,7 @@
     </row>
     <row r="403" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="25" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F403" s="25" t="s">
         <v>23</v>
@@ -9573,7 +9588,7 @@
     </row>
     <row r="404" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="25" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F404" s="25" t="s">
         <v>23</v>
@@ -9584,7 +9599,7 @@
     </row>
     <row r="405" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="25" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F405" s="25" t="s">
         <v>23</v>
@@ -9596,7 +9611,7 @@
     <row r="406" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="26"/>
       <c r="B406" s="25" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F406" s="25" t="s">
         <v>23</v>
@@ -9609,7 +9624,7 @@
     <row r="407" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="26"/>
       <c r="B407" s="25" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F407" s="25" t="s">
         <v>23</v>
@@ -9621,7 +9636,7 @@
     </row>
     <row r="408" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="25" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F408" s="25" t="s">
         <v>23</v>
@@ -9632,7 +9647,7 @@
     </row>
     <row r="409" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="25" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F409" s="25" t="s">
         <v>23</v>
@@ -9643,7 +9658,7 @@
     </row>
     <row r="410" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="25" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F410" s="25" t="s">
         <v>23</v>
@@ -9654,7 +9669,7 @@
     </row>
     <row r="411" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="25" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F411" s="25" t="s">
         <v>23</v>
@@ -9665,7 +9680,7 @@
     </row>
     <row r="412" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="25" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F412" s="25" t="s">
         <v>23</v>
@@ -9676,7 +9691,7 @@
     </row>
     <row r="413" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="25" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F413" s="25" t="s">
         <v>23</v>
@@ -9688,7 +9703,7 @@
     </row>
     <row r="414" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="25" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F414" s="25" t="s">
         <v>23</v>
@@ -9699,7 +9714,7 @@
     </row>
     <row r="415" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="25" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F415" s="25" t="s">
         <v>23</v>
@@ -9710,7 +9725,7 @@
     </row>
     <row r="416" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="25" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F416" s="25" t="s">
         <v>23</v>
@@ -9721,7 +9736,7 @@
     </row>
     <row r="417" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="25" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F417" s="25" t="s">
         <v>23</v>
@@ -9732,7 +9747,7 @@
     </row>
     <row r="418" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="25" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F418" s="25" t="s">
         <v>23</v>
@@ -9744,7 +9759,7 @@
     <row r="419" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="26"/>
       <c r="B419" s="25" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F419" s="25" t="s">
         <v>23</v>
@@ -9756,7 +9771,7 @@
     </row>
     <row r="420" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="25" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F420" s="25" t="s">
         <v>23</v>
@@ -9767,7 +9782,7 @@
     </row>
     <row r="421" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="25" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F421" s="25" t="s">
         <v>23</v>
@@ -9778,25 +9793,25 @@
     </row>
     <row r="422" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="25" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C422" s="25" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E422" s="25" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F422" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G422" s="25" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="Q422" s="26"/>
     </row>
     <row r="423" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="25" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F423" s="25" t="s">
         <v>23</v>
@@ -9807,7 +9822,7 @@
     </row>
     <row r="424" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="25" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F424" s="25" t="s">
         <v>23</v>
@@ -9818,7 +9833,7 @@
     </row>
     <row r="425" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="25" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F425" s="25" t="s">
         <v>23</v>
@@ -9830,7 +9845,7 @@
     </row>
     <row r="426" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="25" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F426" s="25" t="s">
         <v>23</v>
@@ -9841,10 +9856,10 @@
     </row>
     <row r="427" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="25" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C427" s="25" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F427" s="25" t="s">
         <v>23</v>
@@ -9855,7 +9870,7 @@
     </row>
     <row r="428" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="25" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F428" s="25" t="s">
         <v>23</v>
@@ -9866,7 +9881,7 @@
     </row>
     <row r="429" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="25" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F429" s="25" t="s">
         <v>23</v>
@@ -9877,7 +9892,7 @@
     </row>
     <row r="430" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="25" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F430" s="25" t="s">
         <v>23</v>
@@ -9889,7 +9904,7 @@
     <row r="431" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="26"/>
       <c r="B431" s="25" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F431" s="25" t="s">
         <v>23</v>
@@ -9901,7 +9916,7 @@
     </row>
     <row r="432" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="25" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F432" s="25" t="s">
         <v>23</v>
@@ -9912,16 +9927,16 @@
     </row>
     <row r="433" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D433" s="10" t="s">
-        <v>598</v>
+        <v>822</v>
       </c>
       <c r="E433" s="10" t="s">
         <v>33</v>
@@ -9943,7 +9958,7 @@
     <row r="434" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="26"/>
       <c r="B434" s="25" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F434" s="25" t="s">
         <v>23</v>
@@ -9955,7 +9970,7 @@
     </row>
     <row r="435" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="25" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F435" s="25" t="s">
         <v>23</v>
@@ -9966,7 +9981,7 @@
     </row>
     <row r="436" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="25" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F436" s="25" t="s">
         <v>23</v>
@@ -9977,7 +9992,7 @@
     </row>
     <row r="437" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="25" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F437" s="25" t="s">
         <v>23</v>
@@ -9988,7 +10003,7 @@
     </row>
     <row r="438" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="25" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F438" s="25" t="s">
         <v>23</v>
@@ -9999,7 +10014,7 @@
     </row>
     <row r="439" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="25" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F439" s="25" t="s">
         <v>23</v>
@@ -10010,7 +10025,7 @@
     </row>
     <row r="440" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="25" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F440" s="25" t="s">
         <v>23</v>
@@ -10021,13 +10036,13 @@
     </row>
     <row r="441" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="25" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F441" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I441" s="25" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="P441" s="25" t="s">
         <v>41</v>
@@ -10035,7 +10050,7 @@
     </row>
     <row r="442" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="25" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F442" s="25" t="s">
         <v>23</v>
@@ -10047,7 +10062,7 @@
     </row>
     <row r="443" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="25" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F443" s="25" t="s">
         <v>23</v>
@@ -10058,7 +10073,7 @@
     </row>
     <row r="444" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B444" s="25" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F444" s="25" t="s">
         <v>23</v>
@@ -10069,7 +10084,7 @@
     </row>
     <row r="445" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="25" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F445" s="25" t="s">
         <v>23</v>
@@ -10080,7 +10095,7 @@
     </row>
     <row r="446" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="25" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F446" s="25" t="s">
         <v>23</v>
@@ -10091,7 +10106,7 @@
     </row>
     <row r="447" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="25" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F447" s="25" t="s">
         <v>23</v>
@@ -10102,7 +10117,7 @@
     </row>
     <row r="448" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F448" s="25" t="s">
         <v>23</v>
@@ -10113,7 +10128,7 @@
     </row>
     <row r="449" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="25" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F449" s="25" t="s">
         <v>23</v>
@@ -10125,7 +10140,7 @@
     <row r="450" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="10"/>
       <c r="B450" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F450" s="25" t="s">
         <v>23</v>
@@ -10138,7 +10153,7 @@
     </row>
     <row r="451" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="25" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F451" s="25" t="s">
         <v>23</v>
@@ -10149,7 +10164,7 @@
     </row>
     <row r="452" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="25" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F452" s="25" t="s">
         <v>23</v>
@@ -10160,7 +10175,7 @@
     </row>
     <row r="453" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="25" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F453" s="25" t="s">
         <v>23</v>
@@ -10171,7 +10186,7 @@
     </row>
     <row r="454" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="25" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F454" s="25" t="s">
         <v>23</v>
@@ -10182,7 +10197,7 @@
     </row>
     <row r="455" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="25" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F455" s="25" t="s">
         <v>23</v>
@@ -10193,7 +10208,7 @@
     </row>
     <row r="456" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="25" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F456" s="25" t="s">
         <v>23</v>
@@ -10204,7 +10219,7 @@
     </row>
     <row r="457" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="25" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F457" s="25" t="s">
         <v>23</v>
@@ -10215,7 +10230,7 @@
     </row>
     <row r="458" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="25" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F458" s="25" t="s">
         <v>23</v>
@@ -10227,7 +10242,7 @@
     <row r="459" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="26"/>
       <c r="B459" s="25" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F459" s="25" t="s">
         <v>23</v>
@@ -10239,7 +10254,7 @@
     </row>
     <row r="460" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="25" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F460" s="25" t="s">
         <v>23</v>
@@ -10250,7 +10265,7 @@
     </row>
     <row r="461" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="25" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F461" s="25" t="s">
         <v>23</v>
@@ -10261,7 +10276,7 @@
     </row>
     <row r="462" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="25" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F462" s="25" t="s">
         <v>23</v>
@@ -10272,7 +10287,7 @@
     </row>
     <row r="463" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="25" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F463" s="25" t="s">
         <v>23</v>
@@ -10283,7 +10298,7 @@
     </row>
     <row r="464" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="25" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F464" s="25" t="s">
         <v>23</v>
@@ -10294,7 +10309,7 @@
     </row>
     <row r="465" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="25" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F465" s="25" t="s">
         <v>23</v>
@@ -10305,7 +10320,7 @@
     </row>
     <row r="466" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="25" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F466" s="25" t="s">
         <v>23</v>
@@ -10316,7 +10331,7 @@
     </row>
     <row r="467" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="25" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F467" s="25" t="s">
         <v>23</v>
@@ -10327,7 +10342,7 @@
     </row>
     <row r="468" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="25" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F468" s="25" t="s">
         <v>23</v>
@@ -10338,7 +10353,7 @@
     </row>
     <row r="469" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="25" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="F469" s="25" t="s">
         <v>23</v>
@@ -10349,7 +10364,7 @@
     </row>
     <row r="470" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="25" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F470" s="25" t="s">
         <v>23</v>
@@ -10360,7 +10375,7 @@
     </row>
     <row r="471" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="25" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F471" s="25" t="s">
         <v>23</v>
@@ -10371,7 +10386,7 @@
     </row>
     <row r="472" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="25" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F472" s="25" t="s">
         <v>23</v>
@@ -10382,7 +10397,7 @@
     </row>
     <row r="473" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="25" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F473" s="25" t="s">
         <v>23</v>
@@ -10393,7 +10408,7 @@
     </row>
     <row r="474" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="25" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F474" s="25" t="s">
         <v>23</v>
@@ -10405,7 +10420,7 @@
     </row>
     <row r="475" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="25" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F475" s="25" t="s">
         <v>23</v>
@@ -10417,7 +10432,7 @@
     </row>
     <row r="476" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="25" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F476" s="25" t="s">
         <v>23</v>
@@ -10428,7 +10443,7 @@
     </row>
     <row r="477" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="25" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F477" s="25" t="s">
         <v>23</v>
@@ -10439,7 +10454,7 @@
     </row>
     <row r="478" spans="2:17" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="25" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F478" s="25" t="s">
         <v>23</v>
@@ -10450,7 +10465,7 @@
     </row>
     <row r="479" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="25" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F479" s="25" t="s">
         <v>23</v>
@@ -10461,7 +10476,7 @@
     </row>
     <row r="480" spans="2:17" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="25" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F480" s="25" t="s">
         <v>23</v>
@@ -10472,7 +10487,7 @@
     </row>
     <row r="481" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="25" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F481" s="25" t="s">
         <v>23</v>
@@ -10483,7 +10498,7 @@
     </row>
     <row r="482" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="25" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F482" s="25" t="s">
         <v>23</v>
@@ -10495,7 +10510,7 @@
     <row r="483" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="26"/>
       <c r="B483" s="25" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F483" s="25" t="s">
         <v>23</v>
@@ -10508,7 +10523,7 @@
     <row r="484" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="26"/>
       <c r="B484" s="25" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F484" s="25" t="s">
         <v>23</v>
@@ -10520,7 +10535,7 @@
     </row>
     <row r="485" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="25" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F485" s="25" t="s">
         <v>23</v>
@@ -10531,7 +10546,7 @@
     </row>
     <row r="486" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="25" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F486" s="25" t="s">
         <v>23</v>
@@ -10542,7 +10557,7 @@
     </row>
     <row r="487" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="25" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F487" s="25" t="s">
         <v>23</v>
@@ -10553,7 +10568,7 @@
     </row>
     <row r="488" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="25" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F488" s="25" t="s">
         <v>23</v>
@@ -10564,7 +10579,7 @@
     </row>
     <row r="489" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="25" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F489" s="25" t="s">
         <v>23</v>
@@ -10575,7 +10590,7 @@
     </row>
     <row r="490" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="25" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F490" s="25" t="s">
         <v>23</v>
@@ -10586,7 +10601,7 @@
     </row>
     <row r="491" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="25" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F491" s="25" t="s">
         <v>23</v>
@@ -10597,7 +10612,7 @@
     </row>
     <row r="492" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="25" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F492" s="25" t="s">
         <v>23</v>
@@ -10608,7 +10623,7 @@
     </row>
     <row r="493" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B493" s="25" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F493" s="25" t="s">
         <v>23</v>
@@ -10619,7 +10634,7 @@
     </row>
     <row r="494" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B494" s="25" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F494" s="25" t="s">
         <v>23</v>
@@ -10630,7 +10645,7 @@
     </row>
     <row r="495" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="25" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F495" s="25" t="s">
         <v>23</v>
@@ -10641,7 +10656,7 @@
     </row>
     <row r="496" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B496" s="25" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F496" s="25" t="s">
         <v>23</v>
@@ -10653,7 +10668,7 @@
     </row>
     <row r="497" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="25" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="F497" s="25" t="s">
         <v>23</v>
@@ -10664,7 +10679,7 @@
     </row>
     <row r="498" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="25" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F498" s="25" t="s">
         <v>23</v>
@@ -10675,7 +10690,7 @@
     </row>
     <row r="499" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B499" s="25" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F499" s="25" t="s">
         <v>23</v>
@@ -10686,7 +10701,7 @@
     </row>
     <row r="500" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B500" s="25" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F500" s="25" t="s">
         <v>23</v>
@@ -10697,13 +10712,13 @@
     </row>
     <row r="501" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B501" s="25" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F501" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I501" s="25" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="P501" s="25" t="s">
         <v>41</v>
@@ -10711,7 +10726,7 @@
     </row>
     <row r="502" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B502" s="25" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F502" s="25" t="s">
         <v>23</v>
@@ -10722,7 +10737,7 @@
     </row>
     <row r="503" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B503" s="25" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F503" s="25" t="s">
         <v>23</v>
@@ -10734,7 +10749,7 @@
     <row r="504" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="26"/>
       <c r="B504" s="25" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="F504" s="25" t="s">
         <v>23</v>
@@ -10746,7 +10761,7 @@
     </row>
     <row r="505" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="25" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F505" s="25" t="s">
         <v>23</v>
@@ -10757,7 +10772,7 @@
     </row>
     <row r="506" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="25" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="F506" s="25" t="s">
         <v>23</v>
@@ -10768,7 +10783,7 @@
     </row>
     <row r="507" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="25" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F507" s="25" t="s">
         <v>23</v>
@@ -10779,13 +10794,13 @@
     </row>
     <row r="508" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B508" s="25" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C508" s="25" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D508" s="25" t="s">
         <v>124</v>
@@ -10800,7 +10815,7 @@
     </row>
     <row r="509" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="25" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F509" s="25" t="s">
         <v>23</v>
@@ -10811,7 +10826,7 @@
     </row>
     <row r="510" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="25" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F510" s="25" t="s">
         <v>23</v>
@@ -10822,7 +10837,7 @@
     </row>
     <row r="511" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="25" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F511" s="25" t="s">
         <v>23</v>
@@ -10833,7 +10848,7 @@
     </row>
     <row r="512" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="25" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F512" s="25" t="s">
         <v>23</v>
@@ -10844,7 +10859,7 @@
     </row>
     <row r="513" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="25" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F513" s="25" t="s">
         <v>23</v>
@@ -10855,7 +10870,7 @@
     </row>
     <row r="514" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B514" s="25" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F514" s="25" t="s">
         <v>23</v>
@@ -10866,7 +10881,7 @@
     </row>
     <row r="515" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="25" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F515" s="25" t="s">
         <v>23</v>
@@ -10877,7 +10892,7 @@
     </row>
     <row r="516" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B516" s="25" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F516" s="25" t="s">
         <v>23</v>
@@ -10889,7 +10904,7 @@
     <row r="517" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="26"/>
       <c r="B517" s="25" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F517" s="25" t="s">
         <v>23</v>
@@ -10901,7 +10916,7 @@
     </row>
     <row r="518" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="25" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F518" s="25" t="s">
         <v>23</v>
@@ -10912,25 +10927,25 @@
     </row>
     <row r="519" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B519" s="25" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C519" s="25" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D519" s="25" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E519" s="25" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F519" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I519" s="25" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="P519" s="25" t="s">
         <v>41</v>
@@ -10938,16 +10953,16 @@
     </row>
     <row r="520" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B520" s="25" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C520" s="25" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D520" s="25" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F520" s="25" t="s">
         <v>23</v>
@@ -10958,13 +10973,13 @@
     </row>
     <row r="521" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B521" s="25" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="F521" s="25" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="I521" s="25" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="P521" s="25" t="s">
         <v>41</v>
@@ -10973,10 +10988,10 @@
     </row>
     <row r="522" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B522" s="25" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F522" s="25" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="P522" s="25" t="s">
         <v>41</v>
@@ -10984,10 +10999,10 @@
     </row>
     <row r="523" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B523" s="25" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F523" s="25" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="P523" s="25" t="s">
         <v>41</v>
@@ -10996,31 +11011,31 @@
     </row>
     <row r="524" spans="1:19" s="21" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
+        <v>695</v>
+      </c>
+      <c r="B524" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C524" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="D524" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="E524" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F524" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="G524" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="H524" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="J524" s="21" t="s">
         <v>701</v>
-      </c>
-      <c r="B524" s="22" t="s">
-        <v>702</v>
-      </c>
-      <c r="C524" s="21" t="s">
-        <v>703</v>
-      </c>
-      <c r="D524" s="21" t="s">
-        <v>704</v>
-      </c>
-      <c r="E524" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="F524" s="21" t="s">
-        <v>697</v>
-      </c>
-      <c r="G524" s="24" t="s">
-        <v>705</v>
-      </c>
-      <c r="H524" s="21" t="s">
-        <v>706</v>
-      </c>
-      <c r="J524" s="21" t="s">
-        <v>707</v>
       </c>
       <c r="P524" s="21" t="s">
         <v>41</v>
@@ -11028,28 +11043,28 @@
     </row>
     <row r="525" spans="1:19" s="21" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B525" s="22" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C525" s="21" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D525" s="21" t="s">
-        <v>247</v>
+        <v>827</v>
       </c>
       <c r="E525" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F525" s="21" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="H525" s="21" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="J525" s="21" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="P525" s="21" t="s">
         <v>41</v>
@@ -11057,30 +11072,30 @@
     </row>
     <row r="526" spans="1:19" s="21" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B526" s="22" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C526" s="21" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D526" s="23" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E526" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F526" s="21" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="G526" s="23"/>
       <c r="H526" s="21" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="I526" s="23"/>
       <c r="J526" s="23" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="K526" s="23"/>
       <c r="L526" s="23"/>
@@ -11091,25 +11106,25 @@
     </row>
     <row r="527" spans="1:19" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B527" s="22" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C527" s="21" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D527" s="21" t="s">
-        <v>719</v>
+        <v>828</v>
       </c>
       <c r="E527" s="21" t="s">
         <v>33</v>
       </c>
       <c r="F527" s="21" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="J527" s="21" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="P527" s="21" t="s">
         <v>41</v>
@@ -11117,31 +11132,31 @@
     </row>
     <row r="528" spans="1:19" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B528" s="22" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C528" s="21" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="D528" s="21" t="s">
-        <v>247</v>
+        <v>827</v>
       </c>
       <c r="E528" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F528" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H528" s="21" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="J528" s="21" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="K528" s="21" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="P528" s="21" t="s">
         <v>41</v>
@@ -11149,22 +11164,22 @@
     </row>
     <row r="529" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="26" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B529" s="26" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C529" s="26" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="D529" s="26" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E529" s="26" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="F529" s="26" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="G529" s="26"/>
       <c r="H529" s="26"/>
@@ -11336,22 +11351,22 @@
     <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
     <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
+    <col min="5" max="7" width="9.1640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -11359,10 +11374,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11370,10 +11385,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -11381,13 +11396,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11395,10 +11410,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11406,13 +11421,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11420,10 +11435,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11431,10 +11446,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11442,10 +11457,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11453,10 +11468,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11464,10 +11479,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11475,10 +11490,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11486,10 +11501,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -11497,10 +11512,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11508,10 +11523,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11519,10 +11534,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11530,10 +11545,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11541,10 +11556,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11552,10 +11567,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -11584,8 +11599,8 @@
     <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="1"/>
+    <col min="13" max="15" width="9.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11599,16 +11614,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
@@ -11623,18 +11638,18 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -11642,13 +11657,13 @@
     </row>
     <row r="3" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -11656,16 +11671,16 @@
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -11673,10 +11688,10 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -11684,13 +11699,13 @@
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -11698,16 +11713,16 @@
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -11715,13 +11730,13 @@
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -11729,13 +11744,13 @@
     </row>
     <row r="9" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -11746,13 +11761,13 @@
     </row>
     <row r="10" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -11793,37 +11808,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>803</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11831,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -11842,16 +11857,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C3" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -11859,16 +11874,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C4" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -11876,16 +11891,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C5" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -11893,16 +11908,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C6" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -11910,16 +11925,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C7" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -11927,16 +11942,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C8" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -11944,16 +11959,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C9" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -11961,16 +11976,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C10" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -11978,16 +11993,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C11" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -11995,7 +12010,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12007,13 +12022,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="J12" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="K12" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -12021,7 +12036,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -12033,13 +12048,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J13" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K13" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -12047,7 +12062,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -12059,13 +12074,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J14" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K14" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -12073,7 +12088,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -12085,13 +12100,13 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J15" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K15" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -12099,7 +12114,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -12111,13 +12126,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J16" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K16" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -12125,7 +12140,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -12137,13 +12152,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J17" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K17" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -12151,7 +12166,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -12163,13 +12178,13 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J18" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K18" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -12177,7 +12192,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -12189,13 +12204,13 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J19" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K19" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -12203,7 +12218,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -12215,13 +12230,13 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J20" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K20" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -12229,7 +12244,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -12241,13 +12256,13 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="J21" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="K21" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -12255,7 +12270,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -12267,13 +12282,13 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="J22" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="K22" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -12281,7 +12296,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -12293,13 +12308,13 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J23" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K23" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -12307,7 +12322,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -12319,13 +12334,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J24" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K24" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -12333,7 +12348,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -12345,13 +12360,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J25" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K25" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -12359,7 +12374,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -12371,13 +12386,13 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J26" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K26" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -12385,7 +12400,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -12397,13 +12412,13 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J27" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K27" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -12411,7 +12426,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -12423,13 +12438,13 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J28" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K28" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -12437,7 +12452,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -12449,13 +12464,13 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J29" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K29" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -12463,7 +12478,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -12475,13 +12490,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="J30" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K30" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13112B9-56BF-AC48-A164-C71087B32BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0265493-6FCE-9A48-AFA1-E62C5958D8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10700" yWindow="-19320" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10700" yWindow="-19340" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="832">
   <si>
     <t>ID</t>
   </si>
@@ -2517,6 +2517,9 @@
   </si>
   <si>
     <t>model</t>
+  </si>
+  <si>
+    <t>research activity</t>
   </si>
 </sst>
 </file>
@@ -3065,10 +3068,10 @@
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C526" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4136,7 +4139,7 @@
         <v>95</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>23</v>
+        <v>831</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>22</v>
@@ -5576,7 +5579,7 @@
         <v>190</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>23</v>
+        <v>831</v>
       </c>
       <c r="E88" s="25" t="s">
         <v>22</v>
@@ -7266,7 +7269,7 @@
         <v>345</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>23</v>
+        <v>831</v>
       </c>
       <c r="E216" s="25" t="s">
         <v>22</v>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0265493-6FCE-9A48-AFA1-E62C5958D8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501BECE6-9CEE-DC4B-BC00-D39298FD3DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10700" yWindow="-19340" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,18 +1205,12 @@
     <t>Linkage disequilibrium</t>
   </si>
   <si>
-    <t>ADDICTO:0000169</t>
-  </si>
-  <si>
     <t>Liquid chromatography</t>
   </si>
   <si>
     <t>Column chromatography where the mobile phase is a liquid</t>
   </si>
   <si>
-    <t>Chromatography [AFP:0001321]</t>
-  </si>
-  <si>
     <t>ADDICTO:0000170</t>
   </si>
   <si>
@@ -2520,6 +2514,12 @@
   </si>
   <si>
     <t>research activity</t>
+  </si>
+  <si>
+    <t>CHMO:0001004</t>
+  </si>
+  <si>
+    <t>chromatography</t>
   </si>
 </sst>
 </file>
@@ -3068,10 +3068,10 @@
   <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C526" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C244" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D253" sqref="D253"/>
+      <selection pane="bottomRight" activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4139,7 +4139,7 @@
         <v>95</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>22</v>
@@ -4881,7 +4881,7 @@
         <v>130</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E63" s="26" t="s">
         <v>33</v>
@@ -4920,7 +4920,7 @@
         <v>135</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>22</v>
@@ -4996,7 +4996,7 @@
         <v>140</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E67" s="26"/>
       <c r="F67" s="26" t="s">
@@ -5030,7 +5030,7 @@
         <v>144</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="26" t="s">
@@ -5066,7 +5066,7 @@
         <v>149</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="26" t="s">
@@ -5390,7 +5390,7 @@
         <v>169</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E81" s="26" t="s">
         <v>165</v>
@@ -5505,7 +5505,7 @@
         <v>180</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E85" s="25" t="s">
         <v>33</v>
@@ -5555,7 +5555,7 @@
         <v>187</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E87" s="25" t="s">
         <v>33</v>
@@ -5579,7 +5579,7 @@
         <v>190</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E88" s="25" t="s">
         <v>22</v>
@@ -7269,7 +7269,7 @@
         <v>345</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E216" s="25" t="s">
         <v>22</v>
@@ -7755,16 +7755,16 @@
     </row>
     <row r="252" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="26" t="s">
+        <v>830</v>
+      </c>
+      <c r="B252" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="C252" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C252" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="D252" s="10" t="s">
-        <v>396</v>
+        <v>831</v>
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="10" t="s">
@@ -7784,16 +7784,16 @@
     </row>
     <row r="253" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B253" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E253" s="25" t="s">
         <v>46</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="254" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F254" s="25" t="s">
         <v>23</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="255" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F255" s="25" t="s">
         <v>23</v>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="256" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F256" s="25" t="s">
         <v>23</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="257" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F257" s="25" t="s">
         <v>23</v>
@@ -7859,7 +7859,7 @@
     <row r="258" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="26"/>
       <c r="B258" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F258" s="25" t="s">
         <v>23</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="259" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="25" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F259" s="25" t="s">
         <v>23</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="260" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F260" s="25" t="s">
         <v>23</v>
@@ -7894,13 +7894,13 @@
     </row>
     <row r="261" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F261" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I261" s="25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P261" s="25" t="s">
         <v>41</v>
@@ -7909,7 +7909,7 @@
     <row r="262" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="26"/>
       <c r="B262" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F262" s="25" t="s">
         <v>23</v>
@@ -7921,7 +7921,7 @@
     </row>
     <row r="263" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F263" s="25" t="s">
         <v>23</v>
@@ -7932,7 +7932,7 @@
     </row>
     <row r="264" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F264" s="25" t="s">
         <v>23</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="265" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F265" s="25" t="s">
         <v>23</v>
@@ -7954,13 +7954,13 @@
     </row>
     <row r="266" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="C266" s="25" t="s">
         <v>412</v>
-      </c>
-      <c r="B266" s="25" t="s">
-        <v>413</v>
-      </c>
-      <c r="C266" s="25" t="s">
-        <v>414</v>
       </c>
       <c r="F266" s="25" t="s">
         <v>23</v>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="267" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F267" s="25" t="s">
         <v>23</v>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="268" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F268" s="25" t="s">
         <v>23</v>
@@ -7995,7 +7995,7 @@
     </row>
     <row r="269" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F269" s="25" t="s">
         <v>23</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="270" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F270" s="25" t="s">
         <v>23</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="271" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F271" s="25" t="s">
         <v>23</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="272" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="25" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F272" s="25" t="s">
         <v>23</v>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="273" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F273" s="25" t="s">
         <v>23</v>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="274" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F274" s="25" t="s">
         <v>23</v>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="275" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F275" s="25" t="s">
         <v>23</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="276" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F276" s="25" t="s">
         <v>23</v>
@@ -8085,7 +8085,7 @@
     <row r="277" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="26"/>
       <c r="B277" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F277" s="25" t="s">
         <v>23</v>
@@ -8097,7 +8097,7 @@
     </row>
     <row r="278" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B278" s="25" t="s">
         <v>181</v>
@@ -8112,7 +8112,7 @@
     <row r="279" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="26"/>
       <c r="B279" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F279" s="25" t="s">
         <v>23</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="280" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F280" s="25" t="s">
         <v>23</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="281" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F281" s="25" t="s">
         <v>23</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="282" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F282" s="25" t="s">
         <v>23</v>
@@ -8157,7 +8157,7 @@
     </row>
     <row r="283" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F283" s="25" t="s">
         <v>23</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="284" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F284" s="25" t="s">
         <v>23</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="285" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F285" s="25" t="s">
         <v>23</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="286" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F286" s="25" t="s">
         <v>23</v>
@@ -8201,7 +8201,7 @@
     </row>
     <row r="287" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F287" s="25" t="s">
         <v>23</v>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="288" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F288" s="25" t="s">
         <v>23</v>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="289" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F289" s="25" t="s">
         <v>23</v>
@@ -8235,7 +8235,7 @@
     </row>
     <row r="290" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F290" s="25" t="s">
         <v>23</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="291" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F291" s="25" t="s">
         <v>23</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="292" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F292" s="25" t="s">
         <v>23</v>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="293" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F293" s="25" t="s">
         <v>23</v>
@@ -8280,7 +8280,7 @@
     </row>
     <row r="294" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F294" s="25" t="s">
         <v>23</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="295" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F295" s="25" t="s">
         <v>23</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="296" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F296" s="25" t="s">
         <v>23</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="297" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F297" s="25" t="s">
         <v>23</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="298" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F298" s="25" t="s">
         <v>23</v>
@@ -8336,7 +8336,7 @@
     <row r="299" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="26"/>
       <c r="B299" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F299" s="25" t="s">
         <v>23</v>
@@ -8348,7 +8348,7 @@
     </row>
     <row r="300" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F300" s="25" t="s">
         <v>23</v>
@@ -8359,7 +8359,7 @@
     </row>
     <row r="301" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F301" s="25" t="s">
         <v>23</v>
@@ -8370,7 +8370,7 @@
     </row>
     <row r="302" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F302" s="25" t="s">
         <v>23</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="303" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F303" s="25" t="s">
         <v>23</v>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="304" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F304" s="25" t="s">
         <v>23</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="305" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F305" s="25" t="s">
         <v>23</v>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="306" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F306" s="25" t="s">
         <v>23</v>
@@ -8427,7 +8427,7 @@
     </row>
     <row r="307" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F307" s="25" t="s">
         <v>23</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="308" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F308" s="25" t="s">
         <v>23</v>
@@ -8451,7 +8451,7 @@
     <row r="309" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="26"/>
       <c r="B309" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F309" s="25" t="s">
         <v>23</v>
@@ -8464,7 +8464,7 @@
     <row r="310" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="26"/>
       <c r="B310" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F310" s="25" t="s">
         <v>23</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="311" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F311" s="25" t="s">
         <v>23</v>
@@ -8487,7 +8487,7 @@
     </row>
     <row r="312" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F312" s="25" t="s">
         <v>23</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="313" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F313" s="25" t="s">
         <v>23</v>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="314" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F314" s="25" t="s">
         <v>23</v>
@@ -8521,7 +8521,7 @@
     <row r="315" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="26"/>
       <c r="B315" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F315" s="25" t="s">
         <v>23</v>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="316" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="25" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F316" s="25" t="s">
         <v>23</v>
@@ -8546,7 +8546,7 @@
     </row>
     <row r="317" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F317" s="25" t="s">
         <v>23</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="318" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F318" s="25" t="s">
         <v>23</v>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="319" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F319" s="25" t="s">
         <v>23</v>
@@ -8579,7 +8579,7 @@
     </row>
     <row r="320" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F320" s="25" t="s">
         <v>23</v>
@@ -8590,7 +8590,7 @@
     </row>
     <row r="321" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="25" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F321" s="25" t="s">
         <v>23</v>
@@ -8601,7 +8601,7 @@
     </row>
     <row r="322" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F322" s="25" t="s">
         <v>23</v>
@@ -8613,7 +8613,7 @@
     <row r="323" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="26"/>
       <c r="B323" s="25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F323" s="25" t="s">
         <v>23</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="324" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F324" s="25" t="s">
         <v>23</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="325" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F325" s="25" t="s">
         <v>23</v>
@@ -8648,7 +8648,7 @@
     </row>
     <row r="326" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C326" s="10"/>
       <c r="D326" s="10"/>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="327" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F327" s="25" t="s">
         <v>23</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="328" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="25" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F328" s="25" t="s">
         <v>23</v>
@@ -8691,7 +8691,7 @@
     </row>
     <row r="329" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F329" s="25" t="s">
         <v>23</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="330" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F330" s="25" t="s">
         <v>23</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="331" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F331" s="25" t="s">
         <v>23</v>
@@ -8725,7 +8725,7 @@
     </row>
     <row r="332" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F332" s="25" t="s">
         <v>23</v>
@@ -8737,10 +8737,10 @@
     <row r="333" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="26"/>
       <c r="B333" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D333" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F333" s="25" t="s">
         <v>23</v>
@@ -8752,7 +8752,7 @@
     </row>
     <row r="334" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F334" s="25" t="s">
         <v>23</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="335" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="25" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F335" s="25" t="s">
         <v>23</v>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="336" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F336" s="25" t="s">
         <v>23</v>
@@ -8786,13 +8786,13 @@
     </row>
     <row r="337" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="25" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F337" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I337" s="25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="P337" s="25" t="s">
         <v>41</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="338" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F338" s="25" t="s">
         <v>23</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="339" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F339" s="25" t="s">
         <v>23</v>
@@ -8823,7 +8823,7 @@
     <row r="340" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="26"/>
       <c r="B340" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F340" s="25" t="s">
         <v>23</v>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="341" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F341" s="25" t="s">
         <v>23</v>
@@ -8847,7 +8847,7 @@
     <row r="342" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="10"/>
       <c r="B342" s="25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F342" s="25" t="s">
         <v>23</v>
@@ -8859,7 +8859,7 @@
     </row>
     <row r="343" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F343" s="25" t="s">
         <v>23</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="344" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="25" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F344" s="25" t="s">
         <v>23</v>
@@ -8881,7 +8881,7 @@
     </row>
     <row r="345" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F345" s="25" t="s">
         <v>23</v>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="346" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F346" s="25" t="s">
         <v>23</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="347" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="25" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F347" s="25" t="s">
         <v>23</v>
@@ -8914,7 +8914,7 @@
     </row>
     <row r="348" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F348" s="25" t="s">
         <v>23</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="349" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F349" s="25" t="s">
         <v>23</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="350" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F350" s="25" t="s">
         <v>23</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="351" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F351" s="25" t="s">
         <v>23</v>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="352" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F352" s="25" t="s">
         <v>23</v>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="353" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="25" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F353" s="25" t="s">
         <v>23</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="354" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F354" s="25" t="s">
         <v>23</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="355" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F355" s="25" t="s">
         <v>23</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="356" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="25" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F356" s="25" t="s">
         <v>23</v>
@@ -9015,7 +9015,7 @@
     <row r="357" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="26"/>
       <c r="B357" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F357" s="25" t="s">
         <v>23</v>
@@ -9027,7 +9027,7 @@
     </row>
     <row r="358" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="25" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F358" s="25" t="s">
         <v>23</v>
@@ -9039,7 +9039,7 @@
     </row>
     <row r="359" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F359" s="25" t="s">
         <v>23</v>
@@ -9050,7 +9050,7 @@
     </row>
     <row r="360" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="25" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F360" s="25" t="s">
         <v>23</v>
@@ -9061,7 +9061,7 @@
     </row>
     <row r="361" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="25" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F361" s="25" t="s">
         <v>23</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="362" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F362" s="25" t="s">
         <v>23</v>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="363" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="25" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F363" s="25" t="s">
         <v>23</v>
@@ -9094,7 +9094,7 @@
     </row>
     <row r="364" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="25" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F364" s="25" t="s">
         <v>23</v>
@@ -9105,7 +9105,7 @@
     </row>
     <row r="365" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="25" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F365" s="25" t="s">
         <v>23</v>
@@ -9117,7 +9117,7 @@
     <row r="366" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="26"/>
       <c r="B366" s="25" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F366" s="25" t="s">
         <v>23</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="367" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F367" s="25" t="s">
         <v>23</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="368" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="25" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F368" s="25" t="s">
         <v>23</v>
@@ -9151,13 +9151,13 @@
     </row>
     <row r="369" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F369" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I369" s="25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P369" s="25" t="s">
         <v>41</v>
@@ -9165,7 +9165,7 @@
     </row>
     <row r="370" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F370" s="25" t="s">
         <v>23</v>
@@ -9176,13 +9176,13 @@
     </row>
     <row r="371" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="25" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F371" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I371" s="25" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="P371" s="25" t="s">
         <v>41</v>
@@ -9190,7 +9190,7 @@
     </row>
     <row r="372" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="25" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F372" s="25" t="s">
         <v>23</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="373" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F373" s="25" t="s">
         <v>23</v>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="374" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F374" s="25" t="s">
         <v>23</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="375" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="25" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F375" s="25" t="s">
         <v>23</v>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="376" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F376" s="25" t="s">
         <v>23</v>
@@ -9246,7 +9246,7 @@
     </row>
     <row r="377" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="25" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F377" s="25" t="s">
         <v>23</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="378" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F378" s="25" t="s">
         <v>23</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="379" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="25" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F379" s="25" t="s">
         <v>23</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="380" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F380" s="25" t="s">
         <v>23</v>
@@ -9291,7 +9291,7 @@
     <row r="381" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="26"/>
       <c r="B381" s="25" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F381" s="25" t="s">
         <v>23</v>
@@ -9303,16 +9303,16 @@
     </row>
     <row r="382" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="25" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B382" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E382" s="10" t="s">
         <v>22</v>
@@ -9321,7 +9321,7 @@
         <v>23</v>
       </c>
       <c r="I382" s="25" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="P382" s="25" t="s">
         <v>41</v>
@@ -9329,10 +9329,10 @@
     </row>
     <row r="383" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D383" s="10"/>
       <c r="E383" s="10"/>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="384" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F384" s="25" t="s">
         <v>23</v>
@@ -9364,7 +9364,7 @@
     </row>
     <row r="385" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F385" s="25" t="s">
         <v>23</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="386" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="25" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F386" s="25" t="s">
         <v>23</v>
@@ -9386,7 +9386,7 @@
     </row>
     <row r="387" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="25" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F387" s="25" t="s">
         <v>23</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="388" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F388" s="25" t="s">
         <v>23</v>
@@ -9410,7 +9410,7 @@
     </row>
     <row r="389" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="25" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F389" s="25" t="s">
         <v>23</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="390" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F390" s="25" t="s">
         <v>23</v>
@@ -9434,7 +9434,7 @@
     </row>
     <row r="391" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="25" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F391" s="25" t="s">
         <v>23</v>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="392" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="25" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F392" s="25" t="s">
         <v>23</v>
@@ -9458,7 +9458,7 @@
     <row r="393" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="26"/>
       <c r="B393" s="25" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F393" s="25" t="s">
         <v>23</v>
@@ -9471,7 +9471,7 @@
     <row r="394" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="26"/>
       <c r="B394" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F394" s="25" t="s">
         <v>23</v>
@@ -9484,7 +9484,7 @@
     <row r="395" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="26"/>
       <c r="B395" s="25" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F395" s="25" t="s">
         <v>23</v>
@@ -9497,7 +9497,7 @@
     <row r="396" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="26"/>
       <c r="B396" s="25" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F396" s="25" t="s">
         <v>23</v>
@@ -9510,7 +9510,7 @@
     <row r="397" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="10"/>
       <c r="B397" s="25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F397" s="25" t="s">
         <v>23</v>
@@ -9523,7 +9523,7 @@
     </row>
     <row r="398" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="25" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F398" s="25" t="s">
         <v>23</v>
@@ -9535,7 +9535,7 @@
     </row>
     <row r="399" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="25" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F399" s="25" t="s">
         <v>23</v>
@@ -9547,7 +9547,7 @@
     </row>
     <row r="400" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="25" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F400" s="25" t="s">
         <v>23</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="401" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="25" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F401" s="25" t="s">
         <v>23</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="402" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="25" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F402" s="25" t="s">
         <v>23</v>
@@ -9580,7 +9580,7 @@
     </row>
     <row r="403" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="25" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F403" s="25" t="s">
         <v>23</v>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="404" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="25" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F404" s="25" t="s">
         <v>23</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="405" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="25" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F405" s="25" t="s">
         <v>23</v>
@@ -9614,7 +9614,7 @@
     <row r="406" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="26"/>
       <c r="B406" s="25" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F406" s="25" t="s">
         <v>23</v>
@@ -9627,7 +9627,7 @@
     <row r="407" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="26"/>
       <c r="B407" s="25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F407" s="25" t="s">
         <v>23</v>
@@ -9639,7 +9639,7 @@
     </row>
     <row r="408" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="25" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F408" s="25" t="s">
         <v>23</v>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="409" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="25" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F409" s="25" t="s">
         <v>23</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="410" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="25" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F410" s="25" t="s">
         <v>23</v>
@@ -9672,7 +9672,7 @@
     </row>
     <row r="411" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F411" s="25" t="s">
         <v>23</v>
@@ -9683,7 +9683,7 @@
     </row>
     <row r="412" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F412" s="25" t="s">
         <v>23</v>
@@ -9694,7 +9694,7 @@
     </row>
     <row r="413" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="25" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F413" s="25" t="s">
         <v>23</v>
@@ -9706,7 +9706,7 @@
     </row>
     <row r="414" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="25" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F414" s="25" t="s">
         <v>23</v>
@@ -9717,7 +9717,7 @@
     </row>
     <row r="415" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F415" s="25" t="s">
         <v>23</v>
@@ -9728,7 +9728,7 @@
     </row>
     <row r="416" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F416" s="25" t="s">
         <v>23</v>
@@ -9739,7 +9739,7 @@
     </row>
     <row r="417" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="25" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F417" s="25" t="s">
         <v>23</v>
@@ -9750,7 +9750,7 @@
     </row>
     <row r="418" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F418" s="25" t="s">
         <v>23</v>
@@ -9762,7 +9762,7 @@
     <row r="419" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="26"/>
       <c r="B419" s="25" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F419" s="25" t="s">
         <v>23</v>
@@ -9774,7 +9774,7 @@
     </row>
     <row r="420" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F420" s="25" t="s">
         <v>23</v>
@@ -9785,7 +9785,7 @@
     </row>
     <row r="421" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F421" s="25" t="s">
         <v>23</v>
@@ -9796,25 +9796,25 @@
     </row>
     <row r="422" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C422" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="E422" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="C422" s="25" t="s">
+      <c r="F422" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G422" s="25" t="s">
         <v>576</v>
-      </c>
-      <c r="E422" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="F422" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G422" s="25" t="s">
-        <v>578</v>
       </c>
       <c r="Q422" s="26"/>
     </row>
     <row r="423" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F423" s="25" t="s">
         <v>23</v>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="424" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F424" s="25" t="s">
         <v>23</v>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="425" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F425" s="25" t="s">
         <v>23</v>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="426" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="25" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F426" s="25" t="s">
         <v>23</v>
@@ -9859,10 +9859,10 @@
     </row>
     <row r="427" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C427" s="25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F427" s="25" t="s">
         <v>23</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="428" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F428" s="25" t="s">
         <v>23</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="429" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="25" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F429" s="25" t="s">
         <v>23</v>
@@ -9895,7 +9895,7 @@
     </row>
     <row r="430" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="25" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F430" s="25" t="s">
         <v>23</v>
@@ -9907,7 +9907,7 @@
     <row r="431" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="26"/>
       <c r="B431" s="25" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F431" s="25" t="s">
         <v>23</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="432" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F432" s="25" t="s">
         <v>23</v>
@@ -9930,16 +9930,16 @@
     </row>
     <row r="433" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
+        <v>588</v>
+      </c>
+      <c r="B433" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C433" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B433" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="C433" s="10" t="s">
-        <v>592</v>
-      </c>
       <c r="D433" s="10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E433" s="10" t="s">
         <v>33</v>
@@ -9961,7 +9961,7 @@
     <row r="434" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="26"/>
       <c r="B434" s="25" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F434" s="25" t="s">
         <v>23</v>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="435" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F435" s="25" t="s">
         <v>23</v>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="436" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F436" s="25" t="s">
         <v>23</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="437" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F437" s="25" t="s">
         <v>23</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="438" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F438" s="25" t="s">
         <v>23</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="439" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="25" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F439" s="25" t="s">
         <v>23</v>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="440" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="25" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F440" s="25" t="s">
         <v>23</v>
@@ -10039,13 +10039,13 @@
     </row>
     <row r="441" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="25" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F441" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I441" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="P441" s="25" t="s">
         <v>41</v>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="442" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F442" s="25" t="s">
         <v>23</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="443" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F443" s="25" t="s">
         <v>23</v>
@@ -10076,7 +10076,7 @@
     </row>
     <row r="444" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B444" s="25" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F444" s="25" t="s">
         <v>23</v>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="445" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F445" s="25" t="s">
         <v>23</v>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="446" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F446" s="25" t="s">
         <v>23</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="447" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F447" s="25" t="s">
         <v>23</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="448" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F448" s="25" t="s">
         <v>23</v>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="449" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F449" s="25" t="s">
         <v>23</v>
@@ -10156,7 +10156,7 @@
     </row>
     <row r="451" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="25" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F451" s="25" t="s">
         <v>23</v>
@@ -10167,7 +10167,7 @@
     </row>
     <row r="452" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="25" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F452" s="25" t="s">
         <v>23</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="453" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F453" s="25" t="s">
         <v>23</v>
@@ -10189,7 +10189,7 @@
     </row>
     <row r="454" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="25" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F454" s="25" t="s">
         <v>23</v>
@@ -10200,7 +10200,7 @@
     </row>
     <row r="455" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="25" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F455" s="25" t="s">
         <v>23</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="456" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F456" s="25" t="s">
         <v>23</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="457" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="25" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F457" s="25" t="s">
         <v>23</v>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="458" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F458" s="25" t="s">
         <v>23</v>
@@ -10245,7 +10245,7 @@
     <row r="459" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="26"/>
       <c r="B459" s="25" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F459" s="25" t="s">
         <v>23</v>
@@ -10257,7 +10257,7 @@
     </row>
     <row r="460" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="25" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F460" s="25" t="s">
         <v>23</v>
@@ -10268,7 +10268,7 @@
     </row>
     <row r="461" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="25" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F461" s="25" t="s">
         <v>23</v>
@@ -10279,7 +10279,7 @@
     </row>
     <row r="462" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F462" s="25" t="s">
         <v>23</v>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="463" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="25" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F463" s="25" t="s">
         <v>23</v>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="464" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="25" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F464" s="25" t="s">
         <v>23</v>
@@ -10312,7 +10312,7 @@
     </row>
     <row r="465" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="25" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F465" s="25" t="s">
         <v>23</v>
@@ -10323,7 +10323,7 @@
     </row>
     <row r="466" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="25" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F466" s="25" t="s">
         <v>23</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="467" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="25" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F467" s="25" t="s">
         <v>23</v>
@@ -10345,7 +10345,7 @@
     </row>
     <row r="468" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="25" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F468" s="25" t="s">
         <v>23</v>
@@ -10356,7 +10356,7 @@
     </row>
     <row r="469" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F469" s="25" t="s">
         <v>23</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="470" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F470" s="25" t="s">
         <v>23</v>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="471" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F471" s="25" t="s">
         <v>23</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="472" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="25" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F472" s="25" t="s">
         <v>23</v>
@@ -10400,7 +10400,7 @@
     </row>
     <row r="473" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F473" s="25" t="s">
         <v>23</v>
@@ -10411,7 +10411,7 @@
     </row>
     <row r="474" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F474" s="25" t="s">
         <v>23</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="475" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="25" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F475" s="25" t="s">
         <v>23</v>
@@ -10435,7 +10435,7 @@
     </row>
     <row r="476" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="25" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F476" s="25" t="s">
         <v>23</v>
@@ -10446,7 +10446,7 @@
     </row>
     <row r="477" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="25" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F477" s="25" t="s">
         <v>23</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="478" spans="2:17" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="25" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F478" s="25" t="s">
         <v>23</v>
@@ -10468,7 +10468,7 @@
     </row>
     <row r="479" spans="2:17" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="25" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F479" s="25" t="s">
         <v>23</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="480" spans="2:17" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="25" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F480" s="25" t="s">
         <v>23</v>
@@ -10490,7 +10490,7 @@
     </row>
     <row r="481" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="25" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F481" s="25" t="s">
         <v>23</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="482" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F482" s="25" t="s">
         <v>23</v>
@@ -10513,7 +10513,7 @@
     <row r="483" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="26"/>
       <c r="B483" s="25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F483" s="25" t="s">
         <v>23</v>
@@ -10526,7 +10526,7 @@
     <row r="484" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="26"/>
       <c r="B484" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F484" s="25" t="s">
         <v>23</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="485" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="25" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F485" s="25" t="s">
         <v>23</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="486" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="25" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F486" s="25" t="s">
         <v>23</v>
@@ -10560,7 +10560,7 @@
     </row>
     <row r="487" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="25" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F487" s="25" t="s">
         <v>23</v>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="488" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="25" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F488" s="25" t="s">
         <v>23</v>
@@ -10582,7 +10582,7 @@
     </row>
     <row r="489" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="25" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F489" s="25" t="s">
         <v>23</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="490" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="25" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F490" s="25" t="s">
         <v>23</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="491" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F491" s="25" t="s">
         <v>23</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="492" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="25" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F492" s="25" t="s">
         <v>23</v>
@@ -10626,7 +10626,7 @@
     </row>
     <row r="493" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B493" s="25" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F493" s="25" t="s">
         <v>23</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="494" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B494" s="25" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F494" s="25" t="s">
         <v>23</v>
@@ -10648,7 +10648,7 @@
     </row>
     <row r="495" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F495" s="25" t="s">
         <v>23</v>
@@ -10659,7 +10659,7 @@
     </row>
     <row r="496" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B496" s="25" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F496" s="25" t="s">
         <v>23</v>
@@ -10671,7 +10671,7 @@
     </row>
     <row r="497" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="25" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F497" s="25" t="s">
         <v>23</v>
@@ -10682,7 +10682,7 @@
     </row>
     <row r="498" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="25" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F498" s="25" t="s">
         <v>23</v>
@@ -10693,7 +10693,7 @@
     </row>
     <row r="499" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B499" s="25" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F499" s="25" t="s">
         <v>23</v>
@@ -10704,7 +10704,7 @@
     </row>
     <row r="500" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B500" s="25" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F500" s="25" t="s">
         <v>23</v>
@@ -10715,13 +10715,13 @@
     </row>
     <row r="501" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B501" s="25" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F501" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I501" s="25" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P501" s="25" t="s">
         <v>41</v>
@@ -10729,7 +10729,7 @@
     </row>
     <row r="502" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B502" s="25" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F502" s="25" t="s">
         <v>23</v>
@@ -10740,7 +10740,7 @@
     </row>
     <row r="503" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B503" s="25" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F503" s="25" t="s">
         <v>23</v>
@@ -10752,7 +10752,7 @@
     <row r="504" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="26"/>
       <c r="B504" s="25" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F504" s="25" t="s">
         <v>23</v>
@@ -10764,7 +10764,7 @@
     </row>
     <row r="505" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="25" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F505" s="25" t="s">
         <v>23</v>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="506" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="25" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F506" s="25" t="s">
         <v>23</v>
@@ -10786,7 +10786,7 @@
     </row>
     <row r="507" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="25" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F507" s="25" t="s">
         <v>23</v>
@@ -10797,13 +10797,13 @@
     </row>
     <row r="508" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
+        <v>666</v>
+      </c>
+      <c r="B508" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="C508" s="25" t="s">
         <v>668</v>
-      </c>
-      <c r="B508" s="25" t="s">
-        <v>669</v>
-      </c>
-      <c r="C508" s="25" t="s">
-        <v>670</v>
       </c>
       <c r="D508" s="25" t="s">
         <v>124</v>
@@ -10818,7 +10818,7 @@
     </row>
     <row r="509" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F509" s="25" t="s">
         <v>23</v>
@@ -10829,7 +10829,7 @@
     </row>
     <row r="510" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="25" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F510" s="25" t="s">
         <v>23</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="511" spans="1:18" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="25" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F511" s="25" t="s">
         <v>23</v>
@@ -10851,7 +10851,7 @@
     </row>
     <row r="512" spans="1:18" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="25" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F512" s="25" t="s">
         <v>23</v>
@@ -10862,7 +10862,7 @@
     </row>
     <row r="513" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F513" s="25" t="s">
         <v>23</v>
@@ -10873,7 +10873,7 @@
     </row>
     <row r="514" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B514" s="25" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F514" s="25" t="s">
         <v>23</v>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="515" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F515" s="25" t="s">
         <v>23</v>
@@ -10895,7 +10895,7 @@
     </row>
     <row r="516" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B516" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F516" s="25" t="s">
         <v>23</v>
@@ -10907,7 +10907,7 @@
     <row r="517" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="26"/>
       <c r="B517" s="25" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F517" s="25" t="s">
         <v>23</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="518" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F518" s="25" t="s">
         <v>23</v>
@@ -10930,25 +10930,25 @@
     </row>
     <row r="519" spans="1:19" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
+        <v>679</v>
+      </c>
+      <c r="B519" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="C519" s="25" t="s">
         <v>681</v>
       </c>
-      <c r="B519" s="25" t="s">
+      <c r="D519" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="C519" s="25" t="s">
+      <c r="E519" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="F519" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I519" s="25" t="s">
         <v>683</v>
-      </c>
-      <c r="D519" s="25" t="s">
-        <v>684</v>
-      </c>
-      <c r="E519" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="F519" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I519" s="25" t="s">
-        <v>685</v>
       </c>
       <c r="P519" s="25" t="s">
         <v>41</v>
@@ -10956,16 +10956,16 @@
     </row>
     <row r="520" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
+        <v>684</v>
+      </c>
+      <c r="B520" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="C520" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="B520" s="25" t="s">
+      <c r="D520" s="25" t="s">
         <v>687</v>
-      </c>
-      <c r="C520" s="25" t="s">
-        <v>688</v>
-      </c>
-      <c r="D520" s="25" t="s">
-        <v>689</v>
       </c>
       <c r="F520" s="25" t="s">
         <v>23</v>
@@ -10976,13 +10976,13 @@
     </row>
     <row r="521" spans="1:19" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B521" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="F521" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="I521" s="25" t="s">
         <v>690</v>
-      </c>
-      <c r="F521" s="25" t="s">
-        <v>691</v>
-      </c>
-      <c r="I521" s="25" t="s">
-        <v>692</v>
       </c>
       <c r="P521" s="25" t="s">
         <v>41</v>
@@ -10991,10 +10991,10 @@
     </row>
     <row r="522" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B522" s="25" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F522" s="25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="P522" s="25" t="s">
         <v>41</v>
@@ -11002,10 +11002,10 @@
     </row>
     <row r="523" spans="1:19" s="25" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B523" s="25" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F523" s="25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="P523" s="25" t="s">
         <v>41</v>
@@ -11014,31 +11014,31 @@
     </row>
     <row r="524" spans="1:19" s="21" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
+        <v>693</v>
+      </c>
+      <c r="B524" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="C524" s="21" t="s">
         <v>695</v>
       </c>
-      <c r="B524" s="22" t="s">
+      <c r="D524" s="21" t="s">
         <v>696</v>
-      </c>
-      <c r="C524" s="21" t="s">
-        <v>697</v>
-      </c>
-      <c r="D524" s="21" t="s">
-        <v>698</v>
       </c>
       <c r="E524" s="21" t="s">
         <v>244</v>
       </c>
       <c r="F524" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G524" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="H524" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="J524" s="21" t="s">
         <v>699</v>
-      </c>
-      <c r="H524" s="21" t="s">
-        <v>700</v>
-      </c>
-      <c r="J524" s="21" t="s">
-        <v>701</v>
       </c>
       <c r="P524" s="21" t="s">
         <v>41</v>
@@ -11046,28 +11046,28 @@
     </row>
     <row r="525" spans="1:19" s="21" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
+        <v>700</v>
+      </c>
+      <c r="B525" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="C525" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="B525" s="22" t="s">
-        <v>703</v>
-      </c>
-      <c r="C525" s="21" t="s">
-        <v>704</v>
-      </c>
       <c r="D525" s="21" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E525" s="21" t="s">
         <v>244</v>
       </c>
       <c r="F525" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H525" s="21" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="J525" s="21" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="P525" s="21" t="s">
         <v>41</v>
@@ -11075,30 +11075,30 @@
     </row>
     <row r="526" spans="1:19" s="21" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
+        <v>704</v>
+      </c>
+      <c r="B526" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="C526" s="21" t="s">
         <v>706</v>
       </c>
-      <c r="B526" s="22" t="s">
-        <v>707</v>
-      </c>
-      <c r="C526" s="21" t="s">
-        <v>708</v>
-      </c>
       <c r="D526" s="23" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E526" s="21" t="s">
         <v>244</v>
       </c>
       <c r="F526" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G526" s="23"/>
       <c r="H526" s="21" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I526" s="23"/>
       <c r="J526" s="23" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K526" s="23"/>
       <c r="L526" s="23"/>
@@ -11109,25 +11109,25 @@
     </row>
     <row r="527" spans="1:19" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
+        <v>708</v>
+      </c>
+      <c r="B527" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="C527" s="21" t="s">
         <v>710</v>
       </c>
-      <c r="B527" s="22" t="s">
-        <v>711</v>
-      </c>
-      <c r="C527" s="21" t="s">
-        <v>712</v>
-      </c>
       <c r="D527" s="21" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E527" s="21" t="s">
         <v>33</v>
       </c>
       <c r="F527" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J527" s="21" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P527" s="21" t="s">
         <v>41</v>
@@ -11135,16 +11135,16 @@
     </row>
     <row r="528" spans="1:19" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B528" s="22" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C528" s="21" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D528" s="21" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E528" s="21" t="s">
         <v>244</v>
@@ -11153,13 +11153,13 @@
         <v>23</v>
       </c>
       <c r="H528" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="J528" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="K528" s="21" t="s">
         <v>716</v>
-      </c>
-      <c r="J528" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="K528" s="21" t="s">
-        <v>718</v>
       </c>
       <c r="P528" s="21" t="s">
         <v>41</v>
@@ -11167,22 +11167,22 @@
     </row>
     <row r="529" spans="1:18" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="B529" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="C529" s="26" t="s">
         <v>719</v>
       </c>
-      <c r="B529" s="26" t="s">
+      <c r="D529" s="26" t="s">
         <v>720</v>
       </c>
-      <c r="C529" s="26" t="s">
+      <c r="E529" s="26" t="s">
         <v>721</v>
       </c>
-      <c r="D529" s="26" t="s">
+      <c r="F529" s="26" t="s">
         <v>722</v>
-      </c>
-      <c r="E529" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="F529" s="26" t="s">
-        <v>724</v>
       </c>
       <c r="G529" s="26"/>
       <c r="H529" s="26"/>
@@ -11360,16 +11360,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -11377,10 +11377,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11388,10 +11388,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -11399,13 +11399,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>732</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11413,10 +11413,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11424,13 +11424,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>737</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11438,10 +11438,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11449,10 +11449,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11460,10 +11460,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11471,10 +11471,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11482,10 +11482,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11493,10 +11493,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11504,10 +11504,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -11515,10 +11515,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11526,10 +11526,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11537,10 +11537,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11548,10 +11548,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11559,10 +11559,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -11570,10 +11570,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -11617,16 +11617,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
@@ -11641,18 +11641,18 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -11660,13 +11660,13 @@
     </row>
     <row r="3" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -11674,16 +11674,16 @@
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -11691,10 +11691,10 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -11702,13 +11702,13 @@
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -11716,16 +11716,16 @@
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -11733,13 +11733,13 @@
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -11747,13 +11747,13 @@
     </row>
     <row r="9" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -11764,13 +11764,13 @@
     </row>
     <row r="10" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -11811,37 +11811,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>801</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11849,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -11860,16 +11860,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -11877,16 +11877,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -11894,16 +11894,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -11911,16 +11911,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -11928,16 +11928,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -11945,16 +11945,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -11962,16 +11962,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -11979,16 +11979,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -11996,16 +11996,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -12013,7 +12013,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12025,13 +12025,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J12" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="K12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -12039,7 +12039,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -12051,13 +12051,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -12065,7 +12065,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -12077,13 +12077,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J14" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K14" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -12091,7 +12091,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -12103,13 +12103,13 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K15" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -12117,7 +12117,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -12129,13 +12129,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K16" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -12143,7 +12143,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -12155,13 +12155,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K17" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -12169,7 +12169,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -12181,13 +12181,13 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K18" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -12195,7 +12195,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -12207,13 +12207,13 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J19" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -12221,7 +12221,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -12233,13 +12233,13 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J20" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -12247,7 +12247,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -12259,13 +12259,13 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J21" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="K21" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -12273,7 +12273,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -12285,13 +12285,13 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
+        <v>814</v>
+      </c>
+      <c r="J22" t="s">
+        <v>815</v>
+      </c>
+      <c r="K22" t="s">
         <v>816</v>
-      </c>
-      <c r="J22" t="s">
-        <v>817</v>
-      </c>
-      <c r="K22" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -12299,7 +12299,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -12311,13 +12311,13 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J23" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K23" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -12325,7 +12325,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -12337,13 +12337,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J24" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K24" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -12351,7 +12351,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -12363,13 +12363,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J25" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K25" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -12377,7 +12377,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -12389,13 +12389,13 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K26" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -12403,7 +12403,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -12415,13 +12415,13 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J27" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K27" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -12429,7 +12429,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -12441,13 +12441,13 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J28" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K28" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -12455,7 +12455,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -12467,13 +12467,13 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J29" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K29" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -12481,7 +12481,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -12493,13 +12493,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J30" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CA8F0D-A41B-3149-9CEA-99E615A2B7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB6A065-6A74-C341-9653-1CCE15FE6C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2540" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="740">
   <si>
     <t>ID</t>
   </si>
@@ -2700,10 +2700,10 @@
   <dimension ref="A1:R546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D527" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O526" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B522" sqref="B522"/>
+      <selection pane="bottomRight" activeCell="Q527" sqref="Q527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5669,7 +5669,9 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
+      <c r="Q124" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="R124" s="20"/>
     </row>
     <row r="125" spans="1:18" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7328,7 +7330,9 @@
       <c r="M252" s="4"/>
       <c r="N252" s="4"/>
       <c r="P252" s="4"/>
-      <c r="Q252" s="4"/>
+      <c r="Q252" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="253" spans="1:17" s="19" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="20" t="s">
@@ -8212,7 +8216,9 @@
       <c r="M326" s="4"/>
       <c r="N326" s="4"/>
       <c r="P326" s="4"/>
-      <c r="Q326" s="4"/>
+      <c r="Q326" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="327" spans="1:17" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="19" t="s">
@@ -8895,7 +8901,9 @@
       <c r="N383" s="4"/>
       <c r="O383" s="20"/>
       <c r="P383" s="4"/>
-      <c r="Q383" s="4"/>
+      <c r="Q383" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="384" spans="1:17" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="19" t="s">
@@ -9357,6 +9365,9 @@
         <v>23</v>
       </c>
       <c r="O422" s="20"/>
+      <c r="Q422" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="423" spans="1:17" s="19" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="19" t="s">
@@ -9501,7 +9512,9 @@
       <c r="M433" s="4"/>
       <c r="N433" s="4"/>
       <c r="P433" s="4"/>
-      <c r="Q433" s="4"/>
+      <c r="Q433" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="434" spans="1:17" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="20"/>
@@ -10649,7 +10662,9 @@
       <c r="M526" s="17"/>
       <c r="N526" s="17"/>
       <c r="P526" s="17"/>
-      <c r="Q526" s="17"/>
+      <c r="Q526" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="527" spans="1:18" s="15" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -15323,8 +15323,16 @@
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>research activity</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G381" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -15335,7 +15343,9 @@
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr"/>
-      <c r="M381" t="inlineStr"/>
+      <c r="M381" t="b">
+        <v>0</v>
+      </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S530"/>
+  <dimension ref="A1:S531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8273,58 +8273,42 @@
       <c r="S198" s="3" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000177</t>
-        </is>
-      </c>
+      <c r="A199" s="3" t="inlineStr"/>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>financial potential competing interest</t>
+          <t>feasibility study</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>A potential competing interest that involves the possibility of personal financial gain or loss resulting from enactment of the professional role.</t>
+          <t>A research study that aims to determine the feasibility and value of carrying out a full-scale study and how that study should be conducted.</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr"/>
       <c r="E199" s="3" t="inlineStr">
         <is>
-          <t>potential competing interest</t>
-        </is>
-      </c>
-      <c r="F199" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="F199" s="3" t="inlineStr"/>
       <c r="G199" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Research activity </t>
-        </is>
-      </c>
-      <c r="H199" s="3" t="inlineStr">
-        <is>
-          <t>The definition was adapted from the PLOS definition.</t>
-        </is>
-      </c>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H199" s="3" t="inlineStr"/>
       <c r="I199" s="3" t="inlineStr"/>
       <c r="J199" s="3" t="inlineStr"/>
-      <c r="K199" s="3" t="inlineStr">
-        <is>
-          <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organisation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the enactment of the professional role. It also includes all of the above that relate to an intimate partner. Organisation includes commercial organisation, government agency, and charity.</t>
-        </is>
-      </c>
+      <c r="K199" s="3" t="inlineStr"/>
       <c r="L199" s="3" t="inlineStr"/>
-      <c r="M199" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N199" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M199" s="3" t="inlineStr"/>
+      <c r="N199" s="3" t="inlineStr"/>
       <c r="O199" s="3" t="inlineStr"/>
-      <c r="P199" s="3" t="inlineStr"/>
+      <c r="P199" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q199" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -8334,28 +8318,52 @@
       <c r="S199" s="3" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="inlineStr"/>
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000177</t>
+        </is>
+      </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>focus group</t>
-        </is>
-      </c>
-      <c r="C200" s="3" t="inlineStr"/>
+          <t>financial potential competing interest</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>A potential competing interest that involves the possibility of personal financial gain or loss resulting from enactment of the professional role.</t>
+        </is>
+      </c>
       <c r="D200" s="3" t="inlineStr"/>
-      <c r="E200" s="3" t="inlineStr"/>
-      <c r="F200" s="3" t="inlineStr"/>
+      <c r="E200" s="3" t="inlineStr">
+        <is>
+          <t>potential competing interest</t>
+        </is>
+      </c>
+      <c r="F200" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="G200" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H200" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Research activity </t>
+        </is>
+      </c>
+      <c r="H200" s="3" t="inlineStr">
+        <is>
+          <t>The definition was adapted from the PLOS definition.</t>
+        </is>
+      </c>
       <c r="I200" s="3" t="inlineStr"/>
       <c r="J200" s="3" t="inlineStr"/>
-      <c r="K200" s="3" t="inlineStr"/>
+      <c r="K200" s="3" t="inlineStr">
+        <is>
+          <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organisation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the enactment of the professional role. It also includes all of the above that relate to an intimate partner. Organisation includes commercial organisation, government agency, and charity.</t>
+        </is>
+      </c>
       <c r="L200" s="3" t="inlineStr"/>
       <c r="M200" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200" s="3" t="n">
         <v>0</v>
@@ -8371,206 +8379,206 @@
       <c r="S200" s="3" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="inlineStr">
+      <c r="A201" s="3" t="inlineStr"/>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>focus group</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr"/>
+      <c r="D201" s="3" t="inlineStr"/>
+      <c r="E201" s="3" t="inlineStr"/>
+      <c r="F201" s="3" t="inlineStr"/>
+      <c r="G201" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H201" s="3" t="inlineStr"/>
+      <c r="I201" s="3" t="inlineStr"/>
+      <c r="J201" s="3" t="inlineStr"/>
+      <c r="K201" s="3" t="inlineStr"/>
+      <c r="L201" s="3" t="inlineStr"/>
+      <c r="M201" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="3" t="inlineStr"/>
+      <c r="P201" s="3" t="inlineStr"/>
+      <c r="Q201" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R201" s="3" t="inlineStr"/>
+      <c r="S201" s="3" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000149</t>
         </is>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>follow up</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
         <is>
           <t>A research activity that involves taking a measurement after the end of an intervention or research activity.</t>
         </is>
       </c>
-      <c r="D201" s="2" t="inlineStr"/>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="D202" s="2" t="inlineStr"/>
+      <c r="E202" s="2" t="inlineStr">
         <is>
           <t>research activity</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F202" s="2" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G201" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="G202" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
         <is>
           <t>This attempts to capture the most common usage and so distinguishes between end-of-treatment assessment and follow up.</t>
         </is>
       </c>
-      <c r="I201" s="2" t="inlineStr"/>
-      <c r="J201" s="2" t="inlineStr"/>
-      <c r="K201" s="2" t="inlineStr">
+      <c r="I202" s="2" t="inlineStr"/>
+      <c r="J202" s="2" t="inlineStr"/>
+      <c r="K202" s="2" t="inlineStr">
         <is>
           <t>Used in cohort studies and intervention evaluations to capture meausres taken after the end of the intervention or a baseline measure.</t>
         </is>
       </c>
-      <c r="L201" s="2" t="inlineStr"/>
-      <c r="M201" s="2" t="n">
+      <c r="L202" s="2" t="inlineStr"/>
+      <c r="M202" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N201" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O201" s="2" t="inlineStr"/>
-      <c r="P201" s="2" t="inlineStr"/>
-      <c r="Q201" s="2" t="inlineStr">
+      <c r="N202" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="2" t="inlineStr"/>
+      <c r="P202" s="2" t="inlineStr"/>
+      <c r="Q202" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R201" s="2" t="inlineStr"/>
-      <c r="S201" s="2" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="3" t="inlineStr"/>
-      <c r="B202" s="3" t="inlineStr">
+      <c r="R202" s="2" t="inlineStr"/>
+      <c r="S202" s="2" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="inlineStr"/>
+      <c r="B203" s="3" t="inlineStr">
         <is>
           <t>follow-up completion rates</t>
         </is>
       </c>
-      <c r="C202" s="3" t="inlineStr"/>
-      <c r="D202" s="3" t="inlineStr"/>
-      <c r="E202" s="3" t="inlineStr"/>
-      <c r="F202" s="3" t="inlineStr"/>
-      <c r="G202" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H202" s="3" t="inlineStr"/>
-      <c r="I202" s="3" t="inlineStr"/>
-      <c r="J202" s="3" t="inlineStr"/>
-      <c r="K202" s="3" t="inlineStr"/>
-      <c r="L202" s="3" t="inlineStr"/>
-      <c r="M202" s="3" t="n">
+      <c r="C203" s="3" t="inlineStr"/>
+      <c r="D203" s="3" t="inlineStr"/>
+      <c r="E203" s="3" t="inlineStr"/>
+      <c r="F203" s="3" t="inlineStr"/>
+      <c r="G203" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H203" s="3" t="inlineStr"/>
+      <c r="I203" s="3" t="inlineStr"/>
+      <c r="J203" s="3" t="inlineStr"/>
+      <c r="K203" s="3" t="inlineStr"/>
+      <c r="L203" s="3" t="inlineStr"/>
+      <c r="M203" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N202" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O202" s="3" t="inlineStr"/>
-      <c r="P202" s="3" t="inlineStr"/>
-      <c r="Q202" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R202" s="3" t="inlineStr"/>
-      <c r="S202" s="3" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="inlineStr">
+      <c r="N203" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" s="3" t="inlineStr"/>
+      <c r="P203" s="3" t="inlineStr"/>
+      <c r="Q203" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R203" s="3" t="inlineStr"/>
+      <c r="S203" s="3" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000167</t>
         </is>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>follow-up period</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>A period of time between a research activity and follow up.</t>
         </is>
       </c>
-      <c r="D203" s="2" t="inlineStr"/>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="D204" s="2" t="inlineStr"/>
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
         <is>
           <t>Temporal region</t>
         </is>
       </c>
-      <c r="G203" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H203" s="2" t="inlineStr"/>
-      <c r="I203" s="2" t="inlineStr"/>
-      <c r="J203" s="2" t="inlineStr"/>
-      <c r="K203" s="2" t="inlineStr">
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H204" s="2" t="inlineStr"/>
+      <c r="I204" s="2" t="inlineStr"/>
+      <c r="J204" s="2" t="inlineStr"/>
+      <c r="K204" s="2" t="inlineStr">
         <is>
           <t>The temporal period is often counted from the start of an intervention even though the definition of follow up states that it takes place after the end of an intervention.</t>
         </is>
       </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>The follow up period was for 12 months from the offer of a prescription for varenicline.</t>
         </is>
       </c>
-      <c r="M203" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N203" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O203" s="2" t="inlineStr"/>
-      <c r="P203" s="2" t="inlineStr"/>
-      <c r="Q203" s="2" t="inlineStr">
+      <c r="M204" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="2" t="inlineStr"/>
+      <c r="P204" s="2" t="inlineStr"/>
+      <c r="Q204" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R203" s="2" t="inlineStr"/>
-      <c r="S203" s="2" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="3" t="inlineStr"/>
-      <c r="B204" s="3" t="inlineStr">
-        <is>
-          <t>follow-up point</t>
-        </is>
-      </c>
-      <c r="C204" s="3" t="inlineStr"/>
-      <c r="D204" s="3" t="inlineStr"/>
-      <c r="E204" s="3" t="inlineStr"/>
-      <c r="F204" s="3" t="inlineStr"/>
-      <c r="G204" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H204" s="3" t="inlineStr"/>
-      <c r="I204" s="3" t="inlineStr"/>
-      <c r="J204" s="3" t="inlineStr"/>
-      <c r="K204" s="3" t="inlineStr"/>
-      <c r="L204" s="3" t="inlineStr"/>
-      <c r="M204" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O204" s="3" t="inlineStr"/>
-      <c r="P204" s="3" t="inlineStr"/>
-      <c r="Q204" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R204" s="3" t="inlineStr"/>
-      <c r="S204" s="3" t="inlineStr"/>
+      <c r="R204" s="2" t="inlineStr"/>
+      <c r="S204" s="2" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="3" t="inlineStr"/>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>follow-up visit</t>
+          <t>follow-up point</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr"/>
@@ -8604,14 +8612,10 @@
       <c r="S205" s="3" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000131</t>
-        </is>
-      </c>
+      <c r="A206" s="3" t="inlineStr"/>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>gateway effect</t>
+          <t>follow-up visit</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr"/>
@@ -8645,10 +8649,14 @@
       <c r="S206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="inlineStr"/>
+      <c r="A207" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000131</t>
+        </is>
+      </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>generalized linear mixed model</t>
+          <t>gateway effect</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr"/>
@@ -8666,7 +8674,7 @@
       <c r="K207" s="3" t="inlineStr"/>
       <c r="L207" s="3" t="inlineStr"/>
       <c r="M207" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N207" s="3" t="n">
         <v>0</v>
@@ -8685,7 +8693,7 @@
       <c r="A208" s="3" t="inlineStr"/>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>genome-wide association meta-analysis</t>
+          <t>generalized linear mixed model</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr"/>
@@ -8722,7 +8730,7 @@
       <c r="A209" s="3" t="inlineStr"/>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>genome-wide association study</t>
+          <t>genome-wide association meta-analysis</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr"/>
@@ -8756,27 +8764,15 @@
       <c r="S209" s="3" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000168</t>
-        </is>
-      </c>
+      <c r="A210" s="3" t="inlineStr"/>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>grey literature</t>
-        </is>
-      </c>
-      <c r="C210" s="3" t="inlineStr">
-        <is>
-          <t>The aggregate of research articles, including study reports, that have not been published in peer-reviewed journals.</t>
-        </is>
-      </c>
+          <t>genome-wide association study</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr"/>
       <c r="D210" s="3" t="inlineStr"/>
-      <c r="E210" s="3" t="inlineStr">
-        <is>
-          <t>research literature</t>
-        </is>
-      </c>
+      <c r="E210" s="3" t="inlineStr"/>
       <c r="F210" s="3" t="inlineStr"/>
       <c r="G210" s="3" t="inlineStr">
         <is>
@@ -8805,15 +8801,27 @@
       <c r="S210" s="3" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="inlineStr"/>
+      <c r="A211" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000168</t>
+        </is>
+      </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>hazard ratio</t>
-        </is>
-      </c>
-      <c r="C211" s="3" t="inlineStr"/>
+          <t>grey literature</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
+        <is>
+          <t>The aggregate of research articles, including study reports, that have not been published in peer-reviewed journals.</t>
+        </is>
+      </c>
       <c r="D211" s="3" t="inlineStr"/>
-      <c r="E211" s="3" t="inlineStr"/>
+      <c r="E211" s="3" t="inlineStr">
+        <is>
+          <t>research literature</t>
+        </is>
+      </c>
       <c r="F211" s="3" t="inlineStr"/>
       <c r="G211" s="3" t="inlineStr">
         <is>
@@ -8845,7 +8853,7 @@
       <c r="A212" s="3" t="inlineStr"/>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>hepatitis C transmission modelling</t>
+          <t>hazard ratio</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr"/>
@@ -8859,11 +8867,7 @@
       </c>
       <c r="H212" s="3" t="inlineStr"/>
       <c r="I212" s="3" t="inlineStr"/>
-      <c r="J212" s="3" t="inlineStr">
-        <is>
-          <t>HCV transmission modelling</t>
-        </is>
-      </c>
+      <c r="J212" s="3" t="inlineStr"/>
       <c r="K212" s="3" t="inlineStr"/>
       <c r="L212" s="3" t="inlineStr"/>
       <c r="M212" s="3" t="n">
@@ -8886,7 +8890,7 @@
       <c r="A213" s="3" t="inlineStr"/>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>imaging data</t>
+          <t>hepatitis C transmission modelling</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr"/>
@@ -8900,7 +8904,11 @@
       </c>
       <c r="H213" s="3" t="inlineStr"/>
       <c r="I213" s="3" t="inlineStr"/>
-      <c r="J213" s="3" t="inlineStr"/>
+      <c r="J213" s="3" t="inlineStr">
+        <is>
+          <t>HCV transmission modelling</t>
+        </is>
+      </c>
       <c r="K213" s="3" t="inlineStr"/>
       <c r="L213" s="3" t="inlineStr"/>
       <c r="M213" s="3" t="n">
@@ -8923,7 +8931,7 @@
       <c r="A214" s="3" t="inlineStr"/>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>imaging device</t>
+          <t>imaging data</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr"/>
@@ -8960,7 +8968,7 @@
       <c r="A215" s="3" t="inlineStr"/>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>in-depth interview</t>
+          <t>imaging device</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr"/>
@@ -8997,7 +9005,7 @@
       <c r="A216" s="3" t="inlineStr"/>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>incidence</t>
+          <t>in-depth interview</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr"/>
@@ -9034,7 +9042,7 @@
       <c r="A217" s="3" t="inlineStr"/>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>independent association</t>
+          <t>incidence</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr"/>
@@ -9071,7 +9079,7 @@
       <c r="A218" s="3" t="inlineStr"/>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>indirect association</t>
+          <t>independent association</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr"/>
@@ -9108,7 +9116,7 @@
       <c r="A219" s="3" t="inlineStr"/>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>individual-level</t>
+          <t>indirect association</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr"/>
@@ -9145,7 +9153,7 @@
       <c r="A220" s="3" t="inlineStr"/>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>individual-level gateway</t>
+          <t>individual-level</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr"/>
@@ -9163,7 +9171,7 @@
       <c r="K220" s="3" t="inlineStr"/>
       <c r="L220" s="3" t="inlineStr"/>
       <c r="M220" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N220" s="3" t="n">
         <v>0</v>
@@ -9182,7 +9190,7 @@
       <c r="A221" s="3" t="inlineStr"/>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>individual-level gateway effect</t>
+          <t>individual-level gateway</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr"/>
@@ -9219,7 +9227,7 @@
       <c r="A222" s="3" t="inlineStr"/>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>individually randomised controlled trial</t>
+          <t>individual-level gateway effect</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr"/>
@@ -9256,7 +9264,7 @@
       <c r="A223" s="3" t="inlineStr"/>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>inferential statistics</t>
+          <t>individually randomised controlled trial</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr"/>
@@ -9274,7 +9282,7 @@
       <c r="K223" s="3" t="inlineStr"/>
       <c r="L223" s="3" t="inlineStr"/>
       <c r="M223" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N223" s="3" t="n">
         <v>0</v>
@@ -9293,7 +9301,7 @@
       <c r="A224" s="3" t="inlineStr"/>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>informed consent</t>
+          <t>inferential statistics</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr"/>
@@ -9330,7 +9338,7 @@
       <c r="A225" s="3" t="inlineStr"/>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>initial finding</t>
+          <t>informed consent</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr"/>
@@ -9367,7 +9375,7 @@
       <c r="A226" s="3" t="inlineStr"/>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>instrumental variable analysis</t>
+          <t>initial finding</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr"/>
@@ -9385,7 +9393,7 @@
       <c r="K226" s="3" t="inlineStr"/>
       <c r="L226" s="3" t="inlineStr"/>
       <c r="M226" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N226" s="3" t="n">
         <v>0</v>
@@ -9404,7 +9412,7 @@
       <c r="A227" s="3" t="inlineStr"/>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>insufficient statistical power</t>
+          <t>instrumental variable analysis</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr"/>
@@ -9441,7 +9449,7 @@
       <c r="A228" s="3" t="inlineStr"/>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>intention-to-treat analysis</t>
+          <t>insufficient statistical power</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr"/>
@@ -9478,7 +9486,7 @@
       <c r="A229" s="3" t="inlineStr"/>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>inter-rater reliability of a measure</t>
+          <t>intention-to-treat analysis</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr"/>
@@ -9496,7 +9504,7 @@
       <c r="K229" s="3" t="inlineStr"/>
       <c r="L229" s="3" t="inlineStr"/>
       <c r="M229" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N229" s="3" t="n">
         <v>0</v>
@@ -9515,7 +9523,7 @@
       <c r="A230" s="3" t="inlineStr"/>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>internal reliability of a measure</t>
+          <t>inter-rater reliability of a measure</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr"/>
@@ -9552,7 +9560,7 @@
       <c r="A231" s="3" t="inlineStr"/>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>international Alcohol Policy and Injury Index</t>
+          <t>internal reliability of a measure</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr"/>
@@ -9589,7 +9597,7 @@
       <c r="A232" s="3" t="inlineStr"/>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>international Classification of Diseases</t>
+          <t>international Alcohol Policy and Injury Index</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr"/>
@@ -9603,11 +9611,7 @@
       </c>
       <c r="H232" s="3" t="inlineStr"/>
       <c r="I232" s="3" t="inlineStr"/>
-      <c r="J232" s="3" t="inlineStr">
-        <is>
-          <t>ICD</t>
-        </is>
-      </c>
+      <c r="J232" s="3" t="inlineStr"/>
       <c r="K232" s="3" t="inlineStr"/>
       <c r="L232" s="3" t="inlineStr"/>
       <c r="M232" s="3" t="n">
@@ -9630,7 +9634,7 @@
       <c r="A233" s="3" t="inlineStr"/>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>international Classification of Diseases Version 10</t>
+          <t>international Classification of Diseases</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr"/>
@@ -9646,7 +9650,7 @@
       <c r="I233" s="3" t="inlineStr"/>
       <c r="J233" s="3" t="inlineStr">
         <is>
-          <t>ICD-10</t>
+          <t>ICD</t>
         </is>
       </c>
       <c r="K233" s="3" t="inlineStr"/>
@@ -9671,7 +9675,7 @@
       <c r="A234" s="3" t="inlineStr"/>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>international Classification of Diseases Version 10</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr"/>
@@ -9685,7 +9689,11 @@
       </c>
       <c r="H234" s="3" t="inlineStr"/>
       <c r="I234" s="3" t="inlineStr"/>
-      <c r="J234" s="3" t="inlineStr"/>
+      <c r="J234" s="3" t="inlineStr">
+        <is>
+          <t>ICD-10</t>
+        </is>
+      </c>
       <c r="K234" s="3" t="inlineStr"/>
       <c r="L234" s="3" t="inlineStr"/>
       <c r="M234" s="3" t="n">
@@ -9708,7 +9716,7 @@
       <c r="A235" s="3" t="inlineStr"/>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr"/>
@@ -9745,7 +9753,7 @@
       <c r="A236" s="3" t="inlineStr"/>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>lab-based study</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr"/>
@@ -9763,7 +9771,7 @@
       <c r="K236" s="3" t="inlineStr"/>
       <c r="L236" s="3" t="inlineStr"/>
       <c r="M236" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N236" s="3" t="n">
         <v>0</v>
@@ -9782,7 +9790,7 @@
       <c r="A237" s="3" t="inlineStr"/>
       <c r="B237" s="3" t="inlineStr">
         <is>
-          <t>level of certainty of conclusion</t>
+          <t>lab-based study</t>
         </is>
       </c>
       <c r="C237" s="3" t="inlineStr"/>
@@ -9819,7 +9827,7 @@
       <c r="A238" s="3" t="inlineStr"/>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t>level of uncertainty of conclusion</t>
+          <t>level of certainty of conclusion</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr"/>
@@ -9856,7 +9864,7 @@
       <c r="A239" s="3" t="inlineStr"/>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t>linear association</t>
+          <t>level of uncertainty of conclusion</t>
         </is>
       </c>
       <c r="C239" s="3" t="inlineStr"/>
@@ -9874,7 +9882,7 @@
       <c r="K239" s="3" t="inlineStr"/>
       <c r="L239" s="3" t="inlineStr"/>
       <c r="M239" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N239" s="3" t="n">
         <v>0</v>
@@ -9893,7 +9901,7 @@
       <c r="A240" s="3" t="inlineStr"/>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>linear regression model</t>
+          <t>linear association</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr"/>
@@ -9930,7 +9938,7 @@
       <c r="A241" s="3" t="inlineStr"/>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t>linear time-series regression</t>
+          <t>linear regression model</t>
         </is>
       </c>
       <c r="C241" s="3" t="inlineStr"/>
@@ -9967,7 +9975,7 @@
       <c r="A242" s="3" t="inlineStr"/>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>linkage disequilibrium</t>
+          <t>linear time-series regression</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr"/>
@@ -10001,122 +10009,118 @@
       <c r="S242" s="3" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="A243" s="3" t="inlineStr"/>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t>linkage disequilibrium</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="inlineStr"/>
+      <c r="D243" s="3" t="inlineStr"/>
+      <c r="E243" s="3" t="inlineStr"/>
+      <c r="F243" s="3" t="inlineStr"/>
+      <c r="G243" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H243" s="3" t="inlineStr"/>
+      <c r="I243" s="3" t="inlineStr"/>
+      <c r="J243" s="3" t="inlineStr"/>
+      <c r="K243" s="3" t="inlineStr"/>
+      <c r="L243" s="3" t="inlineStr"/>
+      <c r="M243" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" s="3" t="inlineStr"/>
+      <c r="P243" s="3" t="inlineStr"/>
+      <c r="Q243" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R243" s="3" t="inlineStr"/>
+      <c r="S243" s="3" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>CHMO:0001004</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>liquid chromatography</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>Column chromatography where the mobile phase is a liquid</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr">
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
         <is>
           <t>chromatography</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>0</v>
-      </c>
-      <c r="N243" t="n">
-        <v>0</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr">
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="3" t="inlineStr">
+      <c r="R244" t="inlineStr"/>
+      <c r="S244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000170</t>
         </is>
       </c>
-      <c r="B244" s="3" t="inlineStr">
+      <c r="B245" s="3" t="inlineStr">
         <is>
           <t>literature</t>
         </is>
       </c>
-      <c r="C244" s="3" t="inlineStr">
+      <c r="C245" s="3" t="inlineStr">
         <is>
           <t>The aggregate of written works, including articles, books, book chapters and reports.</t>
         </is>
       </c>
-      <c r="D244" s="3" t="inlineStr"/>
-      <c r="E244" s="3" t="inlineStr">
+      <c r="D245" s="3" t="inlineStr"/>
+      <c r="E245" s="3" t="inlineStr">
         <is>
           <t>material information bearer</t>
         </is>
       </c>
-      <c r="F244" s="3" t="inlineStr">
+      <c r="F245" s="3" t="inlineStr">
         <is>
           <t>Continuant</t>
         </is>
       </c>
-      <c r="G244" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H244" s="3" t="inlineStr"/>
-      <c r="I244" s="3" t="inlineStr"/>
-      <c r="J244" s="3" t="inlineStr"/>
-      <c r="K244" s="3" t="inlineStr"/>
-      <c r="L244" s="3" t="inlineStr"/>
-      <c r="M244" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N244" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O244" s="3" t="inlineStr"/>
-      <c r="P244" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q244" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R244" s="3" t="inlineStr"/>
-      <c r="S244" s="3" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="3" t="inlineStr"/>
-      <c r="B245" s="3" t="inlineStr">
-        <is>
-          <t>logistic regression model</t>
-        </is>
-      </c>
-      <c r="C245" s="3" t="inlineStr"/>
-      <c r="D245" s="3" t="inlineStr"/>
-      <c r="E245" s="3" t="inlineStr"/>
-      <c r="F245" s="3" t="inlineStr"/>
       <c r="G245" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -10134,7 +10138,11 @@
         <v>0</v>
       </c>
       <c r="O245" s="3" t="inlineStr"/>
-      <c r="P245" s="3" t="inlineStr"/>
+      <c r="P245" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q245" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -10147,7 +10155,7 @@
       <c r="A246" s="3" t="inlineStr"/>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>longitudinal latent class analyses</t>
+          <t>logistic regression model</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr"/>
@@ -10184,7 +10192,7 @@
       <c r="A247" s="3" t="inlineStr"/>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>longitudinal study</t>
+          <t>longitudinal latent class analyses</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr"/>
@@ -10221,7 +10229,7 @@
       <c r="A248" s="3" t="inlineStr"/>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>longitudinal study design</t>
+          <t>longitudinal study</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr"/>
@@ -10258,7 +10266,7 @@
       <c r="A249" s="3" t="inlineStr"/>
       <c r="B249" s="3" t="inlineStr">
         <is>
-          <t>longitudinal survey</t>
+          <t>longitudinal study design</t>
         </is>
       </c>
       <c r="C249" s="3" t="inlineStr"/>
@@ -10295,7 +10303,7 @@
       <c r="A250" s="3" t="inlineStr"/>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>loss to follow up reason</t>
+          <t>longitudinal survey</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr"/>
@@ -10332,7 +10340,7 @@
       <c r="A251" s="3" t="inlineStr"/>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>magnetic resonance imaging</t>
+          <t>loss to follow up reason</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr"/>
@@ -10346,11 +10354,7 @@
       </c>
       <c r="H251" s="3" t="inlineStr"/>
       <c r="I251" s="3" t="inlineStr"/>
-      <c r="J251" s="3" t="inlineStr">
-        <is>
-          <t>MRI</t>
-        </is>
-      </c>
+      <c r="J251" s="3" t="inlineStr"/>
       <c r="K251" s="3" t="inlineStr"/>
       <c r="L251" s="3" t="inlineStr"/>
       <c r="M251" s="3" t="n">
@@ -10373,7 +10377,7 @@
       <c r="A252" s="3" t="inlineStr"/>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>marker</t>
+          <t>magnetic resonance imaging</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr"/>
@@ -10387,11 +10391,15 @@
       </c>
       <c r="H252" s="3" t="inlineStr"/>
       <c r="I252" s="3" t="inlineStr"/>
-      <c r="J252" s="3" t="inlineStr"/>
+      <c r="J252" s="3" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
       <c r="K252" s="3" t="inlineStr"/>
       <c r="L252" s="3" t="inlineStr"/>
       <c r="M252" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N252" s="3" t="n">
         <v>0</v>
@@ -10410,7 +10418,7 @@
       <c r="A253" s="3" t="inlineStr"/>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>mathematical model</t>
+          <t>marker</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr"/>
@@ -10447,7 +10455,7 @@
       <c r="A254" s="3" t="inlineStr"/>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>mathematical model</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr"/>
@@ -10465,7 +10473,7 @@
       <c r="K254" s="3" t="inlineStr"/>
       <c r="L254" s="3" t="inlineStr"/>
       <c r="M254" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N254" s="3" t="n">
         <v>0</v>
@@ -10484,7 +10492,7 @@
       <c r="A255" s="3" t="inlineStr"/>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>mean difference</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr"/>
@@ -10518,92 +10526,92 @@
       <c r="S255" s="3" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
+      <c r="A256" s="3" t="inlineStr"/>
+      <c r="B256" s="3" t="inlineStr">
+        <is>
+          <t>mean difference</t>
+        </is>
+      </c>
+      <c r="C256" s="3" t="inlineStr"/>
+      <c r="D256" s="3" t="inlineStr"/>
+      <c r="E256" s="3" t="inlineStr"/>
+      <c r="F256" s="3" t="inlineStr"/>
+      <c r="G256" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H256" s="3" t="inlineStr"/>
+      <c r="I256" s="3" t="inlineStr"/>
+      <c r="J256" s="3" t="inlineStr"/>
+      <c r="K256" s="3" t="inlineStr"/>
+      <c r="L256" s="3" t="inlineStr"/>
+      <c r="M256" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" s="3" t="inlineStr"/>
+      <c r="P256" s="3" t="inlineStr"/>
+      <c r="Q256" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R256" s="3" t="inlineStr"/>
+      <c r="S256" s="3" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
         <is>
           <t>AFP:0000225</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>A process whose purpose is to assign a number to an attribute of an object or event or to classify the object or event according to that attribute.</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr"/>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>0</v>
-      </c>
-      <c r="N256" t="n">
-        <v>0</v>
-      </c>
-      <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr"/>
-      <c r="Q256" t="inlineStr">
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R256" t="inlineStr"/>
-      <c r="S256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="3" t="inlineStr"/>
-      <c r="B257" s="3" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="C257" s="3" t="inlineStr"/>
-      <c r="D257" s="3" t="inlineStr"/>
-      <c r="E257" s="3" t="inlineStr"/>
-      <c r="F257" s="3" t="inlineStr"/>
-      <c r="G257" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H257" s="3" t="inlineStr"/>
-      <c r="I257" s="3" t="inlineStr"/>
-      <c r="J257" s="3" t="inlineStr"/>
-      <c r="K257" s="3" t="inlineStr"/>
-      <c r="L257" s="3" t="inlineStr"/>
-      <c r="M257" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N257" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O257" s="3" t="inlineStr"/>
-      <c r="P257" s="3" t="inlineStr"/>
-      <c r="Q257" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R257" s="3" t="inlineStr"/>
-      <c r="S257" s="3" t="inlineStr"/>
+      <c r="R257" t="inlineStr"/>
+      <c r="S257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr"/>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>mediation analysis</t>
+          <t>median</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr"/>
@@ -10640,7 +10648,7 @@
       <c r="A259" s="3" t="inlineStr"/>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>mediator</t>
+          <t>mediation analysis</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr"/>
@@ -10677,7 +10685,7 @@
       <c r="A260" s="3" t="inlineStr"/>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>melbourne Collaborative Cohort Study</t>
+          <t>mediator</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr"/>
@@ -10714,7 +10722,7 @@
       <c r="A261" s="3" t="inlineStr"/>
       <c r="B261" s="3" t="inlineStr">
         <is>
-          <t>mendelian randomisation analysis</t>
+          <t>melbourne Collaborative Cohort Study</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr"/>
@@ -10751,7 +10759,7 @@
       <c r="A262" s="3" t="inlineStr"/>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t>meta-analysis</t>
+          <t>mendelian randomisation analysis</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr"/>
@@ -10788,7 +10796,7 @@
       <c r="A263" s="3" t="inlineStr"/>
       <c r="B263" s="3" t="inlineStr">
         <is>
-          <t>minimum data set</t>
+          <t>meta-analysis</t>
         </is>
       </c>
       <c r="C263" s="3" t="inlineStr"/>
@@ -10825,7 +10833,7 @@
       <c r="A264" s="3" t="inlineStr"/>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>missing data</t>
+          <t>minimum data set</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr"/>
@@ -10862,7 +10870,7 @@
       <c r="A265" s="3" t="inlineStr"/>
       <c r="B265" s="3" t="inlineStr">
         <is>
-          <t>mixed linear model</t>
+          <t>missing data</t>
         </is>
       </c>
       <c r="C265" s="3" t="inlineStr"/>
@@ -10899,7 +10907,7 @@
       <c r="A266" s="3" t="inlineStr"/>
       <c r="B266" s="3" t="inlineStr">
         <is>
-          <t>mode of action</t>
+          <t>mixed linear model</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr"/>
@@ -10933,88 +10941,88 @@
       <c r="S266" s="3" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
+      <c r="A267" s="3" t="inlineStr"/>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>mode of action</t>
+        </is>
+      </c>
+      <c r="C267" s="3" t="inlineStr"/>
+      <c r="D267" s="3" t="inlineStr"/>
+      <c r="E267" s="3" t="inlineStr"/>
+      <c r="F267" s="3" t="inlineStr"/>
+      <c r="G267" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H267" s="3" t="inlineStr"/>
+      <c r="I267" s="3" t="inlineStr"/>
+      <c r="J267" s="3" t="inlineStr"/>
+      <c r="K267" s="3" t="inlineStr"/>
+      <c r="L267" s="3" t="inlineStr"/>
+      <c r="M267" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" s="3" t="inlineStr"/>
+      <c r="P267" s="3" t="inlineStr"/>
+      <c r="Q267" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R267" s="3" t="inlineStr"/>
+      <c r="S267" s="3" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
         <is>
           <t>OBCS:0000035</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>0</v>
-      </c>
-      <c r="N267" t="n">
-        <v>0</v>
-      </c>
-      <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr"/>
-      <c r="Q267" t="inlineStr">
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R267" t="inlineStr"/>
-      <c r="S267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="3" t="inlineStr"/>
-      <c r="B268" s="3" t="inlineStr">
-        <is>
-          <t>model fit</t>
-        </is>
-      </c>
-      <c r="C268" s="3" t="inlineStr"/>
-      <c r="D268" s="3" t="inlineStr"/>
-      <c r="E268" s="3" t="inlineStr"/>
-      <c r="F268" s="3" t="inlineStr"/>
-      <c r="G268" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H268" s="3" t="inlineStr"/>
-      <c r="I268" s="3" t="inlineStr"/>
-      <c r="J268" s="3" t="inlineStr"/>
-      <c r="K268" s="3" t="inlineStr"/>
-      <c r="L268" s="3" t="inlineStr"/>
-      <c r="M268" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N268" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O268" s="3" t="inlineStr"/>
-      <c r="P268" s="3" t="inlineStr"/>
-      <c r="Q268" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R268" s="3" t="inlineStr"/>
-      <c r="S268" s="3" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="3" t="inlineStr"/>
       <c r="B269" s="3" t="inlineStr">
         <is>
-          <t>model projection</t>
+          <t>model fit</t>
         </is>
       </c>
       <c r="C269" s="3" t="inlineStr"/>
@@ -11051,7 +11059,7 @@
       <c r="A270" s="3" t="inlineStr"/>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t>moderator variable</t>
+          <t>model projection</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr"/>
@@ -11088,7 +11096,7 @@
       <c r="A271" s="3" t="inlineStr"/>
       <c r="B271" s="3" t="inlineStr">
         <is>
-          <t>molecular level</t>
+          <t>moderator variable</t>
         </is>
       </c>
       <c r="C271" s="3" t="inlineStr"/>
@@ -11125,7 +11133,7 @@
       <c r="A272" s="3" t="inlineStr"/>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t>monitoring for research</t>
+          <t>molecular level</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr"/>
@@ -11162,7 +11170,7 @@
       <c r="A273" s="3" t="inlineStr"/>
       <c r="B273" s="3" t="inlineStr">
         <is>
-          <t>multi-centre study</t>
+          <t>monitoring for research</t>
         </is>
       </c>
       <c r="C273" s="3" t="inlineStr"/>
@@ -11199,7 +11207,7 @@
       <c r="A274" s="3" t="inlineStr"/>
       <c r="B274" s="3" t="inlineStr">
         <is>
-          <t>multi-cohort study design</t>
+          <t>multi-centre study</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr"/>
@@ -11236,7 +11244,7 @@
       <c r="A275" s="3" t="inlineStr"/>
       <c r="B275" s="3" t="inlineStr">
         <is>
-          <t>multi-level modelling</t>
+          <t>multi-cohort study design</t>
         </is>
       </c>
       <c r="C275" s="3" t="inlineStr"/>
@@ -11273,7 +11281,7 @@
       <c r="A276" s="3" t="inlineStr"/>
       <c r="B276" s="3" t="inlineStr">
         <is>
-          <t>multi-site sample</t>
+          <t>multi-level modelling</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr"/>
@@ -11310,7 +11318,7 @@
       <c r="A277" s="3" t="inlineStr"/>
       <c r="B277" s="3" t="inlineStr">
         <is>
-          <t>multilevel modeling</t>
+          <t>multi-site sample</t>
         </is>
       </c>
       <c r="C277" s="3" t="inlineStr"/>
@@ -11347,7 +11355,7 @@
       <c r="A278" s="3" t="inlineStr"/>
       <c r="B278" s="3" t="inlineStr">
         <is>
-          <t>multinomial logistic regression</t>
+          <t>multilevel modeling</t>
         </is>
       </c>
       <c r="C278" s="3" t="inlineStr"/>
@@ -11384,7 +11392,7 @@
       <c r="A279" s="3" t="inlineStr"/>
       <c r="B279" s="3" t="inlineStr">
         <is>
-          <t>multivariate model</t>
+          <t>multinomial logistic regression</t>
         </is>
       </c>
       <c r="C279" s="3" t="inlineStr"/>
@@ -11421,7 +11429,7 @@
       <c r="A280" s="3" t="inlineStr"/>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t>n-of-1 study</t>
+          <t>multivariate model</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr"/>
@@ -11458,7 +11466,7 @@
       <c r="A281" s="3" t="inlineStr"/>
       <c r="B281" s="3" t="inlineStr">
         <is>
-          <t>nVivo</t>
+          <t>n-of-1 study</t>
         </is>
       </c>
       <c r="C281" s="3" t="inlineStr"/>
@@ -11495,7 +11503,7 @@
       <c r="A282" s="3" t="inlineStr"/>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>national small-area level ecological study</t>
+          <t>nVivo</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr"/>
@@ -11532,7 +11540,7 @@
       <c r="A283" s="3" t="inlineStr"/>
       <c r="B283" s="3" t="inlineStr">
         <is>
-          <t>nationally representative sample</t>
+          <t>national small-area level ecological study</t>
         </is>
       </c>
       <c r="C283" s="3" t="inlineStr"/>
@@ -11550,7 +11558,7 @@
       <c r="K283" s="3" t="inlineStr"/>
       <c r="L283" s="3" t="inlineStr"/>
       <c r="M283" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N283" s="3" t="n">
         <v>0</v>
@@ -11569,7 +11577,7 @@
       <c r="A284" s="3" t="inlineStr"/>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t>natural experiment</t>
+          <t>nationally representative sample</t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr"/>
@@ -11587,7 +11595,7 @@
       <c r="K284" s="3" t="inlineStr"/>
       <c r="L284" s="3" t="inlineStr"/>
       <c r="M284" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N284" s="3" t="n">
         <v>0</v>
@@ -11606,7 +11614,7 @@
       <c r="A285" s="3" t="inlineStr"/>
       <c r="B285" s="3" t="inlineStr">
         <is>
-          <t>naturalistic observation</t>
+          <t>natural experiment</t>
         </is>
       </c>
       <c r="C285" s="3" t="inlineStr"/>
@@ -11643,7 +11651,7 @@
       <c r="A286" s="3" t="inlineStr"/>
       <c r="B286" s="3" t="inlineStr">
         <is>
-          <t>naturalistic setting</t>
+          <t>naturalistic observation</t>
         </is>
       </c>
       <c r="C286" s="3" t="inlineStr"/>
@@ -11680,7 +11688,7 @@
       <c r="A287" s="3" t="inlineStr"/>
       <c r="B287" s="3" t="inlineStr">
         <is>
-          <t>negative association</t>
+          <t>naturalistic setting</t>
         </is>
       </c>
       <c r="C287" s="3" t="inlineStr"/>
@@ -11717,7 +11725,7 @@
       <c r="A288" s="3" t="inlineStr"/>
       <c r="B288" s="3" t="inlineStr">
         <is>
-          <t>negative urine toxicology screen</t>
+          <t>negative association</t>
         </is>
       </c>
       <c r="C288" s="3" t="inlineStr"/>
@@ -11754,7 +11762,7 @@
       <c r="A289" s="3" t="inlineStr"/>
       <c r="B289" s="3" t="inlineStr">
         <is>
-          <t>non-inferiority trial</t>
+          <t>negative urine toxicology screen</t>
         </is>
       </c>
       <c r="C289" s="3" t="inlineStr"/>
@@ -11791,7 +11799,7 @@
       <c r="A290" s="3" t="inlineStr"/>
       <c r="B290" s="3" t="inlineStr">
         <is>
-          <t>non-invasive biomagnetic technique</t>
+          <t>non-inferiority trial</t>
         </is>
       </c>
       <c r="C290" s="3" t="inlineStr"/>
@@ -11828,7 +11836,7 @@
       <c r="A291" s="3" t="inlineStr"/>
       <c r="B291" s="3" t="inlineStr">
         <is>
-          <t>non-linear association</t>
+          <t>non-invasive biomagnetic technique</t>
         </is>
       </c>
       <c r="C291" s="3" t="inlineStr"/>
@@ -11865,7 +11873,7 @@
       <c r="A292" s="3" t="inlineStr"/>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t>non-response to follow up</t>
+          <t>non-linear association</t>
         </is>
       </c>
       <c r="C292" s="3" t="inlineStr"/>
@@ -11902,7 +11910,7 @@
       <c r="A293" s="3" t="inlineStr"/>
       <c r="B293" s="3" t="inlineStr">
         <is>
-          <t>non-significant</t>
+          <t>non-response to follow up</t>
         </is>
       </c>
       <c r="C293" s="3" t="inlineStr"/>
@@ -11939,7 +11947,7 @@
       <c r="A294" s="3" t="inlineStr"/>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t>non-significant association</t>
+          <t>non-significant</t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr"/>
@@ -11976,7 +11984,7 @@
       <c r="A295" s="3" t="inlineStr"/>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t>objective measure</t>
+          <t>non-significant association</t>
         </is>
       </c>
       <c r="C295" s="3" t="inlineStr"/>
@@ -11994,7 +12002,7 @@
       <c r="K295" s="3" t="inlineStr"/>
       <c r="L295" s="3" t="inlineStr"/>
       <c r="M295" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N295" s="3" t="n">
         <v>0</v>
@@ -12013,7 +12021,7 @@
       <c r="A296" s="3" t="inlineStr"/>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t>objective verification</t>
+          <t>objective measure</t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr"/>
@@ -12050,7 +12058,7 @@
       <c r="A297" s="3" t="inlineStr"/>
       <c r="B297" s="3" t="inlineStr">
         <is>
-          <t>observation</t>
+          <t>objective verification</t>
         </is>
       </c>
       <c r="C297" s="3" t="inlineStr"/>
@@ -12068,7 +12076,7 @@
       <c r="K297" s="3" t="inlineStr"/>
       <c r="L297" s="3" t="inlineStr"/>
       <c r="M297" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N297" s="3" t="n">
         <v>0</v>
@@ -12087,7 +12095,7 @@
       <c r="A298" s="3" t="inlineStr"/>
       <c r="B298" s="3" t="inlineStr">
         <is>
-          <t>observation of injecting practices</t>
+          <t>observation</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr"/>
@@ -12124,7 +12132,7 @@
       <c r="A299" s="3" t="inlineStr"/>
       <c r="B299" s="3" t="inlineStr">
         <is>
-          <t>observational study</t>
+          <t>observation of injecting practices</t>
         </is>
       </c>
       <c r="C299" s="3" t="inlineStr"/>
@@ -12161,7 +12169,7 @@
       <c r="A300" s="3" t="inlineStr"/>
       <c r="B300" s="3" t="inlineStr">
         <is>
-          <t>observed association</t>
+          <t>observational study</t>
         </is>
       </c>
       <c r="C300" s="3" t="inlineStr"/>
@@ -12198,7 +12206,7 @@
       <c r="A301" s="3" t="inlineStr"/>
       <c r="B301" s="3" t="inlineStr">
         <is>
-          <t>odds</t>
+          <t>observed association</t>
         </is>
       </c>
       <c r="C301" s="3" t="inlineStr"/>
@@ -12235,7 +12243,7 @@
       <c r="A302" s="3" t="inlineStr"/>
       <c r="B302" s="3" t="inlineStr">
         <is>
-          <t>odds ratio</t>
+          <t>odds</t>
         </is>
       </c>
       <c r="C302" s="3" t="inlineStr"/>
@@ -12272,7 +12280,7 @@
       <c r="A303" s="3" t="inlineStr"/>
       <c r="B303" s="3" t="inlineStr">
         <is>
-          <t>omnibus model</t>
+          <t>odds ratio</t>
         </is>
       </c>
       <c r="C303" s="3" t="inlineStr"/>
@@ -12309,7 +12317,7 @@
       <c r="A304" s="3" t="inlineStr"/>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t>one-year post-treatment</t>
+          <t>omnibus model</t>
         </is>
       </c>
       <c r="C304" s="3" t="inlineStr"/>
@@ -12346,7 +12354,7 @@
       <c r="A305" s="3" t="inlineStr"/>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t>opportunistic sample</t>
+          <t>one-year post-treatment</t>
         </is>
       </c>
       <c r="C305" s="3" t="inlineStr"/>
@@ -12383,14 +12391,10 @@
       <c r="A306" s="3" t="inlineStr"/>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>outcome measure</t>
-        </is>
-      </c>
-      <c r="C306" s="3" t="inlineStr">
-        <is>
-          <t>A measure that is being used in a research study to assess a designated outcome of a process, including an intervention.</t>
-        </is>
-      </c>
+          <t>opportunistic sample</t>
+        </is>
+      </c>
+      <c r="C306" s="3" t="inlineStr"/>
       <c r="D306" s="3" t="inlineStr"/>
       <c r="E306" s="3" t="inlineStr"/>
       <c r="F306" s="3" t="inlineStr"/>
@@ -12401,15 +12405,11 @@
       </c>
       <c r="H306" s="3" t="inlineStr"/>
       <c r="I306" s="3" t="inlineStr"/>
-      <c r="J306" s="3" t="inlineStr">
-        <is>
-          <t>Measure</t>
-        </is>
-      </c>
+      <c r="J306" s="3" t="inlineStr"/>
       <c r="K306" s="3" t="inlineStr"/>
       <c r="L306" s="3" t="inlineStr"/>
       <c r="M306" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N306" s="3" t="n">
         <v>0</v>
@@ -12428,10 +12428,14 @@
       <c r="A307" s="3" t="inlineStr"/>
       <c r="B307" s="3" t="inlineStr">
         <is>
-          <t>p value</t>
-        </is>
-      </c>
-      <c r="C307" s="3" t="inlineStr"/>
+          <t>outcome measure</t>
+        </is>
+      </c>
+      <c r="C307" s="3" t="inlineStr">
+        <is>
+          <t>A measure that is being used in a research study to assess a designated outcome of a process, including an intervention.</t>
+        </is>
+      </c>
       <c r="D307" s="3" t="inlineStr"/>
       <c r="E307" s="3" t="inlineStr"/>
       <c r="F307" s="3" t="inlineStr"/>
@@ -12442,11 +12446,15 @@
       </c>
       <c r="H307" s="3" t="inlineStr"/>
       <c r="I307" s="3" t="inlineStr"/>
-      <c r="J307" s="3" t="inlineStr"/>
+      <c r="J307" s="3" t="inlineStr">
+        <is>
+          <t>Measure</t>
+        </is>
+      </c>
       <c r="K307" s="3" t="inlineStr"/>
       <c r="L307" s="3" t="inlineStr"/>
       <c r="M307" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N307" s="3" t="n">
         <v>0</v>
@@ -12465,7 +12473,7 @@
       <c r="A308" s="3" t="inlineStr"/>
       <c r="B308" s="3" t="inlineStr">
         <is>
-          <t>parallel-group study desigh</t>
+          <t>p value</t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr"/>
@@ -12502,7 +12510,7 @@
       <c r="A309" s="3" t="inlineStr"/>
       <c r="B309" s="3" t="inlineStr">
         <is>
-          <t>participant</t>
+          <t>parallel-group study desigh</t>
         </is>
       </c>
       <c r="C309" s="3" t="inlineStr"/>
@@ -12539,7 +12547,7 @@
       <c r="A310" s="3" t="inlineStr"/>
       <c r="B310" s="3" t="inlineStr">
         <is>
-          <t>participant level data</t>
+          <t>participant</t>
         </is>
       </c>
       <c r="C310" s="3" t="inlineStr"/>
@@ -12576,7 +12584,7 @@
       <c r="A311" s="3" t="inlineStr"/>
       <c r="B311" s="3" t="inlineStr">
         <is>
-          <t>path analysis</t>
+          <t>participant level data</t>
         </is>
       </c>
       <c r="C311" s="3" t="inlineStr"/>
@@ -12613,7 +12621,7 @@
       <c r="A312" s="3" t="inlineStr"/>
       <c r="B312" s="3" t="inlineStr">
         <is>
-          <t>per protocol</t>
+          <t>path analysis</t>
         </is>
       </c>
       <c r="C312" s="3" t="inlineStr"/>
@@ -12650,7 +12658,7 @@
       <c r="A313" s="3" t="inlineStr"/>
       <c r="B313" s="3" t="inlineStr">
         <is>
-          <t>percentage point change</t>
+          <t>per protocol</t>
         </is>
       </c>
       <c r="C313" s="3" t="inlineStr"/>
@@ -12684,54 +12692,26 @@
       <c r="S313" s="3" t="inlineStr"/>
     </row>
     <row r="314">
-      <c r="A314" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000179</t>
-        </is>
-      </c>
+      <c r="A314" s="3" t="inlineStr"/>
       <c r="B314" s="3" t="inlineStr">
         <is>
-          <t>personal stake</t>
-        </is>
-      </c>
-      <c r="C314" s="3" t="inlineStr">
-        <is>
-          <t>A personal attribute that involves an outcome of value to that person arising from a process.</t>
-        </is>
-      </c>
+          <t>percentage point change</t>
+        </is>
+      </c>
+      <c r="C314" s="3" t="inlineStr"/>
       <c r="D314" s="3" t="inlineStr"/>
-      <c r="E314" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="F314" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="E314" s="3" t="inlineStr"/>
+      <c r="F314" s="3" t="inlineStr"/>
       <c r="G314" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H314" s="3" t="inlineStr">
-        <is>
-          <t>This is derived from the idea of a stakeholder and is a generalisation of vested interest.</t>
-        </is>
-      </c>
+      <c r="H314" s="3" t="inlineStr"/>
       <c r="I314" s="3" t="inlineStr"/>
       <c r="J314" s="3" t="inlineStr"/>
-      <c r="K314" s="3" t="inlineStr">
-        <is>
-          <t>Value here can be positive or negative. This definition refers to actual value rather than perceived value. The process that produces the outcome will often be an event such as reporting of the outcome of a clinical trial, or delivery of a verdict in a trial, or enactment of legislation.</t>
-        </is>
-      </c>
-      <c r="L314" s="3" t="inlineStr">
-        <is>
-          <t>Dr Smith has a personal stake in the outcome of the clinical trial of the drug, varenicline, because he has shares in the company that produces the drug.</t>
-        </is>
-      </c>
+      <c r="K314" s="3" t="inlineStr"/>
+      <c r="L314" s="3" t="inlineStr"/>
       <c r="M314" s="3" t="n">
         <v>0</v>
       </c>
@@ -12749,26 +12729,54 @@
       <c r="S314" s="3" t="inlineStr"/>
     </row>
     <row r="315">
-      <c r="A315" s="3" t="inlineStr"/>
+      <c r="A315" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000179</t>
+        </is>
+      </c>
       <c r="B315" s="3" t="inlineStr">
         <is>
-          <t>pharmacologist</t>
-        </is>
-      </c>
-      <c r="C315" s="3" t="inlineStr"/>
+          <t>personal stake</t>
+        </is>
+      </c>
+      <c r="C315" s="3" t="inlineStr">
+        <is>
+          <t>A personal attribute that involves an outcome of value to that person arising from a process.</t>
+        </is>
+      </c>
       <c r="D315" s="3" t="inlineStr"/>
-      <c r="E315" s="3" t="inlineStr"/>
-      <c r="F315" s="3" t="inlineStr"/>
+      <c r="E315" s="3" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F315" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H315" s="3" t="inlineStr"/>
+      <c r="H315" s="3" t="inlineStr">
+        <is>
+          <t>This is derived from the idea of a stakeholder and is a generalisation of vested interest.</t>
+        </is>
+      </c>
       <c r="I315" s="3" t="inlineStr"/>
       <c r="J315" s="3" t="inlineStr"/>
-      <c r="K315" s="3" t="inlineStr"/>
-      <c r="L315" s="3" t="inlineStr"/>
+      <c r="K315" s="3" t="inlineStr">
+        <is>
+          <t>Value here can be positive or negative. This definition refers to actual value rather than perceived value. The process that produces the outcome will often be an event such as reporting of the outcome of a clinical trial, or delivery of a verdict in a trial, or enactment of legislation.</t>
+        </is>
+      </c>
+      <c r="L315" s="3" t="inlineStr">
+        <is>
+          <t>Dr Smith has a personal stake in the outcome of the clinical trial of the drug, varenicline, because he has shares in the company that produces the drug.</t>
+        </is>
+      </c>
       <c r="M315" s="3" t="n">
         <v>0</v>
       </c>
@@ -12789,7 +12797,7 @@
       <c r="A316" s="3" t="inlineStr"/>
       <c r="B316" s="3" t="inlineStr">
         <is>
-          <t>pilot study</t>
+          <t>pharmacologist</t>
         </is>
       </c>
       <c r="C316" s="3" t="inlineStr"/>
@@ -12826,7 +12834,7 @@
       <c r="A317" s="3" t="inlineStr"/>
       <c r="B317" s="3" t="inlineStr">
         <is>
-          <t>placebo-controlled trial</t>
+          <t>pilot study</t>
         </is>
       </c>
       <c r="C317" s="3" t="inlineStr"/>
@@ -12863,7 +12871,7 @@
       <c r="A318" s="3" t="inlineStr"/>
       <c r="B318" s="3" t="inlineStr">
         <is>
-          <t>plausible effect size</t>
+          <t>placebo-controlled trial</t>
         </is>
       </c>
       <c r="C318" s="3" t="inlineStr"/>
@@ -12900,7 +12908,7 @@
       <c r="A319" s="3" t="inlineStr"/>
       <c r="B319" s="3" t="inlineStr">
         <is>
-          <t>poison center</t>
+          <t>plausible effect size</t>
         </is>
       </c>
       <c r="C319" s="3" t="inlineStr"/>
@@ -12937,7 +12945,7 @@
       <c r="A320" s="3" t="inlineStr"/>
       <c r="B320" s="3" t="inlineStr">
         <is>
-          <t>poisson regression</t>
+          <t>poison center</t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr"/>
@@ -12974,7 +12982,7 @@
       <c r="A321" s="3" t="inlineStr"/>
       <c r="B321" s="3" t="inlineStr">
         <is>
-          <t>pooled data</t>
+          <t>poisson regression</t>
         </is>
       </c>
       <c r="C321" s="3" t="inlineStr"/>
@@ -13011,16 +13019,12 @@
       <c r="A322" s="3" t="inlineStr"/>
       <c r="B322" s="3" t="inlineStr">
         <is>
-          <t>population-based cohort study design</t>
+          <t>pooled data</t>
         </is>
       </c>
       <c r="C322" s="3" t="inlineStr"/>
       <c r="D322" s="3" t="inlineStr"/>
-      <c r="E322" s="3" t="inlineStr">
-        <is>
-          <t>research study design</t>
-        </is>
-      </c>
+      <c r="E322" s="3" t="inlineStr"/>
       <c r="F322" s="3" t="inlineStr"/>
       <c r="G322" s="3" t="inlineStr">
         <is>
@@ -13052,12 +13056,16 @@
       <c r="A323" s="3" t="inlineStr"/>
       <c r="B323" s="3" t="inlineStr">
         <is>
-          <t>population-based twin samples</t>
+          <t>population-based cohort study design</t>
         </is>
       </c>
       <c r="C323" s="3" t="inlineStr"/>
       <c r="D323" s="3" t="inlineStr"/>
-      <c r="E323" s="3" t="inlineStr"/>
+      <c r="E323" s="3" t="inlineStr">
+        <is>
+          <t>research study design</t>
+        </is>
+      </c>
       <c r="F323" s="3" t="inlineStr"/>
       <c r="G323" s="3" t="inlineStr">
         <is>
@@ -13089,7 +13097,7 @@
       <c r="A324" s="3" t="inlineStr"/>
       <c r="B324" s="3" t="inlineStr">
         <is>
-          <t>positive association</t>
+          <t>population-based twin samples</t>
         </is>
       </c>
       <c r="C324" s="3" t="inlineStr"/>
@@ -13126,7 +13134,7 @@
       <c r="A325" s="3" t="inlineStr"/>
       <c r="B325" s="3" t="inlineStr">
         <is>
-          <t>positively associated</t>
+          <t>positive association</t>
         </is>
       </c>
       <c r="C325" s="3" t="inlineStr"/>
@@ -13163,7 +13171,7 @@
       <c r="A326" s="3" t="inlineStr"/>
       <c r="B326" s="3" t="inlineStr">
         <is>
-          <t>positron Emission Tomography scan</t>
+          <t>positively associated</t>
         </is>
       </c>
       <c r="C326" s="3" t="inlineStr"/>
@@ -13177,11 +13185,7 @@
       </c>
       <c r="H326" s="3" t="inlineStr"/>
       <c r="I326" s="3" t="inlineStr"/>
-      <c r="J326" s="3" t="inlineStr">
-        <is>
-          <t>PET scan</t>
-        </is>
-      </c>
+      <c r="J326" s="3" t="inlineStr"/>
       <c r="K326" s="3" t="inlineStr"/>
       <c r="L326" s="3" t="inlineStr"/>
       <c r="M326" s="3" t="n">
@@ -13201,49 +13205,29 @@
       <c r="S326" s="3" t="inlineStr"/>
     </row>
     <row r="327">
-      <c r="A327" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000176</t>
-        </is>
-      </c>
+      <c r="A327" s="3" t="inlineStr"/>
       <c r="B327" s="3" t="inlineStr">
         <is>
-          <t>potential competing interest</t>
-        </is>
-      </c>
-      <c r="C327" s="3" t="inlineStr">
-        <is>
-          <t>An attribute of a person that could be a competing interest.</t>
-        </is>
-      </c>
+          <t>positron Emission Tomography scan</t>
+        </is>
+      </c>
+      <c r="C327" s="3" t="inlineStr"/>
       <c r="D327" s="3" t="inlineStr"/>
-      <c r="E327" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="F327" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="E327" s="3" t="inlineStr"/>
+      <c r="F327" s="3" t="inlineStr"/>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Research activity </t>
-        </is>
-      </c>
-      <c r="H327" s="3" t="inlineStr">
-        <is>
-          <t>The definition was adapted from the PLOS definition.</t>
-        </is>
-      </c>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H327" s="3" t="inlineStr"/>
       <c r="I327" s="3" t="inlineStr"/>
-      <c r="J327" s="3" t="inlineStr"/>
-      <c r="K327" s="3" t="inlineStr">
-        <is>
-          <t>They should be fully disclosed by people in any research, clinical, professional or policy-making role to enable stakeholders to make an informed judgement about the potential for bias. They include: 1) financial potential competing interests, as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the conduct of the professional role.</t>
-        </is>
-      </c>
+      <c r="J327" s="3" t="inlineStr">
+        <is>
+          <t>PET scan</t>
+        </is>
+      </c>
+      <c r="K327" s="3" t="inlineStr"/>
       <c r="L327" s="3" t="inlineStr"/>
       <c r="M327" s="3" t="n">
         <v>0</v>
@@ -13262,25 +13246,49 @@
       <c r="S327" s="3" t="inlineStr"/>
     </row>
     <row r="328">
-      <c r="A328" s="3" t="inlineStr"/>
+      <c r="A328" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000176</t>
+        </is>
+      </c>
       <c r="B328" s="3" t="inlineStr">
         <is>
-          <t>potential mediator</t>
-        </is>
-      </c>
-      <c r="C328" s="3" t="inlineStr"/>
+          <t>potential competing interest</t>
+        </is>
+      </c>
+      <c r="C328" s="3" t="inlineStr">
+        <is>
+          <t>An attribute of a person that could be a competing interest.</t>
+        </is>
+      </c>
       <c r="D328" s="3" t="inlineStr"/>
-      <c r="E328" s="3" t="inlineStr"/>
-      <c r="F328" s="3" t="inlineStr"/>
+      <c r="E328" s="3" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F328" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H328" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Research activity </t>
+        </is>
+      </c>
+      <c r="H328" s="3" t="inlineStr">
+        <is>
+          <t>The definition was adapted from the PLOS definition.</t>
+        </is>
+      </c>
       <c r="I328" s="3" t="inlineStr"/>
       <c r="J328" s="3" t="inlineStr"/>
-      <c r="K328" s="3" t="inlineStr"/>
+      <c r="K328" s="3" t="inlineStr">
+        <is>
+          <t>They should be fully disclosed by people in any research, clinical, professional or policy-making role to enable stakeholders to make an informed judgement about the potential for bias. They include: 1) financial potential competing interests, as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the conduct of the professional role.</t>
+        </is>
+      </c>
       <c r="L328" s="3" t="inlineStr"/>
       <c r="M328" s="3" t="n">
         <v>0</v>
@@ -13302,7 +13310,7 @@
       <c r="A329" s="3" t="inlineStr"/>
       <c r="B329" s="3" t="inlineStr">
         <is>
-          <t>pragmatic randomised trial</t>
+          <t>potential mediator</t>
         </is>
       </c>
       <c r="C329" s="3" t="inlineStr"/>
@@ -13339,7 +13347,7 @@
       <c r="A330" s="3" t="inlineStr"/>
       <c r="B330" s="3" t="inlineStr">
         <is>
-          <t>pre-registered data analysis</t>
+          <t>pragmatic randomised trial</t>
         </is>
       </c>
       <c r="C330" s="3" t="inlineStr"/>
@@ -13376,7 +13384,7 @@
       <c r="A331" s="3" t="inlineStr"/>
       <c r="B331" s="3" t="inlineStr">
         <is>
-          <t>pre-registered study</t>
+          <t>pre-registered data analysis</t>
         </is>
       </c>
       <c r="C331" s="3" t="inlineStr"/>
@@ -13413,7 +13421,7 @@
       <c r="A332" s="3" t="inlineStr"/>
       <c r="B332" s="3" t="inlineStr">
         <is>
-          <t>pre-specified analysis</t>
+          <t>pre-registered study</t>
         </is>
       </c>
       <c r="C332" s="3" t="inlineStr"/>
@@ -13450,7 +13458,7 @@
       <c r="A333" s="3" t="inlineStr"/>
       <c r="B333" s="3" t="inlineStr">
         <is>
-          <t>preclinical research</t>
+          <t>pre-specified analysis</t>
         </is>
       </c>
       <c r="C333" s="3" t="inlineStr"/>
@@ -13487,7 +13495,7 @@
       <c r="A334" s="3" t="inlineStr"/>
       <c r="B334" s="3" t="inlineStr">
         <is>
-          <t>preclinical substance use research</t>
+          <t>preclinical research</t>
         </is>
       </c>
       <c r="C334" s="3" t="inlineStr"/>
@@ -13524,7 +13532,7 @@
       <c r="A335" s="3" t="inlineStr"/>
       <c r="B335" s="3" t="inlineStr">
         <is>
-          <t>predictive validity</t>
+          <t>preclinical substance use research</t>
         </is>
       </c>
       <c r="C335" s="3" t="inlineStr"/>
@@ -13542,7 +13550,7 @@
       <c r="K335" s="3" t="inlineStr"/>
       <c r="L335" s="3" t="inlineStr"/>
       <c r="M335" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N335" s="3" t="n">
         <v>0</v>
@@ -13561,7 +13569,7 @@
       <c r="A336" s="3" t="inlineStr"/>
       <c r="B336" s="3" t="inlineStr">
         <is>
-          <t>predictive validity of a measure</t>
+          <t>predictive validity</t>
         </is>
       </c>
       <c r="C336" s="3" t="inlineStr"/>
@@ -13579,7 +13587,7 @@
       <c r="K336" s="3" t="inlineStr"/>
       <c r="L336" s="3" t="inlineStr"/>
       <c r="M336" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N336" s="3" t="n">
         <v>0</v>
@@ -13598,7 +13606,7 @@
       <c r="A337" s="3" t="inlineStr"/>
       <c r="B337" s="3" t="inlineStr">
         <is>
-          <t>predictive variables</t>
+          <t>predictive validity of a measure</t>
         </is>
       </c>
       <c r="C337" s="3" t="inlineStr"/>
@@ -13635,7 +13643,7 @@
       <c r="A338" s="3" t="inlineStr"/>
       <c r="B338" s="3" t="inlineStr">
         <is>
-          <t>predictor</t>
+          <t>predictive variables</t>
         </is>
       </c>
       <c r="C338" s="3" t="inlineStr"/>
@@ -13672,7 +13680,7 @@
       <c r="A339" s="3" t="inlineStr"/>
       <c r="B339" s="3" t="inlineStr">
         <is>
-          <t>prescription drug monitoring porgramme</t>
+          <t>predictor</t>
         </is>
       </c>
       <c r="C339" s="3" t="inlineStr"/>
@@ -13709,7 +13717,7 @@
       <c r="A340" s="3" t="inlineStr"/>
       <c r="B340" s="3" t="inlineStr">
         <is>
-          <t>primary explanatory variable</t>
+          <t>prescription drug monitoring porgramme</t>
         </is>
       </c>
       <c r="C340" s="3" t="inlineStr"/>
@@ -13746,7 +13754,7 @@
       <c r="A341" s="3" t="inlineStr"/>
       <c r="B341" s="3" t="inlineStr">
         <is>
-          <t>primary outcome</t>
+          <t>primary explanatory variable</t>
         </is>
       </c>
       <c r="C341" s="3" t="inlineStr"/>
@@ -13783,7 +13791,7 @@
       <c r="A342" s="3" t="inlineStr"/>
       <c r="B342" s="3" t="inlineStr">
         <is>
-          <t>primary outcome measure</t>
+          <t>primary outcome</t>
         </is>
       </c>
       <c r="C342" s="3" t="inlineStr"/>
@@ -13801,7 +13809,7 @@
       <c r="K342" s="3" t="inlineStr"/>
       <c r="L342" s="3" t="inlineStr"/>
       <c r="M342" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N342" s="3" t="n">
         <v>0</v>
@@ -13820,7 +13828,7 @@
       <c r="A343" s="3" t="inlineStr"/>
       <c r="B343" s="3" t="inlineStr">
         <is>
-          <t>primary predictor</t>
+          <t>primary outcome measure</t>
         </is>
       </c>
       <c r="C343" s="3" t="inlineStr"/>
@@ -13838,7 +13846,7 @@
       <c r="K343" s="3" t="inlineStr"/>
       <c r="L343" s="3" t="inlineStr"/>
       <c r="M343" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N343" s="3" t="n">
         <v>0</v>
@@ -13857,7 +13865,7 @@
       <c r="A344" s="3" t="inlineStr"/>
       <c r="B344" s="3" t="inlineStr">
         <is>
-          <t>probability sample</t>
+          <t>primary predictor</t>
         </is>
       </c>
       <c r="C344" s="3" t="inlineStr"/>
@@ -13894,7 +13902,7 @@
       <c r="A345" s="3" t="inlineStr"/>
       <c r="B345" s="3" t="inlineStr">
         <is>
-          <t>propensity score (PS) weighting</t>
+          <t>probability sample</t>
         </is>
       </c>
       <c r="C345" s="3" t="inlineStr"/>
@@ -13931,7 +13939,7 @@
       <c r="A346" s="3" t="inlineStr"/>
       <c r="B346" s="3" t="inlineStr">
         <is>
-          <t>propensity score matching</t>
+          <t>propensity score (PS) weighting</t>
         </is>
       </c>
       <c r="C346" s="3" t="inlineStr"/>
@@ -13968,7 +13976,7 @@
       <c r="A347" s="3" t="inlineStr"/>
       <c r="B347" s="3" t="inlineStr">
         <is>
-          <t>prospective birth cohort study</t>
+          <t>propensity score matching</t>
         </is>
       </c>
       <c r="C347" s="3" t="inlineStr"/>
@@ -14005,7 +14013,7 @@
       <c r="A348" s="3" t="inlineStr"/>
       <c r="B348" s="3" t="inlineStr">
         <is>
-          <t>prospective cohort study</t>
+          <t>prospective birth cohort study</t>
         </is>
       </c>
       <c r="C348" s="3" t="inlineStr"/>
@@ -14042,7 +14050,7 @@
       <c r="A349" s="3" t="inlineStr"/>
       <c r="B349" s="3" t="inlineStr">
         <is>
-          <t>prospective design</t>
+          <t>prospective cohort study</t>
         </is>
       </c>
       <c r="C349" s="3" t="inlineStr"/>
@@ -14079,7 +14087,7 @@
       <c r="A350" s="3" t="inlineStr"/>
       <c r="B350" s="3" t="inlineStr">
         <is>
-          <t>prospective study</t>
+          <t>prospective design</t>
         </is>
       </c>
       <c r="C350" s="3" t="inlineStr"/>
@@ -14116,7 +14124,7 @@
       <c r="A351" s="3" t="inlineStr"/>
       <c r="B351" s="3" t="inlineStr">
         <is>
-          <t>prospective study design</t>
+          <t>prospective study</t>
         </is>
       </c>
       <c r="C351" s="3" t="inlineStr"/>
@@ -14153,7 +14161,7 @@
       <c r="A352" s="3" t="inlineStr"/>
       <c r="B352" s="3" t="inlineStr">
         <is>
-          <t>protocol violation</t>
+          <t>prospective study design</t>
         </is>
       </c>
       <c r="C352" s="3" t="inlineStr"/>
@@ -14190,7 +14198,7 @@
       <c r="A353" s="3" t="inlineStr"/>
       <c r="B353" s="3" t="inlineStr">
         <is>
-          <t>punctuated Equilibrium Theory</t>
+          <t>protocol violation</t>
         </is>
       </c>
       <c r="C353" s="3" t="inlineStr"/>
@@ -14227,7 +14235,7 @@
       <c r="A354" s="3" t="inlineStr"/>
       <c r="B354" s="3" t="inlineStr">
         <is>
-          <t>qualitative Analysis</t>
+          <t>punctuated Equilibrium Theory</t>
         </is>
       </c>
       <c r="C354" s="3" t="inlineStr"/>
@@ -14264,7 +14272,7 @@
       <c r="A355" s="3" t="inlineStr"/>
       <c r="B355" s="3" t="inlineStr">
         <is>
-          <t>qualitative data</t>
+          <t>qualitative Analysis</t>
         </is>
       </c>
       <c r="C355" s="3" t="inlineStr"/>
@@ -14301,7 +14309,7 @@
       <c r="A356" s="3" t="inlineStr"/>
       <c r="B356" s="3" t="inlineStr">
         <is>
-          <t>qualitative study</t>
+          <t>qualitative data</t>
         </is>
       </c>
       <c r="C356" s="3" t="inlineStr"/>
@@ -14338,7 +14346,7 @@
       <c r="A357" s="3" t="inlineStr"/>
       <c r="B357" s="3" t="inlineStr">
         <is>
-          <t>quasi-experimental study design</t>
+          <t>qualitative study</t>
         </is>
       </c>
       <c r="C357" s="3" t="inlineStr"/>
@@ -14372,52 +14380,28 @@
       <c r="S357" s="3" t="inlineStr"/>
     </row>
     <row r="358">
-      <c r="A358" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000150</t>
-        </is>
-      </c>
+      <c r="A358" s="3" t="inlineStr"/>
       <c r="B358" s="3" t="inlineStr">
         <is>
-          <t>questionnaire</t>
-        </is>
-      </c>
-      <c r="C358" s="3" t="inlineStr">
-        <is>
-          <t>A document that contains a set of questions.</t>
-        </is>
-      </c>
+          <t>quasi-experimental study design</t>
+        </is>
+      </c>
+      <c r="C358" s="3" t="inlineStr"/>
       <c r="D358" s="3" t="inlineStr"/>
-      <c r="E358" s="3" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
-      </c>
-      <c r="F358" s="3" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+      <c r="E358" s="3" t="inlineStr"/>
+      <c r="F358" s="3" t="inlineStr"/>
       <c r="G358" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H358" s="3" t="inlineStr">
-        <is>
-          <t>The most iwdely used definition in OntoBee is from OBI but it is too specific.</t>
-        </is>
-      </c>
-      <c r="I358" s="3" t="inlineStr">
-        <is>
-          <t>OBI:0001000</t>
-        </is>
-      </c>
+      <c r="H358" s="3" t="inlineStr"/>
+      <c r="I358" s="3" t="inlineStr"/>
       <c r="J358" s="3" t="inlineStr"/>
       <c r="K358" s="3" t="inlineStr"/>
       <c r="L358" s="3" t="inlineStr"/>
       <c r="M358" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N358" s="3" t="n">
         <v>0</v>
@@ -14433,100 +14417,124 @@
       <c r="S358" s="3" t="inlineStr"/>
     </row>
     <row r="359">
-      <c r="A359" s="2" t="inlineStr">
+      <c r="A359" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000150</t>
+        </is>
+      </c>
+      <c r="B359" s="3" t="inlineStr">
+        <is>
+          <t>questionnaire</t>
+        </is>
+      </c>
+      <c r="C359" s="3" t="inlineStr">
+        <is>
+          <t>A document that contains a set of questions.</t>
+        </is>
+      </c>
+      <c r="D359" s="3" t="inlineStr"/>
+      <c r="E359" s="3" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="F359" s="3" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G359" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H359" s="3" t="inlineStr">
+        <is>
+          <t>The most iwdely used definition in OntoBee is from OBI but it is too specific.</t>
+        </is>
+      </c>
+      <c r="I359" s="3" t="inlineStr">
+        <is>
+          <t>OBI:0001000</t>
+        </is>
+      </c>
+      <c r="J359" s="3" t="inlineStr"/>
+      <c r="K359" s="3" t="inlineStr"/>
+      <c r="L359" s="3" t="inlineStr"/>
+      <c r="M359" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N359" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O359" s="3" t="inlineStr"/>
+      <c r="P359" s="3" t="inlineStr"/>
+      <c r="Q359" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R359" s="3" t="inlineStr"/>
+      <c r="S359" s="3" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000151</t>
         </is>
       </c>
-      <c r="B359" s="2" t="inlineStr">
+      <c r="B360" s="2" t="inlineStr">
         <is>
           <t>questionnaire administration</t>
         </is>
       </c>
-      <c r="C359" s="2" t="inlineStr">
+      <c r="C360" s="2" t="inlineStr">
         <is>
           <t>A process in which a questionnaire is answered.</t>
         </is>
       </c>
-      <c r="D359" s="2" t="inlineStr"/>
-      <c r="E359" s="2" t="inlineStr">
+      <c r="D360" s="2" t="inlineStr"/>
+      <c r="E360" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F359" s="2" t="inlineStr">
+      <c r="F360" s="2" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G359" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H359" s="2" t="inlineStr"/>
-      <c r="I359" s="2" t="inlineStr"/>
-      <c r="J359" s="2" t="inlineStr"/>
-      <c r="K359" s="2" t="inlineStr"/>
-      <c r="L359" s="2" t="inlineStr"/>
-      <c r="M359" s="2" t="n">
+      <c r="G360" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H360" s="2" t="inlineStr"/>
+      <c r="I360" s="2" t="inlineStr"/>
+      <c r="J360" s="2" t="inlineStr"/>
+      <c r="K360" s="2" t="inlineStr"/>
+      <c r="L360" s="2" t="inlineStr"/>
+      <c r="M360" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N359" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O359" s="2" t="inlineStr"/>
-      <c r="P359" s="2" t="inlineStr"/>
-      <c r="Q359" s="2" t="inlineStr">
+      <c r="N360" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O360" s="2" t="inlineStr"/>
+      <c r="P360" s="2" t="inlineStr"/>
+      <c r="Q360" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R359" s="2" t="inlineStr"/>
-      <c r="S359" s="2" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="3" t="inlineStr"/>
-      <c r="B360" s="3" t="inlineStr">
-        <is>
-          <t>random effects model</t>
-        </is>
-      </c>
-      <c r="C360" s="3" t="inlineStr"/>
-      <c r="D360" s="3" t="inlineStr"/>
-      <c r="E360" s="3" t="inlineStr"/>
-      <c r="F360" s="3" t="inlineStr"/>
-      <c r="G360" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H360" s="3" t="inlineStr"/>
-      <c r="I360" s="3" t="inlineStr"/>
-      <c r="J360" s="3" t="inlineStr"/>
-      <c r="K360" s="3" t="inlineStr"/>
-      <c r="L360" s="3" t="inlineStr"/>
-      <c r="M360" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N360" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O360" s="3" t="inlineStr"/>
-      <c r="P360" s="3" t="inlineStr"/>
-      <c r="Q360" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R360" s="3" t="inlineStr"/>
-      <c r="S360" s="3" t="inlineStr"/>
+      <c r="R360" s="2" t="inlineStr"/>
+      <c r="S360" s="2" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="3" t="inlineStr"/>
       <c r="B361" s="3" t="inlineStr">
         <is>
-          <t>random sample</t>
+          <t>random effects model</t>
         </is>
       </c>
       <c r="C361" s="3" t="inlineStr"/>
@@ -14563,7 +14571,7 @@
       <c r="A362" s="3" t="inlineStr"/>
       <c r="B362" s="3" t="inlineStr">
         <is>
-          <t>randomised</t>
+          <t>random sample</t>
         </is>
       </c>
       <c r="C362" s="3" t="inlineStr"/>
@@ -14600,7 +14608,7 @@
       <c r="A363" s="3" t="inlineStr"/>
       <c r="B363" s="3" t="inlineStr">
         <is>
-          <t>randomised Clinical Trial</t>
+          <t>randomised</t>
         </is>
       </c>
       <c r="C363" s="3" t="inlineStr"/>
@@ -14614,11 +14622,7 @@
       </c>
       <c r="H363" s="3" t="inlineStr"/>
       <c r="I363" s="3" t="inlineStr"/>
-      <c r="J363" s="3" t="inlineStr">
-        <is>
-          <t>Randomised Controlled Trial</t>
-        </is>
-      </c>
+      <c r="J363" s="3" t="inlineStr"/>
       <c r="K363" s="3" t="inlineStr"/>
       <c r="L363" s="3" t="inlineStr"/>
       <c r="M363" s="3" t="n">
@@ -14641,7 +14645,7 @@
       <c r="A364" s="3" t="inlineStr"/>
       <c r="B364" s="3" t="inlineStr">
         <is>
-          <t>randomised Controlled Trial</t>
+          <t>randomised Clinical Trial</t>
         </is>
       </c>
       <c r="C364" s="3" t="inlineStr"/>
@@ -14655,7 +14659,11 @@
       </c>
       <c r="H364" s="3" t="inlineStr"/>
       <c r="I364" s="3" t="inlineStr"/>
-      <c r="J364" s="3" t="inlineStr"/>
+      <c r="J364" s="3" t="inlineStr">
+        <is>
+          <t>Randomised Controlled Trial</t>
+        </is>
+      </c>
       <c r="K364" s="3" t="inlineStr"/>
       <c r="L364" s="3" t="inlineStr"/>
       <c r="M364" s="3" t="n">
@@ -14678,7 +14686,7 @@
       <c r="A365" s="3" t="inlineStr"/>
       <c r="B365" s="3" t="inlineStr">
         <is>
-          <t>randomly allocated</t>
+          <t>randomised Controlled Trial</t>
         </is>
       </c>
       <c r="C365" s="3" t="inlineStr"/>
@@ -14692,11 +14700,7 @@
       </c>
       <c r="H365" s="3" t="inlineStr"/>
       <c r="I365" s="3" t="inlineStr"/>
-      <c r="J365" s="3" t="inlineStr">
-        <is>
-          <t>Randomly assigned</t>
-        </is>
-      </c>
+      <c r="J365" s="3" t="inlineStr"/>
       <c r="K365" s="3" t="inlineStr"/>
       <c r="L365" s="3" t="inlineStr"/>
       <c r="M365" s="3" t="n">
@@ -14719,7 +14723,7 @@
       <c r="A366" s="3" t="inlineStr"/>
       <c r="B366" s="3" t="inlineStr">
         <is>
-          <t>rapid ethonographic fieldwork</t>
+          <t>randomly allocated</t>
         </is>
       </c>
       <c r="C366" s="3" t="inlineStr"/>
@@ -14733,7 +14737,11 @@
       </c>
       <c r="H366" s="3" t="inlineStr"/>
       <c r="I366" s="3" t="inlineStr"/>
-      <c r="J366" s="3" t="inlineStr"/>
+      <c r="J366" s="3" t="inlineStr">
+        <is>
+          <t>Randomly assigned</t>
+        </is>
+      </c>
       <c r="K366" s="3" t="inlineStr"/>
       <c r="L366" s="3" t="inlineStr"/>
       <c r="M366" s="3" t="n">
@@ -14756,7 +14764,7 @@
       <c r="A367" s="3" t="inlineStr"/>
       <c r="B367" s="3" t="inlineStr">
         <is>
-          <t>rate ratio</t>
+          <t>rapid ethonographic fieldwork</t>
         </is>
       </c>
       <c r="C367" s="3" t="inlineStr"/>
@@ -14793,7 +14801,7 @@
       <c r="A368" s="3" t="inlineStr"/>
       <c r="B368" s="3" t="inlineStr">
         <is>
-          <t>re-test reliability of a measure</t>
+          <t>rate ratio</t>
         </is>
       </c>
       <c r="C368" s="3" t="inlineStr"/>
@@ -14830,7 +14838,7 @@
       <c r="A369" s="3" t="inlineStr"/>
       <c r="B369" s="3" t="inlineStr">
         <is>
-          <t>real-world control</t>
+          <t>re-test reliability of a measure</t>
         </is>
       </c>
       <c r="C369" s="3" t="inlineStr"/>
@@ -14867,7 +14875,7 @@
       <c r="A370" s="3" t="inlineStr"/>
       <c r="B370" s="3" t="inlineStr">
         <is>
-          <t>reason for drop out</t>
+          <t>real-world control</t>
         </is>
       </c>
       <c r="C370" s="3" t="inlineStr"/>
@@ -14904,7 +14912,7 @@
       <c r="A371" s="3" t="inlineStr"/>
       <c r="B371" s="3" t="inlineStr">
         <is>
-          <t>recruitment into a study</t>
+          <t>reason for drop out</t>
         </is>
       </c>
       <c r="C371" s="3" t="inlineStr"/>
@@ -14941,7 +14949,7 @@
       <c r="A372" s="3" t="inlineStr"/>
       <c r="B372" s="3" t="inlineStr">
         <is>
-          <t>regional estimate</t>
+          <t>recruitment into a study</t>
         </is>
       </c>
       <c r="C372" s="3" t="inlineStr"/>
@@ -14978,7 +14986,7 @@
       <c r="A373" s="3" t="inlineStr"/>
       <c r="B373" s="3" t="inlineStr">
         <is>
-          <t>regression analysis</t>
+          <t>regional estimate</t>
         </is>
       </c>
       <c r="C373" s="3" t="inlineStr"/>
@@ -15015,7 +15023,7 @@
       <c r="A374" s="3" t="inlineStr"/>
       <c r="B374" s="3" t="inlineStr">
         <is>
-          <t>regression coefficient</t>
+          <t>regression analysis</t>
         </is>
       </c>
       <c r="C374" s="3" t="inlineStr"/>
@@ -15033,7 +15041,7 @@
       <c r="K374" s="3" t="inlineStr"/>
       <c r="L374" s="3" t="inlineStr"/>
       <c r="M374" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N374" s="3" t="n">
         <v>0</v>
@@ -15052,7 +15060,7 @@
       <c r="A375" s="3" t="inlineStr"/>
       <c r="B375" s="3" t="inlineStr">
         <is>
-          <t>relative risk</t>
+          <t>regression coefficient</t>
         </is>
       </c>
       <c r="C375" s="3" t="inlineStr"/>
@@ -15070,7 +15078,7 @@
       <c r="K375" s="3" t="inlineStr"/>
       <c r="L375" s="3" t="inlineStr"/>
       <c r="M375" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N375" s="3" t="n">
         <v>0</v>
@@ -15089,7 +15097,7 @@
       <c r="A376" s="3" t="inlineStr"/>
       <c r="B376" s="3" t="inlineStr">
         <is>
-          <t>reliability of a measure</t>
+          <t>relative risk</t>
         </is>
       </c>
       <c r="C376" s="3" t="inlineStr"/>
@@ -15126,7 +15134,7 @@
       <c r="A377" s="3" t="inlineStr"/>
       <c r="B377" s="3" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
+          <t>reliability of a measure</t>
         </is>
       </c>
       <c r="C377" s="3" t="inlineStr"/>
@@ -15163,7 +15171,7 @@
       <c r="A378" s="3" t="inlineStr"/>
       <c r="B378" s="3" t="inlineStr">
         <is>
-          <t>representative sample</t>
+          <t>repeated measures study design</t>
         </is>
       </c>
       <c r="C378" s="3" t="inlineStr"/>
@@ -15181,7 +15189,7 @@
       <c r="K378" s="3" t="inlineStr"/>
       <c r="L378" s="3" t="inlineStr"/>
       <c r="M378" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N378" s="3" t="n">
         <v>0</v>
@@ -15197,247 +15205,231 @@
       <c r="S378" s="3" t="inlineStr"/>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
+      <c r="A379" s="3" t="inlineStr"/>
+      <c r="B379" s="3" t="inlineStr">
+        <is>
+          <t>representative sample</t>
+        </is>
+      </c>
+      <c r="C379" s="3" t="inlineStr"/>
+      <c r="D379" s="3" t="inlineStr"/>
+      <c r="E379" s="3" t="inlineStr"/>
+      <c r="F379" s="3" t="inlineStr"/>
+      <c r="G379" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H379" s="3" t="inlineStr"/>
+      <c r="I379" s="3" t="inlineStr"/>
+      <c r="J379" s="3" t="inlineStr"/>
+      <c r="K379" s="3" t="inlineStr"/>
+      <c r="L379" s="3" t="inlineStr"/>
+      <c r="M379" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N379" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O379" s="3" t="inlineStr"/>
+      <c r="P379" s="3" t="inlineStr"/>
+      <c r="Q379" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R379" s="3" t="inlineStr"/>
+      <c r="S379" s="3" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
         <is>
           <t>SEPIO:0000004</t>
         </is>
       </c>
-      <c r="B379" t="inlineStr">
+      <c r="B380" t="inlineStr">
         <is>
           <t>research activity</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr">
+      <c r="C380" t="inlineStr">
         <is>
           <t>A planned process executed in the performance of scientific research wherein systematic investigations are performed to establish facts and reach new conclusions about phenomena in the world.</t>
         </is>
       </c>
-      <c r="D379" t="inlineStr"/>
-      <c r="E379" t="inlineStr">
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="F379" t="inlineStr">
+      <c r="F380" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H379" t="inlineStr"/>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr">
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr">
         <is>
           <t>Research</t>
         </is>
       </c>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
-      <c r="M379" t="n">
-        <v>0</v>
-      </c>
-      <c r="N379" t="n">
-        <v>0</v>
-      </c>
-      <c r="O379" t="inlineStr"/>
-      <c r="P379" t="inlineStr"/>
-      <c r="Q379" t="inlineStr">
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
+      <c r="M380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N380" t="n">
+        <v>0</v>
+      </c>
+      <c r="O380" t="inlineStr"/>
+      <c r="P380" t="inlineStr"/>
+      <c r="Q380" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R379" t="inlineStr"/>
-      <c r="S379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="3" t="inlineStr">
+      <c r="R380" t="inlineStr"/>
+      <c r="S380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000152</t>
         </is>
       </c>
-      <c r="B380" s="3" t="inlineStr">
+      <c r="B381" s="3" t="inlineStr">
         <is>
           <t>research measure</t>
         </is>
       </c>
-      <c r="C380" s="3" t="inlineStr">
+      <c r="C381" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is used in a research study to specify how a measurement should be undertaken.</t>
         </is>
       </c>
-      <c r="D380" s="3" t="inlineStr"/>
-      <c r="E380" s="3" t="inlineStr">
+      <c r="D381" s="3" t="inlineStr"/>
+      <c r="E381" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="F380" s="3" t="inlineStr"/>
-      <c r="G380" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H380" s="3" t="inlineStr">
+      <c r="F381" s="3" t="inlineStr"/>
+      <c r="G381" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H381" s="3" t="inlineStr">
         <is>
           <t>This and the one below need VERY clear labels to disambiguate</t>
         </is>
       </c>
-      <c r="I380" s="3" t="inlineStr"/>
-      <c r="J380" s="3" t="inlineStr"/>
-      <c r="K380" s="3" t="inlineStr"/>
-      <c r="L380" s="3" t="inlineStr"/>
-      <c r="M380" s="3" t="n">
+      <c r="I381" s="3" t="inlineStr"/>
+      <c r="J381" s="3" t="inlineStr"/>
+      <c r="K381" s="3" t="inlineStr"/>
+      <c r="L381" s="3" t="inlineStr"/>
+      <c r="M381" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N380" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O380" s="3" t="inlineStr"/>
-      <c r="P380" s="3" t="inlineStr"/>
-      <c r="Q380" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R380" s="3" t="inlineStr"/>
-      <c r="S380" s="3" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
+      <c r="N381" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O381" s="3" t="inlineStr"/>
+      <c r="P381" s="3" t="inlineStr"/>
+      <c r="Q381" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R381" s="3" t="inlineStr"/>
+      <c r="S381" s="3" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="B381" t="inlineStr">
+      <c r="B382" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr">
+      <c r="C382" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D381" t="inlineStr"/>
-      <c r="E381" t="inlineStr">
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr">
         <is>
           <t>research activity</t>
         </is>
       </c>
-      <c r="F381" t="inlineStr">
+      <c r="F382" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H381" t="inlineStr"/>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
-      <c r="M381" t="b">
-        <v>0</v>
-      </c>
-      <c r="N381" t="inlineStr"/>
-      <c r="O381" t="inlineStr"/>
-      <c r="P381" t="inlineStr">
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
+      <c r="M382" t="b">
+        <v>0</v>
+      </c>
+      <c r="N382" t="inlineStr"/>
+      <c r="O382" t="inlineStr"/>
+      <c r="P382" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="Q381" t="inlineStr">
+      <c r="Q382" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R381" t="inlineStr"/>
-      <c r="S381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000153</t>
-        </is>
-      </c>
-      <c r="B382" s="3" t="inlineStr">
-        <is>
-          <t>research study measurement</t>
-        </is>
-      </c>
-      <c r="C382" s="3" t="inlineStr">
-        <is>
-          <t>A planned process that has as its output a data item corresponding to a quantitative or qualitative description of the attributes of an entity.</t>
-        </is>
-      </c>
-      <c r="D382" s="3" t="inlineStr">
-        <is>
-          <t>Measurement is not itself defined, except tautologically as "the data item that is the output of a measuremnet"</t>
-        </is>
-      </c>
-      <c r="E382" s="3" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="F382" s="3" t="inlineStr"/>
-      <c r="G382" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H382" s="3" t="inlineStr">
-        <is>
-          <t>Why not just 'measurement'?</t>
-        </is>
-      </c>
-      <c r="I382" s="3" t="inlineStr"/>
-      <c r="J382" s="3" t="inlineStr"/>
-      <c r="K382" s="3" t="inlineStr"/>
-      <c r="L382" s="3" t="inlineStr"/>
-      <c r="M382" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N382" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O382" s="3" t="inlineStr"/>
-      <c r="P382" s="3" t="inlineStr"/>
-      <c r="Q382" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R382" s="3" t="inlineStr"/>
-      <c r="S382" s="3" t="inlineStr"/>
+      <c r="R382" t="inlineStr"/>
+      <c r="S382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000154</t>
+          <t>ADDICTO:0000153</t>
         </is>
       </c>
       <c r="B383" s="3" t="inlineStr">
         <is>
-          <t>research study measurement datum</t>
+          <t>research study measurement</t>
         </is>
       </c>
       <c r="C383" s="3" t="inlineStr">
         <is>
-          <t>A measurment datum that is produced as part of a research study.</t>
-        </is>
-      </c>
-      <c r="D383" s="3" t="inlineStr"/>
+          <t>A planned process that has as its output a data item corresponding to a quantitative or qualitative description of the attributes of an entity.</t>
+        </is>
+      </c>
+      <c r="D383" s="3" t="inlineStr">
+        <is>
+          <t>Measurement is not itself defined, except tautologically as "the data item that is the output of a measuremnet"</t>
+        </is>
+      </c>
       <c r="E383" s="3" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="F383" s="3" t="inlineStr"/>
@@ -15446,7 +15438,11 @@
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H383" s="3" t="inlineStr"/>
+      <c r="H383" s="3" t="inlineStr">
+        <is>
+          <t>Why not just 'measurement'?</t>
+        </is>
+      </c>
       <c r="I383" s="3" t="inlineStr"/>
       <c r="J383" s="3" t="inlineStr"/>
       <c r="K383" s="3" t="inlineStr"/>
@@ -15458,11 +15454,7 @@
         <v>0</v>
       </c>
       <c r="O383" s="3" t="inlineStr"/>
-      <c r="P383" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P383" s="3" t="inlineStr"/>
       <c r="Q383" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -15472,19 +15464,27 @@
       <c r="S383" s="3" t="inlineStr"/>
     </row>
     <row r="384">
-      <c r="A384" s="3" t="inlineStr"/>
+      <c r="A384" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000154</t>
+        </is>
+      </c>
       <c r="B384" s="3" t="inlineStr">
         <is>
-          <t>researcher</t>
+          <t>research study measurement datum</t>
         </is>
       </c>
       <c r="C384" s="3" t="inlineStr">
         <is>
-          <t>A role of someone who conducts research</t>
+          <t>A measurment datum that is produced as part of a research study.</t>
         </is>
       </c>
       <c r="D384" s="3" t="inlineStr"/>
-      <c r="E384" s="3" t="inlineStr"/>
+      <c r="E384" s="3" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
       <c r="F384" s="3" t="inlineStr"/>
       <c r="G384" s="3" t="inlineStr">
         <is>
@@ -15497,13 +15497,17 @@
       <c r="K384" s="3" t="inlineStr"/>
       <c r="L384" s="3" t="inlineStr"/>
       <c r="M384" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N384" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O384" s="3" t="inlineStr"/>
-      <c r="P384" s="3" t="inlineStr"/>
+      <c r="P384" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q384" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -15516,10 +15520,14 @@
       <c r="A385" s="3" t="inlineStr"/>
       <c r="B385" s="3" t="inlineStr">
         <is>
-          <t>respondent</t>
-        </is>
-      </c>
-      <c r="C385" s="3" t="inlineStr"/>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="C385" s="3" t="inlineStr">
+        <is>
+          <t>A role of someone who conducts research</t>
+        </is>
+      </c>
       <c r="D385" s="3" t="inlineStr"/>
       <c r="E385" s="3" t="inlineStr"/>
       <c r="F385" s="3" t="inlineStr"/>
@@ -15553,7 +15561,7 @@
       <c r="A386" s="3" t="inlineStr"/>
       <c r="B386" s="3" t="inlineStr">
         <is>
-          <t>retention in study</t>
+          <t>respondent</t>
         </is>
       </c>
       <c r="C386" s="3" t="inlineStr"/>
@@ -15590,7 +15598,7 @@
       <c r="A387" s="3" t="inlineStr"/>
       <c r="B387" s="3" t="inlineStr">
         <is>
-          <t>retrospective cohort study</t>
+          <t>retention in study</t>
         </is>
       </c>
       <c r="C387" s="3" t="inlineStr"/>
@@ -15627,7 +15635,7 @@
       <c r="A388" s="3" t="inlineStr"/>
       <c r="B388" s="3" t="inlineStr">
         <is>
-          <t>retrospective comparative cohort design</t>
+          <t>retrospective cohort study</t>
         </is>
       </c>
       <c r="C388" s="3" t="inlineStr"/>
@@ -15664,7 +15672,7 @@
       <c r="A389" s="3" t="inlineStr"/>
       <c r="B389" s="3" t="inlineStr">
         <is>
-          <t>retrospective observational cohort study</t>
+          <t>retrospective comparative cohort design</t>
         </is>
       </c>
       <c r="C389" s="3" t="inlineStr"/>
@@ -15701,7 +15709,7 @@
       <c r="A390" s="3" t="inlineStr"/>
       <c r="B390" s="3" t="inlineStr">
         <is>
-          <t>retrospective report</t>
+          <t>retrospective observational cohort study</t>
         </is>
       </c>
       <c r="C390" s="3" t="inlineStr"/>
@@ -15738,7 +15746,7 @@
       <c r="A391" s="3" t="inlineStr"/>
       <c r="B391" s="3" t="inlineStr">
         <is>
-          <t>retrospective study</t>
+          <t>retrospective report</t>
         </is>
       </c>
       <c r="C391" s="3" t="inlineStr"/>
@@ -15775,7 +15783,7 @@
       <c r="A392" s="3" t="inlineStr"/>
       <c r="B392" s="3" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>retrospective study</t>
         </is>
       </c>
       <c r="C392" s="3" t="inlineStr"/>
@@ -15793,7 +15801,7 @@
       <c r="K392" s="3" t="inlineStr"/>
       <c r="L392" s="3" t="inlineStr"/>
       <c r="M392" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N392" s="3" t="n">
         <v>0</v>
@@ -15812,7 +15820,7 @@
       <c r="A393" s="3" t="inlineStr"/>
       <c r="B393" s="3" t="inlineStr">
         <is>
-          <t>risk factor</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="C393" s="3" t="inlineStr"/>
@@ -15849,7 +15857,7 @@
       <c r="A394" s="3" t="inlineStr"/>
       <c r="B394" s="3" t="inlineStr">
         <is>
-          <t>risk of bias</t>
+          <t>risk factor</t>
         </is>
       </c>
       <c r="C394" s="3" t="inlineStr"/>
@@ -15886,7 +15894,7 @@
       <c r="A395" s="3" t="inlineStr"/>
       <c r="B395" s="3" t="inlineStr">
         <is>
-          <t>risk ratio</t>
+          <t>risk of bias</t>
         </is>
       </c>
       <c r="C395" s="3" t="inlineStr"/>
@@ -15904,7 +15912,7 @@
       <c r="K395" s="3" t="inlineStr"/>
       <c r="L395" s="3" t="inlineStr"/>
       <c r="M395" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N395" s="3" t="n">
         <v>0</v>
@@ -15923,7 +15931,7 @@
       <c r="A396" s="3" t="inlineStr"/>
       <c r="B396" s="3" t="inlineStr">
         <is>
-          <t>robust predictor</t>
+          <t>risk ratio</t>
         </is>
       </c>
       <c r="C396" s="3" t="inlineStr"/>
@@ -15960,7 +15968,7 @@
       <c r="A397" s="3" t="inlineStr"/>
       <c r="B397" s="3" t="inlineStr">
         <is>
-          <t>russell Standard</t>
+          <t>robust predictor</t>
         </is>
       </c>
       <c r="C397" s="3" t="inlineStr"/>
@@ -15997,7 +16005,7 @@
       <c r="A398" s="3" t="inlineStr"/>
       <c r="B398" s="3" t="inlineStr">
         <is>
-          <t>russell Standard (Clinical)</t>
+          <t>russell Standard</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr"/>
@@ -16034,7 +16042,7 @@
       <c r="A399" s="3" t="inlineStr"/>
       <c r="B399" s="3" t="inlineStr">
         <is>
-          <t>russell Standard outcome criteria</t>
+          <t>russell Standard (Clinical)</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr"/>
@@ -16071,7 +16079,7 @@
       <c r="A400" s="3" t="inlineStr"/>
       <c r="B400" s="3" t="inlineStr">
         <is>
-          <t>saliva drug test</t>
+          <t>russell Standard outcome criteria</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr"/>
@@ -16108,7 +16116,7 @@
       <c r="A401" s="3" t="inlineStr"/>
       <c r="B401" s="3" t="inlineStr">
         <is>
-          <t>sample size</t>
+          <t>saliva drug test</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr"/>
@@ -16145,7 +16153,7 @@
       <c r="A402" s="3" t="inlineStr"/>
       <c r="B402" s="3" t="inlineStr">
         <is>
-          <t>sampling method</t>
+          <t>sample size</t>
         </is>
       </c>
       <c r="C402" s="3" t="inlineStr"/>
@@ -16182,7 +16190,7 @@
       <c r="A403" s="3" t="inlineStr"/>
       <c r="B403" s="3" t="inlineStr">
         <is>
-          <t>screening for alcohol use disorder</t>
+          <t>sampling method</t>
         </is>
       </c>
       <c r="C403" s="3" t="inlineStr"/>
@@ -16219,7 +16227,7 @@
       <c r="A404" s="3" t="inlineStr"/>
       <c r="B404" s="3" t="inlineStr">
         <is>
-          <t>secondary data analysis</t>
+          <t>screening for alcohol use disorder</t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr"/>
@@ -16256,7 +16264,7 @@
       <c r="A405" s="3" t="inlineStr"/>
       <c r="B405" s="3" t="inlineStr">
         <is>
-          <t>secondary outcome</t>
+          <t>secondary data analysis</t>
         </is>
       </c>
       <c r="C405" s="3" t="inlineStr"/>
@@ -16293,7 +16301,7 @@
       <c r="A406" s="3" t="inlineStr"/>
       <c r="B406" s="3" t="inlineStr">
         <is>
-          <t>secondary study aim</t>
+          <t>secondary outcome</t>
         </is>
       </c>
       <c r="C406" s="3" t="inlineStr"/>
@@ -16330,7 +16338,7 @@
       <c r="A407" s="3" t="inlineStr"/>
       <c r="B407" s="3" t="inlineStr">
         <is>
-          <t>segmented regression model</t>
+          <t>secondary study aim</t>
         </is>
       </c>
       <c r="C407" s="3" t="inlineStr"/>
@@ -16367,7 +16375,7 @@
       <c r="A408" s="3" t="inlineStr"/>
       <c r="B408" s="3" t="inlineStr">
         <is>
-          <t>selection bias</t>
+          <t>segmented regression model</t>
         </is>
       </c>
       <c r="C408" s="3" t="inlineStr"/>
@@ -16404,7 +16412,7 @@
       <c r="A409" s="3" t="inlineStr"/>
       <c r="B409" s="3" t="inlineStr">
         <is>
-          <t>self-report measure</t>
+          <t>selection bias</t>
         </is>
       </c>
       <c r="C409" s="3" t="inlineStr"/>
@@ -16422,7 +16430,7 @@
       <c r="K409" s="3" t="inlineStr"/>
       <c r="L409" s="3" t="inlineStr"/>
       <c r="M409" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N409" s="3" t="n">
         <v>0</v>
@@ -16438,100 +16446,100 @@
       <c r="S409" s="3" t="inlineStr"/>
     </row>
     <row r="410">
-      <c r="A410" s="2" t="inlineStr">
+      <c r="A410" s="3" t="inlineStr"/>
+      <c r="B410" s="3" t="inlineStr">
+        <is>
+          <t>self-report measure</t>
+        </is>
+      </c>
+      <c r="C410" s="3" t="inlineStr"/>
+      <c r="D410" s="3" t="inlineStr"/>
+      <c r="E410" s="3" t="inlineStr"/>
+      <c r="F410" s="3" t="inlineStr"/>
+      <c r="G410" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H410" s="3" t="inlineStr"/>
+      <c r="I410" s="3" t="inlineStr"/>
+      <c r="J410" s="3" t="inlineStr"/>
+      <c r="K410" s="3" t="inlineStr"/>
+      <c r="L410" s="3" t="inlineStr"/>
+      <c r="M410" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N410" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O410" s="3" t="inlineStr"/>
+      <c r="P410" s="3" t="inlineStr"/>
+      <c r="Q410" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R410" s="3" t="inlineStr"/>
+      <c r="S410" s="3" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000155</t>
         </is>
       </c>
-      <c r="B410" s="2" t="inlineStr">
+      <c r="B411" s="2" t="inlineStr">
         <is>
           <t>self-report questionnaire</t>
         </is>
       </c>
-      <c r="C410" s="2" t="inlineStr">
+      <c r="C411" s="2" t="inlineStr">
         <is>
           <t>A questionnaire that is administered in such a way that the person completing the questionnaire is answering questions about themselves.</t>
         </is>
       </c>
-      <c r="D410" s="2" t="inlineStr"/>
-      <c r="E410" s="2" t="inlineStr">
+      <c r="D411" s="2" t="inlineStr"/>
+      <c r="E411" s="2" t="inlineStr">
         <is>
           <t>questionnaire administration</t>
         </is>
       </c>
-      <c r="F410" s="2" t="inlineStr">
+      <c r="F411" s="2" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G410" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H410" s="2" t="inlineStr"/>
-      <c r="I410" s="2" t="inlineStr"/>
-      <c r="J410" s="2" t="inlineStr"/>
-      <c r="K410" s="2" t="inlineStr"/>
-      <c r="L410" s="2" t="inlineStr"/>
-      <c r="M410" s="2" t="n">
+      <c r="G411" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H411" s="2" t="inlineStr"/>
+      <c r="I411" s="2" t="inlineStr"/>
+      <c r="J411" s="2" t="inlineStr"/>
+      <c r="K411" s="2" t="inlineStr"/>
+      <c r="L411" s="2" t="inlineStr"/>
+      <c r="M411" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N410" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O410" s="2" t="inlineStr"/>
-      <c r="P410" s="2" t="inlineStr"/>
-      <c r="Q410" s="2" t="inlineStr">
+      <c r="N411" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O411" s="2" t="inlineStr"/>
+      <c r="P411" s="2" t="inlineStr"/>
+      <c r="Q411" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R410" s="2" t="inlineStr"/>
-      <c r="S410" s="2" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="3" t="inlineStr"/>
-      <c r="B411" s="3" t="inlineStr">
-        <is>
-          <t>self-report substance intake</t>
-        </is>
-      </c>
-      <c r="C411" s="3" t="inlineStr"/>
-      <c r="D411" s="3" t="inlineStr"/>
-      <c r="E411" s="3" t="inlineStr"/>
-      <c r="F411" s="3" t="inlineStr"/>
-      <c r="G411" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H411" s="3" t="inlineStr"/>
-      <c r="I411" s="3" t="inlineStr"/>
-      <c r="J411" s="3" t="inlineStr"/>
-      <c r="K411" s="3" t="inlineStr"/>
-      <c r="L411" s="3" t="inlineStr"/>
-      <c r="M411" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N411" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O411" s="3" t="inlineStr"/>
-      <c r="P411" s="3" t="inlineStr"/>
-      <c r="Q411" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R411" s="3" t="inlineStr"/>
-      <c r="S411" s="3" t="inlineStr"/>
+      <c r="R411" s="2" t="inlineStr"/>
+      <c r="S411" s="2" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="3" t="inlineStr"/>
       <c r="B412" s="3" t="inlineStr">
         <is>
-          <t>self-report survey</t>
+          <t>self-report substance intake</t>
         </is>
       </c>
       <c r="C412" s="3" t="inlineStr"/>
@@ -16568,7 +16576,7 @@
       <c r="A413" s="3" t="inlineStr"/>
       <c r="B413" s="3" t="inlineStr">
         <is>
-          <t>self-reported NMUA</t>
+          <t>self-report survey</t>
         </is>
       </c>
       <c r="C413" s="3" t="inlineStr"/>
@@ -16605,7 +16613,7 @@
       <c r="A414" s="3" t="inlineStr"/>
       <c r="B414" s="3" t="inlineStr">
         <is>
-          <t>self-reported cessation</t>
+          <t>self-reported NMUA</t>
         </is>
       </c>
       <c r="C414" s="3" t="inlineStr"/>
@@ -16642,7 +16650,7 @@
       <c r="A415" s="3" t="inlineStr"/>
       <c r="B415" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence</t>
+          <t>self-reported cessation</t>
         </is>
       </c>
       <c r="C415" s="3" t="inlineStr"/>
@@ -16679,7 +16687,7 @@
       <c r="A416" s="3" t="inlineStr"/>
       <c r="B416" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence from smoking</t>
+          <t>self-reported continuous abstinence</t>
         </is>
       </c>
       <c r="C416" s="3" t="inlineStr"/>
@@ -16716,7 +16724,7 @@
       <c r="A417" s="3" t="inlineStr"/>
       <c r="B417" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence up to 6-month follow up</t>
+          <t>self-reported continuous abstinence from smoking</t>
         </is>
       </c>
       <c r="C417" s="3" t="inlineStr"/>
@@ -16753,7 +16761,7 @@
       <c r="A418" s="3" t="inlineStr"/>
       <c r="B418" s="3" t="inlineStr">
         <is>
-          <t>self-reported drug use</t>
+          <t>self-reported continuous abstinence up to 6-month follow up</t>
         </is>
       </c>
       <c r="C418" s="3" t="inlineStr"/>
@@ -16790,7 +16798,7 @@
       <c r="A419" s="3" t="inlineStr"/>
       <c r="B419" s="3" t="inlineStr">
         <is>
-          <t>self-reported injection drug use</t>
+          <t>self-reported drug use</t>
         </is>
       </c>
       <c r="C419" s="3" t="inlineStr"/>
@@ -16827,7 +16835,7 @@
       <c r="A420" s="3" t="inlineStr"/>
       <c r="B420" s="3" t="inlineStr">
         <is>
-          <t>self-reported non-smoker</t>
+          <t>self-reported injection drug use</t>
         </is>
       </c>
       <c r="C420" s="3" t="inlineStr"/>
@@ -16864,7 +16872,7 @@
       <c r="A421" s="3" t="inlineStr"/>
       <c r="B421" s="3" t="inlineStr">
         <is>
-          <t>self-reported smoking abstinence</t>
+          <t>self-reported non-smoker</t>
         </is>
       </c>
       <c r="C421" s="3" t="inlineStr"/>
@@ -16882,7 +16890,7 @@
       <c r="K421" s="3" t="inlineStr"/>
       <c r="L421" s="3" t="inlineStr"/>
       <c r="M421" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N421" s="3" t="n">
         <v>0</v>
@@ -16901,7 +16909,7 @@
       <c r="A422" s="3" t="inlineStr"/>
       <c r="B422" s="3" t="inlineStr">
         <is>
-          <t>self-reported stimulant use</t>
+          <t>self-reported smoking abstinence</t>
         </is>
       </c>
       <c r="C422" s="3" t="inlineStr"/>
@@ -16919,7 +16927,7 @@
       <c r="K422" s="3" t="inlineStr"/>
       <c r="L422" s="3" t="inlineStr"/>
       <c r="M422" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N422" s="3" t="n">
         <v>0</v>
@@ -16938,7 +16946,7 @@
       <c r="A423" s="3" t="inlineStr"/>
       <c r="B423" s="3" t="inlineStr">
         <is>
-          <t>self-reported substance use</t>
+          <t>self-reported stimulant use</t>
         </is>
       </c>
       <c r="C423" s="3" t="inlineStr"/>
@@ -16975,7 +16983,7 @@
       <c r="A424" s="3" t="inlineStr"/>
       <c r="B424" s="3" t="inlineStr">
         <is>
-          <t>self-reported tobacco abstinence</t>
+          <t>self-reported substance use</t>
         </is>
       </c>
       <c r="C424" s="3" t="inlineStr"/>
@@ -16993,7 +17001,7 @@
       <c r="K424" s="3" t="inlineStr"/>
       <c r="L424" s="3" t="inlineStr"/>
       <c r="M424" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N424" s="3" t="n">
         <v>0</v>
@@ -17012,7 +17020,7 @@
       <c r="A425" s="3" t="inlineStr"/>
       <c r="B425" s="3" t="inlineStr">
         <is>
-          <t>semi-quantative assessment</t>
+          <t>self-reported tobacco abstinence</t>
         </is>
       </c>
       <c r="C425" s="3" t="inlineStr"/>
@@ -17030,7 +17038,7 @@
       <c r="K425" s="3" t="inlineStr"/>
       <c r="L425" s="3" t="inlineStr"/>
       <c r="M425" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N425" s="3" t="n">
         <v>0</v>
@@ -17049,7 +17057,7 @@
       <c r="A426" s="3" t="inlineStr"/>
       <c r="B426" s="3" t="inlineStr">
         <is>
-          <t>sensitivity analysis</t>
+          <t>semi-quantative assessment</t>
         </is>
       </c>
       <c r="C426" s="3" t="inlineStr"/>
@@ -17086,7 +17094,7 @@
       <c r="A427" s="3" t="inlineStr"/>
       <c r="B427" s="3" t="inlineStr">
         <is>
-          <t>serology test</t>
+          <t>sensitivity analysis</t>
         </is>
       </c>
       <c r="C427" s="3" t="inlineStr"/>
@@ -17123,7 +17131,7 @@
       <c r="A428" s="3" t="inlineStr"/>
       <c r="B428" s="3" t="inlineStr">
         <is>
-          <t>severity measure</t>
+          <t>serology test</t>
         </is>
       </c>
       <c r="C428" s="3" t="inlineStr"/>
@@ -17160,25 +17168,13 @@
       <c r="A429" s="3" t="inlineStr"/>
       <c r="B429" s="3" t="inlineStr">
         <is>
-          <t>severity of dependence scale (SDS)</t>
-        </is>
-      </c>
-      <c r="C429" s="3" t="inlineStr">
-        <is>
-          <t>A 5 item scale that provides a measure of the severity of dependence. Designed to assess opioid dependence it has been adapted to assess severity of dependence across multiple drug categories</t>
-        </is>
-      </c>
-      <c r="D429" s="3" t="inlineStr">
-        <is>
-          <t>https://www.who.int/substance_abuse/research_tools/severitydependencescale/en/</t>
-        </is>
-      </c>
+          <t>severity measure</t>
+        </is>
+      </c>
+      <c r="C429" s="3" t="inlineStr"/>
+      <c r="D429" s="3" t="inlineStr"/>
       <c r="E429" s="3" t="inlineStr"/>
-      <c r="F429" s="3" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+      <c r="F429" s="3" t="inlineStr"/>
       <c r="G429" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17209,13 +17205,25 @@
       <c r="A430" s="3" t="inlineStr"/>
       <c r="B430" s="3" t="inlineStr">
         <is>
-          <t>sex-specific quantile age-period-cohort regression</t>
-        </is>
-      </c>
-      <c r="C430" s="3" t="inlineStr"/>
-      <c r="D430" s="3" t="inlineStr"/>
+          <t>severity of dependence scale (SDS)</t>
+        </is>
+      </c>
+      <c r="C430" s="3" t="inlineStr">
+        <is>
+          <t>A 5 item scale that provides a measure of the severity of dependence. Designed to assess opioid dependence it has been adapted to assess severity of dependence across multiple drug categories</t>
+        </is>
+      </c>
+      <c r="D430" s="3" t="inlineStr">
+        <is>
+          <t>https://www.who.int/substance_abuse/research_tools/severitydependencescale/en/</t>
+        </is>
+      </c>
       <c r="E430" s="3" t="inlineStr"/>
-      <c r="F430" s="3" t="inlineStr"/>
+      <c r="F430" s="3" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="G430" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17246,7 +17254,7 @@
       <c r="A431" s="3" t="inlineStr"/>
       <c r="B431" s="3" t="inlineStr">
         <is>
-          <t>shared risk factor</t>
+          <t>sex-specific quantile age-period-cohort regression</t>
         </is>
       </c>
       <c r="C431" s="3" t="inlineStr"/>
@@ -17283,7 +17291,7 @@
       <c r="A432" s="3" t="inlineStr"/>
       <c r="B432" s="3" t="inlineStr">
         <is>
-          <t>shared variance</t>
+          <t>shared risk factor</t>
         </is>
       </c>
       <c r="C432" s="3" t="inlineStr"/>
@@ -17320,7 +17328,7 @@
       <c r="A433" s="3" t="inlineStr"/>
       <c r="B433" s="3" t="inlineStr">
         <is>
-          <t>sheffield Alcohol Policy Model</t>
+          <t>shared variance</t>
         </is>
       </c>
       <c r="C433" s="3" t="inlineStr"/>
@@ -17357,14 +17365,10 @@
       <c r="A434" s="3" t="inlineStr"/>
       <c r="B434" s="3" t="inlineStr">
         <is>
-          <t>sickness absence register</t>
-        </is>
-      </c>
-      <c r="C434" s="3" t="inlineStr">
-        <is>
-          <t>A source of data on people about their history of sickness absence from work.</t>
-        </is>
-      </c>
+          <t>sheffield Alcohol Policy Model</t>
+        </is>
+      </c>
+      <c r="C434" s="3" t="inlineStr"/>
       <c r="D434" s="3" t="inlineStr"/>
       <c r="E434" s="3" t="inlineStr"/>
       <c r="F434" s="3" t="inlineStr"/>
@@ -17398,10 +17402,14 @@
       <c r="A435" s="3" t="inlineStr"/>
       <c r="B435" s="3" t="inlineStr">
         <is>
-          <t>signal processing technique</t>
-        </is>
-      </c>
-      <c r="C435" s="3" t="inlineStr"/>
+          <t>sickness absence register</t>
+        </is>
+      </c>
+      <c r="C435" s="3" t="inlineStr">
+        <is>
+          <t>A source of data on people about their history of sickness absence from work.</t>
+        </is>
+      </c>
       <c r="D435" s="3" t="inlineStr"/>
       <c r="E435" s="3" t="inlineStr"/>
       <c r="F435" s="3" t="inlineStr"/>
@@ -17435,7 +17443,7 @@
       <c r="A436" s="3" t="inlineStr"/>
       <c r="B436" s="3" t="inlineStr">
         <is>
-          <t>significant association</t>
+          <t>signal processing technique</t>
         </is>
       </c>
       <c r="C436" s="3" t="inlineStr"/>
@@ -17472,7 +17480,7 @@
       <c r="A437" s="3" t="inlineStr"/>
       <c r="B437" s="3" t="inlineStr">
         <is>
-          <t>significant difference</t>
+          <t>significant association</t>
         </is>
       </c>
       <c r="C437" s="3" t="inlineStr"/>
@@ -17509,7 +17517,7 @@
       <c r="A438" s="3" t="inlineStr"/>
       <c r="B438" s="3" t="inlineStr">
         <is>
-          <t>significant increase</t>
+          <t>significant difference</t>
         </is>
       </c>
       <c r="C438" s="3" t="inlineStr"/>
@@ -17546,7 +17554,7 @@
       <c r="A439" s="3" t="inlineStr"/>
       <c r="B439" s="3" t="inlineStr">
         <is>
-          <t>simulated demand procedure</t>
+          <t>significant increase</t>
         </is>
       </c>
       <c r="C439" s="3" t="inlineStr"/>
@@ -17580,32 +17588,16 @@
       <c r="S439" s="3" t="inlineStr"/>
     </row>
     <row r="440">
-      <c r="A440" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000171</t>
-        </is>
-      </c>
+      <c r="A440" s="3" t="inlineStr"/>
       <c r="B440" s="3" t="inlineStr">
         <is>
-          <t>simulated population</t>
-        </is>
-      </c>
-      <c r="C440" s="3" t="inlineStr">
-        <is>
-          <t>An information content entity that represents attributes of a population for the purposes of modelling processes or outcomes in that population.</t>
-        </is>
-      </c>
+          <t>simulated demand procedure</t>
+        </is>
+      </c>
+      <c r="C440" s="3" t="inlineStr"/>
       <c r="D440" s="3" t="inlineStr"/>
-      <c r="E440" s="3" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="F440" s="3" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+      <c r="E440" s="3" t="inlineStr"/>
+      <c r="F440" s="3" t="inlineStr"/>
       <c r="G440" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17633,16 +17625,32 @@
       <c r="S440" s="3" t="inlineStr"/>
     </row>
     <row r="441">
-      <c r="A441" s="3" t="inlineStr"/>
+      <c r="A441" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000171</t>
+        </is>
+      </c>
       <c r="B441" s="3" t="inlineStr">
         <is>
-          <t>single-site study</t>
-        </is>
-      </c>
-      <c r="C441" s="3" t="inlineStr"/>
+          <t>simulated population</t>
+        </is>
+      </c>
+      <c r="C441" s="3" t="inlineStr">
+        <is>
+          <t>An information content entity that represents attributes of a population for the purposes of modelling processes or outcomes in that population.</t>
+        </is>
+      </c>
       <c r="D441" s="3" t="inlineStr"/>
-      <c r="E441" s="3" t="inlineStr"/>
-      <c r="F441" s="3" t="inlineStr"/>
+      <c r="E441" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="F441" s="3" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="G441" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17673,7 +17681,7 @@
       <c r="A442" s="3" t="inlineStr"/>
       <c r="B442" s="3" t="inlineStr">
         <is>
-          <t>slope and step change coefficient</t>
+          <t>single-site study</t>
         </is>
       </c>
       <c r="C442" s="3" t="inlineStr"/>
@@ -17710,7 +17718,7 @@
       <c r="A443" s="3" t="inlineStr"/>
       <c r="B443" s="3" t="inlineStr">
         <is>
-          <t>smoking Toolkit Study</t>
+          <t>slope and step change coefficient</t>
         </is>
       </c>
       <c r="C443" s="3" t="inlineStr"/>
@@ -17747,7 +17755,7 @@
       <c r="A444" s="3" t="inlineStr"/>
       <c r="B444" s="3" t="inlineStr">
         <is>
-          <t>smoking cessation treatment trial</t>
+          <t>smoking Toolkit Study</t>
         </is>
       </c>
       <c r="C444" s="3" t="inlineStr"/>
@@ -17784,7 +17792,7 @@
       <c r="A445" s="3" t="inlineStr"/>
       <c r="B445" s="3" t="inlineStr">
         <is>
-          <t>smoking cessation trial</t>
+          <t>smoking cessation treatment trial</t>
         </is>
       </c>
       <c r="C445" s="3" t="inlineStr"/>
@@ -17821,7 +17829,7 @@
       <c r="A446" s="3" t="inlineStr"/>
       <c r="B446" s="3" t="inlineStr">
         <is>
-          <t>socio-economic index for area of residence</t>
+          <t>smoking cessation trial</t>
         </is>
       </c>
       <c r="C446" s="3" t="inlineStr"/>
@@ -17858,7 +17866,7 @@
       <c r="A447" s="3" t="inlineStr"/>
       <c r="B447" s="3" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>socio-economic index for area of residence</t>
         </is>
       </c>
       <c r="C447" s="3" t="inlineStr"/>
@@ -17872,11 +17880,7 @@
       </c>
       <c r="H447" s="3" t="inlineStr"/>
       <c r="I447" s="3" t="inlineStr"/>
-      <c r="J447" s="3" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
+      <c r="J447" s="3" t="inlineStr"/>
       <c r="K447" s="3" t="inlineStr"/>
       <c r="L447" s="3" t="inlineStr"/>
       <c r="M447" s="3" t="n">
@@ -17899,7 +17903,7 @@
       <c r="A448" s="3" t="inlineStr"/>
       <c r="B448" s="3" t="inlineStr">
         <is>
-          <t>standard drinks per day</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="C448" s="3" t="inlineStr"/>
@@ -17913,7 +17917,11 @@
       </c>
       <c r="H448" s="3" t="inlineStr"/>
       <c r="I448" s="3" t="inlineStr"/>
-      <c r="J448" s="3" t="inlineStr"/>
+      <c r="J448" s="3" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
       <c r="K448" s="3" t="inlineStr"/>
       <c r="L448" s="3" t="inlineStr"/>
       <c r="M448" s="3" t="n">
@@ -17936,7 +17944,7 @@
       <c r="A449" s="3" t="inlineStr"/>
       <c r="B449" s="3" t="inlineStr">
         <is>
-          <t>standardised questionnaire</t>
+          <t>standard drinks per day</t>
         </is>
       </c>
       <c r="C449" s="3" t="inlineStr"/>
@@ -17954,7 +17962,7 @@
       <c r="K449" s="3" t="inlineStr"/>
       <c r="L449" s="3" t="inlineStr"/>
       <c r="M449" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N449" s="3" t="n">
         <v>0</v>
@@ -17973,7 +17981,7 @@
       <c r="A450" s="3" t="inlineStr"/>
       <c r="B450" s="3" t="inlineStr">
         <is>
-          <t>standardised regression coefficient</t>
+          <t>standardised questionnaire</t>
         </is>
       </c>
       <c r="C450" s="3" t="inlineStr"/>
@@ -17991,7 +17999,7 @@
       <c r="K450" s="3" t="inlineStr"/>
       <c r="L450" s="3" t="inlineStr"/>
       <c r="M450" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N450" s="3" t="n">
         <v>0</v>
@@ -18010,7 +18018,7 @@
       <c r="A451" s="3" t="inlineStr"/>
       <c r="B451" s="3" t="inlineStr">
         <is>
-          <t>standardized data capture</t>
+          <t>standardised regression coefficient</t>
         </is>
       </c>
       <c r="C451" s="3" t="inlineStr"/>
@@ -18044,100 +18052,100 @@
       <c r="S451" s="3" t="inlineStr"/>
     </row>
     <row r="452">
-      <c r="A452" s="2" t="inlineStr">
+      <c r="A452" s="3" t="inlineStr"/>
+      <c r="B452" s="3" t="inlineStr">
+        <is>
+          <t>standardized data capture</t>
+        </is>
+      </c>
+      <c r="C452" s="3" t="inlineStr"/>
+      <c r="D452" s="3" t="inlineStr"/>
+      <c r="E452" s="3" t="inlineStr"/>
+      <c r="F452" s="3" t="inlineStr"/>
+      <c r="G452" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H452" s="3" t="inlineStr"/>
+      <c r="I452" s="3" t="inlineStr"/>
+      <c r="J452" s="3" t="inlineStr"/>
+      <c r="K452" s="3" t="inlineStr"/>
+      <c r="L452" s="3" t="inlineStr"/>
+      <c r="M452" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N452" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O452" s="3" t="inlineStr"/>
+      <c r="P452" s="3" t="inlineStr"/>
+      <c r="Q452" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R452" s="3" t="inlineStr"/>
+      <c r="S452" s="3" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000156</t>
         </is>
       </c>
-      <c r="B452" s="2" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>start of follow-up period</t>
         </is>
       </c>
-      <c r="C452" s="2" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>The process boundary at the beginning of a follow-up period.</t>
         </is>
       </c>
-      <c r="D452" s="2" t="inlineStr"/>
-      <c r="E452" s="2" t="inlineStr">
+      <c r="D453" s="2" t="inlineStr"/>
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>temporal start</t>
         </is>
       </c>
-      <c r="F452" s="2" t="inlineStr">
+      <c r="F453" s="2" t="inlineStr">
         <is>
           <t>Process boundary</t>
         </is>
       </c>
-      <c r="G452" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H452" s="2" t="inlineStr"/>
-      <c r="I452" s="2" t="inlineStr"/>
-      <c r="J452" s="2" t="inlineStr"/>
-      <c r="K452" s="2" t="inlineStr"/>
-      <c r="L452" s="2" t="inlineStr"/>
-      <c r="M452" s="2" t="n">
+      <c r="G453" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H453" s="2" t="inlineStr"/>
+      <c r="I453" s="2" t="inlineStr"/>
+      <c r="J453" s="2" t="inlineStr"/>
+      <c r="K453" s="2" t="inlineStr"/>
+      <c r="L453" s="2" t="inlineStr"/>
+      <c r="M453" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N452" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O452" s="2" t="inlineStr"/>
-      <c r="P452" s="2" t="inlineStr"/>
-      <c r="Q452" s="2" t="inlineStr">
+      <c r="N453" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O453" s="2" t="inlineStr"/>
+      <c r="P453" s="2" t="inlineStr"/>
+      <c r="Q453" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R452" s="2" t="inlineStr"/>
-      <c r="S452" s="2" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="3" t="inlineStr"/>
-      <c r="B453" s="3" t="inlineStr">
-        <is>
-          <t>state administrative record</t>
-        </is>
-      </c>
-      <c r="C453" s="3" t="inlineStr"/>
-      <c r="D453" s="3" t="inlineStr"/>
-      <c r="E453" s="3" t="inlineStr"/>
-      <c r="F453" s="3" t="inlineStr"/>
-      <c r="G453" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H453" s="3" t="inlineStr"/>
-      <c r="I453" s="3" t="inlineStr"/>
-      <c r="J453" s="3" t="inlineStr"/>
-      <c r="K453" s="3" t="inlineStr"/>
-      <c r="L453" s="3" t="inlineStr"/>
-      <c r="M453" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N453" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O453" s="3" t="inlineStr"/>
-      <c r="P453" s="3" t="inlineStr"/>
-      <c r="Q453" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R453" s="3" t="inlineStr"/>
-      <c r="S453" s="3" t="inlineStr"/>
+      <c r="R453" s="2" t="inlineStr"/>
+      <c r="S453" s="2" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="3" t="inlineStr"/>
       <c r="B454" s="3" t="inlineStr">
         <is>
-          <t>state transition model</t>
+          <t>state administrative record</t>
         </is>
       </c>
       <c r="C454" s="3" t="inlineStr"/>
@@ -18174,7 +18182,7 @@
       <c r="A455" s="3" t="inlineStr"/>
       <c r="B455" s="3" t="inlineStr">
         <is>
-          <t>state-level time-varying policy covariates</t>
+          <t>state transition model</t>
         </is>
       </c>
       <c r="C455" s="3" t="inlineStr"/>
@@ -18211,7 +18219,7 @@
       <c r="A456" s="3" t="inlineStr"/>
       <c r="B456" s="3" t="inlineStr">
         <is>
-          <t>statistical adjustment for covariates</t>
+          <t>state-level time-varying policy covariates</t>
         </is>
       </c>
       <c r="C456" s="3" t="inlineStr"/>
@@ -18248,7 +18256,7 @@
       <c r="A457" s="3" t="inlineStr"/>
       <c r="B457" s="3" t="inlineStr">
         <is>
-          <t>statistical adjustment for potential confounding variables</t>
+          <t>statistical adjustment for covariates</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr"/>
@@ -18285,7 +18293,7 @@
       <c r="A458" s="3" t="inlineStr"/>
       <c r="B458" s="3" t="inlineStr">
         <is>
-          <t>statistical interaction</t>
+          <t>statistical adjustment for potential confounding variables</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr"/>
@@ -18322,7 +18330,7 @@
       <c r="A459" s="3" t="inlineStr"/>
       <c r="B459" s="3" t="inlineStr">
         <is>
-          <t>statistically significant</t>
+          <t>statistical interaction</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr"/>
@@ -18359,7 +18367,7 @@
       <c r="A460" s="3" t="inlineStr"/>
       <c r="B460" s="3" t="inlineStr">
         <is>
-          <t>stepped-wedge study design</t>
+          <t>statistically significant</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr"/>
@@ -18396,7 +18404,7 @@
       <c r="A461" s="3" t="inlineStr"/>
       <c r="B461" s="3" t="inlineStr">
         <is>
-          <t>stratification</t>
+          <t>stepped-wedge study design</t>
         </is>
       </c>
       <c r="C461" s="3" t="inlineStr"/>
@@ -18433,7 +18441,7 @@
       <c r="A462" s="3" t="inlineStr"/>
       <c r="B462" s="3" t="inlineStr">
         <is>
-          <t>stratified sample</t>
+          <t>stratification</t>
         </is>
       </c>
       <c r="C462" s="3" t="inlineStr"/>
@@ -18470,7 +18478,7 @@
       <c r="A463" s="3" t="inlineStr"/>
       <c r="B463" s="3" t="inlineStr">
         <is>
-          <t>strength of association</t>
+          <t>stratified sample</t>
         </is>
       </c>
       <c r="C463" s="3" t="inlineStr"/>
@@ -18507,7 +18515,7 @@
       <c r="A464" s="3" t="inlineStr"/>
       <c r="B464" s="3" t="inlineStr">
         <is>
-          <t>strong evidence</t>
+          <t>strength of association</t>
         </is>
       </c>
       <c r="C464" s="3" t="inlineStr"/>
@@ -18544,7 +18552,7 @@
       <c r="A465" s="3" t="inlineStr"/>
       <c r="B465" s="3" t="inlineStr">
         <is>
-          <t>structural equation univariate and multivariate modeling</t>
+          <t>strong evidence</t>
         </is>
       </c>
       <c r="C465" s="3" t="inlineStr"/>
@@ -18581,7 +18589,7 @@
       <c r="A466" s="3" t="inlineStr"/>
       <c r="B466" s="3" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>structural equation univariate and multivariate modeling</t>
         </is>
       </c>
       <c r="C466" s="3" t="inlineStr"/>
@@ -18618,7 +18626,7 @@
       <c r="A467" s="3" t="inlineStr"/>
       <c r="B467" s="3" t="inlineStr">
         <is>
-          <t>study conclusion</t>
+          <t>study</t>
         </is>
       </c>
       <c r="C467" s="3" t="inlineStr"/>
@@ -18655,7 +18663,7 @@
       <c r="A468" s="3" t="inlineStr"/>
       <c r="B468" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>study conclusion</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr"/>
@@ -18692,7 +18700,7 @@
       <c r="A469" s="3" t="inlineStr"/>
       <c r="B469" s="3" t="inlineStr">
         <is>
-          <t>study group</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C469" s="3" t="inlineStr"/>
@@ -18729,7 +18737,7 @@
       <c r="A470" s="3" t="inlineStr"/>
       <c r="B470" s="3" t="inlineStr">
         <is>
-          <t>study medication</t>
+          <t>study group</t>
         </is>
       </c>
       <c r="C470" s="3" t="inlineStr"/>
@@ -18766,7 +18774,7 @@
       <c r="A471" s="3" t="inlineStr"/>
       <c r="B471" s="3" t="inlineStr">
         <is>
-          <t>study participation</t>
+          <t>study medication</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr"/>
@@ -18803,7 +18811,7 @@
       <c r="A472" s="3" t="inlineStr"/>
       <c r="B472" s="3" t="inlineStr">
         <is>
-          <t>study period</t>
+          <t>study participation</t>
         </is>
       </c>
       <c r="C472" s="3" t="inlineStr"/>
@@ -18840,7 +18848,7 @@
       <c r="A473" s="3" t="inlineStr"/>
       <c r="B473" s="3" t="inlineStr">
         <is>
-          <t>study preregistration</t>
+          <t>study period</t>
         </is>
       </c>
       <c r="C473" s="3" t="inlineStr"/>
@@ -18877,7 +18885,7 @@
       <c r="A474" s="3" t="inlineStr"/>
       <c r="B474" s="3" t="inlineStr">
         <is>
-          <t>study recruitment</t>
+          <t>study preregistration</t>
         </is>
       </c>
       <c r="C474" s="3" t="inlineStr"/>
@@ -18914,7 +18922,7 @@
       <c r="A475" s="3" t="inlineStr"/>
       <c r="B475" s="3" t="inlineStr">
         <is>
-          <t>study retention</t>
+          <t>study recruitment</t>
         </is>
       </c>
       <c r="C475" s="3" t="inlineStr"/>
@@ -18951,7 +18959,7 @@
       <c r="A476" s="3" t="inlineStr"/>
       <c r="B476" s="3" t="inlineStr">
         <is>
-          <t>subjective measure</t>
+          <t>study retention</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr"/>
@@ -18969,7 +18977,7 @@
       <c r="K476" s="3" t="inlineStr"/>
       <c r="L476" s="3" t="inlineStr"/>
       <c r="M476" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N476" s="3" t="n">
         <v>0</v>
@@ -18988,7 +18996,7 @@
       <c r="A477" s="3" t="inlineStr"/>
       <c r="B477" s="3" t="inlineStr">
         <is>
-          <t>subjective rating of side effect</t>
+          <t>subjective measure</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr"/>
@@ -19025,7 +19033,7 @@
       <c r="A478" s="3" t="inlineStr"/>
       <c r="B478" s="3" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>subjective rating of side effect</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr"/>
@@ -19043,7 +19051,7 @@
       <c r="K478" s="3" t="inlineStr"/>
       <c r="L478" s="3" t="inlineStr"/>
       <c r="M478" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N478" s="3" t="n">
         <v>0</v>
@@ -19062,7 +19070,7 @@
       <c r="A479" s="3" t="inlineStr"/>
       <c r="B479" s="3" t="inlineStr">
         <is>
-          <t>survey estimate</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr"/>
@@ -19099,7 +19107,7 @@
       <c r="A480" s="3" t="inlineStr"/>
       <c r="B480" s="3" t="inlineStr">
         <is>
-          <t>survey of substance use</t>
+          <t>survey estimate</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr"/>
@@ -19136,7 +19144,7 @@
       <c r="A481" s="3" t="inlineStr"/>
       <c r="B481" s="3" t="inlineStr">
         <is>
-          <t>survival analysis</t>
+          <t>survey of substance use</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr"/>
@@ -19173,7 +19181,7 @@
       <c r="A482" s="3" t="inlineStr"/>
       <c r="B482" s="3" t="inlineStr">
         <is>
-          <t>synergistic effect</t>
+          <t>survival analysis</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr"/>
@@ -19210,7 +19218,7 @@
       <c r="A483" s="3" t="inlineStr"/>
       <c r="B483" s="3" t="inlineStr">
         <is>
-          <t>synoptic review</t>
+          <t>synergistic effect</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr"/>
@@ -19247,7 +19255,7 @@
       <c r="A484" s="3" t="inlineStr"/>
       <c r="B484" s="3" t="inlineStr">
         <is>
-          <t>synthetic control group</t>
+          <t>synoptic review</t>
         </is>
       </c>
       <c r="C484" s="3" t="inlineStr"/>
@@ -19284,7 +19292,7 @@
       <c r="A485" s="3" t="inlineStr"/>
       <c r="B485" s="3" t="inlineStr">
         <is>
-          <t>systematic review</t>
+          <t>synthetic control group</t>
         </is>
       </c>
       <c r="C485" s="3" t="inlineStr"/>
@@ -19321,7 +19329,7 @@
       <c r="A486" s="3" t="inlineStr"/>
       <c r="B486" s="3" t="inlineStr">
         <is>
-          <t>tIDieR guidelines</t>
+          <t>systematic review</t>
         </is>
       </c>
       <c r="C486" s="3" t="inlineStr"/>
@@ -19358,7 +19366,7 @@
       <c r="A487" s="3" t="inlineStr"/>
       <c r="B487" s="3" t="inlineStr">
         <is>
-          <t>taxation data</t>
+          <t>tIDieR guidelines</t>
         </is>
       </c>
       <c r="C487" s="3" t="inlineStr"/>
@@ -19392,108 +19400,108 @@
       <c r="S487" s="3" t="inlineStr"/>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="inlineStr">
+      <c r="A488" s="3" t="inlineStr"/>
+      <c r="B488" s="3" t="inlineStr">
+        <is>
+          <t>taxation data</t>
+        </is>
+      </c>
+      <c r="C488" s="3" t="inlineStr"/>
+      <c r="D488" s="3" t="inlineStr"/>
+      <c r="E488" s="3" t="inlineStr"/>
+      <c r="F488" s="3" t="inlineStr"/>
+      <c r="G488" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H488" s="3" t="inlineStr"/>
+      <c r="I488" s="3" t="inlineStr"/>
+      <c r="J488" s="3" t="inlineStr"/>
+      <c r="K488" s="3" t="inlineStr"/>
+      <c r="L488" s="3" t="inlineStr"/>
+      <c r="M488" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N488" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O488" s="3" t="inlineStr"/>
+      <c r="P488" s="3" t="inlineStr"/>
+      <c r="Q488" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R488" s="3" t="inlineStr"/>
+      <c r="S488" s="3" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000157</t>
         </is>
       </c>
-      <c r="B488" s="2" t="inlineStr">
+      <c r="B489" s="2" t="inlineStr">
         <is>
           <t>temporal start</t>
         </is>
       </c>
-      <c r="C488" s="2" t="inlineStr">
+      <c r="C489" s="2" t="inlineStr">
         <is>
           <t>The process boundary when a process or temporal region starts.</t>
         </is>
       </c>
-      <c r="D488" s="2" t="inlineStr">
+      <c r="D489" s="2" t="inlineStr">
         <is>
           <t>AFP:0003328</t>
         </is>
       </c>
-      <c r="E488" s="2" t="inlineStr">
+      <c r="E489" s="2" t="inlineStr">
         <is>
           <t>process boundary</t>
         </is>
       </c>
-      <c r="F488" s="2" t="inlineStr">
+      <c r="F489" s="2" t="inlineStr">
         <is>
           <t>Process boundary</t>
         </is>
       </c>
-      <c r="G488" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H488" s="2" t="inlineStr">
+      <c r="G489" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H489" s="2" t="inlineStr">
         <is>
           <t>Definition from AFP modified to include temporal region.</t>
         </is>
       </c>
-      <c r="I488" s="2" t="inlineStr"/>
-      <c r="J488" s="2" t="inlineStr"/>
-      <c r="K488" s="2" t="inlineStr"/>
-      <c r="L488" s="2" t="inlineStr"/>
-      <c r="M488" s="2" t="n">
+      <c r="I489" s="2" t="inlineStr"/>
+      <c r="J489" s="2" t="inlineStr"/>
+      <c r="K489" s="2" t="inlineStr"/>
+      <c r="L489" s="2" t="inlineStr"/>
+      <c r="M489" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N488" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O488" s="2" t="inlineStr"/>
-      <c r="P488" s="2" t="inlineStr"/>
-      <c r="Q488" s="2" t="inlineStr">
+      <c r="N489" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O489" s="2" t="inlineStr"/>
+      <c r="P489" s="2" t="inlineStr"/>
+      <c r="Q489" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R488" s="2" t="inlineStr"/>
-      <c r="S488" s="2" t="inlineStr"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="3" t="inlineStr"/>
-      <c r="B489" s="3" t="inlineStr">
-        <is>
-          <t>tested association</t>
-        </is>
-      </c>
-      <c r="C489" s="3" t="inlineStr"/>
-      <c r="D489" s="3" t="inlineStr"/>
-      <c r="E489" s="3" t="inlineStr"/>
-      <c r="F489" s="3" t="inlineStr"/>
-      <c r="G489" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H489" s="3" t="inlineStr"/>
-      <c r="I489" s="3" t="inlineStr"/>
-      <c r="J489" s="3" t="inlineStr"/>
-      <c r="K489" s="3" t="inlineStr"/>
-      <c r="L489" s="3" t="inlineStr"/>
-      <c r="M489" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N489" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O489" s="3" t="inlineStr"/>
-      <c r="P489" s="3" t="inlineStr"/>
-      <c r="Q489" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R489" s="3" t="inlineStr"/>
-      <c r="S489" s="3" t="inlineStr"/>
+      <c r="R489" s="2" t="inlineStr"/>
+      <c r="S489" s="2" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="3" t="inlineStr"/>
       <c r="B490" s="3" t="inlineStr">
         <is>
-          <t>thematic analysis</t>
+          <t>tested association</t>
         </is>
       </c>
       <c r="C490" s="3" t="inlineStr"/>
@@ -19530,7 +19538,7 @@
       <c r="A491" s="3" t="inlineStr"/>
       <c r="B491" s="3" t="inlineStr">
         <is>
-          <t>theory of the collectivity of drinking cultures</t>
+          <t>thematic analysis</t>
         </is>
       </c>
       <c r="C491" s="3" t="inlineStr"/>
@@ -19567,7 +19575,7 @@
       <c r="A492" s="3" t="inlineStr"/>
       <c r="B492" s="3" t="inlineStr">
         <is>
-          <t>time series analysis</t>
+          <t>theory of the collectivity of drinking cultures</t>
         </is>
       </c>
       <c r="C492" s="3" t="inlineStr"/>
@@ -19604,7 +19612,7 @@
       <c r="A493" s="3" t="inlineStr"/>
       <c r="B493" s="3" t="inlineStr">
         <is>
-          <t>time series study design</t>
+          <t>time series analysis</t>
         </is>
       </c>
       <c r="C493" s="3" t="inlineStr"/>
@@ -19641,7 +19649,7 @@
       <c r="A494" s="3" t="inlineStr"/>
       <c r="B494" s="3" t="inlineStr">
         <is>
-          <t>time-dependent covariate</t>
+          <t>time series study design</t>
         </is>
       </c>
       <c r="C494" s="3" t="inlineStr"/>
@@ -19678,7 +19686,7 @@
       <c r="A495" s="3" t="inlineStr"/>
       <c r="B495" s="3" t="inlineStr">
         <is>
-          <t>time-dependent urine toxicology</t>
+          <t>time-dependent covariate</t>
         </is>
       </c>
       <c r="C495" s="3" t="inlineStr"/>
@@ -19715,7 +19723,7 @@
       <c r="A496" s="3" t="inlineStr"/>
       <c r="B496" s="3" t="inlineStr">
         <is>
-          <t>time-series analysis</t>
+          <t>time-dependent urine toxicology</t>
         </is>
       </c>
       <c r="C496" s="3" t="inlineStr"/>
@@ -19752,7 +19760,7 @@
       <c r="A497" s="3" t="inlineStr"/>
       <c r="B497" s="3" t="inlineStr">
         <is>
-          <t>tobacco demand indicator</t>
+          <t>time-series analysis</t>
         </is>
       </c>
       <c r="C497" s="3" t="inlineStr"/>
@@ -19786,35 +19794,19 @@
       <c r="S497" s="3" t="inlineStr"/>
     </row>
     <row r="498">
-      <c r="A498" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000180</t>
-        </is>
-      </c>
+      <c r="A498" s="3" t="inlineStr"/>
       <c r="B498" s="3" t="inlineStr">
         <is>
-          <t>tobacco industry funding</t>
-        </is>
-      </c>
-      <c r="C498" s="3" t="inlineStr">
-        <is>
-          <t>Funding that originates from one or more tobacco companies.</t>
-        </is>
-      </c>
+          <t>tobacco demand indicator</t>
+        </is>
+      </c>
+      <c r="C498" s="3" t="inlineStr"/>
       <c r="D498" s="3" t="inlineStr"/>
-      <c r="E498" s="3" t="inlineStr">
-        <is>
-          <t>funding</t>
-        </is>
-      </c>
-      <c r="F498" s="3" t="inlineStr">
-        <is>
-          <t>Generically Dependent Continuant</t>
-        </is>
-      </c>
+      <c r="E498" s="3" t="inlineStr"/>
+      <c r="F498" s="3" t="inlineStr"/>
       <c r="G498" s="3" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>Research activity</t>
         </is>
       </c>
       <c r="H498" s="3" t="inlineStr"/>
@@ -19823,7 +19815,7 @@
       <c r="K498" s="3" t="inlineStr"/>
       <c r="L498" s="3" t="inlineStr"/>
       <c r="M498" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N498" s="3" t="n">
         <v>0</v>
@@ -19839,19 +19831,35 @@
       <c r="S498" s="3" t="inlineStr"/>
     </row>
     <row r="499">
-      <c r="A499" s="3" t="inlineStr"/>
+      <c r="A499" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000180</t>
+        </is>
+      </c>
       <c r="B499" s="3" t="inlineStr">
         <is>
-          <t>tobacco industry funding of research</t>
-        </is>
-      </c>
-      <c r="C499" s="3" t="inlineStr"/>
+          <t>tobacco industry funding</t>
+        </is>
+      </c>
+      <c r="C499" s="3" t="inlineStr">
+        <is>
+          <t>Funding that originates from one or more tobacco companies.</t>
+        </is>
+      </c>
       <c r="D499" s="3" t="inlineStr"/>
-      <c r="E499" s="3" t="inlineStr"/>
-      <c r="F499" s="3" t="inlineStr"/>
+      <c r="E499" s="3" t="inlineStr">
+        <is>
+          <t>funding</t>
+        </is>
+      </c>
+      <c r="F499" s="3" t="inlineStr">
+        <is>
+          <t>Generically Dependent Continuant</t>
+        </is>
+      </c>
       <c r="G499" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
+          <t>Product</t>
         </is>
       </c>
       <c r="H499" s="3" t="inlineStr"/>
@@ -19860,7 +19868,7 @@
       <c r="K499" s="3" t="inlineStr"/>
       <c r="L499" s="3" t="inlineStr"/>
       <c r="M499" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N499" s="3" t="n">
         <v>0</v>
@@ -19879,7 +19887,7 @@
       <c r="A500" s="3" t="inlineStr"/>
       <c r="B500" s="3" t="inlineStr">
         <is>
-          <t>toxicological assessment of inhaled vapour</t>
+          <t>tobacco industry funding of research</t>
         </is>
       </c>
       <c r="C500" s="3" t="inlineStr"/>
@@ -19897,7 +19905,7 @@
       <c r="K500" s="3" t="inlineStr"/>
       <c r="L500" s="3" t="inlineStr"/>
       <c r="M500" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N500" s="3" t="n">
         <v>0</v>
@@ -19916,7 +19924,7 @@
       <c r="A501" s="3" t="inlineStr"/>
       <c r="B501" s="3" t="inlineStr">
         <is>
-          <t>treatment group</t>
+          <t>toxicological assessment of inhaled vapour</t>
         </is>
       </c>
       <c r="C501" s="3" t="inlineStr"/>
@@ -19934,7 +19942,7 @@
       <c r="K501" s="3" t="inlineStr"/>
       <c r="L501" s="3" t="inlineStr"/>
       <c r="M501" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N501" s="3" t="n">
         <v>0</v>
@@ -19953,7 +19961,7 @@
       <c r="A502" s="3" t="inlineStr"/>
       <c r="B502" s="3" t="inlineStr">
         <is>
-          <t>trend analysis</t>
+          <t>treatment group</t>
         </is>
       </c>
       <c r="C502" s="3" t="inlineStr"/>
@@ -19990,7 +19998,7 @@
       <c r="A503" s="3" t="inlineStr"/>
       <c r="B503" s="3" t="inlineStr">
         <is>
-          <t>trial conclusion</t>
+          <t>trend analysis</t>
         </is>
       </c>
       <c r="C503" s="3" t="inlineStr"/>
@@ -20027,7 +20035,7 @@
       <c r="A504" s="3" t="inlineStr"/>
       <c r="B504" s="3" t="inlineStr">
         <is>
-          <t>triangulation research method</t>
+          <t>trial conclusion</t>
         </is>
       </c>
       <c r="C504" s="3" t="inlineStr"/>
@@ -20064,7 +20072,7 @@
       <c r="A505" s="3" t="inlineStr"/>
       <c r="B505" s="3" t="inlineStr">
         <is>
-          <t>tweedie's trim and fill approach</t>
+          <t>triangulation research method</t>
         </is>
       </c>
       <c r="C505" s="3" t="inlineStr"/>
@@ -20073,7 +20081,7 @@
       <c r="F505" s="3" t="inlineStr"/>
       <c r="G505" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Research activity </t>
+          <t>Research activity</t>
         </is>
       </c>
       <c r="H505" s="3" t="inlineStr"/>
@@ -20101,7 +20109,7 @@
       <c r="A506" s="3" t="inlineStr"/>
       <c r="B506" s="3" t="inlineStr">
         <is>
-          <t>twin method</t>
+          <t>tweedie's trim and fill approach</t>
         </is>
       </c>
       <c r="C506" s="3" t="inlineStr"/>
@@ -20110,7 +20118,7 @@
       <c r="F506" s="3" t="inlineStr"/>
       <c r="G506" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
+          <t xml:space="preserve">Research activity </t>
         </is>
       </c>
       <c r="H506" s="3" t="inlineStr"/>
@@ -20138,7 +20146,7 @@
       <c r="A507" s="3" t="inlineStr"/>
       <c r="B507" s="3" t="inlineStr">
         <is>
-          <t>twin research</t>
+          <t>twin method</t>
         </is>
       </c>
       <c r="C507" s="3" t="inlineStr"/>
@@ -20175,7 +20183,7 @@
       <c r="A508" s="3" t="inlineStr"/>
       <c r="B508" s="3" t="inlineStr">
         <is>
-          <t>twin-based heritability analysis</t>
+          <t>twin research</t>
         </is>
       </c>
       <c r="C508" s="3" t="inlineStr"/>
@@ -20212,7 +20220,7 @@
       <c r="A509" s="3" t="inlineStr"/>
       <c r="B509" s="3" t="inlineStr">
         <is>
-          <t>two-arm parallel group randomised controlled trial</t>
+          <t>twin-based heritability analysis</t>
         </is>
       </c>
       <c r="C509" s="3" t="inlineStr"/>
@@ -20249,7 +20257,7 @@
       <c r="A510" s="3" t="inlineStr"/>
       <c r="B510" s="3" t="inlineStr">
         <is>
-          <t>under-reporting</t>
+          <t>two-arm parallel group randomised controlled trial</t>
         </is>
       </c>
       <c r="C510" s="3" t="inlineStr"/>
@@ -20286,7 +20294,7 @@
       <c r="A511" s="3" t="inlineStr"/>
       <c r="B511" s="3" t="inlineStr">
         <is>
-          <t>under-sampling</t>
+          <t>under-reporting</t>
         </is>
       </c>
       <c r="C511" s="3" t="inlineStr"/>
@@ -20323,7 +20331,7 @@
       <c r="A512" s="3" t="inlineStr"/>
       <c r="B512" s="3" t="inlineStr">
         <is>
-          <t>unique variance</t>
+          <t>under-sampling</t>
         </is>
       </c>
       <c r="C512" s="3" t="inlineStr"/>
@@ -20360,7 +20368,7 @@
       <c r="A513" s="3" t="inlineStr"/>
       <c r="B513" s="3" t="inlineStr">
         <is>
-          <t>unplanned analysis</t>
+          <t>unique variance</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr"/>
@@ -20397,7 +20405,7 @@
       <c r="A514" s="3" t="inlineStr"/>
       <c r="B514" s="3" t="inlineStr">
         <is>
-          <t>unvalidated measure</t>
+          <t>unplanned analysis</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr"/>
@@ -20415,7 +20423,7 @@
       <c r="K514" s="3" t="inlineStr"/>
       <c r="L514" s="3" t="inlineStr"/>
       <c r="M514" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N514" s="3" t="n">
         <v>0</v>
@@ -20434,7 +20442,7 @@
       <c r="A515" s="3" t="inlineStr"/>
       <c r="B515" s="3" t="inlineStr">
         <is>
-          <t>urine drug screen</t>
+          <t>unvalidated measure</t>
         </is>
       </c>
       <c r="C515" s="3" t="inlineStr"/>
@@ -20448,15 +20456,11 @@
       </c>
       <c r="H515" s="3" t="inlineStr"/>
       <c r="I515" s="3" t="inlineStr"/>
-      <c r="J515" s="3" t="inlineStr">
-        <is>
-          <t>Urine drug test</t>
-        </is>
-      </c>
+      <c r="J515" s="3" t="inlineStr"/>
       <c r="K515" s="3" t="inlineStr"/>
       <c r="L515" s="3" t="inlineStr"/>
       <c r="M515" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N515" s="3" t="n">
         <v>0</v>
@@ -20475,7 +20479,7 @@
       <c r="A516" s="3" t="inlineStr"/>
       <c r="B516" s="3" t="inlineStr">
         <is>
-          <t>urine sample</t>
+          <t>urine drug screen</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr"/>
@@ -20489,7 +20493,11 @@
       </c>
       <c r="H516" s="3" t="inlineStr"/>
       <c r="I516" s="3" t="inlineStr"/>
-      <c r="J516" s="3" t="inlineStr"/>
+      <c r="J516" s="3" t="inlineStr">
+        <is>
+          <t>Urine drug test</t>
+        </is>
+      </c>
       <c r="K516" s="3" t="inlineStr"/>
       <c r="L516" s="3" t="inlineStr"/>
       <c r="M516" s="3" t="n">
@@ -20512,7 +20520,7 @@
       <c r="A517" s="3" t="inlineStr"/>
       <c r="B517" s="3" t="inlineStr">
         <is>
-          <t>urine testing for psychoactive substances</t>
+          <t>urine sample</t>
         </is>
       </c>
       <c r="C517" s="3" t="inlineStr"/>
@@ -20549,7 +20557,7 @@
       <c r="A518" s="3" t="inlineStr"/>
       <c r="B518" s="3" t="inlineStr">
         <is>
-          <t>urine toxicology for opioids</t>
+          <t>urine testing for psychoactive substances</t>
         </is>
       </c>
       <c r="C518" s="3" t="inlineStr"/>
@@ -20586,7 +20594,7 @@
       <c r="A519" s="3" t="inlineStr"/>
       <c r="B519" s="3" t="inlineStr">
         <is>
-          <t>urine toxicology screen</t>
+          <t>urine toxicology for opioids</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr"/>
@@ -20620,27 +20628,15 @@
       <c r="S519" s="3" t="inlineStr"/>
     </row>
     <row r="520">
-      <c r="A520" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000172</t>
-        </is>
-      </c>
+      <c r="A520" s="3" t="inlineStr"/>
       <c r="B520" s="3" t="inlineStr">
         <is>
-          <t>validated measure</t>
-        </is>
-      </c>
-      <c r="C520" s="3" t="inlineStr">
-        <is>
-          <t>A research measure that has been subjected to evaluation for one or more forms of validity and which it is claimed has reached or exceeded an appropriate threshold on that criterion.</t>
-        </is>
-      </c>
+          <t>urine toxicology screen</t>
+        </is>
+      </c>
+      <c r="C520" s="3" t="inlineStr"/>
       <c r="D520" s="3" t="inlineStr"/>
-      <c r="E520" s="3" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
+      <c r="E520" s="3" t="inlineStr"/>
       <c r="F520" s="3" t="inlineStr"/>
       <c r="G520" s="3" t="inlineStr">
         <is>
@@ -20669,15 +20665,27 @@
       <c r="S520" s="3" t="inlineStr"/>
     </row>
     <row r="521">
-      <c r="A521" s="3" t="inlineStr"/>
+      <c r="A521" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000172</t>
+        </is>
+      </c>
       <c r="B521" s="3" t="inlineStr">
         <is>
-          <t>validity of a measure</t>
-        </is>
-      </c>
-      <c r="C521" s="3" t="inlineStr"/>
+          <t>validated measure</t>
+        </is>
+      </c>
+      <c r="C521" s="3" t="inlineStr">
+        <is>
+          <t>A research measure that has been subjected to evaluation for one or more forms of validity and which it is claimed has reached or exceeded an appropriate threshold on that criterion.</t>
+        </is>
+      </c>
       <c r="D521" s="3" t="inlineStr"/>
-      <c r="E521" s="3" t="inlineStr"/>
+      <c r="E521" s="3" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
       <c r="F521" s="3" t="inlineStr"/>
       <c r="G521" s="3" t="inlineStr">
         <is>
@@ -20709,7 +20717,7 @@
       <c r="A522" s="3" t="inlineStr"/>
       <c r="B522" s="3" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>validity of a measure</t>
         </is>
       </c>
       <c r="C522" s="3" t="inlineStr"/>
@@ -20746,7 +20754,7 @@
       <c r="A523" s="3" t="inlineStr"/>
       <c r="B523" s="3" t="inlineStr">
         <is>
-          <t>video recording</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="C523" s="3" t="inlineStr"/>
@@ -20783,7 +20791,7 @@
       <c r="A524" s="3" t="inlineStr"/>
       <c r="B524" s="3" t="inlineStr">
         <is>
-          <t>visual analogue scale</t>
+          <t>video recording</t>
         </is>
       </c>
       <c r="C524" s="3" t="inlineStr"/>
@@ -20820,7 +20828,7 @@
       <c r="A525" s="3" t="inlineStr"/>
       <c r="B525" s="3" t="inlineStr">
         <is>
-          <t>visual probe task</t>
+          <t>visual analogue scale</t>
         </is>
       </c>
       <c r="C525" s="3" t="inlineStr"/>
@@ -20857,7 +20865,7 @@
       <c r="A526" s="3" t="inlineStr"/>
       <c r="B526" s="3" t="inlineStr">
         <is>
-          <t>weekly urine drug test result</t>
+          <t>visual probe task</t>
         </is>
       </c>
       <c r="C526" s="3" t="inlineStr"/>
@@ -20894,7 +20902,7 @@
       <c r="A527" s="3" t="inlineStr"/>
       <c r="B527" s="3" t="inlineStr">
         <is>
-          <t>weighted estimate</t>
+          <t>weekly urine drug test result</t>
         </is>
       </c>
       <c r="C527" s="3" t="inlineStr"/>
@@ -20931,7 +20939,7 @@
       <c r="A528" s="3" t="inlineStr"/>
       <c r="B528" s="3" t="inlineStr">
         <is>
-          <t>within-country estimate</t>
+          <t>weighted estimate</t>
         </is>
       </c>
       <c r="C528" s="3" t="inlineStr"/>
@@ -20965,32 +20973,16 @@
       <c r="S528" s="3" t="inlineStr"/>
     </row>
     <row r="529">
-      <c r="A529" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000173</t>
-        </is>
-      </c>
+      <c r="A529" s="3" t="inlineStr"/>
       <c r="B529" s="3" t="inlineStr">
         <is>
-          <t>work absence register</t>
-        </is>
-      </c>
-      <c r="C529" s="3" t="inlineStr">
-        <is>
-          <t>A database documenting absence from work</t>
-        </is>
-      </c>
+          <t>within-country estimate</t>
+        </is>
+      </c>
+      <c r="C529" s="3" t="inlineStr"/>
       <c r="D529" s="3" t="inlineStr"/>
-      <c r="E529" s="3" t="inlineStr">
-        <is>
-          <t>data source</t>
-        </is>
-      </c>
-      <c r="F529" s="3" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+      <c r="E529" s="3" t="inlineStr"/>
+      <c r="F529" s="3" t="inlineStr"/>
       <c r="G529" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -20998,11 +20990,7 @@
       </c>
       <c r="H529" s="3" t="inlineStr"/>
       <c r="I529" s="3" t="inlineStr"/>
-      <c r="J529" s="3" t="inlineStr">
-        <is>
-          <t>Absence register</t>
-        </is>
-      </c>
+      <c r="J529" s="3" t="inlineStr"/>
       <c r="K529" s="3" t="inlineStr"/>
       <c r="L529" s="3" t="inlineStr"/>
       <c r="M529" s="3" t="n">
@@ -21024,26 +21012,30 @@
     <row r="530">
       <c r="A530" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000174</t>
+          <t>ADDICTO:0000173</t>
         </is>
       </c>
       <c r="B530" s="3" t="inlineStr">
         <is>
-          <t>year of publication</t>
+          <t>work absence register</t>
         </is>
       </c>
       <c r="C530" s="3" t="inlineStr">
         <is>
-          <t>A publication attribute that is the year in which it was published</t>
+          <t>A database documenting absence from work</t>
         </is>
       </c>
       <c r="D530" s="3" t="inlineStr"/>
       <c r="E530" s="3" t="inlineStr">
         <is>
-          <t>publication attribute</t>
-        </is>
-      </c>
-      <c r="F530" s="3" t="inlineStr"/>
+          <t>data source</t>
+        </is>
+      </c>
+      <c r="F530" s="3" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="G530" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -21051,7 +21043,11 @@
       </c>
       <c r="H530" s="3" t="inlineStr"/>
       <c r="I530" s="3" t="inlineStr"/>
-      <c r="J530" s="3" t="inlineStr"/>
+      <c r="J530" s="3" t="inlineStr">
+        <is>
+          <t>Absence register</t>
+        </is>
+      </c>
       <c r="K530" s="3" t="inlineStr"/>
       <c r="L530" s="3" t="inlineStr"/>
       <c r="M530" s="3" t="n">
@@ -21069,6 +21065,55 @@
       </c>
       <c r="R530" s="3" t="inlineStr"/>
       <c r="S530" s="3" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000174</t>
+        </is>
+      </c>
+      <c r="B531" s="3" t="inlineStr">
+        <is>
+          <t>year of publication</t>
+        </is>
+      </c>
+      <c r="C531" s="3" t="inlineStr">
+        <is>
+          <t>A publication attribute that is the year in which it was published</t>
+        </is>
+      </c>
+      <c r="D531" s="3" t="inlineStr"/>
+      <c r="E531" s="3" t="inlineStr">
+        <is>
+          <t>publication attribute</t>
+        </is>
+      </c>
+      <c r="F531" s="3" t="inlineStr"/>
+      <c r="G531" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H531" s="3" t="inlineStr"/>
+      <c r="I531" s="3" t="inlineStr"/>
+      <c r="J531" s="3" t="inlineStr"/>
+      <c r="K531" s="3" t="inlineStr"/>
+      <c r="L531" s="3" t="inlineStr"/>
+      <c r="M531" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N531" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O531" s="3" t="inlineStr"/>
+      <c r="P531" s="3" t="inlineStr"/>
+      <c r="Q531" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R531" s="3" t="inlineStr"/>
+      <c r="S531" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -8290,19 +8290,35 @@
           <t>research study</t>
         </is>
       </c>
-      <c r="F199" s="3" t="inlineStr"/>
+      <c r="F199" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G199" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H199" s="3" t="inlineStr"/>
+      <c r="H199" s="3" t="inlineStr">
+        <is>
+          <t>There are other definitions available but they do not capture what is needed, including the feasibility and value of a study and finding out how best to carry out the study.</t>
+        </is>
+      </c>
       <c r="I199" s="3" t="inlineStr"/>
       <c r="J199" s="3" t="inlineStr"/>
-      <c r="K199" s="3" t="inlineStr"/>
+      <c r="K199" s="3" t="inlineStr">
+        <is>
+          <t>Feasibility studies can include assessment of study methods as well as whatever is being studied. This definition does not include full-scale studies that assess the feasibility of an intervention.</t>
+        </is>
+      </c>
       <c r="L199" s="3" t="inlineStr"/>
-      <c r="M199" s="3" t="inlineStr"/>
-      <c r="N199" s="3" t="inlineStr"/>
+      <c r="M199" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N199" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O199" s="3" t="inlineStr"/>
       <c r="P199" s="3" t="inlineStr">
         <is>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -12853,28 +12853,52 @@
           <t>pilot study</t>
         </is>
       </c>
-      <c r="C317" s="3" t="inlineStr"/>
-      <c r="D317" s="3" t="inlineStr"/>
-      <c r="E317" s="3" t="inlineStr"/>
-      <c r="F317" s="3" t="inlineStr"/>
+      <c r="C317" s="3" t="inlineStr">
+        <is>
+          <t>A feasibility study that is a small-scale version of the full-scale study whose feasibility is being assessed.</t>
+        </is>
+      </c>
+      <c r="D317" s="3" t="inlineStr">
+        <is>
+          <t>https://pilotandfeasibilitystudies.qmul.ac.uk/introduction/#:~:text=A feasibility study asks whether,conducted on a smaller scale</t>
+        </is>
+      </c>
+      <c r="E317" s="3" t="inlineStr">
+        <is>
+          <t>feasibility study</t>
+        </is>
+      </c>
+      <c r="F317" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G317" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H317" s="3" t="inlineStr"/>
+      <c r="H317" s="3" t="inlineStr">
+        <is>
+          <t>The aim of this definition is to make a useful and clear distinction from feasibility studies. It uses the definition set out by Eldridge and colleagues (see Source).</t>
+        </is>
+      </c>
       <c r="I317" s="3" t="inlineStr"/>
       <c r="J317" s="3" t="inlineStr"/>
       <c r="K317" s="3" t="inlineStr"/>
       <c r="L317" s="3" t="inlineStr"/>
-      <c r="M317" s="3" t="n">
+      <c r="M317" s="3" t="b">
         <v>0</v>
       </c>
       <c r="N317" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O317" s="3" t="inlineStr"/>
-      <c r="P317" s="3" t="inlineStr"/>
+      <c r="P317" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q317" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -8284,7 +8284,11 @@
           <t>A research study that aims to determine the feasibility and value of carrying out a full-scale study and how that study should be conducted.</t>
         </is>
       </c>
-      <c r="D199" s="3" t="inlineStr"/>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>https://pilotandfeasibilitystudies.qmul.ac.uk/introduction/#:~:text=A feasibility study asks whether,conducted on a smaller scale</t>
+        </is>
+      </c>
       <c r="E199" s="3" t="inlineStr">
         <is>
           <t>research study</t>
@@ -8302,7 +8306,7 @@
       </c>
       <c r="H199" s="3" t="inlineStr">
         <is>
-          <t>There are other definitions available but they do not capture what is needed, including the feasibility and value of a study and finding out how best to carry out the study.</t>
+          <t>There are other definitions available but they do not capture what is needed, including the feasibility and value of a study and finding out how best to carry out the study. This one follows the guidance of Eldridge and colleague (see Source).</t>
         </is>
       </c>
       <c r="I199" s="3" t="inlineStr"/>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S531"/>
+  <dimension ref="A1:S532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12915,31 +12915,47 @@
       <c r="A318" s="3" t="inlineStr"/>
       <c r="B318" s="3" t="inlineStr">
         <is>
-          <t>placebo-controlled trial</t>
-        </is>
-      </c>
-      <c r="C318" s="3" t="inlineStr"/>
+          <t>pilot trial</t>
+        </is>
+      </c>
+      <c r="C318" s="3" t="inlineStr">
+        <is>
+          <t>A pilot study in which the full-scale study would be an evaluation of an intervention.</t>
+        </is>
+      </c>
       <c r="D318" s="3" t="inlineStr"/>
-      <c r="E318" s="3" t="inlineStr"/>
-      <c r="F318" s="3" t="inlineStr"/>
+      <c r="E318" s="3" t="inlineStr">
+        <is>
+          <t>pilot study</t>
+        </is>
+      </c>
+      <c r="F318" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G318" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H318" s="3" t="inlineStr"/>
+      <c r="H318" s="3" t="inlineStr">
+        <is>
+          <t>The aim is to make a clear distinction from both pilot study and feasibility trial.</t>
+        </is>
+      </c>
       <c r="I318" s="3" t="inlineStr"/>
       <c r="J318" s="3" t="inlineStr"/>
       <c r="K318" s="3" t="inlineStr"/>
       <c r="L318" s="3" t="inlineStr"/>
-      <c r="M318" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N318" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M318" s="3" t="inlineStr"/>
+      <c r="N318" s="3" t="inlineStr"/>
       <c r="O318" s="3" t="inlineStr"/>
-      <c r="P318" s="3" t="inlineStr"/>
+      <c r="P318" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q318" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -12952,7 +12968,7 @@
       <c r="A319" s="3" t="inlineStr"/>
       <c r="B319" s="3" t="inlineStr">
         <is>
-          <t>plausible effect size</t>
+          <t>placebo-controlled trial</t>
         </is>
       </c>
       <c r="C319" s="3" t="inlineStr"/>
@@ -12989,7 +13005,7 @@
       <c r="A320" s="3" t="inlineStr"/>
       <c r="B320" s="3" t="inlineStr">
         <is>
-          <t>poison center</t>
+          <t>plausible effect size</t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr"/>
@@ -13026,7 +13042,7 @@
       <c r="A321" s="3" t="inlineStr"/>
       <c r="B321" s="3" t="inlineStr">
         <is>
-          <t>poisson regression</t>
+          <t>poison center</t>
         </is>
       </c>
       <c r="C321" s="3" t="inlineStr"/>
@@ -13063,7 +13079,7 @@
       <c r="A322" s="3" t="inlineStr"/>
       <c r="B322" s="3" t="inlineStr">
         <is>
-          <t>pooled data</t>
+          <t>poisson regression</t>
         </is>
       </c>
       <c r="C322" s="3" t="inlineStr"/>
@@ -13100,16 +13116,12 @@
       <c r="A323" s="3" t="inlineStr"/>
       <c r="B323" s="3" t="inlineStr">
         <is>
-          <t>population-based cohort study design</t>
+          <t>pooled data</t>
         </is>
       </c>
       <c r="C323" s="3" t="inlineStr"/>
       <c r="D323" s="3" t="inlineStr"/>
-      <c r="E323" s="3" t="inlineStr">
-        <is>
-          <t>research study design</t>
-        </is>
-      </c>
+      <c r="E323" s="3" t="inlineStr"/>
       <c r="F323" s="3" t="inlineStr"/>
       <c r="G323" s="3" t="inlineStr">
         <is>
@@ -13141,12 +13153,16 @@
       <c r="A324" s="3" t="inlineStr"/>
       <c r="B324" s="3" t="inlineStr">
         <is>
-          <t>population-based twin samples</t>
+          <t>population-based cohort study design</t>
         </is>
       </c>
       <c r="C324" s="3" t="inlineStr"/>
       <c r="D324" s="3" t="inlineStr"/>
-      <c r="E324" s="3" t="inlineStr"/>
+      <c r="E324" s="3" t="inlineStr">
+        <is>
+          <t>research study design</t>
+        </is>
+      </c>
       <c r="F324" s="3" t="inlineStr"/>
       <c r="G324" s="3" t="inlineStr">
         <is>
@@ -13178,7 +13194,7 @@
       <c r="A325" s="3" t="inlineStr"/>
       <c r="B325" s="3" t="inlineStr">
         <is>
-          <t>positive association</t>
+          <t>population-based twin samples</t>
         </is>
       </c>
       <c r="C325" s="3" t="inlineStr"/>
@@ -13215,7 +13231,7 @@
       <c r="A326" s="3" t="inlineStr"/>
       <c r="B326" s="3" t="inlineStr">
         <is>
-          <t>positively associated</t>
+          <t>positive association</t>
         </is>
       </c>
       <c r="C326" s="3" t="inlineStr"/>
@@ -13252,7 +13268,7 @@
       <c r="A327" s="3" t="inlineStr"/>
       <c r="B327" s="3" t="inlineStr">
         <is>
-          <t>positron Emission Tomography scan</t>
+          <t>positively associated</t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr"/>
@@ -13266,11 +13282,7 @@
       </c>
       <c r="H327" s="3" t="inlineStr"/>
       <c r="I327" s="3" t="inlineStr"/>
-      <c r="J327" s="3" t="inlineStr">
-        <is>
-          <t>PET scan</t>
-        </is>
-      </c>
+      <c r="J327" s="3" t="inlineStr"/>
       <c r="K327" s="3" t="inlineStr"/>
       <c r="L327" s="3" t="inlineStr"/>
       <c r="M327" s="3" t="n">
@@ -13290,49 +13302,29 @@
       <c r="S327" s="3" t="inlineStr"/>
     </row>
     <row r="328">
-      <c r="A328" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000176</t>
-        </is>
-      </c>
+      <c r="A328" s="3" t="inlineStr"/>
       <c r="B328" s="3" t="inlineStr">
         <is>
-          <t>potential competing interest</t>
-        </is>
-      </c>
-      <c r="C328" s="3" t="inlineStr">
-        <is>
-          <t>An attribute of a person that could be a competing interest.</t>
-        </is>
-      </c>
+          <t>positron Emission Tomography scan</t>
+        </is>
+      </c>
+      <c r="C328" s="3" t="inlineStr"/>
       <c r="D328" s="3" t="inlineStr"/>
-      <c r="E328" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="F328" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="E328" s="3" t="inlineStr"/>
+      <c r="F328" s="3" t="inlineStr"/>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Research activity </t>
-        </is>
-      </c>
-      <c r="H328" s="3" t="inlineStr">
-        <is>
-          <t>The definition was adapted from the PLOS definition.</t>
-        </is>
-      </c>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H328" s="3" t="inlineStr"/>
       <c r="I328" s="3" t="inlineStr"/>
-      <c r="J328" s="3" t="inlineStr"/>
-      <c r="K328" s="3" t="inlineStr">
-        <is>
-          <t>They should be fully disclosed by people in any research, clinical, professional or policy-making role to enable stakeholders to make an informed judgement about the potential for bias. They include: 1) financial potential competing interests, as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the conduct of the professional role.</t>
-        </is>
-      </c>
+      <c r="J328" s="3" t="inlineStr">
+        <is>
+          <t>PET scan</t>
+        </is>
+      </c>
+      <c r="K328" s="3" t="inlineStr"/>
       <c r="L328" s="3" t="inlineStr"/>
       <c r="M328" s="3" t="n">
         <v>0</v>
@@ -13351,25 +13343,49 @@
       <c r="S328" s="3" t="inlineStr"/>
     </row>
     <row r="329">
-      <c r="A329" s="3" t="inlineStr"/>
+      <c r="A329" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000176</t>
+        </is>
+      </c>
       <c r="B329" s="3" t="inlineStr">
         <is>
-          <t>potential mediator</t>
-        </is>
-      </c>
-      <c r="C329" s="3" t="inlineStr"/>
+          <t>potential competing interest</t>
+        </is>
+      </c>
+      <c r="C329" s="3" t="inlineStr">
+        <is>
+          <t>An attribute of a person that could be a competing interest.</t>
+        </is>
+      </c>
       <c r="D329" s="3" t="inlineStr"/>
-      <c r="E329" s="3" t="inlineStr"/>
-      <c r="F329" s="3" t="inlineStr"/>
+      <c r="E329" s="3" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F329" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="G329" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H329" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Research activity </t>
+        </is>
+      </c>
+      <c r="H329" s="3" t="inlineStr">
+        <is>
+          <t>The definition was adapted from the PLOS definition.</t>
+        </is>
+      </c>
       <c r="I329" s="3" t="inlineStr"/>
       <c r="J329" s="3" t="inlineStr"/>
-      <c r="K329" s="3" t="inlineStr"/>
+      <c r="K329" s="3" t="inlineStr">
+        <is>
+          <t>They should be fully disclosed by people in any research, clinical, professional or policy-making role to enable stakeholders to make an informed judgement about the potential for bias. They include: 1) financial potential competing interests, as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the conduct of the professional role.</t>
+        </is>
+      </c>
       <c r="L329" s="3" t="inlineStr"/>
       <c r="M329" s="3" t="n">
         <v>0</v>
@@ -13391,7 +13407,7 @@
       <c r="A330" s="3" t="inlineStr"/>
       <c r="B330" s="3" t="inlineStr">
         <is>
-          <t>pragmatic randomised trial</t>
+          <t>potential mediator</t>
         </is>
       </c>
       <c r="C330" s="3" t="inlineStr"/>
@@ -13428,7 +13444,7 @@
       <c r="A331" s="3" t="inlineStr"/>
       <c r="B331" s="3" t="inlineStr">
         <is>
-          <t>pre-registered data analysis</t>
+          <t>pragmatic randomised trial</t>
         </is>
       </c>
       <c r="C331" s="3" t="inlineStr"/>
@@ -13465,7 +13481,7 @@
       <c r="A332" s="3" t="inlineStr"/>
       <c r="B332" s="3" t="inlineStr">
         <is>
-          <t>pre-registered study</t>
+          <t>pre-registered data analysis</t>
         </is>
       </c>
       <c r="C332" s="3" t="inlineStr"/>
@@ -13502,7 +13518,7 @@
       <c r="A333" s="3" t="inlineStr"/>
       <c r="B333" s="3" t="inlineStr">
         <is>
-          <t>pre-specified analysis</t>
+          <t>pre-registered study</t>
         </is>
       </c>
       <c r="C333" s="3" t="inlineStr"/>
@@ -13539,7 +13555,7 @@
       <c r="A334" s="3" t="inlineStr"/>
       <c r="B334" s="3" t="inlineStr">
         <is>
-          <t>preclinical research</t>
+          <t>pre-specified analysis</t>
         </is>
       </c>
       <c r="C334" s="3" t="inlineStr"/>
@@ -13576,7 +13592,7 @@
       <c r="A335" s="3" t="inlineStr"/>
       <c r="B335" s="3" t="inlineStr">
         <is>
-          <t>preclinical substance use research</t>
+          <t>preclinical research</t>
         </is>
       </c>
       <c r="C335" s="3" t="inlineStr"/>
@@ -13613,7 +13629,7 @@
       <c r="A336" s="3" t="inlineStr"/>
       <c r="B336" s="3" t="inlineStr">
         <is>
-          <t>predictive validity</t>
+          <t>preclinical substance use research</t>
         </is>
       </c>
       <c r="C336" s="3" t="inlineStr"/>
@@ -13631,7 +13647,7 @@
       <c r="K336" s="3" t="inlineStr"/>
       <c r="L336" s="3" t="inlineStr"/>
       <c r="M336" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N336" s="3" t="n">
         <v>0</v>
@@ -13650,7 +13666,7 @@
       <c r="A337" s="3" t="inlineStr"/>
       <c r="B337" s="3" t="inlineStr">
         <is>
-          <t>predictive validity of a measure</t>
+          <t>predictive validity</t>
         </is>
       </c>
       <c r="C337" s="3" t="inlineStr"/>
@@ -13668,7 +13684,7 @@
       <c r="K337" s="3" t="inlineStr"/>
       <c r="L337" s="3" t="inlineStr"/>
       <c r="M337" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N337" s="3" t="n">
         <v>0</v>
@@ -13687,7 +13703,7 @@
       <c r="A338" s="3" t="inlineStr"/>
       <c r="B338" s="3" t="inlineStr">
         <is>
-          <t>predictive variables</t>
+          <t>predictive validity of a measure</t>
         </is>
       </c>
       <c r="C338" s="3" t="inlineStr"/>
@@ -13724,7 +13740,7 @@
       <c r="A339" s="3" t="inlineStr"/>
       <c r="B339" s="3" t="inlineStr">
         <is>
-          <t>predictor</t>
+          <t>predictive variables</t>
         </is>
       </c>
       <c r="C339" s="3" t="inlineStr"/>
@@ -13761,7 +13777,7 @@
       <c r="A340" s="3" t="inlineStr"/>
       <c r="B340" s="3" t="inlineStr">
         <is>
-          <t>prescription drug monitoring porgramme</t>
+          <t>predictor</t>
         </is>
       </c>
       <c r="C340" s="3" t="inlineStr"/>
@@ -13798,7 +13814,7 @@
       <c r="A341" s="3" t="inlineStr"/>
       <c r="B341" s="3" t="inlineStr">
         <is>
-          <t>primary explanatory variable</t>
+          <t>prescription drug monitoring porgramme</t>
         </is>
       </c>
       <c r="C341" s="3" t="inlineStr"/>
@@ -13835,7 +13851,7 @@
       <c r="A342" s="3" t="inlineStr"/>
       <c r="B342" s="3" t="inlineStr">
         <is>
-          <t>primary outcome</t>
+          <t>primary explanatory variable</t>
         </is>
       </c>
       <c r="C342" s="3" t="inlineStr"/>
@@ -13872,7 +13888,7 @@
       <c r="A343" s="3" t="inlineStr"/>
       <c r="B343" s="3" t="inlineStr">
         <is>
-          <t>primary outcome measure</t>
+          <t>primary outcome</t>
         </is>
       </c>
       <c r="C343" s="3" t="inlineStr"/>
@@ -13890,7 +13906,7 @@
       <c r="K343" s="3" t="inlineStr"/>
       <c r="L343" s="3" t="inlineStr"/>
       <c r="M343" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N343" s="3" t="n">
         <v>0</v>
@@ -13909,7 +13925,7 @@
       <c r="A344" s="3" t="inlineStr"/>
       <c r="B344" s="3" t="inlineStr">
         <is>
-          <t>primary predictor</t>
+          <t>primary outcome measure</t>
         </is>
       </c>
       <c r="C344" s="3" t="inlineStr"/>
@@ -13927,7 +13943,7 @@
       <c r="K344" s="3" t="inlineStr"/>
       <c r="L344" s="3" t="inlineStr"/>
       <c r="M344" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N344" s="3" t="n">
         <v>0</v>
@@ -13946,7 +13962,7 @@
       <c r="A345" s="3" t="inlineStr"/>
       <c r="B345" s="3" t="inlineStr">
         <is>
-          <t>probability sample</t>
+          <t>primary predictor</t>
         </is>
       </c>
       <c r="C345" s="3" t="inlineStr"/>
@@ -13983,7 +13999,7 @@
       <c r="A346" s="3" t="inlineStr"/>
       <c r="B346" s="3" t="inlineStr">
         <is>
-          <t>propensity score (PS) weighting</t>
+          <t>probability sample</t>
         </is>
       </c>
       <c r="C346" s="3" t="inlineStr"/>
@@ -14020,7 +14036,7 @@
       <c r="A347" s="3" t="inlineStr"/>
       <c r="B347" s="3" t="inlineStr">
         <is>
-          <t>propensity score matching</t>
+          <t>propensity score (PS) weighting</t>
         </is>
       </c>
       <c r="C347" s="3" t="inlineStr"/>
@@ -14057,7 +14073,7 @@
       <c r="A348" s="3" t="inlineStr"/>
       <c r="B348" s="3" t="inlineStr">
         <is>
-          <t>prospective birth cohort study</t>
+          <t>propensity score matching</t>
         </is>
       </c>
       <c r="C348" s="3" t="inlineStr"/>
@@ -14094,7 +14110,7 @@
       <c r="A349" s="3" t="inlineStr"/>
       <c r="B349" s="3" t="inlineStr">
         <is>
-          <t>prospective cohort study</t>
+          <t>prospective birth cohort study</t>
         </is>
       </c>
       <c r="C349" s="3" t="inlineStr"/>
@@ -14131,7 +14147,7 @@
       <c r="A350" s="3" t="inlineStr"/>
       <c r="B350" s="3" t="inlineStr">
         <is>
-          <t>prospective design</t>
+          <t>prospective cohort study</t>
         </is>
       </c>
       <c r="C350" s="3" t="inlineStr"/>
@@ -14168,7 +14184,7 @@
       <c r="A351" s="3" t="inlineStr"/>
       <c r="B351" s="3" t="inlineStr">
         <is>
-          <t>prospective study</t>
+          <t>prospective design</t>
         </is>
       </c>
       <c r="C351" s="3" t="inlineStr"/>
@@ -14205,7 +14221,7 @@
       <c r="A352" s="3" t="inlineStr"/>
       <c r="B352" s="3" t="inlineStr">
         <is>
-          <t>prospective study design</t>
+          <t>prospective study</t>
         </is>
       </c>
       <c r="C352" s="3" t="inlineStr"/>
@@ -14242,7 +14258,7 @@
       <c r="A353" s="3" t="inlineStr"/>
       <c r="B353" s="3" t="inlineStr">
         <is>
-          <t>protocol violation</t>
+          <t>prospective study design</t>
         </is>
       </c>
       <c r="C353" s="3" t="inlineStr"/>
@@ -14279,7 +14295,7 @@
       <c r="A354" s="3" t="inlineStr"/>
       <c r="B354" s="3" t="inlineStr">
         <is>
-          <t>punctuated Equilibrium Theory</t>
+          <t>protocol violation</t>
         </is>
       </c>
       <c r="C354" s="3" t="inlineStr"/>
@@ -14316,7 +14332,7 @@
       <c r="A355" s="3" t="inlineStr"/>
       <c r="B355" s="3" t="inlineStr">
         <is>
-          <t>qualitative Analysis</t>
+          <t>punctuated Equilibrium Theory</t>
         </is>
       </c>
       <c r="C355" s="3" t="inlineStr"/>
@@ -14353,7 +14369,7 @@
       <c r="A356" s="3" t="inlineStr"/>
       <c r="B356" s="3" t="inlineStr">
         <is>
-          <t>qualitative data</t>
+          <t>qualitative Analysis</t>
         </is>
       </c>
       <c r="C356" s="3" t="inlineStr"/>
@@ -14390,7 +14406,7 @@
       <c r="A357" s="3" t="inlineStr"/>
       <c r="B357" s="3" t="inlineStr">
         <is>
-          <t>qualitative study</t>
+          <t>qualitative data</t>
         </is>
       </c>
       <c r="C357" s="3" t="inlineStr"/>
@@ -14427,7 +14443,7 @@
       <c r="A358" s="3" t="inlineStr"/>
       <c r="B358" s="3" t="inlineStr">
         <is>
-          <t>quasi-experimental study design</t>
+          <t>qualitative study</t>
         </is>
       </c>
       <c r="C358" s="3" t="inlineStr"/>
@@ -14461,52 +14477,28 @@
       <c r="S358" s="3" t="inlineStr"/>
     </row>
     <row r="359">
-      <c r="A359" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000150</t>
-        </is>
-      </c>
+      <c r="A359" s="3" t="inlineStr"/>
       <c r="B359" s="3" t="inlineStr">
         <is>
-          <t>questionnaire</t>
-        </is>
-      </c>
-      <c r="C359" s="3" t="inlineStr">
-        <is>
-          <t>A document that contains a set of questions.</t>
-        </is>
-      </c>
+          <t>quasi-experimental study design</t>
+        </is>
+      </c>
+      <c r="C359" s="3" t="inlineStr"/>
       <c r="D359" s="3" t="inlineStr"/>
-      <c r="E359" s="3" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
-      </c>
-      <c r="F359" s="3" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+      <c r="E359" s="3" t="inlineStr"/>
+      <c r="F359" s="3" t="inlineStr"/>
       <c r="G359" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H359" s="3" t="inlineStr">
-        <is>
-          <t>The most iwdely used definition in OntoBee is from OBI but it is too specific.</t>
-        </is>
-      </c>
-      <c r="I359" s="3" t="inlineStr">
-        <is>
-          <t>OBI:0001000</t>
-        </is>
-      </c>
+      <c r="H359" s="3" t="inlineStr"/>
+      <c r="I359" s="3" t="inlineStr"/>
       <c r="J359" s="3" t="inlineStr"/>
       <c r="K359" s="3" t="inlineStr"/>
       <c r="L359" s="3" t="inlineStr"/>
       <c r="M359" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N359" s="3" t="n">
         <v>0</v>
@@ -14522,100 +14514,124 @@
       <c r="S359" s="3" t="inlineStr"/>
     </row>
     <row r="360">
-      <c r="A360" s="2" t="inlineStr">
+      <c r="A360" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000150</t>
+        </is>
+      </c>
+      <c r="B360" s="3" t="inlineStr">
+        <is>
+          <t>questionnaire</t>
+        </is>
+      </c>
+      <c r="C360" s="3" t="inlineStr">
+        <is>
+          <t>A document that contains a set of questions.</t>
+        </is>
+      </c>
+      <c r="D360" s="3" t="inlineStr"/>
+      <c r="E360" s="3" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="F360" s="3" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G360" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H360" s="3" t="inlineStr">
+        <is>
+          <t>The most iwdely used definition in OntoBee is from OBI but it is too specific.</t>
+        </is>
+      </c>
+      <c r="I360" s="3" t="inlineStr">
+        <is>
+          <t>OBI:0001000</t>
+        </is>
+      </c>
+      <c r="J360" s="3" t="inlineStr"/>
+      <c r="K360" s="3" t="inlineStr"/>
+      <c r="L360" s="3" t="inlineStr"/>
+      <c r="M360" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N360" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O360" s="3" t="inlineStr"/>
+      <c r="P360" s="3" t="inlineStr"/>
+      <c r="Q360" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R360" s="3" t="inlineStr"/>
+      <c r="S360" s="3" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000151</t>
         </is>
       </c>
-      <c r="B360" s="2" t="inlineStr">
+      <c r="B361" s="2" t="inlineStr">
         <is>
           <t>questionnaire administration</t>
         </is>
       </c>
-      <c r="C360" s="2" t="inlineStr">
+      <c r="C361" s="2" t="inlineStr">
         <is>
           <t>A process in which a questionnaire is answered.</t>
         </is>
       </c>
-      <c r="D360" s="2" t="inlineStr"/>
-      <c r="E360" s="2" t="inlineStr">
+      <c r="D361" s="2" t="inlineStr"/>
+      <c r="E361" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F360" s="2" t="inlineStr">
+      <c r="F361" s="2" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G360" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H360" s="2" t="inlineStr"/>
-      <c r="I360" s="2" t="inlineStr"/>
-      <c r="J360" s="2" t="inlineStr"/>
-      <c r="K360" s="2" t="inlineStr"/>
-      <c r="L360" s="2" t="inlineStr"/>
-      <c r="M360" s="2" t="n">
+      <c r="G361" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H361" s="2" t="inlineStr"/>
+      <c r="I361" s="2" t="inlineStr"/>
+      <c r="J361" s="2" t="inlineStr"/>
+      <c r="K361" s="2" t="inlineStr"/>
+      <c r="L361" s="2" t="inlineStr"/>
+      <c r="M361" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N360" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O360" s="2" t="inlineStr"/>
-      <c r="P360" s="2" t="inlineStr"/>
-      <c r="Q360" s="2" t="inlineStr">
+      <c r="N361" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O361" s="2" t="inlineStr"/>
+      <c r="P361" s="2" t="inlineStr"/>
+      <c r="Q361" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R360" s="2" t="inlineStr"/>
-      <c r="S360" s="2" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="3" t="inlineStr"/>
-      <c r="B361" s="3" t="inlineStr">
-        <is>
-          <t>random effects model</t>
-        </is>
-      </c>
-      <c r="C361" s="3" t="inlineStr"/>
-      <c r="D361" s="3" t="inlineStr"/>
-      <c r="E361" s="3" t="inlineStr"/>
-      <c r="F361" s="3" t="inlineStr"/>
-      <c r="G361" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H361" s="3" t="inlineStr"/>
-      <c r="I361" s="3" t="inlineStr"/>
-      <c r="J361" s="3" t="inlineStr"/>
-      <c r="K361" s="3" t="inlineStr"/>
-      <c r="L361" s="3" t="inlineStr"/>
-      <c r="M361" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N361" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O361" s="3" t="inlineStr"/>
-      <c r="P361" s="3" t="inlineStr"/>
-      <c r="Q361" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R361" s="3" t="inlineStr"/>
-      <c r="S361" s="3" t="inlineStr"/>
+      <c r="R361" s="2" t="inlineStr"/>
+      <c r="S361" s="2" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="3" t="inlineStr"/>
       <c r="B362" s="3" t="inlineStr">
         <is>
-          <t>random sample</t>
+          <t>random effects model</t>
         </is>
       </c>
       <c r="C362" s="3" t="inlineStr"/>
@@ -14652,7 +14668,7 @@
       <c r="A363" s="3" t="inlineStr"/>
       <c r="B363" s="3" t="inlineStr">
         <is>
-          <t>randomised</t>
+          <t>random sample</t>
         </is>
       </c>
       <c r="C363" s="3" t="inlineStr"/>
@@ -14689,7 +14705,7 @@
       <c r="A364" s="3" t="inlineStr"/>
       <c r="B364" s="3" t="inlineStr">
         <is>
-          <t>randomised Clinical Trial</t>
+          <t>randomised</t>
         </is>
       </c>
       <c r="C364" s="3" t="inlineStr"/>
@@ -14703,11 +14719,7 @@
       </c>
       <c r="H364" s="3" t="inlineStr"/>
       <c r="I364" s="3" t="inlineStr"/>
-      <c r="J364" s="3" t="inlineStr">
-        <is>
-          <t>Randomised Controlled Trial</t>
-        </is>
-      </c>
+      <c r="J364" s="3" t="inlineStr"/>
       <c r="K364" s="3" t="inlineStr"/>
       <c r="L364" s="3" t="inlineStr"/>
       <c r="M364" s="3" t="n">
@@ -14730,7 +14742,7 @@
       <c r="A365" s="3" t="inlineStr"/>
       <c r="B365" s="3" t="inlineStr">
         <is>
-          <t>randomised Controlled Trial</t>
+          <t>randomised Clinical Trial</t>
         </is>
       </c>
       <c r="C365" s="3" t="inlineStr"/>
@@ -14744,7 +14756,11 @@
       </c>
       <c r="H365" s="3" t="inlineStr"/>
       <c r="I365" s="3" t="inlineStr"/>
-      <c r="J365" s="3" t="inlineStr"/>
+      <c r="J365" s="3" t="inlineStr">
+        <is>
+          <t>Randomised Controlled Trial</t>
+        </is>
+      </c>
       <c r="K365" s="3" t="inlineStr"/>
       <c r="L365" s="3" t="inlineStr"/>
       <c r="M365" s="3" t="n">
@@ -14767,7 +14783,7 @@
       <c r="A366" s="3" t="inlineStr"/>
       <c r="B366" s="3" t="inlineStr">
         <is>
-          <t>randomly allocated</t>
+          <t>randomised Controlled Trial</t>
         </is>
       </c>
       <c r="C366" s="3" t="inlineStr"/>
@@ -14781,11 +14797,7 @@
       </c>
       <c r="H366" s="3" t="inlineStr"/>
       <c r="I366" s="3" t="inlineStr"/>
-      <c r="J366" s="3" t="inlineStr">
-        <is>
-          <t>Randomly assigned</t>
-        </is>
-      </c>
+      <c r="J366" s="3" t="inlineStr"/>
       <c r="K366" s="3" t="inlineStr"/>
       <c r="L366" s="3" t="inlineStr"/>
       <c r="M366" s="3" t="n">
@@ -14808,7 +14820,7 @@
       <c r="A367" s="3" t="inlineStr"/>
       <c r="B367" s="3" t="inlineStr">
         <is>
-          <t>rapid ethonographic fieldwork</t>
+          <t>randomly allocated</t>
         </is>
       </c>
       <c r="C367" s="3" t="inlineStr"/>
@@ -14822,7 +14834,11 @@
       </c>
       <c r="H367" s="3" t="inlineStr"/>
       <c r="I367" s="3" t="inlineStr"/>
-      <c r="J367" s="3" t="inlineStr"/>
+      <c r="J367" s="3" t="inlineStr">
+        <is>
+          <t>Randomly assigned</t>
+        </is>
+      </c>
       <c r="K367" s="3" t="inlineStr"/>
       <c r="L367" s="3" t="inlineStr"/>
       <c r="M367" s="3" t="n">
@@ -14845,7 +14861,7 @@
       <c r="A368" s="3" t="inlineStr"/>
       <c r="B368" s="3" t="inlineStr">
         <is>
-          <t>rate ratio</t>
+          <t>rapid ethonographic fieldwork</t>
         </is>
       </c>
       <c r="C368" s="3" t="inlineStr"/>
@@ -14882,7 +14898,7 @@
       <c r="A369" s="3" t="inlineStr"/>
       <c r="B369" s="3" t="inlineStr">
         <is>
-          <t>re-test reliability of a measure</t>
+          <t>rate ratio</t>
         </is>
       </c>
       <c r="C369" s="3" t="inlineStr"/>
@@ -14919,7 +14935,7 @@
       <c r="A370" s="3" t="inlineStr"/>
       <c r="B370" s="3" t="inlineStr">
         <is>
-          <t>real-world control</t>
+          <t>re-test reliability of a measure</t>
         </is>
       </c>
       <c r="C370" s="3" t="inlineStr"/>
@@ -14956,7 +14972,7 @@
       <c r="A371" s="3" t="inlineStr"/>
       <c r="B371" s="3" t="inlineStr">
         <is>
-          <t>reason for drop out</t>
+          <t>real-world control</t>
         </is>
       </c>
       <c r="C371" s="3" t="inlineStr"/>
@@ -14993,7 +15009,7 @@
       <c r="A372" s="3" t="inlineStr"/>
       <c r="B372" s="3" t="inlineStr">
         <is>
-          <t>recruitment into a study</t>
+          <t>reason for drop out</t>
         </is>
       </c>
       <c r="C372" s="3" t="inlineStr"/>
@@ -15030,7 +15046,7 @@
       <c r="A373" s="3" t="inlineStr"/>
       <c r="B373" s="3" t="inlineStr">
         <is>
-          <t>regional estimate</t>
+          <t>recruitment into a study</t>
         </is>
       </c>
       <c r="C373" s="3" t="inlineStr"/>
@@ -15067,7 +15083,7 @@
       <c r="A374" s="3" t="inlineStr"/>
       <c r="B374" s="3" t="inlineStr">
         <is>
-          <t>regression analysis</t>
+          <t>regional estimate</t>
         </is>
       </c>
       <c r="C374" s="3" t="inlineStr"/>
@@ -15104,7 +15120,7 @@
       <c r="A375" s="3" t="inlineStr"/>
       <c r="B375" s="3" t="inlineStr">
         <is>
-          <t>regression coefficient</t>
+          <t>regression analysis</t>
         </is>
       </c>
       <c r="C375" s="3" t="inlineStr"/>
@@ -15122,7 +15138,7 @@
       <c r="K375" s="3" t="inlineStr"/>
       <c r="L375" s="3" t="inlineStr"/>
       <c r="M375" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N375" s="3" t="n">
         <v>0</v>
@@ -15141,7 +15157,7 @@
       <c r="A376" s="3" t="inlineStr"/>
       <c r="B376" s="3" t="inlineStr">
         <is>
-          <t>relative risk</t>
+          <t>regression coefficient</t>
         </is>
       </c>
       <c r="C376" s="3" t="inlineStr"/>
@@ -15159,7 +15175,7 @@
       <c r="K376" s="3" t="inlineStr"/>
       <c r="L376" s="3" t="inlineStr"/>
       <c r="M376" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N376" s="3" t="n">
         <v>0</v>
@@ -15178,7 +15194,7 @@
       <c r="A377" s="3" t="inlineStr"/>
       <c r="B377" s="3" t="inlineStr">
         <is>
-          <t>reliability of a measure</t>
+          <t>relative risk</t>
         </is>
       </c>
       <c r="C377" s="3" t="inlineStr"/>
@@ -15215,7 +15231,7 @@
       <c r="A378" s="3" t="inlineStr"/>
       <c r="B378" s="3" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
+          <t>reliability of a measure</t>
         </is>
       </c>
       <c r="C378" s="3" t="inlineStr"/>
@@ -15252,7 +15268,7 @@
       <c r="A379" s="3" t="inlineStr"/>
       <c r="B379" s="3" t="inlineStr">
         <is>
-          <t>representative sample</t>
+          <t>repeated measures study design</t>
         </is>
       </c>
       <c r="C379" s="3" t="inlineStr"/>
@@ -15270,7 +15286,7 @@
       <c r="K379" s="3" t="inlineStr"/>
       <c r="L379" s="3" t="inlineStr"/>
       <c r="M379" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N379" s="3" t="n">
         <v>0</v>
@@ -15286,247 +15302,231 @@
       <c r="S379" s="3" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
+      <c r="A380" s="3" t="inlineStr"/>
+      <c r="B380" s="3" t="inlineStr">
+        <is>
+          <t>representative sample</t>
+        </is>
+      </c>
+      <c r="C380" s="3" t="inlineStr"/>
+      <c r="D380" s="3" t="inlineStr"/>
+      <c r="E380" s="3" t="inlineStr"/>
+      <c r="F380" s="3" t="inlineStr"/>
+      <c r="G380" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H380" s="3" t="inlineStr"/>
+      <c r="I380" s="3" t="inlineStr"/>
+      <c r="J380" s="3" t="inlineStr"/>
+      <c r="K380" s="3" t="inlineStr"/>
+      <c r="L380" s="3" t="inlineStr"/>
+      <c r="M380" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N380" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O380" s="3" t="inlineStr"/>
+      <c r="P380" s="3" t="inlineStr"/>
+      <c r="Q380" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R380" s="3" t="inlineStr"/>
+      <c r="S380" s="3" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
         <is>
           <t>SEPIO:0000004</t>
         </is>
       </c>
-      <c r="B380" t="inlineStr">
+      <c r="B381" t="inlineStr">
         <is>
           <t>research activity</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr">
+      <c r="C381" t="inlineStr">
         <is>
           <t>A planned process executed in the performance of scientific research wherein systematic investigations are performed to establish facts and reach new conclusions about phenomena in the world.</t>
         </is>
       </c>
-      <c r="D380" t="inlineStr"/>
-      <c r="E380" t="inlineStr">
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="F380" t="inlineStr">
+      <c r="F381" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H380" t="inlineStr"/>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr">
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr">
         <is>
           <t>Research</t>
         </is>
       </c>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
-      <c r="M380" t="n">
-        <v>0</v>
-      </c>
-      <c r="N380" t="n">
-        <v>0</v>
-      </c>
-      <c r="O380" t="inlineStr"/>
-      <c r="P380" t="inlineStr"/>
-      <c r="Q380" t="inlineStr">
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
+      <c r="M381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N381" t="n">
+        <v>0</v>
+      </c>
+      <c r="O381" t="inlineStr"/>
+      <c r="P381" t="inlineStr"/>
+      <c r="Q381" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R380" t="inlineStr"/>
-      <c r="S380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="3" t="inlineStr">
+      <c r="R381" t="inlineStr"/>
+      <c r="S381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000152</t>
         </is>
       </c>
-      <c r="B381" s="3" t="inlineStr">
+      <c r="B382" s="3" t="inlineStr">
         <is>
           <t>research measure</t>
         </is>
       </c>
-      <c r="C381" s="3" t="inlineStr">
+      <c r="C382" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is used in a research study to specify how a measurement should be undertaken.</t>
         </is>
       </c>
-      <c r="D381" s="3" t="inlineStr"/>
-      <c r="E381" s="3" t="inlineStr">
+      <c r="D382" s="3" t="inlineStr"/>
+      <c r="E382" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="F381" s="3" t="inlineStr"/>
-      <c r="G381" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H381" s="3" t="inlineStr">
+      <c r="F382" s="3" t="inlineStr"/>
+      <c r="G382" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H382" s="3" t="inlineStr">
         <is>
           <t>This and the one below need VERY clear labels to disambiguate</t>
         </is>
       </c>
-      <c r="I381" s="3" t="inlineStr"/>
-      <c r="J381" s="3" t="inlineStr"/>
-      <c r="K381" s="3" t="inlineStr"/>
-      <c r="L381" s="3" t="inlineStr"/>
-      <c r="M381" s="3" t="n">
+      <c r="I382" s="3" t="inlineStr"/>
+      <c r="J382" s="3" t="inlineStr"/>
+      <c r="K382" s="3" t="inlineStr"/>
+      <c r="L382" s="3" t="inlineStr"/>
+      <c r="M382" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N381" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O381" s="3" t="inlineStr"/>
-      <c r="P381" s="3" t="inlineStr"/>
-      <c r="Q381" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R381" s="3" t="inlineStr"/>
-      <c r="S381" s="3" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
+      <c r="N382" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O382" s="3" t="inlineStr"/>
+      <c r="P382" s="3" t="inlineStr"/>
+      <c r="Q382" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R382" s="3" t="inlineStr"/>
+      <c r="S382" s="3" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="B382" t="inlineStr">
+      <c r="B383" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr">
+      <c r="C383" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D382" t="inlineStr"/>
-      <c r="E382" t="inlineStr">
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr">
         <is>
           <t>research activity</t>
         </is>
       </c>
-      <c r="F382" t="inlineStr">
+      <c r="F383" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H382" t="inlineStr"/>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
-      <c r="M382" t="b">
-        <v>0</v>
-      </c>
-      <c r="N382" t="inlineStr"/>
-      <c r="O382" t="inlineStr"/>
-      <c r="P382" t="inlineStr">
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
+      <c r="M383" t="b">
+        <v>0</v>
+      </c>
+      <c r="N383" t="inlineStr"/>
+      <c r="O383" t="inlineStr"/>
+      <c r="P383" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="Q382" t="inlineStr">
+      <c r="Q383" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R382" t="inlineStr"/>
-      <c r="S382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000153</t>
-        </is>
-      </c>
-      <c r="B383" s="3" t="inlineStr">
-        <is>
-          <t>research study measurement</t>
-        </is>
-      </c>
-      <c r="C383" s="3" t="inlineStr">
-        <is>
-          <t>A planned process that has as its output a data item corresponding to a quantitative or qualitative description of the attributes of an entity.</t>
-        </is>
-      </c>
-      <c r="D383" s="3" t="inlineStr">
-        <is>
-          <t>Measurement is not itself defined, except tautologically as "the data item that is the output of a measuremnet"</t>
-        </is>
-      </c>
-      <c r="E383" s="3" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="F383" s="3" t="inlineStr"/>
-      <c r="G383" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H383" s="3" t="inlineStr">
-        <is>
-          <t>Why not just 'measurement'?</t>
-        </is>
-      </c>
-      <c r="I383" s="3" t="inlineStr"/>
-      <c r="J383" s="3" t="inlineStr"/>
-      <c r="K383" s="3" t="inlineStr"/>
-      <c r="L383" s="3" t="inlineStr"/>
-      <c r="M383" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N383" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O383" s="3" t="inlineStr"/>
-      <c r="P383" s="3" t="inlineStr"/>
-      <c r="Q383" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R383" s="3" t="inlineStr"/>
-      <c r="S383" s="3" t="inlineStr"/>
+      <c r="R383" t="inlineStr"/>
+      <c r="S383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000154</t>
+          <t>ADDICTO:0000153</t>
         </is>
       </c>
       <c r="B384" s="3" t="inlineStr">
         <is>
-          <t>research study measurement datum</t>
+          <t>research study measurement</t>
         </is>
       </c>
       <c r="C384" s="3" t="inlineStr">
         <is>
-          <t>A measurment datum that is produced as part of a research study.</t>
-        </is>
-      </c>
-      <c r="D384" s="3" t="inlineStr"/>
+          <t>A planned process that has as its output a data item corresponding to a quantitative or qualitative description of the attributes of an entity.</t>
+        </is>
+      </c>
+      <c r="D384" s="3" t="inlineStr">
+        <is>
+          <t>Measurement is not itself defined, except tautologically as "the data item that is the output of a measuremnet"</t>
+        </is>
+      </c>
       <c r="E384" s="3" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="F384" s="3" t="inlineStr"/>
@@ -15535,7 +15535,11 @@
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H384" s="3" t="inlineStr"/>
+      <c r="H384" s="3" t="inlineStr">
+        <is>
+          <t>Why not just 'measurement'?</t>
+        </is>
+      </c>
       <c r="I384" s="3" t="inlineStr"/>
       <c r="J384" s="3" t="inlineStr"/>
       <c r="K384" s="3" t="inlineStr"/>
@@ -15547,11 +15551,7 @@
         <v>0</v>
       </c>
       <c r="O384" s="3" t="inlineStr"/>
-      <c r="P384" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P384" s="3" t="inlineStr"/>
       <c r="Q384" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -15561,19 +15561,27 @@
       <c r="S384" s="3" t="inlineStr"/>
     </row>
     <row r="385">
-      <c r="A385" s="3" t="inlineStr"/>
+      <c r="A385" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000154</t>
+        </is>
+      </c>
       <c r="B385" s="3" t="inlineStr">
         <is>
-          <t>researcher</t>
+          <t>research study measurement datum</t>
         </is>
       </c>
       <c r="C385" s="3" t="inlineStr">
         <is>
-          <t>A role of someone who conducts research</t>
+          <t>A measurment datum that is produced as part of a research study.</t>
         </is>
       </c>
       <c r="D385" s="3" t="inlineStr"/>
-      <c r="E385" s="3" t="inlineStr"/>
+      <c r="E385" s="3" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
       <c r="F385" s="3" t="inlineStr"/>
       <c r="G385" s="3" t="inlineStr">
         <is>
@@ -15586,13 +15594,17 @@
       <c r="K385" s="3" t="inlineStr"/>
       <c r="L385" s="3" t="inlineStr"/>
       <c r="M385" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N385" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O385" s="3" t="inlineStr"/>
-      <c r="P385" s="3" t="inlineStr"/>
+      <c r="P385" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q385" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -15605,10 +15617,14 @@
       <c r="A386" s="3" t="inlineStr"/>
       <c r="B386" s="3" t="inlineStr">
         <is>
-          <t>respondent</t>
-        </is>
-      </c>
-      <c r="C386" s="3" t="inlineStr"/>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="C386" s="3" t="inlineStr">
+        <is>
+          <t>A role of someone who conducts research</t>
+        </is>
+      </c>
       <c r="D386" s="3" t="inlineStr"/>
       <c r="E386" s="3" t="inlineStr"/>
       <c r="F386" s="3" t="inlineStr"/>
@@ -15642,7 +15658,7 @@
       <c r="A387" s="3" t="inlineStr"/>
       <c r="B387" s="3" t="inlineStr">
         <is>
-          <t>retention in study</t>
+          <t>respondent</t>
         </is>
       </c>
       <c r="C387" s="3" t="inlineStr"/>
@@ -15679,7 +15695,7 @@
       <c r="A388" s="3" t="inlineStr"/>
       <c r="B388" s="3" t="inlineStr">
         <is>
-          <t>retrospective cohort study</t>
+          <t>retention in study</t>
         </is>
       </c>
       <c r="C388" s="3" t="inlineStr"/>
@@ -15716,7 +15732,7 @@
       <c r="A389" s="3" t="inlineStr"/>
       <c r="B389" s="3" t="inlineStr">
         <is>
-          <t>retrospective comparative cohort design</t>
+          <t>retrospective cohort study</t>
         </is>
       </c>
       <c r="C389" s="3" t="inlineStr"/>
@@ -15753,7 +15769,7 @@
       <c r="A390" s="3" t="inlineStr"/>
       <c r="B390" s="3" t="inlineStr">
         <is>
-          <t>retrospective observational cohort study</t>
+          <t>retrospective comparative cohort design</t>
         </is>
       </c>
       <c r="C390" s="3" t="inlineStr"/>
@@ -15790,7 +15806,7 @@
       <c r="A391" s="3" t="inlineStr"/>
       <c r="B391" s="3" t="inlineStr">
         <is>
-          <t>retrospective report</t>
+          <t>retrospective observational cohort study</t>
         </is>
       </c>
       <c r="C391" s="3" t="inlineStr"/>
@@ -15827,7 +15843,7 @@
       <c r="A392" s="3" t="inlineStr"/>
       <c r="B392" s="3" t="inlineStr">
         <is>
-          <t>retrospective study</t>
+          <t>retrospective report</t>
         </is>
       </c>
       <c r="C392" s="3" t="inlineStr"/>
@@ -15864,7 +15880,7 @@
       <c r="A393" s="3" t="inlineStr"/>
       <c r="B393" s="3" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>retrospective study</t>
         </is>
       </c>
       <c r="C393" s="3" t="inlineStr"/>
@@ -15882,7 +15898,7 @@
       <c r="K393" s="3" t="inlineStr"/>
       <c r="L393" s="3" t="inlineStr"/>
       <c r="M393" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N393" s="3" t="n">
         <v>0</v>
@@ -15901,7 +15917,7 @@
       <c r="A394" s="3" t="inlineStr"/>
       <c r="B394" s="3" t="inlineStr">
         <is>
-          <t>risk factor</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="C394" s="3" t="inlineStr"/>
@@ -15938,7 +15954,7 @@
       <c r="A395" s="3" t="inlineStr"/>
       <c r="B395" s="3" t="inlineStr">
         <is>
-          <t>risk of bias</t>
+          <t>risk factor</t>
         </is>
       </c>
       <c r="C395" s="3" t="inlineStr"/>
@@ -15975,7 +15991,7 @@
       <c r="A396" s="3" t="inlineStr"/>
       <c r="B396" s="3" t="inlineStr">
         <is>
-          <t>risk ratio</t>
+          <t>risk of bias</t>
         </is>
       </c>
       <c r="C396" s="3" t="inlineStr"/>
@@ -15993,7 +16009,7 @@
       <c r="K396" s="3" t="inlineStr"/>
       <c r="L396" s="3" t="inlineStr"/>
       <c r="M396" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N396" s="3" t="n">
         <v>0</v>
@@ -16012,7 +16028,7 @@
       <c r="A397" s="3" t="inlineStr"/>
       <c r="B397" s="3" t="inlineStr">
         <is>
-          <t>robust predictor</t>
+          <t>risk ratio</t>
         </is>
       </c>
       <c r="C397" s="3" t="inlineStr"/>
@@ -16049,7 +16065,7 @@
       <c r="A398" s="3" t="inlineStr"/>
       <c r="B398" s="3" t="inlineStr">
         <is>
-          <t>russell Standard</t>
+          <t>robust predictor</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr"/>
@@ -16086,7 +16102,7 @@
       <c r="A399" s="3" t="inlineStr"/>
       <c r="B399" s="3" t="inlineStr">
         <is>
-          <t>russell Standard (Clinical)</t>
+          <t>russell Standard</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr"/>
@@ -16123,7 +16139,7 @@
       <c r="A400" s="3" t="inlineStr"/>
       <c r="B400" s="3" t="inlineStr">
         <is>
-          <t>russell Standard outcome criteria</t>
+          <t>russell Standard (Clinical)</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr"/>
@@ -16160,7 +16176,7 @@
       <c r="A401" s="3" t="inlineStr"/>
       <c r="B401" s="3" t="inlineStr">
         <is>
-          <t>saliva drug test</t>
+          <t>russell Standard outcome criteria</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr"/>
@@ -16197,7 +16213,7 @@
       <c r="A402" s="3" t="inlineStr"/>
       <c r="B402" s="3" t="inlineStr">
         <is>
-          <t>sample size</t>
+          <t>saliva drug test</t>
         </is>
       </c>
       <c r="C402" s="3" t="inlineStr"/>
@@ -16234,7 +16250,7 @@
       <c r="A403" s="3" t="inlineStr"/>
       <c r="B403" s="3" t="inlineStr">
         <is>
-          <t>sampling method</t>
+          <t>sample size</t>
         </is>
       </c>
       <c r="C403" s="3" t="inlineStr"/>
@@ -16271,7 +16287,7 @@
       <c r="A404" s="3" t="inlineStr"/>
       <c r="B404" s="3" t="inlineStr">
         <is>
-          <t>screening for alcohol use disorder</t>
+          <t>sampling method</t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr"/>
@@ -16308,7 +16324,7 @@
       <c r="A405" s="3" t="inlineStr"/>
       <c r="B405" s="3" t="inlineStr">
         <is>
-          <t>secondary data analysis</t>
+          <t>screening for alcohol use disorder</t>
         </is>
       </c>
       <c r="C405" s="3" t="inlineStr"/>
@@ -16345,7 +16361,7 @@
       <c r="A406" s="3" t="inlineStr"/>
       <c r="B406" s="3" t="inlineStr">
         <is>
-          <t>secondary outcome</t>
+          <t>secondary data analysis</t>
         </is>
       </c>
       <c r="C406" s="3" t="inlineStr"/>
@@ -16382,7 +16398,7 @@
       <c r="A407" s="3" t="inlineStr"/>
       <c r="B407" s="3" t="inlineStr">
         <is>
-          <t>secondary study aim</t>
+          <t>secondary outcome</t>
         </is>
       </c>
       <c r="C407" s="3" t="inlineStr"/>
@@ -16419,7 +16435,7 @@
       <c r="A408" s="3" t="inlineStr"/>
       <c r="B408" s="3" t="inlineStr">
         <is>
-          <t>segmented regression model</t>
+          <t>secondary study aim</t>
         </is>
       </c>
       <c r="C408" s="3" t="inlineStr"/>
@@ -16456,7 +16472,7 @@
       <c r="A409" s="3" t="inlineStr"/>
       <c r="B409" s="3" t="inlineStr">
         <is>
-          <t>selection bias</t>
+          <t>segmented regression model</t>
         </is>
       </c>
       <c r="C409" s="3" t="inlineStr"/>
@@ -16493,7 +16509,7 @@
       <c r="A410" s="3" t="inlineStr"/>
       <c r="B410" s="3" t="inlineStr">
         <is>
-          <t>self-report measure</t>
+          <t>selection bias</t>
         </is>
       </c>
       <c r="C410" s="3" t="inlineStr"/>
@@ -16511,7 +16527,7 @@
       <c r="K410" s="3" t="inlineStr"/>
       <c r="L410" s="3" t="inlineStr"/>
       <c r="M410" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N410" s="3" t="n">
         <v>0</v>
@@ -16527,100 +16543,100 @@
       <c r="S410" s="3" t="inlineStr"/>
     </row>
     <row r="411">
-      <c r="A411" s="2" t="inlineStr">
+      <c r="A411" s="3" t="inlineStr"/>
+      <c r="B411" s="3" t="inlineStr">
+        <is>
+          <t>self-report measure</t>
+        </is>
+      </c>
+      <c r="C411" s="3" t="inlineStr"/>
+      <c r="D411" s="3" t="inlineStr"/>
+      <c r="E411" s="3" t="inlineStr"/>
+      <c r="F411" s="3" t="inlineStr"/>
+      <c r="G411" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H411" s="3" t="inlineStr"/>
+      <c r="I411" s="3" t="inlineStr"/>
+      <c r="J411" s="3" t="inlineStr"/>
+      <c r="K411" s="3" t="inlineStr"/>
+      <c r="L411" s="3" t="inlineStr"/>
+      <c r="M411" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N411" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O411" s="3" t="inlineStr"/>
+      <c r="P411" s="3" t="inlineStr"/>
+      <c r="Q411" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R411" s="3" t="inlineStr"/>
+      <c r="S411" s="3" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000155</t>
         </is>
       </c>
-      <c r="B411" s="2" t="inlineStr">
+      <c r="B412" s="2" t="inlineStr">
         <is>
           <t>self-report questionnaire</t>
         </is>
       </c>
-      <c r="C411" s="2" t="inlineStr">
+      <c r="C412" s="2" t="inlineStr">
         <is>
           <t>A questionnaire that is administered in such a way that the person completing the questionnaire is answering questions about themselves.</t>
         </is>
       </c>
-      <c r="D411" s="2" t="inlineStr"/>
-      <c r="E411" s="2" t="inlineStr">
+      <c r="D412" s="2" t="inlineStr"/>
+      <c r="E412" s="2" t="inlineStr">
         <is>
           <t>questionnaire administration</t>
         </is>
       </c>
-      <c r="F411" s="2" t="inlineStr">
+      <c r="F412" s="2" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G411" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H411" s="2" t="inlineStr"/>
-      <c r="I411" s="2" t="inlineStr"/>
-      <c r="J411" s="2" t="inlineStr"/>
-      <c r="K411" s="2" t="inlineStr"/>
-      <c r="L411" s="2" t="inlineStr"/>
-      <c r="M411" s="2" t="n">
+      <c r="G412" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H412" s="2" t="inlineStr"/>
+      <c r="I412" s="2" t="inlineStr"/>
+      <c r="J412" s="2" t="inlineStr"/>
+      <c r="K412" s="2" t="inlineStr"/>
+      <c r="L412" s="2" t="inlineStr"/>
+      <c r="M412" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N411" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O411" s="2" t="inlineStr"/>
-      <c r="P411" s="2" t="inlineStr"/>
-      <c r="Q411" s="2" t="inlineStr">
+      <c r="N412" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O412" s="2" t="inlineStr"/>
+      <c r="P412" s="2" t="inlineStr"/>
+      <c r="Q412" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R411" s="2" t="inlineStr"/>
-      <c r="S411" s="2" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="3" t="inlineStr"/>
-      <c r="B412" s="3" t="inlineStr">
-        <is>
-          <t>self-report substance intake</t>
-        </is>
-      </c>
-      <c r="C412" s="3" t="inlineStr"/>
-      <c r="D412" s="3" t="inlineStr"/>
-      <c r="E412" s="3" t="inlineStr"/>
-      <c r="F412" s="3" t="inlineStr"/>
-      <c r="G412" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H412" s="3" t="inlineStr"/>
-      <c r="I412" s="3" t="inlineStr"/>
-      <c r="J412" s="3" t="inlineStr"/>
-      <c r="K412" s="3" t="inlineStr"/>
-      <c r="L412" s="3" t="inlineStr"/>
-      <c r="M412" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N412" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O412" s="3" t="inlineStr"/>
-      <c r="P412" s="3" t="inlineStr"/>
-      <c r="Q412" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R412" s="3" t="inlineStr"/>
-      <c r="S412" s="3" t="inlineStr"/>
+      <c r="R412" s="2" t="inlineStr"/>
+      <c r="S412" s="2" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="3" t="inlineStr"/>
       <c r="B413" s="3" t="inlineStr">
         <is>
-          <t>self-report survey</t>
+          <t>self-report substance intake</t>
         </is>
       </c>
       <c r="C413" s="3" t="inlineStr"/>
@@ -16657,7 +16673,7 @@
       <c r="A414" s="3" t="inlineStr"/>
       <c r="B414" s="3" t="inlineStr">
         <is>
-          <t>self-reported NMUA</t>
+          <t>self-report survey</t>
         </is>
       </c>
       <c r="C414" s="3" t="inlineStr"/>
@@ -16694,7 +16710,7 @@
       <c r="A415" s="3" t="inlineStr"/>
       <c r="B415" s="3" t="inlineStr">
         <is>
-          <t>self-reported cessation</t>
+          <t>self-reported NMUA</t>
         </is>
       </c>
       <c r="C415" s="3" t="inlineStr"/>
@@ -16731,7 +16747,7 @@
       <c r="A416" s="3" t="inlineStr"/>
       <c r="B416" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence</t>
+          <t>self-reported cessation</t>
         </is>
       </c>
       <c r="C416" s="3" t="inlineStr"/>
@@ -16768,7 +16784,7 @@
       <c r="A417" s="3" t="inlineStr"/>
       <c r="B417" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence from smoking</t>
+          <t>self-reported continuous abstinence</t>
         </is>
       </c>
       <c r="C417" s="3" t="inlineStr"/>
@@ -16805,7 +16821,7 @@
       <c r="A418" s="3" t="inlineStr"/>
       <c r="B418" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence up to 6-month follow up</t>
+          <t>self-reported continuous abstinence from smoking</t>
         </is>
       </c>
       <c r="C418" s="3" t="inlineStr"/>
@@ -16842,7 +16858,7 @@
       <c r="A419" s="3" t="inlineStr"/>
       <c r="B419" s="3" t="inlineStr">
         <is>
-          <t>self-reported drug use</t>
+          <t>self-reported continuous abstinence up to 6-month follow up</t>
         </is>
       </c>
       <c r="C419" s="3" t="inlineStr"/>
@@ -16879,7 +16895,7 @@
       <c r="A420" s="3" t="inlineStr"/>
       <c r="B420" s="3" t="inlineStr">
         <is>
-          <t>self-reported injection drug use</t>
+          <t>self-reported drug use</t>
         </is>
       </c>
       <c r="C420" s="3" t="inlineStr"/>
@@ -16916,7 +16932,7 @@
       <c r="A421" s="3" t="inlineStr"/>
       <c r="B421" s="3" t="inlineStr">
         <is>
-          <t>self-reported non-smoker</t>
+          <t>self-reported injection drug use</t>
         </is>
       </c>
       <c r="C421" s="3" t="inlineStr"/>
@@ -16953,7 +16969,7 @@
       <c r="A422" s="3" t="inlineStr"/>
       <c r="B422" s="3" t="inlineStr">
         <is>
-          <t>self-reported smoking abstinence</t>
+          <t>self-reported non-smoker</t>
         </is>
       </c>
       <c r="C422" s="3" t="inlineStr"/>
@@ -16971,7 +16987,7 @@
       <c r="K422" s="3" t="inlineStr"/>
       <c r="L422" s="3" t="inlineStr"/>
       <c r="M422" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N422" s="3" t="n">
         <v>0</v>
@@ -16990,7 +17006,7 @@
       <c r="A423" s="3" t="inlineStr"/>
       <c r="B423" s="3" t="inlineStr">
         <is>
-          <t>self-reported stimulant use</t>
+          <t>self-reported smoking abstinence</t>
         </is>
       </c>
       <c r="C423" s="3" t="inlineStr"/>
@@ -17008,7 +17024,7 @@
       <c r="K423" s="3" t="inlineStr"/>
       <c r="L423" s="3" t="inlineStr"/>
       <c r="M423" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N423" s="3" t="n">
         <v>0</v>
@@ -17027,7 +17043,7 @@
       <c r="A424" s="3" t="inlineStr"/>
       <c r="B424" s="3" t="inlineStr">
         <is>
-          <t>self-reported substance use</t>
+          <t>self-reported stimulant use</t>
         </is>
       </c>
       <c r="C424" s="3" t="inlineStr"/>
@@ -17064,7 +17080,7 @@
       <c r="A425" s="3" t="inlineStr"/>
       <c r="B425" s="3" t="inlineStr">
         <is>
-          <t>self-reported tobacco abstinence</t>
+          <t>self-reported substance use</t>
         </is>
       </c>
       <c r="C425" s="3" t="inlineStr"/>
@@ -17082,7 +17098,7 @@
       <c r="K425" s="3" t="inlineStr"/>
       <c r="L425" s="3" t="inlineStr"/>
       <c r="M425" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N425" s="3" t="n">
         <v>0</v>
@@ -17101,7 +17117,7 @@
       <c r="A426" s="3" t="inlineStr"/>
       <c r="B426" s="3" t="inlineStr">
         <is>
-          <t>semi-quantative assessment</t>
+          <t>self-reported tobacco abstinence</t>
         </is>
       </c>
       <c r="C426" s="3" t="inlineStr"/>
@@ -17119,7 +17135,7 @@
       <c r="K426" s="3" t="inlineStr"/>
       <c r="L426" s="3" t="inlineStr"/>
       <c r="M426" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N426" s="3" t="n">
         <v>0</v>
@@ -17138,7 +17154,7 @@
       <c r="A427" s="3" t="inlineStr"/>
       <c r="B427" s="3" t="inlineStr">
         <is>
-          <t>sensitivity analysis</t>
+          <t>semi-quantative assessment</t>
         </is>
       </c>
       <c r="C427" s="3" t="inlineStr"/>
@@ -17175,7 +17191,7 @@
       <c r="A428" s="3" t="inlineStr"/>
       <c r="B428" s="3" t="inlineStr">
         <is>
-          <t>serology test</t>
+          <t>sensitivity analysis</t>
         </is>
       </c>
       <c r="C428" s="3" t="inlineStr"/>
@@ -17212,7 +17228,7 @@
       <c r="A429" s="3" t="inlineStr"/>
       <c r="B429" s="3" t="inlineStr">
         <is>
-          <t>severity measure</t>
+          <t>serology test</t>
         </is>
       </c>
       <c r="C429" s="3" t="inlineStr"/>
@@ -17249,25 +17265,13 @@
       <c r="A430" s="3" t="inlineStr"/>
       <c r="B430" s="3" t="inlineStr">
         <is>
-          <t>severity of dependence scale (SDS)</t>
-        </is>
-      </c>
-      <c r="C430" s="3" t="inlineStr">
-        <is>
-          <t>A 5 item scale that provides a measure of the severity of dependence. Designed to assess opioid dependence it has been adapted to assess severity of dependence across multiple drug categories</t>
-        </is>
-      </c>
-      <c r="D430" s="3" t="inlineStr">
-        <is>
-          <t>https://www.who.int/substance_abuse/research_tools/severitydependencescale/en/</t>
-        </is>
-      </c>
+          <t>severity measure</t>
+        </is>
+      </c>
+      <c r="C430" s="3" t="inlineStr"/>
+      <c r="D430" s="3" t="inlineStr"/>
       <c r="E430" s="3" t="inlineStr"/>
-      <c r="F430" s="3" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+      <c r="F430" s="3" t="inlineStr"/>
       <c r="G430" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17298,13 +17302,25 @@
       <c r="A431" s="3" t="inlineStr"/>
       <c r="B431" s="3" t="inlineStr">
         <is>
-          <t>sex-specific quantile age-period-cohort regression</t>
-        </is>
-      </c>
-      <c r="C431" s="3" t="inlineStr"/>
-      <c r="D431" s="3" t="inlineStr"/>
+          <t>severity of dependence scale (SDS)</t>
+        </is>
+      </c>
+      <c r="C431" s="3" t="inlineStr">
+        <is>
+          <t>A 5 item scale that provides a measure of the severity of dependence. Designed to assess opioid dependence it has been adapted to assess severity of dependence across multiple drug categories</t>
+        </is>
+      </c>
+      <c r="D431" s="3" t="inlineStr">
+        <is>
+          <t>https://www.who.int/substance_abuse/research_tools/severitydependencescale/en/</t>
+        </is>
+      </c>
       <c r="E431" s="3" t="inlineStr"/>
-      <c r="F431" s="3" t="inlineStr"/>
+      <c r="F431" s="3" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="G431" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17335,7 +17351,7 @@
       <c r="A432" s="3" t="inlineStr"/>
       <c r="B432" s="3" t="inlineStr">
         <is>
-          <t>shared risk factor</t>
+          <t>sex-specific quantile age-period-cohort regression</t>
         </is>
       </c>
       <c r="C432" s="3" t="inlineStr"/>
@@ -17372,7 +17388,7 @@
       <c r="A433" s="3" t="inlineStr"/>
       <c r="B433" s="3" t="inlineStr">
         <is>
-          <t>shared variance</t>
+          <t>shared risk factor</t>
         </is>
       </c>
       <c r="C433" s="3" t="inlineStr"/>
@@ -17409,7 +17425,7 @@
       <c r="A434" s="3" t="inlineStr"/>
       <c r="B434" s="3" t="inlineStr">
         <is>
-          <t>sheffield Alcohol Policy Model</t>
+          <t>shared variance</t>
         </is>
       </c>
       <c r="C434" s="3" t="inlineStr"/>
@@ -17446,14 +17462,10 @@
       <c r="A435" s="3" t="inlineStr"/>
       <c r="B435" s="3" t="inlineStr">
         <is>
-          <t>sickness absence register</t>
-        </is>
-      </c>
-      <c r="C435" s="3" t="inlineStr">
-        <is>
-          <t>A source of data on people about their history of sickness absence from work.</t>
-        </is>
-      </c>
+          <t>sheffield Alcohol Policy Model</t>
+        </is>
+      </c>
+      <c r="C435" s="3" t="inlineStr"/>
       <c r="D435" s="3" t="inlineStr"/>
       <c r="E435" s="3" t="inlineStr"/>
       <c r="F435" s="3" t="inlineStr"/>
@@ -17487,10 +17499,14 @@
       <c r="A436" s="3" t="inlineStr"/>
       <c r="B436" s="3" t="inlineStr">
         <is>
-          <t>signal processing technique</t>
-        </is>
-      </c>
-      <c r="C436" s="3" t="inlineStr"/>
+          <t>sickness absence register</t>
+        </is>
+      </c>
+      <c r="C436" s="3" t="inlineStr">
+        <is>
+          <t>A source of data on people about their history of sickness absence from work.</t>
+        </is>
+      </c>
       <c r="D436" s="3" t="inlineStr"/>
       <c r="E436" s="3" t="inlineStr"/>
       <c r="F436" s="3" t="inlineStr"/>
@@ -17524,7 +17540,7 @@
       <c r="A437" s="3" t="inlineStr"/>
       <c r="B437" s="3" t="inlineStr">
         <is>
-          <t>significant association</t>
+          <t>signal processing technique</t>
         </is>
       </c>
       <c r="C437" s="3" t="inlineStr"/>
@@ -17561,7 +17577,7 @@
       <c r="A438" s="3" t="inlineStr"/>
       <c r="B438" s="3" t="inlineStr">
         <is>
-          <t>significant difference</t>
+          <t>significant association</t>
         </is>
       </c>
       <c r="C438" s="3" t="inlineStr"/>
@@ -17598,7 +17614,7 @@
       <c r="A439" s="3" t="inlineStr"/>
       <c r="B439" s="3" t="inlineStr">
         <is>
-          <t>significant increase</t>
+          <t>significant difference</t>
         </is>
       </c>
       <c r="C439" s="3" t="inlineStr"/>
@@ -17635,7 +17651,7 @@
       <c r="A440" s="3" t="inlineStr"/>
       <c r="B440" s="3" t="inlineStr">
         <is>
-          <t>simulated demand procedure</t>
+          <t>significant increase</t>
         </is>
       </c>
       <c r="C440" s="3" t="inlineStr"/>
@@ -17669,32 +17685,16 @@
       <c r="S440" s="3" t="inlineStr"/>
     </row>
     <row r="441">
-      <c r="A441" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000171</t>
-        </is>
-      </c>
+      <c r="A441" s="3" t="inlineStr"/>
       <c r="B441" s="3" t="inlineStr">
         <is>
-          <t>simulated population</t>
-        </is>
-      </c>
-      <c r="C441" s="3" t="inlineStr">
-        <is>
-          <t>An information content entity that represents attributes of a population for the purposes of modelling processes or outcomes in that population.</t>
-        </is>
-      </c>
+          <t>simulated demand procedure</t>
+        </is>
+      </c>
+      <c r="C441" s="3" t="inlineStr"/>
       <c r="D441" s="3" t="inlineStr"/>
-      <c r="E441" s="3" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="F441" s="3" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+      <c r="E441" s="3" t="inlineStr"/>
+      <c r="F441" s="3" t="inlineStr"/>
       <c r="G441" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17722,16 +17722,32 @@
       <c r="S441" s="3" t="inlineStr"/>
     </row>
     <row r="442">
-      <c r="A442" s="3" t="inlineStr"/>
+      <c r="A442" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000171</t>
+        </is>
+      </c>
       <c r="B442" s="3" t="inlineStr">
         <is>
-          <t>single-site study</t>
-        </is>
-      </c>
-      <c r="C442" s="3" t="inlineStr"/>
+          <t>simulated population</t>
+        </is>
+      </c>
+      <c r="C442" s="3" t="inlineStr">
+        <is>
+          <t>An information content entity that represents attributes of a population for the purposes of modelling processes or outcomes in that population.</t>
+        </is>
+      </c>
       <c r="D442" s="3" t="inlineStr"/>
-      <c r="E442" s="3" t="inlineStr"/>
-      <c r="F442" s="3" t="inlineStr"/>
+      <c r="E442" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="F442" s="3" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="G442" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17762,7 +17778,7 @@
       <c r="A443" s="3" t="inlineStr"/>
       <c r="B443" s="3" t="inlineStr">
         <is>
-          <t>slope and step change coefficient</t>
+          <t>single-site study</t>
         </is>
       </c>
       <c r="C443" s="3" t="inlineStr"/>
@@ -17799,7 +17815,7 @@
       <c r="A444" s="3" t="inlineStr"/>
       <c r="B444" s="3" t="inlineStr">
         <is>
-          <t>smoking Toolkit Study</t>
+          <t>slope and step change coefficient</t>
         </is>
       </c>
       <c r="C444" s="3" t="inlineStr"/>
@@ -17836,7 +17852,7 @@
       <c r="A445" s="3" t="inlineStr"/>
       <c r="B445" s="3" t="inlineStr">
         <is>
-          <t>smoking cessation treatment trial</t>
+          <t>smoking Toolkit Study</t>
         </is>
       </c>
       <c r="C445" s="3" t="inlineStr"/>
@@ -17873,7 +17889,7 @@
       <c r="A446" s="3" t="inlineStr"/>
       <c r="B446" s="3" t="inlineStr">
         <is>
-          <t>smoking cessation trial</t>
+          <t>smoking cessation treatment trial</t>
         </is>
       </c>
       <c r="C446" s="3" t="inlineStr"/>
@@ -17910,7 +17926,7 @@
       <c r="A447" s="3" t="inlineStr"/>
       <c r="B447" s="3" t="inlineStr">
         <is>
-          <t>socio-economic index for area of residence</t>
+          <t>smoking cessation trial</t>
         </is>
       </c>
       <c r="C447" s="3" t="inlineStr"/>
@@ -17947,7 +17963,7 @@
       <c r="A448" s="3" t="inlineStr"/>
       <c r="B448" s="3" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>socio-economic index for area of residence</t>
         </is>
       </c>
       <c r="C448" s="3" t="inlineStr"/>
@@ -17961,11 +17977,7 @@
       </c>
       <c r="H448" s="3" t="inlineStr"/>
       <c r="I448" s="3" t="inlineStr"/>
-      <c r="J448" s="3" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
+      <c r="J448" s="3" t="inlineStr"/>
       <c r="K448" s="3" t="inlineStr"/>
       <c r="L448" s="3" t="inlineStr"/>
       <c r="M448" s="3" t="n">
@@ -17988,7 +18000,7 @@
       <c r="A449" s="3" t="inlineStr"/>
       <c r="B449" s="3" t="inlineStr">
         <is>
-          <t>standard drinks per day</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="C449" s="3" t="inlineStr"/>
@@ -18002,7 +18014,11 @@
       </c>
       <c r="H449" s="3" t="inlineStr"/>
       <c r="I449" s="3" t="inlineStr"/>
-      <c r="J449" s="3" t="inlineStr"/>
+      <c r="J449" s="3" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
       <c r="K449" s="3" t="inlineStr"/>
       <c r="L449" s="3" t="inlineStr"/>
       <c r="M449" s="3" t="n">
@@ -18025,7 +18041,7 @@
       <c r="A450" s="3" t="inlineStr"/>
       <c r="B450" s="3" t="inlineStr">
         <is>
-          <t>standardised questionnaire</t>
+          <t>standard drinks per day</t>
         </is>
       </c>
       <c r="C450" s="3" t="inlineStr"/>
@@ -18043,7 +18059,7 @@
       <c r="K450" s="3" t="inlineStr"/>
       <c r="L450" s="3" t="inlineStr"/>
       <c r="M450" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N450" s="3" t="n">
         <v>0</v>
@@ -18062,7 +18078,7 @@
       <c r="A451" s="3" t="inlineStr"/>
       <c r="B451" s="3" t="inlineStr">
         <is>
-          <t>standardised regression coefficient</t>
+          <t>standardised questionnaire</t>
         </is>
       </c>
       <c r="C451" s="3" t="inlineStr"/>
@@ -18080,7 +18096,7 @@
       <c r="K451" s="3" t="inlineStr"/>
       <c r="L451" s="3" t="inlineStr"/>
       <c r="M451" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N451" s="3" t="n">
         <v>0</v>
@@ -18099,7 +18115,7 @@
       <c r="A452" s="3" t="inlineStr"/>
       <c r="B452" s="3" t="inlineStr">
         <is>
-          <t>standardized data capture</t>
+          <t>standardised regression coefficient</t>
         </is>
       </c>
       <c r="C452" s="3" t="inlineStr"/>
@@ -18133,100 +18149,100 @@
       <c r="S452" s="3" t="inlineStr"/>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="inlineStr">
+      <c r="A453" s="3" t="inlineStr"/>
+      <c r="B453" s="3" t="inlineStr">
+        <is>
+          <t>standardized data capture</t>
+        </is>
+      </c>
+      <c r="C453" s="3" t="inlineStr"/>
+      <c r="D453" s="3" t="inlineStr"/>
+      <c r="E453" s="3" t="inlineStr"/>
+      <c r="F453" s="3" t="inlineStr"/>
+      <c r="G453" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H453" s="3" t="inlineStr"/>
+      <c r="I453" s="3" t="inlineStr"/>
+      <c r="J453" s="3" t="inlineStr"/>
+      <c r="K453" s="3" t="inlineStr"/>
+      <c r="L453" s="3" t="inlineStr"/>
+      <c r="M453" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N453" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O453" s="3" t="inlineStr"/>
+      <c r="P453" s="3" t="inlineStr"/>
+      <c r="Q453" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R453" s="3" t="inlineStr"/>
+      <c r="S453" s="3" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000156</t>
         </is>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>start of follow-up period</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>The process boundary at the beginning of a follow-up period.</t>
         </is>
       </c>
-      <c r="D453" s="2" t="inlineStr"/>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="D454" s="2" t="inlineStr"/>
+      <c r="E454" s="2" t="inlineStr">
         <is>
           <t>temporal start</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
+      <c r="F454" s="2" t="inlineStr">
         <is>
           <t>Process boundary</t>
         </is>
       </c>
-      <c r="G453" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H453" s="2" t="inlineStr"/>
-      <c r="I453" s="2" t="inlineStr"/>
-      <c r="J453" s="2" t="inlineStr"/>
-      <c r="K453" s="2" t="inlineStr"/>
-      <c r="L453" s="2" t="inlineStr"/>
-      <c r="M453" s="2" t="n">
+      <c r="G454" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H454" s="2" t="inlineStr"/>
+      <c r="I454" s="2" t="inlineStr"/>
+      <c r="J454" s="2" t="inlineStr"/>
+      <c r="K454" s="2" t="inlineStr"/>
+      <c r="L454" s="2" t="inlineStr"/>
+      <c r="M454" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N453" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O453" s="2" t="inlineStr"/>
-      <c r="P453" s="2" t="inlineStr"/>
-      <c r="Q453" s="2" t="inlineStr">
+      <c r="N454" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O454" s="2" t="inlineStr"/>
+      <c r="P454" s="2" t="inlineStr"/>
+      <c r="Q454" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R453" s="2" t="inlineStr"/>
-      <c r="S453" s="2" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="3" t="inlineStr"/>
-      <c r="B454" s="3" t="inlineStr">
-        <is>
-          <t>state administrative record</t>
-        </is>
-      </c>
-      <c r="C454" s="3" t="inlineStr"/>
-      <c r="D454" s="3" t="inlineStr"/>
-      <c r="E454" s="3" t="inlineStr"/>
-      <c r="F454" s="3" t="inlineStr"/>
-      <c r="G454" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H454" s="3" t="inlineStr"/>
-      <c r="I454" s="3" t="inlineStr"/>
-      <c r="J454" s="3" t="inlineStr"/>
-      <c r="K454" s="3" t="inlineStr"/>
-      <c r="L454" s="3" t="inlineStr"/>
-      <c r="M454" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N454" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O454" s="3" t="inlineStr"/>
-      <c r="P454" s="3" t="inlineStr"/>
-      <c r="Q454" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R454" s="3" t="inlineStr"/>
-      <c r="S454" s="3" t="inlineStr"/>
+      <c r="R454" s="2" t="inlineStr"/>
+      <c r="S454" s="2" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="3" t="inlineStr"/>
       <c r="B455" s="3" t="inlineStr">
         <is>
-          <t>state transition model</t>
+          <t>state administrative record</t>
         </is>
       </c>
       <c r="C455" s="3" t="inlineStr"/>
@@ -18263,7 +18279,7 @@
       <c r="A456" s="3" t="inlineStr"/>
       <c r="B456" s="3" t="inlineStr">
         <is>
-          <t>state-level time-varying policy covariates</t>
+          <t>state transition model</t>
         </is>
       </c>
       <c r="C456" s="3" t="inlineStr"/>
@@ -18300,7 +18316,7 @@
       <c r="A457" s="3" t="inlineStr"/>
       <c r="B457" s="3" t="inlineStr">
         <is>
-          <t>statistical adjustment for covariates</t>
+          <t>state-level time-varying policy covariates</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr"/>
@@ -18337,7 +18353,7 @@
       <c r="A458" s="3" t="inlineStr"/>
       <c r="B458" s="3" t="inlineStr">
         <is>
-          <t>statistical adjustment for potential confounding variables</t>
+          <t>statistical adjustment for covariates</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr"/>
@@ -18374,7 +18390,7 @@
       <c r="A459" s="3" t="inlineStr"/>
       <c r="B459" s="3" t="inlineStr">
         <is>
-          <t>statistical interaction</t>
+          <t>statistical adjustment for potential confounding variables</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr"/>
@@ -18411,7 +18427,7 @@
       <c r="A460" s="3" t="inlineStr"/>
       <c r="B460" s="3" t="inlineStr">
         <is>
-          <t>statistically significant</t>
+          <t>statistical interaction</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr"/>
@@ -18448,7 +18464,7 @@
       <c r="A461" s="3" t="inlineStr"/>
       <c r="B461" s="3" t="inlineStr">
         <is>
-          <t>stepped-wedge study design</t>
+          <t>statistically significant</t>
         </is>
       </c>
       <c r="C461" s="3" t="inlineStr"/>
@@ -18485,7 +18501,7 @@
       <c r="A462" s="3" t="inlineStr"/>
       <c r="B462" s="3" t="inlineStr">
         <is>
-          <t>stratification</t>
+          <t>stepped-wedge study design</t>
         </is>
       </c>
       <c r="C462" s="3" t="inlineStr"/>
@@ -18522,7 +18538,7 @@
       <c r="A463" s="3" t="inlineStr"/>
       <c r="B463" s="3" t="inlineStr">
         <is>
-          <t>stratified sample</t>
+          <t>stratification</t>
         </is>
       </c>
       <c r="C463" s="3" t="inlineStr"/>
@@ -18559,7 +18575,7 @@
       <c r="A464" s="3" t="inlineStr"/>
       <c r="B464" s="3" t="inlineStr">
         <is>
-          <t>strength of association</t>
+          <t>stratified sample</t>
         </is>
       </c>
       <c r="C464" s="3" t="inlineStr"/>
@@ -18596,7 +18612,7 @@
       <c r="A465" s="3" t="inlineStr"/>
       <c r="B465" s="3" t="inlineStr">
         <is>
-          <t>strong evidence</t>
+          <t>strength of association</t>
         </is>
       </c>
       <c r="C465" s="3" t="inlineStr"/>
@@ -18633,7 +18649,7 @@
       <c r="A466" s="3" t="inlineStr"/>
       <c r="B466" s="3" t="inlineStr">
         <is>
-          <t>structural equation univariate and multivariate modeling</t>
+          <t>strong evidence</t>
         </is>
       </c>
       <c r="C466" s="3" t="inlineStr"/>
@@ -18670,7 +18686,7 @@
       <c r="A467" s="3" t="inlineStr"/>
       <c r="B467" s="3" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>structural equation univariate and multivariate modeling</t>
         </is>
       </c>
       <c r="C467" s="3" t="inlineStr"/>
@@ -18707,7 +18723,7 @@
       <c r="A468" s="3" t="inlineStr"/>
       <c r="B468" s="3" t="inlineStr">
         <is>
-          <t>study conclusion</t>
+          <t>study</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr"/>
@@ -18744,7 +18760,7 @@
       <c r="A469" s="3" t="inlineStr"/>
       <c r="B469" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>study conclusion</t>
         </is>
       </c>
       <c r="C469" s="3" t="inlineStr"/>
@@ -18781,7 +18797,7 @@
       <c r="A470" s="3" t="inlineStr"/>
       <c r="B470" s="3" t="inlineStr">
         <is>
-          <t>study group</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C470" s="3" t="inlineStr"/>
@@ -18818,7 +18834,7 @@
       <c r="A471" s="3" t="inlineStr"/>
       <c r="B471" s="3" t="inlineStr">
         <is>
-          <t>study medication</t>
+          <t>study group</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr"/>
@@ -18855,7 +18871,7 @@
       <c r="A472" s="3" t="inlineStr"/>
       <c r="B472" s="3" t="inlineStr">
         <is>
-          <t>study participation</t>
+          <t>study medication</t>
         </is>
       </c>
       <c r="C472" s="3" t="inlineStr"/>
@@ -18892,7 +18908,7 @@
       <c r="A473" s="3" t="inlineStr"/>
       <c r="B473" s="3" t="inlineStr">
         <is>
-          <t>study period</t>
+          <t>study participation</t>
         </is>
       </c>
       <c r="C473" s="3" t="inlineStr"/>
@@ -18929,7 +18945,7 @@
       <c r="A474" s="3" t="inlineStr"/>
       <c r="B474" s="3" t="inlineStr">
         <is>
-          <t>study preregistration</t>
+          <t>study period</t>
         </is>
       </c>
       <c r="C474" s="3" t="inlineStr"/>
@@ -18966,7 +18982,7 @@
       <c r="A475" s="3" t="inlineStr"/>
       <c r="B475" s="3" t="inlineStr">
         <is>
-          <t>study recruitment</t>
+          <t>study preregistration</t>
         </is>
       </c>
       <c r="C475" s="3" t="inlineStr"/>
@@ -19003,7 +19019,7 @@
       <c r="A476" s="3" t="inlineStr"/>
       <c r="B476" s="3" t="inlineStr">
         <is>
-          <t>study retention</t>
+          <t>study recruitment</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr"/>
@@ -19040,7 +19056,7 @@
       <c r="A477" s="3" t="inlineStr"/>
       <c r="B477" s="3" t="inlineStr">
         <is>
-          <t>subjective measure</t>
+          <t>study retention</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr"/>
@@ -19058,7 +19074,7 @@
       <c r="K477" s="3" t="inlineStr"/>
       <c r="L477" s="3" t="inlineStr"/>
       <c r="M477" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N477" s="3" t="n">
         <v>0</v>
@@ -19077,7 +19093,7 @@
       <c r="A478" s="3" t="inlineStr"/>
       <c r="B478" s="3" t="inlineStr">
         <is>
-          <t>subjective rating of side effect</t>
+          <t>subjective measure</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr"/>
@@ -19114,7 +19130,7 @@
       <c r="A479" s="3" t="inlineStr"/>
       <c r="B479" s="3" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>subjective rating of side effect</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr"/>
@@ -19132,7 +19148,7 @@
       <c r="K479" s="3" t="inlineStr"/>
       <c r="L479" s="3" t="inlineStr"/>
       <c r="M479" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N479" s="3" t="n">
         <v>0</v>
@@ -19151,7 +19167,7 @@
       <c r="A480" s="3" t="inlineStr"/>
       <c r="B480" s="3" t="inlineStr">
         <is>
-          <t>survey estimate</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr"/>
@@ -19188,7 +19204,7 @@
       <c r="A481" s="3" t="inlineStr"/>
       <c r="B481" s="3" t="inlineStr">
         <is>
-          <t>survey of substance use</t>
+          <t>survey estimate</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr"/>
@@ -19225,7 +19241,7 @@
       <c r="A482" s="3" t="inlineStr"/>
       <c r="B482" s="3" t="inlineStr">
         <is>
-          <t>survival analysis</t>
+          <t>survey of substance use</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr"/>
@@ -19262,7 +19278,7 @@
       <c r="A483" s="3" t="inlineStr"/>
       <c r="B483" s="3" t="inlineStr">
         <is>
-          <t>synergistic effect</t>
+          <t>survival analysis</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr"/>
@@ -19299,7 +19315,7 @@
       <c r="A484" s="3" t="inlineStr"/>
       <c r="B484" s="3" t="inlineStr">
         <is>
-          <t>synoptic review</t>
+          <t>synergistic effect</t>
         </is>
       </c>
       <c r="C484" s="3" t="inlineStr"/>
@@ -19336,7 +19352,7 @@
       <c r="A485" s="3" t="inlineStr"/>
       <c r="B485" s="3" t="inlineStr">
         <is>
-          <t>synthetic control group</t>
+          <t>synoptic review</t>
         </is>
       </c>
       <c r="C485" s="3" t="inlineStr"/>
@@ -19373,7 +19389,7 @@
       <c r="A486" s="3" t="inlineStr"/>
       <c r="B486" s="3" t="inlineStr">
         <is>
-          <t>systematic review</t>
+          <t>synthetic control group</t>
         </is>
       </c>
       <c r="C486" s="3" t="inlineStr"/>
@@ -19410,7 +19426,7 @@
       <c r="A487" s="3" t="inlineStr"/>
       <c r="B487" s="3" t="inlineStr">
         <is>
-          <t>tIDieR guidelines</t>
+          <t>systematic review</t>
         </is>
       </c>
       <c r="C487" s="3" t="inlineStr"/>
@@ -19447,7 +19463,7 @@
       <c r="A488" s="3" t="inlineStr"/>
       <c r="B488" s="3" t="inlineStr">
         <is>
-          <t>taxation data</t>
+          <t>tIDieR guidelines</t>
         </is>
       </c>
       <c r="C488" s="3" t="inlineStr"/>
@@ -19481,108 +19497,108 @@
       <c r="S488" s="3" t="inlineStr"/>
     </row>
     <row r="489">
-      <c r="A489" s="2" t="inlineStr">
+      <c r="A489" s="3" t="inlineStr"/>
+      <c r="B489" s="3" t="inlineStr">
+        <is>
+          <t>taxation data</t>
+        </is>
+      </c>
+      <c r="C489" s="3" t="inlineStr"/>
+      <c r="D489" s="3" t="inlineStr"/>
+      <c r="E489" s="3" t="inlineStr"/>
+      <c r="F489" s="3" t="inlineStr"/>
+      <c r="G489" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H489" s="3" t="inlineStr"/>
+      <c r="I489" s="3" t="inlineStr"/>
+      <c r="J489" s="3" t="inlineStr"/>
+      <c r="K489" s="3" t="inlineStr"/>
+      <c r="L489" s="3" t="inlineStr"/>
+      <c r="M489" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N489" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O489" s="3" t="inlineStr"/>
+      <c r="P489" s="3" t="inlineStr"/>
+      <c r="Q489" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R489" s="3" t="inlineStr"/>
+      <c r="S489" s="3" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000157</t>
         </is>
       </c>
-      <c r="B489" s="2" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>temporal start</t>
         </is>
       </c>
-      <c r="C489" s="2" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>The process boundary when a process or temporal region starts.</t>
         </is>
       </c>
-      <c r="D489" s="2" t="inlineStr">
+      <c r="D490" s="2" t="inlineStr">
         <is>
           <t>AFP:0003328</t>
         </is>
       </c>
-      <c r="E489" s="2" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>process boundary</t>
         </is>
       </c>
-      <c r="F489" s="2" t="inlineStr">
+      <c r="F490" s="2" t="inlineStr">
         <is>
           <t>Process boundary</t>
         </is>
       </c>
-      <c r="G489" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H489" s="2" t="inlineStr">
+      <c r="G490" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
         <is>
           <t>Definition from AFP modified to include temporal region.</t>
         </is>
       </c>
-      <c r="I489" s="2" t="inlineStr"/>
-      <c r="J489" s="2" t="inlineStr"/>
-      <c r="K489" s="2" t="inlineStr"/>
-      <c r="L489" s="2" t="inlineStr"/>
-      <c r="M489" s="2" t="n">
+      <c r="I490" s="2" t="inlineStr"/>
+      <c r="J490" s="2" t="inlineStr"/>
+      <c r="K490" s="2" t="inlineStr"/>
+      <c r="L490" s="2" t="inlineStr"/>
+      <c r="M490" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N489" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O489" s="2" t="inlineStr"/>
-      <c r="P489" s="2" t="inlineStr"/>
-      <c r="Q489" s="2" t="inlineStr">
+      <c r="N490" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O490" s="2" t="inlineStr"/>
+      <c r="P490" s="2" t="inlineStr"/>
+      <c r="Q490" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R489" s="2" t="inlineStr"/>
-      <c r="S489" s="2" t="inlineStr"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="3" t="inlineStr"/>
-      <c r="B490" s="3" t="inlineStr">
-        <is>
-          <t>tested association</t>
-        </is>
-      </c>
-      <c r="C490" s="3" t="inlineStr"/>
-      <c r="D490" s="3" t="inlineStr"/>
-      <c r="E490" s="3" t="inlineStr"/>
-      <c r="F490" s="3" t="inlineStr"/>
-      <c r="G490" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H490" s="3" t="inlineStr"/>
-      <c r="I490" s="3" t="inlineStr"/>
-      <c r="J490" s="3" t="inlineStr"/>
-      <c r="K490" s="3" t="inlineStr"/>
-      <c r="L490" s="3" t="inlineStr"/>
-      <c r="M490" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N490" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O490" s="3" t="inlineStr"/>
-      <c r="P490" s="3" t="inlineStr"/>
-      <c r="Q490" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R490" s="3" t="inlineStr"/>
-      <c r="S490" s="3" t="inlineStr"/>
+      <c r="R490" s="2" t="inlineStr"/>
+      <c r="S490" s="2" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" s="3" t="inlineStr"/>
       <c r="B491" s="3" t="inlineStr">
         <is>
-          <t>thematic analysis</t>
+          <t>tested association</t>
         </is>
       </c>
       <c r="C491" s="3" t="inlineStr"/>
@@ -19619,7 +19635,7 @@
       <c r="A492" s="3" t="inlineStr"/>
       <c r="B492" s="3" t="inlineStr">
         <is>
-          <t>theory of the collectivity of drinking cultures</t>
+          <t>thematic analysis</t>
         </is>
       </c>
       <c r="C492" s="3" t="inlineStr"/>
@@ -19656,7 +19672,7 @@
       <c r="A493" s="3" t="inlineStr"/>
       <c r="B493" s="3" t="inlineStr">
         <is>
-          <t>time series analysis</t>
+          <t>theory of the collectivity of drinking cultures</t>
         </is>
       </c>
       <c r="C493" s="3" t="inlineStr"/>
@@ -19693,7 +19709,7 @@
       <c r="A494" s="3" t="inlineStr"/>
       <c r="B494" s="3" t="inlineStr">
         <is>
-          <t>time series study design</t>
+          <t>time series analysis</t>
         </is>
       </c>
       <c r="C494" s="3" t="inlineStr"/>
@@ -19730,7 +19746,7 @@
       <c r="A495" s="3" t="inlineStr"/>
       <c r="B495" s="3" t="inlineStr">
         <is>
-          <t>time-dependent covariate</t>
+          <t>time series study design</t>
         </is>
       </c>
       <c r="C495" s="3" t="inlineStr"/>
@@ -19767,7 +19783,7 @@
       <c r="A496" s="3" t="inlineStr"/>
       <c r="B496" s="3" t="inlineStr">
         <is>
-          <t>time-dependent urine toxicology</t>
+          <t>time-dependent covariate</t>
         </is>
       </c>
       <c r="C496" s="3" t="inlineStr"/>
@@ -19804,7 +19820,7 @@
       <c r="A497" s="3" t="inlineStr"/>
       <c r="B497" s="3" t="inlineStr">
         <is>
-          <t>time-series analysis</t>
+          <t>time-dependent urine toxicology</t>
         </is>
       </c>
       <c r="C497" s="3" t="inlineStr"/>
@@ -19841,7 +19857,7 @@
       <c r="A498" s="3" t="inlineStr"/>
       <c r="B498" s="3" t="inlineStr">
         <is>
-          <t>tobacco demand indicator</t>
+          <t>time-series analysis</t>
         </is>
       </c>
       <c r="C498" s="3" t="inlineStr"/>
@@ -19875,35 +19891,19 @@
       <c r="S498" s="3" t="inlineStr"/>
     </row>
     <row r="499">
-      <c r="A499" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000180</t>
-        </is>
-      </c>
+      <c r="A499" s="3" t="inlineStr"/>
       <c r="B499" s="3" t="inlineStr">
         <is>
-          <t>tobacco industry funding</t>
-        </is>
-      </c>
-      <c r="C499" s="3" t="inlineStr">
-        <is>
-          <t>Funding that originates from one or more tobacco companies.</t>
-        </is>
-      </c>
+          <t>tobacco demand indicator</t>
+        </is>
+      </c>
+      <c r="C499" s="3" t="inlineStr"/>
       <c r="D499" s="3" t="inlineStr"/>
-      <c r="E499" s="3" t="inlineStr">
-        <is>
-          <t>funding</t>
-        </is>
-      </c>
-      <c r="F499" s="3" t="inlineStr">
-        <is>
-          <t>Generically Dependent Continuant</t>
-        </is>
-      </c>
+      <c r="E499" s="3" t="inlineStr"/>
+      <c r="F499" s="3" t="inlineStr"/>
       <c r="G499" s="3" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>Research activity</t>
         </is>
       </c>
       <c r="H499" s="3" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
       <c r="K499" s="3" t="inlineStr"/>
       <c r="L499" s="3" t="inlineStr"/>
       <c r="M499" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N499" s="3" t="n">
         <v>0</v>
@@ -19928,19 +19928,35 @@
       <c r="S499" s="3" t="inlineStr"/>
     </row>
     <row r="500">
-      <c r="A500" s="3" t="inlineStr"/>
+      <c r="A500" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000180</t>
+        </is>
+      </c>
       <c r="B500" s="3" t="inlineStr">
         <is>
-          <t>tobacco industry funding of research</t>
-        </is>
-      </c>
-      <c r="C500" s="3" t="inlineStr"/>
+          <t>tobacco industry funding</t>
+        </is>
+      </c>
+      <c r="C500" s="3" t="inlineStr">
+        <is>
+          <t>Funding that originates from one or more tobacco companies.</t>
+        </is>
+      </c>
       <c r="D500" s="3" t="inlineStr"/>
-      <c r="E500" s="3" t="inlineStr"/>
-      <c r="F500" s="3" t="inlineStr"/>
+      <c r="E500" s="3" t="inlineStr">
+        <is>
+          <t>funding</t>
+        </is>
+      </c>
+      <c r="F500" s="3" t="inlineStr">
+        <is>
+          <t>Generically Dependent Continuant</t>
+        </is>
+      </c>
       <c r="G500" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
+          <t>Product</t>
         </is>
       </c>
       <c r="H500" s="3" t="inlineStr"/>
@@ -19949,7 +19965,7 @@
       <c r="K500" s="3" t="inlineStr"/>
       <c r="L500" s="3" t="inlineStr"/>
       <c r="M500" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N500" s="3" t="n">
         <v>0</v>
@@ -19968,7 +19984,7 @@
       <c r="A501" s="3" t="inlineStr"/>
       <c r="B501" s="3" t="inlineStr">
         <is>
-          <t>toxicological assessment of inhaled vapour</t>
+          <t>tobacco industry funding of research</t>
         </is>
       </c>
       <c r="C501" s="3" t="inlineStr"/>
@@ -19986,7 +20002,7 @@
       <c r="K501" s="3" t="inlineStr"/>
       <c r="L501" s="3" t="inlineStr"/>
       <c r="M501" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N501" s="3" t="n">
         <v>0</v>
@@ -20005,7 +20021,7 @@
       <c r="A502" s="3" t="inlineStr"/>
       <c r="B502" s="3" t="inlineStr">
         <is>
-          <t>treatment group</t>
+          <t>toxicological assessment of inhaled vapour</t>
         </is>
       </c>
       <c r="C502" s="3" t="inlineStr"/>
@@ -20023,7 +20039,7 @@
       <c r="K502" s="3" t="inlineStr"/>
       <c r="L502" s="3" t="inlineStr"/>
       <c r="M502" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N502" s="3" t="n">
         <v>0</v>
@@ -20042,7 +20058,7 @@
       <c r="A503" s="3" t="inlineStr"/>
       <c r="B503" s="3" t="inlineStr">
         <is>
-          <t>trend analysis</t>
+          <t>treatment group</t>
         </is>
       </c>
       <c r="C503" s="3" t="inlineStr"/>
@@ -20079,7 +20095,7 @@
       <c r="A504" s="3" t="inlineStr"/>
       <c r="B504" s="3" t="inlineStr">
         <is>
-          <t>trial conclusion</t>
+          <t>trend analysis</t>
         </is>
       </c>
       <c r="C504" s="3" t="inlineStr"/>
@@ -20116,7 +20132,7 @@
       <c r="A505" s="3" t="inlineStr"/>
       <c r="B505" s="3" t="inlineStr">
         <is>
-          <t>triangulation research method</t>
+          <t>trial conclusion</t>
         </is>
       </c>
       <c r="C505" s="3" t="inlineStr"/>
@@ -20153,7 +20169,7 @@
       <c r="A506" s="3" t="inlineStr"/>
       <c r="B506" s="3" t="inlineStr">
         <is>
-          <t>tweedie's trim and fill approach</t>
+          <t>triangulation research method</t>
         </is>
       </c>
       <c r="C506" s="3" t="inlineStr"/>
@@ -20162,7 +20178,7 @@
       <c r="F506" s="3" t="inlineStr"/>
       <c r="G506" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Research activity </t>
+          <t>Research activity</t>
         </is>
       </c>
       <c r="H506" s="3" t="inlineStr"/>
@@ -20190,7 +20206,7 @@
       <c r="A507" s="3" t="inlineStr"/>
       <c r="B507" s="3" t="inlineStr">
         <is>
-          <t>twin method</t>
+          <t>tweedie's trim and fill approach</t>
         </is>
       </c>
       <c r="C507" s="3" t="inlineStr"/>
@@ -20199,7 +20215,7 @@
       <c r="F507" s="3" t="inlineStr"/>
       <c r="G507" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
+          <t xml:space="preserve">Research activity </t>
         </is>
       </c>
       <c r="H507" s="3" t="inlineStr"/>
@@ -20227,7 +20243,7 @@
       <c r="A508" s="3" t="inlineStr"/>
       <c r="B508" s="3" t="inlineStr">
         <is>
-          <t>twin research</t>
+          <t>twin method</t>
         </is>
       </c>
       <c r="C508" s="3" t="inlineStr"/>
@@ -20264,7 +20280,7 @@
       <c r="A509" s="3" t="inlineStr"/>
       <c r="B509" s="3" t="inlineStr">
         <is>
-          <t>twin-based heritability analysis</t>
+          <t>twin research</t>
         </is>
       </c>
       <c r="C509" s="3" t="inlineStr"/>
@@ -20301,7 +20317,7 @@
       <c r="A510" s="3" t="inlineStr"/>
       <c r="B510" s="3" t="inlineStr">
         <is>
-          <t>two-arm parallel group randomised controlled trial</t>
+          <t>twin-based heritability analysis</t>
         </is>
       </c>
       <c r="C510" s="3" t="inlineStr"/>
@@ -20338,7 +20354,7 @@
       <c r="A511" s="3" t="inlineStr"/>
       <c r="B511" s="3" t="inlineStr">
         <is>
-          <t>under-reporting</t>
+          <t>two-arm parallel group randomised controlled trial</t>
         </is>
       </c>
       <c r="C511" s="3" t="inlineStr"/>
@@ -20375,7 +20391,7 @@
       <c r="A512" s="3" t="inlineStr"/>
       <c r="B512" s="3" t="inlineStr">
         <is>
-          <t>under-sampling</t>
+          <t>under-reporting</t>
         </is>
       </c>
       <c r="C512" s="3" t="inlineStr"/>
@@ -20412,7 +20428,7 @@
       <c r="A513" s="3" t="inlineStr"/>
       <c r="B513" s="3" t="inlineStr">
         <is>
-          <t>unique variance</t>
+          <t>under-sampling</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr"/>
@@ -20449,7 +20465,7 @@
       <c r="A514" s="3" t="inlineStr"/>
       <c r="B514" s="3" t="inlineStr">
         <is>
-          <t>unplanned analysis</t>
+          <t>unique variance</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr"/>
@@ -20486,7 +20502,7 @@
       <c r="A515" s="3" t="inlineStr"/>
       <c r="B515" s="3" t="inlineStr">
         <is>
-          <t>unvalidated measure</t>
+          <t>unplanned analysis</t>
         </is>
       </c>
       <c r="C515" s="3" t="inlineStr"/>
@@ -20504,7 +20520,7 @@
       <c r="K515" s="3" t="inlineStr"/>
       <c r="L515" s="3" t="inlineStr"/>
       <c r="M515" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N515" s="3" t="n">
         <v>0</v>
@@ -20523,7 +20539,7 @@
       <c r="A516" s="3" t="inlineStr"/>
       <c r="B516" s="3" t="inlineStr">
         <is>
-          <t>urine drug screen</t>
+          <t>unvalidated measure</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr"/>
@@ -20537,15 +20553,11 @@
       </c>
       <c r="H516" s="3" t="inlineStr"/>
       <c r="I516" s="3" t="inlineStr"/>
-      <c r="J516" s="3" t="inlineStr">
-        <is>
-          <t>Urine drug test</t>
-        </is>
-      </c>
+      <c r="J516" s="3" t="inlineStr"/>
       <c r="K516" s="3" t="inlineStr"/>
       <c r="L516" s="3" t="inlineStr"/>
       <c r="M516" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N516" s="3" t="n">
         <v>0</v>
@@ -20564,7 +20576,7 @@
       <c r="A517" s="3" t="inlineStr"/>
       <c r="B517" s="3" t="inlineStr">
         <is>
-          <t>urine sample</t>
+          <t>urine drug screen</t>
         </is>
       </c>
       <c r="C517" s="3" t="inlineStr"/>
@@ -20578,7 +20590,11 @@
       </c>
       <c r="H517" s="3" t="inlineStr"/>
       <c r="I517" s="3" t="inlineStr"/>
-      <c r="J517" s="3" t="inlineStr"/>
+      <c r="J517" s="3" t="inlineStr">
+        <is>
+          <t>Urine drug test</t>
+        </is>
+      </c>
       <c r="K517" s="3" t="inlineStr"/>
       <c r="L517" s="3" t="inlineStr"/>
       <c r="M517" s="3" t="n">
@@ -20601,7 +20617,7 @@
       <c r="A518" s="3" t="inlineStr"/>
       <c r="B518" s="3" t="inlineStr">
         <is>
-          <t>urine testing for psychoactive substances</t>
+          <t>urine sample</t>
         </is>
       </c>
       <c r="C518" s="3" t="inlineStr"/>
@@ -20638,7 +20654,7 @@
       <c r="A519" s="3" t="inlineStr"/>
       <c r="B519" s="3" t="inlineStr">
         <is>
-          <t>urine toxicology for opioids</t>
+          <t>urine testing for psychoactive substances</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr"/>
@@ -20675,7 +20691,7 @@
       <c r="A520" s="3" t="inlineStr"/>
       <c r="B520" s="3" t="inlineStr">
         <is>
-          <t>urine toxicology screen</t>
+          <t>urine toxicology for opioids</t>
         </is>
       </c>
       <c r="C520" s="3" t="inlineStr"/>
@@ -20709,27 +20725,15 @@
       <c r="S520" s="3" t="inlineStr"/>
     </row>
     <row r="521">
-      <c r="A521" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000172</t>
-        </is>
-      </c>
+      <c r="A521" s="3" t="inlineStr"/>
       <c r="B521" s="3" t="inlineStr">
         <is>
-          <t>validated measure</t>
-        </is>
-      </c>
-      <c r="C521" s="3" t="inlineStr">
-        <is>
-          <t>A research measure that has been subjected to evaluation for one or more forms of validity and which it is claimed has reached or exceeded an appropriate threshold on that criterion.</t>
-        </is>
-      </c>
+          <t>urine toxicology screen</t>
+        </is>
+      </c>
+      <c r="C521" s="3" t="inlineStr"/>
       <c r="D521" s="3" t="inlineStr"/>
-      <c r="E521" s="3" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
+      <c r="E521" s="3" t="inlineStr"/>
       <c r="F521" s="3" t="inlineStr"/>
       <c r="G521" s="3" t="inlineStr">
         <is>
@@ -20758,15 +20762,27 @@
       <c r="S521" s="3" t="inlineStr"/>
     </row>
     <row r="522">
-      <c r="A522" s="3" t="inlineStr"/>
+      <c r="A522" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000172</t>
+        </is>
+      </c>
       <c r="B522" s="3" t="inlineStr">
         <is>
-          <t>validity of a measure</t>
-        </is>
-      </c>
-      <c r="C522" s="3" t="inlineStr"/>
+          <t>validated measure</t>
+        </is>
+      </c>
+      <c r="C522" s="3" t="inlineStr">
+        <is>
+          <t>A research measure that has been subjected to evaluation for one or more forms of validity and which it is claimed has reached or exceeded an appropriate threshold on that criterion.</t>
+        </is>
+      </c>
       <c r="D522" s="3" t="inlineStr"/>
-      <c r="E522" s="3" t="inlineStr"/>
+      <c r="E522" s="3" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
       <c r="F522" s="3" t="inlineStr"/>
       <c r="G522" s="3" t="inlineStr">
         <is>
@@ -20798,7 +20814,7 @@
       <c r="A523" s="3" t="inlineStr"/>
       <c r="B523" s="3" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>validity of a measure</t>
         </is>
       </c>
       <c r="C523" s="3" t="inlineStr"/>
@@ -20835,7 +20851,7 @@
       <c r="A524" s="3" t="inlineStr"/>
       <c r="B524" s="3" t="inlineStr">
         <is>
-          <t>video recording</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="C524" s="3" t="inlineStr"/>
@@ -20872,7 +20888,7 @@
       <c r="A525" s="3" t="inlineStr"/>
       <c r="B525" s="3" t="inlineStr">
         <is>
-          <t>visual analogue scale</t>
+          <t>video recording</t>
         </is>
       </c>
       <c r="C525" s="3" t="inlineStr"/>
@@ -20909,7 +20925,7 @@
       <c r="A526" s="3" t="inlineStr"/>
       <c r="B526" s="3" t="inlineStr">
         <is>
-          <t>visual probe task</t>
+          <t>visual analogue scale</t>
         </is>
       </c>
       <c r="C526" s="3" t="inlineStr"/>
@@ -20946,7 +20962,7 @@
       <c r="A527" s="3" t="inlineStr"/>
       <c r="B527" s="3" t="inlineStr">
         <is>
-          <t>weekly urine drug test result</t>
+          <t>visual probe task</t>
         </is>
       </c>
       <c r="C527" s="3" t="inlineStr"/>
@@ -20983,7 +20999,7 @@
       <c r="A528" s="3" t="inlineStr"/>
       <c r="B528" s="3" t="inlineStr">
         <is>
-          <t>weighted estimate</t>
+          <t>weekly urine drug test result</t>
         </is>
       </c>
       <c r="C528" s="3" t="inlineStr"/>
@@ -21020,7 +21036,7 @@
       <c r="A529" s="3" t="inlineStr"/>
       <c r="B529" s="3" t="inlineStr">
         <is>
-          <t>within-country estimate</t>
+          <t>weighted estimate</t>
         </is>
       </c>
       <c r="C529" s="3" t="inlineStr"/>
@@ -21054,32 +21070,16 @@
       <c r="S529" s="3" t="inlineStr"/>
     </row>
     <row r="530">
-      <c r="A530" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000173</t>
-        </is>
-      </c>
+      <c r="A530" s="3" t="inlineStr"/>
       <c r="B530" s="3" t="inlineStr">
         <is>
-          <t>work absence register</t>
-        </is>
-      </c>
-      <c r="C530" s="3" t="inlineStr">
-        <is>
-          <t>A database documenting absence from work</t>
-        </is>
-      </c>
+          <t>within-country estimate</t>
+        </is>
+      </c>
+      <c r="C530" s="3" t="inlineStr"/>
       <c r="D530" s="3" t="inlineStr"/>
-      <c r="E530" s="3" t="inlineStr">
-        <is>
-          <t>data source</t>
-        </is>
-      </c>
-      <c r="F530" s="3" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+      <c r="E530" s="3" t="inlineStr"/>
+      <c r="F530" s="3" t="inlineStr"/>
       <c r="G530" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -21087,11 +21087,7 @@
       </c>
       <c r="H530" s="3" t="inlineStr"/>
       <c r="I530" s="3" t="inlineStr"/>
-      <c r="J530" s="3" t="inlineStr">
-        <is>
-          <t>Absence register</t>
-        </is>
-      </c>
+      <c r="J530" s="3" t="inlineStr"/>
       <c r="K530" s="3" t="inlineStr"/>
       <c r="L530" s="3" t="inlineStr"/>
       <c r="M530" s="3" t="n">
@@ -21113,26 +21109,30 @@
     <row r="531">
       <c r="A531" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000174</t>
+          <t>ADDICTO:0000173</t>
         </is>
       </c>
       <c r="B531" s="3" t="inlineStr">
         <is>
-          <t>year of publication</t>
+          <t>work absence register</t>
         </is>
       </c>
       <c r="C531" s="3" t="inlineStr">
         <is>
-          <t>A publication attribute that is the year in which it was published</t>
+          <t>A database documenting absence from work</t>
         </is>
       </c>
       <c r="D531" s="3" t="inlineStr"/>
       <c r="E531" s="3" t="inlineStr">
         <is>
-          <t>publication attribute</t>
-        </is>
-      </c>
-      <c r="F531" s="3" t="inlineStr"/>
+          <t>data source</t>
+        </is>
+      </c>
+      <c r="F531" s="3" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="G531" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -21140,7 +21140,11 @@
       </c>
       <c r="H531" s="3" t="inlineStr"/>
       <c r="I531" s="3" t="inlineStr"/>
-      <c r="J531" s="3" t="inlineStr"/>
+      <c r="J531" s="3" t="inlineStr">
+        <is>
+          <t>Absence register</t>
+        </is>
+      </c>
       <c r="K531" s="3" t="inlineStr"/>
       <c r="L531" s="3" t="inlineStr"/>
       <c r="M531" s="3" t="n">
@@ -21158,6 +21162,55 @@
       </c>
       <c r="R531" s="3" t="inlineStr"/>
       <c r="S531" s="3" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000174</t>
+        </is>
+      </c>
+      <c r="B532" s="3" t="inlineStr">
+        <is>
+          <t>year of publication</t>
+        </is>
+      </c>
+      <c r="C532" s="3" t="inlineStr">
+        <is>
+          <t>A publication attribute that is the year in which it was published</t>
+        </is>
+      </c>
+      <c r="D532" s="3" t="inlineStr"/>
+      <c r="E532" s="3" t="inlineStr">
+        <is>
+          <t>publication attribute</t>
+        </is>
+      </c>
+      <c r="F532" s="3" t="inlineStr"/>
+      <c r="G532" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H532" s="3" t="inlineStr"/>
+      <c r="I532" s="3" t="inlineStr"/>
+      <c r="J532" s="3" t="inlineStr"/>
+      <c r="K532" s="3" t="inlineStr"/>
+      <c r="L532" s="3" t="inlineStr"/>
+      <c r="M532" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N532" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O532" s="3" t="inlineStr"/>
+      <c r="P532" s="3" t="inlineStr"/>
+      <c r="Q532" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R532" s="3" t="inlineStr"/>
+      <c r="S532" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -12946,10 +12946,18 @@
       </c>
       <c r="I318" s="3" t="inlineStr"/>
       <c r="J318" s="3" t="inlineStr"/>
-      <c r="K318" s="3" t="inlineStr"/>
+      <c r="K318" s="3" t="inlineStr">
+        <is>
+          <t>PIlot trials need not be controlled trials. They include single arm trials.</t>
+        </is>
+      </c>
       <c r="L318" s="3" t="inlineStr"/>
-      <c r="M318" s="3" t="inlineStr"/>
-      <c r="N318" s="3" t="inlineStr"/>
+      <c r="M318" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N318" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O318" s="3" t="inlineStr"/>
       <c r="P318" s="3" t="inlineStr">
         <is>
@@ -15488,7 +15496,9 @@
       <c r="M383" t="b">
         <v>0</v>
       </c>
-      <c r="N383" t="inlineStr"/>
+      <c r="N383" t="n">
+        <v>0</v>
+      </c>
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="inlineStr">
         <is>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -8239,96 +8239,124 @@
       <c r="A198" s="3" t="inlineStr"/>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>feasibility</t>
-        </is>
-      </c>
-      <c r="C198" s="3" t="inlineStr"/>
-      <c r="D198" s="3" t="inlineStr"/>
-      <c r="E198" s="3" t="inlineStr"/>
-      <c r="F198" s="3" t="inlineStr"/>
+          <t>feasibility study</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
+        <is>
+          <t>A research study that aims to determine the feasibility and value of carrying out a full-scale study and how that study should be conducted.</t>
+        </is>
+      </c>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>https://pilotandfeasibilitystudies.qmul.ac.uk/introduction/#:~:text=A feasibility study asks whether,conducted on a smaller scale</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="F198" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G198" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H198" s="3" t="inlineStr"/>
+      <c r="H198" s="3" t="inlineStr">
+        <is>
+          <t>There are other definitions available but they do not capture what is needed, including the feasibility and value of a study and finding out how best to carry out the study. This one follows the guidance of Eldridge and colleague (see Source).</t>
+        </is>
+      </c>
       <c r="I198" s="3" t="inlineStr"/>
       <c r="J198" s="3" t="inlineStr"/>
-      <c r="K198" s="3" t="inlineStr"/>
+      <c r="K198" s="3" t="inlineStr">
+        <is>
+          <t>Feasibility studies can include assessment of study methods as well as whatever is being studied. This definition does not include full-scale studies that assess the feasibility of an intervention.</t>
+        </is>
+      </c>
       <c r="L198" s="3" t="inlineStr"/>
-      <c r="M198" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" s="3" t="n">
+      <c r="M198" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N198" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O198" s="3" t="inlineStr"/>
-      <c r="P198" s="3" t="inlineStr"/>
+      <c r="P198" s="3" t="inlineStr">
+        <is>
+          <t>RW; KS</t>
+        </is>
+      </c>
       <c r="Q198" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R198" s="3" t="inlineStr"/>
+      <c r="R198" s="3" t="inlineStr">
+        <is>
+          <t>JH;CN;SC</t>
+        </is>
+      </c>
       <c r="S198" s="3" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="inlineStr"/>
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000177</t>
+        </is>
+      </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>feasibility study</t>
+          <t>financial potential competing interest</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>A research study that aims to determine the feasibility and value of carrying out a full-scale study and how that study should be conducted.</t>
-        </is>
-      </c>
-      <c r="D199" s="3" t="inlineStr">
-        <is>
-          <t>https://pilotandfeasibilitystudies.qmul.ac.uk/introduction/#:~:text=A feasibility study asks whether,conducted on a smaller scale</t>
-        </is>
-      </c>
+          <t>A potential competing interest that involves the possibility of personal financial gain or loss resulting from enactment of the professional role.</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="inlineStr"/>
       <c r="E199" s="3" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>potential competing interest</t>
         </is>
       </c>
       <c r="F199" s="3" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Role</t>
         </is>
       </c>
       <c r="G199" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
+          <t xml:space="preserve">Research activity </t>
         </is>
       </c>
       <c r="H199" s="3" t="inlineStr">
         <is>
-          <t>There are other definitions available but they do not capture what is needed, including the feasibility and value of a study and finding out how best to carry out the study. This one follows the guidance of Eldridge and colleague (see Source).</t>
+          <t>The definition was adapted from the PLOS definition.</t>
         </is>
       </c>
       <c r="I199" s="3" t="inlineStr"/>
       <c r="J199" s="3" t="inlineStr"/>
       <c r="K199" s="3" t="inlineStr">
         <is>
-          <t>Feasibility studies can include assessment of study methods as well as whatever is being studied. This definition does not include full-scale studies that assess the feasibility of an intervention.</t>
+          <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organisation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the enactment of the professional role. It also includes all of the above that relate to an intimate partner. Organisation includes commercial organisation, government agency, and charity.</t>
         </is>
       </c>
       <c r="L199" s="3" t="inlineStr"/>
-      <c r="M199" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N199" s="3" t="b">
+      <c r="M199" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O199" s="3" t="inlineStr"/>
-      <c r="P199" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P199" s="3" t="inlineStr"/>
       <c r="Q199" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -8338,52 +8366,28 @@
       <c r="S199" s="3" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000177</t>
-        </is>
-      </c>
+      <c r="A200" s="3" t="inlineStr"/>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>financial potential competing interest</t>
-        </is>
-      </c>
-      <c r="C200" s="3" t="inlineStr">
-        <is>
-          <t>A potential competing interest that involves the possibility of personal financial gain or loss resulting from enactment of the professional role.</t>
-        </is>
-      </c>
+          <t>focus group</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr"/>
       <c r="D200" s="3" t="inlineStr"/>
-      <c r="E200" s="3" t="inlineStr">
-        <is>
-          <t>potential competing interest</t>
-        </is>
-      </c>
-      <c r="F200" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="E200" s="3" t="inlineStr"/>
+      <c r="F200" s="3" t="inlineStr"/>
       <c r="G200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Research activity </t>
-        </is>
-      </c>
-      <c r="H200" s="3" t="inlineStr">
-        <is>
-          <t>The definition was adapted from the PLOS definition.</t>
-        </is>
-      </c>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H200" s="3" t="inlineStr"/>
       <c r="I200" s="3" t="inlineStr"/>
       <c r="J200" s="3" t="inlineStr"/>
-      <c r="K200" s="3" t="inlineStr">
-        <is>
-          <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organisation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the enactment of the professional role. It also includes all of the above that relate to an intimate partner. Organisation includes commercial organisation, government agency, and charity.</t>
-        </is>
-      </c>
+      <c r="K200" s="3" t="inlineStr"/>
       <c r="L200" s="3" t="inlineStr"/>
       <c r="M200" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N200" s="3" t="n">
         <v>0</v>
@@ -8399,206 +8403,206 @@
       <c r="S200" s="3" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="inlineStr"/>
-      <c r="B201" s="3" t="inlineStr">
-        <is>
-          <t>focus group</t>
-        </is>
-      </c>
-      <c r="C201" s="3" t="inlineStr"/>
-      <c r="D201" s="3" t="inlineStr"/>
-      <c r="E201" s="3" t="inlineStr"/>
-      <c r="F201" s="3" t="inlineStr"/>
-      <c r="G201" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H201" s="3" t="inlineStr"/>
-      <c r="I201" s="3" t="inlineStr"/>
-      <c r="J201" s="3" t="inlineStr"/>
-      <c r="K201" s="3" t="inlineStr"/>
-      <c r="L201" s="3" t="inlineStr"/>
-      <c r="M201" s="3" t="n">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000149</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>follow up</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>A research activity that involves taking a measurement after the end of an intervention or research activity.</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr"/>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>research activity</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>This attempts to capture the most common usage and so distinguishes between end-of-treatment assessment and follow up.</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="inlineStr"/>
+      <c r="J201" s="2" t="inlineStr"/>
+      <c r="K201" s="2" t="inlineStr">
+        <is>
+          <t>Used in cohort studies and intervention evaluations to capture meausres taken after the end of the intervention or a baseline measure.</t>
+        </is>
+      </c>
+      <c r="L201" s="2" t="inlineStr"/>
+      <c r="M201" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N201" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O201" s="3" t="inlineStr"/>
-      <c r="P201" s="3" t="inlineStr"/>
-      <c r="Q201" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R201" s="3" t="inlineStr"/>
-      <c r="S201" s="3" t="inlineStr"/>
+      <c r="N201" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="2" t="inlineStr"/>
+      <c r="P201" s="2" t="inlineStr"/>
+      <c r="Q201" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R201" s="2" t="inlineStr"/>
+      <c r="S201" s="2" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000149</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>follow up</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>A research activity that involves taking a measurement after the end of an intervention or research activity.</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="inlineStr"/>
-      <c r="E202" s="2" t="inlineStr">
-        <is>
-          <t>research activity</t>
-        </is>
-      </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
-        <is>
-          <t>This attempts to capture the most common usage and so distinguishes between end-of-treatment assessment and follow up.</t>
-        </is>
-      </c>
-      <c r="I202" s="2" t="inlineStr"/>
-      <c r="J202" s="2" t="inlineStr"/>
-      <c r="K202" s="2" t="inlineStr">
-        <is>
-          <t>Used in cohort studies and intervention evaluations to capture meausres taken after the end of the intervention or a baseline measure.</t>
-        </is>
-      </c>
-      <c r="L202" s="2" t="inlineStr"/>
-      <c r="M202" s="2" t="n">
+      <c r="A202" s="3" t="inlineStr"/>
+      <c r="B202" s="3" t="inlineStr">
+        <is>
+          <t>follow-up completion rates</t>
+        </is>
+      </c>
+      <c r="C202" s="3" t="inlineStr"/>
+      <c r="D202" s="3" t="inlineStr"/>
+      <c r="E202" s="3" t="inlineStr"/>
+      <c r="F202" s="3" t="inlineStr"/>
+      <c r="G202" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H202" s="3" t="inlineStr"/>
+      <c r="I202" s="3" t="inlineStr"/>
+      <c r="J202" s="3" t="inlineStr"/>
+      <c r="K202" s="3" t="inlineStr"/>
+      <c r="L202" s="3" t="inlineStr"/>
+      <c r="M202" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N202" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O202" s="2" t="inlineStr"/>
-      <c r="P202" s="2" t="inlineStr"/>
-      <c r="Q202" s="2" t="inlineStr">
+      <c r="N202" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="3" t="inlineStr"/>
+      <c r="P202" s="3" t="inlineStr"/>
+      <c r="Q202" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R202" s="3" t="inlineStr"/>
+      <c r="S202" s="3" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000167</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>follow-up period</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>A period of time between a research activity and follow up.</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr"/>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>temporal region</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>Temporal region</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H203" s="2" t="inlineStr"/>
+      <c r="I203" s="2" t="inlineStr"/>
+      <c r="J203" s="2" t="inlineStr"/>
+      <c r="K203" s="2" t="inlineStr">
+        <is>
+          <t>The temporal period is often counted from the start of an intervention even though the definition of follow up states that it takes place after the end of an intervention.</t>
+        </is>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>The follow up period was for 12 months from the offer of a prescription for varenicline.</t>
+        </is>
+      </c>
+      <c r="M203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" s="2" t="inlineStr"/>
+      <c r="P203" s="2" t="inlineStr"/>
+      <c r="Q203" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R202" s="2" t="inlineStr"/>
-      <c r="S202" s="2" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="3" t="inlineStr"/>
-      <c r="B203" s="3" t="inlineStr">
-        <is>
-          <t>follow-up completion rates</t>
-        </is>
-      </c>
-      <c r="C203" s="3" t="inlineStr"/>
-      <c r="D203" s="3" t="inlineStr"/>
-      <c r="E203" s="3" t="inlineStr"/>
-      <c r="F203" s="3" t="inlineStr"/>
-      <c r="G203" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H203" s="3" t="inlineStr"/>
-      <c r="I203" s="3" t="inlineStr"/>
-      <c r="J203" s="3" t="inlineStr"/>
-      <c r="K203" s="3" t="inlineStr"/>
-      <c r="L203" s="3" t="inlineStr"/>
-      <c r="M203" s="3" t="n">
+      <c r="R203" s="2" t="inlineStr"/>
+      <c r="S203" s="2" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="inlineStr"/>
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>follow-up point</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr"/>
+      <c r="D204" s="3" t="inlineStr"/>
+      <c r="E204" s="3" t="inlineStr"/>
+      <c r="F204" s="3" t="inlineStr"/>
+      <c r="G204" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H204" s="3" t="inlineStr"/>
+      <c r="I204" s="3" t="inlineStr"/>
+      <c r="J204" s="3" t="inlineStr"/>
+      <c r="K204" s="3" t="inlineStr"/>
+      <c r="L204" s="3" t="inlineStr"/>
+      <c r="M204" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N203" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O203" s="3" t="inlineStr"/>
-      <c r="P203" s="3" t="inlineStr"/>
-      <c r="Q203" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R203" s="3" t="inlineStr"/>
-      <c r="S203" s="3" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000167</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>follow-up period</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>A period of time between a research activity and follow up.</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr"/>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>temporal region</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>Temporal region</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H204" s="2" t="inlineStr"/>
-      <c r="I204" s="2" t="inlineStr"/>
-      <c r="J204" s="2" t="inlineStr"/>
-      <c r="K204" s="2" t="inlineStr">
-        <is>
-          <t>The temporal period is often counted from the start of an intervention even though the definition of follow up states that it takes place after the end of an intervention.</t>
-        </is>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>The follow up period was for 12 months from the offer of a prescription for varenicline.</t>
-        </is>
-      </c>
-      <c r="M204" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N204" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O204" s="2" t="inlineStr"/>
-      <c r="P204" s="2" t="inlineStr"/>
-      <c r="Q204" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R204" s="2" t="inlineStr"/>
-      <c r="S204" s="2" t="inlineStr"/>
+      <c r="N204" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="3" t="inlineStr"/>
+      <c r="P204" s="3" t="inlineStr"/>
+      <c r="Q204" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R204" s="3" t="inlineStr"/>
+      <c r="S204" s="3" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="3" t="inlineStr"/>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>follow-up point</t>
+          <t>follow-up visit</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr"/>
@@ -8632,10 +8636,14 @@
       <c r="S205" s="3" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="inlineStr"/>
+      <c r="A206" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000131</t>
+        </is>
+      </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>follow-up visit</t>
+          <t>gateway effect</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr"/>
@@ -8669,14 +8677,10 @@
       <c r="S206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000131</t>
-        </is>
-      </c>
+      <c r="A207" s="3" t="inlineStr"/>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>gateway effect</t>
+          <t>generalized linear mixed model</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr"/>
@@ -8694,7 +8698,7 @@
       <c r="K207" s="3" t="inlineStr"/>
       <c r="L207" s="3" t="inlineStr"/>
       <c r="M207" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N207" s="3" t="n">
         <v>0</v>
@@ -8713,7 +8717,7 @@
       <c r="A208" s="3" t="inlineStr"/>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>generalized linear mixed model</t>
+          <t>genome-wide association meta-analysis</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr"/>
@@ -8750,7 +8754,7 @@
       <c r="A209" s="3" t="inlineStr"/>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>genome-wide association meta-analysis</t>
+          <t>genome-wide association study</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr"/>
@@ -8784,15 +8788,27 @@
       <c r="S209" s="3" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="inlineStr"/>
+      <c r="A210" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000168</t>
+        </is>
+      </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>genome-wide association study</t>
-        </is>
-      </c>
-      <c r="C210" s="3" t="inlineStr"/>
+          <t>grey literature</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
+          <t>The aggregate of research articles, including study reports, that have not been published in peer-reviewed journals.</t>
+        </is>
+      </c>
       <c r="D210" s="3" t="inlineStr"/>
-      <c r="E210" s="3" t="inlineStr"/>
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>research literature</t>
+        </is>
+      </c>
       <c r="F210" s="3" t="inlineStr"/>
       <c r="G210" s="3" t="inlineStr">
         <is>
@@ -8821,27 +8837,15 @@
       <c r="S210" s="3" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000168</t>
-        </is>
-      </c>
+      <c r="A211" s="3" t="inlineStr"/>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>grey literature</t>
-        </is>
-      </c>
-      <c r="C211" s="3" t="inlineStr">
-        <is>
-          <t>The aggregate of research articles, including study reports, that have not been published in peer-reviewed journals.</t>
-        </is>
-      </c>
+          <t>hazard ratio</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr"/>
       <c r="D211" s="3" t="inlineStr"/>
-      <c r="E211" s="3" t="inlineStr">
-        <is>
-          <t>research literature</t>
-        </is>
-      </c>
+      <c r="E211" s="3" t="inlineStr"/>
       <c r="F211" s="3" t="inlineStr"/>
       <c r="G211" s="3" t="inlineStr">
         <is>
@@ -8873,7 +8877,7 @@
       <c r="A212" s="3" t="inlineStr"/>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>hazard ratio</t>
+          <t>hepatitis C transmission modelling</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr"/>
@@ -8887,7 +8891,11 @@
       </c>
       <c r="H212" s="3" t="inlineStr"/>
       <c r="I212" s="3" t="inlineStr"/>
-      <c r="J212" s="3" t="inlineStr"/>
+      <c r="J212" s="3" t="inlineStr">
+        <is>
+          <t>HCV transmission modelling</t>
+        </is>
+      </c>
       <c r="K212" s="3" t="inlineStr"/>
       <c r="L212" s="3" t="inlineStr"/>
       <c r="M212" s="3" t="n">
@@ -8910,7 +8918,7 @@
       <c r="A213" s="3" t="inlineStr"/>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>hepatitis C transmission modelling</t>
+          <t>imaging data</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr"/>
@@ -8924,11 +8932,7 @@
       </c>
       <c r="H213" s="3" t="inlineStr"/>
       <c r="I213" s="3" t="inlineStr"/>
-      <c r="J213" s="3" t="inlineStr">
-        <is>
-          <t>HCV transmission modelling</t>
-        </is>
-      </c>
+      <c r="J213" s="3" t="inlineStr"/>
       <c r="K213" s="3" t="inlineStr"/>
       <c r="L213" s="3" t="inlineStr"/>
       <c r="M213" s="3" t="n">
@@ -8951,7 +8955,7 @@
       <c r="A214" s="3" t="inlineStr"/>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>imaging data</t>
+          <t>imaging device</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr"/>
@@ -8988,7 +8992,7 @@
       <c r="A215" s="3" t="inlineStr"/>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>imaging device</t>
+          <t>in-depth interview</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr"/>
@@ -9025,7 +9029,7 @@
       <c r="A216" s="3" t="inlineStr"/>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>in-depth interview</t>
+          <t>incidence</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr"/>
@@ -9062,7 +9066,7 @@
       <c r="A217" s="3" t="inlineStr"/>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>incidence</t>
+          <t>independent association</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr"/>
@@ -9099,7 +9103,7 @@
       <c r="A218" s="3" t="inlineStr"/>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>independent association</t>
+          <t>indirect association</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr"/>
@@ -9136,7 +9140,7 @@
       <c r="A219" s="3" t="inlineStr"/>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>indirect association</t>
+          <t>individual-level</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr"/>
@@ -9173,7 +9177,7 @@
       <c r="A220" s="3" t="inlineStr"/>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>individual-level</t>
+          <t>individual-level gateway</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr"/>
@@ -9191,7 +9195,7 @@
       <c r="K220" s="3" t="inlineStr"/>
       <c r="L220" s="3" t="inlineStr"/>
       <c r="M220" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N220" s="3" t="n">
         <v>0</v>
@@ -9210,7 +9214,7 @@
       <c r="A221" s="3" t="inlineStr"/>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>individual-level gateway</t>
+          <t>individual-level gateway effect</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr"/>
@@ -9247,7 +9251,7 @@
       <c r="A222" s="3" t="inlineStr"/>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>individual-level gateway effect</t>
+          <t>individually randomised controlled trial</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr"/>
@@ -9284,7 +9288,7 @@
       <c r="A223" s="3" t="inlineStr"/>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>individually randomised controlled trial</t>
+          <t>inferential statistics</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr"/>
@@ -9302,7 +9306,7 @@
       <c r="K223" s="3" t="inlineStr"/>
       <c r="L223" s="3" t="inlineStr"/>
       <c r="M223" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N223" s="3" t="n">
         <v>0</v>
@@ -9321,7 +9325,7 @@
       <c r="A224" s="3" t="inlineStr"/>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>inferential statistics</t>
+          <t>informed consent</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr"/>
@@ -9358,7 +9362,7 @@
       <c r="A225" s="3" t="inlineStr"/>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>informed consent</t>
+          <t>initial finding</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr"/>
@@ -9395,7 +9399,7 @@
       <c r="A226" s="3" t="inlineStr"/>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>initial finding</t>
+          <t>instrumental variable analysis</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr"/>
@@ -9413,7 +9417,7 @@
       <c r="K226" s="3" t="inlineStr"/>
       <c r="L226" s="3" t="inlineStr"/>
       <c r="M226" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N226" s="3" t="n">
         <v>0</v>
@@ -9432,7 +9436,7 @@
       <c r="A227" s="3" t="inlineStr"/>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>instrumental variable analysis</t>
+          <t>insufficient statistical power</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr"/>
@@ -9469,7 +9473,7 @@
       <c r="A228" s="3" t="inlineStr"/>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>insufficient statistical power</t>
+          <t>intention-to-treat analysis</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr"/>
@@ -9506,7 +9510,7 @@
       <c r="A229" s="3" t="inlineStr"/>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>intention-to-treat analysis</t>
+          <t>inter-rater reliability of a measure</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr"/>
@@ -9524,7 +9528,7 @@
       <c r="K229" s="3" t="inlineStr"/>
       <c r="L229" s="3" t="inlineStr"/>
       <c r="M229" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N229" s="3" t="n">
         <v>0</v>
@@ -9543,7 +9547,7 @@
       <c r="A230" s="3" t="inlineStr"/>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>inter-rater reliability of a measure</t>
+          <t>internal reliability of a measure</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr"/>
@@ -9580,7 +9584,7 @@
       <c r="A231" s="3" t="inlineStr"/>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>internal reliability of a measure</t>
+          <t>international Alcohol Policy and Injury Index</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr"/>
@@ -9617,7 +9621,7 @@
       <c r="A232" s="3" t="inlineStr"/>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>international Alcohol Policy and Injury Index</t>
+          <t>international Classification of Diseases</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr"/>
@@ -9631,7 +9635,11 @@
       </c>
       <c r="H232" s="3" t="inlineStr"/>
       <c r="I232" s="3" t="inlineStr"/>
-      <c r="J232" s="3" t="inlineStr"/>
+      <c r="J232" s="3" t="inlineStr">
+        <is>
+          <t>ICD</t>
+        </is>
+      </c>
       <c r="K232" s="3" t="inlineStr"/>
       <c r="L232" s="3" t="inlineStr"/>
       <c r="M232" s="3" t="n">
@@ -9654,7 +9662,7 @@
       <c r="A233" s="3" t="inlineStr"/>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>international Classification of Diseases</t>
+          <t>international Classification of Diseases Version 10</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr"/>
@@ -9670,7 +9678,7 @@
       <c r="I233" s="3" t="inlineStr"/>
       <c r="J233" s="3" t="inlineStr">
         <is>
-          <t>ICD</t>
+          <t>ICD-10</t>
         </is>
       </c>
       <c r="K233" s="3" t="inlineStr"/>
@@ -9695,7 +9703,7 @@
       <c r="A234" s="3" t="inlineStr"/>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t>international Classification of Diseases Version 10</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr"/>
@@ -9709,11 +9717,7 @@
       </c>
       <c r="H234" s="3" t="inlineStr"/>
       <c r="I234" s="3" t="inlineStr"/>
-      <c r="J234" s="3" t="inlineStr">
-        <is>
-          <t>ICD-10</t>
-        </is>
-      </c>
+      <c r="J234" s="3" t="inlineStr"/>
       <c r="K234" s="3" t="inlineStr"/>
       <c r="L234" s="3" t="inlineStr"/>
       <c r="M234" s="3" t="n">
@@ -9736,7 +9740,7 @@
       <c r="A235" s="3" t="inlineStr"/>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr"/>
@@ -9773,7 +9777,7 @@
       <c r="A236" s="3" t="inlineStr"/>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>lab-based study</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr"/>
@@ -9791,7 +9795,7 @@
       <c r="K236" s="3" t="inlineStr"/>
       <c r="L236" s="3" t="inlineStr"/>
       <c r="M236" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N236" s="3" t="n">
         <v>0</v>
@@ -9810,7 +9814,7 @@
       <c r="A237" s="3" t="inlineStr"/>
       <c r="B237" s="3" t="inlineStr">
         <is>
-          <t>lab-based study</t>
+          <t>level of certainty of conclusion</t>
         </is>
       </c>
       <c r="C237" s="3" t="inlineStr"/>
@@ -9847,7 +9851,7 @@
       <c r="A238" s="3" t="inlineStr"/>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t>level of certainty of conclusion</t>
+          <t>level of uncertainty of conclusion</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr"/>
@@ -9884,7 +9888,7 @@
       <c r="A239" s="3" t="inlineStr"/>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t>level of uncertainty of conclusion</t>
+          <t>linear association</t>
         </is>
       </c>
       <c r="C239" s="3" t="inlineStr"/>
@@ -9902,7 +9906,7 @@
       <c r="K239" s="3" t="inlineStr"/>
       <c r="L239" s="3" t="inlineStr"/>
       <c r="M239" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N239" s="3" t="n">
         <v>0</v>
@@ -9921,7 +9925,7 @@
       <c r="A240" s="3" t="inlineStr"/>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>linear association</t>
+          <t>linear regression model</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr"/>
@@ -9958,7 +9962,7 @@
       <c r="A241" s="3" t="inlineStr"/>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t>linear regression model</t>
+          <t>linear time-series regression</t>
         </is>
       </c>
       <c r="C241" s="3" t="inlineStr"/>
@@ -9995,7 +9999,7 @@
       <c r="A242" s="3" t="inlineStr"/>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>linear time-series regression</t>
+          <t>linkage disequilibrium</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr"/>
@@ -10029,118 +10033,122 @@
       <c r="S242" s="3" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="inlineStr"/>
-      <c r="B243" s="3" t="inlineStr">
-        <is>
-          <t>linkage disequilibrium</t>
-        </is>
-      </c>
-      <c r="C243" s="3" t="inlineStr"/>
-      <c r="D243" s="3" t="inlineStr"/>
-      <c r="E243" s="3" t="inlineStr"/>
-      <c r="F243" s="3" t="inlineStr"/>
-      <c r="G243" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H243" s="3" t="inlineStr"/>
-      <c r="I243" s="3" t="inlineStr"/>
-      <c r="J243" s="3" t="inlineStr"/>
-      <c r="K243" s="3" t="inlineStr"/>
-      <c r="L243" s="3" t="inlineStr"/>
-      <c r="M243" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N243" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O243" s="3" t="inlineStr"/>
-      <c r="P243" s="3" t="inlineStr"/>
-      <c r="Q243" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R243" s="3" t="inlineStr"/>
-      <c r="S243" s="3" t="inlineStr"/>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>CHMO:0001004</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>liquid chromatography</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Column chromatography where the mobile phase is a liquid</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>chromatography</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr"/>
+      <c r="S243" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>CHMO:0001004</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>liquid chromatography</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Column chromatography where the mobile phase is a liquid</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>chromatography</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>0</v>
-      </c>
-      <c r="N244" t="n">
-        <v>0</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="inlineStr"/>
+      <c r="A244" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000170</t>
+        </is>
+      </c>
+      <c r="B244" s="3" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="C244" s="3" t="inlineStr">
+        <is>
+          <t>The aggregate of written works, including articles, books, book chapters and reports.</t>
+        </is>
+      </c>
+      <c r="D244" s="3" t="inlineStr"/>
+      <c r="E244" s="3" t="inlineStr">
+        <is>
+          <t>material information bearer</t>
+        </is>
+      </c>
+      <c r="F244" s="3" t="inlineStr">
+        <is>
+          <t>Continuant</t>
+        </is>
+      </c>
+      <c r="G244" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H244" s="3" t="inlineStr"/>
+      <c r="I244" s="3" t="inlineStr"/>
+      <c r="J244" s="3" t="inlineStr"/>
+      <c r="K244" s="3" t="inlineStr"/>
+      <c r="L244" s="3" t="inlineStr"/>
+      <c r="M244" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" s="3" t="inlineStr"/>
+      <c r="P244" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q244" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R244" s="3" t="inlineStr"/>
+      <c r="S244" s="3" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000170</t>
-        </is>
-      </c>
+      <c r="A245" s="3" t="inlineStr"/>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t>literature</t>
-        </is>
-      </c>
-      <c r="C245" s="3" t="inlineStr">
-        <is>
-          <t>The aggregate of written works, including articles, books, book chapters and reports.</t>
-        </is>
-      </c>
+          <t>logistic regression model</t>
+        </is>
+      </c>
+      <c r="C245" s="3" t="inlineStr"/>
       <c r="D245" s="3" t="inlineStr"/>
-      <c r="E245" s="3" t="inlineStr">
-        <is>
-          <t>material information bearer</t>
-        </is>
-      </c>
-      <c r="F245" s="3" t="inlineStr">
-        <is>
-          <t>Continuant</t>
-        </is>
-      </c>
+      <c r="E245" s="3" t="inlineStr"/>
+      <c r="F245" s="3" t="inlineStr"/>
       <c r="G245" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -10158,11 +10166,7 @@
         <v>0</v>
       </c>
       <c r="O245" s="3" t="inlineStr"/>
-      <c r="P245" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P245" s="3" t="inlineStr"/>
       <c r="Q245" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -10175,7 +10179,7 @@
       <c r="A246" s="3" t="inlineStr"/>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>logistic regression model</t>
+          <t>longitudinal latent class analyses</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr"/>
@@ -10212,7 +10216,7 @@
       <c r="A247" s="3" t="inlineStr"/>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>longitudinal latent class analyses</t>
+          <t>longitudinal study</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr"/>
@@ -10249,7 +10253,7 @@
       <c r="A248" s="3" t="inlineStr"/>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>longitudinal study</t>
+          <t>longitudinal study design</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr"/>
@@ -10286,7 +10290,7 @@
       <c r="A249" s="3" t="inlineStr"/>
       <c r="B249" s="3" t="inlineStr">
         <is>
-          <t>longitudinal study design</t>
+          <t>longitudinal survey</t>
         </is>
       </c>
       <c r="C249" s="3" t="inlineStr"/>
@@ -10323,7 +10327,7 @@
       <c r="A250" s="3" t="inlineStr"/>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>longitudinal survey</t>
+          <t>loss to follow up reason</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr"/>
@@ -10360,7 +10364,7 @@
       <c r="A251" s="3" t="inlineStr"/>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>loss to follow up reason</t>
+          <t>magnetic resonance imaging</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr"/>
@@ -10374,7 +10378,11 @@
       </c>
       <c r="H251" s="3" t="inlineStr"/>
       <c r="I251" s="3" t="inlineStr"/>
-      <c r="J251" s="3" t="inlineStr"/>
+      <c r="J251" s="3" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
       <c r="K251" s="3" t="inlineStr"/>
       <c r="L251" s="3" t="inlineStr"/>
       <c r="M251" s="3" t="n">
@@ -10397,7 +10405,7 @@
       <c r="A252" s="3" t="inlineStr"/>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>magnetic resonance imaging</t>
+          <t>marker</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr"/>
@@ -10411,15 +10419,11 @@
       </c>
       <c r="H252" s="3" t="inlineStr"/>
       <c r="I252" s="3" t="inlineStr"/>
-      <c r="J252" s="3" t="inlineStr">
-        <is>
-          <t>MRI</t>
-        </is>
-      </c>
+      <c r="J252" s="3" t="inlineStr"/>
       <c r="K252" s="3" t="inlineStr"/>
       <c r="L252" s="3" t="inlineStr"/>
       <c r="M252" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N252" s="3" t="n">
         <v>0</v>
@@ -10438,7 +10442,7 @@
       <c r="A253" s="3" t="inlineStr"/>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>marker</t>
+          <t>mathematical model</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr"/>
@@ -10475,7 +10479,7 @@
       <c r="A254" s="3" t="inlineStr"/>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>mathematical model</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr"/>
@@ -10493,7 +10497,7 @@
       <c r="K254" s="3" t="inlineStr"/>
       <c r="L254" s="3" t="inlineStr"/>
       <c r="M254" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N254" s="3" t="n">
         <v>0</v>
@@ -10512,7 +10516,7 @@
       <c r="A255" s="3" t="inlineStr"/>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>mean difference</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr"/>
@@ -10546,92 +10550,92 @@
       <c r="S255" s="3" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" s="3" t="inlineStr"/>
-      <c r="B256" s="3" t="inlineStr">
-        <is>
-          <t>mean difference</t>
-        </is>
-      </c>
-      <c r="C256" s="3" t="inlineStr"/>
-      <c r="D256" s="3" t="inlineStr"/>
-      <c r="E256" s="3" t="inlineStr"/>
-      <c r="F256" s="3" t="inlineStr"/>
-      <c r="G256" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H256" s="3" t="inlineStr"/>
-      <c r="I256" s="3" t="inlineStr"/>
-      <c r="J256" s="3" t="inlineStr"/>
-      <c r="K256" s="3" t="inlineStr"/>
-      <c r="L256" s="3" t="inlineStr"/>
-      <c r="M256" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N256" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O256" s="3" t="inlineStr"/>
-      <c r="P256" s="3" t="inlineStr"/>
-      <c r="Q256" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R256" s="3" t="inlineStr"/>
-      <c r="S256" s="3" t="inlineStr"/>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>AFP:0000225</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>A process whose purpose is to assign a number to an attribute of an object or event or to classify the object or event according to that attribute.</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr"/>
+      <c r="S256" t="inlineStr"/>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>AFP:0000225</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>A process whose purpose is to assign a number to an attribute of an object or event or to classify the object or event according to that attribute.</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr"/>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>0</v>
-      </c>
-      <c r="N257" t="n">
-        <v>0</v>
-      </c>
-      <c r="O257" t="inlineStr"/>
-      <c r="P257" t="inlineStr"/>
-      <c r="Q257" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R257" t="inlineStr"/>
-      <c r="S257" t="inlineStr"/>
+      <c r="A257" s="3" t="inlineStr"/>
+      <c r="B257" s="3" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="C257" s="3" t="inlineStr"/>
+      <c r="D257" s="3" t="inlineStr"/>
+      <c r="E257" s="3" t="inlineStr"/>
+      <c r="F257" s="3" t="inlineStr"/>
+      <c r="G257" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H257" s="3" t="inlineStr"/>
+      <c r="I257" s="3" t="inlineStr"/>
+      <c r="J257" s="3" t="inlineStr"/>
+      <c r="K257" s="3" t="inlineStr"/>
+      <c r="L257" s="3" t="inlineStr"/>
+      <c r="M257" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" s="3" t="inlineStr"/>
+      <c r="P257" s="3" t="inlineStr"/>
+      <c r="Q257" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R257" s="3" t="inlineStr"/>
+      <c r="S257" s="3" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr"/>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>mediation analysis</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr"/>
@@ -10668,7 +10672,7 @@
       <c r="A259" s="3" t="inlineStr"/>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>mediation analysis</t>
+          <t>mediator</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr"/>
@@ -10705,7 +10709,7 @@
       <c r="A260" s="3" t="inlineStr"/>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>mediator</t>
+          <t>melbourne Collaborative Cohort Study</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr"/>
@@ -10742,7 +10746,7 @@
       <c r="A261" s="3" t="inlineStr"/>
       <c r="B261" s="3" t="inlineStr">
         <is>
-          <t>melbourne Collaborative Cohort Study</t>
+          <t>mendelian randomisation analysis</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr"/>
@@ -10779,7 +10783,7 @@
       <c r="A262" s="3" t="inlineStr"/>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t>mendelian randomisation analysis</t>
+          <t>meta-analysis</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr"/>
@@ -10816,7 +10820,7 @@
       <c r="A263" s="3" t="inlineStr"/>
       <c r="B263" s="3" t="inlineStr">
         <is>
-          <t>meta-analysis</t>
+          <t>minimum data set</t>
         </is>
       </c>
       <c r="C263" s="3" t="inlineStr"/>
@@ -10853,7 +10857,7 @@
       <c r="A264" s="3" t="inlineStr"/>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>minimum data set</t>
+          <t>missing data</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr"/>
@@ -10890,7 +10894,7 @@
       <c r="A265" s="3" t="inlineStr"/>
       <c r="B265" s="3" t="inlineStr">
         <is>
-          <t>missing data</t>
+          <t>mixed linear model</t>
         </is>
       </c>
       <c r="C265" s="3" t="inlineStr"/>
@@ -10927,7 +10931,7 @@
       <c r="A266" s="3" t="inlineStr"/>
       <c r="B266" s="3" t="inlineStr">
         <is>
-          <t>mixed linear model</t>
+          <t>mode of action</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr"/>
@@ -10961,88 +10965,88 @@
       <c r="S266" s="3" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="inlineStr"/>
-      <c r="B267" s="3" t="inlineStr">
-        <is>
-          <t>mode of action</t>
-        </is>
-      </c>
-      <c r="C267" s="3" t="inlineStr"/>
-      <c r="D267" s="3" t="inlineStr"/>
-      <c r="E267" s="3" t="inlineStr"/>
-      <c r="F267" s="3" t="inlineStr"/>
-      <c r="G267" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H267" s="3" t="inlineStr"/>
-      <c r="I267" s="3" t="inlineStr"/>
-      <c r="J267" s="3" t="inlineStr"/>
-      <c r="K267" s="3" t="inlineStr"/>
-      <c r="L267" s="3" t="inlineStr"/>
-      <c r="M267" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N267" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O267" s="3" t="inlineStr"/>
-      <c r="P267" s="3" t="inlineStr"/>
-      <c r="Q267" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R267" s="3" t="inlineStr"/>
-      <c r="S267" s="3" t="inlineStr"/>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>OBCS:0000035</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>OBCS:0000035</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>0</v>
-      </c>
-      <c r="N268" t="n">
-        <v>0</v>
-      </c>
-      <c r="O268" t="inlineStr"/>
-      <c r="P268" t="inlineStr"/>
-      <c r="Q268" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R268" t="inlineStr"/>
-      <c r="S268" t="inlineStr"/>
+      <c r="A268" s="3" t="inlineStr"/>
+      <c r="B268" s="3" t="inlineStr">
+        <is>
+          <t>model fit</t>
+        </is>
+      </c>
+      <c r="C268" s="3" t="inlineStr"/>
+      <c r="D268" s="3" t="inlineStr"/>
+      <c r="E268" s="3" t="inlineStr"/>
+      <c r="F268" s="3" t="inlineStr"/>
+      <c r="G268" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H268" s="3" t="inlineStr"/>
+      <c r="I268" s="3" t="inlineStr"/>
+      <c r="J268" s="3" t="inlineStr"/>
+      <c r="K268" s="3" t="inlineStr"/>
+      <c r="L268" s="3" t="inlineStr"/>
+      <c r="M268" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" s="3" t="inlineStr"/>
+      <c r="P268" s="3" t="inlineStr"/>
+      <c r="Q268" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R268" s="3" t="inlineStr"/>
+      <c r="S268" s="3" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="3" t="inlineStr"/>
       <c r="B269" s="3" t="inlineStr">
         <is>
-          <t>model fit</t>
+          <t>model projection</t>
         </is>
       </c>
       <c r="C269" s="3" t="inlineStr"/>
@@ -11079,7 +11083,7 @@
       <c r="A270" s="3" t="inlineStr"/>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t>model projection</t>
+          <t>moderator variable</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr"/>
@@ -11116,7 +11120,7 @@
       <c r="A271" s="3" t="inlineStr"/>
       <c r="B271" s="3" t="inlineStr">
         <is>
-          <t>moderator variable</t>
+          <t>molecular level</t>
         </is>
       </c>
       <c r="C271" s="3" t="inlineStr"/>
@@ -11153,7 +11157,7 @@
       <c r="A272" s="3" t="inlineStr"/>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t>molecular level</t>
+          <t>monitoring for research</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr"/>
@@ -11190,7 +11194,7 @@
       <c r="A273" s="3" t="inlineStr"/>
       <c r="B273" s="3" t="inlineStr">
         <is>
-          <t>monitoring for research</t>
+          <t>multi-centre study</t>
         </is>
       </c>
       <c r="C273" s="3" t="inlineStr"/>
@@ -11227,7 +11231,7 @@
       <c r="A274" s="3" t="inlineStr"/>
       <c r="B274" s="3" t="inlineStr">
         <is>
-          <t>multi-centre study</t>
+          <t>multi-cohort study design</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr"/>
@@ -11264,7 +11268,7 @@
       <c r="A275" s="3" t="inlineStr"/>
       <c r="B275" s="3" t="inlineStr">
         <is>
-          <t>multi-cohort study design</t>
+          <t>multi-level modelling</t>
         </is>
       </c>
       <c r="C275" s="3" t="inlineStr"/>
@@ -11301,7 +11305,7 @@
       <c r="A276" s="3" t="inlineStr"/>
       <c r="B276" s="3" t="inlineStr">
         <is>
-          <t>multi-level modelling</t>
+          <t>multi-site sample</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr"/>
@@ -11338,7 +11342,7 @@
       <c r="A277" s="3" t="inlineStr"/>
       <c r="B277" s="3" t="inlineStr">
         <is>
-          <t>multi-site sample</t>
+          <t>multilevel modeling</t>
         </is>
       </c>
       <c r="C277" s="3" t="inlineStr"/>
@@ -11375,7 +11379,7 @@
       <c r="A278" s="3" t="inlineStr"/>
       <c r="B278" s="3" t="inlineStr">
         <is>
-          <t>multilevel modeling</t>
+          <t>multinomial logistic regression</t>
         </is>
       </c>
       <c r="C278" s="3" t="inlineStr"/>
@@ -11412,7 +11416,7 @@
       <c r="A279" s="3" t="inlineStr"/>
       <c r="B279" s="3" t="inlineStr">
         <is>
-          <t>multinomial logistic regression</t>
+          <t>multivariate model</t>
         </is>
       </c>
       <c r="C279" s="3" t="inlineStr"/>
@@ -11449,7 +11453,7 @@
       <c r="A280" s="3" t="inlineStr"/>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t>multivariate model</t>
+          <t>n-of-1 study</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr"/>
@@ -11486,7 +11490,7 @@
       <c r="A281" s="3" t="inlineStr"/>
       <c r="B281" s="3" t="inlineStr">
         <is>
-          <t>n-of-1 study</t>
+          <t>nVivo</t>
         </is>
       </c>
       <c r="C281" s="3" t="inlineStr"/>
@@ -11523,7 +11527,7 @@
       <c r="A282" s="3" t="inlineStr"/>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>nVivo</t>
+          <t>national small-area level ecological study</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr"/>
@@ -11560,7 +11564,7 @@
       <c r="A283" s="3" t="inlineStr"/>
       <c r="B283" s="3" t="inlineStr">
         <is>
-          <t>national small-area level ecological study</t>
+          <t>nationally representative sample</t>
         </is>
       </c>
       <c r="C283" s="3" t="inlineStr"/>
@@ -11578,7 +11582,7 @@
       <c r="K283" s="3" t="inlineStr"/>
       <c r="L283" s="3" t="inlineStr"/>
       <c r="M283" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N283" s="3" t="n">
         <v>0</v>
@@ -11597,7 +11601,7 @@
       <c r="A284" s="3" t="inlineStr"/>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t>nationally representative sample</t>
+          <t>natural experiment</t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr"/>
@@ -11615,7 +11619,7 @@
       <c r="K284" s="3" t="inlineStr"/>
       <c r="L284" s="3" t="inlineStr"/>
       <c r="M284" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N284" s="3" t="n">
         <v>0</v>
@@ -11634,7 +11638,7 @@
       <c r="A285" s="3" t="inlineStr"/>
       <c r="B285" s="3" t="inlineStr">
         <is>
-          <t>natural experiment</t>
+          <t>naturalistic observation</t>
         </is>
       </c>
       <c r="C285" s="3" t="inlineStr"/>
@@ -11671,7 +11675,7 @@
       <c r="A286" s="3" t="inlineStr"/>
       <c r="B286" s="3" t="inlineStr">
         <is>
-          <t>naturalistic observation</t>
+          <t>naturalistic setting</t>
         </is>
       </c>
       <c r="C286" s="3" t="inlineStr"/>
@@ -11708,7 +11712,7 @@
       <c r="A287" s="3" t="inlineStr"/>
       <c r="B287" s="3" t="inlineStr">
         <is>
-          <t>naturalistic setting</t>
+          <t>negative association</t>
         </is>
       </c>
       <c r="C287" s="3" t="inlineStr"/>
@@ -11745,7 +11749,7 @@
       <c r="A288" s="3" t="inlineStr"/>
       <c r="B288" s="3" t="inlineStr">
         <is>
-          <t>negative association</t>
+          <t>negative urine toxicology screen</t>
         </is>
       </c>
       <c r="C288" s="3" t="inlineStr"/>
@@ -11782,7 +11786,7 @@
       <c r="A289" s="3" t="inlineStr"/>
       <c r="B289" s="3" t="inlineStr">
         <is>
-          <t>negative urine toxicology screen</t>
+          <t>non-inferiority trial</t>
         </is>
       </c>
       <c r="C289" s="3" t="inlineStr"/>
@@ -11819,7 +11823,7 @@
       <c r="A290" s="3" t="inlineStr"/>
       <c r="B290" s="3" t="inlineStr">
         <is>
-          <t>non-inferiority trial</t>
+          <t>non-invasive biomagnetic technique</t>
         </is>
       </c>
       <c r="C290" s="3" t="inlineStr"/>
@@ -11856,7 +11860,7 @@
       <c r="A291" s="3" t="inlineStr"/>
       <c r="B291" s="3" t="inlineStr">
         <is>
-          <t>non-invasive biomagnetic technique</t>
+          <t>non-linear association</t>
         </is>
       </c>
       <c r="C291" s="3" t="inlineStr"/>
@@ -11893,7 +11897,7 @@
       <c r="A292" s="3" t="inlineStr"/>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t>non-linear association</t>
+          <t>non-response to follow up</t>
         </is>
       </c>
       <c r="C292" s="3" t="inlineStr"/>
@@ -11930,7 +11934,7 @@
       <c r="A293" s="3" t="inlineStr"/>
       <c r="B293" s="3" t="inlineStr">
         <is>
-          <t>non-response to follow up</t>
+          <t>non-significant</t>
         </is>
       </c>
       <c r="C293" s="3" t="inlineStr"/>
@@ -11967,7 +11971,7 @@
       <c r="A294" s="3" t="inlineStr"/>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t>non-significant</t>
+          <t>non-significant association</t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr"/>
@@ -12004,7 +12008,7 @@
       <c r="A295" s="3" t="inlineStr"/>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t>non-significant association</t>
+          <t>objective measure</t>
         </is>
       </c>
       <c r="C295" s="3" t="inlineStr"/>
@@ -12022,7 +12026,7 @@
       <c r="K295" s="3" t="inlineStr"/>
       <c r="L295" s="3" t="inlineStr"/>
       <c r="M295" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N295" s="3" t="n">
         <v>0</v>
@@ -12041,7 +12045,7 @@
       <c r="A296" s="3" t="inlineStr"/>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t>objective measure</t>
+          <t>objective verification</t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr"/>
@@ -12078,7 +12082,7 @@
       <c r="A297" s="3" t="inlineStr"/>
       <c r="B297" s="3" t="inlineStr">
         <is>
-          <t>objective verification</t>
+          <t>observation</t>
         </is>
       </c>
       <c r="C297" s="3" t="inlineStr"/>
@@ -12096,7 +12100,7 @@
       <c r="K297" s="3" t="inlineStr"/>
       <c r="L297" s="3" t="inlineStr"/>
       <c r="M297" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N297" s="3" t="n">
         <v>0</v>
@@ -12115,7 +12119,7 @@
       <c r="A298" s="3" t="inlineStr"/>
       <c r="B298" s="3" t="inlineStr">
         <is>
-          <t>observation</t>
+          <t>observation of injecting practices</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr"/>
@@ -12152,7 +12156,7 @@
       <c r="A299" s="3" t="inlineStr"/>
       <c r="B299" s="3" t="inlineStr">
         <is>
-          <t>observation of injecting practices</t>
+          <t>observational study</t>
         </is>
       </c>
       <c r="C299" s="3" t="inlineStr"/>
@@ -12189,7 +12193,7 @@
       <c r="A300" s="3" t="inlineStr"/>
       <c r="B300" s="3" t="inlineStr">
         <is>
-          <t>observational study</t>
+          <t>observed association</t>
         </is>
       </c>
       <c r="C300" s="3" t="inlineStr"/>
@@ -12226,7 +12230,7 @@
       <c r="A301" s="3" t="inlineStr"/>
       <c r="B301" s="3" t="inlineStr">
         <is>
-          <t>observed association</t>
+          <t>odds</t>
         </is>
       </c>
       <c r="C301" s="3" t="inlineStr"/>
@@ -12263,7 +12267,7 @@
       <c r="A302" s="3" t="inlineStr"/>
       <c r="B302" s="3" t="inlineStr">
         <is>
-          <t>odds</t>
+          <t>odds ratio</t>
         </is>
       </c>
       <c r="C302" s="3" t="inlineStr"/>
@@ -12300,7 +12304,7 @@
       <c r="A303" s="3" t="inlineStr"/>
       <c r="B303" s="3" t="inlineStr">
         <is>
-          <t>odds ratio</t>
+          <t>omnibus model</t>
         </is>
       </c>
       <c r="C303" s="3" t="inlineStr"/>
@@ -12337,7 +12341,7 @@
       <c r="A304" s="3" t="inlineStr"/>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t>omnibus model</t>
+          <t>one-year post-treatment</t>
         </is>
       </c>
       <c r="C304" s="3" t="inlineStr"/>
@@ -12374,7 +12378,7 @@
       <c r="A305" s="3" t="inlineStr"/>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t>one-year post-treatment</t>
+          <t>opportunistic sample</t>
         </is>
       </c>
       <c r="C305" s="3" t="inlineStr"/>
@@ -12411,10 +12415,14 @@
       <c r="A306" s="3" t="inlineStr"/>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>opportunistic sample</t>
-        </is>
-      </c>
-      <c r="C306" s="3" t="inlineStr"/>
+          <t>outcome measure</t>
+        </is>
+      </c>
+      <c r="C306" s="3" t="inlineStr">
+        <is>
+          <t>A measure that is being used in a research study to assess a designated outcome of a process, including an intervention.</t>
+        </is>
+      </c>
       <c r="D306" s="3" t="inlineStr"/>
       <c r="E306" s="3" t="inlineStr"/>
       <c r="F306" s="3" t="inlineStr"/>
@@ -12425,11 +12433,15 @@
       </c>
       <c r="H306" s="3" t="inlineStr"/>
       <c r="I306" s="3" t="inlineStr"/>
-      <c r="J306" s="3" t="inlineStr"/>
+      <c r="J306" s="3" t="inlineStr">
+        <is>
+          <t>Measure</t>
+        </is>
+      </c>
       <c r="K306" s="3" t="inlineStr"/>
       <c r="L306" s="3" t="inlineStr"/>
       <c r="M306" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N306" s="3" t="n">
         <v>0</v>
@@ -12448,14 +12460,10 @@
       <c r="A307" s="3" t="inlineStr"/>
       <c r="B307" s="3" t="inlineStr">
         <is>
-          <t>outcome measure</t>
-        </is>
-      </c>
-      <c r="C307" s="3" t="inlineStr">
-        <is>
-          <t>A measure that is being used in a research study to assess a designated outcome of a process, including an intervention.</t>
-        </is>
-      </c>
+          <t>p value</t>
+        </is>
+      </c>
+      <c r="C307" s="3" t="inlineStr"/>
       <c r="D307" s="3" t="inlineStr"/>
       <c r="E307" s="3" t="inlineStr"/>
       <c r="F307" s="3" t="inlineStr"/>
@@ -12466,15 +12474,11 @@
       </c>
       <c r="H307" s="3" t="inlineStr"/>
       <c r="I307" s="3" t="inlineStr"/>
-      <c r="J307" s="3" t="inlineStr">
-        <is>
-          <t>Measure</t>
-        </is>
-      </c>
+      <c r="J307" s="3" t="inlineStr"/>
       <c r="K307" s="3" t="inlineStr"/>
       <c r="L307" s="3" t="inlineStr"/>
       <c r="M307" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N307" s="3" t="n">
         <v>0</v>
@@ -12493,7 +12497,7 @@
       <c r="A308" s="3" t="inlineStr"/>
       <c r="B308" s="3" t="inlineStr">
         <is>
-          <t>p value</t>
+          <t>parallel-group study desigh</t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr"/>
@@ -12530,7 +12534,7 @@
       <c r="A309" s="3" t="inlineStr"/>
       <c r="B309" s="3" t="inlineStr">
         <is>
-          <t>parallel-group study desigh</t>
+          <t>participant</t>
         </is>
       </c>
       <c r="C309" s="3" t="inlineStr"/>
@@ -12567,7 +12571,7 @@
       <c r="A310" s="3" t="inlineStr"/>
       <c r="B310" s="3" t="inlineStr">
         <is>
-          <t>participant</t>
+          <t>participant level data</t>
         </is>
       </c>
       <c r="C310" s="3" t="inlineStr"/>
@@ -12604,7 +12608,7 @@
       <c r="A311" s="3" t="inlineStr"/>
       <c r="B311" s="3" t="inlineStr">
         <is>
-          <t>participant level data</t>
+          <t>path analysis</t>
         </is>
       </c>
       <c r="C311" s="3" t="inlineStr"/>
@@ -12641,7 +12645,7 @@
       <c r="A312" s="3" t="inlineStr"/>
       <c r="B312" s="3" t="inlineStr">
         <is>
-          <t>path analysis</t>
+          <t>per protocol</t>
         </is>
       </c>
       <c r="C312" s="3" t="inlineStr"/>
@@ -12678,7 +12682,7 @@
       <c r="A313" s="3" t="inlineStr"/>
       <c r="B313" s="3" t="inlineStr">
         <is>
-          <t>per protocol</t>
+          <t>percentage point change</t>
         </is>
       </c>
       <c r="C313" s="3" t="inlineStr"/>
@@ -12712,26 +12716,54 @@
       <c r="S313" s="3" t="inlineStr"/>
     </row>
     <row r="314">
-      <c r="A314" s="3" t="inlineStr"/>
+      <c r="A314" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000179</t>
+        </is>
+      </c>
       <c r="B314" s="3" t="inlineStr">
         <is>
-          <t>percentage point change</t>
-        </is>
-      </c>
-      <c r="C314" s="3" t="inlineStr"/>
+          <t>personal stake</t>
+        </is>
+      </c>
+      <c r="C314" s="3" t="inlineStr">
+        <is>
+          <t>A personal attribute that involves an outcome of value to that person arising from a process.</t>
+        </is>
+      </c>
       <c r="D314" s="3" t="inlineStr"/>
-      <c r="E314" s="3" t="inlineStr"/>
-      <c r="F314" s="3" t="inlineStr"/>
+      <c r="E314" s="3" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F314" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="G314" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H314" s="3" t="inlineStr"/>
+      <c r="H314" s="3" t="inlineStr">
+        <is>
+          <t>This is derived from the idea of a stakeholder and is a generalisation of vested interest.</t>
+        </is>
+      </c>
       <c r="I314" s="3" t="inlineStr"/>
       <c r="J314" s="3" t="inlineStr"/>
-      <c r="K314" s="3" t="inlineStr"/>
-      <c r="L314" s="3" t="inlineStr"/>
+      <c r="K314" s="3" t="inlineStr">
+        <is>
+          <t>Value here can be positive or negative. This definition refers to actual value rather than perceived value. The process that produces the outcome will often be an event such as reporting of the outcome of a clinical trial, or delivery of a verdict in a trial, or enactment of legislation.</t>
+        </is>
+      </c>
+      <c r="L314" s="3" t="inlineStr">
+        <is>
+          <t>Dr Smith has a personal stake in the outcome of the clinical trial of the drug, varenicline, because he has shares in the company that produces the drug.</t>
+        </is>
+      </c>
       <c r="M314" s="3" t="n">
         <v>0</v>
       </c>
@@ -12749,54 +12781,26 @@
       <c r="S314" s="3" t="inlineStr"/>
     </row>
     <row r="315">
-      <c r="A315" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000179</t>
-        </is>
-      </c>
+      <c r="A315" s="3" t="inlineStr"/>
       <c r="B315" s="3" t="inlineStr">
         <is>
-          <t>personal stake</t>
-        </is>
-      </c>
-      <c r="C315" s="3" t="inlineStr">
-        <is>
-          <t>A personal attribute that involves an outcome of value to that person arising from a process.</t>
-        </is>
-      </c>
+          <t>pharmacologist</t>
+        </is>
+      </c>
+      <c r="C315" s="3" t="inlineStr"/>
       <c r="D315" s="3" t="inlineStr"/>
-      <c r="E315" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="F315" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="E315" s="3" t="inlineStr"/>
+      <c r="F315" s="3" t="inlineStr"/>
       <c r="G315" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H315" s="3" t="inlineStr">
-        <is>
-          <t>This is derived from the idea of a stakeholder and is a generalisation of vested interest.</t>
-        </is>
-      </c>
+      <c r="H315" s="3" t="inlineStr"/>
       <c r="I315" s="3" t="inlineStr"/>
       <c r="J315" s="3" t="inlineStr"/>
-      <c r="K315" s="3" t="inlineStr">
-        <is>
-          <t>Value here can be positive or negative. This definition refers to actual value rather than perceived value. The process that produces the outcome will often be an event such as reporting of the outcome of a clinical trial, or delivery of a verdict in a trial, or enactment of legislation.</t>
-        </is>
-      </c>
-      <c r="L315" s="3" t="inlineStr">
-        <is>
-          <t>Dr Smith has a personal stake in the outcome of the clinical trial of the drug, varenicline, because he has shares in the company that produces the drug.</t>
-        </is>
-      </c>
+      <c r="K315" s="3" t="inlineStr"/>
+      <c r="L315" s="3" t="inlineStr"/>
       <c r="M315" s="3" t="n">
         <v>0</v>
       </c>
@@ -12817,37 +12821,69 @@
       <c r="A316" s="3" t="inlineStr"/>
       <c r="B316" s="3" t="inlineStr">
         <is>
-          <t>pharmacologist</t>
-        </is>
-      </c>
-      <c r="C316" s="3" t="inlineStr"/>
+          <t>pilot randomised controlled trial</t>
+        </is>
+      </c>
+      <c r="C316" s="3" t="inlineStr">
+        <is>
+          <t>A pilot trial for a full-scale randomised controlled trial</t>
+        </is>
+      </c>
       <c r="D316" s="3" t="inlineStr"/>
-      <c r="E316" s="3" t="inlineStr"/>
-      <c r="F316" s="3" t="inlineStr"/>
+      <c r="E316" s="3" t="inlineStr">
+        <is>
+          <t>pilot trial</t>
+        </is>
+      </c>
+      <c r="F316" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G316" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H316" s="3" t="inlineStr"/>
+      <c r="H316" s="3" t="inlineStr">
+        <is>
+          <t>The semantics of this definition are carried by the use of the parent class and the fact that a pilot study is a smaller version of a full-scale study and the full-scale study is an RCT.</t>
+        </is>
+      </c>
       <c r="I316" s="3" t="inlineStr"/>
-      <c r="J316" s="3" t="inlineStr"/>
-      <c r="K316" s="3" t="inlineStr"/>
+      <c r="J316" s="3" t="inlineStr">
+        <is>
+          <t>pilot RCT</t>
+        </is>
+      </c>
+      <c r="K316" s="3" t="inlineStr">
+        <is>
+          <t>This entity is intended to provide users with an opportunity to be specific about the nature of the study in that it follows the procedures of an RCT where pilot trials include, for example, single arm trials.</t>
+        </is>
+      </c>
       <c r="L316" s="3" t="inlineStr"/>
-      <c r="M316" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N316" s="3" t="n">
+      <c r="M316" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N316" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O316" s="3" t="inlineStr"/>
-      <c r="P316" s="3" t="inlineStr"/>
+      <c r="P316" s="3" t="inlineStr">
+        <is>
+          <t>RW; KS</t>
+        </is>
+      </c>
       <c r="Q316" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R316" s="3" t="inlineStr"/>
+      <c r="R316" s="3" t="inlineStr">
+        <is>
+          <t>SC;JH;CN</t>
+        </is>
+      </c>
       <c r="S316" s="3" t="inlineStr"/>
     </row>
     <row r="317">
@@ -12900,7 +12936,7 @@
       <c r="O317" s="3" t="inlineStr"/>
       <c r="P317" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; KS</t>
         </is>
       </c>
       <c r="Q317" s="3" t="inlineStr">
@@ -12908,7 +12944,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R317" s="3" t="inlineStr"/>
+      <c r="R317" s="3" t="inlineStr">
+        <is>
+          <t>SC;JH;CN</t>
+        </is>
+      </c>
       <c r="S317" s="3" t="inlineStr"/>
     </row>
     <row r="318">
@@ -12961,7 +13001,7 @@
       <c r="O318" s="3" t="inlineStr"/>
       <c r="P318" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; KS</t>
         </is>
       </c>
       <c r="Q318" s="3" t="inlineStr">
@@ -12969,7 +13009,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R318" s="3" t="inlineStr"/>
+      <c r="R318" s="3" t="inlineStr">
+        <is>
+          <t>SC;JH;CN</t>
+        </is>
+      </c>
       <c r="S318" s="3" t="inlineStr"/>
     </row>
     <row r="319">
@@ -15394,13 +15438,21 @@
         <v>0</v>
       </c>
       <c r="O381" t="inlineStr"/>
-      <c r="P381" t="inlineStr"/>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
       <c r="Q381" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R381" t="inlineStr"/>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>JH;SC;CN</t>
+        </is>
+      </c>
       <c r="S381" t="inlineStr"/>
     </row>
     <row r="382">
@@ -15502,7 +15554,7 @@
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; KS</t>
         </is>
       </c>
       <c r="Q383" t="inlineStr">
@@ -15510,7 +15562,11 @@
           <t>External</t>
         </is>
       </c>
-      <c r="R383" t="inlineStr"/>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>JH;SC;CN</t>
+        </is>
+      </c>
       <c r="S383" t="inlineStr"/>
     </row>
     <row r="384">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S532"/>
+  <dimension ref="A1:S533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8305,89 +8305,113 @@
       <c r="S198" s="3" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000177</t>
-        </is>
-      </c>
+      <c r="A199" s="3" t="inlineStr"/>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>financial potential competing interest</t>
+          <t>feasibility trial</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>A potential competing interest that involves the possibility of personal financial gain or loss resulting from enactment of the professional role.</t>
+          <t>A feasibility study that evaluates an intervention</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr"/>
       <c r="E199" s="3" t="inlineStr">
         <is>
-          <t>potential competing interest</t>
+          <t>feasibility study</t>
         </is>
       </c>
       <c r="F199" s="3" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G199" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Research activity </t>
-        </is>
-      </c>
-      <c r="H199" s="3" t="inlineStr">
-        <is>
-          <t>The definition was adapted from the PLOS definition.</t>
-        </is>
-      </c>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H199" s="3" t="inlineStr"/>
       <c r="I199" s="3" t="inlineStr"/>
       <c r="J199" s="3" t="inlineStr"/>
       <c r="K199" s="3" t="inlineStr">
         <is>
-          <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organisation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the enactment of the professional role. It also includes all of the above that relate to an intimate partner. Organisation includes commercial organisation, government agency, and charity.</t>
+          <t>This is a broader class than pilot trial because a a feasibility trial may involve an evaluation that is not a smaller scale version of a full-scale RCT, for example, trying out a range of different interventions or ways of conducting the trial.</t>
         </is>
       </c>
       <c r="L199" s="3" t="inlineStr"/>
-      <c r="M199" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N199" s="3" t="n">
+      <c r="M199" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N199" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O199" s="3" t="inlineStr"/>
-      <c r="P199" s="3" t="inlineStr"/>
+      <c r="P199" s="3" t="inlineStr">
+        <is>
+          <t>RW; KS</t>
+        </is>
+      </c>
       <c r="Q199" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R199" s="3" t="inlineStr"/>
+      <c r="R199" s="3" t="inlineStr">
+        <is>
+          <t>SC;JH;CN</t>
+        </is>
+      </c>
       <c r="S199" s="3" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="inlineStr"/>
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000177</t>
+        </is>
+      </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>focus group</t>
-        </is>
-      </c>
-      <c r="C200" s="3" t="inlineStr"/>
+          <t>financial potential competing interest</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>A potential competing interest that involves the possibility of personal financial gain or loss resulting from enactment of the professional role.</t>
+        </is>
+      </c>
       <c r="D200" s="3" t="inlineStr"/>
-      <c r="E200" s="3" t="inlineStr"/>
-      <c r="F200" s="3" t="inlineStr"/>
+      <c r="E200" s="3" t="inlineStr">
+        <is>
+          <t>potential competing interest</t>
+        </is>
+      </c>
+      <c r="F200" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="G200" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H200" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Research activity </t>
+        </is>
+      </c>
+      <c r="H200" s="3" t="inlineStr">
+        <is>
+          <t>The definition was adapted from the PLOS definition.</t>
+        </is>
+      </c>
       <c r="I200" s="3" t="inlineStr"/>
       <c r="J200" s="3" t="inlineStr"/>
-      <c r="K200" s="3" t="inlineStr"/>
+      <c r="K200" s="3" t="inlineStr">
+        <is>
+          <t>This includes: 1) ownership of stocks or shares, 2) employment in an organisation, 3) providing paid consultancy to an organisation, 4) being a director of a company, 5) receiving any kind of funding or tangible benefit (e.g. research grant, travel funding, hospitality, gift) from an organisation, 6) ownership of, or pending application for, a patent, and 7) seeking funding from an organisation, that may be affected by the enactment of the professional role. It also includes all of the above that relate to an intimate partner. Organisation includes commercial organisation, government agency, and charity.</t>
+        </is>
+      </c>
       <c r="L200" s="3" t="inlineStr"/>
       <c r="M200" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200" s="3" t="n">
         <v>0</v>
@@ -8403,206 +8427,206 @@
       <c r="S200" s="3" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="inlineStr">
+      <c r="A201" s="3" t="inlineStr"/>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>focus group</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr"/>
+      <c r="D201" s="3" t="inlineStr"/>
+      <c r="E201" s="3" t="inlineStr"/>
+      <c r="F201" s="3" t="inlineStr"/>
+      <c r="G201" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H201" s="3" t="inlineStr"/>
+      <c r="I201" s="3" t="inlineStr"/>
+      <c r="J201" s="3" t="inlineStr"/>
+      <c r="K201" s="3" t="inlineStr"/>
+      <c r="L201" s="3" t="inlineStr"/>
+      <c r="M201" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="3" t="inlineStr"/>
+      <c r="P201" s="3" t="inlineStr"/>
+      <c r="Q201" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R201" s="3" t="inlineStr"/>
+      <c r="S201" s="3" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000149</t>
         </is>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>follow up</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
         <is>
           <t>A research activity that involves taking a measurement after the end of an intervention or research activity.</t>
         </is>
       </c>
-      <c r="D201" s="2" t="inlineStr"/>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="D202" s="2" t="inlineStr"/>
+      <c r="E202" s="2" t="inlineStr">
         <is>
           <t>research activity</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F202" s="2" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G201" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="G202" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
         <is>
           <t>This attempts to capture the most common usage and so distinguishes between end-of-treatment assessment and follow up.</t>
         </is>
       </c>
-      <c r="I201" s="2" t="inlineStr"/>
-      <c r="J201" s="2" t="inlineStr"/>
-      <c r="K201" s="2" t="inlineStr">
+      <c r="I202" s="2" t="inlineStr"/>
+      <c r="J202" s="2" t="inlineStr"/>
+      <c r="K202" s="2" t="inlineStr">
         <is>
           <t>Used in cohort studies and intervention evaluations to capture meausres taken after the end of the intervention or a baseline measure.</t>
         </is>
       </c>
-      <c r="L201" s="2" t="inlineStr"/>
-      <c r="M201" s="2" t="n">
+      <c r="L202" s="2" t="inlineStr"/>
+      <c r="M202" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N201" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O201" s="2" t="inlineStr"/>
-      <c r="P201" s="2" t="inlineStr"/>
-      <c r="Q201" s="2" t="inlineStr">
+      <c r="N202" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="2" t="inlineStr"/>
+      <c r="P202" s="2" t="inlineStr"/>
+      <c r="Q202" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R201" s="2" t="inlineStr"/>
-      <c r="S201" s="2" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="3" t="inlineStr"/>
-      <c r="B202" s="3" t="inlineStr">
+      <c r="R202" s="2" t="inlineStr"/>
+      <c r="S202" s="2" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="inlineStr"/>
+      <c r="B203" s="3" t="inlineStr">
         <is>
           <t>follow-up completion rates</t>
         </is>
       </c>
-      <c r="C202" s="3" t="inlineStr"/>
-      <c r="D202" s="3" t="inlineStr"/>
-      <c r="E202" s="3" t="inlineStr"/>
-      <c r="F202" s="3" t="inlineStr"/>
-      <c r="G202" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H202" s="3" t="inlineStr"/>
-      <c r="I202" s="3" t="inlineStr"/>
-      <c r="J202" s="3" t="inlineStr"/>
-      <c r="K202" s="3" t="inlineStr"/>
-      <c r="L202" s="3" t="inlineStr"/>
-      <c r="M202" s="3" t="n">
+      <c r="C203" s="3" t="inlineStr"/>
+      <c r="D203" s="3" t="inlineStr"/>
+      <c r="E203" s="3" t="inlineStr"/>
+      <c r="F203" s="3" t="inlineStr"/>
+      <c r="G203" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H203" s="3" t="inlineStr"/>
+      <c r="I203" s="3" t="inlineStr"/>
+      <c r="J203" s="3" t="inlineStr"/>
+      <c r="K203" s="3" t="inlineStr"/>
+      <c r="L203" s="3" t="inlineStr"/>
+      <c r="M203" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N202" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O202" s="3" t="inlineStr"/>
-      <c r="P202" s="3" t="inlineStr"/>
-      <c r="Q202" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R202" s="3" t="inlineStr"/>
-      <c r="S202" s="3" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="inlineStr">
+      <c r="N203" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" s="3" t="inlineStr"/>
+      <c r="P203" s="3" t="inlineStr"/>
+      <c r="Q203" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R203" s="3" t="inlineStr"/>
+      <c r="S203" s="3" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000167</t>
         </is>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>follow-up period</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>A period of time between a research activity and follow up.</t>
         </is>
       </c>
-      <c r="D203" s="2" t="inlineStr"/>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="D204" s="2" t="inlineStr"/>
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
         <is>
           <t>Temporal region</t>
         </is>
       </c>
-      <c r="G203" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H203" s="2" t="inlineStr"/>
-      <c r="I203" s="2" t="inlineStr"/>
-      <c r="J203" s="2" t="inlineStr"/>
-      <c r="K203" s="2" t="inlineStr">
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H204" s="2" t="inlineStr"/>
+      <c r="I204" s="2" t="inlineStr"/>
+      <c r="J204" s="2" t="inlineStr"/>
+      <c r="K204" s="2" t="inlineStr">
         <is>
           <t>The temporal period is often counted from the start of an intervention even though the definition of follow up states that it takes place after the end of an intervention.</t>
         </is>
       </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>The follow up period was for 12 months from the offer of a prescription for varenicline.</t>
         </is>
       </c>
-      <c r="M203" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N203" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O203" s="2" t="inlineStr"/>
-      <c r="P203" s="2" t="inlineStr"/>
-      <c r="Q203" s="2" t="inlineStr">
+      <c r="M204" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="2" t="inlineStr"/>
+      <c r="P204" s="2" t="inlineStr"/>
+      <c r="Q204" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R203" s="2" t="inlineStr"/>
-      <c r="S203" s="2" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="3" t="inlineStr"/>
-      <c r="B204" s="3" t="inlineStr">
-        <is>
-          <t>follow-up point</t>
-        </is>
-      </c>
-      <c r="C204" s="3" t="inlineStr"/>
-      <c r="D204" s="3" t="inlineStr"/>
-      <c r="E204" s="3" t="inlineStr"/>
-      <c r="F204" s="3" t="inlineStr"/>
-      <c r="G204" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H204" s="3" t="inlineStr"/>
-      <c r="I204" s="3" t="inlineStr"/>
-      <c r="J204" s="3" t="inlineStr"/>
-      <c r="K204" s="3" t="inlineStr"/>
-      <c r="L204" s="3" t="inlineStr"/>
-      <c r="M204" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O204" s="3" t="inlineStr"/>
-      <c r="P204" s="3" t="inlineStr"/>
-      <c r="Q204" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R204" s="3" t="inlineStr"/>
-      <c r="S204" s="3" t="inlineStr"/>
+      <c r="R204" s="2" t="inlineStr"/>
+      <c r="S204" s="2" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="3" t="inlineStr"/>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>follow-up visit</t>
+          <t>follow-up point</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr"/>
@@ -8636,14 +8660,10 @@
       <c r="S205" s="3" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000131</t>
-        </is>
-      </c>
+      <c r="A206" s="3" t="inlineStr"/>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>gateway effect</t>
+          <t>follow-up visit</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr"/>
@@ -8677,10 +8697,14 @@
       <c r="S206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="inlineStr"/>
+      <c r="A207" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000131</t>
+        </is>
+      </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>generalized linear mixed model</t>
+          <t>gateway effect</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr"/>
@@ -8698,7 +8722,7 @@
       <c r="K207" s="3" t="inlineStr"/>
       <c r="L207" s="3" t="inlineStr"/>
       <c r="M207" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N207" s="3" t="n">
         <v>0</v>
@@ -8717,7 +8741,7 @@
       <c r="A208" s="3" t="inlineStr"/>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>genome-wide association meta-analysis</t>
+          <t>generalized linear mixed model</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr"/>
@@ -8754,7 +8778,7 @@
       <c r="A209" s="3" t="inlineStr"/>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>genome-wide association study</t>
+          <t>genome-wide association meta-analysis</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr"/>
@@ -8788,27 +8812,15 @@
       <c r="S209" s="3" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000168</t>
-        </is>
-      </c>
+      <c r="A210" s="3" t="inlineStr"/>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>grey literature</t>
-        </is>
-      </c>
-      <c r="C210" s="3" t="inlineStr">
-        <is>
-          <t>The aggregate of research articles, including study reports, that have not been published in peer-reviewed journals.</t>
-        </is>
-      </c>
+          <t>genome-wide association study</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr"/>
       <c r="D210" s="3" t="inlineStr"/>
-      <c r="E210" s="3" t="inlineStr">
-        <is>
-          <t>research literature</t>
-        </is>
-      </c>
+      <c r="E210" s="3" t="inlineStr"/>
       <c r="F210" s="3" t="inlineStr"/>
       <c r="G210" s="3" t="inlineStr">
         <is>
@@ -8837,15 +8849,27 @@
       <c r="S210" s="3" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="inlineStr"/>
+      <c r="A211" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000168</t>
+        </is>
+      </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>hazard ratio</t>
-        </is>
-      </c>
-      <c r="C211" s="3" t="inlineStr"/>
+          <t>grey literature</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
+        <is>
+          <t>The aggregate of research articles, including study reports, that have not been published in peer-reviewed journals.</t>
+        </is>
+      </c>
       <c r="D211" s="3" t="inlineStr"/>
-      <c r="E211" s="3" t="inlineStr"/>
+      <c r="E211" s="3" t="inlineStr">
+        <is>
+          <t>research literature</t>
+        </is>
+      </c>
       <c r="F211" s="3" t="inlineStr"/>
       <c r="G211" s="3" t="inlineStr">
         <is>
@@ -8877,7 +8901,7 @@
       <c r="A212" s="3" t="inlineStr"/>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>hepatitis C transmission modelling</t>
+          <t>hazard ratio</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr"/>
@@ -8891,11 +8915,7 @@
       </c>
       <c r="H212" s="3" t="inlineStr"/>
       <c r="I212" s="3" t="inlineStr"/>
-      <c r="J212" s="3" t="inlineStr">
-        <is>
-          <t>HCV transmission modelling</t>
-        </is>
-      </c>
+      <c r="J212" s="3" t="inlineStr"/>
       <c r="K212" s="3" t="inlineStr"/>
       <c r="L212" s="3" t="inlineStr"/>
       <c r="M212" s="3" t="n">
@@ -8918,7 +8938,7 @@
       <c r="A213" s="3" t="inlineStr"/>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>imaging data</t>
+          <t>hepatitis C transmission modelling</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr"/>
@@ -8932,7 +8952,11 @@
       </c>
       <c r="H213" s="3" t="inlineStr"/>
       <c r="I213" s="3" t="inlineStr"/>
-      <c r="J213" s="3" t="inlineStr"/>
+      <c r="J213" s="3" t="inlineStr">
+        <is>
+          <t>HCV transmission modelling</t>
+        </is>
+      </c>
       <c r="K213" s="3" t="inlineStr"/>
       <c r="L213" s="3" t="inlineStr"/>
       <c r="M213" s="3" t="n">
@@ -8955,7 +8979,7 @@
       <c r="A214" s="3" t="inlineStr"/>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>imaging device</t>
+          <t>imaging data</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr"/>
@@ -8992,7 +9016,7 @@
       <c r="A215" s="3" t="inlineStr"/>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>in-depth interview</t>
+          <t>imaging device</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr"/>
@@ -9029,7 +9053,7 @@
       <c r="A216" s="3" t="inlineStr"/>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>incidence</t>
+          <t>in-depth interview</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr"/>
@@ -9066,7 +9090,7 @@
       <c r="A217" s="3" t="inlineStr"/>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>independent association</t>
+          <t>incidence</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr"/>
@@ -9103,7 +9127,7 @@
       <c r="A218" s="3" t="inlineStr"/>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>indirect association</t>
+          <t>independent association</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr"/>
@@ -9140,7 +9164,7 @@
       <c r="A219" s="3" t="inlineStr"/>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>individual-level</t>
+          <t>indirect association</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr"/>
@@ -9177,7 +9201,7 @@
       <c r="A220" s="3" t="inlineStr"/>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>individual-level gateway</t>
+          <t>individual-level</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr"/>
@@ -9195,7 +9219,7 @@
       <c r="K220" s="3" t="inlineStr"/>
       <c r="L220" s="3" t="inlineStr"/>
       <c r="M220" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N220" s="3" t="n">
         <v>0</v>
@@ -9214,7 +9238,7 @@
       <c r="A221" s="3" t="inlineStr"/>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>individual-level gateway effect</t>
+          <t>individual-level gateway</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr"/>
@@ -9251,7 +9275,7 @@
       <c r="A222" s="3" t="inlineStr"/>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>individually randomised controlled trial</t>
+          <t>individual-level gateway effect</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr"/>
@@ -9288,7 +9312,7 @@
       <c r="A223" s="3" t="inlineStr"/>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>inferential statistics</t>
+          <t>individually randomised controlled trial</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr"/>
@@ -9306,7 +9330,7 @@
       <c r="K223" s="3" t="inlineStr"/>
       <c r="L223" s="3" t="inlineStr"/>
       <c r="M223" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N223" s="3" t="n">
         <v>0</v>
@@ -9325,7 +9349,7 @@
       <c r="A224" s="3" t="inlineStr"/>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>informed consent</t>
+          <t>inferential statistics</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr"/>
@@ -9362,7 +9386,7 @@
       <c r="A225" s="3" t="inlineStr"/>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>initial finding</t>
+          <t>informed consent</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr"/>
@@ -9399,7 +9423,7 @@
       <c r="A226" s="3" t="inlineStr"/>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>instrumental variable analysis</t>
+          <t>initial finding</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr"/>
@@ -9417,7 +9441,7 @@
       <c r="K226" s="3" t="inlineStr"/>
       <c r="L226" s="3" t="inlineStr"/>
       <c r="M226" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N226" s="3" t="n">
         <v>0</v>
@@ -9436,7 +9460,7 @@
       <c r="A227" s="3" t="inlineStr"/>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>insufficient statistical power</t>
+          <t>instrumental variable analysis</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr"/>
@@ -9473,7 +9497,7 @@
       <c r="A228" s="3" t="inlineStr"/>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>intention-to-treat analysis</t>
+          <t>insufficient statistical power</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr"/>
@@ -9510,7 +9534,7 @@
       <c r="A229" s="3" t="inlineStr"/>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>inter-rater reliability of a measure</t>
+          <t>intention-to-treat analysis</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr"/>
@@ -9528,7 +9552,7 @@
       <c r="K229" s="3" t="inlineStr"/>
       <c r="L229" s="3" t="inlineStr"/>
       <c r="M229" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N229" s="3" t="n">
         <v>0</v>
@@ -9547,7 +9571,7 @@
       <c r="A230" s="3" t="inlineStr"/>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>internal reliability of a measure</t>
+          <t>inter-rater reliability of a measure</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr"/>
@@ -9584,7 +9608,7 @@
       <c r="A231" s="3" t="inlineStr"/>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>international Alcohol Policy and Injury Index</t>
+          <t>internal reliability of a measure</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr"/>
@@ -9621,7 +9645,7 @@
       <c r="A232" s="3" t="inlineStr"/>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>international Classification of Diseases</t>
+          <t>international Alcohol Policy and Injury Index</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr"/>
@@ -9635,11 +9659,7 @@
       </c>
       <c r="H232" s="3" t="inlineStr"/>
       <c r="I232" s="3" t="inlineStr"/>
-      <c r="J232" s="3" t="inlineStr">
-        <is>
-          <t>ICD</t>
-        </is>
-      </c>
+      <c r="J232" s="3" t="inlineStr"/>
       <c r="K232" s="3" t="inlineStr"/>
       <c r="L232" s="3" t="inlineStr"/>
       <c r="M232" s="3" t="n">
@@ -9662,7 +9682,7 @@
       <c r="A233" s="3" t="inlineStr"/>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>international Classification of Diseases Version 10</t>
+          <t>international Classification of Diseases</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr"/>
@@ -9678,7 +9698,7 @@
       <c r="I233" s="3" t="inlineStr"/>
       <c r="J233" s="3" t="inlineStr">
         <is>
-          <t>ICD-10</t>
+          <t>ICD</t>
         </is>
       </c>
       <c r="K233" s="3" t="inlineStr"/>
@@ -9703,7 +9723,7 @@
       <c r="A234" s="3" t="inlineStr"/>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>international Classification of Diseases Version 10</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr"/>
@@ -9717,7 +9737,11 @@
       </c>
       <c r="H234" s="3" t="inlineStr"/>
       <c r="I234" s="3" t="inlineStr"/>
-      <c r="J234" s="3" t="inlineStr"/>
+      <c r="J234" s="3" t="inlineStr">
+        <is>
+          <t>ICD-10</t>
+        </is>
+      </c>
       <c r="K234" s="3" t="inlineStr"/>
       <c r="L234" s="3" t="inlineStr"/>
       <c r="M234" s="3" t="n">
@@ -9740,7 +9764,7 @@
       <c r="A235" s="3" t="inlineStr"/>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr"/>
@@ -9777,7 +9801,7 @@
       <c r="A236" s="3" t="inlineStr"/>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>lab-based study</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr"/>
@@ -9795,7 +9819,7 @@
       <c r="K236" s="3" t="inlineStr"/>
       <c r="L236" s="3" t="inlineStr"/>
       <c r="M236" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N236" s="3" t="n">
         <v>0</v>
@@ -9814,7 +9838,7 @@
       <c r="A237" s="3" t="inlineStr"/>
       <c r="B237" s="3" t="inlineStr">
         <is>
-          <t>level of certainty of conclusion</t>
+          <t>lab-based study</t>
         </is>
       </c>
       <c r="C237" s="3" t="inlineStr"/>
@@ -9851,7 +9875,7 @@
       <c r="A238" s="3" t="inlineStr"/>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t>level of uncertainty of conclusion</t>
+          <t>level of certainty of conclusion</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr"/>
@@ -9888,7 +9912,7 @@
       <c r="A239" s="3" t="inlineStr"/>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t>linear association</t>
+          <t>level of uncertainty of conclusion</t>
         </is>
       </c>
       <c r="C239" s="3" t="inlineStr"/>
@@ -9906,7 +9930,7 @@
       <c r="K239" s="3" t="inlineStr"/>
       <c r="L239" s="3" t="inlineStr"/>
       <c r="M239" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N239" s="3" t="n">
         <v>0</v>
@@ -9925,7 +9949,7 @@
       <c r="A240" s="3" t="inlineStr"/>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>linear regression model</t>
+          <t>linear association</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr"/>
@@ -9962,7 +9986,7 @@
       <c r="A241" s="3" t="inlineStr"/>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t>linear time-series regression</t>
+          <t>linear regression model</t>
         </is>
       </c>
       <c r="C241" s="3" t="inlineStr"/>
@@ -9999,7 +10023,7 @@
       <c r="A242" s="3" t="inlineStr"/>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>linkage disequilibrium</t>
+          <t>linear time-series regression</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr"/>
@@ -10033,122 +10057,118 @@
       <c r="S242" s="3" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="A243" s="3" t="inlineStr"/>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t>linkage disequilibrium</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="inlineStr"/>
+      <c r="D243" s="3" t="inlineStr"/>
+      <c r="E243" s="3" t="inlineStr"/>
+      <c r="F243" s="3" t="inlineStr"/>
+      <c r="G243" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H243" s="3" t="inlineStr"/>
+      <c r="I243" s="3" t="inlineStr"/>
+      <c r="J243" s="3" t="inlineStr"/>
+      <c r="K243" s="3" t="inlineStr"/>
+      <c r="L243" s="3" t="inlineStr"/>
+      <c r="M243" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" s="3" t="inlineStr"/>
+      <c r="P243" s="3" t="inlineStr"/>
+      <c r="Q243" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R243" s="3" t="inlineStr"/>
+      <c r="S243" s="3" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>CHMO:0001004</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>liquid chromatography</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>Column chromatography where the mobile phase is a liquid</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr">
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
         <is>
           <t>chromatography</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>0</v>
-      </c>
-      <c r="N243" t="n">
-        <v>0</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr">
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="3" t="inlineStr">
+      <c r="R244" t="inlineStr"/>
+      <c r="S244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000170</t>
         </is>
       </c>
-      <c r="B244" s="3" t="inlineStr">
+      <c r="B245" s="3" t="inlineStr">
         <is>
           <t>literature</t>
         </is>
       </c>
-      <c r="C244" s="3" t="inlineStr">
+      <c r="C245" s="3" t="inlineStr">
         <is>
           <t>The aggregate of written works, including articles, books, book chapters and reports.</t>
         </is>
       </c>
-      <c r="D244" s="3" t="inlineStr"/>
-      <c r="E244" s="3" t="inlineStr">
+      <c r="D245" s="3" t="inlineStr"/>
+      <c r="E245" s="3" t="inlineStr">
         <is>
           <t>material information bearer</t>
         </is>
       </c>
-      <c r="F244" s="3" t="inlineStr">
+      <c r="F245" s="3" t="inlineStr">
         <is>
           <t>Continuant</t>
         </is>
       </c>
-      <c r="G244" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H244" s="3" t="inlineStr"/>
-      <c r="I244" s="3" t="inlineStr"/>
-      <c r="J244" s="3" t="inlineStr"/>
-      <c r="K244" s="3" t="inlineStr"/>
-      <c r="L244" s="3" t="inlineStr"/>
-      <c r="M244" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N244" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O244" s="3" t="inlineStr"/>
-      <c r="P244" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q244" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R244" s="3" t="inlineStr"/>
-      <c r="S244" s="3" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="3" t="inlineStr"/>
-      <c r="B245" s="3" t="inlineStr">
-        <is>
-          <t>logistic regression model</t>
-        </is>
-      </c>
-      <c r="C245" s="3" t="inlineStr"/>
-      <c r="D245" s="3" t="inlineStr"/>
-      <c r="E245" s="3" t="inlineStr"/>
-      <c r="F245" s="3" t="inlineStr"/>
       <c r="G245" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -10166,7 +10186,11 @@
         <v>0</v>
       </c>
       <c r="O245" s="3" t="inlineStr"/>
-      <c r="P245" s="3" t="inlineStr"/>
+      <c r="P245" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q245" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -10179,7 +10203,7 @@
       <c r="A246" s="3" t="inlineStr"/>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>longitudinal latent class analyses</t>
+          <t>logistic regression model</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr"/>
@@ -10216,7 +10240,7 @@
       <c r="A247" s="3" t="inlineStr"/>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>longitudinal study</t>
+          <t>longitudinal latent class analyses</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr"/>
@@ -10253,7 +10277,7 @@
       <c r="A248" s="3" t="inlineStr"/>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>longitudinal study design</t>
+          <t>longitudinal study</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr"/>
@@ -10290,7 +10314,7 @@
       <c r="A249" s="3" t="inlineStr"/>
       <c r="B249" s="3" t="inlineStr">
         <is>
-          <t>longitudinal survey</t>
+          <t>longitudinal study design</t>
         </is>
       </c>
       <c r="C249" s="3" t="inlineStr"/>
@@ -10327,7 +10351,7 @@
       <c r="A250" s="3" t="inlineStr"/>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>loss to follow up reason</t>
+          <t>longitudinal survey</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr"/>
@@ -10364,7 +10388,7 @@
       <c r="A251" s="3" t="inlineStr"/>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>magnetic resonance imaging</t>
+          <t>loss to follow up reason</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr"/>
@@ -10378,11 +10402,7 @@
       </c>
       <c r="H251" s="3" t="inlineStr"/>
       <c r="I251" s="3" t="inlineStr"/>
-      <c r="J251" s="3" t="inlineStr">
-        <is>
-          <t>MRI</t>
-        </is>
-      </c>
+      <c r="J251" s="3" t="inlineStr"/>
       <c r="K251" s="3" t="inlineStr"/>
       <c r="L251" s="3" t="inlineStr"/>
       <c r="M251" s="3" t="n">
@@ -10405,7 +10425,7 @@
       <c r="A252" s="3" t="inlineStr"/>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>marker</t>
+          <t>magnetic resonance imaging</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr"/>
@@ -10419,11 +10439,15 @@
       </c>
       <c r="H252" s="3" t="inlineStr"/>
       <c r="I252" s="3" t="inlineStr"/>
-      <c r="J252" s="3" t="inlineStr"/>
+      <c r="J252" s="3" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
       <c r="K252" s="3" t="inlineStr"/>
       <c r="L252" s="3" t="inlineStr"/>
       <c r="M252" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N252" s="3" t="n">
         <v>0</v>
@@ -10442,7 +10466,7 @@
       <c r="A253" s="3" t="inlineStr"/>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>mathematical model</t>
+          <t>marker</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr"/>
@@ -10479,7 +10503,7 @@
       <c r="A254" s="3" t="inlineStr"/>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>mathematical model</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr"/>
@@ -10497,7 +10521,7 @@
       <c r="K254" s="3" t="inlineStr"/>
       <c r="L254" s="3" t="inlineStr"/>
       <c r="M254" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N254" s="3" t="n">
         <v>0</v>
@@ -10516,7 +10540,7 @@
       <c r="A255" s="3" t="inlineStr"/>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>mean difference</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr"/>
@@ -10550,92 +10574,92 @@
       <c r="S255" s="3" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
+      <c r="A256" s="3" t="inlineStr"/>
+      <c r="B256" s="3" t="inlineStr">
+        <is>
+          <t>mean difference</t>
+        </is>
+      </c>
+      <c r="C256" s="3" t="inlineStr"/>
+      <c r="D256" s="3" t="inlineStr"/>
+      <c r="E256" s="3" t="inlineStr"/>
+      <c r="F256" s="3" t="inlineStr"/>
+      <c r="G256" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H256" s="3" t="inlineStr"/>
+      <c r="I256" s="3" t="inlineStr"/>
+      <c r="J256" s="3" t="inlineStr"/>
+      <c r="K256" s="3" t="inlineStr"/>
+      <c r="L256" s="3" t="inlineStr"/>
+      <c r="M256" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" s="3" t="inlineStr"/>
+      <c r="P256" s="3" t="inlineStr"/>
+      <c r="Q256" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R256" s="3" t="inlineStr"/>
+      <c r="S256" s="3" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
         <is>
           <t>AFP:0000225</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>A process whose purpose is to assign a number to an attribute of an object or event or to classify the object or event according to that attribute.</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr"/>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>0</v>
-      </c>
-      <c r="N256" t="n">
-        <v>0</v>
-      </c>
-      <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr"/>
-      <c r="Q256" t="inlineStr">
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R256" t="inlineStr"/>
-      <c r="S256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="3" t="inlineStr"/>
-      <c r="B257" s="3" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="C257" s="3" t="inlineStr"/>
-      <c r="D257" s="3" t="inlineStr"/>
-      <c r="E257" s="3" t="inlineStr"/>
-      <c r="F257" s="3" t="inlineStr"/>
-      <c r="G257" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H257" s="3" t="inlineStr"/>
-      <c r="I257" s="3" t="inlineStr"/>
-      <c r="J257" s="3" t="inlineStr"/>
-      <c r="K257" s="3" t="inlineStr"/>
-      <c r="L257" s="3" t="inlineStr"/>
-      <c r="M257" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N257" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O257" s="3" t="inlineStr"/>
-      <c r="P257" s="3" t="inlineStr"/>
-      <c r="Q257" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R257" s="3" t="inlineStr"/>
-      <c r="S257" s="3" t="inlineStr"/>
+      <c r="R257" t="inlineStr"/>
+      <c r="S257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr"/>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>mediation analysis</t>
+          <t>median</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr"/>
@@ -10672,7 +10696,7 @@
       <c r="A259" s="3" t="inlineStr"/>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>mediator</t>
+          <t>mediation analysis</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr"/>
@@ -10709,7 +10733,7 @@
       <c r="A260" s="3" t="inlineStr"/>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>melbourne Collaborative Cohort Study</t>
+          <t>mediator</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr"/>
@@ -10746,7 +10770,7 @@
       <c r="A261" s="3" t="inlineStr"/>
       <c r="B261" s="3" t="inlineStr">
         <is>
-          <t>mendelian randomisation analysis</t>
+          <t>melbourne Collaborative Cohort Study</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr"/>
@@ -10783,7 +10807,7 @@
       <c r="A262" s="3" t="inlineStr"/>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t>meta-analysis</t>
+          <t>mendelian randomisation analysis</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr"/>
@@ -10820,7 +10844,7 @@
       <c r="A263" s="3" t="inlineStr"/>
       <c r="B263" s="3" t="inlineStr">
         <is>
-          <t>minimum data set</t>
+          <t>meta-analysis</t>
         </is>
       </c>
       <c r="C263" s="3" t="inlineStr"/>
@@ -10857,7 +10881,7 @@
       <c r="A264" s="3" t="inlineStr"/>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>missing data</t>
+          <t>minimum data set</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr"/>
@@ -10894,7 +10918,7 @@
       <c r="A265" s="3" t="inlineStr"/>
       <c r="B265" s="3" t="inlineStr">
         <is>
-          <t>mixed linear model</t>
+          <t>missing data</t>
         </is>
       </c>
       <c r="C265" s="3" t="inlineStr"/>
@@ -10931,7 +10955,7 @@
       <c r="A266" s="3" t="inlineStr"/>
       <c r="B266" s="3" t="inlineStr">
         <is>
-          <t>mode of action</t>
+          <t>mixed linear model</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr"/>
@@ -10965,88 +10989,88 @@
       <c r="S266" s="3" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
+      <c r="A267" s="3" t="inlineStr"/>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>mode of action</t>
+        </is>
+      </c>
+      <c r="C267" s="3" t="inlineStr"/>
+      <c r="D267" s="3" t="inlineStr"/>
+      <c r="E267" s="3" t="inlineStr"/>
+      <c r="F267" s="3" t="inlineStr"/>
+      <c r="G267" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H267" s="3" t="inlineStr"/>
+      <c r="I267" s="3" t="inlineStr"/>
+      <c r="J267" s="3" t="inlineStr"/>
+      <c r="K267" s="3" t="inlineStr"/>
+      <c r="L267" s="3" t="inlineStr"/>
+      <c r="M267" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" s="3" t="inlineStr"/>
+      <c r="P267" s="3" t="inlineStr"/>
+      <c r="Q267" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R267" s="3" t="inlineStr"/>
+      <c r="S267" s="3" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
         <is>
           <t>OBCS:0000035</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>0</v>
-      </c>
-      <c r="N267" t="n">
-        <v>0</v>
-      </c>
-      <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr"/>
-      <c r="Q267" t="inlineStr">
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R267" t="inlineStr"/>
-      <c r="S267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="3" t="inlineStr"/>
-      <c r="B268" s="3" t="inlineStr">
-        <is>
-          <t>model fit</t>
-        </is>
-      </c>
-      <c r="C268" s="3" t="inlineStr"/>
-      <c r="D268" s="3" t="inlineStr"/>
-      <c r="E268" s="3" t="inlineStr"/>
-      <c r="F268" s="3" t="inlineStr"/>
-      <c r="G268" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H268" s="3" t="inlineStr"/>
-      <c r="I268" s="3" t="inlineStr"/>
-      <c r="J268" s="3" t="inlineStr"/>
-      <c r="K268" s="3" t="inlineStr"/>
-      <c r="L268" s="3" t="inlineStr"/>
-      <c r="M268" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N268" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O268" s="3" t="inlineStr"/>
-      <c r="P268" s="3" t="inlineStr"/>
-      <c r="Q268" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R268" s="3" t="inlineStr"/>
-      <c r="S268" s="3" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="3" t="inlineStr"/>
       <c r="B269" s="3" t="inlineStr">
         <is>
-          <t>model projection</t>
+          <t>model fit</t>
         </is>
       </c>
       <c r="C269" s="3" t="inlineStr"/>
@@ -11083,7 +11107,7 @@
       <c r="A270" s="3" t="inlineStr"/>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t>moderator variable</t>
+          <t>model projection</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr"/>
@@ -11120,7 +11144,7 @@
       <c r="A271" s="3" t="inlineStr"/>
       <c r="B271" s="3" t="inlineStr">
         <is>
-          <t>molecular level</t>
+          <t>moderator variable</t>
         </is>
       </c>
       <c r="C271" s="3" t="inlineStr"/>
@@ -11157,7 +11181,7 @@
       <c r="A272" s="3" t="inlineStr"/>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t>monitoring for research</t>
+          <t>molecular level</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr"/>
@@ -11194,7 +11218,7 @@
       <c r="A273" s="3" t="inlineStr"/>
       <c r="B273" s="3" t="inlineStr">
         <is>
-          <t>multi-centre study</t>
+          <t>monitoring for research</t>
         </is>
       </c>
       <c r="C273" s="3" t="inlineStr"/>
@@ -11231,7 +11255,7 @@
       <c r="A274" s="3" t="inlineStr"/>
       <c r="B274" s="3" t="inlineStr">
         <is>
-          <t>multi-cohort study design</t>
+          <t>multi-centre study</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr"/>
@@ -11268,7 +11292,7 @@
       <c r="A275" s="3" t="inlineStr"/>
       <c r="B275" s="3" t="inlineStr">
         <is>
-          <t>multi-level modelling</t>
+          <t>multi-cohort study design</t>
         </is>
       </c>
       <c r="C275" s="3" t="inlineStr"/>
@@ -11305,7 +11329,7 @@
       <c r="A276" s="3" t="inlineStr"/>
       <c r="B276" s="3" t="inlineStr">
         <is>
-          <t>multi-site sample</t>
+          <t>multi-level modelling</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr"/>
@@ -11342,7 +11366,7 @@
       <c r="A277" s="3" t="inlineStr"/>
       <c r="B277" s="3" t="inlineStr">
         <is>
-          <t>multilevel modeling</t>
+          <t>multi-site sample</t>
         </is>
       </c>
       <c r="C277" s="3" t="inlineStr"/>
@@ -11379,7 +11403,7 @@
       <c r="A278" s="3" t="inlineStr"/>
       <c r="B278" s="3" t="inlineStr">
         <is>
-          <t>multinomial logistic regression</t>
+          <t>multilevel modeling</t>
         </is>
       </c>
       <c r="C278" s="3" t="inlineStr"/>
@@ -11416,7 +11440,7 @@
       <c r="A279" s="3" t="inlineStr"/>
       <c r="B279" s="3" t="inlineStr">
         <is>
-          <t>multivariate model</t>
+          <t>multinomial logistic regression</t>
         </is>
       </c>
       <c r="C279" s="3" t="inlineStr"/>
@@ -11453,7 +11477,7 @@
       <c r="A280" s="3" t="inlineStr"/>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t>n-of-1 study</t>
+          <t>multivariate model</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr"/>
@@ -11490,7 +11514,7 @@
       <c r="A281" s="3" t="inlineStr"/>
       <c r="B281" s="3" t="inlineStr">
         <is>
-          <t>nVivo</t>
+          <t>n-of-1 study</t>
         </is>
       </c>
       <c r="C281" s="3" t="inlineStr"/>
@@ -11527,7 +11551,7 @@
       <c r="A282" s="3" t="inlineStr"/>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>national small-area level ecological study</t>
+          <t>nVivo</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr"/>
@@ -11564,7 +11588,7 @@
       <c r="A283" s="3" t="inlineStr"/>
       <c r="B283" s="3" t="inlineStr">
         <is>
-          <t>nationally representative sample</t>
+          <t>national small-area level ecological study</t>
         </is>
       </c>
       <c r="C283" s="3" t="inlineStr"/>
@@ -11582,7 +11606,7 @@
       <c r="K283" s="3" t="inlineStr"/>
       <c r="L283" s="3" t="inlineStr"/>
       <c r="M283" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N283" s="3" t="n">
         <v>0</v>
@@ -11601,7 +11625,7 @@
       <c r="A284" s="3" t="inlineStr"/>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t>natural experiment</t>
+          <t>nationally representative sample</t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr"/>
@@ -11619,7 +11643,7 @@
       <c r="K284" s="3" t="inlineStr"/>
       <c r="L284" s="3" t="inlineStr"/>
       <c r="M284" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N284" s="3" t="n">
         <v>0</v>
@@ -11638,7 +11662,7 @@
       <c r="A285" s="3" t="inlineStr"/>
       <c r="B285" s="3" t="inlineStr">
         <is>
-          <t>naturalistic observation</t>
+          <t>natural experiment</t>
         </is>
       </c>
       <c r="C285" s="3" t="inlineStr"/>
@@ -11675,7 +11699,7 @@
       <c r="A286" s="3" t="inlineStr"/>
       <c r="B286" s="3" t="inlineStr">
         <is>
-          <t>naturalistic setting</t>
+          <t>naturalistic observation</t>
         </is>
       </c>
       <c r="C286" s="3" t="inlineStr"/>
@@ -11712,7 +11736,7 @@
       <c r="A287" s="3" t="inlineStr"/>
       <c r="B287" s="3" t="inlineStr">
         <is>
-          <t>negative association</t>
+          <t>naturalistic setting</t>
         </is>
       </c>
       <c r="C287" s="3" t="inlineStr"/>
@@ -11749,7 +11773,7 @@
       <c r="A288" s="3" t="inlineStr"/>
       <c r="B288" s="3" t="inlineStr">
         <is>
-          <t>negative urine toxicology screen</t>
+          <t>negative association</t>
         </is>
       </c>
       <c r="C288" s="3" t="inlineStr"/>
@@ -11786,7 +11810,7 @@
       <c r="A289" s="3" t="inlineStr"/>
       <c r="B289" s="3" t="inlineStr">
         <is>
-          <t>non-inferiority trial</t>
+          <t>negative urine toxicology screen</t>
         </is>
       </c>
       <c r="C289" s="3" t="inlineStr"/>
@@ -11823,7 +11847,7 @@
       <c r="A290" s="3" t="inlineStr"/>
       <c r="B290" s="3" t="inlineStr">
         <is>
-          <t>non-invasive biomagnetic technique</t>
+          <t>non-inferiority trial</t>
         </is>
       </c>
       <c r="C290" s="3" t="inlineStr"/>
@@ -11860,7 +11884,7 @@
       <c r="A291" s="3" t="inlineStr"/>
       <c r="B291" s="3" t="inlineStr">
         <is>
-          <t>non-linear association</t>
+          <t>non-invasive biomagnetic technique</t>
         </is>
       </c>
       <c r="C291" s="3" t="inlineStr"/>
@@ -11897,7 +11921,7 @@
       <c r="A292" s="3" t="inlineStr"/>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t>non-response to follow up</t>
+          <t>non-linear association</t>
         </is>
       </c>
       <c r="C292" s="3" t="inlineStr"/>
@@ -11934,7 +11958,7 @@
       <c r="A293" s="3" t="inlineStr"/>
       <c r="B293" s="3" t="inlineStr">
         <is>
-          <t>non-significant</t>
+          <t>non-response to follow up</t>
         </is>
       </c>
       <c r="C293" s="3" t="inlineStr"/>
@@ -11971,7 +11995,7 @@
       <c r="A294" s="3" t="inlineStr"/>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t>non-significant association</t>
+          <t>non-significant</t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr"/>
@@ -12008,7 +12032,7 @@
       <c r="A295" s="3" t="inlineStr"/>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t>objective measure</t>
+          <t>non-significant association</t>
         </is>
       </c>
       <c r="C295" s="3" t="inlineStr"/>
@@ -12026,7 +12050,7 @@
       <c r="K295" s="3" t="inlineStr"/>
       <c r="L295" s="3" t="inlineStr"/>
       <c r="M295" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N295" s="3" t="n">
         <v>0</v>
@@ -12045,7 +12069,7 @@
       <c r="A296" s="3" t="inlineStr"/>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t>objective verification</t>
+          <t>objective measure</t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr"/>
@@ -12082,7 +12106,7 @@
       <c r="A297" s="3" t="inlineStr"/>
       <c r="B297" s="3" t="inlineStr">
         <is>
-          <t>observation</t>
+          <t>objective verification</t>
         </is>
       </c>
       <c r="C297" s="3" t="inlineStr"/>
@@ -12100,7 +12124,7 @@
       <c r="K297" s="3" t="inlineStr"/>
       <c r="L297" s="3" t="inlineStr"/>
       <c r="M297" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N297" s="3" t="n">
         <v>0</v>
@@ -12119,7 +12143,7 @@
       <c r="A298" s="3" t="inlineStr"/>
       <c r="B298" s="3" t="inlineStr">
         <is>
-          <t>observation of injecting practices</t>
+          <t>observation</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr"/>
@@ -12156,7 +12180,7 @@
       <c r="A299" s="3" t="inlineStr"/>
       <c r="B299" s="3" t="inlineStr">
         <is>
-          <t>observational study</t>
+          <t>observation of injecting practices</t>
         </is>
       </c>
       <c r="C299" s="3" t="inlineStr"/>
@@ -12193,7 +12217,7 @@
       <c r="A300" s="3" t="inlineStr"/>
       <c r="B300" s="3" t="inlineStr">
         <is>
-          <t>observed association</t>
+          <t>observational study</t>
         </is>
       </c>
       <c r="C300" s="3" t="inlineStr"/>
@@ -12230,7 +12254,7 @@
       <c r="A301" s="3" t="inlineStr"/>
       <c r="B301" s="3" t="inlineStr">
         <is>
-          <t>odds</t>
+          <t>observed association</t>
         </is>
       </c>
       <c r="C301" s="3" t="inlineStr"/>
@@ -12267,7 +12291,7 @@
       <c r="A302" s="3" t="inlineStr"/>
       <c r="B302" s="3" t="inlineStr">
         <is>
-          <t>odds ratio</t>
+          <t>odds</t>
         </is>
       </c>
       <c r="C302" s="3" t="inlineStr"/>
@@ -12304,7 +12328,7 @@
       <c r="A303" s="3" t="inlineStr"/>
       <c r="B303" s="3" t="inlineStr">
         <is>
-          <t>omnibus model</t>
+          <t>odds ratio</t>
         </is>
       </c>
       <c r="C303" s="3" t="inlineStr"/>
@@ -12341,7 +12365,7 @@
       <c r="A304" s="3" t="inlineStr"/>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t>one-year post-treatment</t>
+          <t>omnibus model</t>
         </is>
       </c>
       <c r="C304" s="3" t="inlineStr"/>
@@ -12378,7 +12402,7 @@
       <c r="A305" s="3" t="inlineStr"/>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t>opportunistic sample</t>
+          <t>one-year post-treatment</t>
         </is>
       </c>
       <c r="C305" s="3" t="inlineStr"/>
@@ -12415,14 +12439,10 @@
       <c r="A306" s="3" t="inlineStr"/>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>outcome measure</t>
-        </is>
-      </c>
-      <c r="C306" s="3" t="inlineStr">
-        <is>
-          <t>A measure that is being used in a research study to assess a designated outcome of a process, including an intervention.</t>
-        </is>
-      </c>
+          <t>opportunistic sample</t>
+        </is>
+      </c>
+      <c r="C306" s="3" t="inlineStr"/>
       <c r="D306" s="3" t="inlineStr"/>
       <c r="E306" s="3" t="inlineStr"/>
       <c r="F306" s="3" t="inlineStr"/>
@@ -12433,15 +12453,11 @@
       </c>
       <c r="H306" s="3" t="inlineStr"/>
       <c r="I306" s="3" t="inlineStr"/>
-      <c r="J306" s="3" t="inlineStr">
-        <is>
-          <t>Measure</t>
-        </is>
-      </c>
+      <c r="J306" s="3" t="inlineStr"/>
       <c r="K306" s="3" t="inlineStr"/>
       <c r="L306" s="3" t="inlineStr"/>
       <c r="M306" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N306" s="3" t="n">
         <v>0</v>
@@ -12460,10 +12476,14 @@
       <c r="A307" s="3" t="inlineStr"/>
       <c r="B307" s="3" t="inlineStr">
         <is>
-          <t>p value</t>
-        </is>
-      </c>
-      <c r="C307" s="3" t="inlineStr"/>
+          <t>outcome measure</t>
+        </is>
+      </c>
+      <c r="C307" s="3" t="inlineStr">
+        <is>
+          <t>A measure that is being used in a research study to assess a designated outcome of a process, including an intervention.</t>
+        </is>
+      </c>
       <c r="D307" s="3" t="inlineStr"/>
       <c r="E307" s="3" t="inlineStr"/>
       <c r="F307" s="3" t="inlineStr"/>
@@ -12474,11 +12494,15 @@
       </c>
       <c r="H307" s="3" t="inlineStr"/>
       <c r="I307" s="3" t="inlineStr"/>
-      <c r="J307" s="3" t="inlineStr"/>
+      <c r="J307" s="3" t="inlineStr">
+        <is>
+          <t>Measure</t>
+        </is>
+      </c>
       <c r="K307" s="3" t="inlineStr"/>
       <c r="L307" s="3" t="inlineStr"/>
       <c r="M307" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N307" s="3" t="n">
         <v>0</v>
@@ -12497,7 +12521,7 @@
       <c r="A308" s="3" t="inlineStr"/>
       <c r="B308" s="3" t="inlineStr">
         <is>
-          <t>parallel-group study desigh</t>
+          <t>p value</t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr"/>
@@ -12534,7 +12558,7 @@
       <c r="A309" s="3" t="inlineStr"/>
       <c r="B309" s="3" t="inlineStr">
         <is>
-          <t>participant</t>
+          <t>parallel-group study desigh</t>
         </is>
       </c>
       <c r="C309" s="3" t="inlineStr"/>
@@ -12571,7 +12595,7 @@
       <c r="A310" s="3" t="inlineStr"/>
       <c r="B310" s="3" t="inlineStr">
         <is>
-          <t>participant level data</t>
+          <t>participant</t>
         </is>
       </c>
       <c r="C310" s="3" t="inlineStr"/>
@@ -12608,7 +12632,7 @@
       <c r="A311" s="3" t="inlineStr"/>
       <c r="B311" s="3" t="inlineStr">
         <is>
-          <t>path analysis</t>
+          <t>participant level data</t>
         </is>
       </c>
       <c r="C311" s="3" t="inlineStr"/>
@@ -12645,7 +12669,7 @@
       <c r="A312" s="3" t="inlineStr"/>
       <c r="B312" s="3" t="inlineStr">
         <is>
-          <t>per protocol</t>
+          <t>path analysis</t>
         </is>
       </c>
       <c r="C312" s="3" t="inlineStr"/>
@@ -12682,7 +12706,7 @@
       <c r="A313" s="3" t="inlineStr"/>
       <c r="B313" s="3" t="inlineStr">
         <is>
-          <t>percentage point change</t>
+          <t>per protocol</t>
         </is>
       </c>
       <c r="C313" s="3" t="inlineStr"/>
@@ -12716,54 +12740,26 @@
       <c r="S313" s="3" t="inlineStr"/>
     </row>
     <row r="314">
-      <c r="A314" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000179</t>
-        </is>
-      </c>
+      <c r="A314" s="3" t="inlineStr"/>
       <c r="B314" s="3" t="inlineStr">
         <is>
-          <t>personal stake</t>
-        </is>
-      </c>
-      <c r="C314" s="3" t="inlineStr">
-        <is>
-          <t>A personal attribute that involves an outcome of value to that person arising from a process.</t>
-        </is>
-      </c>
+          <t>percentage point change</t>
+        </is>
+      </c>
+      <c r="C314" s="3" t="inlineStr"/>
       <c r="D314" s="3" t="inlineStr"/>
-      <c r="E314" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="F314" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="E314" s="3" t="inlineStr"/>
+      <c r="F314" s="3" t="inlineStr"/>
       <c r="G314" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H314" s="3" t="inlineStr">
-        <is>
-          <t>This is derived from the idea of a stakeholder and is a generalisation of vested interest.</t>
-        </is>
-      </c>
+      <c r="H314" s="3" t="inlineStr"/>
       <c r="I314" s="3" t="inlineStr"/>
       <c r="J314" s="3" t="inlineStr"/>
-      <c r="K314" s="3" t="inlineStr">
-        <is>
-          <t>Value here can be positive or negative. This definition refers to actual value rather than perceived value. The process that produces the outcome will often be an event such as reporting of the outcome of a clinical trial, or delivery of a verdict in a trial, or enactment of legislation.</t>
-        </is>
-      </c>
-      <c r="L314" s="3" t="inlineStr">
-        <is>
-          <t>Dr Smith has a personal stake in the outcome of the clinical trial of the drug, varenicline, because he has shares in the company that produces the drug.</t>
-        </is>
-      </c>
+      <c r="K314" s="3" t="inlineStr"/>
+      <c r="L314" s="3" t="inlineStr"/>
       <c r="M314" s="3" t="n">
         <v>0</v>
       </c>
@@ -12781,26 +12777,54 @@
       <c r="S314" s="3" t="inlineStr"/>
     </row>
     <row r="315">
-      <c r="A315" s="3" t="inlineStr"/>
+      <c r="A315" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000179</t>
+        </is>
+      </c>
       <c r="B315" s="3" t="inlineStr">
         <is>
-          <t>pharmacologist</t>
-        </is>
-      </c>
-      <c r="C315" s="3" t="inlineStr"/>
+          <t>personal stake</t>
+        </is>
+      </c>
+      <c r="C315" s="3" t="inlineStr">
+        <is>
+          <t>A personal attribute that involves an outcome of value to that person arising from a process.</t>
+        </is>
+      </c>
       <c r="D315" s="3" t="inlineStr"/>
-      <c r="E315" s="3" t="inlineStr"/>
-      <c r="F315" s="3" t="inlineStr"/>
+      <c r="E315" s="3" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F315" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H315" s="3" t="inlineStr"/>
+      <c r="H315" s="3" t="inlineStr">
+        <is>
+          <t>This is derived from the idea of a stakeholder and is a generalisation of vested interest.</t>
+        </is>
+      </c>
       <c r="I315" s="3" t="inlineStr"/>
       <c r="J315" s="3" t="inlineStr"/>
-      <c r="K315" s="3" t="inlineStr"/>
-      <c r="L315" s="3" t="inlineStr"/>
+      <c r="K315" s="3" t="inlineStr">
+        <is>
+          <t>Value here can be positive or negative. This definition refers to actual value rather than perceived value. The process that produces the outcome will often be an event such as reporting of the outcome of a clinical trial, or delivery of a verdict in a trial, or enactment of legislation.</t>
+        </is>
+      </c>
+      <c r="L315" s="3" t="inlineStr">
+        <is>
+          <t>Dr Smith has a personal stake in the outcome of the clinical trial of the drug, varenicline, because he has shares in the company that produces the drug.</t>
+        </is>
+      </c>
       <c r="M315" s="3" t="n">
         <v>0</v>
       </c>
@@ -12821,91 +12845,55 @@
       <c r="A316" s="3" t="inlineStr"/>
       <c r="B316" s="3" t="inlineStr">
         <is>
-          <t>pilot randomised controlled trial</t>
-        </is>
-      </c>
-      <c r="C316" s="3" t="inlineStr">
-        <is>
-          <t>A pilot trial for a full-scale randomised controlled trial</t>
-        </is>
-      </c>
+          <t>pharmacologist</t>
+        </is>
+      </c>
+      <c r="C316" s="3" t="inlineStr"/>
       <c r="D316" s="3" t="inlineStr"/>
-      <c r="E316" s="3" t="inlineStr">
-        <is>
-          <t>pilot trial</t>
-        </is>
-      </c>
-      <c r="F316" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="E316" s="3" t="inlineStr"/>
+      <c r="F316" s="3" t="inlineStr"/>
       <c r="G316" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H316" s="3" t="inlineStr">
-        <is>
-          <t>The semantics of this definition are carried by the use of the parent class and the fact that a pilot study is a smaller version of a full-scale study and the full-scale study is an RCT.</t>
-        </is>
-      </c>
+      <c r="H316" s="3" t="inlineStr"/>
       <c r="I316" s="3" t="inlineStr"/>
-      <c r="J316" s="3" t="inlineStr">
-        <is>
-          <t>pilot RCT</t>
-        </is>
-      </c>
-      <c r="K316" s="3" t="inlineStr">
-        <is>
-          <t>This entity is intended to provide users with an opportunity to be specific about the nature of the study in that it follows the procedures of an RCT where pilot trials include, for example, single arm trials.</t>
-        </is>
-      </c>
+      <c r="J316" s="3" t="inlineStr"/>
+      <c r="K316" s="3" t="inlineStr"/>
       <c r="L316" s="3" t="inlineStr"/>
-      <c r="M316" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N316" s="3" t="b">
+      <c r="M316" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O316" s="3" t="inlineStr"/>
-      <c r="P316" s="3" t="inlineStr">
-        <is>
-          <t>RW; KS</t>
-        </is>
-      </c>
+      <c r="P316" s="3" t="inlineStr"/>
       <c r="Q316" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R316" s="3" t="inlineStr">
-        <is>
-          <t>SC;JH;CN</t>
-        </is>
-      </c>
+      <c r="R316" s="3" t="inlineStr"/>
       <c r="S316" s="3" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="3" t="inlineStr"/>
       <c r="B317" s="3" t="inlineStr">
         <is>
-          <t>pilot study</t>
+          <t>pilot randomised controlled trial</t>
         </is>
       </c>
       <c r="C317" s="3" t="inlineStr">
         <is>
-          <t>A feasibility study that is a small-scale version of the full-scale study whose feasibility is being assessed.</t>
-        </is>
-      </c>
-      <c r="D317" s="3" t="inlineStr">
-        <is>
-          <t>https://pilotandfeasibilitystudies.qmul.ac.uk/introduction/#:~:text=A feasibility study asks whether,conducted on a smaller scale</t>
-        </is>
-      </c>
+          <t>A pilot trial for a full-scale randomised controlled trial</t>
+        </is>
+      </c>
+      <c r="D317" s="3" t="inlineStr"/>
       <c r="E317" s="3" t="inlineStr">
         <is>
-          <t>feasibility study</t>
+          <t>pilot trial</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
@@ -12920,17 +12908,25 @@
       </c>
       <c r="H317" s="3" t="inlineStr">
         <is>
-          <t>The aim of this definition is to make a useful and clear distinction from feasibility studies. It uses the definition set out by Eldridge and colleagues (see Source).</t>
+          <t>The semantics of this definition are carried by the use of the parent class and the fact that a pilot study is a smaller version of a full-scale study and the full-scale study is an RCT.</t>
         </is>
       </c>
       <c r="I317" s="3" t="inlineStr"/>
-      <c r="J317" s="3" t="inlineStr"/>
-      <c r="K317" s="3" t="inlineStr"/>
+      <c r="J317" s="3" t="inlineStr">
+        <is>
+          <t>pilot RCT</t>
+        </is>
+      </c>
+      <c r="K317" s="3" t="inlineStr">
+        <is>
+          <t>This entity is intended to provide users with an opportunity to be specific about the nature of the study in that it follows the procedures of an RCT where pilot trials include, for example, single arm trials.</t>
+        </is>
+      </c>
       <c r="L317" s="3" t="inlineStr"/>
       <c r="M317" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="N317" s="3" t="n">
+      <c r="N317" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O317" s="3" t="inlineStr"/>
@@ -12955,18 +12951,22 @@
       <c r="A318" s="3" t="inlineStr"/>
       <c r="B318" s="3" t="inlineStr">
         <is>
-          <t>pilot trial</t>
+          <t>pilot study</t>
         </is>
       </c>
       <c r="C318" s="3" t="inlineStr">
         <is>
-          <t>A pilot study in which the full-scale study would be an evaluation of an intervention.</t>
-        </is>
-      </c>
-      <c r="D318" s="3" t="inlineStr"/>
+          <t>A feasibility study that is a small-scale version of the full-scale study whose feasibility is being assessed.</t>
+        </is>
+      </c>
+      <c r="D318" s="3" t="inlineStr">
+        <is>
+          <t>https://pilotandfeasibilitystudies.qmul.ac.uk/introduction/#:~:text=A feasibility study asks whether,conducted on a smaller scale</t>
+        </is>
+      </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>pilot study</t>
+          <t>feasibility study</t>
         </is>
       </c>
       <c r="F318" s="3" t="inlineStr">
@@ -12981,21 +12981,17 @@
       </c>
       <c r="H318" s="3" t="inlineStr">
         <is>
-          <t>The aim is to make a clear distinction from both pilot study and feasibility trial.</t>
+          <t>The aim of this definition is to make a useful and clear distinction from feasibility studies. It uses the definition set out by Eldridge and colleagues (see Source).</t>
         </is>
       </c>
       <c r="I318" s="3" t="inlineStr"/>
       <c r="J318" s="3" t="inlineStr"/>
-      <c r="K318" s="3" t="inlineStr">
-        <is>
-          <t>PIlot trials need not be controlled trials. They include single arm trials.</t>
-        </is>
-      </c>
+      <c r="K318" s="3" t="inlineStr"/>
       <c r="L318" s="3" t="inlineStr"/>
       <c r="M318" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="N318" s="3" t="b">
+      <c r="N318" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O318" s="3" t="inlineStr"/>
@@ -13020,44 +13016,72 @@
       <c r="A319" s="3" t="inlineStr"/>
       <c r="B319" s="3" t="inlineStr">
         <is>
-          <t>placebo-controlled trial</t>
-        </is>
-      </c>
-      <c r="C319" s="3" t="inlineStr"/>
+          <t>pilot trial</t>
+        </is>
+      </c>
+      <c r="C319" s="3" t="inlineStr">
+        <is>
+          <t>A pilot study in which the full-scale study would be an evaluation of an intervention.</t>
+        </is>
+      </c>
       <c r="D319" s="3" t="inlineStr"/>
-      <c r="E319" s="3" t="inlineStr"/>
-      <c r="F319" s="3" t="inlineStr"/>
+      <c r="E319" s="3" t="inlineStr">
+        <is>
+          <t>pilot study</t>
+        </is>
+      </c>
+      <c r="F319" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H319" s="3" t="inlineStr"/>
+      <c r="H319" s="3" t="inlineStr">
+        <is>
+          <t>The aim is to make a clear distinction from both pilot study and feasibility trial.</t>
+        </is>
+      </c>
       <c r="I319" s="3" t="inlineStr"/>
       <c r="J319" s="3" t="inlineStr"/>
-      <c r="K319" s="3" t="inlineStr"/>
+      <c r="K319" s="3" t="inlineStr">
+        <is>
+          <t>PIlot trials need not be controlled trials. They include single arm trials.</t>
+        </is>
+      </c>
       <c r="L319" s="3" t="inlineStr"/>
-      <c r="M319" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N319" s="3" t="n">
+      <c r="M319" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N319" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O319" s="3" t="inlineStr"/>
-      <c r="P319" s="3" t="inlineStr"/>
+      <c r="P319" s="3" t="inlineStr">
+        <is>
+          <t>RW; KS</t>
+        </is>
+      </c>
       <c r="Q319" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R319" s="3" t="inlineStr"/>
+      <c r="R319" s="3" t="inlineStr">
+        <is>
+          <t>SC;JH;CN</t>
+        </is>
+      </c>
       <c r="S319" s="3" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="3" t="inlineStr"/>
       <c r="B320" s="3" t="inlineStr">
         <is>
-          <t>plausible effect size</t>
+          <t>placebo-controlled trial</t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr"/>
@@ -13094,7 +13118,7 @@
       <c r="A321" s="3" t="inlineStr"/>
       <c r="B321" s="3" t="inlineStr">
         <is>
-          <t>poison center</t>
+          <t>plausible effect size</t>
         </is>
       </c>
       <c r="C321" s="3" t="inlineStr"/>
@@ -13131,7 +13155,7 @@
       <c r="A322" s="3" t="inlineStr"/>
       <c r="B322" s="3" t="inlineStr">
         <is>
-          <t>poisson regression</t>
+          <t>poison center</t>
         </is>
       </c>
       <c r="C322" s="3" t="inlineStr"/>
@@ -13168,7 +13192,7 @@
       <c r="A323" s="3" t="inlineStr"/>
       <c r="B323" s="3" t="inlineStr">
         <is>
-          <t>pooled data</t>
+          <t>poisson regression</t>
         </is>
       </c>
       <c r="C323" s="3" t="inlineStr"/>
@@ -13205,16 +13229,12 @@
       <c r="A324" s="3" t="inlineStr"/>
       <c r="B324" s="3" t="inlineStr">
         <is>
-          <t>population-based cohort study design</t>
+          <t>pooled data</t>
         </is>
       </c>
       <c r="C324" s="3" t="inlineStr"/>
       <c r="D324" s="3" t="inlineStr"/>
-      <c r="E324" s="3" t="inlineStr">
-        <is>
-          <t>research study design</t>
-        </is>
-      </c>
+      <c r="E324" s="3" t="inlineStr"/>
       <c r="F324" s="3" t="inlineStr"/>
       <c r="G324" s="3" t="inlineStr">
         <is>
@@ -13246,12 +13266,16 @@
       <c r="A325" s="3" t="inlineStr"/>
       <c r="B325" s="3" t="inlineStr">
         <is>
-          <t>population-based twin samples</t>
+          <t>population-based cohort study design</t>
         </is>
       </c>
       <c r="C325" s="3" t="inlineStr"/>
       <c r="D325" s="3" t="inlineStr"/>
-      <c r="E325" s="3" t="inlineStr"/>
+      <c r="E325" s="3" t="inlineStr">
+        <is>
+          <t>research study design</t>
+        </is>
+      </c>
       <c r="F325" s="3" t="inlineStr"/>
       <c r="G325" s="3" t="inlineStr">
         <is>
@@ -13283,7 +13307,7 @@
       <c r="A326" s="3" t="inlineStr"/>
       <c r="B326" s="3" t="inlineStr">
         <is>
-          <t>positive association</t>
+          <t>population-based twin samples</t>
         </is>
       </c>
       <c r="C326" s="3" t="inlineStr"/>
@@ -13320,7 +13344,7 @@
       <c r="A327" s="3" t="inlineStr"/>
       <c r="B327" s="3" t="inlineStr">
         <is>
-          <t>positively associated</t>
+          <t>positive association</t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr"/>
@@ -13357,7 +13381,7 @@
       <c r="A328" s="3" t="inlineStr"/>
       <c r="B328" s="3" t="inlineStr">
         <is>
-          <t>positron Emission Tomography scan</t>
+          <t>positively associated</t>
         </is>
       </c>
       <c r="C328" s="3" t="inlineStr"/>
@@ -13371,11 +13395,7 @@
       </c>
       <c r="H328" s="3" t="inlineStr"/>
       <c r="I328" s="3" t="inlineStr"/>
-      <c r="J328" s="3" t="inlineStr">
-        <is>
-          <t>PET scan</t>
-        </is>
-      </c>
+      <c r="J328" s="3" t="inlineStr"/>
       <c r="K328" s="3" t="inlineStr"/>
       <c r="L328" s="3" t="inlineStr"/>
       <c r="M328" s="3" t="n">
@@ -13395,49 +13415,29 @@
       <c r="S328" s="3" t="inlineStr"/>
     </row>
     <row r="329">
-      <c r="A329" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000176</t>
-        </is>
-      </c>
+      <c r="A329" s="3" t="inlineStr"/>
       <c r="B329" s="3" t="inlineStr">
         <is>
-          <t>potential competing interest</t>
-        </is>
-      </c>
-      <c r="C329" s="3" t="inlineStr">
-        <is>
-          <t>An attribute of a person that could be a competing interest.</t>
-        </is>
-      </c>
+          <t>positron Emission Tomography scan</t>
+        </is>
+      </c>
+      <c r="C329" s="3" t="inlineStr"/>
       <c r="D329" s="3" t="inlineStr"/>
-      <c r="E329" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="F329" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="E329" s="3" t="inlineStr"/>
+      <c r="F329" s="3" t="inlineStr"/>
       <c r="G329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Research activity </t>
-        </is>
-      </c>
-      <c r="H329" s="3" t="inlineStr">
-        <is>
-          <t>The definition was adapted from the PLOS definition.</t>
-        </is>
-      </c>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H329" s="3" t="inlineStr"/>
       <c r="I329" s="3" t="inlineStr"/>
-      <c r="J329" s="3" t="inlineStr"/>
-      <c r="K329" s="3" t="inlineStr">
-        <is>
-          <t>They should be fully disclosed by people in any research, clinical, professional or policy-making role to enable stakeholders to make an informed judgement about the potential for bias. They include: 1) financial potential competing interests, as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the conduct of the professional role.</t>
-        </is>
-      </c>
+      <c r="J329" s="3" t="inlineStr">
+        <is>
+          <t>PET scan</t>
+        </is>
+      </c>
+      <c r="K329" s="3" t="inlineStr"/>
       <c r="L329" s="3" t="inlineStr"/>
       <c r="M329" s="3" t="n">
         <v>0</v>
@@ -13456,25 +13456,49 @@
       <c r="S329" s="3" t="inlineStr"/>
     </row>
     <row r="330">
-      <c r="A330" s="3" t="inlineStr"/>
+      <c r="A330" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000176</t>
+        </is>
+      </c>
       <c r="B330" s="3" t="inlineStr">
         <is>
-          <t>potential mediator</t>
-        </is>
-      </c>
-      <c r="C330" s="3" t="inlineStr"/>
+          <t>potential competing interest</t>
+        </is>
+      </c>
+      <c r="C330" s="3" t="inlineStr">
+        <is>
+          <t>An attribute of a person that could be a competing interest.</t>
+        </is>
+      </c>
       <c r="D330" s="3" t="inlineStr"/>
-      <c r="E330" s="3" t="inlineStr"/>
-      <c r="F330" s="3" t="inlineStr"/>
+      <c r="E330" s="3" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F330" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H330" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Research activity </t>
+        </is>
+      </c>
+      <c r="H330" s="3" t="inlineStr">
+        <is>
+          <t>The definition was adapted from the PLOS definition.</t>
+        </is>
+      </c>
       <c r="I330" s="3" t="inlineStr"/>
       <c r="J330" s="3" t="inlineStr"/>
-      <c r="K330" s="3" t="inlineStr"/>
+      <c r="K330" s="3" t="inlineStr">
+        <is>
+          <t>They should be fully disclosed by people in any research, clinical, professional or policy-making role to enable stakeholders to make an informed judgement about the potential for bias. They include: 1) financial potential competing interests, as well as 2) potentially being personally affected by, 3) having close friends, colleagues or relations who may be affected by, 4) having strong values relating to, 5) acting as an advisor to an organisation that may be affected by, and 6) being a member of a lobby group or pressure group relating to, the conduct of the professional role.</t>
+        </is>
+      </c>
       <c r="L330" s="3" t="inlineStr"/>
       <c r="M330" s="3" t="n">
         <v>0</v>
@@ -13496,7 +13520,7 @@
       <c r="A331" s="3" t="inlineStr"/>
       <c r="B331" s="3" t="inlineStr">
         <is>
-          <t>pragmatic randomised trial</t>
+          <t>potential mediator</t>
         </is>
       </c>
       <c r="C331" s="3" t="inlineStr"/>
@@ -13533,7 +13557,7 @@
       <c r="A332" s="3" t="inlineStr"/>
       <c r="B332" s="3" t="inlineStr">
         <is>
-          <t>pre-registered data analysis</t>
+          <t>pragmatic randomised trial</t>
         </is>
       </c>
       <c r="C332" s="3" t="inlineStr"/>
@@ -13570,7 +13594,7 @@
       <c r="A333" s="3" t="inlineStr"/>
       <c r="B333" s="3" t="inlineStr">
         <is>
-          <t>pre-registered study</t>
+          <t>pre-registered data analysis</t>
         </is>
       </c>
       <c r="C333" s="3" t="inlineStr"/>
@@ -13607,7 +13631,7 @@
       <c r="A334" s="3" t="inlineStr"/>
       <c r="B334" s="3" t="inlineStr">
         <is>
-          <t>pre-specified analysis</t>
+          <t>pre-registered study</t>
         </is>
       </c>
       <c r="C334" s="3" t="inlineStr"/>
@@ -13644,7 +13668,7 @@
       <c r="A335" s="3" t="inlineStr"/>
       <c r="B335" s="3" t="inlineStr">
         <is>
-          <t>preclinical research</t>
+          <t>pre-specified analysis</t>
         </is>
       </c>
       <c r="C335" s="3" t="inlineStr"/>
@@ -13681,7 +13705,7 @@
       <c r="A336" s="3" t="inlineStr"/>
       <c r="B336" s="3" t="inlineStr">
         <is>
-          <t>preclinical substance use research</t>
+          <t>preclinical research</t>
         </is>
       </c>
       <c r="C336" s="3" t="inlineStr"/>
@@ -13718,7 +13742,7 @@
       <c r="A337" s="3" t="inlineStr"/>
       <c r="B337" s="3" t="inlineStr">
         <is>
-          <t>predictive validity</t>
+          <t>preclinical substance use research</t>
         </is>
       </c>
       <c r="C337" s="3" t="inlineStr"/>
@@ -13736,7 +13760,7 @@
       <c r="K337" s="3" t="inlineStr"/>
       <c r="L337" s="3" t="inlineStr"/>
       <c r="M337" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N337" s="3" t="n">
         <v>0</v>
@@ -13755,7 +13779,7 @@
       <c r="A338" s="3" t="inlineStr"/>
       <c r="B338" s="3" t="inlineStr">
         <is>
-          <t>predictive validity of a measure</t>
+          <t>predictive validity</t>
         </is>
       </c>
       <c r="C338" s="3" t="inlineStr"/>
@@ -13773,7 +13797,7 @@
       <c r="K338" s="3" t="inlineStr"/>
       <c r="L338" s="3" t="inlineStr"/>
       <c r="M338" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N338" s="3" t="n">
         <v>0</v>
@@ -13792,7 +13816,7 @@
       <c r="A339" s="3" t="inlineStr"/>
       <c r="B339" s="3" t="inlineStr">
         <is>
-          <t>predictive variables</t>
+          <t>predictive validity of a measure</t>
         </is>
       </c>
       <c r="C339" s="3" t="inlineStr"/>
@@ -13829,7 +13853,7 @@
       <c r="A340" s="3" t="inlineStr"/>
       <c r="B340" s="3" t="inlineStr">
         <is>
-          <t>predictor</t>
+          <t>predictive variables</t>
         </is>
       </c>
       <c r="C340" s="3" t="inlineStr"/>
@@ -13866,7 +13890,7 @@
       <c r="A341" s="3" t="inlineStr"/>
       <c r="B341" s="3" t="inlineStr">
         <is>
-          <t>prescription drug monitoring porgramme</t>
+          <t>predictor</t>
         </is>
       </c>
       <c r="C341" s="3" t="inlineStr"/>
@@ -13903,7 +13927,7 @@
       <c r="A342" s="3" t="inlineStr"/>
       <c r="B342" s="3" t="inlineStr">
         <is>
-          <t>primary explanatory variable</t>
+          <t>prescription drug monitoring porgramme</t>
         </is>
       </c>
       <c r="C342" s="3" t="inlineStr"/>
@@ -13940,7 +13964,7 @@
       <c r="A343" s="3" t="inlineStr"/>
       <c r="B343" s="3" t="inlineStr">
         <is>
-          <t>primary outcome</t>
+          <t>primary explanatory variable</t>
         </is>
       </c>
       <c r="C343" s="3" t="inlineStr"/>
@@ -13977,7 +14001,7 @@
       <c r="A344" s="3" t="inlineStr"/>
       <c r="B344" s="3" t="inlineStr">
         <is>
-          <t>primary outcome measure</t>
+          <t>primary outcome</t>
         </is>
       </c>
       <c r="C344" s="3" t="inlineStr"/>
@@ -13995,7 +14019,7 @@
       <c r="K344" s="3" t="inlineStr"/>
       <c r="L344" s="3" t="inlineStr"/>
       <c r="M344" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N344" s="3" t="n">
         <v>0</v>
@@ -14014,7 +14038,7 @@
       <c r="A345" s="3" t="inlineStr"/>
       <c r="B345" s="3" t="inlineStr">
         <is>
-          <t>primary predictor</t>
+          <t>primary outcome measure</t>
         </is>
       </c>
       <c r="C345" s="3" t="inlineStr"/>
@@ -14032,7 +14056,7 @@
       <c r="K345" s="3" t="inlineStr"/>
       <c r="L345" s="3" t="inlineStr"/>
       <c r="M345" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N345" s="3" t="n">
         <v>0</v>
@@ -14051,7 +14075,7 @@
       <c r="A346" s="3" t="inlineStr"/>
       <c r="B346" s="3" t="inlineStr">
         <is>
-          <t>probability sample</t>
+          <t>primary predictor</t>
         </is>
       </c>
       <c r="C346" s="3" t="inlineStr"/>
@@ -14088,7 +14112,7 @@
       <c r="A347" s="3" t="inlineStr"/>
       <c r="B347" s="3" t="inlineStr">
         <is>
-          <t>propensity score (PS) weighting</t>
+          <t>probability sample</t>
         </is>
       </c>
       <c r="C347" s="3" t="inlineStr"/>
@@ -14125,7 +14149,7 @@
       <c r="A348" s="3" t="inlineStr"/>
       <c r="B348" s="3" t="inlineStr">
         <is>
-          <t>propensity score matching</t>
+          <t>propensity score (PS) weighting</t>
         </is>
       </c>
       <c r="C348" s="3" t="inlineStr"/>
@@ -14162,7 +14186,7 @@
       <c r="A349" s="3" t="inlineStr"/>
       <c r="B349" s="3" t="inlineStr">
         <is>
-          <t>prospective birth cohort study</t>
+          <t>propensity score matching</t>
         </is>
       </c>
       <c r="C349" s="3" t="inlineStr"/>
@@ -14199,7 +14223,7 @@
       <c r="A350" s="3" t="inlineStr"/>
       <c r="B350" s="3" t="inlineStr">
         <is>
-          <t>prospective cohort study</t>
+          <t>prospective birth cohort study</t>
         </is>
       </c>
       <c r="C350" s="3" t="inlineStr"/>
@@ -14236,7 +14260,7 @@
       <c r="A351" s="3" t="inlineStr"/>
       <c r="B351" s="3" t="inlineStr">
         <is>
-          <t>prospective design</t>
+          <t>prospective cohort study</t>
         </is>
       </c>
       <c r="C351" s="3" t="inlineStr"/>
@@ -14273,7 +14297,7 @@
       <c r="A352" s="3" t="inlineStr"/>
       <c r="B352" s="3" t="inlineStr">
         <is>
-          <t>prospective study</t>
+          <t>prospective design</t>
         </is>
       </c>
       <c r="C352" s="3" t="inlineStr"/>
@@ -14310,7 +14334,7 @@
       <c r="A353" s="3" t="inlineStr"/>
       <c r="B353" s="3" t="inlineStr">
         <is>
-          <t>prospective study design</t>
+          <t>prospective study</t>
         </is>
       </c>
       <c r="C353" s="3" t="inlineStr"/>
@@ -14347,7 +14371,7 @@
       <c r="A354" s="3" t="inlineStr"/>
       <c r="B354" s="3" t="inlineStr">
         <is>
-          <t>protocol violation</t>
+          <t>prospective study design</t>
         </is>
       </c>
       <c r="C354" s="3" t="inlineStr"/>
@@ -14384,7 +14408,7 @@
       <c r="A355" s="3" t="inlineStr"/>
       <c r="B355" s="3" t="inlineStr">
         <is>
-          <t>punctuated Equilibrium Theory</t>
+          <t>protocol violation</t>
         </is>
       </c>
       <c r="C355" s="3" t="inlineStr"/>
@@ -14421,7 +14445,7 @@
       <c r="A356" s="3" t="inlineStr"/>
       <c r="B356" s="3" t="inlineStr">
         <is>
-          <t>qualitative Analysis</t>
+          <t>punctuated Equilibrium Theory</t>
         </is>
       </c>
       <c r="C356" s="3" t="inlineStr"/>
@@ -14458,7 +14482,7 @@
       <c r="A357" s="3" t="inlineStr"/>
       <c r="B357" s="3" t="inlineStr">
         <is>
-          <t>qualitative data</t>
+          <t>qualitative Analysis</t>
         </is>
       </c>
       <c r="C357" s="3" t="inlineStr"/>
@@ -14495,7 +14519,7 @@
       <c r="A358" s="3" t="inlineStr"/>
       <c r="B358" s="3" t="inlineStr">
         <is>
-          <t>qualitative study</t>
+          <t>qualitative data</t>
         </is>
       </c>
       <c r="C358" s="3" t="inlineStr"/>
@@ -14532,7 +14556,7 @@
       <c r="A359" s="3" t="inlineStr"/>
       <c r="B359" s="3" t="inlineStr">
         <is>
-          <t>quasi-experimental study design</t>
+          <t>qualitative study</t>
         </is>
       </c>
       <c r="C359" s="3" t="inlineStr"/>
@@ -14566,52 +14590,28 @@
       <c r="S359" s="3" t="inlineStr"/>
     </row>
     <row r="360">
-      <c r="A360" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000150</t>
-        </is>
-      </c>
+      <c r="A360" s="3" t="inlineStr"/>
       <c r="B360" s="3" t="inlineStr">
         <is>
-          <t>questionnaire</t>
-        </is>
-      </c>
-      <c r="C360" s="3" t="inlineStr">
-        <is>
-          <t>A document that contains a set of questions.</t>
-        </is>
-      </c>
+          <t>quasi-experimental study design</t>
+        </is>
+      </c>
+      <c r="C360" s="3" t="inlineStr"/>
       <c r="D360" s="3" t="inlineStr"/>
-      <c r="E360" s="3" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
-      </c>
-      <c r="F360" s="3" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+      <c r="E360" s="3" t="inlineStr"/>
+      <c r="F360" s="3" t="inlineStr"/>
       <c r="G360" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H360" s="3" t="inlineStr">
-        <is>
-          <t>The most iwdely used definition in OntoBee is from OBI but it is too specific.</t>
-        </is>
-      </c>
-      <c r="I360" s="3" t="inlineStr">
-        <is>
-          <t>OBI:0001000</t>
-        </is>
-      </c>
+      <c r="H360" s="3" t="inlineStr"/>
+      <c r="I360" s="3" t="inlineStr"/>
       <c r="J360" s="3" t="inlineStr"/>
       <c r="K360" s="3" t="inlineStr"/>
       <c r="L360" s="3" t="inlineStr"/>
       <c r="M360" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N360" s="3" t="n">
         <v>0</v>
@@ -14627,100 +14627,124 @@
       <c r="S360" s="3" t="inlineStr"/>
     </row>
     <row r="361">
-      <c r="A361" s="2" t="inlineStr">
+      <c r="A361" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000150</t>
+        </is>
+      </c>
+      <c r="B361" s="3" t="inlineStr">
+        <is>
+          <t>questionnaire</t>
+        </is>
+      </c>
+      <c r="C361" s="3" t="inlineStr">
+        <is>
+          <t>A document that contains a set of questions.</t>
+        </is>
+      </c>
+      <c r="D361" s="3" t="inlineStr"/>
+      <c r="E361" s="3" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="F361" s="3" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G361" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H361" s="3" t="inlineStr">
+        <is>
+          <t>The most iwdely used definition in OntoBee is from OBI but it is too specific.</t>
+        </is>
+      </c>
+      <c r="I361" s="3" t="inlineStr">
+        <is>
+          <t>OBI:0001000</t>
+        </is>
+      </c>
+      <c r="J361" s="3" t="inlineStr"/>
+      <c r="K361" s="3" t="inlineStr"/>
+      <c r="L361" s="3" t="inlineStr"/>
+      <c r="M361" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N361" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O361" s="3" t="inlineStr"/>
+      <c r="P361" s="3" t="inlineStr"/>
+      <c r="Q361" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R361" s="3" t="inlineStr"/>
+      <c r="S361" s="3" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000151</t>
         </is>
       </c>
-      <c r="B361" s="2" t="inlineStr">
+      <c r="B362" s="2" t="inlineStr">
         <is>
           <t>questionnaire administration</t>
         </is>
       </c>
-      <c r="C361" s="2" t="inlineStr">
+      <c r="C362" s="2" t="inlineStr">
         <is>
           <t>A process in which a questionnaire is answered.</t>
         </is>
       </c>
-      <c r="D361" s="2" t="inlineStr"/>
-      <c r="E361" s="2" t="inlineStr">
+      <c r="D362" s="2" t="inlineStr"/>
+      <c r="E362" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F361" s="2" t="inlineStr">
+      <c r="F362" s="2" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G361" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H361" s="2" t="inlineStr"/>
-      <c r="I361" s="2" t="inlineStr"/>
-      <c r="J361" s="2" t="inlineStr"/>
-      <c r="K361" s="2" t="inlineStr"/>
-      <c r="L361" s="2" t="inlineStr"/>
-      <c r="M361" s="2" t="n">
+      <c r="G362" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H362" s="2" t="inlineStr"/>
+      <c r="I362" s="2" t="inlineStr"/>
+      <c r="J362" s="2" t="inlineStr"/>
+      <c r="K362" s="2" t="inlineStr"/>
+      <c r="L362" s="2" t="inlineStr"/>
+      <c r="M362" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N361" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O361" s="2" t="inlineStr"/>
-      <c r="P361" s="2" t="inlineStr"/>
-      <c r="Q361" s="2" t="inlineStr">
+      <c r="N362" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O362" s="2" t="inlineStr"/>
+      <c r="P362" s="2" t="inlineStr"/>
+      <c r="Q362" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R361" s="2" t="inlineStr"/>
-      <c r="S361" s="2" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="3" t="inlineStr"/>
-      <c r="B362" s="3" t="inlineStr">
-        <is>
-          <t>random effects model</t>
-        </is>
-      </c>
-      <c r="C362" s="3" t="inlineStr"/>
-      <c r="D362" s="3" t="inlineStr"/>
-      <c r="E362" s="3" t="inlineStr"/>
-      <c r="F362" s="3" t="inlineStr"/>
-      <c r="G362" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H362" s="3" t="inlineStr"/>
-      <c r="I362" s="3" t="inlineStr"/>
-      <c r="J362" s="3" t="inlineStr"/>
-      <c r="K362" s="3" t="inlineStr"/>
-      <c r="L362" s="3" t="inlineStr"/>
-      <c r="M362" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N362" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O362" s="3" t="inlineStr"/>
-      <c r="P362" s="3" t="inlineStr"/>
-      <c r="Q362" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R362" s="3" t="inlineStr"/>
-      <c r="S362" s="3" t="inlineStr"/>
+      <c r="R362" s="2" t="inlineStr"/>
+      <c r="S362" s="2" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="3" t="inlineStr"/>
       <c r="B363" s="3" t="inlineStr">
         <is>
-          <t>random sample</t>
+          <t>random effects model</t>
         </is>
       </c>
       <c r="C363" s="3" t="inlineStr"/>
@@ -14757,7 +14781,7 @@
       <c r="A364" s="3" t="inlineStr"/>
       <c r="B364" s="3" t="inlineStr">
         <is>
-          <t>randomised</t>
+          <t>random sample</t>
         </is>
       </c>
       <c r="C364" s="3" t="inlineStr"/>
@@ -14794,7 +14818,7 @@
       <c r="A365" s="3" t="inlineStr"/>
       <c r="B365" s="3" t="inlineStr">
         <is>
-          <t>randomised Clinical Trial</t>
+          <t>randomised</t>
         </is>
       </c>
       <c r="C365" s="3" t="inlineStr"/>
@@ -14808,11 +14832,7 @@
       </c>
       <c r="H365" s="3" t="inlineStr"/>
       <c r="I365" s="3" t="inlineStr"/>
-      <c r="J365" s="3" t="inlineStr">
-        <is>
-          <t>Randomised Controlled Trial</t>
-        </is>
-      </c>
+      <c r="J365" s="3" t="inlineStr"/>
       <c r="K365" s="3" t="inlineStr"/>
       <c r="L365" s="3" t="inlineStr"/>
       <c r="M365" s="3" t="n">
@@ -14835,7 +14855,7 @@
       <c r="A366" s="3" t="inlineStr"/>
       <c r="B366" s="3" t="inlineStr">
         <is>
-          <t>randomised Controlled Trial</t>
+          <t>randomised Clinical Trial</t>
         </is>
       </c>
       <c r="C366" s="3" t="inlineStr"/>
@@ -14849,7 +14869,11 @@
       </c>
       <c r="H366" s="3" t="inlineStr"/>
       <c r="I366" s="3" t="inlineStr"/>
-      <c r="J366" s="3" t="inlineStr"/>
+      <c r="J366" s="3" t="inlineStr">
+        <is>
+          <t>Randomised Controlled Trial</t>
+        </is>
+      </c>
       <c r="K366" s="3" t="inlineStr"/>
       <c r="L366" s="3" t="inlineStr"/>
       <c r="M366" s="3" t="n">
@@ -14872,7 +14896,7 @@
       <c r="A367" s="3" t="inlineStr"/>
       <c r="B367" s="3" t="inlineStr">
         <is>
-          <t>randomly allocated</t>
+          <t>randomised Controlled Trial</t>
         </is>
       </c>
       <c r="C367" s="3" t="inlineStr"/>
@@ -14886,11 +14910,7 @@
       </c>
       <c r="H367" s="3" t="inlineStr"/>
       <c r="I367" s="3" t="inlineStr"/>
-      <c r="J367" s="3" t="inlineStr">
-        <is>
-          <t>Randomly assigned</t>
-        </is>
-      </c>
+      <c r="J367" s="3" t="inlineStr"/>
       <c r="K367" s="3" t="inlineStr"/>
       <c r="L367" s="3" t="inlineStr"/>
       <c r="M367" s="3" t="n">
@@ -14913,7 +14933,7 @@
       <c r="A368" s="3" t="inlineStr"/>
       <c r="B368" s="3" t="inlineStr">
         <is>
-          <t>rapid ethonographic fieldwork</t>
+          <t>randomly allocated</t>
         </is>
       </c>
       <c r="C368" s="3" t="inlineStr"/>
@@ -14927,7 +14947,11 @@
       </c>
       <c r="H368" s="3" t="inlineStr"/>
       <c r="I368" s="3" t="inlineStr"/>
-      <c r="J368" s="3" t="inlineStr"/>
+      <c r="J368" s="3" t="inlineStr">
+        <is>
+          <t>Randomly assigned</t>
+        </is>
+      </c>
       <c r="K368" s="3" t="inlineStr"/>
       <c r="L368" s="3" t="inlineStr"/>
       <c r="M368" s="3" t="n">
@@ -14950,7 +14974,7 @@
       <c r="A369" s="3" t="inlineStr"/>
       <c r="B369" s="3" t="inlineStr">
         <is>
-          <t>rate ratio</t>
+          <t>rapid ethonographic fieldwork</t>
         </is>
       </c>
       <c r="C369" s="3" t="inlineStr"/>
@@ -14987,7 +15011,7 @@
       <c r="A370" s="3" t="inlineStr"/>
       <c r="B370" s="3" t="inlineStr">
         <is>
-          <t>re-test reliability of a measure</t>
+          <t>rate ratio</t>
         </is>
       </c>
       <c r="C370" s="3" t="inlineStr"/>
@@ -15024,7 +15048,7 @@
       <c r="A371" s="3" t="inlineStr"/>
       <c r="B371" s="3" t="inlineStr">
         <is>
-          <t>real-world control</t>
+          <t>re-test reliability of a measure</t>
         </is>
       </c>
       <c r="C371" s="3" t="inlineStr"/>
@@ -15061,7 +15085,7 @@
       <c r="A372" s="3" t="inlineStr"/>
       <c r="B372" s="3" t="inlineStr">
         <is>
-          <t>reason for drop out</t>
+          <t>real-world control</t>
         </is>
       </c>
       <c r="C372" s="3" t="inlineStr"/>
@@ -15098,7 +15122,7 @@
       <c r="A373" s="3" t="inlineStr"/>
       <c r="B373" s="3" t="inlineStr">
         <is>
-          <t>recruitment into a study</t>
+          <t>reason for drop out</t>
         </is>
       </c>
       <c r="C373" s="3" t="inlineStr"/>
@@ -15135,7 +15159,7 @@
       <c r="A374" s="3" t="inlineStr"/>
       <c r="B374" s="3" t="inlineStr">
         <is>
-          <t>regional estimate</t>
+          <t>recruitment into a study</t>
         </is>
       </c>
       <c r="C374" s="3" t="inlineStr"/>
@@ -15172,7 +15196,7 @@
       <c r="A375" s="3" t="inlineStr"/>
       <c r="B375" s="3" t="inlineStr">
         <is>
-          <t>regression analysis</t>
+          <t>regional estimate</t>
         </is>
       </c>
       <c r="C375" s="3" t="inlineStr"/>
@@ -15209,7 +15233,7 @@
       <c r="A376" s="3" t="inlineStr"/>
       <c r="B376" s="3" t="inlineStr">
         <is>
-          <t>regression coefficient</t>
+          <t>regression analysis</t>
         </is>
       </c>
       <c r="C376" s="3" t="inlineStr"/>
@@ -15227,7 +15251,7 @@
       <c r="K376" s="3" t="inlineStr"/>
       <c r="L376" s="3" t="inlineStr"/>
       <c r="M376" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N376" s="3" t="n">
         <v>0</v>
@@ -15246,7 +15270,7 @@
       <c r="A377" s="3" t="inlineStr"/>
       <c r="B377" s="3" t="inlineStr">
         <is>
-          <t>relative risk</t>
+          <t>regression coefficient</t>
         </is>
       </c>
       <c r="C377" s="3" t="inlineStr"/>
@@ -15264,7 +15288,7 @@
       <c r="K377" s="3" t="inlineStr"/>
       <c r="L377" s="3" t="inlineStr"/>
       <c r="M377" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N377" s="3" t="n">
         <v>0</v>
@@ -15283,7 +15307,7 @@
       <c r="A378" s="3" t="inlineStr"/>
       <c r="B378" s="3" t="inlineStr">
         <is>
-          <t>reliability of a measure</t>
+          <t>relative risk</t>
         </is>
       </c>
       <c r="C378" s="3" t="inlineStr"/>
@@ -15320,7 +15344,7 @@
       <c r="A379" s="3" t="inlineStr"/>
       <c r="B379" s="3" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
+          <t>reliability of a measure</t>
         </is>
       </c>
       <c r="C379" s="3" t="inlineStr"/>
@@ -15357,7 +15381,7 @@
       <c r="A380" s="3" t="inlineStr"/>
       <c r="B380" s="3" t="inlineStr">
         <is>
-          <t>representative sample</t>
+          <t>repeated measures study design</t>
         </is>
       </c>
       <c r="C380" s="3" t="inlineStr"/>
@@ -15375,7 +15399,7 @@
       <c r="K380" s="3" t="inlineStr"/>
       <c r="L380" s="3" t="inlineStr"/>
       <c r="M380" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N380" s="3" t="n">
         <v>0</v>
@@ -15391,261 +15415,245 @@
       <c r="S380" s="3" t="inlineStr"/>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
+      <c r="A381" s="3" t="inlineStr"/>
+      <c r="B381" s="3" t="inlineStr">
+        <is>
+          <t>representative sample</t>
+        </is>
+      </c>
+      <c r="C381" s="3" t="inlineStr"/>
+      <c r="D381" s="3" t="inlineStr"/>
+      <c r="E381" s="3" t="inlineStr"/>
+      <c r="F381" s="3" t="inlineStr"/>
+      <c r="G381" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H381" s="3" t="inlineStr"/>
+      <c r="I381" s="3" t="inlineStr"/>
+      <c r="J381" s="3" t="inlineStr"/>
+      <c r="K381" s="3" t="inlineStr"/>
+      <c r="L381" s="3" t="inlineStr"/>
+      <c r="M381" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N381" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O381" s="3" t="inlineStr"/>
+      <c r="P381" s="3" t="inlineStr"/>
+      <c r="Q381" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R381" s="3" t="inlineStr"/>
+      <c r="S381" s="3" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
         <is>
           <t>SEPIO:0000004</t>
         </is>
       </c>
-      <c r="B381" t="inlineStr">
+      <c r="B382" t="inlineStr">
         <is>
           <t>research activity</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr">
+      <c r="C382" t="inlineStr">
         <is>
           <t>A planned process executed in the performance of scientific research wherein systematic investigations are performed to establish facts and reach new conclusions about phenomena in the world.</t>
         </is>
       </c>
-      <c r="D381" t="inlineStr"/>
-      <c r="E381" t="inlineStr">
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="F381" t="inlineStr">
+      <c r="F382" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H381" t="inlineStr"/>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr">
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr">
         <is>
           <t>Research</t>
         </is>
       </c>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
-      <c r="M381" t="n">
-        <v>0</v>
-      </c>
-      <c r="N381" t="n">
-        <v>0</v>
-      </c>
-      <c r="O381" t="inlineStr"/>
-      <c r="P381" t="inlineStr">
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
+      <c r="M382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N382" t="n">
+        <v>0</v>
+      </c>
+      <c r="O382" t="inlineStr"/>
+      <c r="P382" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="Q381" t="inlineStr">
+      <c r="Q382" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R381" t="inlineStr">
+      <c r="R382" t="inlineStr">
         <is>
           <t>JH;SC;CN</t>
         </is>
       </c>
-      <c r="S381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="3" t="inlineStr">
+      <c r="S382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000152</t>
         </is>
       </c>
-      <c r="B382" s="3" t="inlineStr">
+      <c r="B383" s="3" t="inlineStr">
         <is>
           <t>research measure</t>
         </is>
       </c>
-      <c r="C382" s="3" t="inlineStr">
+      <c r="C383" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is used in a research study to specify how a measurement should be undertaken.</t>
         </is>
       </c>
-      <c r="D382" s="3" t="inlineStr"/>
-      <c r="E382" s="3" t="inlineStr">
+      <c r="D383" s="3" t="inlineStr"/>
+      <c r="E383" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="F382" s="3" t="inlineStr"/>
-      <c r="G382" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H382" s="3" t="inlineStr">
+      <c r="F383" s="3" t="inlineStr"/>
+      <c r="G383" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H383" s="3" t="inlineStr">
         <is>
           <t>This and the one below need VERY clear labels to disambiguate</t>
         </is>
       </c>
-      <c r="I382" s="3" t="inlineStr"/>
-      <c r="J382" s="3" t="inlineStr"/>
-      <c r="K382" s="3" t="inlineStr"/>
-      <c r="L382" s="3" t="inlineStr"/>
-      <c r="M382" s="3" t="n">
+      <c r="I383" s="3" t="inlineStr"/>
+      <c r="J383" s="3" t="inlineStr"/>
+      <c r="K383" s="3" t="inlineStr"/>
+      <c r="L383" s="3" t="inlineStr"/>
+      <c r="M383" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N382" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O382" s="3" t="inlineStr"/>
-      <c r="P382" s="3" t="inlineStr"/>
-      <c r="Q382" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R382" s="3" t="inlineStr"/>
-      <c r="S382" s="3" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
+      <c r="N383" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O383" s="3" t="inlineStr"/>
+      <c r="P383" s="3" t="inlineStr"/>
+      <c r="Q383" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R383" s="3" t="inlineStr"/>
+      <c r="S383" s="3" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="B383" t="inlineStr">
+      <c r="B384" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr">
+      <c r="C384" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D383" t="inlineStr"/>
-      <c r="E383" t="inlineStr">
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
         <is>
           <t>research activity</t>
         </is>
       </c>
-      <c r="F383" t="inlineStr">
+      <c r="F384" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H383" t="inlineStr"/>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
-      <c r="M383" t="b">
-        <v>0</v>
-      </c>
-      <c r="N383" t="n">
-        <v>0</v>
-      </c>
-      <c r="O383" t="inlineStr"/>
-      <c r="P383" t="inlineStr">
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
+      <c r="M384" t="b">
+        <v>0</v>
+      </c>
+      <c r="N384" t="n">
+        <v>0</v>
+      </c>
+      <c r="O384" t="inlineStr"/>
+      <c r="P384" t="inlineStr">
         <is>
           <t>RW; KS</t>
         </is>
       </c>
-      <c r="Q383" t="inlineStr">
+      <c r="Q384" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R383" t="inlineStr">
+      <c r="R384" t="inlineStr">
         <is>
           <t>JH;SC;CN</t>
         </is>
       </c>
-      <c r="S383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000153</t>
-        </is>
-      </c>
-      <c r="B384" s="3" t="inlineStr">
-        <is>
-          <t>research study measurement</t>
-        </is>
-      </c>
-      <c r="C384" s="3" t="inlineStr">
-        <is>
-          <t>A planned process that has as its output a data item corresponding to a quantitative or qualitative description of the attributes of an entity.</t>
-        </is>
-      </c>
-      <c r="D384" s="3" t="inlineStr">
-        <is>
-          <t>Measurement is not itself defined, except tautologically as "the data item that is the output of a measuremnet"</t>
-        </is>
-      </c>
-      <c r="E384" s="3" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="F384" s="3" t="inlineStr"/>
-      <c r="G384" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H384" s="3" t="inlineStr">
-        <is>
-          <t>Why not just 'measurement'?</t>
-        </is>
-      </c>
-      <c r="I384" s="3" t="inlineStr"/>
-      <c r="J384" s="3" t="inlineStr"/>
-      <c r="K384" s="3" t="inlineStr"/>
-      <c r="L384" s="3" t="inlineStr"/>
-      <c r="M384" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N384" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O384" s="3" t="inlineStr"/>
-      <c r="P384" s="3" t="inlineStr"/>
-      <c r="Q384" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R384" s="3" t="inlineStr"/>
-      <c r="S384" s="3" t="inlineStr"/>
+      <c r="S384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000154</t>
+          <t>ADDICTO:0000153</t>
         </is>
       </c>
       <c r="B385" s="3" t="inlineStr">
         <is>
-          <t>research study measurement datum</t>
+          <t>research study measurement</t>
         </is>
       </c>
       <c r="C385" s="3" t="inlineStr">
         <is>
-          <t>A measurment datum that is produced as part of a research study.</t>
-        </is>
-      </c>
-      <c r="D385" s="3" t="inlineStr"/>
+          <t>A planned process that has as its output a data item corresponding to a quantitative or qualitative description of the attributes of an entity.</t>
+        </is>
+      </c>
+      <c r="D385" s="3" t="inlineStr">
+        <is>
+          <t>Measurement is not itself defined, except tautologically as "the data item that is the output of a measuremnet"</t>
+        </is>
+      </c>
       <c r="E385" s="3" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="F385" s="3" t="inlineStr"/>
@@ -15654,7 +15662,11 @@
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H385" s="3" t="inlineStr"/>
+      <c r="H385" s="3" t="inlineStr">
+        <is>
+          <t>Why not just 'measurement'?</t>
+        </is>
+      </c>
       <c r="I385" s="3" t="inlineStr"/>
       <c r="J385" s="3" t="inlineStr"/>
       <c r="K385" s="3" t="inlineStr"/>
@@ -15666,11 +15678,7 @@
         <v>0</v>
       </c>
       <c r="O385" s="3" t="inlineStr"/>
-      <c r="P385" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P385" s="3" t="inlineStr"/>
       <c r="Q385" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -15680,19 +15688,27 @@
       <c r="S385" s="3" t="inlineStr"/>
     </row>
     <row r="386">
-      <c r="A386" s="3" t="inlineStr"/>
+      <c r="A386" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000154</t>
+        </is>
+      </c>
       <c r="B386" s="3" t="inlineStr">
         <is>
-          <t>researcher</t>
+          <t>research study measurement datum</t>
         </is>
       </c>
       <c r="C386" s="3" t="inlineStr">
         <is>
-          <t>A role of someone who conducts research</t>
+          <t>A measurment datum that is produced as part of a research study.</t>
         </is>
       </c>
       <c r="D386" s="3" t="inlineStr"/>
-      <c r="E386" s="3" t="inlineStr"/>
+      <c r="E386" s="3" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
       <c r="F386" s="3" t="inlineStr"/>
       <c r="G386" s="3" t="inlineStr">
         <is>
@@ -15705,13 +15721,17 @@
       <c r="K386" s="3" t="inlineStr"/>
       <c r="L386" s="3" t="inlineStr"/>
       <c r="M386" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N386" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O386" s="3" t="inlineStr"/>
-      <c r="P386" s="3" t="inlineStr"/>
+      <c r="P386" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q386" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -15724,10 +15744,14 @@
       <c r="A387" s="3" t="inlineStr"/>
       <c r="B387" s="3" t="inlineStr">
         <is>
-          <t>respondent</t>
-        </is>
-      </c>
-      <c r="C387" s="3" t="inlineStr"/>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="C387" s="3" t="inlineStr">
+        <is>
+          <t>A role of someone who conducts research</t>
+        </is>
+      </c>
       <c r="D387" s="3" t="inlineStr"/>
       <c r="E387" s="3" t="inlineStr"/>
       <c r="F387" s="3" t="inlineStr"/>
@@ -15761,7 +15785,7 @@
       <c r="A388" s="3" t="inlineStr"/>
       <c r="B388" s="3" t="inlineStr">
         <is>
-          <t>retention in study</t>
+          <t>respondent</t>
         </is>
       </c>
       <c r="C388" s="3" t="inlineStr"/>
@@ -15798,7 +15822,7 @@
       <c r="A389" s="3" t="inlineStr"/>
       <c r="B389" s="3" t="inlineStr">
         <is>
-          <t>retrospective cohort study</t>
+          <t>retention in study</t>
         </is>
       </c>
       <c r="C389" s="3" t="inlineStr"/>
@@ -15835,7 +15859,7 @@
       <c r="A390" s="3" t="inlineStr"/>
       <c r="B390" s="3" t="inlineStr">
         <is>
-          <t>retrospective comparative cohort design</t>
+          <t>retrospective cohort study</t>
         </is>
       </c>
       <c r="C390" s="3" t="inlineStr"/>
@@ -15872,7 +15896,7 @@
       <c r="A391" s="3" t="inlineStr"/>
       <c r="B391" s="3" t="inlineStr">
         <is>
-          <t>retrospective observational cohort study</t>
+          <t>retrospective comparative cohort design</t>
         </is>
       </c>
       <c r="C391" s="3" t="inlineStr"/>
@@ -15909,7 +15933,7 @@
       <c r="A392" s="3" t="inlineStr"/>
       <c r="B392" s="3" t="inlineStr">
         <is>
-          <t>retrospective report</t>
+          <t>retrospective observational cohort study</t>
         </is>
       </c>
       <c r="C392" s="3" t="inlineStr"/>
@@ -15946,7 +15970,7 @@
       <c r="A393" s="3" t="inlineStr"/>
       <c r="B393" s="3" t="inlineStr">
         <is>
-          <t>retrospective study</t>
+          <t>retrospective report</t>
         </is>
       </c>
       <c r="C393" s="3" t="inlineStr"/>
@@ -15983,7 +16007,7 @@
       <c r="A394" s="3" t="inlineStr"/>
       <c r="B394" s="3" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>retrospective study</t>
         </is>
       </c>
       <c r="C394" s="3" t="inlineStr"/>
@@ -16001,7 +16025,7 @@
       <c r="K394" s="3" t="inlineStr"/>
       <c r="L394" s="3" t="inlineStr"/>
       <c r="M394" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N394" s="3" t="n">
         <v>0</v>
@@ -16020,7 +16044,7 @@
       <c r="A395" s="3" t="inlineStr"/>
       <c r="B395" s="3" t="inlineStr">
         <is>
-          <t>risk factor</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="C395" s="3" t="inlineStr"/>
@@ -16057,7 +16081,7 @@
       <c r="A396" s="3" t="inlineStr"/>
       <c r="B396" s="3" t="inlineStr">
         <is>
-          <t>risk of bias</t>
+          <t>risk factor</t>
         </is>
       </c>
       <c r="C396" s="3" t="inlineStr"/>
@@ -16094,7 +16118,7 @@
       <c r="A397" s="3" t="inlineStr"/>
       <c r="B397" s="3" t="inlineStr">
         <is>
-          <t>risk ratio</t>
+          <t>risk of bias</t>
         </is>
       </c>
       <c r="C397" s="3" t="inlineStr"/>
@@ -16112,7 +16136,7 @@
       <c r="K397" s="3" t="inlineStr"/>
       <c r="L397" s="3" t="inlineStr"/>
       <c r="M397" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N397" s="3" t="n">
         <v>0</v>
@@ -16131,7 +16155,7 @@
       <c r="A398" s="3" t="inlineStr"/>
       <c r="B398" s="3" t="inlineStr">
         <is>
-          <t>robust predictor</t>
+          <t>risk ratio</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr"/>
@@ -16168,7 +16192,7 @@
       <c r="A399" s="3" t="inlineStr"/>
       <c r="B399" s="3" t="inlineStr">
         <is>
-          <t>russell Standard</t>
+          <t>robust predictor</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr"/>
@@ -16205,7 +16229,7 @@
       <c r="A400" s="3" t="inlineStr"/>
       <c r="B400" s="3" t="inlineStr">
         <is>
-          <t>russell Standard (Clinical)</t>
+          <t>russell Standard</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr"/>
@@ -16242,7 +16266,7 @@
       <c r="A401" s="3" t="inlineStr"/>
       <c r="B401" s="3" t="inlineStr">
         <is>
-          <t>russell Standard outcome criteria</t>
+          <t>russell Standard (Clinical)</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr"/>
@@ -16279,7 +16303,7 @@
       <c r="A402" s="3" t="inlineStr"/>
       <c r="B402" s="3" t="inlineStr">
         <is>
-          <t>saliva drug test</t>
+          <t>russell Standard outcome criteria</t>
         </is>
       </c>
       <c r="C402" s="3" t="inlineStr"/>
@@ -16316,7 +16340,7 @@
       <c r="A403" s="3" t="inlineStr"/>
       <c r="B403" s="3" t="inlineStr">
         <is>
-          <t>sample size</t>
+          <t>saliva drug test</t>
         </is>
       </c>
       <c r="C403" s="3" t="inlineStr"/>
@@ -16353,7 +16377,7 @@
       <c r="A404" s="3" t="inlineStr"/>
       <c r="B404" s="3" t="inlineStr">
         <is>
-          <t>sampling method</t>
+          <t>sample size</t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr"/>
@@ -16390,7 +16414,7 @@
       <c r="A405" s="3" t="inlineStr"/>
       <c r="B405" s="3" t="inlineStr">
         <is>
-          <t>screening for alcohol use disorder</t>
+          <t>sampling method</t>
         </is>
       </c>
       <c r="C405" s="3" t="inlineStr"/>
@@ -16427,7 +16451,7 @@
       <c r="A406" s="3" t="inlineStr"/>
       <c r="B406" s="3" t="inlineStr">
         <is>
-          <t>secondary data analysis</t>
+          <t>screening for alcohol use disorder</t>
         </is>
       </c>
       <c r="C406" s="3" t="inlineStr"/>
@@ -16464,7 +16488,7 @@
       <c r="A407" s="3" t="inlineStr"/>
       <c r="B407" s="3" t="inlineStr">
         <is>
-          <t>secondary outcome</t>
+          <t>secondary data analysis</t>
         </is>
       </c>
       <c r="C407" s="3" t="inlineStr"/>
@@ -16501,7 +16525,7 @@
       <c r="A408" s="3" t="inlineStr"/>
       <c r="B408" s="3" t="inlineStr">
         <is>
-          <t>secondary study aim</t>
+          <t>secondary outcome</t>
         </is>
       </c>
       <c r="C408" s="3" t="inlineStr"/>
@@ -16538,7 +16562,7 @@
       <c r="A409" s="3" t="inlineStr"/>
       <c r="B409" s="3" t="inlineStr">
         <is>
-          <t>segmented regression model</t>
+          <t>secondary study aim</t>
         </is>
       </c>
       <c r="C409" s="3" t="inlineStr"/>
@@ -16575,7 +16599,7 @@
       <c r="A410" s="3" t="inlineStr"/>
       <c r="B410" s="3" t="inlineStr">
         <is>
-          <t>selection bias</t>
+          <t>segmented regression model</t>
         </is>
       </c>
       <c r="C410" s="3" t="inlineStr"/>
@@ -16612,7 +16636,7 @@
       <c r="A411" s="3" t="inlineStr"/>
       <c r="B411" s="3" t="inlineStr">
         <is>
-          <t>self-report measure</t>
+          <t>selection bias</t>
         </is>
       </c>
       <c r="C411" s="3" t="inlineStr"/>
@@ -16630,7 +16654,7 @@
       <c r="K411" s="3" t="inlineStr"/>
       <c r="L411" s="3" t="inlineStr"/>
       <c r="M411" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N411" s="3" t="n">
         <v>0</v>
@@ -16646,100 +16670,100 @@
       <c r="S411" s="3" t="inlineStr"/>
     </row>
     <row r="412">
-      <c r="A412" s="2" t="inlineStr">
+      <c r="A412" s="3" t="inlineStr"/>
+      <c r="B412" s="3" t="inlineStr">
+        <is>
+          <t>self-report measure</t>
+        </is>
+      </c>
+      <c r="C412" s="3" t="inlineStr"/>
+      <c r="D412" s="3" t="inlineStr"/>
+      <c r="E412" s="3" t="inlineStr"/>
+      <c r="F412" s="3" t="inlineStr"/>
+      <c r="G412" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H412" s="3" t="inlineStr"/>
+      <c r="I412" s="3" t="inlineStr"/>
+      <c r="J412" s="3" t="inlineStr"/>
+      <c r="K412" s="3" t="inlineStr"/>
+      <c r="L412" s="3" t="inlineStr"/>
+      <c r="M412" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N412" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O412" s="3" t="inlineStr"/>
+      <c r="P412" s="3" t="inlineStr"/>
+      <c r="Q412" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R412" s="3" t="inlineStr"/>
+      <c r="S412" s="3" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000155</t>
         </is>
       </c>
-      <c r="B412" s="2" t="inlineStr">
+      <c r="B413" s="2" t="inlineStr">
         <is>
           <t>self-report questionnaire</t>
         </is>
       </c>
-      <c r="C412" s="2" t="inlineStr">
+      <c r="C413" s="2" t="inlineStr">
         <is>
           <t>A questionnaire that is administered in such a way that the person completing the questionnaire is answering questions about themselves.</t>
         </is>
       </c>
-      <c r="D412" s="2" t="inlineStr"/>
-      <c r="E412" s="2" t="inlineStr">
+      <c r="D413" s="2" t="inlineStr"/>
+      <c r="E413" s="2" t="inlineStr">
         <is>
           <t>questionnaire administration</t>
         </is>
       </c>
-      <c r="F412" s="2" t="inlineStr">
+      <c r="F413" s="2" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G412" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H412" s="2" t="inlineStr"/>
-      <c r="I412" s="2" t="inlineStr"/>
-      <c r="J412" s="2" t="inlineStr"/>
-      <c r="K412" s="2" t="inlineStr"/>
-      <c r="L412" s="2" t="inlineStr"/>
-      <c r="M412" s="2" t="n">
+      <c r="G413" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H413" s="2" t="inlineStr"/>
+      <c r="I413" s="2" t="inlineStr"/>
+      <c r="J413" s="2" t="inlineStr"/>
+      <c r="K413" s="2" t="inlineStr"/>
+      <c r="L413" s="2" t="inlineStr"/>
+      <c r="M413" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N412" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O412" s="2" t="inlineStr"/>
-      <c r="P412" s="2" t="inlineStr"/>
-      <c r="Q412" s="2" t="inlineStr">
+      <c r="N413" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O413" s="2" t="inlineStr"/>
+      <c r="P413" s="2" t="inlineStr"/>
+      <c r="Q413" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R412" s="2" t="inlineStr"/>
-      <c r="S412" s="2" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="3" t="inlineStr"/>
-      <c r="B413" s="3" t="inlineStr">
-        <is>
-          <t>self-report substance intake</t>
-        </is>
-      </c>
-      <c r="C413" s="3" t="inlineStr"/>
-      <c r="D413" s="3" t="inlineStr"/>
-      <c r="E413" s="3" t="inlineStr"/>
-      <c r="F413" s="3" t="inlineStr"/>
-      <c r="G413" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H413" s="3" t="inlineStr"/>
-      <c r="I413" s="3" t="inlineStr"/>
-      <c r="J413" s="3" t="inlineStr"/>
-      <c r="K413" s="3" t="inlineStr"/>
-      <c r="L413" s="3" t="inlineStr"/>
-      <c r="M413" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N413" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O413" s="3" t="inlineStr"/>
-      <c r="P413" s="3" t="inlineStr"/>
-      <c r="Q413" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R413" s="3" t="inlineStr"/>
-      <c r="S413" s="3" t="inlineStr"/>
+      <c r="R413" s="2" t="inlineStr"/>
+      <c r="S413" s="2" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="3" t="inlineStr"/>
       <c r="B414" s="3" t="inlineStr">
         <is>
-          <t>self-report survey</t>
+          <t>self-report substance intake</t>
         </is>
       </c>
       <c r="C414" s="3" t="inlineStr"/>
@@ -16776,7 +16800,7 @@
       <c r="A415" s="3" t="inlineStr"/>
       <c r="B415" s="3" t="inlineStr">
         <is>
-          <t>self-reported NMUA</t>
+          <t>self-report survey</t>
         </is>
       </c>
       <c r="C415" s="3" t="inlineStr"/>
@@ -16813,7 +16837,7 @@
       <c r="A416" s="3" t="inlineStr"/>
       <c r="B416" s="3" t="inlineStr">
         <is>
-          <t>self-reported cessation</t>
+          <t>self-reported NMUA</t>
         </is>
       </c>
       <c r="C416" s="3" t="inlineStr"/>
@@ -16850,7 +16874,7 @@
       <c r="A417" s="3" t="inlineStr"/>
       <c r="B417" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence</t>
+          <t>self-reported cessation</t>
         </is>
       </c>
       <c r="C417" s="3" t="inlineStr"/>
@@ -16887,7 +16911,7 @@
       <c r="A418" s="3" t="inlineStr"/>
       <c r="B418" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence from smoking</t>
+          <t>self-reported continuous abstinence</t>
         </is>
       </c>
       <c r="C418" s="3" t="inlineStr"/>
@@ -16924,7 +16948,7 @@
       <c r="A419" s="3" t="inlineStr"/>
       <c r="B419" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence up to 6-month follow up</t>
+          <t>self-reported continuous abstinence from smoking</t>
         </is>
       </c>
       <c r="C419" s="3" t="inlineStr"/>
@@ -16961,7 +16985,7 @@
       <c r="A420" s="3" t="inlineStr"/>
       <c r="B420" s="3" t="inlineStr">
         <is>
-          <t>self-reported drug use</t>
+          <t>self-reported continuous abstinence up to 6-month follow up</t>
         </is>
       </c>
       <c r="C420" s="3" t="inlineStr"/>
@@ -16998,7 +17022,7 @@
       <c r="A421" s="3" t="inlineStr"/>
       <c r="B421" s="3" t="inlineStr">
         <is>
-          <t>self-reported injection drug use</t>
+          <t>self-reported drug use</t>
         </is>
       </c>
       <c r="C421" s="3" t="inlineStr"/>
@@ -17035,7 +17059,7 @@
       <c r="A422" s="3" t="inlineStr"/>
       <c r="B422" s="3" t="inlineStr">
         <is>
-          <t>self-reported non-smoker</t>
+          <t>self-reported injection drug use</t>
         </is>
       </c>
       <c r="C422" s="3" t="inlineStr"/>
@@ -17072,7 +17096,7 @@
       <c r="A423" s="3" t="inlineStr"/>
       <c r="B423" s="3" t="inlineStr">
         <is>
-          <t>self-reported smoking abstinence</t>
+          <t>self-reported non-smoker</t>
         </is>
       </c>
       <c r="C423" s="3" t="inlineStr"/>
@@ -17090,7 +17114,7 @@
       <c r="K423" s="3" t="inlineStr"/>
       <c r="L423" s="3" t="inlineStr"/>
       <c r="M423" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N423" s="3" t="n">
         <v>0</v>
@@ -17109,7 +17133,7 @@
       <c r="A424" s="3" t="inlineStr"/>
       <c r="B424" s="3" t="inlineStr">
         <is>
-          <t>self-reported stimulant use</t>
+          <t>self-reported smoking abstinence</t>
         </is>
       </c>
       <c r="C424" s="3" t="inlineStr"/>
@@ -17127,7 +17151,7 @@
       <c r="K424" s="3" t="inlineStr"/>
       <c r="L424" s="3" t="inlineStr"/>
       <c r="M424" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N424" s="3" t="n">
         <v>0</v>
@@ -17146,7 +17170,7 @@
       <c r="A425" s="3" t="inlineStr"/>
       <c r="B425" s="3" t="inlineStr">
         <is>
-          <t>self-reported substance use</t>
+          <t>self-reported stimulant use</t>
         </is>
       </c>
       <c r="C425" s="3" t="inlineStr"/>
@@ -17183,7 +17207,7 @@
       <c r="A426" s="3" t="inlineStr"/>
       <c r="B426" s="3" t="inlineStr">
         <is>
-          <t>self-reported tobacco abstinence</t>
+          <t>self-reported substance use</t>
         </is>
       </c>
       <c r="C426" s="3" t="inlineStr"/>
@@ -17201,7 +17225,7 @@
       <c r="K426" s="3" t="inlineStr"/>
       <c r="L426" s="3" t="inlineStr"/>
       <c r="M426" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N426" s="3" t="n">
         <v>0</v>
@@ -17220,7 +17244,7 @@
       <c r="A427" s="3" t="inlineStr"/>
       <c r="B427" s="3" t="inlineStr">
         <is>
-          <t>semi-quantative assessment</t>
+          <t>self-reported tobacco abstinence</t>
         </is>
       </c>
       <c r="C427" s="3" t="inlineStr"/>
@@ -17238,7 +17262,7 @@
       <c r="K427" s="3" t="inlineStr"/>
       <c r="L427" s="3" t="inlineStr"/>
       <c r="M427" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N427" s="3" t="n">
         <v>0</v>
@@ -17257,7 +17281,7 @@
       <c r="A428" s="3" t="inlineStr"/>
       <c r="B428" s="3" t="inlineStr">
         <is>
-          <t>sensitivity analysis</t>
+          <t>semi-quantative assessment</t>
         </is>
       </c>
       <c r="C428" s="3" t="inlineStr"/>
@@ -17294,7 +17318,7 @@
       <c r="A429" s="3" t="inlineStr"/>
       <c r="B429" s="3" t="inlineStr">
         <is>
-          <t>serology test</t>
+          <t>sensitivity analysis</t>
         </is>
       </c>
       <c r="C429" s="3" t="inlineStr"/>
@@ -17331,7 +17355,7 @@
       <c r="A430" s="3" t="inlineStr"/>
       <c r="B430" s="3" t="inlineStr">
         <is>
-          <t>severity measure</t>
+          <t>serology test</t>
         </is>
       </c>
       <c r="C430" s="3" t="inlineStr"/>
@@ -17368,25 +17392,13 @@
       <c r="A431" s="3" t="inlineStr"/>
       <c r="B431" s="3" t="inlineStr">
         <is>
-          <t>severity of dependence scale (SDS)</t>
-        </is>
-      </c>
-      <c r="C431" s="3" t="inlineStr">
-        <is>
-          <t>A 5 item scale that provides a measure of the severity of dependence. Designed to assess opioid dependence it has been adapted to assess severity of dependence across multiple drug categories</t>
-        </is>
-      </c>
-      <c r="D431" s="3" t="inlineStr">
-        <is>
-          <t>https://www.who.int/substance_abuse/research_tools/severitydependencescale/en/</t>
-        </is>
-      </c>
+          <t>severity measure</t>
+        </is>
+      </c>
+      <c r="C431" s="3" t="inlineStr"/>
+      <c r="D431" s="3" t="inlineStr"/>
       <c r="E431" s="3" t="inlineStr"/>
-      <c r="F431" s="3" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+      <c r="F431" s="3" t="inlineStr"/>
       <c r="G431" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17417,13 +17429,25 @@
       <c r="A432" s="3" t="inlineStr"/>
       <c r="B432" s="3" t="inlineStr">
         <is>
-          <t>sex-specific quantile age-period-cohort regression</t>
-        </is>
-      </c>
-      <c r="C432" s="3" t="inlineStr"/>
-      <c r="D432" s="3" t="inlineStr"/>
+          <t>severity of dependence scale (SDS)</t>
+        </is>
+      </c>
+      <c r="C432" s="3" t="inlineStr">
+        <is>
+          <t>A 5 item scale that provides a measure of the severity of dependence. Designed to assess opioid dependence it has been adapted to assess severity of dependence across multiple drug categories</t>
+        </is>
+      </c>
+      <c r="D432" s="3" t="inlineStr">
+        <is>
+          <t>https://www.who.int/substance_abuse/research_tools/severitydependencescale/en/</t>
+        </is>
+      </c>
       <c r="E432" s="3" t="inlineStr"/>
-      <c r="F432" s="3" t="inlineStr"/>
+      <c r="F432" s="3" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="G432" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17454,7 +17478,7 @@
       <c r="A433" s="3" t="inlineStr"/>
       <c r="B433" s="3" t="inlineStr">
         <is>
-          <t>shared risk factor</t>
+          <t>sex-specific quantile age-period-cohort regression</t>
         </is>
       </c>
       <c r="C433" s="3" t="inlineStr"/>
@@ -17491,7 +17515,7 @@
       <c r="A434" s="3" t="inlineStr"/>
       <c r="B434" s="3" t="inlineStr">
         <is>
-          <t>shared variance</t>
+          <t>shared risk factor</t>
         </is>
       </c>
       <c r="C434" s="3" t="inlineStr"/>
@@ -17528,7 +17552,7 @@
       <c r="A435" s="3" t="inlineStr"/>
       <c r="B435" s="3" t="inlineStr">
         <is>
-          <t>sheffield Alcohol Policy Model</t>
+          <t>shared variance</t>
         </is>
       </c>
       <c r="C435" s="3" t="inlineStr"/>
@@ -17565,14 +17589,10 @@
       <c r="A436" s="3" t="inlineStr"/>
       <c r="B436" s="3" t="inlineStr">
         <is>
-          <t>sickness absence register</t>
-        </is>
-      </c>
-      <c r="C436" s="3" t="inlineStr">
-        <is>
-          <t>A source of data on people about their history of sickness absence from work.</t>
-        </is>
-      </c>
+          <t>sheffield Alcohol Policy Model</t>
+        </is>
+      </c>
+      <c r="C436" s="3" t="inlineStr"/>
       <c r="D436" s="3" t="inlineStr"/>
       <c r="E436" s="3" t="inlineStr"/>
       <c r="F436" s="3" t="inlineStr"/>
@@ -17606,10 +17626,14 @@
       <c r="A437" s="3" t="inlineStr"/>
       <c r="B437" s="3" t="inlineStr">
         <is>
-          <t>signal processing technique</t>
-        </is>
-      </c>
-      <c r="C437" s="3" t="inlineStr"/>
+          <t>sickness absence register</t>
+        </is>
+      </c>
+      <c r="C437" s="3" t="inlineStr">
+        <is>
+          <t>A source of data on people about their history of sickness absence from work.</t>
+        </is>
+      </c>
       <c r="D437" s="3" t="inlineStr"/>
       <c r="E437" s="3" t="inlineStr"/>
       <c r="F437" s="3" t="inlineStr"/>
@@ -17643,7 +17667,7 @@
       <c r="A438" s="3" t="inlineStr"/>
       <c r="B438" s="3" t="inlineStr">
         <is>
-          <t>significant association</t>
+          <t>signal processing technique</t>
         </is>
       </c>
       <c r="C438" s="3" t="inlineStr"/>
@@ -17680,7 +17704,7 @@
       <c r="A439" s="3" t="inlineStr"/>
       <c r="B439" s="3" t="inlineStr">
         <is>
-          <t>significant difference</t>
+          <t>significant association</t>
         </is>
       </c>
       <c r="C439" s="3" t="inlineStr"/>
@@ -17717,7 +17741,7 @@
       <c r="A440" s="3" t="inlineStr"/>
       <c r="B440" s="3" t="inlineStr">
         <is>
-          <t>significant increase</t>
+          <t>significant difference</t>
         </is>
       </c>
       <c r="C440" s="3" t="inlineStr"/>
@@ -17754,7 +17778,7 @@
       <c r="A441" s="3" t="inlineStr"/>
       <c r="B441" s="3" t="inlineStr">
         <is>
-          <t>simulated demand procedure</t>
+          <t>significant increase</t>
         </is>
       </c>
       <c r="C441" s="3" t="inlineStr"/>
@@ -17788,32 +17812,16 @@
       <c r="S441" s="3" t="inlineStr"/>
     </row>
     <row r="442">
-      <c r="A442" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000171</t>
-        </is>
-      </c>
+      <c r="A442" s="3" t="inlineStr"/>
       <c r="B442" s="3" t="inlineStr">
         <is>
-          <t>simulated population</t>
-        </is>
-      </c>
-      <c r="C442" s="3" t="inlineStr">
-        <is>
-          <t>An information content entity that represents attributes of a population for the purposes of modelling processes or outcomes in that population.</t>
-        </is>
-      </c>
+          <t>simulated demand procedure</t>
+        </is>
+      </c>
+      <c r="C442" s="3" t="inlineStr"/>
       <c r="D442" s="3" t="inlineStr"/>
-      <c r="E442" s="3" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="F442" s="3" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+      <c r="E442" s="3" t="inlineStr"/>
+      <c r="F442" s="3" t="inlineStr"/>
       <c r="G442" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17841,16 +17849,32 @@
       <c r="S442" s="3" t="inlineStr"/>
     </row>
     <row r="443">
-      <c r="A443" s="3" t="inlineStr"/>
+      <c r="A443" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000171</t>
+        </is>
+      </c>
       <c r="B443" s="3" t="inlineStr">
         <is>
-          <t>single-site study</t>
-        </is>
-      </c>
-      <c r="C443" s="3" t="inlineStr"/>
+          <t>simulated population</t>
+        </is>
+      </c>
+      <c r="C443" s="3" t="inlineStr">
+        <is>
+          <t>An information content entity that represents attributes of a population for the purposes of modelling processes or outcomes in that population.</t>
+        </is>
+      </c>
       <c r="D443" s="3" t="inlineStr"/>
-      <c r="E443" s="3" t="inlineStr"/>
-      <c r="F443" s="3" t="inlineStr"/>
+      <c r="E443" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="F443" s="3" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="G443" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17881,7 +17905,7 @@
       <c r="A444" s="3" t="inlineStr"/>
       <c r="B444" s="3" t="inlineStr">
         <is>
-          <t>slope and step change coefficient</t>
+          <t>single-site study</t>
         </is>
       </c>
       <c r="C444" s="3" t="inlineStr"/>
@@ -17918,7 +17942,7 @@
       <c r="A445" s="3" t="inlineStr"/>
       <c r="B445" s="3" t="inlineStr">
         <is>
-          <t>smoking Toolkit Study</t>
+          <t>slope and step change coefficient</t>
         </is>
       </c>
       <c r="C445" s="3" t="inlineStr"/>
@@ -17955,7 +17979,7 @@
       <c r="A446" s="3" t="inlineStr"/>
       <c r="B446" s="3" t="inlineStr">
         <is>
-          <t>smoking cessation treatment trial</t>
+          <t>smoking Toolkit Study</t>
         </is>
       </c>
       <c r="C446" s="3" t="inlineStr"/>
@@ -17992,7 +18016,7 @@
       <c r="A447" s="3" t="inlineStr"/>
       <c r="B447" s="3" t="inlineStr">
         <is>
-          <t>smoking cessation trial</t>
+          <t>smoking cessation treatment trial</t>
         </is>
       </c>
       <c r="C447" s="3" t="inlineStr"/>
@@ -18029,7 +18053,7 @@
       <c r="A448" s="3" t="inlineStr"/>
       <c r="B448" s="3" t="inlineStr">
         <is>
-          <t>socio-economic index for area of residence</t>
+          <t>smoking cessation trial</t>
         </is>
       </c>
       <c r="C448" s="3" t="inlineStr"/>
@@ -18066,7 +18090,7 @@
       <c r="A449" s="3" t="inlineStr"/>
       <c r="B449" s="3" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>socio-economic index for area of residence</t>
         </is>
       </c>
       <c r="C449" s="3" t="inlineStr"/>
@@ -18080,11 +18104,7 @@
       </c>
       <c r="H449" s="3" t="inlineStr"/>
       <c r="I449" s="3" t="inlineStr"/>
-      <c r="J449" s="3" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
+      <c r="J449" s="3" t="inlineStr"/>
       <c r="K449" s="3" t="inlineStr"/>
       <c r="L449" s="3" t="inlineStr"/>
       <c r="M449" s="3" t="n">
@@ -18107,7 +18127,7 @@
       <c r="A450" s="3" t="inlineStr"/>
       <c r="B450" s="3" t="inlineStr">
         <is>
-          <t>standard drinks per day</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="C450" s="3" t="inlineStr"/>
@@ -18121,7 +18141,11 @@
       </c>
       <c r="H450" s="3" t="inlineStr"/>
       <c r="I450" s="3" t="inlineStr"/>
-      <c r="J450" s="3" t="inlineStr"/>
+      <c r="J450" s="3" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
       <c r="K450" s="3" t="inlineStr"/>
       <c r="L450" s="3" t="inlineStr"/>
       <c r="M450" s="3" t="n">
@@ -18144,7 +18168,7 @@
       <c r="A451" s="3" t="inlineStr"/>
       <c r="B451" s="3" t="inlineStr">
         <is>
-          <t>standardised questionnaire</t>
+          <t>standard drinks per day</t>
         </is>
       </c>
       <c r="C451" s="3" t="inlineStr"/>
@@ -18162,7 +18186,7 @@
       <c r="K451" s="3" t="inlineStr"/>
       <c r="L451" s="3" t="inlineStr"/>
       <c r="M451" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N451" s="3" t="n">
         <v>0</v>
@@ -18181,7 +18205,7 @@
       <c r="A452" s="3" t="inlineStr"/>
       <c r="B452" s="3" t="inlineStr">
         <is>
-          <t>standardised regression coefficient</t>
+          <t>standardised questionnaire</t>
         </is>
       </c>
       <c r="C452" s="3" t="inlineStr"/>
@@ -18199,7 +18223,7 @@
       <c r="K452" s="3" t="inlineStr"/>
       <c r="L452" s="3" t="inlineStr"/>
       <c r="M452" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N452" s="3" t="n">
         <v>0</v>
@@ -18218,7 +18242,7 @@
       <c r="A453" s="3" t="inlineStr"/>
       <c r="B453" s="3" t="inlineStr">
         <is>
-          <t>standardized data capture</t>
+          <t>standardised regression coefficient</t>
         </is>
       </c>
       <c r="C453" s="3" t="inlineStr"/>
@@ -18252,100 +18276,100 @@
       <c r="S453" s="3" t="inlineStr"/>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="inlineStr">
+      <c r="A454" s="3" t="inlineStr"/>
+      <c r="B454" s="3" t="inlineStr">
+        <is>
+          <t>standardized data capture</t>
+        </is>
+      </c>
+      <c r="C454" s="3" t="inlineStr"/>
+      <c r="D454" s="3" t="inlineStr"/>
+      <c r="E454" s="3" t="inlineStr"/>
+      <c r="F454" s="3" t="inlineStr"/>
+      <c r="G454" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H454" s="3" t="inlineStr"/>
+      <c r="I454" s="3" t="inlineStr"/>
+      <c r="J454" s="3" t="inlineStr"/>
+      <c r="K454" s="3" t="inlineStr"/>
+      <c r="L454" s="3" t="inlineStr"/>
+      <c r="M454" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N454" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O454" s="3" t="inlineStr"/>
+      <c r="P454" s="3" t="inlineStr"/>
+      <c r="Q454" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R454" s="3" t="inlineStr"/>
+      <c r="S454" s="3" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000156</t>
         </is>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>start of follow-up period</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>The process boundary at the beginning of a follow-up period.</t>
         </is>
       </c>
-      <c r="D454" s="2" t="inlineStr"/>
-      <c r="E454" s="2" t="inlineStr">
+      <c r="D455" s="2" t="inlineStr"/>
+      <c r="E455" s="2" t="inlineStr">
         <is>
           <t>temporal start</t>
         </is>
       </c>
-      <c r="F454" s="2" t="inlineStr">
+      <c r="F455" s="2" t="inlineStr">
         <is>
           <t>Process boundary</t>
         </is>
       </c>
-      <c r="G454" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H454" s="2" t="inlineStr"/>
-      <c r="I454" s="2" t="inlineStr"/>
-      <c r="J454" s="2" t="inlineStr"/>
-      <c r="K454" s="2" t="inlineStr"/>
-      <c r="L454" s="2" t="inlineStr"/>
-      <c r="M454" s="2" t="n">
+      <c r="G455" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H455" s="2" t="inlineStr"/>
+      <c r="I455" s="2" t="inlineStr"/>
+      <c r="J455" s="2" t="inlineStr"/>
+      <c r="K455" s="2" t="inlineStr"/>
+      <c r="L455" s="2" t="inlineStr"/>
+      <c r="M455" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N454" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O454" s="2" t="inlineStr"/>
-      <c r="P454" s="2" t="inlineStr"/>
-      <c r="Q454" s="2" t="inlineStr">
+      <c r="N455" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O455" s="2" t="inlineStr"/>
+      <c r="P455" s="2" t="inlineStr"/>
+      <c r="Q455" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R454" s="2" t="inlineStr"/>
-      <c r="S454" s="2" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="3" t="inlineStr"/>
-      <c r="B455" s="3" t="inlineStr">
-        <is>
-          <t>state administrative record</t>
-        </is>
-      </c>
-      <c r="C455" s="3" t="inlineStr"/>
-      <c r="D455" s="3" t="inlineStr"/>
-      <c r="E455" s="3" t="inlineStr"/>
-      <c r="F455" s="3" t="inlineStr"/>
-      <c r="G455" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H455" s="3" t="inlineStr"/>
-      <c r="I455" s="3" t="inlineStr"/>
-      <c r="J455" s="3" t="inlineStr"/>
-      <c r="K455" s="3" t="inlineStr"/>
-      <c r="L455" s="3" t="inlineStr"/>
-      <c r="M455" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N455" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O455" s="3" t="inlineStr"/>
-      <c r="P455" s="3" t="inlineStr"/>
-      <c r="Q455" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R455" s="3" t="inlineStr"/>
-      <c r="S455" s="3" t="inlineStr"/>
+      <c r="R455" s="2" t="inlineStr"/>
+      <c r="S455" s="2" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="3" t="inlineStr"/>
       <c r="B456" s="3" t="inlineStr">
         <is>
-          <t>state transition model</t>
+          <t>state administrative record</t>
         </is>
       </c>
       <c r="C456" s="3" t="inlineStr"/>
@@ -18382,7 +18406,7 @@
       <c r="A457" s="3" t="inlineStr"/>
       <c r="B457" s="3" t="inlineStr">
         <is>
-          <t>state-level time-varying policy covariates</t>
+          <t>state transition model</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr"/>
@@ -18419,7 +18443,7 @@
       <c r="A458" s="3" t="inlineStr"/>
       <c r="B458" s="3" t="inlineStr">
         <is>
-          <t>statistical adjustment for covariates</t>
+          <t>state-level time-varying policy covariates</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr"/>
@@ -18456,7 +18480,7 @@
       <c r="A459" s="3" t="inlineStr"/>
       <c r="B459" s="3" t="inlineStr">
         <is>
-          <t>statistical adjustment for potential confounding variables</t>
+          <t>statistical adjustment for covariates</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr"/>
@@ -18493,7 +18517,7 @@
       <c r="A460" s="3" t="inlineStr"/>
       <c r="B460" s="3" t="inlineStr">
         <is>
-          <t>statistical interaction</t>
+          <t>statistical adjustment for potential confounding variables</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr"/>
@@ -18530,7 +18554,7 @@
       <c r="A461" s="3" t="inlineStr"/>
       <c r="B461" s="3" t="inlineStr">
         <is>
-          <t>statistically significant</t>
+          <t>statistical interaction</t>
         </is>
       </c>
       <c r="C461" s="3" t="inlineStr"/>
@@ -18567,7 +18591,7 @@
       <c r="A462" s="3" t="inlineStr"/>
       <c r="B462" s="3" t="inlineStr">
         <is>
-          <t>stepped-wedge study design</t>
+          <t>statistically significant</t>
         </is>
       </c>
       <c r="C462" s="3" t="inlineStr"/>
@@ -18604,7 +18628,7 @@
       <c r="A463" s="3" t="inlineStr"/>
       <c r="B463" s="3" t="inlineStr">
         <is>
-          <t>stratification</t>
+          <t>stepped-wedge study design</t>
         </is>
       </c>
       <c r="C463" s="3" t="inlineStr"/>
@@ -18641,7 +18665,7 @@
       <c r="A464" s="3" t="inlineStr"/>
       <c r="B464" s="3" t="inlineStr">
         <is>
-          <t>stratified sample</t>
+          <t>stratification</t>
         </is>
       </c>
       <c r="C464" s="3" t="inlineStr"/>
@@ -18678,7 +18702,7 @@
       <c r="A465" s="3" t="inlineStr"/>
       <c r="B465" s="3" t="inlineStr">
         <is>
-          <t>strength of association</t>
+          <t>stratified sample</t>
         </is>
       </c>
       <c r="C465" s="3" t="inlineStr"/>
@@ -18715,7 +18739,7 @@
       <c r="A466" s="3" t="inlineStr"/>
       <c r="B466" s="3" t="inlineStr">
         <is>
-          <t>strong evidence</t>
+          <t>strength of association</t>
         </is>
       </c>
       <c r="C466" s="3" t="inlineStr"/>
@@ -18752,7 +18776,7 @@
       <c r="A467" s="3" t="inlineStr"/>
       <c r="B467" s="3" t="inlineStr">
         <is>
-          <t>structural equation univariate and multivariate modeling</t>
+          <t>strong evidence</t>
         </is>
       </c>
       <c r="C467" s="3" t="inlineStr"/>
@@ -18789,7 +18813,7 @@
       <c r="A468" s="3" t="inlineStr"/>
       <c r="B468" s="3" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>structural equation univariate and multivariate modeling</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr"/>
@@ -18826,7 +18850,7 @@
       <c r="A469" s="3" t="inlineStr"/>
       <c r="B469" s="3" t="inlineStr">
         <is>
-          <t>study conclusion</t>
+          <t>study</t>
         </is>
       </c>
       <c r="C469" s="3" t="inlineStr"/>
@@ -18863,7 +18887,7 @@
       <c r="A470" s="3" t="inlineStr"/>
       <c r="B470" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>study conclusion</t>
         </is>
       </c>
       <c r="C470" s="3" t="inlineStr"/>
@@ -18900,7 +18924,7 @@
       <c r="A471" s="3" t="inlineStr"/>
       <c r="B471" s="3" t="inlineStr">
         <is>
-          <t>study group</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr"/>
@@ -18937,7 +18961,7 @@
       <c r="A472" s="3" t="inlineStr"/>
       <c r="B472" s="3" t="inlineStr">
         <is>
-          <t>study medication</t>
+          <t>study group</t>
         </is>
       </c>
       <c r="C472" s="3" t="inlineStr"/>
@@ -18974,7 +18998,7 @@
       <c r="A473" s="3" t="inlineStr"/>
       <c r="B473" s="3" t="inlineStr">
         <is>
-          <t>study participation</t>
+          <t>study medication</t>
         </is>
       </c>
       <c r="C473" s="3" t="inlineStr"/>
@@ -19011,7 +19035,7 @@
       <c r="A474" s="3" t="inlineStr"/>
       <c r="B474" s="3" t="inlineStr">
         <is>
-          <t>study period</t>
+          <t>study participation</t>
         </is>
       </c>
       <c r="C474" s="3" t="inlineStr"/>
@@ -19048,7 +19072,7 @@
       <c r="A475" s="3" t="inlineStr"/>
       <c r="B475" s="3" t="inlineStr">
         <is>
-          <t>study preregistration</t>
+          <t>study period</t>
         </is>
       </c>
       <c r="C475" s="3" t="inlineStr"/>
@@ -19085,7 +19109,7 @@
       <c r="A476" s="3" t="inlineStr"/>
       <c r="B476" s="3" t="inlineStr">
         <is>
-          <t>study recruitment</t>
+          <t>study preregistration</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr"/>
@@ -19122,7 +19146,7 @@
       <c r="A477" s="3" t="inlineStr"/>
       <c r="B477" s="3" t="inlineStr">
         <is>
-          <t>study retention</t>
+          <t>study recruitment</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr"/>
@@ -19159,7 +19183,7 @@
       <c r="A478" s="3" t="inlineStr"/>
       <c r="B478" s="3" t="inlineStr">
         <is>
-          <t>subjective measure</t>
+          <t>study retention</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr"/>
@@ -19177,7 +19201,7 @@
       <c r="K478" s="3" t="inlineStr"/>
       <c r="L478" s="3" t="inlineStr"/>
       <c r="M478" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N478" s="3" t="n">
         <v>0</v>
@@ -19196,7 +19220,7 @@
       <c r="A479" s="3" t="inlineStr"/>
       <c r="B479" s="3" t="inlineStr">
         <is>
-          <t>subjective rating of side effect</t>
+          <t>subjective measure</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr"/>
@@ -19233,7 +19257,7 @@
       <c r="A480" s="3" t="inlineStr"/>
       <c r="B480" s="3" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>subjective rating of side effect</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr"/>
@@ -19251,7 +19275,7 @@
       <c r="K480" s="3" t="inlineStr"/>
       <c r="L480" s="3" t="inlineStr"/>
       <c r="M480" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N480" s="3" t="n">
         <v>0</v>
@@ -19270,7 +19294,7 @@
       <c r="A481" s="3" t="inlineStr"/>
       <c r="B481" s="3" t="inlineStr">
         <is>
-          <t>survey estimate</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr"/>
@@ -19307,7 +19331,7 @@
       <c r="A482" s="3" t="inlineStr"/>
       <c r="B482" s="3" t="inlineStr">
         <is>
-          <t>survey of substance use</t>
+          <t>survey estimate</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr"/>
@@ -19344,7 +19368,7 @@
       <c r="A483" s="3" t="inlineStr"/>
       <c r="B483" s="3" t="inlineStr">
         <is>
-          <t>survival analysis</t>
+          <t>survey of substance use</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr"/>
@@ -19381,7 +19405,7 @@
       <c r="A484" s="3" t="inlineStr"/>
       <c r="B484" s="3" t="inlineStr">
         <is>
-          <t>synergistic effect</t>
+          <t>survival analysis</t>
         </is>
       </c>
       <c r="C484" s="3" t="inlineStr"/>
@@ -19418,7 +19442,7 @@
       <c r="A485" s="3" t="inlineStr"/>
       <c r="B485" s="3" t="inlineStr">
         <is>
-          <t>synoptic review</t>
+          <t>synergistic effect</t>
         </is>
       </c>
       <c r="C485" s="3" t="inlineStr"/>
@@ -19455,7 +19479,7 @@
       <c r="A486" s="3" t="inlineStr"/>
       <c r="B486" s="3" t="inlineStr">
         <is>
-          <t>synthetic control group</t>
+          <t>synoptic review</t>
         </is>
       </c>
       <c r="C486" s="3" t="inlineStr"/>
@@ -19492,7 +19516,7 @@
       <c r="A487" s="3" t="inlineStr"/>
       <c r="B487" s="3" t="inlineStr">
         <is>
-          <t>systematic review</t>
+          <t>synthetic control group</t>
         </is>
       </c>
       <c r="C487" s="3" t="inlineStr"/>
@@ -19529,7 +19553,7 @@
       <c r="A488" s="3" t="inlineStr"/>
       <c r="B488" s="3" t="inlineStr">
         <is>
-          <t>tIDieR guidelines</t>
+          <t>systematic review</t>
         </is>
       </c>
       <c r="C488" s="3" t="inlineStr"/>
@@ -19566,7 +19590,7 @@
       <c r="A489" s="3" t="inlineStr"/>
       <c r="B489" s="3" t="inlineStr">
         <is>
-          <t>taxation data</t>
+          <t>tIDieR guidelines</t>
         </is>
       </c>
       <c r="C489" s="3" t="inlineStr"/>
@@ -19600,108 +19624,108 @@
       <c r="S489" s="3" t="inlineStr"/>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="inlineStr">
+      <c r="A490" s="3" t="inlineStr"/>
+      <c r="B490" s="3" t="inlineStr">
+        <is>
+          <t>taxation data</t>
+        </is>
+      </c>
+      <c r="C490" s="3" t="inlineStr"/>
+      <c r="D490" s="3" t="inlineStr"/>
+      <c r="E490" s="3" t="inlineStr"/>
+      <c r="F490" s="3" t="inlineStr"/>
+      <c r="G490" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H490" s="3" t="inlineStr"/>
+      <c r="I490" s="3" t="inlineStr"/>
+      <c r="J490" s="3" t="inlineStr"/>
+      <c r="K490" s="3" t="inlineStr"/>
+      <c r="L490" s="3" t="inlineStr"/>
+      <c r="M490" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N490" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O490" s="3" t="inlineStr"/>
+      <c r="P490" s="3" t="inlineStr"/>
+      <c r="Q490" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R490" s="3" t="inlineStr"/>
+      <c r="S490" s="3" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000157</t>
         </is>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>temporal start</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>The process boundary when a process or temporal region starts.</t>
         </is>
       </c>
-      <c r="D490" s="2" t="inlineStr">
+      <c r="D491" s="2" t="inlineStr">
         <is>
           <t>AFP:0003328</t>
         </is>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E491" s="2" t="inlineStr">
         <is>
           <t>process boundary</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
+      <c r="F491" s="2" t="inlineStr">
         <is>
           <t>Process boundary</t>
         </is>
       </c>
-      <c r="G490" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
+      <c r="G491" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
         <is>
           <t>Definition from AFP modified to include temporal region.</t>
         </is>
       </c>
-      <c r="I490" s="2" t="inlineStr"/>
-      <c r="J490" s="2" t="inlineStr"/>
-      <c r="K490" s="2" t="inlineStr"/>
-      <c r="L490" s="2" t="inlineStr"/>
-      <c r="M490" s="2" t="n">
+      <c r="I491" s="2" t="inlineStr"/>
+      <c r="J491" s="2" t="inlineStr"/>
+      <c r="K491" s="2" t="inlineStr"/>
+      <c r="L491" s="2" t="inlineStr"/>
+      <c r="M491" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N490" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O490" s="2" t="inlineStr"/>
-      <c r="P490" s="2" t="inlineStr"/>
-      <c r="Q490" s="2" t="inlineStr">
+      <c r="N491" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O491" s="2" t="inlineStr"/>
+      <c r="P491" s="2" t="inlineStr"/>
+      <c r="Q491" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R490" s="2" t="inlineStr"/>
-      <c r="S490" s="2" t="inlineStr"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="3" t="inlineStr"/>
-      <c r="B491" s="3" t="inlineStr">
-        <is>
-          <t>tested association</t>
-        </is>
-      </c>
-      <c r="C491" s="3" t="inlineStr"/>
-      <c r="D491" s="3" t="inlineStr"/>
-      <c r="E491" s="3" t="inlineStr"/>
-      <c r="F491" s="3" t="inlineStr"/>
-      <c r="G491" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H491" s="3" t="inlineStr"/>
-      <c r="I491" s="3" t="inlineStr"/>
-      <c r="J491" s="3" t="inlineStr"/>
-      <c r="K491" s="3" t="inlineStr"/>
-      <c r="L491" s="3" t="inlineStr"/>
-      <c r="M491" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N491" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O491" s="3" t="inlineStr"/>
-      <c r="P491" s="3" t="inlineStr"/>
-      <c r="Q491" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R491" s="3" t="inlineStr"/>
-      <c r="S491" s="3" t="inlineStr"/>
+      <c r="R491" s="2" t="inlineStr"/>
+      <c r="S491" s="2" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="3" t="inlineStr"/>
       <c r="B492" s="3" t="inlineStr">
         <is>
-          <t>thematic analysis</t>
+          <t>tested association</t>
         </is>
       </c>
       <c r="C492" s="3" t="inlineStr"/>
@@ -19738,7 +19762,7 @@
       <c r="A493" s="3" t="inlineStr"/>
       <c r="B493" s="3" t="inlineStr">
         <is>
-          <t>theory of the collectivity of drinking cultures</t>
+          <t>thematic analysis</t>
         </is>
       </c>
       <c r="C493" s="3" t="inlineStr"/>
@@ -19775,7 +19799,7 @@
       <c r="A494" s="3" t="inlineStr"/>
       <c r="B494" s="3" t="inlineStr">
         <is>
-          <t>time series analysis</t>
+          <t>theory of the collectivity of drinking cultures</t>
         </is>
       </c>
       <c r="C494" s="3" t="inlineStr"/>
@@ -19812,7 +19836,7 @@
       <c r="A495" s="3" t="inlineStr"/>
       <c r="B495" s="3" t="inlineStr">
         <is>
-          <t>time series study design</t>
+          <t>time series analysis</t>
         </is>
       </c>
       <c r="C495" s="3" t="inlineStr"/>
@@ -19849,7 +19873,7 @@
       <c r="A496" s="3" t="inlineStr"/>
       <c r="B496" s="3" t="inlineStr">
         <is>
-          <t>time-dependent covariate</t>
+          <t>time series study design</t>
         </is>
       </c>
       <c r="C496" s="3" t="inlineStr"/>
@@ -19886,7 +19910,7 @@
       <c r="A497" s="3" t="inlineStr"/>
       <c r="B497" s="3" t="inlineStr">
         <is>
-          <t>time-dependent urine toxicology</t>
+          <t>time-dependent covariate</t>
         </is>
       </c>
       <c r="C497" s="3" t="inlineStr"/>
@@ -19923,7 +19947,7 @@
       <c r="A498" s="3" t="inlineStr"/>
       <c r="B498" s="3" t="inlineStr">
         <is>
-          <t>time-series analysis</t>
+          <t>time-dependent urine toxicology</t>
         </is>
       </c>
       <c r="C498" s="3" t="inlineStr"/>
@@ -19960,7 +19984,7 @@
       <c r="A499" s="3" t="inlineStr"/>
       <c r="B499" s="3" t="inlineStr">
         <is>
-          <t>tobacco demand indicator</t>
+          <t>time-series analysis</t>
         </is>
       </c>
       <c r="C499" s="3" t="inlineStr"/>
@@ -19994,35 +20018,19 @@
       <c r="S499" s="3" t="inlineStr"/>
     </row>
     <row r="500">
-      <c r="A500" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000180</t>
-        </is>
-      </c>
+      <c r="A500" s="3" t="inlineStr"/>
       <c r="B500" s="3" t="inlineStr">
         <is>
-          <t>tobacco industry funding</t>
-        </is>
-      </c>
-      <c r="C500" s="3" t="inlineStr">
-        <is>
-          <t>Funding that originates from one or more tobacco companies.</t>
-        </is>
-      </c>
+          <t>tobacco demand indicator</t>
+        </is>
+      </c>
+      <c r="C500" s="3" t="inlineStr"/>
       <c r="D500" s="3" t="inlineStr"/>
-      <c r="E500" s="3" t="inlineStr">
-        <is>
-          <t>funding</t>
-        </is>
-      </c>
-      <c r="F500" s="3" t="inlineStr">
-        <is>
-          <t>Generically Dependent Continuant</t>
-        </is>
-      </c>
+      <c r="E500" s="3" t="inlineStr"/>
+      <c r="F500" s="3" t="inlineStr"/>
       <c r="G500" s="3" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>Research activity</t>
         </is>
       </c>
       <c r="H500" s="3" t="inlineStr"/>
@@ -20031,7 +20039,7 @@
       <c r="K500" s="3" t="inlineStr"/>
       <c r="L500" s="3" t="inlineStr"/>
       <c r="M500" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N500" s="3" t="n">
         <v>0</v>
@@ -20047,19 +20055,35 @@
       <c r="S500" s="3" t="inlineStr"/>
     </row>
     <row r="501">
-      <c r="A501" s="3" t="inlineStr"/>
+      <c r="A501" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000180</t>
+        </is>
+      </c>
       <c r="B501" s="3" t="inlineStr">
         <is>
-          <t>tobacco industry funding of research</t>
-        </is>
-      </c>
-      <c r="C501" s="3" t="inlineStr"/>
+          <t>tobacco industry funding</t>
+        </is>
+      </c>
+      <c r="C501" s="3" t="inlineStr">
+        <is>
+          <t>Funding that originates from one or more tobacco companies.</t>
+        </is>
+      </c>
       <c r="D501" s="3" t="inlineStr"/>
-      <c r="E501" s="3" t="inlineStr"/>
-      <c r="F501" s="3" t="inlineStr"/>
+      <c r="E501" s="3" t="inlineStr">
+        <is>
+          <t>funding</t>
+        </is>
+      </c>
+      <c r="F501" s="3" t="inlineStr">
+        <is>
+          <t>Generically Dependent Continuant</t>
+        </is>
+      </c>
       <c r="G501" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
+          <t>Product</t>
         </is>
       </c>
       <c r="H501" s="3" t="inlineStr"/>
@@ -20068,7 +20092,7 @@
       <c r="K501" s="3" t="inlineStr"/>
       <c r="L501" s="3" t="inlineStr"/>
       <c r="M501" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N501" s="3" t="n">
         <v>0</v>
@@ -20087,7 +20111,7 @@
       <c r="A502" s="3" t="inlineStr"/>
       <c r="B502" s="3" t="inlineStr">
         <is>
-          <t>toxicological assessment of inhaled vapour</t>
+          <t>tobacco industry funding of research</t>
         </is>
       </c>
       <c r="C502" s="3" t="inlineStr"/>
@@ -20105,7 +20129,7 @@
       <c r="K502" s="3" t="inlineStr"/>
       <c r="L502" s="3" t="inlineStr"/>
       <c r="M502" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N502" s="3" t="n">
         <v>0</v>
@@ -20124,7 +20148,7 @@
       <c r="A503" s="3" t="inlineStr"/>
       <c r="B503" s="3" t="inlineStr">
         <is>
-          <t>treatment group</t>
+          <t>toxicological assessment of inhaled vapour</t>
         </is>
       </c>
       <c r="C503" s="3" t="inlineStr"/>
@@ -20142,7 +20166,7 @@
       <c r="K503" s="3" t="inlineStr"/>
       <c r="L503" s="3" t="inlineStr"/>
       <c r="M503" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N503" s="3" t="n">
         <v>0</v>
@@ -20161,7 +20185,7 @@
       <c r="A504" s="3" t="inlineStr"/>
       <c r="B504" s="3" t="inlineStr">
         <is>
-          <t>trend analysis</t>
+          <t>treatment group</t>
         </is>
       </c>
       <c r="C504" s="3" t="inlineStr"/>
@@ -20198,7 +20222,7 @@
       <c r="A505" s="3" t="inlineStr"/>
       <c r="B505" s="3" t="inlineStr">
         <is>
-          <t>trial conclusion</t>
+          <t>trend analysis</t>
         </is>
       </c>
       <c r="C505" s="3" t="inlineStr"/>
@@ -20235,7 +20259,7 @@
       <c r="A506" s="3" t="inlineStr"/>
       <c r="B506" s="3" t="inlineStr">
         <is>
-          <t>triangulation research method</t>
+          <t>trial conclusion</t>
         </is>
       </c>
       <c r="C506" s="3" t="inlineStr"/>
@@ -20272,7 +20296,7 @@
       <c r="A507" s="3" t="inlineStr"/>
       <c r="B507" s="3" t="inlineStr">
         <is>
-          <t>tweedie's trim and fill approach</t>
+          <t>triangulation research method</t>
         </is>
       </c>
       <c r="C507" s="3" t="inlineStr"/>
@@ -20281,7 +20305,7 @@
       <c r="F507" s="3" t="inlineStr"/>
       <c r="G507" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Research activity </t>
+          <t>Research activity</t>
         </is>
       </c>
       <c r="H507" s="3" t="inlineStr"/>
@@ -20309,7 +20333,7 @@
       <c r="A508" s="3" t="inlineStr"/>
       <c r="B508" s="3" t="inlineStr">
         <is>
-          <t>twin method</t>
+          <t>tweedie's trim and fill approach</t>
         </is>
       </c>
       <c r="C508" s="3" t="inlineStr"/>
@@ -20318,7 +20342,7 @@
       <c r="F508" s="3" t="inlineStr"/>
       <c r="G508" s="3" t="inlineStr">
         <is>
-          <t>Research activity</t>
+          <t xml:space="preserve">Research activity </t>
         </is>
       </c>
       <c r="H508" s="3" t="inlineStr"/>
@@ -20346,7 +20370,7 @@
       <c r="A509" s="3" t="inlineStr"/>
       <c r="B509" s="3" t="inlineStr">
         <is>
-          <t>twin research</t>
+          <t>twin method</t>
         </is>
       </c>
       <c r="C509" s="3" t="inlineStr"/>
@@ -20383,7 +20407,7 @@
       <c r="A510" s="3" t="inlineStr"/>
       <c r="B510" s="3" t="inlineStr">
         <is>
-          <t>twin-based heritability analysis</t>
+          <t>twin research</t>
         </is>
       </c>
       <c r="C510" s="3" t="inlineStr"/>
@@ -20420,7 +20444,7 @@
       <c r="A511" s="3" t="inlineStr"/>
       <c r="B511" s="3" t="inlineStr">
         <is>
-          <t>two-arm parallel group randomised controlled trial</t>
+          <t>twin-based heritability analysis</t>
         </is>
       </c>
       <c r="C511" s="3" t="inlineStr"/>
@@ -20457,7 +20481,7 @@
       <c r="A512" s="3" t="inlineStr"/>
       <c r="B512" s="3" t="inlineStr">
         <is>
-          <t>under-reporting</t>
+          <t>two-arm parallel group randomised controlled trial</t>
         </is>
       </c>
       <c r="C512" s="3" t="inlineStr"/>
@@ -20494,7 +20518,7 @@
       <c r="A513" s="3" t="inlineStr"/>
       <c r="B513" s="3" t="inlineStr">
         <is>
-          <t>under-sampling</t>
+          <t>under-reporting</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr"/>
@@ -20531,7 +20555,7 @@
       <c r="A514" s="3" t="inlineStr"/>
       <c r="B514" s="3" t="inlineStr">
         <is>
-          <t>unique variance</t>
+          <t>under-sampling</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr"/>
@@ -20568,7 +20592,7 @@
       <c r="A515" s="3" t="inlineStr"/>
       <c r="B515" s="3" t="inlineStr">
         <is>
-          <t>unplanned analysis</t>
+          <t>unique variance</t>
         </is>
       </c>
       <c r="C515" s="3" t="inlineStr"/>
@@ -20605,7 +20629,7 @@
       <c r="A516" s="3" t="inlineStr"/>
       <c r="B516" s="3" t="inlineStr">
         <is>
-          <t>unvalidated measure</t>
+          <t>unplanned analysis</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr"/>
@@ -20623,7 +20647,7 @@
       <c r="K516" s="3" t="inlineStr"/>
       <c r="L516" s="3" t="inlineStr"/>
       <c r="M516" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N516" s="3" t="n">
         <v>0</v>
@@ -20642,7 +20666,7 @@
       <c r="A517" s="3" t="inlineStr"/>
       <c r="B517" s="3" t="inlineStr">
         <is>
-          <t>urine drug screen</t>
+          <t>unvalidated measure</t>
         </is>
       </c>
       <c r="C517" s="3" t="inlineStr"/>
@@ -20656,15 +20680,11 @@
       </c>
       <c r="H517" s="3" t="inlineStr"/>
       <c r="I517" s="3" t="inlineStr"/>
-      <c r="J517" s="3" t="inlineStr">
-        <is>
-          <t>Urine drug test</t>
-        </is>
-      </c>
+      <c r="J517" s="3" t="inlineStr"/>
       <c r="K517" s="3" t="inlineStr"/>
       <c r="L517" s="3" t="inlineStr"/>
       <c r="M517" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N517" s="3" t="n">
         <v>0</v>
@@ -20683,7 +20703,7 @@
       <c r="A518" s="3" t="inlineStr"/>
       <c r="B518" s="3" t="inlineStr">
         <is>
-          <t>urine sample</t>
+          <t>urine drug screen</t>
         </is>
       </c>
       <c r="C518" s="3" t="inlineStr"/>
@@ -20697,7 +20717,11 @@
       </c>
       <c r="H518" s="3" t="inlineStr"/>
       <c r="I518" s="3" t="inlineStr"/>
-      <c r="J518" s="3" t="inlineStr"/>
+      <c r="J518" s="3" t="inlineStr">
+        <is>
+          <t>Urine drug test</t>
+        </is>
+      </c>
       <c r="K518" s="3" t="inlineStr"/>
       <c r="L518" s="3" t="inlineStr"/>
       <c r="M518" s="3" t="n">
@@ -20720,7 +20744,7 @@
       <c r="A519" s="3" t="inlineStr"/>
       <c r="B519" s="3" t="inlineStr">
         <is>
-          <t>urine testing for psychoactive substances</t>
+          <t>urine sample</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr"/>
@@ -20757,7 +20781,7 @@
       <c r="A520" s="3" t="inlineStr"/>
       <c r="B520" s="3" t="inlineStr">
         <is>
-          <t>urine toxicology for opioids</t>
+          <t>urine testing for psychoactive substances</t>
         </is>
       </c>
       <c r="C520" s="3" t="inlineStr"/>
@@ -20794,7 +20818,7 @@
       <c r="A521" s="3" t="inlineStr"/>
       <c r="B521" s="3" t="inlineStr">
         <is>
-          <t>urine toxicology screen</t>
+          <t>urine toxicology for opioids</t>
         </is>
       </c>
       <c r="C521" s="3" t="inlineStr"/>
@@ -20828,27 +20852,15 @@
       <c r="S521" s="3" t="inlineStr"/>
     </row>
     <row r="522">
-      <c r="A522" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000172</t>
-        </is>
-      </c>
+      <c r="A522" s="3" t="inlineStr"/>
       <c r="B522" s="3" t="inlineStr">
         <is>
-          <t>validated measure</t>
-        </is>
-      </c>
-      <c r="C522" s="3" t="inlineStr">
-        <is>
-          <t>A research measure that has been subjected to evaluation for one or more forms of validity and which it is claimed has reached or exceeded an appropriate threshold on that criterion.</t>
-        </is>
-      </c>
+          <t>urine toxicology screen</t>
+        </is>
+      </c>
+      <c r="C522" s="3" t="inlineStr"/>
       <c r="D522" s="3" t="inlineStr"/>
-      <c r="E522" s="3" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
+      <c r="E522" s="3" t="inlineStr"/>
       <c r="F522" s="3" t="inlineStr"/>
       <c r="G522" s="3" t="inlineStr">
         <is>
@@ -20877,15 +20889,27 @@
       <c r="S522" s="3" t="inlineStr"/>
     </row>
     <row r="523">
-      <c r="A523" s="3" t="inlineStr"/>
+      <c r="A523" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000172</t>
+        </is>
+      </c>
       <c r="B523" s="3" t="inlineStr">
         <is>
-          <t>validity of a measure</t>
-        </is>
-      </c>
-      <c r="C523" s="3" t="inlineStr"/>
+          <t>validated measure</t>
+        </is>
+      </c>
+      <c r="C523" s="3" t="inlineStr">
+        <is>
+          <t>A research measure that has been subjected to evaluation for one or more forms of validity and which it is claimed has reached or exceeded an appropriate threshold on that criterion.</t>
+        </is>
+      </c>
       <c r="D523" s="3" t="inlineStr"/>
-      <c r="E523" s="3" t="inlineStr"/>
+      <c r="E523" s="3" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
       <c r="F523" s="3" t="inlineStr"/>
       <c r="G523" s="3" t="inlineStr">
         <is>
@@ -20917,7 +20941,7 @@
       <c r="A524" s="3" t="inlineStr"/>
       <c r="B524" s="3" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>validity of a measure</t>
         </is>
       </c>
       <c r="C524" s="3" t="inlineStr"/>
@@ -20954,7 +20978,7 @@
       <c r="A525" s="3" t="inlineStr"/>
       <c r="B525" s="3" t="inlineStr">
         <is>
-          <t>video recording</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="C525" s="3" t="inlineStr"/>
@@ -20991,7 +21015,7 @@
       <c r="A526" s="3" t="inlineStr"/>
       <c r="B526" s="3" t="inlineStr">
         <is>
-          <t>visual analogue scale</t>
+          <t>video recording</t>
         </is>
       </c>
       <c r="C526" s="3" t="inlineStr"/>
@@ -21028,7 +21052,7 @@
       <c r="A527" s="3" t="inlineStr"/>
       <c r="B527" s="3" t="inlineStr">
         <is>
-          <t>visual probe task</t>
+          <t>visual analogue scale</t>
         </is>
       </c>
       <c r="C527" s="3" t="inlineStr"/>
@@ -21065,7 +21089,7 @@
       <c r="A528" s="3" t="inlineStr"/>
       <c r="B528" s="3" t="inlineStr">
         <is>
-          <t>weekly urine drug test result</t>
+          <t>visual probe task</t>
         </is>
       </c>
       <c r="C528" s="3" t="inlineStr"/>
@@ -21102,7 +21126,7 @@
       <c r="A529" s="3" t="inlineStr"/>
       <c r="B529" s="3" t="inlineStr">
         <is>
-          <t>weighted estimate</t>
+          <t>weekly urine drug test result</t>
         </is>
       </c>
       <c r="C529" s="3" t="inlineStr"/>
@@ -21139,7 +21163,7 @@
       <c r="A530" s="3" t="inlineStr"/>
       <c r="B530" s="3" t="inlineStr">
         <is>
-          <t>within-country estimate</t>
+          <t>weighted estimate</t>
         </is>
       </c>
       <c r="C530" s="3" t="inlineStr"/>
@@ -21173,32 +21197,16 @@
       <c r="S530" s="3" t="inlineStr"/>
     </row>
     <row r="531">
-      <c r="A531" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000173</t>
-        </is>
-      </c>
+      <c r="A531" s="3" t="inlineStr"/>
       <c r="B531" s="3" t="inlineStr">
         <is>
-          <t>work absence register</t>
-        </is>
-      </c>
-      <c r="C531" s="3" t="inlineStr">
-        <is>
-          <t>A database documenting absence from work</t>
-        </is>
-      </c>
+          <t>within-country estimate</t>
+        </is>
+      </c>
+      <c r="C531" s="3" t="inlineStr"/>
       <c r="D531" s="3" t="inlineStr"/>
-      <c r="E531" s="3" t="inlineStr">
-        <is>
-          <t>data source</t>
-        </is>
-      </c>
-      <c r="F531" s="3" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+      <c r="E531" s="3" t="inlineStr"/>
+      <c r="F531" s="3" t="inlineStr"/>
       <c r="G531" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -21206,11 +21214,7 @@
       </c>
       <c r="H531" s="3" t="inlineStr"/>
       <c r="I531" s="3" t="inlineStr"/>
-      <c r="J531" s="3" t="inlineStr">
-        <is>
-          <t>Absence register</t>
-        </is>
-      </c>
+      <c r="J531" s="3" t="inlineStr"/>
       <c r="K531" s="3" t="inlineStr"/>
       <c r="L531" s="3" t="inlineStr"/>
       <c r="M531" s="3" t="n">
@@ -21232,26 +21236,30 @@
     <row r="532">
       <c r="A532" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000174</t>
+          <t>ADDICTO:0000173</t>
         </is>
       </c>
       <c r="B532" s="3" t="inlineStr">
         <is>
-          <t>year of publication</t>
+          <t>work absence register</t>
         </is>
       </c>
       <c r="C532" s="3" t="inlineStr">
         <is>
-          <t>A publication attribute that is the year in which it was published</t>
+          <t>A database documenting absence from work</t>
         </is>
       </c>
       <c r="D532" s="3" t="inlineStr"/>
       <c r="E532" s="3" t="inlineStr">
         <is>
-          <t>publication attribute</t>
-        </is>
-      </c>
-      <c r="F532" s="3" t="inlineStr"/>
+          <t>data source</t>
+        </is>
+      </c>
+      <c r="F532" s="3" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="G532" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -21259,7 +21267,11 @@
       </c>
       <c r="H532" s="3" t="inlineStr"/>
       <c r="I532" s="3" t="inlineStr"/>
-      <c r="J532" s="3" t="inlineStr"/>
+      <c r="J532" s="3" t="inlineStr">
+        <is>
+          <t>Absence register</t>
+        </is>
+      </c>
       <c r="K532" s="3" t="inlineStr"/>
       <c r="L532" s="3" t="inlineStr"/>
       <c r="M532" s="3" t="n">
@@ -21277,6 +21289,55 @@
       </c>
       <c r="R532" s="3" t="inlineStr"/>
       <c r="S532" s="3" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000174</t>
+        </is>
+      </c>
+      <c r="B533" s="3" t="inlineStr">
+        <is>
+          <t>year of publication</t>
+        </is>
+      </c>
+      <c r="C533" s="3" t="inlineStr">
+        <is>
+          <t>A publication attribute that is the year in which it was published</t>
+        </is>
+      </c>
+      <c r="D533" s="3" t="inlineStr"/>
+      <c r="E533" s="3" t="inlineStr">
+        <is>
+          <t>publication attribute</t>
+        </is>
+      </c>
+      <c r="F533" s="3" t="inlineStr"/>
+      <c r="G533" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H533" s="3" t="inlineStr"/>
+      <c r="I533" s="3" t="inlineStr"/>
+      <c r="J533" s="3" t="inlineStr"/>
+      <c r="K533" s="3" t="inlineStr"/>
+      <c r="L533" s="3" t="inlineStr"/>
+      <c r="M533" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N533" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O533" s="3" t="inlineStr"/>
+      <c r="P533" s="3" t="inlineStr"/>
+      <c r="Q533" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R533" s="3" t="inlineStr"/>
+      <c r="S533" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S533"/>
+  <dimension ref="A1:S534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="L198" s="3" t="inlineStr"/>
       <c r="M198" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N198" s="3" t="b">
         <v>0</v>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="L199" s="3" t="inlineStr"/>
       <c r="M199" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N199" s="3" t="b">
         <v>0</v>
@@ -10179,10 +10179,10 @@
       <c r="J245" s="3" t="inlineStr"/>
       <c r="K245" s="3" t="inlineStr"/>
       <c r="L245" s="3" t="inlineStr"/>
-      <c r="M245" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N245" s="3" t="n">
+      <c r="M245" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N245" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O245" s="3" t="inlineStr"/>
@@ -10196,7 +10196,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R245" s="3" t="inlineStr"/>
+      <c r="R245" s="3" t="inlineStr">
+        <is>
+          <t>SC;JH;CN</t>
+        </is>
+      </c>
       <c r="S245" s="3" t="inlineStr"/>
     </row>
     <row r="246">
@@ -12924,7 +12928,7 @@
       </c>
       <c r="L317" s="3" t="inlineStr"/>
       <c r="M317" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N317" s="3" t="b">
         <v>0</v>
@@ -12989,7 +12993,7 @@
       <c r="K318" s="3" t="inlineStr"/>
       <c r="L318" s="3" t="inlineStr"/>
       <c r="M318" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N318" s="3" t="n">
         <v>0</v>
@@ -15517,25 +15521,21 @@
       <c r="S382" t="inlineStr"/>
     </row>
     <row r="383">
-      <c r="A383" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000152</t>
-        </is>
-      </c>
+      <c r="A383" s="3" t="inlineStr"/>
       <c r="B383" s="3" t="inlineStr">
         <is>
-          <t>research measure</t>
+          <t>research literature</t>
         </is>
       </c>
       <c r="C383" s="3" t="inlineStr">
         <is>
-          <t>An information content entity that is used in a research study to specify how a measurement should be undertaken.</t>
+          <t>Literature that is an output of research activity</t>
         </is>
       </c>
       <c r="D383" s="3" t="inlineStr"/>
       <c r="E383" s="3" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="F383" s="3" t="inlineStr"/>
@@ -15544,23 +15544,19 @@
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H383" s="3" t="inlineStr">
-        <is>
-          <t>This and the one below need VERY clear labels to disambiguate</t>
-        </is>
-      </c>
+      <c r="H383" s="3" t="inlineStr"/>
       <c r="I383" s="3" t="inlineStr"/>
       <c r="J383" s="3" t="inlineStr"/>
       <c r="K383" s="3" t="inlineStr"/>
       <c r="L383" s="3" t="inlineStr"/>
-      <c r="M383" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N383" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M383" s="3" t="inlineStr"/>
+      <c r="N383" s="3" t="inlineStr"/>
       <c r="O383" s="3" t="inlineStr"/>
-      <c r="P383" s="3" t="inlineStr"/>
+      <c r="P383" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q383" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -15570,143 +15566,143 @@
       <c r="S383" s="3" t="inlineStr"/>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
+      <c r="A384" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000152</t>
+        </is>
+      </c>
+      <c r="B384" s="3" t="inlineStr">
+        <is>
+          <t>research measure</t>
+        </is>
+      </c>
+      <c r="C384" s="3" t="inlineStr">
+        <is>
+          <t>An information content entity that is used in a research study to specify how a measurement should be undertaken.</t>
+        </is>
+      </c>
+      <c r="D384" s="3" t="inlineStr"/>
+      <c r="E384" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="F384" s="3" t="inlineStr"/>
+      <c r="G384" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H384" s="3" t="inlineStr">
+        <is>
+          <t>This and the one below need VERY clear labels to disambiguate</t>
+        </is>
+      </c>
+      <c r="I384" s="3" t="inlineStr"/>
+      <c r="J384" s="3" t="inlineStr"/>
+      <c r="K384" s="3" t="inlineStr"/>
+      <c r="L384" s="3" t="inlineStr"/>
+      <c r="M384" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N384" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O384" s="3" t="inlineStr"/>
+      <c r="P384" s="3" t="inlineStr"/>
+      <c r="Q384" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R384" s="3" t="inlineStr"/>
+      <c r="S384" s="3" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
         <is>
           <t>SEPIO:0000125</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr">
+      <c r="B385" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr">
+      <c r="C385" t="inlineStr">
         <is>
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D384" t="inlineStr"/>
-      <c r="E384" t="inlineStr">
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr">
         <is>
           <t>research activity</t>
         </is>
       </c>
-      <c r="F384" t="inlineStr">
+      <c r="F385" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H384" t="inlineStr"/>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
-      <c r="M384" t="b">
-        <v>0</v>
-      </c>
-      <c r="N384" t="n">
-        <v>0</v>
-      </c>
-      <c r="O384" t="inlineStr"/>
-      <c r="P384" t="inlineStr">
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
+      <c r="M385" t="b">
+        <v>0</v>
+      </c>
+      <c r="N385" t="n">
+        <v>0</v>
+      </c>
+      <c r="O385" t="inlineStr"/>
+      <c r="P385" t="inlineStr">
         <is>
           <t>RW; KS</t>
         </is>
       </c>
-      <c r="Q384" t="inlineStr">
+      <c r="Q385" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R384" t="inlineStr">
+      <c r="R385" t="inlineStr">
         <is>
           <t>JH;SC;CN</t>
         </is>
       </c>
-      <c r="S384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000153</t>
-        </is>
-      </c>
-      <c r="B385" s="3" t="inlineStr">
-        <is>
-          <t>research study measurement</t>
-        </is>
-      </c>
-      <c r="C385" s="3" t="inlineStr">
-        <is>
-          <t>A planned process that has as its output a data item corresponding to a quantitative or qualitative description of the attributes of an entity.</t>
-        </is>
-      </c>
-      <c r="D385" s="3" t="inlineStr">
-        <is>
-          <t>Measurement is not itself defined, except tautologically as "the data item that is the output of a measuremnet"</t>
-        </is>
-      </c>
-      <c r="E385" s="3" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="F385" s="3" t="inlineStr"/>
-      <c r="G385" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H385" s="3" t="inlineStr">
-        <is>
-          <t>Why not just 'measurement'?</t>
-        </is>
-      </c>
-      <c r="I385" s="3" t="inlineStr"/>
-      <c r="J385" s="3" t="inlineStr"/>
-      <c r="K385" s="3" t="inlineStr"/>
-      <c r="L385" s="3" t="inlineStr"/>
-      <c r="M385" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N385" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O385" s="3" t="inlineStr"/>
-      <c r="P385" s="3" t="inlineStr"/>
-      <c r="Q385" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R385" s="3" t="inlineStr"/>
-      <c r="S385" s="3" t="inlineStr"/>
+      <c r="S385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000154</t>
+          <t>ADDICTO:0000153</t>
         </is>
       </c>
       <c r="B386" s="3" t="inlineStr">
         <is>
-          <t>research study measurement datum</t>
+          <t>research study measurement</t>
         </is>
       </c>
       <c r="C386" s="3" t="inlineStr">
         <is>
-          <t>A measurment datum that is produced as part of a research study.</t>
-        </is>
-      </c>
-      <c r="D386" s="3" t="inlineStr"/>
+          <t>A planned process that has as its output a data item corresponding to a quantitative or qualitative description of the attributes of an entity.</t>
+        </is>
+      </c>
+      <c r="D386" s="3" t="inlineStr">
+        <is>
+          <t>Measurement is not itself defined, except tautologically as "the data item that is the output of a measuremnet"</t>
+        </is>
+      </c>
       <c r="E386" s="3" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="F386" s="3" t="inlineStr"/>
@@ -15715,7 +15711,11 @@
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H386" s="3" t="inlineStr"/>
+      <c r="H386" s="3" t="inlineStr">
+        <is>
+          <t>Why not just 'measurement'?</t>
+        </is>
+      </c>
       <c r="I386" s="3" t="inlineStr"/>
       <c r="J386" s="3" t="inlineStr"/>
       <c r="K386" s="3" t="inlineStr"/>
@@ -15727,11 +15727,7 @@
         <v>0</v>
       </c>
       <c r="O386" s="3" t="inlineStr"/>
-      <c r="P386" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P386" s="3" t="inlineStr"/>
       <c r="Q386" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -15741,19 +15737,27 @@
       <c r="S386" s="3" t="inlineStr"/>
     </row>
     <row r="387">
-      <c r="A387" s="3" t="inlineStr"/>
+      <c r="A387" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000154</t>
+        </is>
+      </c>
       <c r="B387" s="3" t="inlineStr">
         <is>
-          <t>researcher</t>
+          <t>research study measurement datum</t>
         </is>
       </c>
       <c r="C387" s="3" t="inlineStr">
         <is>
-          <t>A role of someone who conducts research</t>
+          <t>A measurment datum that is produced as part of a research study.</t>
         </is>
       </c>
       <c r="D387" s="3" t="inlineStr"/>
-      <c r="E387" s="3" t="inlineStr"/>
+      <c r="E387" s="3" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
       <c r="F387" s="3" t="inlineStr"/>
       <c r="G387" s="3" t="inlineStr">
         <is>
@@ -15766,13 +15770,17 @@
       <c r="K387" s="3" t="inlineStr"/>
       <c r="L387" s="3" t="inlineStr"/>
       <c r="M387" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N387" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O387" s="3" t="inlineStr"/>
-      <c r="P387" s="3" t="inlineStr"/>
+      <c r="P387" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q387" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -15785,10 +15793,14 @@
       <c r="A388" s="3" t="inlineStr"/>
       <c r="B388" s="3" t="inlineStr">
         <is>
-          <t>respondent</t>
-        </is>
-      </c>
-      <c r="C388" s="3" t="inlineStr"/>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="C388" s="3" t="inlineStr">
+        <is>
+          <t>A role of someone who conducts research</t>
+        </is>
+      </c>
       <c r="D388" s="3" t="inlineStr"/>
       <c r="E388" s="3" t="inlineStr"/>
       <c r="F388" s="3" t="inlineStr"/>
@@ -15822,7 +15834,7 @@
       <c r="A389" s="3" t="inlineStr"/>
       <c r="B389" s="3" t="inlineStr">
         <is>
-          <t>retention in study</t>
+          <t>respondent</t>
         </is>
       </c>
       <c r="C389" s="3" t="inlineStr"/>
@@ -15859,7 +15871,7 @@
       <c r="A390" s="3" t="inlineStr"/>
       <c r="B390" s="3" t="inlineStr">
         <is>
-          <t>retrospective cohort study</t>
+          <t>retention in study</t>
         </is>
       </c>
       <c r="C390" s="3" t="inlineStr"/>
@@ -15896,7 +15908,7 @@
       <c r="A391" s="3" t="inlineStr"/>
       <c r="B391" s="3" t="inlineStr">
         <is>
-          <t>retrospective comparative cohort design</t>
+          <t>retrospective cohort study</t>
         </is>
       </c>
       <c r="C391" s="3" t="inlineStr"/>
@@ -15933,7 +15945,7 @@
       <c r="A392" s="3" t="inlineStr"/>
       <c r="B392" s="3" t="inlineStr">
         <is>
-          <t>retrospective observational cohort study</t>
+          <t>retrospective comparative cohort design</t>
         </is>
       </c>
       <c r="C392" s="3" t="inlineStr"/>
@@ -15970,7 +15982,7 @@
       <c r="A393" s="3" t="inlineStr"/>
       <c r="B393" s="3" t="inlineStr">
         <is>
-          <t>retrospective report</t>
+          <t>retrospective observational cohort study</t>
         </is>
       </c>
       <c r="C393" s="3" t="inlineStr"/>
@@ -16007,7 +16019,7 @@
       <c r="A394" s="3" t="inlineStr"/>
       <c r="B394" s="3" t="inlineStr">
         <is>
-          <t>retrospective study</t>
+          <t>retrospective report</t>
         </is>
       </c>
       <c r="C394" s="3" t="inlineStr"/>
@@ -16044,7 +16056,7 @@
       <c r="A395" s="3" t="inlineStr"/>
       <c r="B395" s="3" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>retrospective study</t>
         </is>
       </c>
       <c r="C395" s="3" t="inlineStr"/>
@@ -16062,7 +16074,7 @@
       <c r="K395" s="3" t="inlineStr"/>
       <c r="L395" s="3" t="inlineStr"/>
       <c r="M395" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N395" s="3" t="n">
         <v>0</v>
@@ -16081,7 +16093,7 @@
       <c r="A396" s="3" t="inlineStr"/>
       <c r="B396" s="3" t="inlineStr">
         <is>
-          <t>risk factor</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="C396" s="3" t="inlineStr"/>
@@ -16118,7 +16130,7 @@
       <c r="A397" s="3" t="inlineStr"/>
       <c r="B397" s="3" t="inlineStr">
         <is>
-          <t>risk of bias</t>
+          <t>risk factor</t>
         </is>
       </c>
       <c r="C397" s="3" t="inlineStr"/>
@@ -16155,7 +16167,7 @@
       <c r="A398" s="3" t="inlineStr"/>
       <c r="B398" s="3" t="inlineStr">
         <is>
-          <t>risk ratio</t>
+          <t>risk of bias</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr"/>
@@ -16173,7 +16185,7 @@
       <c r="K398" s="3" t="inlineStr"/>
       <c r="L398" s="3" t="inlineStr"/>
       <c r="M398" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N398" s="3" t="n">
         <v>0</v>
@@ -16192,7 +16204,7 @@
       <c r="A399" s="3" t="inlineStr"/>
       <c r="B399" s="3" t="inlineStr">
         <is>
-          <t>robust predictor</t>
+          <t>risk ratio</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr"/>
@@ -16229,7 +16241,7 @@
       <c r="A400" s="3" t="inlineStr"/>
       <c r="B400" s="3" t="inlineStr">
         <is>
-          <t>russell Standard</t>
+          <t>robust predictor</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr"/>
@@ -16266,7 +16278,7 @@
       <c r="A401" s="3" t="inlineStr"/>
       <c r="B401" s="3" t="inlineStr">
         <is>
-          <t>russell Standard (Clinical)</t>
+          <t>russell Standard</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr"/>
@@ -16303,7 +16315,7 @@
       <c r="A402" s="3" t="inlineStr"/>
       <c r="B402" s="3" t="inlineStr">
         <is>
-          <t>russell Standard outcome criteria</t>
+          <t>russell Standard (Clinical)</t>
         </is>
       </c>
       <c r="C402" s="3" t="inlineStr"/>
@@ -16340,7 +16352,7 @@
       <c r="A403" s="3" t="inlineStr"/>
       <c r="B403" s="3" t="inlineStr">
         <is>
-          <t>saliva drug test</t>
+          <t>russell Standard outcome criteria</t>
         </is>
       </c>
       <c r="C403" s="3" t="inlineStr"/>
@@ -16377,7 +16389,7 @@
       <c r="A404" s="3" t="inlineStr"/>
       <c r="B404" s="3" t="inlineStr">
         <is>
-          <t>sample size</t>
+          <t>saliva drug test</t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr"/>
@@ -16414,7 +16426,7 @@
       <c r="A405" s="3" t="inlineStr"/>
       <c r="B405" s="3" t="inlineStr">
         <is>
-          <t>sampling method</t>
+          <t>sample size</t>
         </is>
       </c>
       <c r="C405" s="3" t="inlineStr"/>
@@ -16451,7 +16463,7 @@
       <c r="A406" s="3" t="inlineStr"/>
       <c r="B406" s="3" t="inlineStr">
         <is>
-          <t>screening for alcohol use disorder</t>
+          <t>sampling method</t>
         </is>
       </c>
       <c r="C406" s="3" t="inlineStr"/>
@@ -16488,7 +16500,7 @@
       <c r="A407" s="3" t="inlineStr"/>
       <c r="B407" s="3" t="inlineStr">
         <is>
-          <t>secondary data analysis</t>
+          <t>screening for alcohol use disorder</t>
         </is>
       </c>
       <c r="C407" s="3" t="inlineStr"/>
@@ -16525,7 +16537,7 @@
       <c r="A408" s="3" t="inlineStr"/>
       <c r="B408" s="3" t="inlineStr">
         <is>
-          <t>secondary outcome</t>
+          <t>secondary data analysis</t>
         </is>
       </c>
       <c r="C408" s="3" t="inlineStr"/>
@@ -16562,7 +16574,7 @@
       <c r="A409" s="3" t="inlineStr"/>
       <c r="B409" s="3" t="inlineStr">
         <is>
-          <t>secondary study aim</t>
+          <t>secondary outcome</t>
         </is>
       </c>
       <c r="C409" s="3" t="inlineStr"/>
@@ -16599,7 +16611,7 @@
       <c r="A410" s="3" t="inlineStr"/>
       <c r="B410" s="3" t="inlineStr">
         <is>
-          <t>segmented regression model</t>
+          <t>secondary study aim</t>
         </is>
       </c>
       <c r="C410" s="3" t="inlineStr"/>
@@ -16636,7 +16648,7 @@
       <c r="A411" s="3" t="inlineStr"/>
       <c r="B411" s="3" t="inlineStr">
         <is>
-          <t>selection bias</t>
+          <t>segmented regression model</t>
         </is>
       </c>
       <c r="C411" s="3" t="inlineStr"/>
@@ -16673,7 +16685,7 @@
       <c r="A412" s="3" t="inlineStr"/>
       <c r="B412" s="3" t="inlineStr">
         <is>
-          <t>self-report measure</t>
+          <t>selection bias</t>
         </is>
       </c>
       <c r="C412" s="3" t="inlineStr"/>
@@ -16691,7 +16703,7 @@
       <c r="K412" s="3" t="inlineStr"/>
       <c r="L412" s="3" t="inlineStr"/>
       <c r="M412" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N412" s="3" t="n">
         <v>0</v>
@@ -16707,100 +16719,100 @@
       <c r="S412" s="3" t="inlineStr"/>
     </row>
     <row r="413">
-      <c r="A413" s="2" t="inlineStr">
+      <c r="A413" s="3" t="inlineStr"/>
+      <c r="B413" s="3" t="inlineStr">
+        <is>
+          <t>self-report measure</t>
+        </is>
+      </c>
+      <c r="C413" s="3" t="inlineStr"/>
+      <c r="D413" s="3" t="inlineStr"/>
+      <c r="E413" s="3" t="inlineStr"/>
+      <c r="F413" s="3" t="inlineStr"/>
+      <c r="G413" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H413" s="3" t="inlineStr"/>
+      <c r="I413" s="3" t="inlineStr"/>
+      <c r="J413" s="3" t="inlineStr"/>
+      <c r="K413" s="3" t="inlineStr"/>
+      <c r="L413" s="3" t="inlineStr"/>
+      <c r="M413" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N413" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O413" s="3" t="inlineStr"/>
+      <c r="P413" s="3" t="inlineStr"/>
+      <c r="Q413" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R413" s="3" t="inlineStr"/>
+      <c r="S413" s="3" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000155</t>
         </is>
       </c>
-      <c r="B413" s="2" t="inlineStr">
+      <c r="B414" s="2" t="inlineStr">
         <is>
           <t>self-report questionnaire</t>
         </is>
       </c>
-      <c r="C413" s="2" t="inlineStr">
+      <c r="C414" s="2" t="inlineStr">
         <is>
           <t>A questionnaire that is administered in such a way that the person completing the questionnaire is answering questions about themselves.</t>
         </is>
       </c>
-      <c r="D413" s="2" t="inlineStr"/>
-      <c r="E413" s="2" t="inlineStr">
+      <c r="D414" s="2" t="inlineStr"/>
+      <c r="E414" s="2" t="inlineStr">
         <is>
           <t>questionnaire administration</t>
         </is>
       </c>
-      <c r="F413" s="2" t="inlineStr">
+      <c r="F414" s="2" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="G413" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H413" s="2" t="inlineStr"/>
-      <c r="I413" s="2" t="inlineStr"/>
-      <c r="J413" s="2" t="inlineStr"/>
-      <c r="K413" s="2" t="inlineStr"/>
-      <c r="L413" s="2" t="inlineStr"/>
-      <c r="M413" s="2" t="n">
+      <c r="G414" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H414" s="2" t="inlineStr"/>
+      <c r="I414" s="2" t="inlineStr"/>
+      <c r="J414" s="2" t="inlineStr"/>
+      <c r="K414" s="2" t="inlineStr"/>
+      <c r="L414" s="2" t="inlineStr"/>
+      <c r="M414" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N413" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O413" s="2" t="inlineStr"/>
-      <c r="P413" s="2" t="inlineStr"/>
-      <c r="Q413" s="2" t="inlineStr">
+      <c r="N414" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O414" s="2" t="inlineStr"/>
+      <c r="P414" s="2" t="inlineStr"/>
+      <c r="Q414" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R413" s="2" t="inlineStr"/>
-      <c r="S413" s="2" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="3" t="inlineStr"/>
-      <c r="B414" s="3" t="inlineStr">
-        <is>
-          <t>self-report substance intake</t>
-        </is>
-      </c>
-      <c r="C414" s="3" t="inlineStr"/>
-      <c r="D414" s="3" t="inlineStr"/>
-      <c r="E414" s="3" t="inlineStr"/>
-      <c r="F414" s="3" t="inlineStr"/>
-      <c r="G414" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H414" s="3" t="inlineStr"/>
-      <c r="I414" s="3" t="inlineStr"/>
-      <c r="J414" s="3" t="inlineStr"/>
-      <c r="K414" s="3" t="inlineStr"/>
-      <c r="L414" s="3" t="inlineStr"/>
-      <c r="M414" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N414" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O414" s="3" t="inlineStr"/>
-      <c r="P414" s="3" t="inlineStr"/>
-      <c r="Q414" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R414" s="3" t="inlineStr"/>
-      <c r="S414" s="3" t="inlineStr"/>
+      <c r="R414" s="2" t="inlineStr"/>
+      <c r="S414" s="2" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="3" t="inlineStr"/>
       <c r="B415" s="3" t="inlineStr">
         <is>
-          <t>self-report survey</t>
+          <t>self-report substance intake</t>
         </is>
       </c>
       <c r="C415" s="3" t="inlineStr"/>
@@ -16837,7 +16849,7 @@
       <c r="A416" s="3" t="inlineStr"/>
       <c r="B416" s="3" t="inlineStr">
         <is>
-          <t>self-reported NMUA</t>
+          <t>self-report survey</t>
         </is>
       </c>
       <c r="C416" s="3" t="inlineStr"/>
@@ -16874,7 +16886,7 @@
       <c r="A417" s="3" t="inlineStr"/>
       <c r="B417" s="3" t="inlineStr">
         <is>
-          <t>self-reported cessation</t>
+          <t>self-reported NMUA</t>
         </is>
       </c>
       <c r="C417" s="3" t="inlineStr"/>
@@ -16911,7 +16923,7 @@
       <c r="A418" s="3" t="inlineStr"/>
       <c r="B418" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence</t>
+          <t>self-reported cessation</t>
         </is>
       </c>
       <c r="C418" s="3" t="inlineStr"/>
@@ -16948,7 +16960,7 @@
       <c r="A419" s="3" t="inlineStr"/>
       <c r="B419" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence from smoking</t>
+          <t>self-reported continuous abstinence</t>
         </is>
       </c>
       <c r="C419" s="3" t="inlineStr"/>
@@ -16985,7 +16997,7 @@
       <c r="A420" s="3" t="inlineStr"/>
       <c r="B420" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence up to 6-month follow up</t>
+          <t>self-reported continuous abstinence from smoking</t>
         </is>
       </c>
       <c r="C420" s="3" t="inlineStr"/>
@@ -17022,7 +17034,7 @@
       <c r="A421" s="3" t="inlineStr"/>
       <c r="B421" s="3" t="inlineStr">
         <is>
-          <t>self-reported drug use</t>
+          <t>self-reported continuous abstinence up to 6-month follow up</t>
         </is>
       </c>
       <c r="C421" s="3" t="inlineStr"/>
@@ -17059,7 +17071,7 @@
       <c r="A422" s="3" t="inlineStr"/>
       <c r="B422" s="3" t="inlineStr">
         <is>
-          <t>self-reported injection drug use</t>
+          <t>self-reported drug use</t>
         </is>
       </c>
       <c r="C422" s="3" t="inlineStr"/>
@@ -17096,7 +17108,7 @@
       <c r="A423" s="3" t="inlineStr"/>
       <c r="B423" s="3" t="inlineStr">
         <is>
-          <t>self-reported non-smoker</t>
+          <t>self-reported injection drug use</t>
         </is>
       </c>
       <c r="C423" s="3" t="inlineStr"/>
@@ -17133,7 +17145,7 @@
       <c r="A424" s="3" t="inlineStr"/>
       <c r="B424" s="3" t="inlineStr">
         <is>
-          <t>self-reported smoking abstinence</t>
+          <t>self-reported non-smoker</t>
         </is>
       </c>
       <c r="C424" s="3" t="inlineStr"/>
@@ -17151,7 +17163,7 @@
       <c r="K424" s="3" t="inlineStr"/>
       <c r="L424" s="3" t="inlineStr"/>
       <c r="M424" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N424" s="3" t="n">
         <v>0</v>
@@ -17170,7 +17182,7 @@
       <c r="A425" s="3" t="inlineStr"/>
       <c r="B425" s="3" t="inlineStr">
         <is>
-          <t>self-reported stimulant use</t>
+          <t>self-reported smoking abstinence</t>
         </is>
       </c>
       <c r="C425" s="3" t="inlineStr"/>
@@ -17188,7 +17200,7 @@
       <c r="K425" s="3" t="inlineStr"/>
       <c r="L425" s="3" t="inlineStr"/>
       <c r="M425" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N425" s="3" t="n">
         <v>0</v>
@@ -17207,7 +17219,7 @@
       <c r="A426" s="3" t="inlineStr"/>
       <c r="B426" s="3" t="inlineStr">
         <is>
-          <t>self-reported substance use</t>
+          <t>self-reported stimulant use</t>
         </is>
       </c>
       <c r="C426" s="3" t="inlineStr"/>
@@ -17244,7 +17256,7 @@
       <c r="A427" s="3" t="inlineStr"/>
       <c r="B427" s="3" t="inlineStr">
         <is>
-          <t>self-reported tobacco abstinence</t>
+          <t>self-reported substance use</t>
         </is>
       </c>
       <c r="C427" s="3" t="inlineStr"/>
@@ -17262,7 +17274,7 @@
       <c r="K427" s="3" t="inlineStr"/>
       <c r="L427" s="3" t="inlineStr"/>
       <c r="M427" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N427" s="3" t="n">
         <v>0</v>
@@ -17281,7 +17293,7 @@
       <c r="A428" s="3" t="inlineStr"/>
       <c r="B428" s="3" t="inlineStr">
         <is>
-          <t>semi-quantative assessment</t>
+          <t>self-reported tobacco abstinence</t>
         </is>
       </c>
       <c r="C428" s="3" t="inlineStr"/>
@@ -17299,7 +17311,7 @@
       <c r="K428" s="3" t="inlineStr"/>
       <c r="L428" s="3" t="inlineStr"/>
       <c r="M428" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N428" s="3" t="n">
         <v>0</v>
@@ -17318,7 +17330,7 @@
       <c r="A429" s="3" t="inlineStr"/>
       <c r="B429" s="3" t="inlineStr">
         <is>
-          <t>sensitivity analysis</t>
+          <t>semi-quantative assessment</t>
         </is>
       </c>
       <c r="C429" s="3" t="inlineStr"/>
@@ -17355,7 +17367,7 @@
       <c r="A430" s="3" t="inlineStr"/>
       <c r="B430" s="3" t="inlineStr">
         <is>
-          <t>serology test</t>
+          <t>sensitivity analysis</t>
         </is>
       </c>
       <c r="C430" s="3" t="inlineStr"/>
@@ -17392,7 +17404,7 @@
       <c r="A431" s="3" t="inlineStr"/>
       <c r="B431" s="3" t="inlineStr">
         <is>
-          <t>severity measure</t>
+          <t>serology test</t>
         </is>
       </c>
       <c r="C431" s="3" t="inlineStr"/>
@@ -17429,25 +17441,13 @@
       <c r="A432" s="3" t="inlineStr"/>
       <c r="B432" s="3" t="inlineStr">
         <is>
-          <t>severity of dependence scale (SDS)</t>
-        </is>
-      </c>
-      <c r="C432" s="3" t="inlineStr">
-        <is>
-          <t>A 5 item scale that provides a measure of the severity of dependence. Designed to assess opioid dependence it has been adapted to assess severity of dependence across multiple drug categories</t>
-        </is>
-      </c>
-      <c r="D432" s="3" t="inlineStr">
-        <is>
-          <t>https://www.who.int/substance_abuse/research_tools/severitydependencescale/en/</t>
-        </is>
-      </c>
+          <t>severity measure</t>
+        </is>
+      </c>
+      <c r="C432" s="3" t="inlineStr"/>
+      <c r="D432" s="3" t="inlineStr"/>
       <c r="E432" s="3" t="inlineStr"/>
-      <c r="F432" s="3" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+      <c r="F432" s="3" t="inlineStr"/>
       <c r="G432" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17478,13 +17478,25 @@
       <c r="A433" s="3" t="inlineStr"/>
       <c r="B433" s="3" t="inlineStr">
         <is>
-          <t>sex-specific quantile age-period-cohort regression</t>
-        </is>
-      </c>
-      <c r="C433" s="3" t="inlineStr"/>
-      <c r="D433" s="3" t="inlineStr"/>
+          <t>severity of dependence scale (SDS)</t>
+        </is>
+      </c>
+      <c r="C433" s="3" t="inlineStr">
+        <is>
+          <t>A 5 item scale that provides a measure of the severity of dependence. Designed to assess opioid dependence it has been adapted to assess severity of dependence across multiple drug categories</t>
+        </is>
+      </c>
+      <c r="D433" s="3" t="inlineStr">
+        <is>
+          <t>https://www.who.int/substance_abuse/research_tools/severitydependencescale/en/</t>
+        </is>
+      </c>
       <c r="E433" s="3" t="inlineStr"/>
-      <c r="F433" s="3" t="inlineStr"/>
+      <c r="F433" s="3" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="G433" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17515,7 +17527,7 @@
       <c r="A434" s="3" t="inlineStr"/>
       <c r="B434" s="3" t="inlineStr">
         <is>
-          <t>shared risk factor</t>
+          <t>sex-specific quantile age-period-cohort regression</t>
         </is>
       </c>
       <c r="C434" s="3" t="inlineStr"/>
@@ -17552,7 +17564,7 @@
       <c r="A435" s="3" t="inlineStr"/>
       <c r="B435" s="3" t="inlineStr">
         <is>
-          <t>shared variance</t>
+          <t>shared risk factor</t>
         </is>
       </c>
       <c r="C435" s="3" t="inlineStr"/>
@@ -17589,7 +17601,7 @@
       <c r="A436" s="3" t="inlineStr"/>
       <c r="B436" s="3" t="inlineStr">
         <is>
-          <t>sheffield Alcohol Policy Model</t>
+          <t>shared variance</t>
         </is>
       </c>
       <c r="C436" s="3" t="inlineStr"/>
@@ -17626,14 +17638,10 @@
       <c r="A437" s="3" t="inlineStr"/>
       <c r="B437" s="3" t="inlineStr">
         <is>
-          <t>sickness absence register</t>
-        </is>
-      </c>
-      <c r="C437" s="3" t="inlineStr">
-        <is>
-          <t>A source of data on people about their history of sickness absence from work.</t>
-        </is>
-      </c>
+          <t>sheffield Alcohol Policy Model</t>
+        </is>
+      </c>
+      <c r="C437" s="3" t="inlineStr"/>
       <c r="D437" s="3" t="inlineStr"/>
       <c r="E437" s="3" t="inlineStr"/>
       <c r="F437" s="3" t="inlineStr"/>
@@ -17667,10 +17675,14 @@
       <c r="A438" s="3" t="inlineStr"/>
       <c r="B438" s="3" t="inlineStr">
         <is>
-          <t>signal processing technique</t>
-        </is>
-      </c>
-      <c r="C438" s="3" t="inlineStr"/>
+          <t>sickness absence register</t>
+        </is>
+      </c>
+      <c r="C438" s="3" t="inlineStr">
+        <is>
+          <t>A source of data on people about their history of sickness absence from work.</t>
+        </is>
+      </c>
       <c r="D438" s="3" t="inlineStr"/>
       <c r="E438" s="3" t="inlineStr"/>
       <c r="F438" s="3" t="inlineStr"/>
@@ -17704,7 +17716,7 @@
       <c r="A439" s="3" t="inlineStr"/>
       <c r="B439" s="3" t="inlineStr">
         <is>
-          <t>significant association</t>
+          <t>signal processing technique</t>
         </is>
       </c>
       <c r="C439" s="3" t="inlineStr"/>
@@ -17741,7 +17753,7 @@
       <c r="A440" s="3" t="inlineStr"/>
       <c r="B440" s="3" t="inlineStr">
         <is>
-          <t>significant difference</t>
+          <t>significant association</t>
         </is>
       </c>
       <c r="C440" s="3" t="inlineStr"/>
@@ -17778,7 +17790,7 @@
       <c r="A441" s="3" t="inlineStr"/>
       <c r="B441" s="3" t="inlineStr">
         <is>
-          <t>significant increase</t>
+          <t>significant difference</t>
         </is>
       </c>
       <c r="C441" s="3" t="inlineStr"/>
@@ -17815,7 +17827,7 @@
       <c r="A442" s="3" t="inlineStr"/>
       <c r="B442" s="3" t="inlineStr">
         <is>
-          <t>simulated demand procedure</t>
+          <t>significant increase</t>
         </is>
       </c>
       <c r="C442" s="3" t="inlineStr"/>
@@ -17849,32 +17861,16 @@
       <c r="S442" s="3" t="inlineStr"/>
     </row>
     <row r="443">
-      <c r="A443" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000171</t>
-        </is>
-      </c>
+      <c r="A443" s="3" t="inlineStr"/>
       <c r="B443" s="3" t="inlineStr">
         <is>
-          <t>simulated population</t>
-        </is>
-      </c>
-      <c r="C443" s="3" t="inlineStr">
-        <is>
-          <t>An information content entity that represents attributes of a population for the purposes of modelling processes or outcomes in that population.</t>
-        </is>
-      </c>
+          <t>simulated demand procedure</t>
+        </is>
+      </c>
+      <c r="C443" s="3" t="inlineStr"/>
       <c r="D443" s="3" t="inlineStr"/>
-      <c r="E443" s="3" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="F443" s="3" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+      <c r="E443" s="3" t="inlineStr"/>
+      <c r="F443" s="3" t="inlineStr"/>
       <c r="G443" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17902,16 +17898,32 @@
       <c r="S443" s="3" t="inlineStr"/>
     </row>
     <row r="444">
-      <c r="A444" s="3" t="inlineStr"/>
+      <c r="A444" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000171</t>
+        </is>
+      </c>
       <c r="B444" s="3" t="inlineStr">
         <is>
-          <t>single-site study</t>
-        </is>
-      </c>
-      <c r="C444" s="3" t="inlineStr"/>
+          <t>simulated population</t>
+        </is>
+      </c>
+      <c r="C444" s="3" t="inlineStr">
+        <is>
+          <t>An information content entity that represents attributes of a population for the purposes of modelling processes or outcomes in that population.</t>
+        </is>
+      </c>
       <c r="D444" s="3" t="inlineStr"/>
-      <c r="E444" s="3" t="inlineStr"/>
-      <c r="F444" s="3" t="inlineStr"/>
+      <c r="E444" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="F444" s="3" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="G444" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -17942,7 +17954,7 @@
       <c r="A445" s="3" t="inlineStr"/>
       <c r="B445" s="3" t="inlineStr">
         <is>
-          <t>slope and step change coefficient</t>
+          <t>single-site study</t>
         </is>
       </c>
       <c r="C445" s="3" t="inlineStr"/>
@@ -17979,7 +17991,7 @@
       <c r="A446" s="3" t="inlineStr"/>
       <c r="B446" s="3" t="inlineStr">
         <is>
-          <t>smoking Toolkit Study</t>
+          <t>slope and step change coefficient</t>
         </is>
       </c>
       <c r="C446" s="3" t="inlineStr"/>
@@ -18016,7 +18028,7 @@
       <c r="A447" s="3" t="inlineStr"/>
       <c r="B447" s="3" t="inlineStr">
         <is>
-          <t>smoking cessation treatment trial</t>
+          <t>smoking Toolkit Study</t>
         </is>
       </c>
       <c r="C447" s="3" t="inlineStr"/>
@@ -18053,7 +18065,7 @@
       <c r="A448" s="3" t="inlineStr"/>
       <c r="B448" s="3" t="inlineStr">
         <is>
-          <t>smoking cessation trial</t>
+          <t>smoking cessation treatment trial</t>
         </is>
       </c>
       <c r="C448" s="3" t="inlineStr"/>
@@ -18090,7 +18102,7 @@
       <c r="A449" s="3" t="inlineStr"/>
       <c r="B449" s="3" t="inlineStr">
         <is>
-          <t>socio-economic index for area of residence</t>
+          <t>smoking cessation trial</t>
         </is>
       </c>
       <c r="C449" s="3" t="inlineStr"/>
@@ -18127,7 +18139,7 @@
       <c r="A450" s="3" t="inlineStr"/>
       <c r="B450" s="3" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>socio-economic index for area of residence</t>
         </is>
       </c>
       <c r="C450" s="3" t="inlineStr"/>
@@ -18141,11 +18153,7 @@
       </c>
       <c r="H450" s="3" t="inlineStr"/>
       <c r="I450" s="3" t="inlineStr"/>
-      <c r="J450" s="3" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
+      <c r="J450" s="3" t="inlineStr"/>
       <c r="K450" s="3" t="inlineStr"/>
       <c r="L450" s="3" t="inlineStr"/>
       <c r="M450" s="3" t="n">
@@ -18168,7 +18176,7 @@
       <c r="A451" s="3" t="inlineStr"/>
       <c r="B451" s="3" t="inlineStr">
         <is>
-          <t>standard drinks per day</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="C451" s="3" t="inlineStr"/>
@@ -18182,7 +18190,11 @@
       </c>
       <c r="H451" s="3" t="inlineStr"/>
       <c r="I451" s="3" t="inlineStr"/>
-      <c r="J451" s="3" t="inlineStr"/>
+      <c r="J451" s="3" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
       <c r="K451" s="3" t="inlineStr"/>
       <c r="L451" s="3" t="inlineStr"/>
       <c r="M451" s="3" t="n">
@@ -18205,7 +18217,7 @@
       <c r="A452" s="3" t="inlineStr"/>
       <c r="B452" s="3" t="inlineStr">
         <is>
-          <t>standardised questionnaire</t>
+          <t>standard drinks per day</t>
         </is>
       </c>
       <c r="C452" s="3" t="inlineStr"/>
@@ -18223,7 +18235,7 @@
       <c r="K452" s="3" t="inlineStr"/>
       <c r="L452" s="3" t="inlineStr"/>
       <c r="M452" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N452" s="3" t="n">
         <v>0</v>
@@ -18242,7 +18254,7 @@
       <c r="A453" s="3" t="inlineStr"/>
       <c r="B453" s="3" t="inlineStr">
         <is>
-          <t>standardised regression coefficient</t>
+          <t>standardised questionnaire</t>
         </is>
       </c>
       <c r="C453" s="3" t="inlineStr"/>
@@ -18260,7 +18272,7 @@
       <c r="K453" s="3" t="inlineStr"/>
       <c r="L453" s="3" t="inlineStr"/>
       <c r="M453" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N453" s="3" t="n">
         <v>0</v>
@@ -18279,7 +18291,7 @@
       <c r="A454" s="3" t="inlineStr"/>
       <c r="B454" s="3" t="inlineStr">
         <is>
-          <t>standardized data capture</t>
+          <t>standardised regression coefficient</t>
         </is>
       </c>
       <c r="C454" s="3" t="inlineStr"/>
@@ -18313,100 +18325,100 @@
       <c r="S454" s="3" t="inlineStr"/>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="inlineStr">
+      <c r="A455" s="3" t="inlineStr"/>
+      <c r="B455" s="3" t="inlineStr">
+        <is>
+          <t>standardized data capture</t>
+        </is>
+      </c>
+      <c r="C455" s="3" t="inlineStr"/>
+      <c r="D455" s="3" t="inlineStr"/>
+      <c r="E455" s="3" t="inlineStr"/>
+      <c r="F455" s="3" t="inlineStr"/>
+      <c r="G455" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H455" s="3" t="inlineStr"/>
+      <c r="I455" s="3" t="inlineStr"/>
+      <c r="J455" s="3" t="inlineStr"/>
+      <c r="K455" s="3" t="inlineStr"/>
+      <c r="L455" s="3" t="inlineStr"/>
+      <c r="M455" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N455" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O455" s="3" t="inlineStr"/>
+      <c r="P455" s="3" t="inlineStr"/>
+      <c r="Q455" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R455" s="3" t="inlineStr"/>
+      <c r="S455" s="3" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000156</t>
         </is>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>start of follow-up period</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>The process boundary at the beginning of a follow-up period.</t>
         </is>
       </c>
-      <c r="D455" s="2" t="inlineStr"/>
-      <c r="E455" s="2" t="inlineStr">
+      <c r="D456" s="2" t="inlineStr"/>
+      <c r="E456" s="2" t="inlineStr">
         <is>
           <t>temporal start</t>
         </is>
       </c>
-      <c r="F455" s="2" t="inlineStr">
+      <c r="F456" s="2" t="inlineStr">
         <is>
           <t>Process boundary</t>
         </is>
       </c>
-      <c r="G455" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H455" s="2" t="inlineStr"/>
-      <c r="I455" s="2" t="inlineStr"/>
-      <c r="J455" s="2" t="inlineStr"/>
-      <c r="K455" s="2" t="inlineStr"/>
-      <c r="L455" s="2" t="inlineStr"/>
-      <c r="M455" s="2" t="n">
+      <c r="G456" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H456" s="2" t="inlineStr"/>
+      <c r="I456" s="2" t="inlineStr"/>
+      <c r="J456" s="2" t="inlineStr"/>
+      <c r="K456" s="2" t="inlineStr"/>
+      <c r="L456" s="2" t="inlineStr"/>
+      <c r="M456" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N455" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O455" s="2" t="inlineStr"/>
-      <c r="P455" s="2" t="inlineStr"/>
-      <c r="Q455" s="2" t="inlineStr">
+      <c r="N456" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O456" s="2" t="inlineStr"/>
+      <c r="P456" s="2" t="inlineStr"/>
+      <c r="Q456" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R455" s="2" t="inlineStr"/>
-      <c r="S455" s="2" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="3" t="inlineStr"/>
-      <c r="B456" s="3" t="inlineStr">
-        <is>
-          <t>state administrative record</t>
-        </is>
-      </c>
-      <c r="C456" s="3" t="inlineStr"/>
-      <c r="D456" s="3" t="inlineStr"/>
-      <c r="E456" s="3" t="inlineStr"/>
-      <c r="F456" s="3" t="inlineStr"/>
-      <c r="G456" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H456" s="3" t="inlineStr"/>
-      <c r="I456" s="3" t="inlineStr"/>
-      <c r="J456" s="3" t="inlineStr"/>
-      <c r="K456" s="3" t="inlineStr"/>
-      <c r="L456" s="3" t="inlineStr"/>
-      <c r="M456" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N456" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O456" s="3" t="inlineStr"/>
-      <c r="P456" s="3" t="inlineStr"/>
-      <c r="Q456" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R456" s="3" t="inlineStr"/>
-      <c r="S456" s="3" t="inlineStr"/>
+      <c r="R456" s="2" t="inlineStr"/>
+      <c r="S456" s="2" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="3" t="inlineStr"/>
       <c r="B457" s="3" t="inlineStr">
         <is>
-          <t>state transition model</t>
+          <t>state administrative record</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr"/>
@@ -18443,7 +18455,7 @@
       <c r="A458" s="3" t="inlineStr"/>
       <c r="B458" s="3" t="inlineStr">
         <is>
-          <t>state-level time-varying policy covariates</t>
+          <t>state transition model</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr"/>
@@ -18480,7 +18492,7 @@
       <c r="A459" s="3" t="inlineStr"/>
       <c r="B459" s="3" t="inlineStr">
         <is>
-          <t>statistical adjustment for covariates</t>
+          <t>state-level time-varying policy covariates</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr"/>
@@ -18517,7 +18529,7 @@
       <c r="A460" s="3" t="inlineStr"/>
       <c r="B460" s="3" t="inlineStr">
         <is>
-          <t>statistical adjustment for potential confounding variables</t>
+          <t>statistical adjustment for covariates</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr"/>
@@ -18554,7 +18566,7 @@
       <c r="A461" s="3" t="inlineStr"/>
       <c r="B461" s="3" t="inlineStr">
         <is>
-          <t>statistical interaction</t>
+          <t>statistical adjustment for potential confounding variables</t>
         </is>
       </c>
       <c r="C461" s="3" t="inlineStr"/>
@@ -18591,7 +18603,7 @@
       <c r="A462" s="3" t="inlineStr"/>
       <c r="B462" s="3" t="inlineStr">
         <is>
-          <t>statistically significant</t>
+          <t>statistical interaction</t>
         </is>
       </c>
       <c r="C462" s="3" t="inlineStr"/>
@@ -18628,7 +18640,7 @@
       <c r="A463" s="3" t="inlineStr"/>
       <c r="B463" s="3" t="inlineStr">
         <is>
-          <t>stepped-wedge study design</t>
+          <t>statistically significant</t>
         </is>
       </c>
       <c r="C463" s="3" t="inlineStr"/>
@@ -18665,7 +18677,7 @@
       <c r="A464" s="3" t="inlineStr"/>
       <c r="B464" s="3" t="inlineStr">
         <is>
-          <t>stratification</t>
+          <t>stepped-wedge study design</t>
         </is>
       </c>
       <c r="C464" s="3" t="inlineStr"/>
@@ -18702,7 +18714,7 @@
       <c r="A465" s="3" t="inlineStr"/>
       <c r="B465" s="3" t="inlineStr">
         <is>
-          <t>stratified sample</t>
+          <t>stratification</t>
         </is>
       </c>
       <c r="C465" s="3" t="inlineStr"/>
@@ -18739,7 +18751,7 @@
       <c r="A466" s="3" t="inlineStr"/>
       <c r="B466" s="3" t="inlineStr">
         <is>
-          <t>strength of association</t>
+          <t>stratified sample</t>
         </is>
       </c>
       <c r="C466" s="3" t="inlineStr"/>
@@ -18776,7 +18788,7 @@
       <c r="A467" s="3" t="inlineStr"/>
       <c r="B467" s="3" t="inlineStr">
         <is>
-          <t>strong evidence</t>
+          <t>strength of association</t>
         </is>
       </c>
       <c r="C467" s="3" t="inlineStr"/>
@@ -18813,7 +18825,7 @@
       <c r="A468" s="3" t="inlineStr"/>
       <c r="B468" s="3" t="inlineStr">
         <is>
-          <t>structural equation univariate and multivariate modeling</t>
+          <t>strong evidence</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr"/>
@@ -18850,7 +18862,7 @@
       <c r="A469" s="3" t="inlineStr"/>
       <c r="B469" s="3" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>structural equation univariate and multivariate modeling</t>
         </is>
       </c>
       <c r="C469" s="3" t="inlineStr"/>
@@ -18887,7 +18899,7 @@
       <c r="A470" s="3" t="inlineStr"/>
       <c r="B470" s="3" t="inlineStr">
         <is>
-          <t>study conclusion</t>
+          <t>study</t>
         </is>
       </c>
       <c r="C470" s="3" t="inlineStr"/>
@@ -18924,7 +18936,7 @@
       <c r="A471" s="3" t="inlineStr"/>
       <c r="B471" s="3" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>study conclusion</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr"/>
@@ -18961,7 +18973,7 @@
       <c r="A472" s="3" t="inlineStr"/>
       <c r="B472" s="3" t="inlineStr">
         <is>
-          <t>study group</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C472" s="3" t="inlineStr"/>
@@ -18998,7 +19010,7 @@
       <c r="A473" s="3" t="inlineStr"/>
       <c r="B473" s="3" t="inlineStr">
         <is>
-          <t>study medication</t>
+          <t>study group</t>
         </is>
       </c>
       <c r="C473" s="3" t="inlineStr"/>
@@ -19035,7 +19047,7 @@
       <c r="A474" s="3" t="inlineStr"/>
       <c r="B474" s="3" t="inlineStr">
         <is>
-          <t>study participation</t>
+          <t>study medication</t>
         </is>
       </c>
       <c r="C474" s="3" t="inlineStr"/>
@@ -19072,7 +19084,7 @@
       <c r="A475" s="3" t="inlineStr"/>
       <c r="B475" s="3" t="inlineStr">
         <is>
-          <t>study period</t>
+          <t>study participation</t>
         </is>
       </c>
       <c r="C475" s="3" t="inlineStr"/>
@@ -19109,7 +19121,7 @@
       <c r="A476" s="3" t="inlineStr"/>
       <c r="B476" s="3" t="inlineStr">
         <is>
-          <t>study preregistration</t>
+          <t>study period</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr"/>
@@ -19146,7 +19158,7 @@
       <c r="A477" s="3" t="inlineStr"/>
       <c r="B477" s="3" t="inlineStr">
         <is>
-          <t>study recruitment</t>
+          <t>study preregistration</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr"/>
@@ -19183,7 +19195,7 @@
       <c r="A478" s="3" t="inlineStr"/>
       <c r="B478" s="3" t="inlineStr">
         <is>
-          <t>study retention</t>
+          <t>study recruitment</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr"/>
@@ -19220,7 +19232,7 @@
       <c r="A479" s="3" t="inlineStr"/>
       <c r="B479" s="3" t="inlineStr">
         <is>
-          <t>subjective measure</t>
+          <t>study retention</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr"/>
@@ -19238,7 +19250,7 @@
       <c r="K479" s="3" t="inlineStr"/>
       <c r="L479" s="3" t="inlineStr"/>
       <c r="M479" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N479" s="3" t="n">
         <v>0</v>
@@ -19257,7 +19269,7 @@
       <c r="A480" s="3" t="inlineStr"/>
       <c r="B480" s="3" t="inlineStr">
         <is>
-          <t>subjective rating of side effect</t>
+          <t>subjective measure</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr"/>
@@ -19294,7 +19306,7 @@
       <c r="A481" s="3" t="inlineStr"/>
       <c r="B481" s="3" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>subjective rating of side effect</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr"/>
@@ -19312,7 +19324,7 @@
       <c r="K481" s="3" t="inlineStr"/>
       <c r="L481" s="3" t="inlineStr"/>
       <c r="M481" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N481" s="3" t="n">
         <v>0</v>
@@ -19331,7 +19343,7 @@
       <c r="A482" s="3" t="inlineStr"/>
       <c r="B482" s="3" t="inlineStr">
         <is>
-          <t>survey estimate</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr"/>
@@ -19368,7 +19380,7 @@
       <c r="A483" s="3" t="inlineStr"/>
       <c r="B483" s="3" t="inlineStr">
         <is>
-          <t>survey of substance use</t>
+          <t>survey estimate</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr"/>
@@ -19405,7 +19417,7 @@
       <c r="A484" s="3" t="inlineStr"/>
       <c r="B484" s="3" t="inlineStr">
         <is>
-          <t>survival analysis</t>
+          <t>survey of substance use</t>
         </is>
       </c>
       <c r="C484" s="3" t="inlineStr"/>
@@ -19442,7 +19454,7 @@
       <c r="A485" s="3" t="inlineStr"/>
       <c r="B485" s="3" t="inlineStr">
         <is>
-          <t>synergistic effect</t>
+          <t>survival analysis</t>
         </is>
       </c>
       <c r="C485" s="3" t="inlineStr"/>
@@ -19479,7 +19491,7 @@
       <c r="A486" s="3" t="inlineStr"/>
       <c r="B486" s="3" t="inlineStr">
         <is>
-          <t>synoptic review</t>
+          <t>synergistic effect</t>
         </is>
       </c>
       <c r="C486" s="3" t="inlineStr"/>
@@ -19516,7 +19528,7 @@
       <c r="A487" s="3" t="inlineStr"/>
       <c r="B487" s="3" t="inlineStr">
         <is>
-          <t>synthetic control group</t>
+          <t>synoptic review</t>
         </is>
       </c>
       <c r="C487" s="3" t="inlineStr"/>
@@ -19553,7 +19565,7 @@
       <c r="A488" s="3" t="inlineStr"/>
       <c r="B488" s="3" t="inlineStr">
         <is>
-          <t>systematic review</t>
+          <t>synthetic control group</t>
         </is>
       </c>
       <c r="C488" s="3" t="inlineStr"/>
@@ -19590,7 +19602,7 @@
       <c r="A489" s="3" t="inlineStr"/>
       <c r="B489" s="3" t="inlineStr">
         <is>
-          <t>tIDieR guidelines</t>
+          <t>systematic review</t>
         </is>
       </c>
       <c r="C489" s="3" t="inlineStr"/>
@@ -19627,7 +19639,7 @@
       <c r="A490" s="3" t="inlineStr"/>
       <c r="B490" s="3" t="inlineStr">
         <is>
-          <t>taxation data</t>
+          <t>tIDieR guidelines</t>
         </is>
       </c>
       <c r="C490" s="3" t="inlineStr"/>
@@ -19661,108 +19673,108 @@
       <c r="S490" s="3" t="inlineStr"/>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="inlineStr">
+      <c r="A491" s="3" t="inlineStr"/>
+      <c r="B491" s="3" t="inlineStr">
+        <is>
+          <t>taxation data</t>
+        </is>
+      </c>
+      <c r="C491" s="3" t="inlineStr"/>
+      <c r="D491" s="3" t="inlineStr"/>
+      <c r="E491" s="3" t="inlineStr"/>
+      <c r="F491" s="3" t="inlineStr"/>
+      <c r="G491" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H491" s="3" t="inlineStr"/>
+      <c r="I491" s="3" t="inlineStr"/>
+      <c r="J491" s="3" t="inlineStr"/>
+      <c r="K491" s="3" t="inlineStr"/>
+      <c r="L491" s="3" t="inlineStr"/>
+      <c r="M491" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N491" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O491" s="3" t="inlineStr"/>
+      <c r="P491" s="3" t="inlineStr"/>
+      <c r="Q491" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R491" s="3" t="inlineStr"/>
+      <c r="S491" s="3" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000157</t>
         </is>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>temporal start</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>The process boundary when a process or temporal region starts.</t>
         </is>
       </c>
-      <c r="D491" s="2" t="inlineStr">
+      <c r="D492" s="2" t="inlineStr">
         <is>
           <t>AFP:0003328</t>
         </is>
       </c>
-      <c r="E491" s="2" t="inlineStr">
+      <c r="E492" s="2" t="inlineStr">
         <is>
           <t>process boundary</t>
         </is>
       </c>
-      <c r="F491" s="2" t="inlineStr">
+      <c r="F492" s="2" t="inlineStr">
         <is>
           <t>Process boundary</t>
         </is>
       </c>
-      <c r="G491" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
+      <c r="G492" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
         <is>
           <t>Definition from AFP modified to include temporal region.</t>
         </is>
       </c>
-      <c r="I491" s="2" t="inlineStr"/>
-      <c r="J491" s="2" t="inlineStr"/>
-      <c r="K491" s="2" t="inlineStr"/>
-      <c r="L491" s="2" t="inlineStr"/>
-      <c r="M491" s="2" t="n">
+      <c r="I492" s="2" t="inlineStr"/>
+      <c r="J492" s="2" t="inlineStr"/>
+      <c r="K492" s="2" t="inlineStr"/>
+      <c r="L492" s="2" t="inlineStr"/>
+      <c r="M492" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N491" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O491" s="2" t="inlineStr"/>
-      <c r="P491" s="2" t="inlineStr"/>
-      <c r="Q491" s="2" t="inlineStr">
+      <c r="N492" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O492" s="2" t="inlineStr"/>
+      <c r="P492" s="2" t="inlineStr"/>
+      <c r="Q492" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R491" s="2" t="inlineStr"/>
-      <c r="S491" s="2" t="inlineStr"/>
-    </row>
-    <row r="492">
-      <c r="A492" s="3" t="inlineStr"/>
-      <c r="B492" s="3" t="inlineStr">
-        <is>
-          <t>tested association</t>
-        </is>
-      </c>
-      <c r="C492" s="3" t="inlineStr"/>
-      <c r="D492" s="3" t="inlineStr"/>
-      <c r="E492" s="3" t="inlineStr"/>
-      <c r="F492" s="3" t="inlineStr"/>
-      <c r="G492" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H492" s="3" t="inlineStr"/>
-      <c r="I492" s="3" t="inlineStr"/>
-      <c r="J492" s="3" t="inlineStr"/>
-      <c r="K492" s="3" t="inlineStr"/>
-      <c r="L492" s="3" t="inlineStr"/>
-      <c r="M492" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N492" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O492" s="3" t="inlineStr"/>
-      <c r="P492" s="3" t="inlineStr"/>
-      <c r="Q492" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R492" s="3" t="inlineStr"/>
-      <c r="S492" s="3" t="inlineStr"/>
+      <c r="R492" s="2" t="inlineStr"/>
+      <c r="S492" s="2" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="3" t="inlineStr"/>
       <c r="B493" s="3" t="inlineStr">
         <is>
-          <t>thematic analysis</t>
+          <t>tested association</t>
         </is>
       </c>
       <c r="C493" s="3" t="inlineStr"/>
@@ -19799,7 +19811,7 @@
       <c r="A494" s="3" t="inlineStr"/>
       <c r="B494" s="3" t="inlineStr">
         <is>
-          <t>theory of the collectivity of drinking cultures</t>
+          <t>thematic analysis</t>
         </is>
       </c>
       <c r="C494" s="3" t="inlineStr"/>
@@ -19836,7 +19848,7 @@
       <c r="A495" s="3" t="inlineStr"/>
       <c r="B495" s="3" t="inlineStr">
         <is>
-          <t>time series analysis</t>
+          <t>theory of the collectivity of drinking cultures</t>
         </is>
       </c>
       <c r="C495" s="3" t="inlineStr"/>
@@ -19873,7 +19885,7 @@
       <c r="A496" s="3" t="inlineStr"/>
       <c r="B496" s="3" t="inlineStr">
         <is>
-          <t>time series study design</t>
+          <t>time series analysis</t>
         </is>
       </c>
       <c r="C496" s="3" t="inlineStr"/>
@@ -19910,7 +19922,7 @@
       <c r="A497" s="3" t="inlineStr"/>
       <c r="B497" s="3" t="inlineStr">
         <is>
-          <t>time-dependent covariate</t>
+          <t>time series study design</t>
         </is>
       </c>
       <c r="C497" s="3" t="inlineStr"/>
@@ -19947,7 +19959,7 @@
       <c r="A498" s="3" t="inlineStr"/>
       <c r="B498" s="3" t="inlineStr">
         <is>
-          <t>time-dependent urine toxicology</t>
+          <t>time-dependent covariate</t>
         </is>
       </c>
       <c r="C498" s="3" t="inlineStr"/>
@@ -19984,7 +19996,7 @@
       <c r="A499" s="3" t="inlineStr"/>
       <c r="B499" s="3" t="inlineStr">
         <is>
-          <t>time-series analysis</t>
+          <t>time-dependent urine toxicology</t>
         </is>
       </c>
       <c r="C499" s="3" t="inlineStr"/>
@@ -20021,7 +20033,7 @@
       <c r="A500" s="3" t="inlineStr"/>
       <c r="B500" s="3" t="inlineStr">
         <is>
-          <t>tobacco demand indicator</t>
+          <t>time-series analysis</t>
         </is>
       </c>
       <c r="C500" s="3" t="inlineStr"/>
@@ -20055,35 +20067,19 @@
       <c r="S500" s="3" t="inlineStr"/>
     </row>
     <row r="501">
-      <c r="A501" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000180</t>
-        </is>
-      </c>
+      <c r="A501" s="3" t="inlineStr"/>
       <c r="B501" s="3" t="inlineStr">
         <is>
-          <t>tobacco industry funding</t>
-        </is>
-      </c>
-      <c r="C501" s="3" t="inlineStr">
-        <is>
-          <t>Funding that originates from one or more tobacco companies.</t>
-        </is>
-      </c>
+          <t>tobacco demand indicator</t>
+        </is>
+      </c>
+      <c r="C501" s="3" t="inlineStr"/>
       <c r="D501" s="3" t="inlineStr"/>
-      <c r="E501" s="3" t="inlineStr">
-        <is>
-          <t>funding</t>
-        </is>
-      </c>
-      <c r="F501" s="3" t="inlineStr">
-        <is>
-          <t>Generically Dependent Continuant</t>
-        </is>
-      </c>
+      <c r="E501" s="3" t="inlineStr"/>
+      <c r="F501" s="3" t="inlineStr"/>
       <c r="G501" s="3" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>Research activity</t>
         </is>
       </c>
       <c r="H501" s="3" t="inlineStr"/>
@@ -20092,7 +20088,7 @@
       <c r="K501" s="3" t="inlineStr"/>
       <c r="L501" s="3" t="inlineStr"/>
       <c r="M501" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N501" s="3" t="n">
         <v>0</v>
@@ -20108,19 +20104,35 @@
       <c r="S501" s="3" t="inlineStr"/>
     </row>
     <row r="502">
-      <c r="A502" s="3" t="inlineStr"/>
+      <c r="A502" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000180</t>
+        </is>
+      </c>
       <c r="B502" s="3" t="inlineStr">
         <is>
-          <t>tobacco industry funding of research</t>
-        </is>
-      </c>
-      <c r="C502" s="3" t="inlineStr"/>
+          <t>tobacco industry funding</t>
+        </is>
+      </c>
+      <c r="C502" s="3" t="inlineStr">
+        <is>
+          <t>Funding that originates from one or more tobacco companies.</t>
+        </is>
+      </c>
       <c r="D502" s="3" t="inlineStr"/>
-      <c r="E502" s="3" t="inlineStr"/>
-      <c r="F502" s="3" t="inlineStr"/>
+      <c r="E502" s="3" t="inlineStr">
+        <is>
+          <t>funding</t>
+        </is>
+      </c>
+      <c r="F502" s="3" t="inlineStr">
+        <is>
+          <t>Generically Dependent Continuant</t>